--- a/BackTest/2020-01-24 BackTest STEEM.xlsx
+++ b/BackTest/2020-01-24 BackTest STEEM.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M185"/>
+  <dimension ref="A1:M186"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -433,22 +433,22 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>195.9</v>
+        <v>193.9</v>
       </c>
       <c r="C2" t="n">
-        <v>196</v>
+        <v>195.5</v>
       </c>
       <c r="D2" t="n">
-        <v>196</v>
+        <v>195.5</v>
       </c>
       <c r="E2" t="n">
-        <v>195.9</v>
+        <v>193.9</v>
       </c>
       <c r="F2" t="n">
-        <v>589.343</v>
+        <v>156.9621</v>
       </c>
       <c r="G2" t="n">
-        <v>196.3583333333333</v>
+        <v>196.3549999999999</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>195.1</v>
+        <v>195.9</v>
       </c>
       <c r="C3" t="n">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D3" t="n">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E3" t="n">
-        <v>195.1</v>
+        <v>195.9</v>
       </c>
       <c r="F3" t="n">
-        <v>13.8979</v>
+        <v>589.343</v>
       </c>
       <c r="G3" t="n">
-        <v>196.3783333333333</v>
+        <v>196.3583333333333</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -503,22 +503,22 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>195</v>
+        <v>195.1</v>
       </c>
       <c r="C4" t="n">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="D4" t="n">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="E4" t="n">
-        <v>195</v>
+        <v>195.1</v>
       </c>
       <c r="F4" t="n">
-        <v>714.1848</v>
+        <v>13.8979</v>
       </c>
       <c r="G4" t="n">
-        <v>196.3933333333333</v>
+        <v>196.3783333333333</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -538,22 +538,22 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
+        <v>195</v>
+      </c>
+      <c r="C5" t="n">
         <v>196</v>
       </c>
-      <c r="C5" t="n">
-        <v>197.5</v>
-      </c>
       <c r="D5" t="n">
-        <v>197.5</v>
+        <v>196</v>
       </c>
       <c r="E5" t="n">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="F5" t="n">
-        <v>125</v>
+        <v>714.1848</v>
       </c>
       <c r="G5" t="n">
-        <v>196.4333333333333</v>
+        <v>196.3933333333333</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -573,22 +573,22 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>196.1</v>
+        <v>196</v>
       </c>
       <c r="C6" t="n">
-        <v>198</v>
+        <v>197.5</v>
       </c>
       <c r="D6" t="n">
-        <v>198</v>
+        <v>197.5</v>
       </c>
       <c r="E6" t="n">
-        <v>196.1</v>
+        <v>196</v>
       </c>
       <c r="F6" t="n">
-        <v>154.8711</v>
+        <v>125</v>
       </c>
       <c r="G6" t="n">
-        <v>196.4799999999999</v>
+        <v>196.4333333333333</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -608,22 +608,22 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
+        <v>196.1</v>
+      </c>
+      <c r="C7" t="n">
         <v>198</v>
       </c>
-      <c r="C7" t="n">
-        <v>198.7</v>
-      </c>
       <c r="D7" t="n">
-        <v>198.7</v>
+        <v>198</v>
       </c>
       <c r="E7" t="n">
-        <v>198</v>
+        <v>196.1</v>
       </c>
       <c r="F7" t="n">
-        <v>3540</v>
+        <v>154.8711</v>
       </c>
       <c r="G7" t="n">
-        <v>196.5399999999999</v>
+        <v>196.4799999999999</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -643,7 +643,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>198.7</v>
+        <v>198</v>
       </c>
       <c r="C8" t="n">
         <v>198.7</v>
@@ -652,13 +652,13 @@
         <v>198.7</v>
       </c>
       <c r="E8" t="n">
-        <v>198.7</v>
+        <v>198</v>
       </c>
       <c r="F8" t="n">
-        <v>11011.203</v>
+        <v>3540</v>
       </c>
       <c r="G8" t="n">
-        <v>196.5749999999999</v>
+        <v>196.5399999999999</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -678,19 +678,19 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>196.6</v>
+        <v>198.7</v>
       </c>
       <c r="C9" t="n">
-        <v>196.6</v>
+        <v>198.7</v>
       </c>
       <c r="D9" t="n">
-        <v>196.6</v>
+        <v>198.7</v>
       </c>
       <c r="E9" t="n">
-        <v>196.6</v>
+        <v>198.7</v>
       </c>
       <c r="F9" t="n">
-        <v>364</v>
+        <v>11011.203</v>
       </c>
       <c r="G9" t="n">
         <v>196.5749999999999</v>
@@ -716,16 +716,16 @@
         <v>196.6</v>
       </c>
       <c r="C10" t="n">
-        <v>195.2</v>
+        <v>196.6</v>
       </c>
       <c r="D10" t="n">
         <v>196.6</v>
       </c>
       <c r="E10" t="n">
-        <v>195.2</v>
+        <v>196.6</v>
       </c>
       <c r="F10" t="n">
-        <v>9889.360000000001</v>
+        <v>364</v>
       </c>
       <c r="G10" t="n">
         <v>196.5749999999999</v>
@@ -748,22 +748,22 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
+        <v>196.6</v>
+      </c>
+      <c r="C11" t="n">
         <v>195.2</v>
       </c>
-      <c r="C11" t="n">
-        <v>196</v>
-      </c>
       <c r="D11" t="n">
-        <v>196</v>
+        <v>196.6</v>
       </c>
       <c r="E11" t="n">
         <v>195.2</v>
       </c>
       <c r="F11" t="n">
-        <v>2742.427</v>
+        <v>9889.360000000001</v>
       </c>
       <c r="G11" t="n">
-        <v>196.5633333333332</v>
+        <v>196.5749999999999</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -786,19 +786,19 @@
         <v>195.2</v>
       </c>
       <c r="C12" t="n">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="D12" t="n">
+        <v>196</v>
+      </c>
+      <c r="E12" t="n">
         <v>195.2</v>
       </c>
-      <c r="E12" t="n">
-        <v>195</v>
-      </c>
       <c r="F12" t="n">
-        <v>17045.9414</v>
+        <v>2742.427</v>
       </c>
       <c r="G12" t="n">
-        <v>196.5316666666666</v>
+        <v>196.5633333333332</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -818,22 +818,22 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>193.9</v>
+        <v>195.2</v>
       </c>
       <c r="C13" t="n">
-        <v>193.9</v>
+        <v>195</v>
       </c>
       <c r="D13" t="n">
-        <v>193.9</v>
+        <v>195.2</v>
       </c>
       <c r="E13" t="n">
-        <v>193.9</v>
+        <v>195</v>
       </c>
       <c r="F13" t="n">
-        <v>6156</v>
+        <v>17045.9414</v>
       </c>
       <c r="G13" t="n">
-        <v>196.5099999999999</v>
+        <v>196.5316666666666</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -853,22 +853,22 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>194</v>
+        <v>193.9</v>
       </c>
       <c r="C14" t="n">
-        <v>194</v>
+        <v>193.9</v>
       </c>
       <c r="D14" t="n">
-        <v>194</v>
+        <v>193.9</v>
       </c>
       <c r="E14" t="n">
-        <v>194</v>
+        <v>193.9</v>
       </c>
       <c r="F14" t="n">
-        <v>45</v>
+        <v>6156</v>
       </c>
       <c r="G14" t="n">
-        <v>196.4899999999999</v>
+        <v>196.5099999999999</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -900,10 +900,10 @@
         <v>194</v>
       </c>
       <c r="F15" t="n">
-        <v>541</v>
+        <v>45</v>
       </c>
       <c r="G15" t="n">
-        <v>196.4716666666666</v>
+        <v>196.4899999999999</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -935,10 +935,10 @@
         <v>194</v>
       </c>
       <c r="F16" t="n">
-        <v>1010.4349</v>
+        <v>541</v>
       </c>
       <c r="G16" t="n">
-        <v>196.4233333333332</v>
+        <v>196.4716666666666</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -970,10 +970,10 @@
         <v>194</v>
       </c>
       <c r="F17" t="n">
-        <v>471.849</v>
+        <v>1010.4349</v>
       </c>
       <c r="G17" t="n">
-        <v>196.3749999999999</v>
+        <v>196.4233333333332</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -993,22 +993,22 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>194.7</v>
+        <v>194</v>
       </c>
       <c r="C18" t="n">
-        <v>194.7</v>
+        <v>194</v>
       </c>
       <c r="D18" t="n">
-        <v>194.7</v>
+        <v>194</v>
       </c>
       <c r="E18" t="n">
-        <v>194.7</v>
+        <v>194</v>
       </c>
       <c r="F18" t="n">
-        <v>267</v>
+        <v>471.849</v>
       </c>
       <c r="G18" t="n">
-        <v>196.3683333333333</v>
+        <v>196.3749999999999</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1028,22 +1028,22 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>194.6</v>
+        <v>194.7</v>
       </c>
       <c r="C19" t="n">
-        <v>194.6</v>
+        <v>194.7</v>
       </c>
       <c r="D19" t="n">
-        <v>194.6</v>
+        <v>194.7</v>
       </c>
       <c r="E19" t="n">
-        <v>194.6</v>
+        <v>194.7</v>
       </c>
       <c r="F19" t="n">
-        <v>1545.8041</v>
+        <v>267</v>
       </c>
       <c r="G19" t="n">
-        <v>196.3599999999999</v>
+        <v>196.3683333333333</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1066,19 +1066,19 @@
         <v>194.6</v>
       </c>
       <c r="C20" t="n">
-        <v>194.5</v>
+        <v>194.6</v>
       </c>
       <c r="D20" t="n">
         <v>194.6</v>
       </c>
       <c r="E20" t="n">
-        <v>194.5</v>
+        <v>194.6</v>
       </c>
       <c r="F20" t="n">
-        <v>4260</v>
+        <v>1545.8041</v>
       </c>
       <c r="G20" t="n">
-        <v>196.3499999999999</v>
+        <v>196.3599999999999</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1098,22 +1098,22 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>195</v>
+        <v>194.6</v>
       </c>
       <c r="C21" t="n">
-        <v>195</v>
+        <v>194.5</v>
       </c>
       <c r="D21" t="n">
-        <v>195</v>
+        <v>194.6</v>
       </c>
       <c r="E21" t="n">
-        <v>195</v>
+        <v>194.5</v>
       </c>
       <c r="F21" t="n">
-        <v>3400.6357</v>
+        <v>4260</v>
       </c>
       <c r="G21" t="n">
-        <v>196.3183333333332</v>
+        <v>196.3499999999999</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -1145,10 +1145,10 @@
         <v>195</v>
       </c>
       <c r="F22" t="n">
-        <v>1916.7573</v>
+        <v>3400.6357</v>
       </c>
       <c r="G22" t="n">
-        <v>196.2999999999999</v>
+        <v>196.3183333333332</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -1171,19 +1171,19 @@
         <v>195</v>
       </c>
       <c r="C23" t="n">
-        <v>193.2</v>
+        <v>195</v>
       </c>
       <c r="D23" t="n">
         <v>195</v>
       </c>
       <c r="E23" t="n">
-        <v>193.2</v>
+        <v>195</v>
       </c>
       <c r="F23" t="n">
-        <v>7000</v>
+        <v>1916.7573</v>
       </c>
       <c r="G23" t="n">
-        <v>196.2366666666666</v>
+        <v>196.2999999999999</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -1203,22 +1203,22 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>193.2</v>
+        <v>195</v>
       </c>
       <c r="C24" t="n">
         <v>193.2</v>
       </c>
       <c r="D24" t="n">
-        <v>193.2</v>
+        <v>195</v>
       </c>
       <c r="E24" t="n">
         <v>193.2</v>
       </c>
       <c r="F24" t="n">
-        <v>7809.396</v>
+        <v>7000</v>
       </c>
       <c r="G24" t="n">
-        <v>196.1733333333333</v>
+        <v>196.2366666666666</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -1238,22 +1238,22 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>192.5</v>
+        <v>193.2</v>
       </c>
       <c r="C25" t="n">
-        <v>192.5</v>
+        <v>193.2</v>
       </c>
       <c r="D25" t="n">
-        <v>194</v>
+        <v>193.2</v>
       </c>
       <c r="E25" t="n">
-        <v>192.5</v>
+        <v>193.2</v>
       </c>
       <c r="F25" t="n">
-        <v>6724.1806</v>
+        <v>7809.396</v>
       </c>
       <c r="G25" t="n">
-        <v>196.0833333333333</v>
+        <v>196.1733333333333</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -1273,22 +1273,22 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>193</v>
+        <v>192.5</v>
       </c>
       <c r="C26" t="n">
         <v>192.5</v>
       </c>
       <c r="D26" t="n">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="E26" t="n">
         <v>192.5</v>
       </c>
       <c r="F26" t="n">
-        <v>23417.353</v>
+        <v>6724.1806</v>
       </c>
       <c r="G26" t="n">
-        <v>195.9816666666666</v>
+        <v>196.0833333333333</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -1308,22 +1308,22 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>192.1</v>
+        <v>193</v>
       </c>
       <c r="C27" t="n">
-        <v>192.1</v>
+        <v>192.5</v>
       </c>
       <c r="D27" t="n">
-        <v>192.1</v>
+        <v>193</v>
       </c>
       <c r="E27" t="n">
-        <v>192.1</v>
+        <v>192.5</v>
       </c>
       <c r="F27" t="n">
-        <v>1868.8707</v>
+        <v>23417.353</v>
       </c>
       <c r="G27" t="n">
-        <v>195.8799999999999</v>
+        <v>195.9816666666666</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -1343,22 +1343,22 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>192</v>
+        <v>192.1</v>
       </c>
       <c r="C28" t="n">
-        <v>192</v>
+        <v>192.1</v>
       </c>
       <c r="D28" t="n">
-        <v>192</v>
+        <v>192.1</v>
       </c>
       <c r="E28" t="n">
-        <v>192</v>
+        <v>192.1</v>
       </c>
       <c r="F28" t="n">
-        <v>7502.1906</v>
+        <v>1868.8707</v>
       </c>
       <c r="G28" t="n">
-        <v>195.7749999999999</v>
+        <v>195.8799999999999</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -1378,22 +1378,22 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>191.5</v>
+        <v>192</v>
       </c>
       <c r="C29" t="n">
-        <v>191.5</v>
+        <v>192</v>
       </c>
       <c r="D29" t="n">
-        <v>191.5</v>
+        <v>192</v>
       </c>
       <c r="E29" t="n">
-        <v>191.5</v>
+        <v>192</v>
       </c>
       <c r="F29" t="n">
-        <v>391.2127</v>
+        <v>7502.1906</v>
       </c>
       <c r="G29" t="n">
-        <v>195.6983333333333</v>
+        <v>195.7749999999999</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -1413,22 +1413,22 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>191.4</v>
+        <v>191.5</v>
       </c>
       <c r="C30" t="n">
-        <v>191</v>
+        <v>191.5</v>
       </c>
       <c r="D30" t="n">
-        <v>191.4</v>
+        <v>191.5</v>
       </c>
       <c r="E30" t="n">
-        <v>191</v>
+        <v>191.5</v>
       </c>
       <c r="F30" t="n">
-        <v>7152.0619</v>
+        <v>391.2127</v>
       </c>
       <c r="G30" t="n">
-        <v>195.6149999999999</v>
+        <v>195.6983333333333</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -1448,22 +1448,22 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
+        <v>191.4</v>
+      </c>
+      <c r="C31" t="n">
         <v>191</v>
       </c>
-      <c r="C31" t="n">
-        <v>190</v>
-      </c>
       <c r="D31" t="n">
+        <v>191.4</v>
+      </c>
+      <c r="E31" t="n">
         <v>191</v>
       </c>
-      <c r="E31" t="n">
-        <v>190</v>
-      </c>
       <c r="F31" t="n">
-        <v>8003.4763</v>
+        <v>7152.0619</v>
       </c>
       <c r="G31" t="n">
-        <v>195.5166666666666</v>
+        <v>195.6149999999999</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -1483,22 +1483,22 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C32" t="n">
         <v>190</v>
       </c>
       <c r="D32" t="n">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="E32" t="n">
         <v>190</v>
       </c>
       <c r="F32" t="n">
-        <v>2293.2974</v>
+        <v>8003.4763</v>
       </c>
       <c r="G32" t="n">
-        <v>195.4016666666666</v>
+        <v>195.5166666666666</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -1530,10 +1530,10 @@
         <v>190</v>
       </c>
       <c r="F33" t="n">
-        <v>1000</v>
+        <v>2293.2974</v>
       </c>
       <c r="G33" t="n">
-        <v>195.3016666666666</v>
+        <v>195.4016666666666</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -1565,10 +1565,10 @@
         <v>190</v>
       </c>
       <c r="F34" t="n">
-        <v>71</v>
+        <v>1000</v>
       </c>
       <c r="G34" t="n">
-        <v>195.17</v>
+        <v>195.3016666666666</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -1588,22 +1588,22 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>190.2</v>
+        <v>190</v>
       </c>
       <c r="C35" t="n">
-        <v>190.2</v>
+        <v>190</v>
       </c>
       <c r="D35" t="n">
-        <v>190.2</v>
+        <v>190</v>
       </c>
       <c r="E35" t="n">
-        <v>190.2</v>
+        <v>190</v>
       </c>
       <c r="F35" t="n">
-        <v>161.545</v>
+        <v>71</v>
       </c>
       <c r="G35" t="n">
-        <v>195.0733333333333</v>
+        <v>195.17</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -1623,22 +1623,22 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>190.3</v>
+        <v>190.2</v>
       </c>
       <c r="C36" t="n">
-        <v>190.3</v>
+        <v>190.2</v>
       </c>
       <c r="D36" t="n">
-        <v>190.3</v>
+        <v>190.2</v>
       </c>
       <c r="E36" t="n">
-        <v>190.3</v>
+        <v>190.2</v>
       </c>
       <c r="F36" t="n">
-        <v>377.1786</v>
+        <v>161.545</v>
       </c>
       <c r="G36" t="n">
-        <v>194.9466666666666</v>
+        <v>195.0733333333333</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -1658,22 +1658,22 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>191</v>
+        <v>190.3</v>
       </c>
       <c r="C37" t="n">
-        <v>190</v>
+        <v>190.3</v>
       </c>
       <c r="D37" t="n">
-        <v>191</v>
+        <v>190.3</v>
       </c>
       <c r="E37" t="n">
-        <v>190</v>
+        <v>190.3</v>
       </c>
       <c r="F37" t="n">
-        <v>1500</v>
+        <v>377.1786</v>
       </c>
       <c r="G37" t="n">
-        <v>194.815</v>
+        <v>194.9466666666666</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -1693,10 +1693,10 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
+        <v>191</v>
+      </c>
+      <c r="C38" t="n">
         <v>190</v>
-      </c>
-      <c r="C38" t="n">
-        <v>191</v>
       </c>
       <c r="D38" t="n">
         <v>191</v>
@@ -1705,10 +1705,10 @@
         <v>190</v>
       </c>
       <c r="F38" t="n">
-        <v>192.7404</v>
+        <v>1500</v>
       </c>
       <c r="G38" t="n">
-        <v>194.7</v>
+        <v>194.815</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -1728,22 +1728,22 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
+        <v>190</v>
+      </c>
+      <c r="C39" t="n">
         <v>191</v>
-      </c>
-      <c r="C39" t="n">
-        <v>188.7</v>
       </c>
       <c r="D39" t="n">
         <v>191</v>
       </c>
       <c r="E39" t="n">
-        <v>188.7</v>
+        <v>190</v>
       </c>
       <c r="F39" t="n">
-        <v>8569.6072</v>
+        <v>192.7404</v>
       </c>
       <c r="G39" t="n">
-        <v>194.5466666666667</v>
+        <v>194.7</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -1763,22 +1763,22 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>188.8</v>
+        <v>191</v>
       </c>
       <c r="C40" t="n">
-        <v>188.8</v>
+        <v>188.7</v>
       </c>
       <c r="D40" t="n">
-        <v>188.8</v>
+        <v>191</v>
       </c>
       <c r="E40" t="n">
-        <v>188.8</v>
+        <v>188.7</v>
       </c>
       <c r="F40" t="n">
-        <v>187</v>
+        <v>8569.6072</v>
       </c>
       <c r="G40" t="n">
-        <v>194.395</v>
+        <v>194.5466666666667</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -1798,22 +1798,22 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>190.8</v>
+        <v>188.8</v>
       </c>
       <c r="C41" t="n">
-        <v>190.8</v>
+        <v>188.8</v>
       </c>
       <c r="D41" t="n">
-        <v>190.8</v>
+        <v>188.8</v>
       </c>
       <c r="E41" t="n">
-        <v>190.8</v>
+        <v>188.8</v>
       </c>
       <c r="F41" t="n">
-        <v>6297.685</v>
+        <v>187</v>
       </c>
       <c r="G41" t="n">
-        <v>194.2766666666666</v>
+        <v>194.395</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -1833,22 +1833,22 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>190</v>
+        <v>190.8</v>
       </c>
       <c r="C42" t="n">
-        <v>189</v>
+        <v>190.8</v>
       </c>
       <c r="D42" t="n">
-        <v>190</v>
+        <v>190.8</v>
       </c>
       <c r="E42" t="n">
-        <v>189</v>
+        <v>190.8</v>
       </c>
       <c r="F42" t="n">
-        <v>195.57</v>
+        <v>6297.685</v>
       </c>
       <c r="G42" t="n">
-        <v>194.1283333333333</v>
+        <v>194.2766666666666</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -1868,22 +1868,22 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="C43" t="n">
         <v>189</v>
       </c>
       <c r="D43" t="n">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="E43" t="n">
         <v>189</v>
       </c>
       <c r="F43" t="n">
-        <v>125</v>
+        <v>195.57</v>
       </c>
       <c r="G43" t="n">
-        <v>193.9816666666667</v>
+        <v>194.1283333333333</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -1903,22 +1903,22 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="C44" t="n">
-        <v>191.6</v>
+        <v>189</v>
       </c>
       <c r="D44" t="n">
-        <v>191.6</v>
+        <v>189</v>
       </c>
       <c r="E44" t="n">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="F44" t="n">
-        <v>7000</v>
+        <v>125</v>
       </c>
       <c r="G44" t="n">
-        <v>193.8783333333334</v>
+        <v>193.9816666666667</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -1938,22 +1938,22 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
+        <v>191</v>
+      </c>
+      <c r="C45" t="n">
         <v>191.6</v>
-      </c>
-      <c r="C45" t="n">
-        <v>190</v>
       </c>
       <c r="D45" t="n">
         <v>191.6</v>
       </c>
       <c r="E45" t="n">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="F45" t="n">
-        <v>5540.1138</v>
+        <v>7000</v>
       </c>
       <c r="G45" t="n">
-        <v>193.79</v>
+        <v>193.8783333333334</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -1973,22 +1973,22 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
+        <v>191.6</v>
+      </c>
+      <c r="C46" t="n">
         <v>190</v>
       </c>
-      <c r="C46" t="n">
-        <v>191</v>
-      </c>
       <c r="D46" t="n">
-        <v>191</v>
+        <v>191.6</v>
       </c>
       <c r="E46" t="n">
         <v>190</v>
       </c>
       <c r="F46" t="n">
-        <v>13846.5879</v>
+        <v>5540.1138</v>
       </c>
       <c r="G46" t="n">
-        <v>193.7216666666667</v>
+        <v>193.79</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -2008,22 +2008,22 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C47" t="n">
         <v>191</v>
       </c>
       <c r="D47" t="n">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="E47" t="n">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="F47" t="n">
-        <v>2755.1094</v>
+        <v>13846.5879</v>
       </c>
       <c r="G47" t="n">
-        <v>193.6533333333333</v>
+        <v>193.7216666666667</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -2043,22 +2043,22 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C48" t="n">
-        <v>193.5</v>
+        <v>191</v>
       </c>
       <c r="D48" t="n">
-        <v>193.5</v>
+        <v>192</v>
       </c>
       <c r="E48" t="n">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="F48" t="n">
-        <v>368.7145</v>
+        <v>2755.1094</v>
       </c>
       <c r="G48" t="n">
-        <v>193.625</v>
+        <v>193.6533333333333</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -2078,22 +2078,22 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>190.1</v>
+        <v>190</v>
       </c>
       <c r="C49" t="n">
-        <v>189.1</v>
+        <v>193.5</v>
       </c>
       <c r="D49" t="n">
-        <v>190.1</v>
+        <v>193.5</v>
       </c>
       <c r="E49" t="n">
-        <v>189.1</v>
+        <v>190</v>
       </c>
       <c r="F49" t="n">
-        <v>7544.4752</v>
+        <v>368.7145</v>
       </c>
       <c r="G49" t="n">
-        <v>193.4833333333333</v>
+        <v>193.625</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -2113,22 +2113,22 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>193.1</v>
+        <v>190.1</v>
       </c>
       <c r="C50" t="n">
-        <v>193.1</v>
+        <v>189.1</v>
       </c>
       <c r="D50" t="n">
-        <v>193.1</v>
+        <v>190.1</v>
       </c>
       <c r="E50" t="n">
-        <v>193.1</v>
+        <v>189.1</v>
       </c>
       <c r="F50" t="n">
-        <v>3</v>
+        <v>7544.4752</v>
       </c>
       <c r="G50" t="n">
-        <v>193.41</v>
+        <v>193.4833333333333</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -2148,22 +2148,22 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>190</v>
+        <v>193.1</v>
       </c>
       <c r="C51" t="n">
-        <v>190</v>
+        <v>193.1</v>
       </c>
       <c r="D51" t="n">
-        <v>190</v>
+        <v>193.1</v>
       </c>
       <c r="E51" t="n">
-        <v>190</v>
+        <v>193.1</v>
       </c>
       <c r="F51" t="n">
-        <v>5966.6318</v>
+        <v>3</v>
       </c>
       <c r="G51" t="n">
-        <v>193.2833333333333</v>
+        <v>193.41</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -2183,22 +2183,22 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>191.9</v>
+        <v>190</v>
       </c>
       <c r="C52" t="n">
         <v>190</v>
       </c>
       <c r="D52" t="n">
-        <v>191.9</v>
+        <v>190</v>
       </c>
       <c r="E52" t="n">
         <v>190</v>
       </c>
       <c r="F52" t="n">
-        <v>443.7528</v>
+        <v>5966.6318</v>
       </c>
       <c r="G52" t="n">
-        <v>193.1566666666667</v>
+        <v>193.2833333333333</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -2221,19 +2221,19 @@
         <v>191.9</v>
       </c>
       <c r="C53" t="n">
-        <v>191.9</v>
+        <v>190</v>
       </c>
       <c r="D53" t="n">
         <v>191.9</v>
       </c>
       <c r="E53" t="n">
-        <v>191.9</v>
+        <v>190</v>
       </c>
       <c r="F53" t="n">
-        <v>3</v>
+        <v>443.7528</v>
       </c>
       <c r="G53" t="n">
-        <v>193.1016666666666</v>
+        <v>193.1566666666667</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -2253,22 +2253,22 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>190</v>
+        <v>191.9</v>
       </c>
       <c r="C54" t="n">
-        <v>190</v>
+        <v>191.9</v>
       </c>
       <c r="D54" t="n">
-        <v>190</v>
+        <v>191.9</v>
       </c>
       <c r="E54" t="n">
-        <v>190</v>
+        <v>191.9</v>
       </c>
       <c r="F54" t="n">
-        <v>169</v>
+        <v>3</v>
       </c>
       <c r="G54" t="n">
-        <v>192.975</v>
+        <v>193.1016666666666</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -2291,19 +2291,19 @@
         <v>190</v>
       </c>
       <c r="C55" t="n">
-        <v>191.9</v>
+        <v>190</v>
       </c>
       <c r="D55" t="n">
-        <v>191.9</v>
+        <v>190</v>
       </c>
       <c r="E55" t="n">
         <v>190</v>
       </c>
       <c r="F55" t="n">
-        <v>603.3353</v>
+        <v>169</v>
       </c>
       <c r="G55" t="n">
-        <v>192.9166666666666</v>
+        <v>192.975</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -2323,22 +2323,22 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
+        <v>190</v>
+      </c>
+      <c r="C56" t="n">
         <v>191.9</v>
-      </c>
-      <c r="C56" t="n">
-        <v>190.3</v>
       </c>
       <c r="D56" t="n">
         <v>191.9</v>
       </c>
       <c r="E56" t="n">
-        <v>190.3</v>
+        <v>190</v>
       </c>
       <c r="F56" t="n">
-        <v>9980.3194</v>
+        <v>603.3353</v>
       </c>
       <c r="G56" t="n">
-        <v>192.8316666666666</v>
+        <v>192.9166666666666</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -2358,22 +2358,22 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>193.4</v>
+        <v>191.9</v>
       </c>
       <c r="C57" t="n">
-        <v>193.4</v>
+        <v>190.3</v>
       </c>
       <c r="D57" t="n">
-        <v>193.4</v>
+        <v>191.9</v>
       </c>
       <c r="E57" t="n">
-        <v>193.4</v>
+        <v>190.3</v>
       </c>
       <c r="F57" t="n">
-        <v>3</v>
+        <v>9980.3194</v>
       </c>
       <c r="G57" t="n">
-        <v>192.8033333333333</v>
+        <v>192.8316666666666</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -2393,22 +2393,22 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>194.7</v>
+        <v>193.4</v>
       </c>
       <c r="C58" t="n">
-        <v>194.7</v>
+        <v>193.4</v>
       </c>
       <c r="D58" t="n">
-        <v>194.7</v>
+        <v>193.4</v>
       </c>
       <c r="E58" t="n">
-        <v>194.7</v>
+        <v>193.4</v>
       </c>
       <c r="F58" t="n">
         <v>3</v>
       </c>
       <c r="G58" t="n">
-        <v>192.8166666666666</v>
+        <v>192.8033333333333</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -2428,22 +2428,22 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>191</v>
+        <v>194.7</v>
       </c>
       <c r="C59" t="n">
-        <v>191</v>
+        <v>194.7</v>
       </c>
       <c r="D59" t="n">
-        <v>191</v>
+        <v>194.7</v>
       </c>
       <c r="E59" t="n">
-        <v>191</v>
+        <v>194.7</v>
       </c>
       <c r="F59" t="n">
-        <v>700.99</v>
+        <v>3</v>
       </c>
       <c r="G59" t="n">
-        <v>192.7683333333333</v>
+        <v>192.8166666666666</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -2463,22 +2463,22 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>192.5</v>
+        <v>191</v>
       </c>
       <c r="C60" t="n">
-        <v>192.5</v>
+        <v>191</v>
       </c>
       <c r="D60" t="n">
-        <v>192.5</v>
+        <v>191</v>
       </c>
       <c r="E60" t="n">
-        <v>192.5</v>
+        <v>191</v>
       </c>
       <c r="F60" t="n">
-        <v>3</v>
+        <v>700.99</v>
       </c>
       <c r="G60" t="n">
-        <v>192.745</v>
+        <v>192.7683333333333</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -2498,22 +2498,22 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>192.9</v>
+        <v>192.5</v>
       </c>
       <c r="C61" t="n">
-        <v>192.9</v>
+        <v>192.5</v>
       </c>
       <c r="D61" t="n">
-        <v>192.9</v>
+        <v>192.5</v>
       </c>
       <c r="E61" t="n">
-        <v>192.9</v>
+        <v>192.5</v>
       </c>
       <c r="F61" t="n">
         <v>3</v>
       </c>
       <c r="G61" t="n">
-        <v>192.7016666666667</v>
+        <v>192.745</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -2533,22 +2533,22 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>191</v>
+        <v>192.9</v>
       </c>
       <c r="C62" t="n">
-        <v>191</v>
+        <v>192.9</v>
       </c>
       <c r="D62" t="n">
-        <v>191</v>
+        <v>192.9</v>
       </c>
       <c r="E62" t="n">
-        <v>191</v>
+        <v>192.9</v>
       </c>
       <c r="F62" t="n">
-        <v>5700</v>
+        <v>3</v>
       </c>
       <c r="G62" t="n">
-        <v>192.6183333333333</v>
+        <v>192.7016666666667</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -2580,10 +2580,10 @@
         <v>191</v>
       </c>
       <c r="F63" t="n">
-        <v>7500</v>
+        <v>5700</v>
       </c>
       <c r="G63" t="n">
-        <v>192.5183333333333</v>
+        <v>192.6183333333333</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -2615,10 +2615,10 @@
         <v>191</v>
       </c>
       <c r="F64" t="n">
-        <v>2196.1326</v>
+        <v>7500</v>
       </c>
       <c r="G64" t="n">
-        <v>192.435</v>
+        <v>192.5183333333333</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -2650,10 +2650,10 @@
         <v>191</v>
       </c>
       <c r="F65" t="n">
-        <v>3092</v>
+        <v>2196.1326</v>
       </c>
       <c r="G65" t="n">
-        <v>192.3266666666667</v>
+        <v>192.435</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -2676,19 +2676,19 @@
         <v>191</v>
       </c>
       <c r="C66" t="n">
-        <v>192.4</v>
+        <v>191</v>
       </c>
       <c r="D66" t="n">
-        <v>192.4</v>
+        <v>191</v>
       </c>
       <c r="E66" t="n">
         <v>191</v>
       </c>
       <c r="F66" t="n">
-        <v>7673.2026</v>
+        <v>3092</v>
       </c>
       <c r="G66" t="n">
-        <v>192.2333333333333</v>
+        <v>192.3266666666667</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -2708,22 +2708,22 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>192.9</v>
+        <v>191</v>
       </c>
       <c r="C67" t="n">
-        <v>192.9</v>
+        <v>192.4</v>
       </c>
       <c r="D67" t="n">
-        <v>192.9</v>
+        <v>192.4</v>
       </c>
       <c r="E67" t="n">
-        <v>192.9</v>
+        <v>191</v>
       </c>
       <c r="F67" t="n">
-        <v>3</v>
+        <v>7673.2026</v>
       </c>
       <c r="G67" t="n">
-        <v>192.1366666666666</v>
+        <v>192.2333333333333</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -2743,22 +2743,22 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>191</v>
+        <v>192.9</v>
       </c>
       <c r="C68" t="n">
-        <v>191</v>
+        <v>192.9</v>
       </c>
       <c r="D68" t="n">
-        <v>191</v>
+        <v>192.9</v>
       </c>
       <c r="E68" t="n">
-        <v>191</v>
+        <v>192.9</v>
       </c>
       <c r="F68" t="n">
-        <v>65.90000000000001</v>
+        <v>3</v>
       </c>
       <c r="G68" t="n">
-        <v>192.0083333333333</v>
+        <v>192.1366666666666</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -2778,22 +2778,22 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>192.9</v>
+        <v>191</v>
       </c>
       <c r="C69" t="n">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D69" t="n">
-        <v>192.9</v>
+        <v>191</v>
       </c>
       <c r="E69" t="n">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="F69" t="n">
-        <v>8733.416499999999</v>
+        <v>65.90000000000001</v>
       </c>
       <c r="G69" t="n">
-        <v>191.9316666666666</v>
+        <v>192.0083333333333</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -2813,22 +2813,22 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>192</v>
+        <v>192.9</v>
       </c>
       <c r="C70" t="n">
         <v>192</v>
       </c>
       <c r="D70" t="n">
-        <v>192</v>
+        <v>192.9</v>
       </c>
       <c r="E70" t="n">
         <v>192</v>
       </c>
       <c r="F70" t="n">
-        <v>543.328</v>
+        <v>8733.416499999999</v>
       </c>
       <c r="G70" t="n">
-        <v>191.8783333333332</v>
+        <v>191.9316666666666</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -2860,10 +2860,10 @@
         <v>192</v>
       </c>
       <c r="F71" t="n">
-        <v>1477.2524</v>
+        <v>543.328</v>
       </c>
       <c r="G71" t="n">
-        <v>191.8116666666666</v>
+        <v>191.8783333333332</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -2883,22 +2883,22 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>192.9</v>
+        <v>192</v>
       </c>
       <c r="C72" t="n">
         <v>192</v>
       </c>
       <c r="D72" t="n">
-        <v>192.9</v>
+        <v>192</v>
       </c>
       <c r="E72" t="n">
         <v>192</v>
       </c>
       <c r="F72" t="n">
-        <v>946.7415999999999</v>
+        <v>1477.2524</v>
       </c>
       <c r="G72" t="n">
-        <v>191.7616666666666</v>
+        <v>191.8116666666666</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -2918,22 +2918,22 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>192</v>
+        <v>192.9</v>
       </c>
       <c r="C73" t="n">
         <v>192</v>
       </c>
       <c r="D73" t="n">
-        <v>192</v>
+        <v>192.9</v>
       </c>
       <c r="E73" t="n">
         <v>192</v>
       </c>
       <c r="F73" t="n">
-        <v>752.5667</v>
+        <v>946.7415999999999</v>
       </c>
       <c r="G73" t="n">
-        <v>191.7299999999999</v>
+        <v>191.7616666666666</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -2953,22 +2953,22 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>191.1</v>
+        <v>192</v>
       </c>
       <c r="C74" t="n">
-        <v>191.1</v>
+        <v>192</v>
       </c>
       <c r="D74" t="n">
-        <v>191.1</v>
+        <v>192</v>
       </c>
       <c r="E74" t="n">
-        <v>191.1</v>
+        <v>192</v>
       </c>
       <c r="F74" t="n">
-        <v>135.7691</v>
+        <v>752.5667</v>
       </c>
       <c r="G74" t="n">
-        <v>191.6816666666666</v>
+        <v>191.7299999999999</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -3000,10 +3000,10 @@
         <v>191.1</v>
       </c>
       <c r="F75" t="n">
-        <v>7780.4136</v>
+        <v>135.7691</v>
       </c>
       <c r="G75" t="n">
-        <v>191.6333333333333</v>
+        <v>191.6816666666666</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -3035,10 +3035,10 @@
         <v>191.1</v>
       </c>
       <c r="F76" t="n">
-        <v>199.7371</v>
+        <v>7780.4136</v>
       </c>
       <c r="G76" t="n">
-        <v>191.585</v>
+        <v>191.6333333333333</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -3058,22 +3058,22 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>192</v>
+        <v>191.1</v>
       </c>
       <c r="C77" t="n">
-        <v>192</v>
+        <v>191.1</v>
       </c>
       <c r="D77" t="n">
-        <v>192</v>
+        <v>191.1</v>
       </c>
       <c r="E77" t="n">
-        <v>192</v>
+        <v>191.1</v>
       </c>
       <c r="F77" t="n">
-        <v>69.5626</v>
+        <v>199.7371</v>
       </c>
       <c r="G77" t="n">
-        <v>191.5516666666666</v>
+        <v>191.585</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -3093,22 +3093,22 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="C78" t="n">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="D78" t="n">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="E78" t="n">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="F78" t="n">
-        <v>119.7373</v>
+        <v>69.5626</v>
       </c>
       <c r="G78" t="n">
-        <v>191.4899999999999</v>
+        <v>191.5516666666666</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -3128,22 +3128,22 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>191.3</v>
+        <v>191</v>
       </c>
       <c r="C79" t="n">
-        <v>191.3</v>
+        <v>191</v>
       </c>
       <c r="D79" t="n">
-        <v>191.3</v>
+        <v>191</v>
       </c>
       <c r="E79" t="n">
-        <v>191.3</v>
+        <v>191</v>
       </c>
       <c r="F79" t="n">
-        <v>38.9223</v>
+        <v>119.7373</v>
       </c>
       <c r="G79" t="n">
-        <v>191.4349999999999</v>
+        <v>191.4899999999999</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -3175,10 +3175,10 @@
         <v>191.3</v>
       </c>
       <c r="F80" t="n">
-        <v>968.2148</v>
+        <v>38.9223</v>
       </c>
       <c r="G80" t="n">
-        <v>191.3816666666666</v>
+        <v>191.4349999999999</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -3210,10 +3210,10 @@
         <v>191.3</v>
       </c>
       <c r="F81" t="n">
-        <v>2639.8618</v>
+        <v>968.2148</v>
       </c>
       <c r="G81" t="n">
-        <v>191.3199999999999</v>
+        <v>191.3816666666666</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -3245,10 +3245,10 @@
         <v>191.3</v>
       </c>
       <c r="F82" t="n">
-        <v>2627.2137</v>
+        <v>2639.8618</v>
       </c>
       <c r="G82" t="n">
-        <v>191.2583333333332</v>
+        <v>191.3199999999999</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -3280,10 +3280,10 @@
         <v>191.3</v>
       </c>
       <c r="F83" t="n">
-        <v>400</v>
+        <v>2627.2137</v>
       </c>
       <c r="G83" t="n">
-        <v>191.2266666666665</v>
+        <v>191.2583333333332</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -3315,10 +3315,10 @@
         <v>191.3</v>
       </c>
       <c r="F84" t="n">
-        <v>8060</v>
+        <v>400</v>
       </c>
       <c r="G84" t="n">
-        <v>191.1949999999998</v>
+        <v>191.2266666666665</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -3350,10 +3350,10 @@
         <v>191.3</v>
       </c>
       <c r="F85" t="n">
-        <v>7000</v>
+        <v>8060</v>
       </c>
       <c r="G85" t="n">
-        <v>191.1749999999998</v>
+        <v>191.1949999999998</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -3385,10 +3385,10 @@
         <v>191.3</v>
       </c>
       <c r="F86" t="n">
-        <v>3177.6846</v>
+        <v>7000</v>
       </c>
       <c r="G86" t="n">
-        <v>191.1549999999998</v>
+        <v>191.1749999999998</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -3408,22 +3408,22 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>191</v>
+        <v>191.3</v>
       </c>
       <c r="C87" t="n">
-        <v>191</v>
+        <v>191.3</v>
       </c>
       <c r="D87" t="n">
-        <v>191</v>
+        <v>191.3</v>
       </c>
       <c r="E87" t="n">
-        <v>191</v>
+        <v>191.3</v>
       </c>
       <c r="F87" t="n">
-        <v>139.2999</v>
+        <v>3177.6846</v>
       </c>
       <c r="G87" t="n">
-        <v>191.1366666666665</v>
+        <v>191.1549999999998</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -3443,22 +3443,22 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>192.2</v>
+        <v>191</v>
       </c>
       <c r="C88" t="n">
         <v>191</v>
       </c>
       <c r="D88" t="n">
-        <v>192.2</v>
+        <v>191</v>
       </c>
       <c r="E88" t="n">
         <v>191</v>
       </c>
       <c r="F88" t="n">
-        <v>156.2327</v>
+        <v>139.2999</v>
       </c>
       <c r="G88" t="n">
-        <v>191.1199999999998</v>
+        <v>191.1366666666665</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -3478,22 +3478,22 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>192</v>
+        <v>192.2</v>
       </c>
       <c r="C89" t="n">
-        <v>191.8</v>
+        <v>191</v>
       </c>
       <c r="D89" t="n">
-        <v>192</v>
+        <v>192.2</v>
       </c>
       <c r="E89" t="n">
-        <v>191.8</v>
+        <v>191</v>
       </c>
       <c r="F89" t="n">
-        <v>192.9</v>
+        <v>156.2327</v>
       </c>
       <c r="G89" t="n">
-        <v>191.1249999999998</v>
+        <v>191.1199999999998</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -3513,22 +3513,22 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
+        <v>192</v>
+      </c>
+      <c r="C90" t="n">
         <v>191.8</v>
       </c>
-      <c r="C90" t="n">
-        <v>190.1</v>
-      </c>
       <c r="D90" t="n">
+        <v>192</v>
+      </c>
+      <c r="E90" t="n">
         <v>191.8</v>
       </c>
-      <c r="E90" t="n">
-        <v>190.1</v>
-      </c>
       <c r="F90" t="n">
-        <v>7371.0133</v>
+        <v>192.9</v>
       </c>
       <c r="G90" t="n">
-        <v>191.1099999999998</v>
+        <v>191.1249999999998</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -3548,22 +3548,22 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>190.1</v>
+        <v>191.8</v>
       </c>
       <c r="C91" t="n">
         <v>190.1</v>
       </c>
       <c r="D91" t="n">
-        <v>190.1</v>
+        <v>191.8</v>
       </c>
       <c r="E91" t="n">
         <v>190.1</v>
       </c>
       <c r="F91" t="n">
-        <v>170.5227</v>
+        <v>7371.0133</v>
       </c>
       <c r="G91" t="n">
-        <v>191.1116666666665</v>
+        <v>191.1099999999998</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -3583,22 +3583,22 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>192.9</v>
+        <v>190.1</v>
       </c>
       <c r="C92" t="n">
-        <v>192.9</v>
+        <v>190.1</v>
       </c>
       <c r="D92" t="n">
-        <v>192.9</v>
+        <v>190.1</v>
       </c>
       <c r="E92" t="n">
-        <v>192.9</v>
+        <v>190.1</v>
       </c>
       <c r="F92" t="n">
-        <v>3</v>
+        <v>170.5227</v>
       </c>
       <c r="G92" t="n">
-        <v>191.1599999999998</v>
+        <v>191.1116666666665</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -3618,22 +3618,22 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>192</v>
+        <v>192.9</v>
       </c>
       <c r="C93" t="n">
-        <v>191</v>
+        <v>192.9</v>
       </c>
       <c r="D93" t="n">
-        <v>192</v>
+        <v>192.9</v>
       </c>
       <c r="E93" t="n">
-        <v>191</v>
+        <v>192.9</v>
       </c>
       <c r="F93" t="n">
-        <v>68.15170000000001</v>
+        <v>3</v>
       </c>
       <c r="G93" t="n">
-        <v>191.1766666666664</v>
+        <v>191.1599999999998</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -3653,22 +3653,22 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="C94" t="n">
         <v>191</v>
       </c>
       <c r="D94" t="n">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="E94" t="n">
         <v>191</v>
       </c>
       <c r="F94" t="n">
-        <v>65.15170000000001</v>
+        <v>68.15170000000001</v>
       </c>
       <c r="G94" t="n">
-        <v>191.1933333333331</v>
+        <v>191.1766666666664</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -3688,22 +3688,22 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>190.7</v>
+        <v>191</v>
       </c>
       <c r="C95" t="n">
-        <v>190.7</v>
+        <v>191</v>
       </c>
       <c r="D95" t="n">
-        <v>190.7</v>
+        <v>191</v>
       </c>
       <c r="E95" t="n">
-        <v>190.7</v>
+        <v>191</v>
       </c>
       <c r="F95" t="n">
-        <v>546.7568</v>
+        <v>65.15170000000001</v>
       </c>
       <c r="G95" t="n">
-        <v>191.2016666666665</v>
+        <v>191.1933333333331</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -3723,22 +3723,22 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>191.9</v>
+        <v>190.7</v>
       </c>
       <c r="C96" t="n">
-        <v>190.4</v>
+        <v>190.7</v>
       </c>
       <c r="D96" t="n">
-        <v>191.9</v>
+        <v>190.7</v>
       </c>
       <c r="E96" t="n">
-        <v>190.2</v>
+        <v>190.7</v>
       </c>
       <c r="F96" t="n">
-        <v>5855.6374</v>
+        <v>546.7568</v>
       </c>
       <c r="G96" t="n">
-        <v>191.2033333333331</v>
+        <v>191.2016666666665</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -3758,22 +3758,22 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>190.4</v>
+        <v>191.9</v>
       </c>
       <c r="C97" t="n">
         <v>190.4</v>
       </c>
       <c r="D97" t="n">
-        <v>190.4</v>
+        <v>191.9</v>
       </c>
       <c r="E97" t="n">
-        <v>190.4</v>
+        <v>190.2</v>
       </c>
       <c r="F97" t="n">
-        <v>757.5542</v>
+        <v>5855.6374</v>
       </c>
       <c r="G97" t="n">
-        <v>191.2099999999998</v>
+        <v>191.2033333333331</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -3805,10 +3805,10 @@
         <v>190.4</v>
       </c>
       <c r="F98" t="n">
-        <v>2528.96</v>
+        <v>757.5542</v>
       </c>
       <c r="G98" t="n">
-        <v>191.1999999999998</v>
+        <v>191.2099999999998</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -3840,10 +3840,10 @@
         <v>190.4</v>
       </c>
       <c r="F99" t="n">
-        <v>2710.647</v>
+        <v>2528.96</v>
       </c>
       <c r="G99" t="n">
-        <v>191.2283333333331</v>
+        <v>191.1999999999998</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -3875,10 +3875,10 @@
         <v>190.4</v>
       </c>
       <c r="F100" t="n">
-        <v>261.5219</v>
+        <v>2710.647</v>
       </c>
       <c r="G100" t="n">
-        <v>191.2549999999998</v>
+        <v>191.2283333333331</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -3910,10 +3910,10 @@
         <v>190.4</v>
       </c>
       <c r="F101" t="n">
-        <v>1095</v>
+        <v>261.5219</v>
       </c>
       <c r="G101" t="n">
-        <v>191.2483333333331</v>
+        <v>191.2549999999998</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -3945,10 +3945,10 @@
         <v>190.4</v>
       </c>
       <c r="F102" t="n">
-        <v>175</v>
+        <v>1095</v>
       </c>
       <c r="G102" t="n">
-        <v>191.2716666666664</v>
+        <v>191.2483333333331</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -3980,10 +3980,10 @@
         <v>190.4</v>
       </c>
       <c r="F103" t="n">
-        <v>1481</v>
+        <v>175</v>
       </c>
       <c r="G103" t="n">
-        <v>191.2949999999998</v>
+        <v>191.2716666666664</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -4015,10 +4015,10 @@
         <v>190.4</v>
       </c>
       <c r="F104" t="n">
-        <v>1988.938</v>
+        <v>1481</v>
       </c>
       <c r="G104" t="n">
-        <v>191.2749999999997</v>
+        <v>191.2949999999998</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -4050,10 +4050,10 @@
         <v>190.4</v>
       </c>
       <c r="F105" t="n">
-        <v>18973.337</v>
+        <v>1988.938</v>
       </c>
       <c r="G105" t="n">
-        <v>191.2816666666664</v>
+        <v>191.2749999999997</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -4085,10 +4085,10 @@
         <v>190.4</v>
       </c>
       <c r="F106" t="n">
-        <v>167.042</v>
+        <v>18973.337</v>
       </c>
       <c r="G106" t="n">
-        <v>191.2716666666664</v>
+        <v>191.2816666666664</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -4108,19 +4108,19 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>190.9</v>
+        <v>190.4</v>
       </c>
       <c r="C107" t="n">
-        <v>191</v>
+        <v>190.4</v>
       </c>
       <c r="D107" t="n">
-        <v>191</v>
+        <v>190.4</v>
       </c>
       <c r="E107" t="n">
-        <v>190.9</v>
+        <v>190.4</v>
       </c>
       <c r="F107" t="n">
-        <v>1675.9815</v>
+        <v>167.042</v>
       </c>
       <c r="G107" t="n">
         <v>191.2716666666664</v>
@@ -4143,22 +4143,22 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>190.4</v>
+        <v>190.9</v>
       </c>
       <c r="C108" t="n">
-        <v>190.4</v>
+        <v>191</v>
       </c>
       <c r="D108" t="n">
-        <v>190.4</v>
+        <v>191</v>
       </c>
       <c r="E108" t="n">
-        <v>190.4</v>
+        <v>190.9</v>
       </c>
       <c r="F108" t="n">
-        <v>248.616</v>
+        <v>1675.9815</v>
       </c>
       <c r="G108" t="n">
-        <v>191.2199999999997</v>
+        <v>191.2716666666664</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -4181,19 +4181,19 @@
         <v>190.4</v>
       </c>
       <c r="C109" t="n">
-        <v>190.2</v>
+        <v>190.4</v>
       </c>
       <c r="D109" t="n">
         <v>190.4</v>
       </c>
       <c r="E109" t="n">
-        <v>190.2</v>
+        <v>190.4</v>
       </c>
       <c r="F109" t="n">
-        <v>1783.708</v>
+        <v>248.616</v>
       </c>
       <c r="G109" t="n">
-        <v>191.2383333333331</v>
+        <v>191.2199999999997</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -4213,22 +4213,22 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
+        <v>190.4</v>
+      </c>
+      <c r="C110" t="n">
         <v>190.2</v>
       </c>
-      <c r="C110" t="n">
-        <v>188.6</v>
-      </c>
       <c r="D110" t="n">
+        <v>190.4</v>
+      </c>
+      <c r="E110" t="n">
         <v>190.2</v>
       </c>
-      <c r="E110" t="n">
-        <v>188.6</v>
-      </c>
       <c r="F110" t="n">
-        <v>619.8261</v>
+        <v>1783.708</v>
       </c>
       <c r="G110" t="n">
-        <v>191.1633333333331</v>
+        <v>191.2383333333331</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -4248,22 +4248,22 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
+        <v>190.2</v>
+      </c>
+      <c r="C111" t="n">
         <v>188.6</v>
       </c>
-      <c r="C111" t="n">
-        <v>188.1</v>
-      </c>
       <c r="D111" t="n">
+        <v>190.2</v>
+      </c>
+      <c r="E111" t="n">
         <v>188.6</v>
       </c>
-      <c r="E111" t="n">
-        <v>188.1</v>
-      </c>
       <c r="F111" t="n">
-        <v>4968.9161</v>
+        <v>619.8261</v>
       </c>
       <c r="G111" t="n">
-        <v>191.1316666666664</v>
+        <v>191.1633333333331</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -4283,22 +4283,22 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>190.6</v>
+        <v>188.6</v>
       </c>
       <c r="C112" t="n">
-        <v>188.5</v>
+        <v>188.1</v>
       </c>
       <c r="D112" t="n">
-        <v>190.6</v>
+        <v>188.6</v>
       </c>
       <c r="E112" t="n">
-        <v>188.5</v>
+        <v>188.1</v>
       </c>
       <c r="F112" t="n">
-        <v>388.571</v>
+        <v>4968.9161</v>
       </c>
       <c r="G112" t="n">
-        <v>191.1066666666664</v>
+        <v>191.1316666666664</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -4318,22 +4318,22 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>189.7</v>
+        <v>190.6</v>
       </c>
       <c r="C113" t="n">
-        <v>189.7</v>
+        <v>188.5</v>
       </c>
       <c r="D113" t="n">
-        <v>189.7</v>
+        <v>190.6</v>
       </c>
       <c r="E113" t="n">
-        <v>189.7</v>
+        <v>188.5</v>
       </c>
       <c r="F113" t="n">
-        <v>385.941</v>
+        <v>388.571</v>
       </c>
       <c r="G113" t="n">
-        <v>191.0699999999998</v>
+        <v>191.1066666666664</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -4353,22 +4353,22 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>188.3</v>
+        <v>189.7</v>
       </c>
       <c r="C114" t="n">
-        <v>188.3</v>
+        <v>189.7</v>
       </c>
       <c r="D114" t="n">
-        <v>188.3</v>
+        <v>189.7</v>
       </c>
       <c r="E114" t="n">
-        <v>188.3</v>
+        <v>189.7</v>
       </c>
       <c r="F114" t="n">
-        <v>7000</v>
+        <v>385.941</v>
       </c>
       <c r="G114" t="n">
-        <v>191.0416666666664</v>
+        <v>191.0699999999998</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -4391,19 +4391,19 @@
         <v>188.3</v>
       </c>
       <c r="C115" t="n">
-        <v>189</v>
+        <v>188.3</v>
       </c>
       <c r="D115" t="n">
-        <v>189.8</v>
+        <v>188.3</v>
       </c>
       <c r="E115" t="n">
         <v>188.3</v>
       </c>
       <c r="F115" t="n">
-        <v>3287.73</v>
+        <v>7000</v>
       </c>
       <c r="G115" t="n">
-        <v>190.9933333333331</v>
+        <v>191.0416666666664</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -4423,22 +4423,22 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>188.9</v>
+        <v>188.3</v>
       </c>
       <c r="C116" t="n">
-        <v>188.9</v>
+        <v>189</v>
       </c>
       <c r="D116" t="n">
-        <v>188.9</v>
+        <v>189.8</v>
       </c>
       <c r="E116" t="n">
-        <v>188.9</v>
+        <v>188.3</v>
       </c>
       <c r="F116" t="n">
-        <v>136</v>
+        <v>3287.73</v>
       </c>
       <c r="G116" t="n">
-        <v>190.9699999999998</v>
+        <v>190.9933333333331</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -4458,22 +4458,22 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>188.4</v>
+        <v>188.9</v>
       </c>
       <c r="C117" t="n">
-        <v>188.4</v>
+        <v>188.9</v>
       </c>
       <c r="D117" t="n">
-        <v>188.4</v>
+        <v>188.9</v>
       </c>
       <c r="E117" t="n">
-        <v>188.4</v>
+        <v>188.9</v>
       </c>
       <c r="F117" t="n">
-        <v>5000</v>
+        <v>136</v>
       </c>
       <c r="G117" t="n">
-        <v>190.8866666666664</v>
+        <v>190.9699999999998</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -4493,22 +4493,22 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>188.9</v>
+        <v>188.4</v>
       </c>
       <c r="C118" t="n">
-        <v>190</v>
+        <v>188.4</v>
       </c>
       <c r="D118" t="n">
-        <v>190</v>
+        <v>188.4</v>
       </c>
       <c r="E118" t="n">
-        <v>188.9</v>
+        <v>188.4</v>
       </c>
       <c r="F118" t="n">
-        <v>3.6849</v>
+        <v>5000</v>
       </c>
       <c r="G118" t="n">
-        <v>190.8083333333331</v>
+        <v>190.8866666666664</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -4528,22 +4528,22 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
+        <v>188.9</v>
+      </c>
+      <c r="C119" t="n">
         <v>190</v>
-      </c>
-      <c r="C119" t="n">
-        <v>188.6</v>
       </c>
       <c r="D119" t="n">
         <v>190</v>
       </c>
       <c r="E119" t="n">
-        <v>188.6</v>
+        <v>188.9</v>
       </c>
       <c r="F119" t="n">
-        <v>1171.9564</v>
+        <v>3.6849</v>
       </c>
       <c r="G119" t="n">
-        <v>190.7683333333331</v>
+        <v>190.8083333333331</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -4563,22 +4563,22 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>189.9</v>
+        <v>190</v>
       </c>
       <c r="C120" t="n">
-        <v>190</v>
+        <v>188.6</v>
       </c>
       <c r="D120" t="n">
         <v>190</v>
       </c>
       <c r="E120" t="n">
-        <v>189.9</v>
+        <v>188.6</v>
       </c>
       <c r="F120" t="n">
-        <v>87.8434</v>
+        <v>1171.9564</v>
       </c>
       <c r="G120" t="n">
-        <v>190.7266666666664</v>
+        <v>190.7683333333331</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -4598,22 +4598,22 @@
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>191</v>
+        <v>189.9</v>
       </c>
       <c r="C121" t="n">
         <v>190</v>
       </c>
       <c r="D121" t="n">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="E121" t="n">
-        <v>190</v>
+        <v>189.9</v>
       </c>
       <c r="F121" t="n">
-        <v>73.59999999999999</v>
+        <v>87.8434</v>
       </c>
       <c r="G121" t="n">
-        <v>190.6783333333331</v>
+        <v>190.7266666666664</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -4633,22 +4633,22 @@
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>188.6</v>
+        <v>191</v>
       </c>
       <c r="C122" t="n">
-        <v>188.5</v>
+        <v>190</v>
       </c>
       <c r="D122" t="n">
-        <v>188.6</v>
+        <v>191</v>
       </c>
       <c r="E122" t="n">
-        <v>188.5</v>
+        <v>190</v>
       </c>
       <c r="F122" t="n">
-        <v>1451.2701</v>
+        <v>73.59999999999999</v>
       </c>
       <c r="G122" t="n">
-        <v>190.6366666666664</v>
+        <v>190.6783333333331</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -4668,22 +4668,22 @@
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>189.9</v>
+        <v>188.6</v>
       </c>
       <c r="C123" t="n">
-        <v>188.2</v>
+        <v>188.5</v>
       </c>
       <c r="D123" t="n">
-        <v>191.4</v>
+        <v>188.6</v>
       </c>
       <c r="E123" t="n">
-        <v>188.2</v>
+        <v>188.5</v>
       </c>
       <c r="F123" t="n">
-        <v>3358.4553</v>
+        <v>1451.2701</v>
       </c>
       <c r="G123" t="n">
-        <v>190.5899999999998</v>
+        <v>190.6366666666664</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -4703,22 +4703,22 @@
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>189.1</v>
+        <v>189.9</v>
       </c>
       <c r="C124" t="n">
-        <v>189.1</v>
+        <v>188.2</v>
       </c>
       <c r="D124" t="n">
-        <v>189.1</v>
+        <v>191.4</v>
       </c>
       <c r="E124" t="n">
-        <v>189.1</v>
+        <v>188.2</v>
       </c>
       <c r="F124" t="n">
-        <v>50</v>
+        <v>3358.4553</v>
       </c>
       <c r="G124" t="n">
-        <v>190.5583333333331</v>
+        <v>190.5899999999998</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -4750,10 +4750,10 @@
         <v>189.1</v>
       </c>
       <c r="F125" t="n">
-        <v>26.96</v>
+        <v>50</v>
       </c>
       <c r="G125" t="n">
-        <v>190.5266666666665</v>
+        <v>190.5583333333331</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -4785,10 +4785,10 @@
         <v>189.1</v>
       </c>
       <c r="F126" t="n">
-        <v>368.45</v>
+        <v>26.96</v>
       </c>
       <c r="G126" t="n">
-        <v>190.4716666666665</v>
+        <v>190.5266666666665</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -4808,22 +4808,22 @@
         <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>190.7</v>
+        <v>189.1</v>
       </c>
       <c r="C127" t="n">
-        <v>190.7</v>
+        <v>189.1</v>
       </c>
       <c r="D127" t="n">
-        <v>190.7</v>
+        <v>189.1</v>
       </c>
       <c r="E127" t="n">
-        <v>190.7</v>
+        <v>189.1</v>
       </c>
       <c r="F127" t="n">
-        <v>2.63</v>
+        <v>368.45</v>
       </c>
       <c r="G127" t="n">
-        <v>190.4349999999998</v>
+        <v>190.4716666666665</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -4846,19 +4846,19 @@
         <v>190.7</v>
       </c>
       <c r="C128" t="n">
-        <v>188.2</v>
+        <v>190.7</v>
       </c>
       <c r="D128" t="n">
-        <v>191.3</v>
+        <v>190.7</v>
       </c>
       <c r="E128" t="n">
-        <v>188.2</v>
+        <v>190.7</v>
       </c>
       <c r="F128" t="n">
-        <v>449.85</v>
+        <v>2.63</v>
       </c>
       <c r="G128" t="n">
-        <v>190.3883333333332</v>
+        <v>190.4349999999998</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -4878,22 +4878,22 @@
         <v>127</v>
       </c>
       <c r="B129" t="n">
-        <v>190.9</v>
+        <v>190.7</v>
       </c>
       <c r="C129" t="n">
-        <v>189</v>
+        <v>188.2</v>
       </c>
       <c r="D129" t="n">
-        <v>190.9</v>
+        <v>191.3</v>
       </c>
       <c r="E129" t="n">
-        <v>189</v>
+        <v>188.2</v>
       </c>
       <c r="F129" t="n">
-        <v>248.7989</v>
+        <v>449.85</v>
       </c>
       <c r="G129" t="n">
-        <v>190.3383333333332</v>
+        <v>190.3883333333332</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -4913,22 +4913,22 @@
         <v>128</v>
       </c>
       <c r="B130" t="n">
-        <v>189</v>
+        <v>190.9</v>
       </c>
       <c r="C130" t="n">
         <v>189</v>
       </c>
       <c r="D130" t="n">
-        <v>189</v>
+        <v>190.9</v>
       </c>
       <c r="E130" t="n">
         <v>189</v>
       </c>
       <c r="F130" t="n">
-        <v>231.4297</v>
+        <v>248.7989</v>
       </c>
       <c r="G130" t="n">
-        <v>190.2883333333332</v>
+        <v>190.3383333333332</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
@@ -4948,22 +4948,22 @@
         <v>129</v>
       </c>
       <c r="B131" t="n">
-        <v>191.6</v>
+        <v>189</v>
       </c>
       <c r="C131" t="n">
-        <v>189.1</v>
+        <v>189</v>
       </c>
       <c r="D131" t="n">
-        <v>191.6</v>
+        <v>189</v>
       </c>
       <c r="E131" t="n">
-        <v>189.1</v>
+        <v>189</v>
       </c>
       <c r="F131" t="n">
-        <v>1512.69173611</v>
+        <v>231.4297</v>
       </c>
       <c r="G131" t="n">
-        <v>190.2399999999998</v>
+        <v>190.2883333333332</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
@@ -4983,22 +4983,22 @@
         <v>130</v>
       </c>
       <c r="B132" t="n">
-        <v>189.1</v>
+        <v>191.6</v>
       </c>
       <c r="C132" t="n">
         <v>189.1</v>
       </c>
       <c r="D132" t="n">
-        <v>189.1</v>
+        <v>191.6</v>
       </c>
       <c r="E132" t="n">
         <v>189.1</v>
       </c>
       <c r="F132" t="n">
-        <v>2186.0848</v>
+        <v>1512.69173611</v>
       </c>
       <c r="G132" t="n">
-        <v>190.1916666666665</v>
+        <v>190.2399999999998</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
@@ -5018,22 +5018,22 @@
         <v>131</v>
       </c>
       <c r="B133" t="n">
-        <v>191</v>
+        <v>189.1</v>
       </c>
       <c r="C133" t="n">
-        <v>191</v>
+        <v>189.1</v>
       </c>
       <c r="D133" t="n">
-        <v>191</v>
+        <v>189.1</v>
       </c>
       <c r="E133" t="n">
-        <v>191</v>
+        <v>189.1</v>
       </c>
       <c r="F133" t="n">
-        <v>3</v>
+        <v>2186.0848</v>
       </c>
       <c r="G133" t="n">
-        <v>190.1749999999998</v>
+        <v>190.1916666666665</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
@@ -5053,22 +5053,22 @@
         <v>132</v>
       </c>
       <c r="B134" t="n">
-        <v>189.1</v>
+        <v>191</v>
       </c>
       <c r="C134" t="n">
-        <v>189.1</v>
+        <v>191</v>
       </c>
       <c r="D134" t="n">
-        <v>189.1</v>
+        <v>191</v>
       </c>
       <c r="E134" t="n">
-        <v>189.1</v>
+        <v>191</v>
       </c>
       <c r="F134" t="n">
-        <v>68.8222</v>
+        <v>3</v>
       </c>
       <c r="G134" t="n">
-        <v>190.1416666666665</v>
+        <v>190.1749999999998</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
@@ -5091,19 +5091,19 @@
         <v>189.1</v>
       </c>
       <c r="C135" t="n">
-        <v>189</v>
+        <v>189.1</v>
       </c>
       <c r="D135" t="n">
         <v>189.1</v>
       </c>
       <c r="E135" t="n">
-        <v>189</v>
+        <v>189.1</v>
       </c>
       <c r="F135" t="n">
-        <v>1608.765</v>
+        <v>68.8222</v>
       </c>
       <c r="G135" t="n">
-        <v>190.1066666666665</v>
+        <v>190.1416666666665</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
@@ -5123,22 +5123,22 @@
         <v>134</v>
       </c>
       <c r="B136" t="n">
-        <v>190.9</v>
+        <v>189.1</v>
       </c>
       <c r="C136" t="n">
         <v>189</v>
       </c>
       <c r="D136" t="n">
-        <v>190.9</v>
+        <v>189.1</v>
       </c>
       <c r="E136" t="n">
         <v>189</v>
       </c>
       <c r="F136" t="n">
-        <v>156.4954</v>
+        <v>1608.765</v>
       </c>
       <c r="G136" t="n">
-        <v>190.0716666666665</v>
+        <v>190.1066666666665</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
@@ -5158,22 +5158,22 @@
         <v>135</v>
       </c>
       <c r="B137" t="n">
-        <v>189</v>
+        <v>190.9</v>
       </c>
       <c r="C137" t="n">
         <v>189</v>
       </c>
       <c r="D137" t="n">
-        <v>189</v>
+        <v>190.9</v>
       </c>
       <c r="E137" t="n">
         <v>189</v>
       </c>
       <c r="F137" t="n">
-        <v>321.4224</v>
+        <v>156.4954</v>
       </c>
       <c r="G137" t="n">
-        <v>190.0216666666665</v>
+        <v>190.0716666666665</v>
       </c>
       <c r="H137" t="n">
         <v>0</v>
@@ -5193,22 +5193,22 @@
         <v>136</v>
       </c>
       <c r="B138" t="n">
-        <v>189.8</v>
+        <v>189</v>
       </c>
       <c r="C138" t="n">
-        <v>189.8</v>
+        <v>189</v>
       </c>
       <c r="D138" t="n">
-        <v>189.8</v>
+        <v>189</v>
       </c>
       <c r="E138" t="n">
-        <v>189.8</v>
+        <v>189</v>
       </c>
       <c r="F138" t="n">
-        <v>2703.961</v>
+        <v>321.4224</v>
       </c>
       <c r="G138" t="n">
-        <v>190.0016666666665</v>
+        <v>190.0216666666665</v>
       </c>
       <c r="H138" t="n">
         <v>0</v>
@@ -5228,22 +5228,22 @@
         <v>137</v>
       </c>
       <c r="B139" t="n">
-        <v>188.2</v>
+        <v>189.8</v>
       </c>
       <c r="C139" t="n">
-        <v>188.2</v>
+        <v>189.8</v>
       </c>
       <c r="D139" t="n">
-        <v>188.2</v>
+        <v>189.8</v>
       </c>
       <c r="E139" t="n">
-        <v>188.2</v>
+        <v>189.8</v>
       </c>
       <c r="F139" t="n">
-        <v>3025.3834</v>
+        <v>2703.961</v>
       </c>
       <c r="G139" t="n">
-        <v>189.9499999999998</v>
+        <v>190.0016666666665</v>
       </c>
       <c r="H139" t="n">
         <v>0</v>
@@ -5275,10 +5275,10 @@
         <v>188.2</v>
       </c>
       <c r="F140" t="n">
-        <v>3885</v>
+        <v>3025.3834</v>
       </c>
       <c r="G140" t="n">
-        <v>189.8983333333332</v>
+        <v>189.9499999999998</v>
       </c>
       <c r="H140" t="n">
         <v>0</v>
@@ -5301,19 +5301,19 @@
         <v>188.2</v>
       </c>
       <c r="C141" t="n">
-        <v>188.1</v>
+        <v>188.2</v>
       </c>
       <c r="D141" t="n">
         <v>188.2</v>
       </c>
       <c r="E141" t="n">
-        <v>188.1</v>
+        <v>188.2</v>
       </c>
       <c r="F141" t="n">
-        <v>578.1079999999999</v>
+        <v>3885</v>
       </c>
       <c r="G141" t="n">
-        <v>189.8449999999999</v>
+        <v>189.8983333333332</v>
       </c>
       <c r="H141" t="n">
         <v>0</v>
@@ -5333,22 +5333,22 @@
         <v>140</v>
       </c>
       <c r="B142" t="n">
-        <v>188.1</v>
+        <v>188.2</v>
       </c>
       <c r="C142" t="n">
         <v>188.1</v>
       </c>
       <c r="D142" t="n">
-        <v>188.1</v>
+        <v>188.2</v>
       </c>
       <c r="E142" t="n">
         <v>188.1</v>
       </c>
       <c r="F142" t="n">
-        <v>168.0728</v>
+        <v>578.1079999999999</v>
       </c>
       <c r="G142" t="n">
-        <v>189.7916666666666</v>
+        <v>189.8449999999999</v>
       </c>
       <c r="H142" t="n">
         <v>0</v>
@@ -5371,19 +5371,19 @@
         <v>188.1</v>
       </c>
       <c r="C143" t="n">
-        <v>187</v>
+        <v>188.1</v>
       </c>
       <c r="D143" t="n">
         <v>188.1</v>
       </c>
       <c r="E143" t="n">
-        <v>187</v>
+        <v>188.1</v>
       </c>
       <c r="F143" t="n">
-        <v>15467.795</v>
+        <v>168.0728</v>
       </c>
       <c r="G143" t="n">
-        <v>189.7199999999999</v>
+        <v>189.7916666666666</v>
       </c>
       <c r="H143" t="n">
         <v>0</v>
@@ -5403,22 +5403,22 @@
         <v>142</v>
       </c>
       <c r="B144" t="n">
+        <v>188.1</v>
+      </c>
+      <c r="C144" t="n">
         <v>187</v>
       </c>
-      <c r="C144" t="n">
-        <v>186.8</v>
-      </c>
       <c r="D144" t="n">
+        <v>188.1</v>
+      </c>
+      <c r="E144" t="n">
         <v>187</v>
       </c>
-      <c r="E144" t="n">
-        <v>186.8</v>
-      </c>
       <c r="F144" t="n">
-        <v>7780.4136</v>
+        <v>15467.795</v>
       </c>
       <c r="G144" t="n">
-        <v>189.6449999999999</v>
+        <v>189.7199999999999</v>
       </c>
       <c r="H144" t="n">
         <v>0</v>
@@ -5438,22 +5438,22 @@
         <v>143</v>
       </c>
       <c r="B145" t="n">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C145" t="n">
-        <v>189</v>
+        <v>186.8</v>
       </c>
       <c r="D145" t="n">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="E145" t="n">
-        <v>189</v>
+        <v>186.8</v>
       </c>
       <c r="F145" t="n">
-        <v>5291.005291</v>
+        <v>7780.4136</v>
       </c>
       <c r="G145" t="n">
-        <v>189.6066666666666</v>
+        <v>189.6449999999999</v>
       </c>
       <c r="H145" t="n">
         <v>0</v>
@@ -5473,7 +5473,7 @@
         <v>144</v>
       </c>
       <c r="B146" t="n">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="C146" t="n">
         <v>189</v>
@@ -5482,13 +5482,13 @@
         <v>189</v>
       </c>
       <c r="E146" t="n">
-        <v>186.9</v>
+        <v>189</v>
       </c>
       <c r="F146" t="n">
-        <v>5496.7168</v>
+        <v>5291.005291</v>
       </c>
       <c r="G146" t="n">
-        <v>189.5683333333333</v>
+        <v>189.6066666666666</v>
       </c>
       <c r="H146" t="n">
         <v>0</v>
@@ -5508,22 +5508,22 @@
         <v>145</v>
       </c>
       <c r="B147" t="n">
-        <v>186.9</v>
+        <v>188</v>
       </c>
       <c r="C147" t="n">
-        <v>186.9</v>
+        <v>189</v>
       </c>
       <c r="D147" t="n">
-        <v>186.9</v>
+        <v>189</v>
       </c>
       <c r="E147" t="n">
         <v>186.9</v>
       </c>
       <c r="F147" t="n">
-        <v>2848.5891</v>
+        <v>5496.7168</v>
       </c>
       <c r="G147" t="n">
-        <v>189.4999999999999</v>
+        <v>189.5683333333333</v>
       </c>
       <c r="H147" t="n">
         <v>0</v>
@@ -5546,19 +5546,19 @@
         <v>186.9</v>
       </c>
       <c r="C148" t="n">
-        <v>186.7</v>
+        <v>186.9</v>
       </c>
       <c r="D148" t="n">
         <v>186.9</v>
       </c>
       <c r="E148" t="n">
-        <v>186.7</v>
+        <v>186.9</v>
       </c>
       <c r="F148" t="n">
-        <v>2780</v>
+        <v>2848.5891</v>
       </c>
       <c r="G148" t="n">
-        <v>189.4283333333333</v>
+        <v>189.4999999999999</v>
       </c>
       <c r="H148" t="n">
         <v>0</v>
@@ -5578,22 +5578,22 @@
         <v>147</v>
       </c>
       <c r="B149" t="n">
-        <v>187.8</v>
+        <v>186.9</v>
       </c>
       <c r="C149" t="n">
-        <v>187.8</v>
+        <v>186.7</v>
       </c>
       <c r="D149" t="n">
-        <v>187.8</v>
+        <v>186.9</v>
       </c>
       <c r="E149" t="n">
-        <v>187.8</v>
+        <v>186.7</v>
       </c>
       <c r="F149" t="n">
-        <v>298</v>
+        <v>2780</v>
       </c>
       <c r="G149" t="n">
-        <v>189.3616666666666</v>
+        <v>189.4283333333333</v>
       </c>
       <c r="H149" t="n">
         <v>0</v>
@@ -5613,22 +5613,22 @@
         <v>148</v>
       </c>
       <c r="B150" t="n">
-        <v>187</v>
+        <v>187.8</v>
       </c>
       <c r="C150" t="n">
-        <v>187</v>
+        <v>187.8</v>
       </c>
       <c r="D150" t="n">
-        <v>187</v>
+        <v>187.8</v>
       </c>
       <c r="E150" t="n">
-        <v>187</v>
+        <v>187.8</v>
       </c>
       <c r="F150" t="n">
-        <v>144</v>
+        <v>298</v>
       </c>
       <c r="G150" t="n">
-        <v>189.3099999999999</v>
+        <v>189.3616666666666</v>
       </c>
       <c r="H150" t="n">
         <v>0</v>
@@ -5651,19 +5651,19 @@
         <v>187</v>
       </c>
       <c r="C151" t="n">
-        <v>187.8</v>
+        <v>187</v>
       </c>
       <c r="D151" t="n">
-        <v>187.8</v>
+        <v>187</v>
       </c>
       <c r="E151" t="n">
-        <v>186.1</v>
+        <v>187</v>
       </c>
       <c r="F151" t="n">
-        <v>5162.0685</v>
+        <v>144</v>
       </c>
       <c r="G151" t="n">
-        <v>189.2716666666666</v>
+        <v>189.3099999999999</v>
       </c>
       <c r="H151" t="n">
         <v>0</v>
@@ -5683,22 +5683,22 @@
         <v>150</v>
       </c>
       <c r="B152" t="n">
-        <v>186.1</v>
+        <v>187</v>
       </c>
       <c r="C152" t="n">
-        <v>186.1</v>
+        <v>187.8</v>
       </c>
       <c r="D152" t="n">
-        <v>186.1</v>
+        <v>187.8</v>
       </c>
       <c r="E152" t="n">
         <v>186.1</v>
       </c>
       <c r="F152" t="n">
-        <v>1657.3609</v>
+        <v>5162.0685</v>
       </c>
       <c r="G152" t="n">
-        <v>189.1583333333333</v>
+        <v>189.2716666666666</v>
       </c>
       <c r="H152" t="n">
         <v>0</v>
@@ -5730,10 +5730,10 @@
         <v>186.1</v>
       </c>
       <c r="F153" t="n">
-        <v>1366.755</v>
+        <v>1657.3609</v>
       </c>
       <c r="G153" t="n">
-        <v>189.0766666666666</v>
+        <v>189.1583333333333</v>
       </c>
       <c r="H153" t="n">
         <v>0</v>
@@ -5765,10 +5765,10 @@
         <v>186.1</v>
       </c>
       <c r="F154" t="n">
-        <v>1936.539</v>
+        <v>1366.755</v>
       </c>
       <c r="G154" t="n">
-        <v>188.9949999999999</v>
+        <v>189.0766666666666</v>
       </c>
       <c r="H154" t="n">
         <v>0</v>
@@ -5800,10 +5800,10 @@
         <v>186.1</v>
       </c>
       <c r="F155" t="n">
-        <v>258.077</v>
+        <v>1936.539</v>
       </c>
       <c r="G155" t="n">
-        <v>188.9183333333333</v>
+        <v>188.9949999999999</v>
       </c>
       <c r="H155" t="n">
         <v>0</v>
@@ -5823,22 +5823,22 @@
         <v>154</v>
       </c>
       <c r="B156" t="n">
-        <v>186</v>
+        <v>186.1</v>
       </c>
       <c r="C156" t="n">
-        <v>186</v>
+        <v>186.1</v>
       </c>
       <c r="D156" t="n">
-        <v>186</v>
+        <v>186.1</v>
       </c>
       <c r="E156" t="n">
-        <v>186</v>
+        <v>186.1</v>
       </c>
       <c r="F156" t="n">
-        <v>30</v>
+        <v>258.077</v>
       </c>
       <c r="G156" t="n">
-        <v>188.8449999999999</v>
+        <v>188.9183333333333</v>
       </c>
       <c r="H156" t="n">
         <v>0</v>
@@ -5861,19 +5861,19 @@
         <v>186</v>
       </c>
       <c r="C157" t="n">
-        <v>186.1</v>
+        <v>186</v>
       </c>
       <c r="D157" t="n">
-        <v>186.1</v>
+        <v>186</v>
       </c>
       <c r="E157" t="n">
         <v>186</v>
       </c>
       <c r="F157" t="n">
-        <v>3740</v>
+        <v>30</v>
       </c>
       <c r="G157" t="n">
-        <v>188.7733333333333</v>
+        <v>188.8449999999999</v>
       </c>
       <c r="H157" t="n">
         <v>0</v>
@@ -5893,7 +5893,7 @@
         <v>156</v>
       </c>
       <c r="B158" t="n">
-        <v>186.1</v>
+        <v>186</v>
       </c>
       <c r="C158" t="n">
         <v>186.1</v>
@@ -5902,23 +5902,29 @@
         <v>186.1</v>
       </c>
       <c r="E158" t="n">
-        <v>186.1</v>
+        <v>186</v>
       </c>
       <c r="F158" t="n">
-        <v>3752.0384</v>
+        <v>3740</v>
       </c>
       <c r="G158" t="n">
-        <v>188.7016666666667</v>
+        <v>188.7733333333333</v>
       </c>
       <c r="H158" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I158" t="n">
         <v>0</v>
       </c>
-      <c r="J158" t="inlineStr"/>
+      <c r="J158" t="n">
+        <v>186</v>
+      </c>
       <c r="K158" t="inlineStr"/>
-      <c r="L158" t="inlineStr"/>
+      <c r="L158" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="M158" t="n">
         <v>1</v>
       </c>
@@ -5931,29 +5937,35 @@
         <v>186.1</v>
       </c>
       <c r="C159" t="n">
-        <v>185.4</v>
+        <v>186.1</v>
       </c>
       <c r="D159" t="n">
         <v>186.1</v>
       </c>
       <c r="E159" t="n">
-        <v>185.4</v>
+        <v>186.1</v>
       </c>
       <c r="F159" t="n">
-        <v>8251.9895</v>
+        <v>3752.0384</v>
       </c>
       <c r="G159" t="n">
-        <v>188.6183333333333</v>
+        <v>188.7016666666667</v>
       </c>
       <c r="H159" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I159" t="n">
         <v>0</v>
       </c>
-      <c r="J159" t="inlineStr"/>
+      <c r="J159" t="n">
+        <v>186.1</v>
+      </c>
       <c r="K159" t="inlineStr"/>
-      <c r="L159" t="inlineStr"/>
+      <c r="L159" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M159" t="n">
         <v>1</v>
       </c>
@@ -5963,22 +5975,22 @@
         <v>158</v>
       </c>
       <c r="B160" t="n">
+        <v>186.1</v>
+      </c>
+      <c r="C160" t="n">
         <v>185.4</v>
       </c>
-      <c r="C160" t="n">
-        <v>186.4</v>
-      </c>
       <c r="D160" t="n">
-        <v>186.4</v>
+        <v>186.1</v>
       </c>
       <c r="E160" t="n">
         <v>185.4</v>
       </c>
       <c r="F160" t="n">
-        <v>155.0005</v>
+        <v>8251.9895</v>
       </c>
       <c r="G160" t="n">
-        <v>188.5516666666666</v>
+        <v>188.6183333333333</v>
       </c>
       <c r="H160" t="n">
         <v>1</v>
@@ -5987,12 +5999,12 @@
         <v>0</v>
       </c>
       <c r="J160" t="n">
-        <v>185.4</v>
+        <v>186.1</v>
       </c>
       <c r="K160" t="inlineStr"/>
       <c r="L160" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M160" t="n">
@@ -6004,7 +6016,7 @@
         <v>159</v>
       </c>
       <c r="B161" t="n">
-        <v>185.9</v>
+        <v>185.4</v>
       </c>
       <c r="C161" t="n">
         <v>186.4</v>
@@ -6013,23 +6025,21 @@
         <v>186.4</v>
       </c>
       <c r="E161" t="n">
-        <v>185.9</v>
+        <v>185.4</v>
       </c>
       <c r="F161" t="n">
-        <v>115.888</v>
+        <v>155.0005</v>
       </c>
       <c r="G161" t="n">
-        <v>188.485</v>
+        <v>188.5516666666666</v>
       </c>
       <c r="H161" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I161" t="n">
         <v>0</v>
       </c>
-      <c r="J161" t="n">
-        <v>186.4</v>
-      </c>
+      <c r="J161" t="inlineStr"/>
       <c r="K161" t="inlineStr"/>
       <c r="L161" t="inlineStr">
         <is>
@@ -6045,30 +6055,32 @@
         <v>160</v>
       </c>
       <c r="B162" t="n">
-        <v>185.6</v>
+        <v>185.9</v>
       </c>
       <c r="C162" t="n">
-        <v>185.6</v>
+        <v>186.4</v>
       </c>
       <c r="D162" t="n">
-        <v>185.6</v>
+        <v>186.4</v>
       </c>
       <c r="E162" t="n">
-        <v>185.6</v>
+        <v>185.9</v>
       </c>
       <c r="F162" t="n">
-        <v>7544.2598</v>
+        <v>115.888</v>
       </c>
       <c r="G162" t="n">
-        <v>188.405</v>
+        <v>188.485</v>
       </c>
       <c r="H162" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I162" t="n">
         <v>0</v>
       </c>
-      <c r="J162" t="inlineStr"/>
+      <c r="J162" t="n">
+        <v>186.4</v>
+      </c>
       <c r="K162" t="inlineStr"/>
       <c r="L162" t="inlineStr">
         <is>
@@ -6084,32 +6096,30 @@
         <v>161</v>
       </c>
       <c r="B163" t="n">
-        <v>186</v>
+        <v>185.6</v>
       </c>
       <c r="C163" t="n">
-        <v>186</v>
+        <v>185.6</v>
       </c>
       <c r="D163" t="n">
-        <v>186</v>
+        <v>185.6</v>
       </c>
       <c r="E163" t="n">
-        <v>186</v>
+        <v>185.6</v>
       </c>
       <c r="F163" t="n">
-        <v>128.2609</v>
+        <v>7544.2598</v>
       </c>
       <c r="G163" t="n">
-        <v>188.3316666666666</v>
+        <v>188.405</v>
       </c>
       <c r="H163" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I163" t="n">
         <v>0</v>
       </c>
-      <c r="J163" t="n">
-        <v>185.6</v>
-      </c>
+      <c r="J163" t="inlineStr"/>
       <c r="K163" t="inlineStr"/>
       <c r="L163" t="inlineStr">
         <is>
@@ -6137,20 +6147,18 @@
         <v>186</v>
       </c>
       <c r="F164" t="n">
-        <v>166.739</v>
+        <v>128.2609</v>
       </c>
       <c r="G164" t="n">
-        <v>188.2583333333333</v>
+        <v>188.3316666666666</v>
       </c>
       <c r="H164" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I164" t="n">
         <v>0</v>
       </c>
-      <c r="J164" t="n">
-        <v>186</v>
-      </c>
+      <c r="J164" t="inlineStr"/>
       <c r="K164" t="inlineStr"/>
       <c r="L164" t="inlineStr">
         <is>
@@ -6172,26 +6180,24 @@
         <v>186</v>
       </c>
       <c r="D165" t="n">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E165" t="n">
         <v>186</v>
       </c>
       <c r="F165" t="n">
-        <v>131.8325</v>
+        <v>166.739</v>
       </c>
       <c r="G165" t="n">
-        <v>188.185</v>
+        <v>188.2583333333333</v>
       </c>
       <c r="H165" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I165" t="n">
         <v>0</v>
       </c>
-      <c r="J165" t="n">
-        <v>186</v>
-      </c>
+      <c r="J165" t="inlineStr"/>
       <c r="K165" t="inlineStr"/>
       <c r="L165" t="inlineStr">
         <is>
@@ -6207,32 +6213,30 @@
         <v>164</v>
       </c>
       <c r="B166" t="n">
-        <v>185.6</v>
+        <v>186</v>
       </c>
       <c r="C166" t="n">
-        <v>185.6</v>
+        <v>186</v>
       </c>
       <c r="D166" t="n">
-        <v>185.6</v>
+        <v>187</v>
       </c>
       <c r="E166" t="n">
-        <v>185.6</v>
+        <v>186</v>
       </c>
       <c r="F166" t="n">
-        <v>1545</v>
+        <v>131.8325</v>
       </c>
       <c r="G166" t="n">
-        <v>188.105</v>
+        <v>188.185</v>
       </c>
       <c r="H166" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I166" t="n">
         <v>0</v>
       </c>
-      <c r="J166" t="n">
-        <v>186</v>
-      </c>
+      <c r="J166" t="inlineStr"/>
       <c r="K166" t="inlineStr"/>
       <c r="L166" t="inlineStr">
         <is>
@@ -6248,32 +6252,30 @@
         <v>165</v>
       </c>
       <c r="B167" t="n">
-        <v>185.5</v>
+        <v>185.6</v>
       </c>
       <c r="C167" t="n">
-        <v>185.5</v>
+        <v>185.6</v>
       </c>
       <c r="D167" t="n">
-        <v>185.5</v>
+        <v>185.6</v>
       </c>
       <c r="E167" t="n">
-        <v>185.5</v>
+        <v>185.6</v>
       </c>
       <c r="F167" t="n">
-        <v>430.1913</v>
+        <v>1545</v>
       </c>
       <c r="G167" t="n">
-        <v>188.0133333333333</v>
+        <v>188.105</v>
       </c>
       <c r="H167" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I167" t="n">
         <v>0</v>
       </c>
-      <c r="J167" t="n">
-        <v>185.6</v>
-      </c>
+      <c r="J167" t="inlineStr"/>
       <c r="K167" t="inlineStr"/>
       <c r="L167" t="inlineStr">
         <is>
@@ -6289,32 +6291,30 @@
         <v>166</v>
       </c>
       <c r="B168" t="n">
-        <v>185.4</v>
+        <v>185.5</v>
       </c>
       <c r="C168" t="n">
-        <v>185.4</v>
+        <v>185.5</v>
       </c>
       <c r="D168" t="n">
-        <v>185.4</v>
+        <v>185.5</v>
       </c>
       <c r="E168" t="n">
-        <v>185.4</v>
+        <v>185.5</v>
       </c>
       <c r="F168" t="n">
-        <v>80.5029</v>
+        <v>430.1913</v>
       </c>
       <c r="G168" t="n">
-        <v>187.93</v>
+        <v>188.0133333333333</v>
       </c>
       <c r="H168" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I168" t="n">
         <v>0</v>
       </c>
-      <c r="J168" t="n">
-        <v>185.5</v>
-      </c>
+      <c r="J168" t="inlineStr"/>
       <c r="K168" t="inlineStr"/>
       <c r="L168" t="inlineStr">
         <is>
@@ -6330,32 +6330,30 @@
         <v>167</v>
       </c>
       <c r="B169" t="n">
-        <v>186</v>
+        <v>185.4</v>
       </c>
       <c r="C169" t="n">
-        <v>187</v>
+        <v>185.4</v>
       </c>
       <c r="D169" t="n">
-        <v>187</v>
+        <v>185.4</v>
       </c>
       <c r="E169" t="n">
-        <v>186</v>
+        <v>185.4</v>
       </c>
       <c r="F169" t="n">
-        <v>5446.95582406</v>
+        <v>80.5029</v>
       </c>
       <c r="G169" t="n">
-        <v>187.8766666666667</v>
+        <v>187.93</v>
       </c>
       <c r="H169" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I169" t="n">
         <v>0</v>
       </c>
-      <c r="J169" t="n">
-        <v>185.4</v>
-      </c>
+      <c r="J169" t="inlineStr"/>
       <c r="K169" t="inlineStr"/>
       <c r="L169" t="inlineStr">
         <is>
@@ -6371,7 +6369,7 @@
         <v>168</v>
       </c>
       <c r="B170" t="n">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C170" t="n">
         <v>187</v>
@@ -6380,13 +6378,13 @@
         <v>187</v>
       </c>
       <c r="E170" t="n">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="F170" t="n">
-        <v>21390.37433152</v>
+        <v>5446.95582406</v>
       </c>
       <c r="G170" t="n">
-        <v>187.85</v>
+        <v>187.8766666666667</v>
       </c>
       <c r="H170" t="n">
         <v>1</v>
@@ -6395,7 +6393,7 @@
         <v>0</v>
       </c>
       <c r="J170" t="n">
-        <v>187</v>
+        <v>185.4</v>
       </c>
       <c r="K170" t="inlineStr"/>
       <c r="L170" t="inlineStr">
@@ -6424,10 +6422,10 @@
         <v>187</v>
       </c>
       <c r="F171" t="n">
-        <v>5347.59358288</v>
+        <v>21390.37433152</v>
       </c>
       <c r="G171" t="n">
-        <v>187.8316666666666</v>
+        <v>187.85</v>
       </c>
       <c r="H171" t="n">
         <v>0</v>
@@ -6466,7 +6464,7 @@
         <v>5347.59358288</v>
       </c>
       <c r="G172" t="n">
-        <v>187.8066666666667</v>
+        <v>187.8316666666666</v>
       </c>
       <c r="H172" t="n">
         <v>0</v>
@@ -6502,10 +6500,10 @@
         <v>187</v>
       </c>
       <c r="F173" t="n">
-        <v>9518.71657753</v>
+        <v>5347.59358288</v>
       </c>
       <c r="G173" t="n">
-        <v>187.7616666666667</v>
+        <v>187.8066666666667</v>
       </c>
       <c r="H173" t="n">
         <v>0</v>
@@ -6529,22 +6527,22 @@
         <v>172</v>
       </c>
       <c r="B174" t="n">
-        <v>185.5</v>
+        <v>187</v>
       </c>
       <c r="C174" t="n">
-        <v>185.5</v>
+        <v>187</v>
       </c>
       <c r="D174" t="n">
-        <v>185.5</v>
+        <v>187</v>
       </c>
       <c r="E174" t="n">
-        <v>185.5</v>
+        <v>187</v>
       </c>
       <c r="F174" t="n">
-        <v>3141.7771</v>
+        <v>9518.71657753</v>
       </c>
       <c r="G174" t="n">
-        <v>187.715</v>
+        <v>187.7616666666667</v>
       </c>
       <c r="H174" t="n">
         <v>0</v>
@@ -6580,10 +6578,10 @@
         <v>185.5</v>
       </c>
       <c r="F175" t="n">
-        <v>572.4395</v>
+        <v>3141.7771</v>
       </c>
       <c r="G175" t="n">
-        <v>187.6566666666667</v>
+        <v>187.715</v>
       </c>
       <c r="H175" t="n">
         <v>0</v>
@@ -6607,22 +6605,22 @@
         <v>174</v>
       </c>
       <c r="B176" t="n">
-        <v>185.3</v>
+        <v>185.5</v>
       </c>
       <c r="C176" t="n">
-        <v>185</v>
+        <v>185.5</v>
       </c>
       <c r="D176" t="n">
-        <v>185.3</v>
+        <v>185.5</v>
       </c>
       <c r="E176" t="n">
-        <v>185</v>
+        <v>185.5</v>
       </c>
       <c r="F176" t="n">
-        <v>3530.4183</v>
+        <v>572.4395</v>
       </c>
       <c r="G176" t="n">
-        <v>187.5916666666667</v>
+        <v>187.6566666666667</v>
       </c>
       <c r="H176" t="n">
         <v>0</v>
@@ -6646,22 +6644,22 @@
         <v>175</v>
       </c>
       <c r="B177" t="n">
-        <v>185.1</v>
+        <v>185.3</v>
       </c>
       <c r="C177" t="n">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="D177" t="n">
-        <v>185.1</v>
+        <v>185.3</v>
       </c>
       <c r="E177" t="n">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="F177" t="n">
-        <v>19505.1451</v>
+        <v>3530.4183</v>
       </c>
       <c r="G177" t="n">
-        <v>187.5183333333333</v>
+        <v>187.5916666666667</v>
       </c>
       <c r="H177" t="n">
         <v>0</v>
@@ -6685,22 +6683,22 @@
         <v>176</v>
       </c>
       <c r="B178" t="n">
-        <v>186.6</v>
+        <v>185.1</v>
       </c>
       <c r="C178" t="n">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="D178" t="n">
-        <v>187</v>
+        <v>185.1</v>
       </c>
       <c r="E178" t="n">
-        <v>186.6</v>
+        <v>184</v>
       </c>
       <c r="F178" t="n">
-        <v>11500</v>
+        <v>19505.1451</v>
       </c>
       <c r="G178" t="n">
-        <v>187.4683333333333</v>
+        <v>187.5183333333333</v>
       </c>
       <c r="H178" t="n">
         <v>0</v>
@@ -6724,7 +6722,7 @@
         <v>177</v>
       </c>
       <c r="B179" t="n">
-        <v>187</v>
+        <v>186.6</v>
       </c>
       <c r="C179" t="n">
         <v>187</v>
@@ -6733,13 +6731,13 @@
         <v>187</v>
       </c>
       <c r="E179" t="n">
-        <v>187</v>
+        <v>186.6</v>
       </c>
       <c r="F179" t="n">
-        <v>6</v>
+        <v>11500</v>
       </c>
       <c r="G179" t="n">
-        <v>187.4416666666667</v>
+        <v>187.4683333333333</v>
       </c>
       <c r="H179" t="n">
         <v>0</v>
@@ -6766,66 +6764,72 @@
         <v>187</v>
       </c>
       <c r="C180" t="n">
-        <v>188.5</v>
+        <v>187</v>
       </c>
       <c r="D180" t="n">
-        <v>188.5</v>
+        <v>187</v>
       </c>
       <c r="E180" t="n">
         <v>187</v>
       </c>
       <c r="F180" t="n">
-        <v>9515.386</v>
+        <v>6</v>
       </c>
       <c r="G180" t="n">
-        <v>187.4166666666667</v>
+        <v>187.4416666666667</v>
       </c>
       <c r="H180" t="n">
         <v>0</v>
       </c>
       <c r="I180" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J180" t="inlineStr"/>
       <c r="K180" t="inlineStr"/>
       <c r="L180" t="inlineStr">
         <is>
-          <t>매도 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
-      <c r="M180" t="inlineStr"/>
+      <c r="M180" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="181">
       <c r="A181" s="1" t="n">
         <v>179</v>
       </c>
       <c r="B181" t="n">
-        <v>187.1</v>
+        <v>187</v>
       </c>
       <c r="C181" t="n">
-        <v>187</v>
+        <v>188.5</v>
       </c>
       <c r="D181" t="n">
-        <v>187.1</v>
+        <v>188.5</v>
       </c>
       <c r="E181" t="n">
         <v>187</v>
       </c>
       <c r="F181" t="n">
-        <v>1328.528</v>
+        <v>9515.386</v>
       </c>
       <c r="G181" t="n">
-        <v>187.3666666666667</v>
+        <v>187.4166666666667</v>
       </c>
       <c r="H181" t="n">
         <v>0</v>
       </c>
       <c r="I181" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J181" t="inlineStr"/>
       <c r="K181" t="inlineStr"/>
-      <c r="L181" t="inlineStr"/>
+      <c r="L181" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M181" t="n">
         <v>1</v>
       </c>
@@ -6835,22 +6839,22 @@
         <v>180</v>
       </c>
       <c r="B182" t="n">
+        <v>187.1</v>
+      </c>
+      <c r="C182" t="n">
         <v>187</v>
       </c>
-      <c r="C182" t="n">
-        <v>188</v>
-      </c>
       <c r="D182" t="n">
-        <v>188</v>
+        <v>187.1</v>
       </c>
       <c r="E182" t="n">
         <v>187</v>
       </c>
       <c r="F182" t="n">
-        <v>2629.84974468</v>
+        <v>1328.528</v>
       </c>
       <c r="G182" t="n">
-        <v>187.3583333333333</v>
+        <v>187.3666666666667</v>
       </c>
       <c r="H182" t="n">
         <v>0</v>
@@ -6860,38 +6864,40 @@
       </c>
       <c r="J182" t="inlineStr"/>
       <c r="K182" t="inlineStr"/>
-      <c r="L182" t="inlineStr"/>
-      <c r="M182" t="n">
-        <v>1</v>
-      </c>
+      <c r="L182" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="M182" t="inlineStr"/>
     </row>
     <row r="183">
       <c r="A183" s="1" t="n">
         <v>181</v>
       </c>
       <c r="B183" t="n">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="C183" t="n">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="D183" t="n">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="E183" t="n">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="F183" t="n">
-        <v>547.196</v>
+        <v>2629.84974468</v>
       </c>
       <c r="G183" t="n">
-        <v>187.3216666666667</v>
+        <v>187.3583333333333</v>
       </c>
       <c r="H183" t="n">
         <v>0</v>
       </c>
       <c r="I183" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J183" t="inlineStr"/>
       <c r="K183" t="inlineStr"/>
@@ -6917,16 +6923,16 @@
         <v>186</v>
       </c>
       <c r="F184" t="n">
-        <v>461.999</v>
+        <v>547.196</v>
       </c>
       <c r="G184" t="n">
-        <v>187.27</v>
+        <v>187.3216666666667</v>
       </c>
       <c r="H184" t="n">
         <v>0</v>
       </c>
       <c r="I184" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J184" t="inlineStr"/>
       <c r="K184" t="inlineStr"/>
@@ -6952,16 +6958,16 @@
         <v>186</v>
       </c>
       <c r="F185" t="n">
-        <v>726.654</v>
+        <v>461.999</v>
       </c>
       <c r="G185" t="n">
-        <v>187.2183333333333</v>
+        <v>187.27</v>
       </c>
       <c r="H185" t="n">
         <v>0</v>
       </c>
       <c r="I185" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J185" t="inlineStr"/>
       <c r="K185" t="inlineStr"/>
@@ -6970,6 +6976,41 @@
         <v>1</v>
       </c>
     </row>
+    <row r="186">
+      <c r="A186" s="1" t="n">
+        <v>184</v>
+      </c>
+      <c r="B186" t="n">
+        <v>186</v>
+      </c>
+      <c r="C186" t="n">
+        <v>186</v>
+      </c>
+      <c r="D186" t="n">
+        <v>186</v>
+      </c>
+      <c r="E186" t="n">
+        <v>186</v>
+      </c>
+      <c r="F186" t="n">
+        <v>726.654</v>
+      </c>
+      <c r="G186" t="n">
+        <v>187.2183333333333</v>
+      </c>
+      <c r="H186" t="n">
+        <v>0</v>
+      </c>
+      <c r="I186" t="n">
+        <v>0</v>
+      </c>
+      <c r="J186" t="inlineStr"/>
+      <c r="K186" t="inlineStr"/>
+      <c r="L186" t="inlineStr"/>
+      <c r="M186" t="n">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/BackTest/2020-01-24 BackTest STEEM.xlsx
+++ b/BackTest/2020-01-24 BackTest STEEM.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M186"/>
+  <dimension ref="A1:N196"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -394,35 +394,40 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
+          <t>CMO</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>MA60</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>low_check</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>high_check</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>BuyPrice</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>bprelay</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Condition</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
@@ -448,18 +453,21 @@
         <v>156.9621</v>
       </c>
       <c r="G2" t="n">
+        <v>195.7666666666666</v>
+      </c>
+      <c r="H2" t="n">
         <v>196.3549999999999</v>
       </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
-      <c r="J2" t="inlineStr"/>
+      <c r="J2" t="n">
+        <v>1</v>
+      </c>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
-      <c r="M2" t="n">
+      <c r="M2" t="inlineStr"/>
+      <c r="N2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -483,18 +491,21 @@
         <v>589.343</v>
       </c>
       <c r="G3" t="n">
+        <v>195.8266666666667</v>
+      </c>
+      <c r="H3" t="n">
         <v>196.3583333333333</v>
       </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
-      <c r="J3" t="inlineStr"/>
+      <c r="J3" t="n">
+        <v>1</v>
+      </c>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="inlineStr"/>
-      <c r="M3" t="n">
+      <c r="M3" t="inlineStr"/>
+      <c r="N3" t="n">
         <v>1</v>
       </c>
     </row>
@@ -518,18 +529,21 @@
         <v>13.8979</v>
       </c>
       <c r="G4" t="n">
+        <v>195.9466666666667</v>
+      </c>
+      <c r="H4" t="n">
         <v>196.3783333333333</v>
       </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
-      <c r="J4" t="inlineStr"/>
+      <c r="J4" t="n">
+        <v>1</v>
+      </c>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="inlineStr"/>
-      <c r="M4" t="n">
+      <c r="M4" t="inlineStr"/>
+      <c r="N4" t="n">
         <v>1</v>
       </c>
     </row>
@@ -553,18 +567,21 @@
         <v>714.1848</v>
       </c>
       <c r="G5" t="n">
+        <v>195.84</v>
+      </c>
+      <c r="H5" t="n">
         <v>196.3933333333333</v>
       </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
       <c r="I5" t="n">
         <v>0</v>
       </c>
-      <c r="J5" t="inlineStr"/>
+      <c r="J5" t="n">
+        <v>1</v>
+      </c>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="inlineStr"/>
-      <c r="M5" t="n">
+      <c r="M5" t="inlineStr"/>
+      <c r="N5" t="n">
         <v>1</v>
       </c>
     </row>
@@ -588,18 +605,21 @@
         <v>125</v>
       </c>
       <c r="G6" t="n">
+        <v>195.84</v>
+      </c>
+      <c r="H6" t="n">
         <v>196.4333333333333</v>
       </c>
-      <c r="H6" t="n">
-        <v>0</v>
-      </c>
       <c r="I6" t="n">
         <v>0</v>
       </c>
-      <c r="J6" t="inlineStr"/>
+      <c r="J6" t="n">
+        <v>1</v>
+      </c>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="inlineStr"/>
-      <c r="M6" t="n">
+      <c r="M6" t="inlineStr"/>
+      <c r="N6" t="n">
         <v>1</v>
       </c>
     </row>
@@ -623,18 +643,21 @@
         <v>154.8711</v>
       </c>
       <c r="G7" t="n">
+        <v>195.8666666666667</v>
+      </c>
+      <c r="H7" t="n">
         <v>196.4799999999999</v>
       </c>
-      <c r="H7" t="n">
-        <v>0</v>
-      </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
-      <c r="J7" t="inlineStr"/>
+      <c r="J7" t="n">
+        <v>1</v>
+      </c>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="inlineStr"/>
-      <c r="M7" t="n">
+      <c r="M7" t="inlineStr"/>
+      <c r="N7" t="n">
         <v>1</v>
       </c>
     </row>
@@ -658,18 +681,21 @@
         <v>3540</v>
       </c>
       <c r="G8" t="n">
+        <v>195.94</v>
+      </c>
+      <c r="H8" t="n">
         <v>196.5399999999999</v>
       </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
       <c r="I8" t="n">
         <v>0</v>
       </c>
-      <c r="J8" t="inlineStr"/>
+      <c r="J8" t="n">
+        <v>1</v>
+      </c>
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="inlineStr"/>
-      <c r="M8" t="n">
+      <c r="M8" t="inlineStr"/>
+      <c r="N8" t="n">
         <v>1</v>
       </c>
     </row>
@@ -693,18 +719,21 @@
         <v>11011.203</v>
       </c>
       <c r="G9" t="n">
+        <v>196.1733333333333</v>
+      </c>
+      <c r="H9" t="n">
         <v>196.5749999999999</v>
       </c>
-      <c r="H9" t="n">
-        <v>0</v>
-      </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
-      <c r="J9" t="inlineStr"/>
+      <c r="J9" t="n">
+        <v>1</v>
+      </c>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="inlineStr"/>
-      <c r="M9" t="n">
+      <c r="M9" t="inlineStr"/>
+      <c r="N9" t="n">
         <v>1</v>
       </c>
     </row>
@@ -728,18 +757,21 @@
         <v>364</v>
       </c>
       <c r="G10" t="n">
+        <v>196.1066666666667</v>
+      </c>
+      <c r="H10" t="n">
         <v>196.5749999999999</v>
       </c>
-      <c r="H10" t="n">
-        <v>0</v>
-      </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
-      <c r="J10" t="inlineStr"/>
+      <c r="J10" t="n">
+        <v>1</v>
+      </c>
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="inlineStr"/>
-      <c r="M10" t="n">
+      <c r="M10" t="inlineStr"/>
+      <c r="N10" t="n">
         <v>1</v>
       </c>
     </row>
@@ -763,18 +795,21 @@
         <v>9889.360000000001</v>
       </c>
       <c r="G11" t="n">
+        <v>196.0933333333333</v>
+      </c>
+      <c r="H11" t="n">
         <v>196.5749999999999</v>
       </c>
-      <c r="H11" t="n">
-        <v>0</v>
-      </c>
       <c r="I11" t="n">
         <v>0</v>
       </c>
-      <c r="J11" t="inlineStr"/>
+      <c r="J11" t="n">
+        <v>1</v>
+      </c>
       <c r="K11" t="inlineStr"/>
       <c r="L11" t="inlineStr"/>
-      <c r="M11" t="n">
+      <c r="M11" t="inlineStr"/>
+      <c r="N11" t="n">
         <v>1</v>
       </c>
     </row>
@@ -798,18 +833,21 @@
         <v>2742.427</v>
       </c>
       <c r="G12" t="n">
+        <v>196.1333333333333</v>
+      </c>
+      <c r="H12" t="n">
         <v>196.5633333333332</v>
       </c>
-      <c r="H12" t="n">
-        <v>0</v>
-      </c>
       <c r="I12" t="n">
         <v>0</v>
       </c>
-      <c r="J12" t="inlineStr"/>
+      <c r="J12" t="n">
+        <v>1</v>
+      </c>
       <c r="K12" t="inlineStr"/>
       <c r="L12" t="inlineStr"/>
-      <c r="M12" t="n">
+      <c r="M12" t="inlineStr"/>
+      <c r="N12" t="n">
         <v>1</v>
       </c>
     </row>
@@ -833,18 +871,21 @@
         <v>17045.9414</v>
       </c>
       <c r="G13" t="n">
+        <v>196.1266666666666</v>
+      </c>
+      <c r="H13" t="n">
         <v>196.5316666666666</v>
       </c>
-      <c r="H13" t="n">
-        <v>0</v>
-      </c>
       <c r="I13" t="n">
         <v>0</v>
       </c>
-      <c r="J13" t="inlineStr"/>
+      <c r="J13" t="n">
+        <v>1</v>
+      </c>
       <c r="K13" t="inlineStr"/>
       <c r="L13" t="inlineStr"/>
-      <c r="M13" t="n">
+      <c r="M13" t="inlineStr"/>
+      <c r="N13" t="n">
         <v>1</v>
       </c>
     </row>
@@ -868,18 +909,21 @@
         <v>6156</v>
       </c>
       <c r="G14" t="n">
+        <v>196.1266666666666</v>
+      </c>
+      <c r="H14" t="n">
         <v>196.5099999999999</v>
       </c>
-      <c r="H14" t="n">
-        <v>0</v>
-      </c>
       <c r="I14" t="n">
         <v>0</v>
       </c>
-      <c r="J14" t="inlineStr"/>
+      <c r="J14" t="n">
+        <v>1</v>
+      </c>
       <c r="K14" t="inlineStr"/>
       <c r="L14" t="inlineStr"/>
-      <c r="M14" t="n">
+      <c r="M14" t="inlineStr"/>
+      <c r="N14" t="n">
         <v>1</v>
       </c>
     </row>
@@ -903,18 +947,21 @@
         <v>45</v>
       </c>
       <c r="G15" t="n">
+        <v>196.1333333333333</v>
+      </c>
+      <c r="H15" t="n">
         <v>196.4899999999999</v>
       </c>
-      <c r="H15" t="n">
-        <v>0</v>
-      </c>
       <c r="I15" t="n">
         <v>0</v>
       </c>
-      <c r="J15" t="inlineStr"/>
+      <c r="J15" t="n">
+        <v>1</v>
+      </c>
       <c r="K15" t="inlineStr"/>
       <c r="L15" t="inlineStr"/>
-      <c r="M15" t="n">
+      <c r="M15" t="inlineStr"/>
+      <c r="N15" t="n">
         <v>1</v>
       </c>
     </row>
@@ -938,18 +985,21 @@
         <v>541</v>
       </c>
       <c r="G16" t="n">
+        <v>196.14</v>
+      </c>
+      <c r="H16" t="n">
         <v>196.4716666666666</v>
       </c>
-      <c r="H16" t="n">
-        <v>0</v>
-      </c>
       <c r="I16" t="n">
         <v>0</v>
       </c>
-      <c r="J16" t="inlineStr"/>
+      <c r="J16" t="n">
+        <v>1</v>
+      </c>
       <c r="K16" t="inlineStr"/>
       <c r="L16" t="inlineStr"/>
-      <c r="M16" t="n">
+      <c r="M16" t="inlineStr"/>
+      <c r="N16" t="n">
         <v>1</v>
       </c>
     </row>
@@ -973,18 +1023,21 @@
         <v>1010.4349</v>
       </c>
       <c r="G17" t="n">
+        <v>196.04</v>
+      </c>
+      <c r="H17" t="n">
         <v>196.4233333333332</v>
       </c>
-      <c r="H17" t="n">
-        <v>0</v>
-      </c>
       <c r="I17" t="n">
         <v>0</v>
       </c>
-      <c r="J17" t="inlineStr"/>
+      <c r="J17" t="n">
+        <v>0</v>
+      </c>
       <c r="K17" t="inlineStr"/>
       <c r="L17" t="inlineStr"/>
-      <c r="M17" t="n">
+      <c r="M17" t="inlineStr"/>
+      <c r="N17" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1008,18 +1061,21 @@
         <v>471.849</v>
       </c>
       <c r="G18" t="n">
+        <v>195.9066666666666</v>
+      </c>
+      <c r="H18" t="n">
         <v>196.3749999999999</v>
       </c>
-      <c r="H18" t="n">
-        <v>0</v>
-      </c>
       <c r="I18" t="n">
         <v>0</v>
       </c>
-      <c r="J18" t="inlineStr"/>
+      <c r="J18" t="n">
+        <v>0</v>
+      </c>
       <c r="K18" t="inlineStr"/>
       <c r="L18" t="inlineStr"/>
-      <c r="M18" t="n">
+      <c r="M18" t="inlineStr"/>
+      <c r="N18" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1043,18 +1099,21 @@
         <v>267</v>
       </c>
       <c r="G19" t="n">
+        <v>195.7533333333333</v>
+      </c>
+      <c r="H19" t="n">
         <v>196.3683333333333</v>
       </c>
-      <c r="H19" t="n">
-        <v>0</v>
-      </c>
       <c r="I19" t="n">
         <v>0</v>
       </c>
-      <c r="J19" t="inlineStr"/>
+      <c r="J19" t="n">
+        <v>1</v>
+      </c>
       <c r="K19" t="inlineStr"/>
       <c r="L19" t="inlineStr"/>
-      <c r="M19" t="n">
+      <c r="M19" t="inlineStr"/>
+      <c r="N19" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1078,18 +1137,21 @@
         <v>1545.8041</v>
       </c>
       <c r="G20" t="n">
+        <v>195.6599999999999</v>
+      </c>
+      <c r="H20" t="n">
         <v>196.3599999999999</v>
       </c>
-      <c r="H20" t="n">
-        <v>0</v>
-      </c>
       <c r="I20" t="n">
         <v>0</v>
       </c>
-      <c r="J20" t="inlineStr"/>
+      <c r="J20" t="n">
+        <v>0</v>
+      </c>
       <c r="K20" t="inlineStr"/>
       <c r="L20" t="inlineStr"/>
-      <c r="M20" t="n">
+      <c r="M20" t="inlineStr"/>
+      <c r="N20" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1113,18 +1175,21 @@
         <v>4260</v>
       </c>
       <c r="G21" t="n">
+        <v>195.46</v>
+      </c>
+      <c r="H21" t="n">
         <v>196.3499999999999</v>
       </c>
-      <c r="H21" t="n">
-        <v>0</v>
-      </c>
       <c r="I21" t="n">
         <v>0</v>
       </c>
-      <c r="J21" t="inlineStr"/>
+      <c r="J21" t="n">
+        <v>1</v>
+      </c>
       <c r="K21" t="inlineStr"/>
       <c r="L21" t="inlineStr"/>
-      <c r="M21" t="n">
+      <c r="M21" t="inlineStr"/>
+      <c r="N21" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1148,18 +1213,21 @@
         <v>3400.6357</v>
       </c>
       <c r="G22" t="n">
+        <v>195.2599999999999</v>
+      </c>
+      <c r="H22" t="n">
         <v>196.3183333333332</v>
       </c>
-      <c r="H22" t="n">
-        <v>0</v>
-      </c>
       <c r="I22" t="n">
         <v>0</v>
       </c>
-      <c r="J22" t="inlineStr"/>
+      <c r="J22" t="n">
+        <v>1</v>
+      </c>
       <c r="K22" t="inlineStr"/>
       <c r="L22" t="inlineStr"/>
-      <c r="M22" t="n">
+      <c r="M22" t="inlineStr"/>
+      <c r="N22" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1183,18 +1251,21 @@
         <v>1916.7573</v>
       </c>
       <c r="G23" t="n">
+        <v>195.0133333333333</v>
+      </c>
+      <c r="H23" t="n">
         <v>196.2999999999999</v>
       </c>
-      <c r="H23" t="n">
-        <v>0</v>
-      </c>
       <c r="I23" t="n">
         <v>0</v>
       </c>
-      <c r="J23" t="inlineStr"/>
+      <c r="J23" t="n">
+        <v>1</v>
+      </c>
       <c r="K23" t="inlineStr"/>
       <c r="L23" t="inlineStr"/>
-      <c r="M23" t="n">
+      <c r="M23" t="inlineStr"/>
+      <c r="N23" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1218,18 +1289,21 @@
         <v>7000</v>
       </c>
       <c r="G24" t="n">
+        <v>194.6466666666666</v>
+      </c>
+      <c r="H24" t="n">
         <v>196.2366666666666</v>
       </c>
-      <c r="H24" t="n">
-        <v>0</v>
-      </c>
       <c r="I24" t="n">
         <v>0</v>
       </c>
-      <c r="J24" t="inlineStr"/>
+      <c r="J24" t="n">
+        <v>1</v>
+      </c>
       <c r="K24" t="inlineStr"/>
       <c r="L24" t="inlineStr"/>
-      <c r="M24" t="n">
+      <c r="M24" t="inlineStr"/>
+      <c r="N24" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1253,18 +1327,21 @@
         <v>7809.396</v>
       </c>
       <c r="G25" t="n">
+        <v>194.42</v>
+      </c>
+      <c r="H25" t="n">
         <v>196.1733333333333</v>
       </c>
-      <c r="H25" t="n">
-        <v>0</v>
-      </c>
       <c r="I25" t="n">
         <v>0</v>
       </c>
-      <c r="J25" t="inlineStr"/>
+      <c r="J25" t="n">
+        <v>1</v>
+      </c>
       <c r="K25" t="inlineStr"/>
       <c r="L25" t="inlineStr"/>
-      <c r="M25" t="n">
+      <c r="M25" t="inlineStr"/>
+      <c r="N25" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1288,18 +1365,21 @@
         <v>6724.1806</v>
       </c>
       <c r="G26" t="n">
+        <v>194.24</v>
+      </c>
+      <c r="H26" t="n">
         <v>196.0833333333333</v>
       </c>
-      <c r="H26" t="n">
-        <v>0</v>
-      </c>
       <c r="I26" t="n">
         <v>0</v>
       </c>
-      <c r="J26" t="inlineStr"/>
+      <c r="J26" t="n">
+        <v>1</v>
+      </c>
       <c r="K26" t="inlineStr"/>
       <c r="L26" t="inlineStr"/>
-      <c r="M26" t="n">
+      <c r="M26" t="inlineStr"/>
+      <c r="N26" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1323,18 +1403,21 @@
         <v>23417.353</v>
       </c>
       <c r="G27" t="n">
+        <v>194.0066666666666</v>
+      </c>
+      <c r="H27" t="n">
         <v>195.9816666666666</v>
       </c>
-      <c r="H27" t="n">
-        <v>0</v>
-      </c>
       <c r="I27" t="n">
         <v>0</v>
       </c>
-      <c r="J27" t="inlineStr"/>
+      <c r="J27" t="n">
+        <v>0</v>
+      </c>
       <c r="K27" t="inlineStr"/>
       <c r="L27" t="inlineStr"/>
-      <c r="M27" t="n">
+      <c r="M27" t="inlineStr"/>
+      <c r="N27" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1358,18 +1441,21 @@
         <v>1868.8707</v>
       </c>
       <c r="G28" t="n">
+        <v>193.8133333333333</v>
+      </c>
+      <c r="H28" t="n">
         <v>195.8799999999999</v>
       </c>
-      <c r="H28" t="n">
-        <v>0</v>
-      </c>
       <c r="I28" t="n">
         <v>0</v>
       </c>
-      <c r="J28" t="inlineStr"/>
+      <c r="J28" t="n">
+        <v>0</v>
+      </c>
       <c r="K28" t="inlineStr"/>
       <c r="L28" t="inlineStr"/>
-      <c r="M28" t="n">
+      <c r="M28" t="inlineStr"/>
+      <c r="N28" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1393,18 +1479,21 @@
         <v>7502.1906</v>
       </c>
       <c r="G29" t="n">
+        <v>193.6866666666666</v>
+      </c>
+      <c r="H29" t="n">
         <v>195.7749999999999</v>
       </c>
-      <c r="H29" t="n">
-        <v>0</v>
-      </c>
       <c r="I29" t="n">
         <v>0</v>
       </c>
-      <c r="J29" t="inlineStr"/>
+      <c r="J29" t="n">
+        <v>0</v>
+      </c>
       <c r="K29" t="inlineStr"/>
       <c r="L29" t="inlineStr"/>
-      <c r="M29" t="n">
+      <c r="M29" t="inlineStr"/>
+      <c r="N29" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1428,18 +1517,21 @@
         <v>391.2127</v>
       </c>
       <c r="G30" t="n">
+        <v>193.52</v>
+      </c>
+      <c r="H30" t="n">
         <v>195.6983333333333</v>
       </c>
-      <c r="H30" t="n">
-        <v>0</v>
-      </c>
       <c r="I30" t="n">
         <v>0</v>
       </c>
-      <c r="J30" t="inlineStr"/>
+      <c r="J30" t="n">
+        <v>0</v>
+      </c>
       <c r="K30" t="inlineStr"/>
       <c r="L30" t="inlineStr"/>
-      <c r="M30" t="n">
+      <c r="M30" t="inlineStr"/>
+      <c r="N30" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1463,18 +1555,21 @@
         <v>7152.0619</v>
       </c>
       <c r="G31" t="n">
+        <v>193.32</v>
+      </c>
+      <c r="H31" t="n">
         <v>195.6149999999999</v>
       </c>
-      <c r="H31" t="n">
-        <v>0</v>
-      </c>
       <c r="I31" t="n">
         <v>0</v>
       </c>
-      <c r="J31" t="inlineStr"/>
+      <c r="J31" t="n">
+        <v>0</v>
+      </c>
       <c r="K31" t="inlineStr"/>
       <c r="L31" t="inlineStr"/>
-      <c r="M31" t="n">
+      <c r="M31" t="inlineStr"/>
+      <c r="N31" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1498,18 +1593,21 @@
         <v>8003.4763</v>
       </c>
       <c r="G32" t="n">
+        <v>193.0533333333333</v>
+      </c>
+      <c r="H32" t="n">
         <v>195.5166666666666</v>
       </c>
-      <c r="H32" t="n">
-        <v>0</v>
-      </c>
       <c r="I32" t="n">
         <v>0</v>
       </c>
-      <c r="J32" t="inlineStr"/>
+      <c r="J32" t="n">
+        <v>0</v>
+      </c>
       <c r="K32" t="inlineStr"/>
       <c r="L32" t="inlineStr"/>
-      <c r="M32" t="n">
+      <c r="M32" t="inlineStr"/>
+      <c r="N32" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1533,18 +1631,21 @@
         <v>2293.2974</v>
       </c>
       <c r="G33" t="n">
+        <v>192.7866666666666</v>
+      </c>
+      <c r="H33" t="n">
         <v>195.4016666666666</v>
       </c>
-      <c r="H33" t="n">
-        <v>0</v>
-      </c>
       <c r="I33" t="n">
         <v>0</v>
       </c>
-      <c r="J33" t="inlineStr"/>
+      <c r="J33" t="n">
+        <v>0</v>
+      </c>
       <c r="K33" t="inlineStr"/>
       <c r="L33" t="inlineStr"/>
-      <c r="M33" t="n">
+      <c r="M33" t="inlineStr"/>
+      <c r="N33" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1568,18 +1669,21 @@
         <v>1000</v>
       </c>
       <c r="G34" t="n">
+        <v>192.4733333333333</v>
+      </c>
+      <c r="H34" t="n">
         <v>195.3016666666666</v>
       </c>
-      <c r="H34" t="n">
-        <v>0</v>
-      </c>
       <c r="I34" t="n">
         <v>0</v>
       </c>
-      <c r="J34" t="inlineStr"/>
+      <c r="J34" t="n">
+        <v>0</v>
+      </c>
       <c r="K34" t="inlineStr"/>
       <c r="L34" t="inlineStr"/>
-      <c r="M34" t="n">
+      <c r="M34" t="inlineStr"/>
+      <c r="N34" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1603,18 +1707,21 @@
         <v>71</v>
       </c>
       <c r="G35" t="n">
+        <v>192.1666666666666</v>
+      </c>
+      <c r="H35" t="n">
         <v>195.17</v>
       </c>
-      <c r="H35" t="n">
-        <v>0</v>
-      </c>
       <c r="I35" t="n">
         <v>0</v>
       </c>
-      <c r="J35" t="inlineStr"/>
+      <c r="J35" t="n">
+        <v>0</v>
+      </c>
       <c r="K35" t="inlineStr"/>
       <c r="L35" t="inlineStr"/>
-      <c r="M35" t="n">
+      <c r="M35" t="inlineStr"/>
+      <c r="N35" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1638,18 +1745,21 @@
         <v>161.545</v>
       </c>
       <c r="G36" t="n">
+        <v>191.88</v>
+      </c>
+      <c r="H36" t="n">
         <v>195.0733333333333</v>
       </c>
-      <c r="H36" t="n">
-        <v>0</v>
-      </c>
       <c r="I36" t="n">
         <v>0</v>
       </c>
-      <c r="J36" t="inlineStr"/>
+      <c r="J36" t="n">
+        <v>0</v>
+      </c>
       <c r="K36" t="inlineStr"/>
       <c r="L36" t="inlineStr"/>
-      <c r="M36" t="n">
+      <c r="M36" t="inlineStr"/>
+      <c r="N36" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1673,18 +1783,21 @@
         <v>377.1786</v>
       </c>
       <c r="G37" t="n">
+        <v>191.5666666666666</v>
+      </c>
+      <c r="H37" t="n">
         <v>194.9466666666666</v>
       </c>
-      <c r="H37" t="n">
-        <v>0</v>
-      </c>
       <c r="I37" t="n">
         <v>0</v>
       </c>
-      <c r="J37" t="inlineStr"/>
+      <c r="J37" t="n">
+        <v>0</v>
+      </c>
       <c r="K37" t="inlineStr"/>
       <c r="L37" t="inlineStr"/>
-      <c r="M37" t="n">
+      <c r="M37" t="inlineStr"/>
+      <c r="N37" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1708,18 +1821,21 @@
         <v>1500</v>
       </c>
       <c r="G38" t="n">
+        <v>191.2333333333333</v>
+      </c>
+      <c r="H38" t="n">
         <v>194.815</v>
       </c>
-      <c r="H38" t="n">
-        <v>0</v>
-      </c>
       <c r="I38" t="n">
         <v>0</v>
       </c>
-      <c r="J38" t="inlineStr"/>
+      <c r="J38" t="n">
+        <v>0</v>
+      </c>
       <c r="K38" t="inlineStr"/>
       <c r="L38" t="inlineStr"/>
-      <c r="M38" t="n">
+      <c r="M38" t="inlineStr"/>
+      <c r="N38" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1743,18 +1859,21 @@
         <v>192.7404</v>
       </c>
       <c r="G39" t="n">
+        <v>191.0866666666666</v>
+      </c>
+      <c r="H39" t="n">
         <v>194.7</v>
       </c>
-      <c r="H39" t="n">
-        <v>0</v>
-      </c>
       <c r="I39" t="n">
         <v>0</v>
       </c>
-      <c r="J39" t="inlineStr"/>
+      <c r="J39" t="n">
+        <v>0</v>
+      </c>
       <c r="K39" t="inlineStr"/>
       <c r="L39" t="inlineStr"/>
-      <c r="M39" t="n">
+      <c r="M39" t="inlineStr"/>
+      <c r="N39" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1778,18 +1897,21 @@
         <v>8569.6072</v>
       </c>
       <c r="G40" t="n">
+        <v>190.7866666666667</v>
+      </c>
+      <c r="H40" t="n">
         <v>194.5466666666667</v>
       </c>
-      <c r="H40" t="n">
-        <v>0</v>
-      </c>
       <c r="I40" t="n">
         <v>0</v>
       </c>
-      <c r="J40" t="inlineStr"/>
+      <c r="J40" t="n">
+        <v>0</v>
+      </c>
       <c r="K40" t="inlineStr"/>
       <c r="L40" t="inlineStr"/>
-      <c r="M40" t="n">
+      <c r="M40" t="inlineStr"/>
+      <c r="N40" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1813,18 +1935,21 @@
         <v>187</v>
       </c>
       <c r="G41" t="n">
+        <v>190.54</v>
+      </c>
+      <c r="H41" t="n">
         <v>194.395</v>
       </c>
-      <c r="H41" t="n">
-        <v>0</v>
-      </c>
       <c r="I41" t="n">
         <v>0</v>
       </c>
-      <c r="J41" t="inlineStr"/>
+      <c r="J41" t="n">
+        <v>0</v>
+      </c>
       <c r="K41" t="inlineStr"/>
       <c r="L41" t="inlineStr"/>
-      <c r="M41" t="n">
+      <c r="M41" t="inlineStr"/>
+      <c r="N41" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1848,18 +1973,21 @@
         <v>6297.685</v>
       </c>
       <c r="G42" t="n">
+        <v>190.4266666666667</v>
+      </c>
+      <c r="H42" t="n">
         <v>194.2766666666666</v>
       </c>
-      <c r="H42" t="n">
-        <v>0</v>
-      </c>
       <c r="I42" t="n">
         <v>0</v>
       </c>
-      <c r="J42" t="inlineStr"/>
+      <c r="J42" t="n">
+        <v>0</v>
+      </c>
       <c r="K42" t="inlineStr"/>
       <c r="L42" t="inlineStr"/>
-      <c r="M42" t="n">
+      <c r="M42" t="inlineStr"/>
+      <c r="N42" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1883,18 +2011,21 @@
         <v>195.57</v>
       </c>
       <c r="G43" t="n">
+        <v>190.22</v>
+      </c>
+      <c r="H43" t="n">
         <v>194.1283333333333</v>
       </c>
-      <c r="H43" t="n">
-        <v>0</v>
-      </c>
       <c r="I43" t="n">
         <v>0</v>
       </c>
-      <c r="J43" t="inlineStr"/>
+      <c r="J43" t="n">
+        <v>0</v>
+      </c>
       <c r="K43" t="inlineStr"/>
       <c r="L43" t="inlineStr"/>
-      <c r="M43" t="n">
+      <c r="M43" t="inlineStr"/>
+      <c r="N43" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1918,18 +2049,21 @@
         <v>125</v>
       </c>
       <c r="G44" t="n">
+        <v>190.02</v>
+      </c>
+      <c r="H44" t="n">
         <v>193.9816666666667</v>
       </c>
-      <c r="H44" t="n">
-        <v>0</v>
-      </c>
       <c r="I44" t="n">
         <v>0</v>
       </c>
-      <c r="J44" t="inlineStr"/>
+      <c r="J44" t="n">
+        <v>0</v>
+      </c>
       <c r="K44" t="inlineStr"/>
       <c r="L44" t="inlineStr"/>
-      <c r="M44" t="n">
+      <c r="M44" t="inlineStr"/>
+      <c r="N44" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1953,18 +2087,21 @@
         <v>7000</v>
       </c>
       <c r="G45" t="n">
+        <v>190.0266666666667</v>
+      </c>
+      <c r="H45" t="n">
         <v>193.8783333333334</v>
       </c>
-      <c r="H45" t="n">
-        <v>0</v>
-      </c>
       <c r="I45" t="n">
         <v>0</v>
       </c>
-      <c r="J45" t="inlineStr"/>
+      <c r="J45" t="n">
+        <v>0</v>
+      </c>
       <c r="K45" t="inlineStr"/>
       <c r="L45" t="inlineStr"/>
-      <c r="M45" t="n">
+      <c r="M45" t="inlineStr"/>
+      <c r="N45" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1988,18 +2125,21 @@
         <v>5540.1138</v>
       </c>
       <c r="G46" t="n">
+        <v>189.96</v>
+      </c>
+      <c r="H46" t="n">
         <v>193.79</v>
       </c>
-      <c r="H46" t="n">
-        <v>0</v>
-      </c>
       <c r="I46" t="n">
         <v>0</v>
       </c>
-      <c r="J46" t="inlineStr"/>
+      <c r="J46" t="n">
+        <v>0</v>
+      </c>
       <c r="K46" t="inlineStr"/>
       <c r="L46" t="inlineStr"/>
-      <c r="M46" t="n">
+      <c r="M46" t="inlineStr"/>
+      <c r="N46" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2023,18 +2163,21 @@
         <v>13846.5879</v>
       </c>
       <c r="G47" t="n">
+        <v>190.0266666666667</v>
+      </c>
+      <c r="H47" t="n">
         <v>193.7216666666667</v>
       </c>
-      <c r="H47" t="n">
-        <v>0</v>
-      </c>
       <c r="I47" t="n">
         <v>0</v>
       </c>
-      <c r="J47" t="inlineStr"/>
+      <c r="J47" t="n">
+        <v>0</v>
+      </c>
       <c r="K47" t="inlineStr"/>
       <c r="L47" t="inlineStr"/>
-      <c r="M47" t="n">
+      <c r="M47" t="inlineStr"/>
+      <c r="N47" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2058,18 +2201,21 @@
         <v>2755.1094</v>
       </c>
       <c r="G48" t="n">
+        <v>190.0933333333333</v>
+      </c>
+      <c r="H48" t="n">
         <v>193.6533333333333</v>
       </c>
-      <c r="H48" t="n">
-        <v>0</v>
-      </c>
       <c r="I48" t="n">
         <v>0</v>
       </c>
-      <c r="J48" t="inlineStr"/>
+      <c r="J48" t="n">
+        <v>0</v>
+      </c>
       <c r="K48" t="inlineStr"/>
       <c r="L48" t="inlineStr"/>
-      <c r="M48" t="n">
+      <c r="M48" t="inlineStr"/>
+      <c r="N48" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2093,18 +2239,21 @@
         <v>368.7145</v>
       </c>
       <c r="G49" t="n">
+        <v>190.3266666666667</v>
+      </c>
+      <c r="H49" t="n">
         <v>193.625</v>
       </c>
-      <c r="H49" t="n">
-        <v>0</v>
-      </c>
       <c r="I49" t="n">
         <v>0</v>
       </c>
-      <c r="J49" t="inlineStr"/>
+      <c r="J49" t="n">
+        <v>0</v>
+      </c>
       <c r="K49" t="inlineStr"/>
       <c r="L49" t="inlineStr"/>
-      <c r="M49" t="n">
+      <c r="M49" t="inlineStr"/>
+      <c r="N49" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2128,18 +2277,21 @@
         <v>7544.4752</v>
       </c>
       <c r="G50" t="n">
+        <v>190.2666666666667</v>
+      </c>
+      <c r="H50" t="n">
         <v>193.4833333333333</v>
       </c>
-      <c r="H50" t="n">
-        <v>0</v>
-      </c>
       <c r="I50" t="n">
         <v>0</v>
       </c>
-      <c r="J50" t="inlineStr"/>
+      <c r="J50" t="n">
+        <v>0</v>
+      </c>
       <c r="K50" t="inlineStr"/>
       <c r="L50" t="inlineStr"/>
-      <c r="M50" t="n">
+      <c r="M50" t="inlineStr"/>
+      <c r="N50" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2163,18 +2315,21 @@
         <v>3</v>
       </c>
       <c r="G51" t="n">
+        <v>190.46</v>
+      </c>
+      <c r="H51" t="n">
         <v>193.41</v>
       </c>
-      <c r="H51" t="n">
-        <v>0</v>
-      </c>
       <c r="I51" t="n">
         <v>0</v>
       </c>
-      <c r="J51" t="inlineStr"/>
+      <c r="J51" t="n">
+        <v>0</v>
+      </c>
       <c r="K51" t="inlineStr"/>
       <c r="L51" t="inlineStr"/>
-      <c r="M51" t="n">
+      <c r="M51" t="inlineStr"/>
+      <c r="N51" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2198,18 +2353,21 @@
         <v>5966.6318</v>
       </c>
       <c r="G52" t="n">
+        <v>190.44</v>
+      </c>
+      <c r="H52" t="n">
         <v>193.2833333333333</v>
       </c>
-      <c r="H52" t="n">
-        <v>0</v>
-      </c>
       <c r="I52" t="n">
         <v>0</v>
       </c>
-      <c r="J52" t="inlineStr"/>
+      <c r="J52" t="n">
+        <v>0</v>
+      </c>
       <c r="K52" t="inlineStr"/>
       <c r="L52" t="inlineStr"/>
-      <c r="M52" t="n">
+      <c r="M52" t="inlineStr"/>
+      <c r="N52" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2233,18 +2391,21 @@
         <v>443.7528</v>
       </c>
       <c r="G53" t="n">
+        <v>190.44</v>
+      </c>
+      <c r="H53" t="n">
         <v>193.1566666666667</v>
       </c>
-      <c r="H53" t="n">
-        <v>0</v>
-      </c>
       <c r="I53" t="n">
         <v>0</v>
       </c>
-      <c r="J53" t="inlineStr"/>
+      <c r="J53" t="n">
+        <v>0</v>
+      </c>
       <c r="K53" t="inlineStr"/>
       <c r="L53" t="inlineStr"/>
-      <c r="M53" t="n">
+      <c r="M53" t="inlineStr"/>
+      <c r="N53" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2268,18 +2429,21 @@
         <v>3</v>
       </c>
       <c r="G54" t="n">
+        <v>190.5</v>
+      </c>
+      <c r="H54" t="n">
         <v>193.1016666666666</v>
       </c>
-      <c r="H54" t="n">
-        <v>0</v>
-      </c>
       <c r="I54" t="n">
         <v>0</v>
       </c>
-      <c r="J54" t="inlineStr"/>
+      <c r="J54" t="n">
+        <v>0</v>
+      </c>
       <c r="K54" t="inlineStr"/>
       <c r="L54" t="inlineStr"/>
-      <c r="M54" t="n">
+      <c r="M54" t="inlineStr"/>
+      <c r="N54" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2303,18 +2467,21 @@
         <v>169</v>
       </c>
       <c r="G55" t="n">
+        <v>190.5866666666667</v>
+      </c>
+      <c r="H55" t="n">
         <v>192.975</v>
       </c>
-      <c r="H55" t="n">
-        <v>0</v>
-      </c>
       <c r="I55" t="n">
         <v>0</v>
       </c>
-      <c r="J55" t="inlineStr"/>
+      <c r="J55" t="n">
+        <v>0</v>
+      </c>
       <c r="K55" t="inlineStr"/>
       <c r="L55" t="inlineStr"/>
-      <c r="M55" t="n">
+      <c r="M55" t="inlineStr"/>
+      <c r="N55" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2338,18 +2505,21 @@
         <v>603.3353</v>
       </c>
       <c r="G56" t="n">
+        <v>190.7933333333334</v>
+      </c>
+      <c r="H56" t="n">
         <v>192.9166666666666</v>
       </c>
-      <c r="H56" t="n">
-        <v>0</v>
-      </c>
       <c r="I56" t="n">
         <v>0</v>
       </c>
-      <c r="J56" t="inlineStr"/>
+      <c r="J56" t="n">
+        <v>0</v>
+      </c>
       <c r="K56" t="inlineStr"/>
       <c r="L56" t="inlineStr"/>
-      <c r="M56" t="n">
+      <c r="M56" t="inlineStr"/>
+      <c r="N56" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2373,18 +2543,21 @@
         <v>9980.3194</v>
       </c>
       <c r="G57" t="n">
+        <v>190.76</v>
+      </c>
+      <c r="H57" t="n">
         <v>192.8316666666666</v>
       </c>
-      <c r="H57" t="n">
-        <v>0</v>
-      </c>
       <c r="I57" t="n">
         <v>0</v>
       </c>
-      <c r="J57" t="inlineStr"/>
+      <c r="J57" t="n">
+        <v>0</v>
+      </c>
       <c r="K57" t="inlineStr"/>
       <c r="L57" t="inlineStr"/>
-      <c r="M57" t="n">
+      <c r="M57" t="inlineStr"/>
+      <c r="N57" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2408,18 +2581,21 @@
         <v>3</v>
       </c>
       <c r="G58" t="n">
+        <v>191.0533333333333</v>
+      </c>
+      <c r="H58" t="n">
         <v>192.8033333333333</v>
       </c>
-      <c r="H58" t="n">
-        <v>0</v>
-      </c>
       <c r="I58" t="n">
         <v>0</v>
       </c>
-      <c r="J58" t="inlineStr"/>
+      <c r="J58" t="n">
+        <v>0</v>
+      </c>
       <c r="K58" t="inlineStr"/>
       <c r="L58" t="inlineStr"/>
-      <c r="M58" t="n">
+      <c r="M58" t="inlineStr"/>
+      <c r="N58" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2443,18 +2619,21 @@
         <v>3</v>
       </c>
       <c r="G59" t="n">
+        <v>191.4333333333333</v>
+      </c>
+      <c r="H59" t="n">
         <v>192.8166666666666</v>
       </c>
-      <c r="H59" t="n">
-        <v>0</v>
-      </c>
       <c r="I59" t="n">
         <v>0</v>
       </c>
-      <c r="J59" t="inlineStr"/>
+      <c r="J59" t="n">
+        <v>0</v>
+      </c>
       <c r="K59" t="inlineStr"/>
       <c r="L59" t="inlineStr"/>
-      <c r="M59" t="n">
+      <c r="M59" t="inlineStr"/>
+      <c r="N59" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2478,18 +2657,21 @@
         <v>700.99</v>
       </c>
       <c r="G60" t="n">
+        <v>191.3933333333333</v>
+      </c>
+      <c r="H60" t="n">
         <v>192.7683333333333</v>
       </c>
-      <c r="H60" t="n">
-        <v>0</v>
-      </c>
       <c r="I60" t="n">
         <v>0</v>
       </c>
-      <c r="J60" t="inlineStr"/>
+      <c r="J60" t="n">
+        <v>0</v>
+      </c>
       <c r="K60" t="inlineStr"/>
       <c r="L60" t="inlineStr"/>
-      <c r="M60" t="n">
+      <c r="M60" t="inlineStr"/>
+      <c r="N60" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2513,18 +2695,21 @@
         <v>3</v>
       </c>
       <c r="G61" t="n">
+        <v>191.56</v>
+      </c>
+      <c r="H61" t="n">
         <v>192.745</v>
       </c>
-      <c r="H61" t="n">
-        <v>0</v>
-      </c>
       <c r="I61" t="n">
         <v>0</v>
       </c>
-      <c r="J61" t="inlineStr"/>
+      <c r="J61" t="n">
+        <v>0</v>
+      </c>
       <c r="K61" t="inlineStr"/>
       <c r="L61" t="inlineStr"/>
-      <c r="M61" t="n">
+      <c r="M61" t="inlineStr"/>
+      <c r="N61" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2548,18 +2733,21 @@
         <v>3</v>
       </c>
       <c r="G62" t="n">
+        <v>191.6866666666667</v>
+      </c>
+      <c r="H62" t="n">
         <v>192.7016666666667</v>
       </c>
-      <c r="H62" t="n">
-        <v>0</v>
-      </c>
       <c r="I62" t="n">
         <v>0</v>
       </c>
-      <c r="J62" t="inlineStr"/>
+      <c r="J62" t="n">
+        <v>0</v>
+      </c>
       <c r="K62" t="inlineStr"/>
       <c r="L62" t="inlineStr"/>
-      <c r="M62" t="n">
+      <c r="M62" t="inlineStr"/>
+      <c r="N62" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2583,18 +2771,21 @@
         <v>5700</v>
       </c>
       <c r="G63" t="n">
+        <v>191.6866666666667</v>
+      </c>
+      <c r="H63" t="n">
         <v>192.6183333333333</v>
       </c>
-      <c r="H63" t="n">
-        <v>0</v>
-      </c>
       <c r="I63" t="n">
         <v>0</v>
       </c>
-      <c r="J63" t="inlineStr"/>
+      <c r="J63" t="n">
+        <v>0</v>
+      </c>
       <c r="K63" t="inlineStr"/>
       <c r="L63" t="inlineStr"/>
-      <c r="M63" t="n">
+      <c r="M63" t="inlineStr"/>
+      <c r="N63" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2618,18 +2809,21 @@
         <v>7500</v>
       </c>
       <c r="G64" t="n">
+        <v>191.52</v>
+      </c>
+      <c r="H64" t="n">
         <v>192.5183333333333</v>
       </c>
-      <c r="H64" t="n">
-        <v>0</v>
-      </c>
       <c r="I64" t="n">
         <v>0</v>
       </c>
-      <c r="J64" t="inlineStr"/>
+      <c r="J64" t="n">
+        <v>0</v>
+      </c>
       <c r="K64" t="inlineStr"/>
       <c r="L64" t="inlineStr"/>
-      <c r="M64" t="n">
+      <c r="M64" t="inlineStr"/>
+      <c r="N64" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2653,18 +2847,21 @@
         <v>2196.1326</v>
       </c>
       <c r="G65" t="n">
+        <v>191.6466666666667</v>
+      </c>
+      <c r="H65" t="n">
         <v>192.435</v>
       </c>
-      <c r="H65" t="n">
-        <v>0</v>
-      </c>
       <c r="I65" t="n">
         <v>0</v>
       </c>
-      <c r="J65" t="inlineStr"/>
+      <c r="J65" t="n">
+        <v>0</v>
+      </c>
       <c r="K65" t="inlineStr"/>
       <c r="L65" t="inlineStr"/>
-      <c r="M65" t="n">
+      <c r="M65" t="inlineStr"/>
+      <c r="N65" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2688,18 +2885,21 @@
         <v>3092</v>
       </c>
       <c r="G66" t="n">
+        <v>191.5066666666667</v>
+      </c>
+      <c r="H66" t="n">
         <v>192.3266666666667</v>
       </c>
-      <c r="H66" t="n">
-        <v>0</v>
-      </c>
       <c r="I66" t="n">
         <v>0</v>
       </c>
-      <c r="J66" t="inlineStr"/>
+      <c r="J66" t="n">
+        <v>0</v>
+      </c>
       <c r="K66" t="inlineStr"/>
       <c r="L66" t="inlineStr"/>
-      <c r="M66" t="n">
+      <c r="M66" t="inlineStr"/>
+      <c r="N66" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2723,18 +2923,21 @@
         <v>7673.2026</v>
       </c>
       <c r="G67" t="n">
+        <v>191.6666666666667</v>
+      </c>
+      <c r="H67" t="n">
         <v>192.2333333333333</v>
       </c>
-      <c r="H67" t="n">
-        <v>0</v>
-      </c>
       <c r="I67" t="n">
         <v>0</v>
       </c>
-      <c r="J67" t="inlineStr"/>
+      <c r="J67" t="n">
+        <v>0</v>
+      </c>
       <c r="K67" t="inlineStr"/>
       <c r="L67" t="inlineStr"/>
-      <c r="M67" t="n">
+      <c r="M67" t="inlineStr"/>
+      <c r="N67" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2758,18 +2961,21 @@
         <v>3</v>
       </c>
       <c r="G68" t="n">
+        <v>191.86</v>
+      </c>
+      <c r="H68" t="n">
         <v>192.1366666666666</v>
       </c>
-      <c r="H68" t="n">
-        <v>0</v>
-      </c>
       <c r="I68" t="n">
         <v>0</v>
       </c>
-      <c r="J68" t="inlineStr"/>
+      <c r="J68" t="n">
+        <v>0</v>
+      </c>
       <c r="K68" t="inlineStr"/>
       <c r="L68" t="inlineStr"/>
-      <c r="M68" t="n">
+      <c r="M68" t="inlineStr"/>
+      <c r="N68" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2793,18 +2999,21 @@
         <v>65.90000000000001</v>
       </c>
       <c r="G69" t="n">
+        <v>191.8</v>
+      </c>
+      <c r="H69" t="n">
         <v>192.0083333333333</v>
       </c>
-      <c r="H69" t="n">
-        <v>0</v>
-      </c>
       <c r="I69" t="n">
         <v>0</v>
       </c>
-      <c r="J69" t="inlineStr"/>
+      <c r="J69" t="n">
+        <v>0</v>
+      </c>
       <c r="K69" t="inlineStr"/>
       <c r="L69" t="inlineStr"/>
-      <c r="M69" t="n">
+      <c r="M69" t="inlineStr"/>
+      <c r="N69" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2828,18 +3037,21 @@
         <v>8733.416499999999</v>
       </c>
       <c r="G70" t="n">
+        <v>191.9333333333334</v>
+      </c>
+      <c r="H70" t="n">
         <v>191.9316666666666</v>
       </c>
-      <c r="H70" t="n">
-        <v>0</v>
-      </c>
       <c r="I70" t="n">
         <v>0</v>
       </c>
-      <c r="J70" t="inlineStr"/>
+      <c r="J70" t="n">
+        <v>0</v>
+      </c>
       <c r="K70" t="inlineStr"/>
       <c r="L70" t="inlineStr"/>
-      <c r="M70" t="n">
+      <c r="M70" t="inlineStr"/>
+      <c r="N70" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2863,18 +3075,21 @@
         <v>543.328</v>
       </c>
       <c r="G71" t="n">
+        <v>191.94</v>
+      </c>
+      <c r="H71" t="n">
         <v>191.8783333333332</v>
       </c>
-      <c r="H71" t="n">
-        <v>0</v>
-      </c>
       <c r="I71" t="n">
         <v>0</v>
       </c>
-      <c r="J71" t="inlineStr"/>
+      <c r="J71" t="n">
+        <v>0</v>
+      </c>
       <c r="K71" t="inlineStr"/>
       <c r="L71" t="inlineStr"/>
-      <c r="M71" t="n">
+      <c r="M71" t="inlineStr"/>
+      <c r="N71" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2898,18 +3113,21 @@
         <v>1477.2524</v>
       </c>
       <c r="G72" t="n">
+        <v>192.0533333333333</v>
+      </c>
+      <c r="H72" t="n">
         <v>191.8116666666666</v>
       </c>
-      <c r="H72" t="n">
-        <v>0</v>
-      </c>
       <c r="I72" t="n">
         <v>0</v>
       </c>
-      <c r="J72" t="inlineStr"/>
+      <c r="J72" t="n">
+        <v>0</v>
+      </c>
       <c r="K72" t="inlineStr"/>
       <c r="L72" t="inlineStr"/>
-      <c r="M72" t="n">
+      <c r="M72" t="inlineStr"/>
+      <c r="N72" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2933,18 +3151,21 @@
         <v>946.7415999999999</v>
       </c>
       <c r="G73" t="n">
+        <v>191.96</v>
+      </c>
+      <c r="H73" t="n">
         <v>191.7616666666666</v>
       </c>
-      <c r="H73" t="n">
-        <v>0</v>
-      </c>
       <c r="I73" t="n">
         <v>0</v>
       </c>
-      <c r="J73" t="inlineStr"/>
+      <c r="J73" t="n">
+        <v>0</v>
+      </c>
       <c r="K73" t="inlineStr"/>
       <c r="L73" t="inlineStr"/>
-      <c r="M73" t="n">
+      <c r="M73" t="inlineStr"/>
+      <c r="N73" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2968,18 +3189,21 @@
         <v>752.5667</v>
       </c>
       <c r="G74" t="n">
+        <v>191.78</v>
+      </c>
+      <c r="H74" t="n">
         <v>191.7299999999999</v>
       </c>
-      <c r="H74" t="n">
-        <v>0</v>
-      </c>
       <c r="I74" t="n">
         <v>0</v>
       </c>
-      <c r="J74" t="inlineStr"/>
+      <c r="J74" t="n">
+        <v>0</v>
+      </c>
       <c r="K74" t="inlineStr"/>
       <c r="L74" t="inlineStr"/>
-      <c r="M74" t="n">
+      <c r="M74" t="inlineStr"/>
+      <c r="N74" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3003,18 +3227,21 @@
         <v>135.7691</v>
       </c>
       <c r="G75" t="n">
+        <v>191.7866666666667</v>
+      </c>
+      <c r="H75" t="n">
         <v>191.6816666666666</v>
       </c>
-      <c r="H75" t="n">
-        <v>0</v>
-      </c>
       <c r="I75" t="n">
         <v>0</v>
       </c>
-      <c r="J75" t="inlineStr"/>
+      <c r="J75" t="n">
+        <v>0</v>
+      </c>
       <c r="K75" t="inlineStr"/>
       <c r="L75" t="inlineStr"/>
-      <c r="M75" t="n">
+      <c r="M75" t="inlineStr"/>
+      <c r="N75" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3038,18 +3265,21 @@
         <v>7780.4136</v>
       </c>
       <c r="G76" t="n">
+        <v>191.6933333333333</v>
+      </c>
+      <c r="H76" t="n">
         <v>191.6333333333333</v>
       </c>
-      <c r="H76" t="n">
-        <v>0</v>
-      </c>
       <c r="I76" t="n">
         <v>0</v>
       </c>
-      <c r="J76" t="inlineStr"/>
+      <c r="J76" t="n">
+        <v>0</v>
+      </c>
       <c r="K76" t="inlineStr"/>
       <c r="L76" t="inlineStr"/>
-      <c r="M76" t="n">
+      <c r="M76" t="inlineStr"/>
+      <c r="N76" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3073,18 +3303,21 @@
         <v>199.7371</v>
       </c>
       <c r="G77" t="n">
+        <v>191.5733333333333</v>
+      </c>
+      <c r="H77" t="n">
         <v>191.585</v>
       </c>
-      <c r="H77" t="n">
-        <v>0</v>
-      </c>
       <c r="I77" t="n">
         <v>0</v>
       </c>
-      <c r="J77" t="inlineStr"/>
+      <c r="J77" t="n">
+        <v>0</v>
+      </c>
       <c r="K77" t="inlineStr"/>
       <c r="L77" t="inlineStr"/>
-      <c r="M77" t="n">
+      <c r="M77" t="inlineStr"/>
+      <c r="N77" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3108,18 +3341,21 @@
         <v>69.5626</v>
       </c>
       <c r="G78" t="n">
+        <v>191.64</v>
+      </c>
+      <c r="H78" t="n">
         <v>191.5516666666666</v>
       </c>
-      <c r="H78" t="n">
-        <v>0</v>
-      </c>
       <c r="I78" t="n">
         <v>0</v>
       </c>
-      <c r="J78" t="inlineStr"/>
+      <c r="J78" t="n">
+        <v>0</v>
+      </c>
       <c r="K78" t="inlineStr"/>
       <c r="L78" t="inlineStr"/>
-      <c r="M78" t="n">
+      <c r="M78" t="inlineStr"/>
+      <c r="N78" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3143,18 +3379,21 @@
         <v>119.7373</v>
       </c>
       <c r="G79" t="n">
+        <v>191.64</v>
+      </c>
+      <c r="H79" t="n">
         <v>191.4899999999999</v>
       </c>
-      <c r="H79" t="n">
-        <v>0</v>
-      </c>
       <c r="I79" t="n">
         <v>0</v>
       </c>
-      <c r="J79" t="inlineStr"/>
+      <c r="J79" t="n">
+        <v>0</v>
+      </c>
       <c r="K79" t="inlineStr"/>
       <c r="L79" t="inlineStr"/>
-      <c r="M79" t="n">
+      <c r="M79" t="inlineStr"/>
+      <c r="N79" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3178,18 +3417,21 @@
         <v>38.9223</v>
       </c>
       <c r="G80" t="n">
+        <v>191.66</v>
+      </c>
+      <c r="H80" t="n">
         <v>191.4349999999999</v>
       </c>
-      <c r="H80" t="n">
-        <v>0</v>
-      </c>
       <c r="I80" t="n">
         <v>0</v>
       </c>
-      <c r="J80" t="inlineStr"/>
+      <c r="J80" t="n">
+        <v>0</v>
+      </c>
       <c r="K80" t="inlineStr"/>
       <c r="L80" t="inlineStr"/>
-      <c r="M80" t="n">
+      <c r="M80" t="inlineStr"/>
+      <c r="N80" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3213,18 +3455,21 @@
         <v>968.2148</v>
       </c>
       <c r="G81" t="n">
+        <v>191.68</v>
+      </c>
+      <c r="H81" t="n">
         <v>191.3816666666666</v>
       </c>
-      <c r="H81" t="n">
-        <v>0</v>
-      </c>
       <c r="I81" t="n">
         <v>0</v>
       </c>
-      <c r="J81" t="inlineStr"/>
+      <c r="J81" t="n">
+        <v>0</v>
+      </c>
       <c r="K81" t="inlineStr"/>
       <c r="L81" t="inlineStr"/>
-      <c r="M81" t="n">
+      <c r="M81" t="inlineStr"/>
+      <c r="N81" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3248,18 +3493,21 @@
         <v>2639.8618</v>
       </c>
       <c r="G82" t="n">
+        <v>191.6066666666667</v>
+      </c>
+      <c r="H82" t="n">
         <v>191.3199999999999</v>
       </c>
-      <c r="H82" t="n">
-        <v>0</v>
-      </c>
       <c r="I82" t="n">
         <v>0</v>
       </c>
-      <c r="J82" t="inlineStr"/>
+      <c r="J82" t="n">
+        <v>0</v>
+      </c>
       <c r="K82" t="inlineStr"/>
       <c r="L82" t="inlineStr"/>
-      <c r="M82" t="n">
+      <c r="M82" t="inlineStr"/>
+      <c r="N82" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3283,18 +3531,21 @@
         <v>2627.2137</v>
       </c>
       <c r="G83" t="n">
+        <v>191.5</v>
+      </c>
+      <c r="H83" t="n">
         <v>191.2583333333332</v>
       </c>
-      <c r="H83" t="n">
-        <v>0</v>
-      </c>
       <c r="I83" t="n">
         <v>0</v>
       </c>
-      <c r="J83" t="inlineStr"/>
+      <c r="J83" t="n">
+        <v>0</v>
+      </c>
       <c r="K83" t="inlineStr"/>
       <c r="L83" t="inlineStr"/>
-      <c r="M83" t="n">
+      <c r="M83" t="inlineStr"/>
+      <c r="N83" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3318,18 +3569,21 @@
         <v>400</v>
       </c>
       <c r="G84" t="n">
+        <v>191.52</v>
+      </c>
+      <c r="H84" t="n">
         <v>191.2266666666665</v>
       </c>
-      <c r="H84" t="n">
-        <v>0</v>
-      </c>
       <c r="I84" t="n">
         <v>0</v>
       </c>
-      <c r="J84" t="inlineStr"/>
+      <c r="J84" t="n">
+        <v>0</v>
+      </c>
       <c r="K84" t="inlineStr"/>
       <c r="L84" t="inlineStr"/>
-      <c r="M84" t="n">
+      <c r="M84" t="inlineStr"/>
+      <c r="N84" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3353,18 +3607,21 @@
         <v>8060</v>
       </c>
       <c r="G85" t="n">
+        <v>191.4733333333334</v>
+      </c>
+      <c r="H85" t="n">
         <v>191.1949999999998</v>
       </c>
-      <c r="H85" t="n">
-        <v>0</v>
-      </c>
       <c r="I85" t="n">
         <v>0</v>
       </c>
-      <c r="J85" t="inlineStr"/>
+      <c r="J85" t="n">
+        <v>0</v>
+      </c>
       <c r="K85" t="inlineStr"/>
       <c r="L85" t="inlineStr"/>
-      <c r="M85" t="n">
+      <c r="M85" t="inlineStr"/>
+      <c r="N85" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3388,18 +3645,21 @@
         <v>7000</v>
       </c>
       <c r="G86" t="n">
+        <v>191.4266666666667</v>
+      </c>
+      <c r="H86" t="n">
         <v>191.1749999999998</v>
       </c>
-      <c r="H86" t="n">
-        <v>0</v>
-      </c>
       <c r="I86" t="n">
         <v>0</v>
       </c>
-      <c r="J86" t="inlineStr"/>
+      <c r="J86" t="n">
+        <v>0</v>
+      </c>
       <c r="K86" t="inlineStr"/>
       <c r="L86" t="inlineStr"/>
-      <c r="M86" t="n">
+      <c r="M86" t="inlineStr"/>
+      <c r="N86" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3423,18 +3683,21 @@
         <v>3177.6846</v>
       </c>
       <c r="G87" t="n">
+        <v>191.3800000000001</v>
+      </c>
+      <c r="H87" t="n">
         <v>191.1549999999998</v>
       </c>
-      <c r="H87" t="n">
-        <v>0</v>
-      </c>
       <c r="I87" t="n">
         <v>0</v>
       </c>
-      <c r="J87" t="inlineStr"/>
+      <c r="J87" t="n">
+        <v>0</v>
+      </c>
       <c r="K87" t="inlineStr"/>
       <c r="L87" t="inlineStr"/>
-      <c r="M87" t="n">
+      <c r="M87" t="inlineStr"/>
+      <c r="N87" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3458,18 +3721,21 @@
         <v>139.2999</v>
       </c>
       <c r="G88" t="n">
+        <v>191.3133333333334</v>
+      </c>
+      <c r="H88" t="n">
         <v>191.1366666666665</v>
       </c>
-      <c r="H88" t="n">
-        <v>0</v>
-      </c>
       <c r="I88" t="n">
         <v>0</v>
       </c>
-      <c r="J88" t="inlineStr"/>
+      <c r="J88" t="n">
+        <v>0</v>
+      </c>
       <c r="K88" t="inlineStr"/>
       <c r="L88" t="inlineStr"/>
-      <c r="M88" t="n">
+      <c r="M88" t="inlineStr"/>
+      <c r="N88" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3493,18 +3759,21 @@
         <v>156.2327</v>
       </c>
       <c r="G89" t="n">
+        <v>191.2466666666668</v>
+      </c>
+      <c r="H89" t="n">
         <v>191.1199999999998</v>
       </c>
-      <c r="H89" t="n">
-        <v>0</v>
-      </c>
       <c r="I89" t="n">
         <v>0</v>
       </c>
-      <c r="J89" t="inlineStr"/>
+      <c r="J89" t="n">
+        <v>0</v>
+      </c>
       <c r="K89" t="inlineStr"/>
       <c r="L89" t="inlineStr"/>
-      <c r="M89" t="n">
+      <c r="M89" t="inlineStr"/>
+      <c r="N89" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3528,18 +3797,21 @@
         <v>192.9</v>
       </c>
       <c r="G90" t="n">
+        <v>191.2933333333334</v>
+      </c>
+      <c r="H90" t="n">
         <v>191.1249999999998</v>
       </c>
-      <c r="H90" t="n">
-        <v>0</v>
-      </c>
       <c r="I90" t="n">
         <v>0</v>
       </c>
-      <c r="J90" t="inlineStr"/>
+      <c r="J90" t="n">
+        <v>0</v>
+      </c>
       <c r="K90" t="inlineStr"/>
       <c r="L90" t="inlineStr"/>
-      <c r="M90" t="n">
+      <c r="M90" t="inlineStr"/>
+      <c r="N90" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3563,18 +3835,21 @@
         <v>7371.0133</v>
       </c>
       <c r="G91" t="n">
+        <v>191.2266666666668</v>
+      </c>
+      <c r="H91" t="n">
         <v>191.1099999999998</v>
       </c>
-      <c r="H91" t="n">
-        <v>0</v>
-      </c>
       <c r="I91" t="n">
         <v>0</v>
       </c>
-      <c r="J91" t="inlineStr"/>
+      <c r="J91" t="n">
+        <v>0</v>
+      </c>
       <c r="K91" t="inlineStr"/>
       <c r="L91" t="inlineStr"/>
-      <c r="M91" t="n">
+      <c r="M91" t="inlineStr"/>
+      <c r="N91" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3598,18 +3873,21 @@
         <v>170.5227</v>
       </c>
       <c r="G92" t="n">
+        <v>191.1600000000001</v>
+      </c>
+      <c r="H92" t="n">
         <v>191.1116666666665</v>
       </c>
-      <c r="H92" t="n">
-        <v>0</v>
-      </c>
       <c r="I92" t="n">
         <v>0</v>
       </c>
-      <c r="J92" t="inlineStr"/>
+      <c r="J92" t="n">
+        <v>0</v>
+      </c>
       <c r="K92" t="inlineStr"/>
       <c r="L92" t="inlineStr"/>
-      <c r="M92" t="n">
+      <c r="M92" t="inlineStr"/>
+      <c r="N92" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3633,18 +3911,21 @@
         <v>3</v>
       </c>
       <c r="G93" t="n">
+        <v>191.2200000000001</v>
+      </c>
+      <c r="H93" t="n">
         <v>191.1599999999998</v>
       </c>
-      <c r="H93" t="n">
-        <v>0</v>
-      </c>
       <c r="I93" t="n">
         <v>0</v>
       </c>
-      <c r="J93" t="inlineStr"/>
+      <c r="J93" t="n">
+        <v>0</v>
+      </c>
       <c r="K93" t="inlineStr"/>
       <c r="L93" t="inlineStr"/>
-      <c r="M93" t="n">
+      <c r="M93" t="inlineStr"/>
+      <c r="N93" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3668,18 +3949,21 @@
         <v>68.15170000000001</v>
       </c>
       <c r="G94" t="n">
+        <v>191.2200000000001</v>
+      </c>
+      <c r="H94" t="n">
         <v>191.1766666666664</v>
       </c>
-      <c r="H94" t="n">
-        <v>0</v>
-      </c>
       <c r="I94" t="n">
         <v>0</v>
       </c>
-      <c r="J94" t="inlineStr"/>
+      <c r="J94" t="n">
+        <v>0</v>
+      </c>
       <c r="K94" t="inlineStr"/>
       <c r="L94" t="inlineStr"/>
-      <c r="M94" t="n">
+      <c r="M94" t="inlineStr"/>
+      <c r="N94" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3703,18 +3987,21 @@
         <v>65.15170000000001</v>
       </c>
       <c r="G95" t="n">
+        <v>191.2000000000001</v>
+      </c>
+      <c r="H95" t="n">
         <v>191.1933333333331</v>
       </c>
-      <c r="H95" t="n">
-        <v>0</v>
-      </c>
       <c r="I95" t="n">
         <v>0</v>
       </c>
-      <c r="J95" t="inlineStr"/>
+      <c r="J95" t="n">
+        <v>0</v>
+      </c>
       <c r="K95" t="inlineStr"/>
       <c r="L95" t="inlineStr"/>
-      <c r="M95" t="n">
+      <c r="M95" t="inlineStr"/>
+      <c r="N95" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3738,18 +4025,21 @@
         <v>546.7568</v>
       </c>
       <c r="G96" t="n">
+        <v>191.1600000000001</v>
+      </c>
+      <c r="H96" t="n">
         <v>191.2016666666665</v>
       </c>
-      <c r="H96" t="n">
-        <v>0</v>
-      </c>
       <c r="I96" t="n">
         <v>0</v>
       </c>
-      <c r="J96" t="inlineStr"/>
+      <c r="J96" t="n">
+        <v>0</v>
+      </c>
       <c r="K96" t="inlineStr"/>
       <c r="L96" t="inlineStr"/>
-      <c r="M96" t="n">
+      <c r="M96" t="inlineStr"/>
+      <c r="N96" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3773,18 +4063,21 @@
         <v>5855.6374</v>
       </c>
       <c r="G97" t="n">
+        <v>191.1000000000001</v>
+      </c>
+      <c r="H97" t="n">
         <v>191.2033333333331</v>
       </c>
-      <c r="H97" t="n">
-        <v>0</v>
-      </c>
       <c r="I97" t="n">
         <v>0</v>
       </c>
-      <c r="J97" t="inlineStr"/>
+      <c r="J97" t="n">
+        <v>0</v>
+      </c>
       <c r="K97" t="inlineStr"/>
       <c r="L97" t="inlineStr"/>
-      <c r="M97" t="n">
+      <c r="M97" t="inlineStr"/>
+      <c r="N97" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3808,18 +4101,21 @@
         <v>757.5542</v>
       </c>
       <c r="G98" t="n">
+        <v>191.04</v>
+      </c>
+      <c r="H98" t="n">
         <v>191.2099999999998</v>
       </c>
-      <c r="H98" t="n">
-        <v>0</v>
-      </c>
       <c r="I98" t="n">
         <v>0</v>
       </c>
-      <c r="J98" t="inlineStr"/>
+      <c r="J98" t="n">
+        <v>0</v>
+      </c>
       <c r="K98" t="inlineStr"/>
       <c r="L98" t="inlineStr"/>
-      <c r="M98" t="n">
+      <c r="M98" t="inlineStr"/>
+      <c r="N98" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3843,18 +4139,21 @@
         <v>2528.96</v>
       </c>
       <c r="G99" t="n">
+        <v>190.98</v>
+      </c>
+      <c r="H99" t="n">
         <v>191.1999999999998</v>
       </c>
-      <c r="H99" t="n">
-        <v>0</v>
-      </c>
       <c r="I99" t="n">
         <v>0</v>
       </c>
-      <c r="J99" t="inlineStr"/>
+      <c r="J99" t="n">
+        <v>0</v>
+      </c>
       <c r="K99" t="inlineStr"/>
       <c r="L99" t="inlineStr"/>
-      <c r="M99" t="n">
+      <c r="M99" t="inlineStr"/>
+      <c r="N99" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3878,18 +4177,21 @@
         <v>2710.647</v>
       </c>
       <c r="G100" t="n">
+        <v>190.92</v>
+      </c>
+      <c r="H100" t="n">
         <v>191.2283333333331</v>
       </c>
-      <c r="H100" t="n">
-        <v>0</v>
-      </c>
       <c r="I100" t="n">
         <v>0</v>
       </c>
-      <c r="J100" t="inlineStr"/>
+      <c r="J100" t="n">
+        <v>0</v>
+      </c>
       <c r="K100" t="inlineStr"/>
       <c r="L100" t="inlineStr"/>
-      <c r="M100" t="n">
+      <c r="M100" t="inlineStr"/>
+      <c r="N100" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3913,18 +4215,21 @@
         <v>261.5219</v>
       </c>
       <c r="G101" t="n">
+        <v>190.86</v>
+      </c>
+      <c r="H101" t="n">
         <v>191.2549999999998</v>
       </c>
-      <c r="H101" t="n">
-        <v>0</v>
-      </c>
       <c r="I101" t="n">
         <v>0</v>
       </c>
-      <c r="J101" t="inlineStr"/>
+      <c r="J101" t="n">
+        <v>0</v>
+      </c>
       <c r="K101" t="inlineStr"/>
       <c r="L101" t="inlineStr"/>
-      <c r="M101" t="n">
+      <c r="M101" t="inlineStr"/>
+      <c r="N101" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3948,18 +4253,21 @@
         <v>1095</v>
       </c>
       <c r="G102" t="n">
+        <v>190.8</v>
+      </c>
+      <c r="H102" t="n">
         <v>191.2483333333331</v>
       </c>
-      <c r="H102" t="n">
-        <v>0</v>
-      </c>
       <c r="I102" t="n">
         <v>0</v>
       </c>
-      <c r="J102" t="inlineStr"/>
+      <c r="J102" t="n">
+        <v>0</v>
+      </c>
       <c r="K102" t="inlineStr"/>
       <c r="L102" t="inlineStr"/>
-      <c r="M102" t="n">
+      <c r="M102" t="inlineStr"/>
+      <c r="N102" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3983,18 +4291,21 @@
         <v>175</v>
       </c>
       <c r="G103" t="n">
+        <v>190.76</v>
+      </c>
+      <c r="H103" t="n">
         <v>191.2716666666664</v>
       </c>
-      <c r="H103" t="n">
-        <v>0</v>
-      </c>
       <c r="I103" t="n">
         <v>0</v>
       </c>
-      <c r="J103" t="inlineStr"/>
+      <c r="J103" t="n">
+        <v>0</v>
+      </c>
       <c r="K103" t="inlineStr"/>
       <c r="L103" t="inlineStr"/>
-      <c r="M103" t="n">
+      <c r="M103" t="inlineStr"/>
+      <c r="N103" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4018,18 +4329,21 @@
         <v>1481</v>
       </c>
       <c r="G104" t="n">
+        <v>190.7200000000001</v>
+      </c>
+      <c r="H104" t="n">
         <v>191.2949999999998</v>
       </c>
-      <c r="H104" t="n">
-        <v>0</v>
-      </c>
       <c r="I104" t="n">
         <v>0</v>
       </c>
-      <c r="J104" t="inlineStr"/>
+      <c r="J104" t="n">
+        <v>0</v>
+      </c>
       <c r="K104" t="inlineStr"/>
       <c r="L104" t="inlineStr"/>
-      <c r="M104" t="n">
+      <c r="M104" t="inlineStr"/>
+      <c r="N104" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4053,18 +4367,21 @@
         <v>1988.938</v>
       </c>
       <c r="G105" t="n">
+        <v>190.6266666666667</v>
+      </c>
+      <c r="H105" t="n">
         <v>191.2749999999997</v>
       </c>
-      <c r="H105" t="n">
-        <v>0</v>
-      </c>
       <c r="I105" t="n">
         <v>0</v>
       </c>
-      <c r="J105" t="inlineStr"/>
+      <c r="J105" t="n">
+        <v>0</v>
+      </c>
       <c r="K105" t="inlineStr"/>
       <c r="L105" t="inlineStr"/>
-      <c r="M105" t="n">
+      <c r="M105" t="inlineStr"/>
+      <c r="N105" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4088,18 +4405,21 @@
         <v>18973.337</v>
       </c>
       <c r="G106" t="n">
+        <v>190.6466666666667</v>
+      </c>
+      <c r="H106" t="n">
         <v>191.2816666666664</v>
       </c>
-      <c r="H106" t="n">
-        <v>0</v>
-      </c>
       <c r="I106" t="n">
         <v>0</v>
       </c>
-      <c r="J106" t="inlineStr"/>
+      <c r="J106" t="n">
+        <v>0</v>
+      </c>
       <c r="K106" t="inlineStr"/>
       <c r="L106" t="inlineStr"/>
-      <c r="M106" t="n">
+      <c r="M106" t="inlineStr"/>
+      <c r="N106" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4123,18 +4443,21 @@
         <v>167.042</v>
       </c>
       <c r="G107" t="n">
+        <v>190.6666666666667</v>
+      </c>
+      <c r="H107" t="n">
         <v>191.2716666666664</v>
       </c>
-      <c r="H107" t="n">
-        <v>0</v>
-      </c>
       <c r="I107" t="n">
         <v>0</v>
       </c>
-      <c r="J107" t="inlineStr"/>
+      <c r="J107" t="n">
+        <v>0</v>
+      </c>
       <c r="K107" t="inlineStr"/>
       <c r="L107" t="inlineStr"/>
-      <c r="M107" t="n">
+      <c r="M107" t="inlineStr"/>
+      <c r="N107" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4158,18 +4481,21 @@
         <v>1675.9815</v>
       </c>
       <c r="G108" t="n">
+        <v>190.54</v>
+      </c>
+      <c r="H108" t="n">
         <v>191.2716666666664</v>
       </c>
-      <c r="H108" t="n">
-        <v>0</v>
-      </c>
       <c r="I108" t="n">
         <v>0</v>
       </c>
-      <c r="J108" t="inlineStr"/>
+      <c r="J108" t="n">
+        <v>0</v>
+      </c>
       <c r="K108" t="inlineStr"/>
       <c r="L108" t="inlineStr"/>
-      <c r="M108" t="n">
+      <c r="M108" t="inlineStr"/>
+      <c r="N108" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4193,18 +4519,21 @@
         <v>248.616</v>
       </c>
       <c r="G109" t="n">
+        <v>190.5000000000001</v>
+      </c>
+      <c r="H109" t="n">
         <v>191.2199999999997</v>
       </c>
-      <c r="H109" t="n">
-        <v>0</v>
-      </c>
       <c r="I109" t="n">
         <v>0</v>
       </c>
-      <c r="J109" t="inlineStr"/>
+      <c r="J109" t="n">
+        <v>0</v>
+      </c>
       <c r="K109" t="inlineStr"/>
       <c r="L109" t="inlineStr"/>
-      <c r="M109" t="n">
+      <c r="M109" t="inlineStr"/>
+      <c r="N109" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4228,18 +4557,21 @@
         <v>1783.708</v>
       </c>
       <c r="G110" t="n">
+        <v>190.4466666666667</v>
+      </c>
+      <c r="H110" t="n">
         <v>191.2383333333331</v>
       </c>
-      <c r="H110" t="n">
-        <v>0</v>
-      </c>
       <c r="I110" t="n">
         <v>0</v>
       </c>
-      <c r="J110" t="inlineStr"/>
+      <c r="J110" t="n">
+        <v>0</v>
+      </c>
       <c r="K110" t="inlineStr"/>
       <c r="L110" t="inlineStr"/>
-      <c r="M110" t="n">
+      <c r="M110" t="inlineStr"/>
+      <c r="N110" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4263,18 +4595,21 @@
         <v>619.8261</v>
       </c>
       <c r="G111" t="n">
+        <v>190.3066666666667</v>
+      </c>
+      <c r="H111" t="n">
         <v>191.1633333333331</v>
       </c>
-      <c r="H111" t="n">
-        <v>0</v>
-      </c>
       <c r="I111" t="n">
         <v>0</v>
       </c>
-      <c r="J111" t="inlineStr"/>
+      <c r="J111" t="n">
+        <v>0</v>
+      </c>
       <c r="K111" t="inlineStr"/>
       <c r="L111" t="inlineStr"/>
-      <c r="M111" t="n">
+      <c r="M111" t="inlineStr"/>
+      <c r="N111" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4298,18 +4633,21 @@
         <v>4968.9161</v>
       </c>
       <c r="G112" t="n">
+        <v>190.1533333333334</v>
+      </c>
+      <c r="H112" t="n">
         <v>191.1316666666664</v>
       </c>
-      <c r="H112" t="n">
-        <v>0</v>
-      </c>
       <c r="I112" t="n">
         <v>0</v>
       </c>
-      <c r="J112" t="inlineStr"/>
+      <c r="J112" t="n">
+        <v>0</v>
+      </c>
       <c r="K112" t="inlineStr"/>
       <c r="L112" t="inlineStr"/>
-      <c r="M112" t="n">
+      <c r="M112" t="inlineStr"/>
+      <c r="N112" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4333,18 +4671,25 @@
         <v>388.571</v>
       </c>
       <c r="G113" t="n">
+        <v>190.0266666666667</v>
+      </c>
+      <c r="H113" t="n">
         <v>191.1066666666664</v>
       </c>
-      <c r="H113" t="n">
-        <v>0</v>
-      </c>
       <c r="I113" t="n">
-        <v>0</v>
-      </c>
-      <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
-      <c r="L113" t="inlineStr"/>
-      <c r="M113" t="n">
+        <v>1</v>
+      </c>
+      <c r="J113" t="n">
+        <v>0</v>
+      </c>
+      <c r="K113" t="n">
+        <v>188.1</v>
+      </c>
+      <c r="L113" t="n">
+        <v>188.1</v>
+      </c>
+      <c r="M113" t="inlineStr"/>
+      <c r="N113" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4368,18 +4713,29 @@
         <v>385.941</v>
       </c>
       <c r="G114" t="n">
+        <v>189.98</v>
+      </c>
+      <c r="H114" t="n">
         <v>191.0699999999998</v>
       </c>
-      <c r="H114" t="n">
-        <v>0</v>
-      </c>
       <c r="I114" t="n">
-        <v>0</v>
-      </c>
-      <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr"/>
-      <c r="L114" t="inlineStr"/>
-      <c r="M114" t="n">
+        <v>1</v>
+      </c>
+      <c r="J114" t="n">
+        <v>0</v>
+      </c>
+      <c r="K114" t="n">
+        <v>188.5</v>
+      </c>
+      <c r="L114" t="n">
+        <v>188.1</v>
+      </c>
+      <c r="M114" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="N114" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4403,18 +4759,29 @@
         <v>7000</v>
       </c>
       <c r="G115" t="n">
+        <v>189.84</v>
+      </c>
+      <c r="H115" t="n">
         <v>191.0416666666664</v>
       </c>
-      <c r="H115" t="n">
-        <v>0</v>
-      </c>
       <c r="I115" t="n">
-        <v>0</v>
-      </c>
-      <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
-      <c r="L115" t="inlineStr"/>
-      <c r="M115" t="n">
+        <v>1</v>
+      </c>
+      <c r="J115" t="n">
+        <v>0</v>
+      </c>
+      <c r="K115" t="n">
+        <v>189.7</v>
+      </c>
+      <c r="L115" t="n">
+        <v>188.1</v>
+      </c>
+      <c r="M115" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="N115" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4438,18 +4805,29 @@
         <v>3287.73</v>
       </c>
       <c r="G116" t="n">
+        <v>189.7466666666667</v>
+      </c>
+      <c r="H116" t="n">
         <v>190.9933333333331</v>
       </c>
-      <c r="H116" t="n">
-        <v>0</v>
-      </c>
       <c r="I116" t="n">
-        <v>0</v>
-      </c>
-      <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
-      <c r="L116" t="inlineStr"/>
-      <c r="M116" t="n">
+        <v>1</v>
+      </c>
+      <c r="J116" t="n">
+        <v>0</v>
+      </c>
+      <c r="K116" t="n">
+        <v>188.3</v>
+      </c>
+      <c r="L116" t="n">
+        <v>188.1</v>
+      </c>
+      <c r="M116" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="N116" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4473,18 +4851,29 @@
         <v>136</v>
       </c>
       <c r="G117" t="n">
+        <v>189.6466666666667</v>
+      </c>
+      <c r="H117" t="n">
         <v>190.9699999999998</v>
       </c>
-      <c r="H117" t="n">
-        <v>0</v>
-      </c>
       <c r="I117" t="n">
-        <v>0</v>
-      </c>
-      <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
-      <c r="L117" t="inlineStr"/>
-      <c r="M117" t="n">
+        <v>1</v>
+      </c>
+      <c r="J117" t="n">
+        <v>0</v>
+      </c>
+      <c r="K117" t="n">
+        <v>189</v>
+      </c>
+      <c r="L117" t="n">
+        <v>188.1</v>
+      </c>
+      <c r="M117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N117" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4508,18 +4897,29 @@
         <v>5000</v>
       </c>
       <c r="G118" t="n">
+        <v>189.5133333333333</v>
+      </c>
+      <c r="H118" t="n">
         <v>190.8866666666664</v>
       </c>
-      <c r="H118" t="n">
-        <v>0</v>
-      </c>
       <c r="I118" t="n">
-        <v>0</v>
-      </c>
-      <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr"/>
-      <c r="L118" t="inlineStr"/>
-      <c r="M118" t="n">
+        <v>1</v>
+      </c>
+      <c r="J118" t="n">
+        <v>0</v>
+      </c>
+      <c r="K118" t="n">
+        <v>188.9</v>
+      </c>
+      <c r="L118" t="n">
+        <v>188.1</v>
+      </c>
+      <c r="M118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N118" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4543,18 +4943,29 @@
         <v>3.6849</v>
       </c>
       <c r="G119" t="n">
+        <v>189.4866666666667</v>
+      </c>
+      <c r="H119" t="n">
         <v>190.8083333333331</v>
       </c>
-      <c r="H119" t="n">
-        <v>0</v>
-      </c>
       <c r="I119" t="n">
-        <v>0</v>
-      </c>
-      <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr"/>
-      <c r="L119" t="inlineStr"/>
-      <c r="M119" t="n">
+        <v>1</v>
+      </c>
+      <c r="J119" t="n">
+        <v>0</v>
+      </c>
+      <c r="K119" t="n">
+        <v>188.4</v>
+      </c>
+      <c r="L119" t="n">
+        <v>188.1</v>
+      </c>
+      <c r="M119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N119" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4578,18 +4989,29 @@
         <v>1171.9564</v>
       </c>
       <c r="G120" t="n">
+        <v>189.3666666666667</v>
+      </c>
+      <c r="H120" t="n">
         <v>190.7683333333331</v>
       </c>
-      <c r="H120" t="n">
-        <v>0</v>
-      </c>
       <c r="I120" t="n">
-        <v>0</v>
-      </c>
-      <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr"/>
-      <c r="L120" t="inlineStr"/>
-      <c r="M120" t="n">
+        <v>1</v>
+      </c>
+      <c r="J120" t="n">
+        <v>0</v>
+      </c>
+      <c r="K120" t="n">
+        <v>190</v>
+      </c>
+      <c r="L120" t="n">
+        <v>188.1</v>
+      </c>
+      <c r="M120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N120" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4613,18 +5035,27 @@
         <v>87.8434</v>
       </c>
       <c r="G121" t="n">
+        <v>189.34</v>
+      </c>
+      <c r="H121" t="n">
         <v>190.7266666666664</v>
       </c>
-      <c r="H121" t="n">
-        <v>0</v>
-      </c>
       <c r="I121" t="n">
         <v>0</v>
       </c>
-      <c r="J121" t="inlineStr"/>
+      <c r="J121" t="n">
+        <v>0</v>
+      </c>
       <c r="K121" t="inlineStr"/>
-      <c r="L121" t="inlineStr"/>
-      <c r="M121" t="n">
+      <c r="L121" t="n">
+        <v>188.1</v>
+      </c>
+      <c r="M121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N121" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4648,18 +5079,29 @@
         <v>73.59999999999999</v>
       </c>
       <c r="G122" t="n">
+        <v>189.3133333333333</v>
+      </c>
+      <c r="H122" t="n">
         <v>190.6783333333331</v>
       </c>
-      <c r="H122" t="n">
-        <v>0</v>
-      </c>
       <c r="I122" t="n">
-        <v>0</v>
-      </c>
-      <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
-      <c r="L122" t="inlineStr"/>
-      <c r="M122" t="n">
+        <v>1</v>
+      </c>
+      <c r="J122" t="n">
+        <v>0</v>
+      </c>
+      <c r="K122" t="n">
+        <v>190</v>
+      </c>
+      <c r="L122" t="n">
+        <v>188.1</v>
+      </c>
+      <c r="M122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N122" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4683,18 +5125,27 @@
         <v>1451.2701</v>
       </c>
       <c r="G123" t="n">
+        <v>189.1466666666666</v>
+      </c>
+      <c r="H123" t="n">
         <v>190.6366666666664</v>
       </c>
-      <c r="H123" t="n">
-        <v>0</v>
-      </c>
       <c r="I123" t="n">
         <v>0</v>
       </c>
-      <c r="J123" t="inlineStr"/>
+      <c r="J123" t="n">
+        <v>0</v>
+      </c>
       <c r="K123" t="inlineStr"/>
-      <c r="L123" t="inlineStr"/>
-      <c r="M123" t="n">
+      <c r="L123" t="n">
+        <v>188.1</v>
+      </c>
+      <c r="M123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N123" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4718,18 +5169,27 @@
         <v>3358.4553</v>
       </c>
       <c r="G124" t="n">
+        <v>189</v>
+      </c>
+      <c r="H124" t="n">
         <v>190.5899999999998</v>
       </c>
-      <c r="H124" t="n">
-        <v>0</v>
-      </c>
       <c r="I124" t="n">
         <v>0</v>
       </c>
-      <c r="J124" t="inlineStr"/>
+      <c r="J124" t="n">
+        <v>0</v>
+      </c>
       <c r="K124" t="inlineStr"/>
-      <c r="L124" t="inlineStr"/>
-      <c r="M124" t="n">
+      <c r="L124" t="n">
+        <v>188.1</v>
+      </c>
+      <c r="M124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N124" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4753,18 +5213,27 @@
         <v>50</v>
       </c>
       <c r="G125" t="n">
+        <v>188.9266666666666</v>
+      </c>
+      <c r="H125" t="n">
         <v>190.5583333333331</v>
       </c>
-      <c r="H125" t="n">
-        <v>0</v>
-      </c>
       <c r="I125" t="n">
         <v>0</v>
       </c>
-      <c r="J125" t="inlineStr"/>
+      <c r="J125" t="n">
+        <v>0</v>
+      </c>
       <c r="K125" t="inlineStr"/>
-      <c r="L125" t="inlineStr"/>
-      <c r="M125" t="n">
+      <c r="L125" t="n">
+        <v>188.1</v>
+      </c>
+      <c r="M125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N125" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4788,18 +5257,27 @@
         <v>26.96</v>
       </c>
       <c r="G126" t="n">
+        <v>188.96</v>
+      </c>
+      <c r="H126" t="n">
         <v>190.5266666666665</v>
       </c>
-      <c r="H126" t="n">
-        <v>0</v>
-      </c>
       <c r="I126" t="n">
         <v>0</v>
       </c>
-      <c r="J126" t="inlineStr"/>
+      <c r="J126" t="n">
+        <v>0</v>
+      </c>
       <c r="K126" t="inlineStr"/>
-      <c r="L126" t="inlineStr"/>
-      <c r="M126" t="n">
+      <c r="L126" t="n">
+        <v>188.1</v>
+      </c>
+      <c r="M126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N126" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4823,18 +5301,29 @@
         <v>368.45</v>
       </c>
       <c r="G127" t="n">
+        <v>189.0266666666666</v>
+      </c>
+      <c r="H127" t="n">
         <v>190.4716666666665</v>
       </c>
-      <c r="H127" t="n">
-        <v>0</v>
-      </c>
       <c r="I127" t="n">
-        <v>0</v>
-      </c>
-      <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr"/>
-      <c r="L127" t="inlineStr"/>
-      <c r="M127" t="n">
+        <v>1</v>
+      </c>
+      <c r="J127" t="n">
+        <v>0</v>
+      </c>
+      <c r="K127" t="n">
+        <v>189.1</v>
+      </c>
+      <c r="L127" t="n">
+        <v>188.1</v>
+      </c>
+      <c r="M127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N127" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4858,18 +5347,29 @@
         <v>2.63</v>
       </c>
       <c r="G128" t="n">
+        <v>189.1733333333333</v>
+      </c>
+      <c r="H128" t="n">
         <v>190.4349999999998</v>
       </c>
-      <c r="H128" t="n">
-        <v>0</v>
-      </c>
       <c r="I128" t="n">
-        <v>0</v>
-      </c>
-      <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr"/>
-      <c r="L128" t="inlineStr"/>
-      <c r="M128" t="n">
+        <v>1</v>
+      </c>
+      <c r="J128" t="n">
+        <v>0</v>
+      </c>
+      <c r="K128" t="n">
+        <v>189.1</v>
+      </c>
+      <c r="L128" t="n">
+        <v>188.1</v>
+      </c>
+      <c r="M128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N128" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4893,18 +5393,27 @@
         <v>449.85</v>
       </c>
       <c r="G129" t="n">
+        <v>189.0733333333333</v>
+      </c>
+      <c r="H129" t="n">
         <v>190.3883333333332</v>
       </c>
-      <c r="H129" t="n">
-        <v>0</v>
-      </c>
       <c r="I129" t="n">
         <v>0</v>
       </c>
-      <c r="J129" t="inlineStr"/>
+      <c r="J129" t="n">
+        <v>0</v>
+      </c>
       <c r="K129" t="inlineStr"/>
-      <c r="L129" t="inlineStr"/>
-      <c r="M129" t="n">
+      <c r="L129" t="n">
+        <v>188.1</v>
+      </c>
+      <c r="M129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N129" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4928,18 +5437,27 @@
         <v>248.7989</v>
       </c>
       <c r="G130" t="n">
+        <v>189.1199999999999</v>
+      </c>
+      <c r="H130" t="n">
         <v>190.3383333333332</v>
       </c>
-      <c r="H130" t="n">
-        <v>0</v>
-      </c>
       <c r="I130" t="n">
         <v>0</v>
       </c>
-      <c r="J130" t="inlineStr"/>
+      <c r="J130" t="n">
+        <v>0</v>
+      </c>
       <c r="K130" t="inlineStr"/>
-      <c r="L130" t="inlineStr"/>
-      <c r="M130" t="n">
+      <c r="L130" t="n">
+        <v>188.1</v>
+      </c>
+      <c r="M130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N130" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4963,18 +5481,27 @@
         <v>231.4297</v>
       </c>
       <c r="G131" t="n">
+        <v>189.1199999999999</v>
+      </c>
+      <c r="H131" t="n">
         <v>190.2883333333332</v>
       </c>
-      <c r="H131" t="n">
-        <v>0</v>
-      </c>
       <c r="I131" t="n">
         <v>0</v>
       </c>
-      <c r="J131" t="inlineStr"/>
+      <c r="J131" t="n">
+        <v>0</v>
+      </c>
       <c r="K131" t="inlineStr"/>
-      <c r="L131" t="inlineStr"/>
-      <c r="M131" t="n">
+      <c r="L131" t="n">
+        <v>188.1</v>
+      </c>
+      <c r="M131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N131" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4998,18 +5525,27 @@
         <v>1512.69173611</v>
       </c>
       <c r="G132" t="n">
+        <v>189.1333333333333</v>
+      </c>
+      <c r="H132" t="n">
         <v>190.2399999999998</v>
       </c>
-      <c r="H132" t="n">
-        <v>0</v>
-      </c>
       <c r="I132" t="n">
         <v>0</v>
       </c>
-      <c r="J132" t="inlineStr"/>
+      <c r="J132" t="n">
+        <v>0</v>
+      </c>
       <c r="K132" t="inlineStr"/>
-      <c r="L132" t="inlineStr"/>
-      <c r="M132" t="n">
+      <c r="L132" t="n">
+        <v>188.1</v>
+      </c>
+      <c r="M132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N132" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5033,18 +5569,27 @@
         <v>2186.0848</v>
       </c>
       <c r="G133" t="n">
+        <v>189.1799999999999</v>
+      </c>
+      <c r="H133" t="n">
         <v>190.1916666666665</v>
       </c>
-      <c r="H133" t="n">
-        <v>0</v>
-      </c>
       <c r="I133" t="n">
         <v>0</v>
       </c>
-      <c r="J133" t="inlineStr"/>
+      <c r="J133" t="n">
+        <v>0</v>
+      </c>
       <c r="K133" t="inlineStr"/>
-      <c r="L133" t="inlineStr"/>
-      <c r="M133" t="n">
+      <c r="L133" t="n">
+        <v>188.1</v>
+      </c>
+      <c r="M133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N133" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5068,18 +5613,27 @@
         <v>3</v>
       </c>
       <c r="G134" t="n">
+        <v>189.2466666666666</v>
+      </c>
+      <c r="H134" t="n">
         <v>190.1749999999998</v>
       </c>
-      <c r="H134" t="n">
-        <v>0</v>
-      </c>
       <c r="I134" t="n">
         <v>0</v>
       </c>
-      <c r="J134" t="inlineStr"/>
+      <c r="J134" t="n">
+        <v>0</v>
+      </c>
       <c r="K134" t="inlineStr"/>
-      <c r="L134" t="inlineStr"/>
-      <c r="M134" t="n">
+      <c r="L134" t="n">
+        <v>188.1</v>
+      </c>
+      <c r="M134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N134" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5103,18 +5657,27 @@
         <v>68.8222</v>
       </c>
       <c r="G135" t="n">
+        <v>189.2799999999999</v>
+      </c>
+      <c r="H135" t="n">
         <v>190.1416666666665</v>
       </c>
-      <c r="H135" t="n">
-        <v>0</v>
-      </c>
       <c r="I135" t="n">
         <v>0</v>
       </c>
-      <c r="J135" t="inlineStr"/>
+      <c r="J135" t="n">
+        <v>0</v>
+      </c>
       <c r="K135" t="inlineStr"/>
-      <c r="L135" t="inlineStr"/>
-      <c r="M135" t="n">
+      <c r="L135" t="n">
+        <v>188.1</v>
+      </c>
+      <c r="M135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N135" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5138,18 +5701,27 @@
         <v>1608.765</v>
       </c>
       <c r="G136" t="n">
+        <v>189.2133333333333</v>
+      </c>
+      <c r="H136" t="n">
         <v>190.1066666666665</v>
       </c>
-      <c r="H136" t="n">
-        <v>0</v>
-      </c>
       <c r="I136" t="n">
         <v>0</v>
       </c>
-      <c r="J136" t="inlineStr"/>
+      <c r="J136" t="n">
+        <v>0</v>
+      </c>
       <c r="K136" t="inlineStr"/>
-      <c r="L136" t="inlineStr"/>
-      <c r="M136" t="n">
+      <c r="L136" t="n">
+        <v>188.1</v>
+      </c>
+      <c r="M136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N136" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5173,18 +5745,27 @@
         <v>156.4954</v>
       </c>
       <c r="G137" t="n">
+        <v>189.1466666666666</v>
+      </c>
+      <c r="H137" t="n">
         <v>190.0716666666665</v>
       </c>
-      <c r="H137" t="n">
-        <v>0</v>
-      </c>
       <c r="I137" t="n">
         <v>0</v>
       </c>
-      <c r="J137" t="inlineStr"/>
+      <c r="J137" t="n">
+        <v>0</v>
+      </c>
       <c r="K137" t="inlineStr"/>
-      <c r="L137" t="inlineStr"/>
-      <c r="M137" t="n">
+      <c r="L137" t="n">
+        <v>188.1</v>
+      </c>
+      <c r="M137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N137" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5208,18 +5789,27 @@
         <v>321.4224</v>
       </c>
       <c r="G138" t="n">
+        <v>189.1799999999999</v>
+      </c>
+      <c r="H138" t="n">
         <v>190.0216666666665</v>
       </c>
-      <c r="H138" t="n">
-        <v>0</v>
-      </c>
       <c r="I138" t="n">
         <v>0</v>
       </c>
-      <c r="J138" t="inlineStr"/>
+      <c r="J138" t="n">
+        <v>0</v>
+      </c>
       <c r="K138" t="inlineStr"/>
-      <c r="L138" t="inlineStr"/>
-      <c r="M138" t="n">
+      <c r="L138" t="n">
+        <v>188.1</v>
+      </c>
+      <c r="M138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N138" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5243,18 +5833,27 @@
         <v>2703.961</v>
       </c>
       <c r="G139" t="n">
+        <v>189.2866666666666</v>
+      </c>
+      <c r="H139" t="n">
         <v>190.0016666666665</v>
       </c>
-      <c r="H139" t="n">
-        <v>0</v>
-      </c>
       <c r="I139" t="n">
         <v>0</v>
       </c>
-      <c r="J139" t="inlineStr"/>
+      <c r="J139" t="n">
+        <v>0</v>
+      </c>
       <c r="K139" t="inlineStr"/>
-      <c r="L139" t="inlineStr"/>
-      <c r="M139" t="n">
+      <c r="L139" t="n">
+        <v>188.1</v>
+      </c>
+      <c r="M139" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N139" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5278,18 +5877,27 @@
         <v>3025.3834</v>
       </c>
       <c r="G140" t="n">
+        <v>189.2266666666666</v>
+      </c>
+      <c r="H140" t="n">
         <v>189.9499999999998</v>
       </c>
-      <c r="H140" t="n">
-        <v>0</v>
-      </c>
       <c r="I140" t="n">
         <v>0</v>
       </c>
-      <c r="J140" t="inlineStr"/>
+      <c r="J140" t="n">
+        <v>0</v>
+      </c>
       <c r="K140" t="inlineStr"/>
-      <c r="L140" t="inlineStr"/>
-      <c r="M140" t="n">
+      <c r="L140" t="n">
+        <v>188.1</v>
+      </c>
+      <c r="M140" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N140" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5313,18 +5921,27 @@
         <v>3885</v>
       </c>
       <c r="G141" t="n">
+        <v>189.1666666666666</v>
+      </c>
+      <c r="H141" t="n">
         <v>189.8983333333332</v>
       </c>
-      <c r="H141" t="n">
-        <v>0</v>
-      </c>
       <c r="I141" t="n">
         <v>0</v>
       </c>
-      <c r="J141" t="inlineStr"/>
+      <c r="J141" t="n">
+        <v>0</v>
+      </c>
       <c r="K141" t="inlineStr"/>
-      <c r="L141" t="inlineStr"/>
-      <c r="M141" t="n">
+      <c r="L141" t="n">
+        <v>188.1</v>
+      </c>
+      <c r="M141" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N141" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5348,18 +5965,27 @@
         <v>578.1079999999999</v>
       </c>
       <c r="G142" t="n">
+        <v>189.0999999999999</v>
+      </c>
+      <c r="H142" t="n">
         <v>189.8449999999999</v>
       </c>
-      <c r="H142" t="n">
-        <v>0</v>
-      </c>
       <c r="I142" t="n">
         <v>0</v>
       </c>
-      <c r="J142" t="inlineStr"/>
+      <c r="J142" t="n">
+        <v>0</v>
+      </c>
       <c r="K142" t="inlineStr"/>
-      <c r="L142" t="inlineStr"/>
-      <c r="M142" t="n">
+      <c r="L142" t="n">
+        <v>188.1</v>
+      </c>
+      <c r="M142" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N142" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5383,18 +6009,27 @@
         <v>168.0728</v>
       </c>
       <c r="G143" t="n">
+        <v>188.9266666666666</v>
+      </c>
+      <c r="H143" t="n">
         <v>189.7916666666666</v>
       </c>
-      <c r="H143" t="n">
-        <v>0</v>
-      </c>
       <c r="I143" t="n">
         <v>0</v>
       </c>
-      <c r="J143" t="inlineStr"/>
+      <c r="J143" t="n">
+        <v>0</v>
+      </c>
       <c r="K143" t="inlineStr"/>
-      <c r="L143" t="inlineStr"/>
-      <c r="M143" t="n">
+      <c r="L143" t="n">
+        <v>188.1</v>
+      </c>
+      <c r="M143" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N143" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5418,18 +6053,27 @@
         <v>15467.795</v>
       </c>
       <c r="G144" t="n">
+        <v>188.8466666666666</v>
+      </c>
+      <c r="H144" t="n">
         <v>189.7199999999999</v>
       </c>
-      <c r="H144" t="n">
-        <v>0</v>
-      </c>
       <c r="I144" t="n">
         <v>0</v>
       </c>
-      <c r="J144" t="inlineStr"/>
+      <c r="J144" t="n">
+        <v>0</v>
+      </c>
       <c r="K144" t="inlineStr"/>
-      <c r="L144" t="inlineStr"/>
-      <c r="M144" t="n">
+      <c r="L144" t="n">
+        <v>188.1</v>
+      </c>
+      <c r="M144" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N144" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5453,18 +6097,27 @@
         <v>7780.4136</v>
       </c>
       <c r="G145" t="n">
+        <v>188.7</v>
+      </c>
+      <c r="H145" t="n">
         <v>189.6449999999999</v>
       </c>
-      <c r="H145" t="n">
-        <v>0</v>
-      </c>
       <c r="I145" t="n">
         <v>0</v>
       </c>
-      <c r="J145" t="inlineStr"/>
+      <c r="J145" t="n">
+        <v>0</v>
+      </c>
       <c r="K145" t="inlineStr"/>
-      <c r="L145" t="inlineStr"/>
-      <c r="M145" t="n">
+      <c r="L145" t="n">
+        <v>188.1</v>
+      </c>
+      <c r="M145" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N145" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5488,18 +6141,27 @@
         <v>5291.005291</v>
       </c>
       <c r="G146" t="n">
+        <v>188.7</v>
+      </c>
+      <c r="H146" t="n">
         <v>189.6066666666666</v>
       </c>
-      <c r="H146" t="n">
-        <v>0</v>
-      </c>
       <c r="I146" t="n">
         <v>0</v>
       </c>
-      <c r="J146" t="inlineStr"/>
+      <c r="J146" t="n">
+        <v>0</v>
+      </c>
       <c r="K146" t="inlineStr"/>
-      <c r="L146" t="inlineStr"/>
-      <c r="M146" t="n">
+      <c r="L146" t="n">
+        <v>188.1</v>
+      </c>
+      <c r="M146" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N146" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5523,18 +6185,27 @@
         <v>5496.7168</v>
       </c>
       <c r="G147" t="n">
+        <v>188.6933333333333</v>
+      </c>
+      <c r="H147" t="n">
         <v>189.5683333333333</v>
       </c>
-      <c r="H147" t="n">
-        <v>0</v>
-      </c>
       <c r="I147" t="n">
         <v>0</v>
       </c>
-      <c r="J147" t="inlineStr"/>
+      <c r="J147" t="n">
+        <v>0</v>
+      </c>
       <c r="K147" t="inlineStr"/>
-      <c r="L147" t="inlineStr"/>
-      <c r="M147" t="n">
+      <c r="L147" t="n">
+        <v>188.1</v>
+      </c>
+      <c r="M147" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N147" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5558,18 +6229,27 @@
         <v>2848.5891</v>
       </c>
       <c r="G148" t="n">
+        <v>188.5466666666667</v>
+      </c>
+      <c r="H148" t="n">
         <v>189.4999999999999</v>
       </c>
-      <c r="H148" t="n">
-        <v>0</v>
-      </c>
       <c r="I148" t="n">
         <v>0</v>
       </c>
-      <c r="J148" t="inlineStr"/>
+      <c r="J148" t="n">
+        <v>0</v>
+      </c>
       <c r="K148" t="inlineStr"/>
-      <c r="L148" t="inlineStr"/>
-      <c r="M148" t="n">
+      <c r="L148" t="n">
+        <v>188.1</v>
+      </c>
+      <c r="M148" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N148" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5593,18 +6273,27 @@
         <v>2780</v>
       </c>
       <c r="G149" t="n">
+        <v>188.26</v>
+      </c>
+      <c r="H149" t="n">
         <v>189.4283333333333</v>
       </c>
-      <c r="H149" t="n">
-        <v>0</v>
-      </c>
       <c r="I149" t="n">
         <v>0</v>
       </c>
-      <c r="J149" t="inlineStr"/>
+      <c r="J149" t="n">
+        <v>0</v>
+      </c>
       <c r="K149" t="inlineStr"/>
-      <c r="L149" t="inlineStr"/>
-      <c r="M149" t="n">
+      <c r="L149" t="n">
+        <v>188.1</v>
+      </c>
+      <c r="M149" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N149" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5628,18 +6317,27 @@
         <v>298</v>
       </c>
       <c r="G150" t="n">
+        <v>188.1733333333333</v>
+      </c>
+      <c r="H150" t="n">
         <v>189.3616666666666</v>
       </c>
-      <c r="H150" t="n">
-        <v>0</v>
-      </c>
       <c r="I150" t="n">
         <v>0</v>
       </c>
-      <c r="J150" t="inlineStr"/>
+      <c r="J150" t="n">
+        <v>0</v>
+      </c>
       <c r="K150" t="inlineStr"/>
-      <c r="L150" t="inlineStr"/>
-      <c r="M150" t="n">
+      <c r="L150" t="n">
+        <v>188.1</v>
+      </c>
+      <c r="M150" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N150" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5663,18 +6361,27 @@
         <v>144</v>
       </c>
       <c r="G151" t="n">
+        <v>188.04</v>
+      </c>
+      <c r="H151" t="n">
         <v>189.3099999999999</v>
       </c>
-      <c r="H151" t="n">
-        <v>0</v>
-      </c>
       <c r="I151" t="n">
         <v>0</v>
       </c>
-      <c r="J151" t="inlineStr"/>
+      <c r="J151" t="n">
+        <v>0</v>
+      </c>
       <c r="K151" t="inlineStr"/>
-      <c r="L151" t="inlineStr"/>
-      <c r="M151" t="n">
+      <c r="L151" t="n">
+        <v>188.1</v>
+      </c>
+      <c r="M151" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N151" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5698,18 +6405,27 @@
         <v>5162.0685</v>
       </c>
       <c r="G152" t="n">
+        <v>187.96</v>
+      </c>
+      <c r="H152" t="n">
         <v>189.2716666666666</v>
       </c>
-      <c r="H152" t="n">
-        <v>0</v>
-      </c>
       <c r="I152" t="n">
         <v>0</v>
       </c>
-      <c r="J152" t="inlineStr"/>
+      <c r="J152" t="n">
+        <v>0</v>
+      </c>
       <c r="K152" t="inlineStr"/>
-      <c r="L152" t="inlineStr"/>
-      <c r="M152" t="n">
+      <c r="L152" t="n">
+        <v>188.1</v>
+      </c>
+      <c r="M152" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N152" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5733,18 +6449,27 @@
         <v>1657.3609</v>
       </c>
       <c r="G153" t="n">
+        <v>187.7666666666667</v>
+      </c>
+      <c r="H153" t="n">
         <v>189.1583333333333</v>
       </c>
-      <c r="H153" t="n">
-        <v>0</v>
-      </c>
       <c r="I153" t="n">
         <v>0</v>
       </c>
-      <c r="J153" t="inlineStr"/>
+      <c r="J153" t="n">
+        <v>0</v>
+      </c>
       <c r="K153" t="inlineStr"/>
-      <c r="L153" t="inlineStr"/>
-      <c r="M153" t="n">
+      <c r="L153" t="n">
+        <v>188.1</v>
+      </c>
+      <c r="M153" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N153" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5768,18 +6493,27 @@
         <v>1366.755</v>
       </c>
       <c r="G154" t="n">
+        <v>187.52</v>
+      </c>
+      <c r="H154" t="n">
         <v>189.0766666666666</v>
       </c>
-      <c r="H154" t="n">
-        <v>0</v>
-      </c>
       <c r="I154" t="n">
         <v>0</v>
       </c>
-      <c r="J154" t="inlineStr"/>
+      <c r="J154" t="n">
+        <v>0</v>
+      </c>
       <c r="K154" t="inlineStr"/>
-      <c r="L154" t="inlineStr"/>
-      <c r="M154" t="n">
+      <c r="L154" t="n">
+        <v>188.1</v>
+      </c>
+      <c r="M154" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N154" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5803,18 +6537,27 @@
         <v>1936.539</v>
       </c>
       <c r="G155" t="n">
+        <v>187.38</v>
+      </c>
+      <c r="H155" t="n">
         <v>188.9949999999999</v>
       </c>
-      <c r="H155" t="n">
-        <v>0</v>
-      </c>
       <c r="I155" t="n">
         <v>0</v>
       </c>
-      <c r="J155" t="inlineStr"/>
+      <c r="J155" t="n">
+        <v>0</v>
+      </c>
       <c r="K155" t="inlineStr"/>
-      <c r="L155" t="inlineStr"/>
-      <c r="M155" t="n">
+      <c r="L155" t="n">
+        <v>188.1</v>
+      </c>
+      <c r="M155" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N155" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5838,18 +6581,27 @@
         <v>258.077</v>
       </c>
       <c r="G156" t="n">
+        <v>187.24</v>
+      </c>
+      <c r="H156" t="n">
         <v>188.9183333333333</v>
       </c>
-      <c r="H156" t="n">
-        <v>0</v>
-      </c>
       <c r="I156" t="n">
         <v>0</v>
       </c>
-      <c r="J156" t="inlineStr"/>
+      <c r="J156" t="n">
+        <v>0</v>
+      </c>
       <c r="K156" t="inlineStr"/>
-      <c r="L156" t="inlineStr"/>
-      <c r="M156" t="n">
+      <c r="L156" t="n">
+        <v>188.1</v>
+      </c>
+      <c r="M156" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N156" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5873,18 +6625,27 @@
         <v>30</v>
       </c>
       <c r="G157" t="n">
+        <v>187.1</v>
+      </c>
+      <c r="H157" t="n">
         <v>188.8449999999999</v>
       </c>
-      <c r="H157" t="n">
-        <v>0</v>
-      </c>
       <c r="I157" t="n">
         <v>0</v>
       </c>
-      <c r="J157" t="inlineStr"/>
+      <c r="J157" t="n">
+        <v>0</v>
+      </c>
       <c r="K157" t="inlineStr"/>
-      <c r="L157" t="inlineStr"/>
-      <c r="M157" t="n">
+      <c r="L157" t="n">
+        <v>188.1</v>
+      </c>
+      <c r="M157" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N157" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5908,24 +6669,27 @@
         <v>3740</v>
       </c>
       <c r="G158" t="n">
+        <v>186.9666666666667</v>
+      </c>
+      <c r="H158" t="n">
         <v>188.7733333333333</v>
       </c>
-      <c r="H158" t="n">
-        <v>1</v>
-      </c>
       <c r="I158" t="n">
         <v>0</v>
       </c>
       <c r="J158" t="n">
-        <v>186</v>
+        <v>0</v>
       </c>
       <c r="K158" t="inlineStr"/>
-      <c r="L158" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="M158" t="n">
+      <c r="L158" t="n">
+        <v>188.1</v>
+      </c>
+      <c r="M158" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N158" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5949,24 +6713,27 @@
         <v>3752.0384</v>
       </c>
       <c r="G159" t="n">
+        <v>186.9066666666667</v>
+      </c>
+      <c r="H159" t="n">
         <v>188.7016666666667</v>
       </c>
-      <c r="H159" t="n">
-        <v>1</v>
-      </c>
       <c r="I159" t="n">
         <v>0</v>
       </c>
       <c r="J159" t="n">
-        <v>186.1</v>
+        <v>0</v>
       </c>
       <c r="K159" t="inlineStr"/>
-      <c r="L159" t="inlineStr">
+      <c r="L159" t="n">
+        <v>188.1</v>
+      </c>
+      <c r="M159" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M159" t="n">
+      <c r="N159" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5990,24 +6757,27 @@
         <v>8251.9895</v>
       </c>
       <c r="G160" t="n">
+        <v>186.8133333333333</v>
+      </c>
+      <c r="H160" t="n">
         <v>188.6183333333333</v>
       </c>
-      <c r="H160" t="n">
-        <v>1</v>
-      </c>
       <c r="I160" t="n">
         <v>0</v>
       </c>
       <c r="J160" t="n">
-        <v>186.1</v>
+        <v>0</v>
       </c>
       <c r="K160" t="inlineStr"/>
-      <c r="L160" t="inlineStr">
+      <c r="L160" t="n">
+        <v>188.1</v>
+      </c>
+      <c r="M160" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M160" t="n">
+      <c r="N160" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6031,22 +6801,27 @@
         <v>155.0005</v>
       </c>
       <c r="G161" t="n">
+        <v>186.64</v>
+      </c>
+      <c r="H161" t="n">
         <v>188.5516666666666</v>
       </c>
-      <c r="H161" t="n">
-        <v>0</v>
-      </c>
       <c r="I161" t="n">
         <v>0</v>
       </c>
-      <c r="J161" t="inlineStr"/>
+      <c r="J161" t="n">
+        <v>0</v>
+      </c>
       <c r="K161" t="inlineStr"/>
-      <c r="L161" t="inlineStr">
+      <c r="L161" t="n">
+        <v>188.1</v>
+      </c>
+      <c r="M161" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M161" t="n">
+      <c r="N161" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6070,24 +6845,27 @@
         <v>115.888</v>
       </c>
       <c r="G162" t="n">
+        <v>186.4666666666667</v>
+      </c>
+      <c r="H162" t="n">
         <v>188.485</v>
       </c>
-      <c r="H162" t="n">
-        <v>1</v>
-      </c>
       <c r="I162" t="n">
         <v>0</v>
       </c>
       <c r="J162" t="n">
-        <v>186.4</v>
+        <v>0</v>
       </c>
       <c r="K162" t="inlineStr"/>
-      <c r="L162" t="inlineStr">
+      <c r="L162" t="n">
+        <v>188.1</v>
+      </c>
+      <c r="M162" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M162" t="n">
+      <c r="N162" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6111,22 +6889,27 @@
         <v>7544.2598</v>
       </c>
       <c r="G163" t="n">
+        <v>186.38</v>
+      </c>
+      <c r="H163" t="n">
         <v>188.405</v>
       </c>
-      <c r="H163" t="n">
-        <v>0</v>
-      </c>
       <c r="I163" t="n">
         <v>0</v>
       </c>
-      <c r="J163" t="inlineStr"/>
+      <c r="J163" t="n">
+        <v>0</v>
+      </c>
       <c r="K163" t="inlineStr"/>
-      <c r="L163" t="inlineStr">
+      <c r="L163" t="n">
+        <v>188.1</v>
+      </c>
+      <c r="M163" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M163" t="n">
+      <c r="N163" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6150,22 +6933,27 @@
         <v>128.2609</v>
       </c>
       <c r="G164" t="n">
+        <v>186.3333333333333</v>
+      </c>
+      <c r="H164" t="n">
         <v>188.3316666666666</v>
       </c>
-      <c r="H164" t="n">
-        <v>0</v>
-      </c>
       <c r="I164" t="n">
         <v>0</v>
       </c>
-      <c r="J164" t="inlineStr"/>
+      <c r="J164" t="n">
+        <v>0</v>
+      </c>
       <c r="K164" t="inlineStr"/>
-      <c r="L164" t="inlineStr">
+      <c r="L164" t="n">
+        <v>188.1</v>
+      </c>
+      <c r="M164" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M164" t="n">
+      <c r="N164" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6189,22 +6977,27 @@
         <v>166.739</v>
       </c>
       <c r="G165" t="n">
+        <v>186.2133333333333</v>
+      </c>
+      <c r="H165" t="n">
         <v>188.2583333333333</v>
       </c>
-      <c r="H165" t="n">
-        <v>0</v>
-      </c>
       <c r="I165" t="n">
         <v>0</v>
       </c>
-      <c r="J165" t="inlineStr"/>
+      <c r="J165" t="n">
+        <v>0</v>
+      </c>
       <c r="K165" t="inlineStr"/>
-      <c r="L165" t="inlineStr">
+      <c r="L165" t="n">
+        <v>188.1</v>
+      </c>
+      <c r="M165" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M165" t="n">
+      <c r="N165" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6228,22 +7021,27 @@
         <v>131.8325</v>
       </c>
       <c r="G166" t="n">
+        <v>186.1466666666666</v>
+      </c>
+      <c r="H166" t="n">
         <v>188.185</v>
       </c>
-      <c r="H166" t="n">
-        <v>0</v>
-      </c>
       <c r="I166" t="n">
         <v>0</v>
       </c>
-      <c r="J166" t="inlineStr"/>
+      <c r="J166" t="n">
+        <v>0</v>
+      </c>
       <c r="K166" t="inlineStr"/>
-      <c r="L166" t="inlineStr">
+      <c r="L166" t="n">
+        <v>188.1</v>
+      </c>
+      <c r="M166" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M166" t="n">
+      <c r="N166" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6267,22 +7065,27 @@
         <v>1545</v>
       </c>
       <c r="G167" t="n">
+        <v>186</v>
+      </c>
+      <c r="H167" t="n">
         <v>188.105</v>
       </c>
-      <c r="H167" t="n">
-        <v>0</v>
-      </c>
       <c r="I167" t="n">
         <v>0</v>
       </c>
-      <c r="J167" t="inlineStr"/>
+      <c r="J167" t="n">
+        <v>0</v>
+      </c>
       <c r="K167" t="inlineStr"/>
-      <c r="L167" t="inlineStr">
+      <c r="L167" t="n">
+        <v>188.1</v>
+      </c>
+      <c r="M167" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M167" t="n">
+      <c r="N167" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6306,22 +7109,27 @@
         <v>430.1913</v>
       </c>
       <c r="G168" t="n">
+        <v>185.96</v>
+      </c>
+      <c r="H168" t="n">
         <v>188.0133333333333</v>
       </c>
-      <c r="H168" t="n">
-        <v>0</v>
-      </c>
       <c r="I168" t="n">
         <v>0</v>
       </c>
-      <c r="J168" t="inlineStr"/>
+      <c r="J168" t="n">
+        <v>0</v>
+      </c>
       <c r="K168" t="inlineStr"/>
-      <c r="L168" t="inlineStr">
+      <c r="L168" t="n">
+        <v>188.1</v>
+      </c>
+      <c r="M168" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M168" t="n">
+      <c r="N168" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6345,22 +7153,27 @@
         <v>80.5029</v>
       </c>
       <c r="G169" t="n">
+        <v>185.9133333333333</v>
+      </c>
+      <c r="H169" t="n">
         <v>187.93</v>
       </c>
-      <c r="H169" t="n">
-        <v>0</v>
-      </c>
       <c r="I169" t="n">
         <v>0</v>
       </c>
-      <c r="J169" t="inlineStr"/>
+      <c r="J169" t="n">
+        <v>0</v>
+      </c>
       <c r="K169" t="inlineStr"/>
-      <c r="L169" t="inlineStr">
+      <c r="L169" t="n">
+        <v>188.1</v>
+      </c>
+      <c r="M169" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M169" t="n">
+      <c r="N169" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6384,24 +7197,29 @@
         <v>5446.95582406</v>
       </c>
       <c r="G170" t="n">
+        <v>185.9733333333333</v>
+      </c>
+      <c r="H170" t="n">
         <v>187.8766666666667</v>
       </c>
-      <c r="H170" t="n">
-        <v>1</v>
-      </c>
       <c r="I170" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J170" t="n">
+        <v>0</v>
+      </c>
+      <c r="K170" t="n">
         <v>185.4</v>
       </c>
-      <c r="K170" t="inlineStr"/>
-      <c r="L170" t="inlineStr">
+      <c r="L170" t="n">
+        <v>188.1</v>
+      </c>
+      <c r="M170" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M170" t="n">
+      <c r="N170" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6425,22 +7243,27 @@
         <v>21390.37433152</v>
       </c>
       <c r="G171" t="n">
+        <v>186.0333333333333</v>
+      </c>
+      <c r="H171" t="n">
         <v>187.85</v>
       </c>
-      <c r="H171" t="n">
-        <v>0</v>
-      </c>
       <c r="I171" t="n">
         <v>0</v>
       </c>
-      <c r="J171" t="inlineStr"/>
+      <c r="J171" t="n">
+        <v>0</v>
+      </c>
       <c r="K171" t="inlineStr"/>
-      <c r="L171" t="inlineStr">
+      <c r="L171" t="n">
+        <v>188.1</v>
+      </c>
+      <c r="M171" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M171" t="n">
+      <c r="N171" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6464,22 +7287,27 @@
         <v>5347.59358288</v>
       </c>
       <c r="G172" t="n">
+        <v>186.1</v>
+      </c>
+      <c r="H172" t="n">
         <v>187.8316666666666</v>
       </c>
-      <c r="H172" t="n">
-        <v>0</v>
-      </c>
       <c r="I172" t="n">
         <v>0</v>
       </c>
-      <c r="J172" t="inlineStr"/>
+      <c r="J172" t="n">
+        <v>0</v>
+      </c>
       <c r="K172" t="inlineStr"/>
-      <c r="L172" t="inlineStr">
+      <c r="L172" t="n">
+        <v>188.1</v>
+      </c>
+      <c r="M172" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M172" t="n">
+      <c r="N172" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6503,22 +7331,27 @@
         <v>5347.59358288</v>
       </c>
       <c r="G173" t="n">
+        <v>186.16</v>
+      </c>
+      <c r="H173" t="n">
         <v>187.8066666666667</v>
       </c>
-      <c r="H173" t="n">
-        <v>0</v>
-      </c>
       <c r="I173" t="n">
         <v>0</v>
       </c>
-      <c r="J173" t="inlineStr"/>
+      <c r="J173" t="n">
+        <v>0</v>
+      </c>
       <c r="K173" t="inlineStr"/>
-      <c r="L173" t="inlineStr">
+      <c r="L173" t="n">
+        <v>188.1</v>
+      </c>
+      <c r="M173" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M173" t="n">
+      <c r="N173" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6542,22 +7375,27 @@
         <v>9518.71657753</v>
       </c>
       <c r="G174" t="n">
+        <v>186.22</v>
+      </c>
+      <c r="H174" t="n">
         <v>187.7616666666667</v>
       </c>
-      <c r="H174" t="n">
-        <v>0</v>
-      </c>
       <c r="I174" t="n">
         <v>0</v>
       </c>
-      <c r="J174" t="inlineStr"/>
+      <c r="J174" t="n">
+        <v>0</v>
+      </c>
       <c r="K174" t="inlineStr"/>
-      <c r="L174" t="inlineStr">
+      <c r="L174" t="n">
+        <v>188.1</v>
+      </c>
+      <c r="M174" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M174" t="n">
+      <c r="N174" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6581,22 +7419,27 @@
         <v>3141.7771</v>
       </c>
       <c r="G175" t="n">
+        <v>186.2266666666667</v>
+      </c>
+      <c r="H175" t="n">
         <v>187.715</v>
       </c>
-      <c r="H175" t="n">
-        <v>0</v>
-      </c>
       <c r="I175" t="n">
         <v>0</v>
       </c>
-      <c r="J175" t="inlineStr"/>
+      <c r="J175" t="n">
+        <v>0</v>
+      </c>
       <c r="K175" t="inlineStr"/>
-      <c r="L175" t="inlineStr">
+      <c r="L175" t="n">
+        <v>188.1</v>
+      </c>
+      <c r="M175" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M175" t="n">
+      <c r="N175" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6620,22 +7463,27 @@
         <v>572.4395</v>
       </c>
       <c r="G176" t="n">
+        <v>186.1666666666667</v>
+      </c>
+      <c r="H176" t="n">
         <v>187.6566666666667</v>
       </c>
-      <c r="H176" t="n">
-        <v>0</v>
-      </c>
       <c r="I176" t="n">
         <v>0</v>
       </c>
-      <c r="J176" t="inlineStr"/>
+      <c r="J176" t="n">
+        <v>0</v>
+      </c>
       <c r="K176" t="inlineStr"/>
-      <c r="L176" t="inlineStr">
+      <c r="L176" t="n">
+        <v>188.1</v>
+      </c>
+      <c r="M176" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M176" t="n">
+      <c r="N176" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6659,22 +7507,27 @@
         <v>3530.4183</v>
       </c>
       <c r="G177" t="n">
+        <v>186.0733333333333</v>
+      </c>
+      <c r="H177" t="n">
         <v>187.5916666666667</v>
       </c>
-      <c r="H177" t="n">
-        <v>0</v>
-      </c>
       <c r="I177" t="n">
         <v>0</v>
       </c>
-      <c r="J177" t="inlineStr"/>
+      <c r="J177" t="n">
+        <v>0</v>
+      </c>
       <c r="K177" t="inlineStr"/>
-      <c r="L177" t="inlineStr">
+      <c r="L177" t="n">
+        <v>188.1</v>
+      </c>
+      <c r="M177" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M177" t="n">
+      <c r="N177" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6698,22 +7551,29 @@
         <v>19505.1451</v>
       </c>
       <c r="G178" t="n">
+        <v>185.9666666666667</v>
+      </c>
+      <c r="H178" t="n">
         <v>187.5183333333333</v>
       </c>
-      <c r="H178" t="n">
-        <v>0</v>
-      </c>
       <c r="I178" t="n">
-        <v>0</v>
-      </c>
-      <c r="J178" t="inlineStr"/>
-      <c r="K178" t="inlineStr"/>
-      <c r="L178" t="inlineStr">
+        <v>1</v>
+      </c>
+      <c r="J178" t="n">
+        <v>0</v>
+      </c>
+      <c r="K178" t="n">
+        <v>185</v>
+      </c>
+      <c r="L178" t="n">
+        <v>188.1</v>
+      </c>
+      <c r="M178" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M178" t="n">
+      <c r="N178" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6737,22 +7597,27 @@
         <v>11500</v>
       </c>
       <c r="G179" t="n">
+        <v>186.0333333333333</v>
+      </c>
+      <c r="H179" t="n">
         <v>187.4683333333333</v>
       </c>
-      <c r="H179" t="n">
-        <v>0</v>
-      </c>
       <c r="I179" t="n">
         <v>0</v>
       </c>
-      <c r="J179" t="inlineStr"/>
+      <c r="J179" t="n">
+        <v>0</v>
+      </c>
       <c r="K179" t="inlineStr"/>
-      <c r="L179" t="inlineStr">
+      <c r="L179" t="n">
+        <v>188.1</v>
+      </c>
+      <c r="M179" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M179" t="n">
+      <c r="N179" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6776,22 +7641,27 @@
         <v>6</v>
       </c>
       <c r="G180" t="n">
+        <v>186.1</v>
+      </c>
+      <c r="H180" t="n">
         <v>187.4416666666667</v>
       </c>
-      <c r="H180" t="n">
-        <v>0</v>
-      </c>
       <c r="I180" t="n">
         <v>0</v>
       </c>
-      <c r="J180" t="inlineStr"/>
+      <c r="J180" t="n">
+        <v>0</v>
+      </c>
       <c r="K180" t="inlineStr"/>
-      <c r="L180" t="inlineStr">
+      <c r="L180" t="n">
+        <v>188.1</v>
+      </c>
+      <c r="M180" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M180" t="n">
+      <c r="N180" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6815,22 +7685,27 @@
         <v>9515.386</v>
       </c>
       <c r="G181" t="n">
+        <v>186.2666666666667</v>
+      </c>
+      <c r="H181" t="n">
         <v>187.4166666666667</v>
       </c>
-      <c r="H181" t="n">
-        <v>0</v>
-      </c>
       <c r="I181" t="n">
         <v>0</v>
       </c>
-      <c r="J181" t="inlineStr"/>
+      <c r="J181" t="n">
+        <v>0</v>
+      </c>
       <c r="K181" t="inlineStr"/>
-      <c r="L181" t="inlineStr">
+      <c r="L181" t="n">
+        <v>188.1</v>
+      </c>
+      <c r="M181" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M181" t="n">
+      <c r="N181" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6854,22 +7729,29 @@
         <v>1328.528</v>
       </c>
       <c r="G182" t="n">
+        <v>186.36</v>
+      </c>
+      <c r="H182" t="n">
         <v>187.3666666666667</v>
       </c>
-      <c r="H182" t="n">
-        <v>0</v>
-      </c>
       <c r="I182" t="n">
-        <v>1</v>
-      </c>
-      <c r="J182" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J182" t="n">
+        <v>0</v>
+      </c>
       <c r="K182" t="inlineStr"/>
-      <c r="L182" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="M182" t="inlineStr"/>
+      <c r="L182" t="n">
+        <v>188.1</v>
+      </c>
+      <c r="M182" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N182" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="183">
       <c r="A183" s="1" t="n">
@@ -6891,18 +7773,27 @@
         <v>2629.84974468</v>
       </c>
       <c r="G183" t="n">
+        <v>186.5266666666667</v>
+      </c>
+      <c r="H183" t="n">
         <v>187.3583333333333</v>
       </c>
-      <c r="H183" t="n">
-        <v>0</v>
-      </c>
       <c r="I183" t="n">
-        <v>1</v>
-      </c>
-      <c r="J183" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J183" t="n">
+        <v>0</v>
+      </c>
       <c r="K183" t="inlineStr"/>
-      <c r="L183" t="inlineStr"/>
-      <c r="M183" t="n">
+      <c r="L183" t="n">
+        <v>188.1</v>
+      </c>
+      <c r="M183" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N183" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6926,18 +7817,27 @@
         <v>547.196</v>
       </c>
       <c r="G184" t="n">
+        <v>186.5666666666667</v>
+      </c>
+      <c r="H184" t="n">
         <v>187.3216666666667</v>
       </c>
-      <c r="H184" t="n">
-        <v>0</v>
-      </c>
       <c r="I184" t="n">
         <v>0</v>
       </c>
-      <c r="J184" t="inlineStr"/>
+      <c r="J184" t="n">
+        <v>0</v>
+      </c>
       <c r="K184" t="inlineStr"/>
-      <c r="L184" t="inlineStr"/>
-      <c r="M184" t="n">
+      <c r="L184" t="n">
+        <v>188.1</v>
+      </c>
+      <c r="M184" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N184" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6961,18 +7861,29 @@
         <v>461.999</v>
       </c>
       <c r="G185" t="n">
+        <v>186.5</v>
+      </c>
+      <c r="H185" t="n">
         <v>187.27</v>
       </c>
-      <c r="H185" t="n">
-        <v>0</v>
-      </c>
       <c r="I185" t="n">
-        <v>0</v>
-      </c>
-      <c r="J185" t="inlineStr"/>
-      <c r="K185" t="inlineStr"/>
-      <c r="L185" t="inlineStr"/>
-      <c r="M185" t="n">
+        <v>1</v>
+      </c>
+      <c r="J185" t="n">
+        <v>0</v>
+      </c>
+      <c r="K185" t="n">
+        <v>186</v>
+      </c>
+      <c r="L185" t="n">
+        <v>188.1</v>
+      </c>
+      <c r="M185" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N185" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6996,18 +7907,481 @@
         <v>726.654</v>
       </c>
       <c r="G186" t="n">
+        <v>186.4333333333333</v>
+      </c>
+      <c r="H186" t="n">
         <v>187.2183333333333</v>
       </c>
-      <c r="H186" t="n">
-        <v>0</v>
-      </c>
       <c r="I186" t="n">
-        <v>0</v>
-      </c>
-      <c r="J186" t="inlineStr"/>
-      <c r="K186" t="inlineStr"/>
-      <c r="L186" t="inlineStr"/>
-      <c r="M186" t="n">
+        <v>1</v>
+      </c>
+      <c r="J186" t="n">
+        <v>0</v>
+      </c>
+      <c r="K186" t="n">
+        <v>186</v>
+      </c>
+      <c r="L186" t="n">
+        <v>188.1</v>
+      </c>
+      <c r="M186" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N186" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" s="1" t="n">
+        <v>185</v>
+      </c>
+      <c r="B187" t="n">
+        <v>186.4</v>
+      </c>
+      <c r="C187" t="n">
+        <v>186.4</v>
+      </c>
+      <c r="D187" t="n">
+        <v>186.4</v>
+      </c>
+      <c r="E187" t="n">
+        <v>186.4</v>
+      </c>
+      <c r="F187" t="n">
+        <v>360.0871</v>
+      </c>
+      <c r="G187" t="n">
+        <v>186.3933333333333</v>
+      </c>
+      <c r="H187" t="n">
+        <v>187.1733333333333</v>
+      </c>
+      <c r="I187" t="n">
+        <v>1</v>
+      </c>
+      <c r="J187" t="n">
+        <v>0</v>
+      </c>
+      <c r="K187" t="n">
+        <v>186</v>
+      </c>
+      <c r="L187" t="n">
+        <v>188.1</v>
+      </c>
+      <c r="M187" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N187" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" s="1" t="n">
+        <v>186</v>
+      </c>
+      <c r="B188" t="n">
+        <v>186.2</v>
+      </c>
+      <c r="C188" t="n">
+        <v>186.2</v>
+      </c>
+      <c r="D188" t="n">
+        <v>186.2</v>
+      </c>
+      <c r="E188" t="n">
+        <v>186.2</v>
+      </c>
+      <c r="F188" t="n">
+        <v>128.2355</v>
+      </c>
+      <c r="G188" t="n">
+        <v>186.34</v>
+      </c>
+      <c r="H188" t="n">
+        <v>187.0983333333333</v>
+      </c>
+      <c r="I188" t="n">
+        <v>0</v>
+      </c>
+      <c r="J188" t="n">
+        <v>0</v>
+      </c>
+      <c r="K188" t="inlineStr"/>
+      <c r="L188" t="n">
+        <v>188.1</v>
+      </c>
+      <c r="M188" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N188" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" s="1" t="n">
+        <v>187</v>
+      </c>
+      <c r="B189" t="n">
+        <v>186.2</v>
+      </c>
+      <c r="C189" t="n">
+        <v>186.2</v>
+      </c>
+      <c r="D189" t="n">
+        <v>186.2</v>
+      </c>
+      <c r="E189" t="n">
+        <v>186.2</v>
+      </c>
+      <c r="F189" t="n">
+        <v>2613.0141</v>
+      </c>
+      <c r="G189" t="n">
+        <v>186.2866666666667</v>
+      </c>
+      <c r="H189" t="n">
+        <v>187.065</v>
+      </c>
+      <c r="I189" t="n">
+        <v>1</v>
+      </c>
+      <c r="J189" t="n">
+        <v>0</v>
+      </c>
+      <c r="K189" t="n">
+        <v>186.2</v>
+      </c>
+      <c r="L189" t="n">
+        <v>188.1</v>
+      </c>
+      <c r="M189" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N189" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" s="1" t="n">
+        <v>188</v>
+      </c>
+      <c r="B190" t="n">
+        <v>186</v>
+      </c>
+      <c r="C190" t="n">
+        <v>186.2</v>
+      </c>
+      <c r="D190" t="n">
+        <v>186.2</v>
+      </c>
+      <c r="E190" t="n">
+        <v>186</v>
+      </c>
+      <c r="F190" t="n">
+        <v>2676.642</v>
+      </c>
+      <c r="G190" t="n">
+        <v>186.3333333333333</v>
+      </c>
+      <c r="H190" t="n">
+        <v>187.0183333333333</v>
+      </c>
+      <c r="I190" t="n">
+        <v>0</v>
+      </c>
+      <c r="J190" t="n">
+        <v>0</v>
+      </c>
+      <c r="K190" t="inlineStr"/>
+      <c r="L190" t="n">
+        <v>188.1</v>
+      </c>
+      <c r="M190" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N190" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" s="1" t="n">
+        <v>189</v>
+      </c>
+      <c r="B191" t="n">
+        <v>186.1</v>
+      </c>
+      <c r="C191" t="n">
+        <v>186.2</v>
+      </c>
+      <c r="D191" t="n">
+        <v>186.2</v>
+      </c>
+      <c r="E191" t="n">
+        <v>186.1</v>
+      </c>
+      <c r="F191" t="n">
+        <v>1700</v>
+      </c>
+      <c r="G191" t="n">
+        <v>186.38</v>
+      </c>
+      <c r="H191" t="n">
+        <v>186.9716666666667</v>
+      </c>
+      <c r="I191" t="n">
+        <v>0</v>
+      </c>
+      <c r="J191" t="n">
+        <v>0</v>
+      </c>
+      <c r="K191" t="inlineStr"/>
+      <c r="L191" t="n">
+        <v>188.1</v>
+      </c>
+      <c r="M191" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N191" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" s="1" t="n">
+        <v>190</v>
+      </c>
+      <c r="B192" t="n">
+        <v>186.2</v>
+      </c>
+      <c r="C192" t="n">
+        <v>186.2</v>
+      </c>
+      <c r="D192" t="n">
+        <v>186.2</v>
+      </c>
+      <c r="E192" t="n">
+        <v>186.2</v>
+      </c>
+      <c r="F192" t="n">
+        <v>122.5035</v>
+      </c>
+      <c r="G192" t="n">
+        <v>186.46</v>
+      </c>
+      <c r="H192" t="n">
+        <v>186.9233333333333</v>
+      </c>
+      <c r="I192" t="n">
+        <v>1</v>
+      </c>
+      <c r="J192" t="n">
+        <v>0</v>
+      </c>
+      <c r="K192" t="n">
+        <v>186.2</v>
+      </c>
+      <c r="L192" t="n">
+        <v>188.1</v>
+      </c>
+      <c r="M192" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N192" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" s="1" t="n">
+        <v>191</v>
+      </c>
+      <c r="B193" t="n">
+        <v>186.2</v>
+      </c>
+      <c r="C193" t="n">
+        <v>186.2</v>
+      </c>
+      <c r="D193" t="n">
+        <v>186.2</v>
+      </c>
+      <c r="E193" t="n">
+        <v>186.2</v>
+      </c>
+      <c r="F193" t="n">
+        <v>98.4203</v>
+      </c>
+      <c r="G193" t="n">
+        <v>186.6066666666666</v>
+      </c>
+      <c r="H193" t="n">
+        <v>186.875</v>
+      </c>
+      <c r="I193" t="n">
+        <v>1</v>
+      </c>
+      <c r="J193" t="n">
+        <v>0</v>
+      </c>
+      <c r="K193" t="n">
+        <v>186.2</v>
+      </c>
+      <c r="L193" t="n">
+        <v>188.1</v>
+      </c>
+      <c r="M193" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N193" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" s="1" t="n">
+        <v>192</v>
+      </c>
+      <c r="B194" t="n">
+        <v>186.2</v>
+      </c>
+      <c r="C194" t="n">
+        <v>186.2</v>
+      </c>
+      <c r="D194" t="n">
+        <v>186.2</v>
+      </c>
+      <c r="E194" t="n">
+        <v>186.2</v>
+      </c>
+      <c r="F194" t="n">
+        <v>1220</v>
+      </c>
+      <c r="G194" t="n">
+        <v>186.5533333333333</v>
+      </c>
+      <c r="H194" t="n">
+        <v>186.795</v>
+      </c>
+      <c r="I194" t="n">
+        <v>0</v>
+      </c>
+      <c r="J194" t="n">
+        <v>0</v>
+      </c>
+      <c r="K194" t="inlineStr"/>
+      <c r="L194" t="n">
+        <v>188.1</v>
+      </c>
+      <c r="M194" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N194" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" s="1" t="n">
+        <v>193</v>
+      </c>
+      <c r="B195" t="n">
+        <v>186.2</v>
+      </c>
+      <c r="C195" t="n">
+        <v>186.2</v>
+      </c>
+      <c r="D195" t="n">
+        <v>186.2</v>
+      </c>
+      <c r="E195" t="n">
+        <v>186.2</v>
+      </c>
+      <c r="F195" t="n">
+        <v>1700</v>
+      </c>
+      <c r="G195" t="n">
+        <v>186.4999999999999</v>
+      </c>
+      <c r="H195" t="n">
+        <v>186.7466666666667</v>
+      </c>
+      <c r="I195" t="n">
+        <v>1</v>
+      </c>
+      <c r="J195" t="n">
+        <v>0</v>
+      </c>
+      <c r="K195" t="n">
+        <v>186.2</v>
+      </c>
+      <c r="L195" t="n">
+        <v>188.1</v>
+      </c>
+      <c r="M195" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N195" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" s="1" t="n">
+        <v>194</v>
+      </c>
+      <c r="B196" t="n">
+        <v>186.2</v>
+      </c>
+      <c r="C196" t="n">
+        <v>186.2</v>
+      </c>
+      <c r="D196" t="n">
+        <v>186.2</v>
+      </c>
+      <c r="E196" t="n">
+        <v>186.2</v>
+      </c>
+      <c r="F196" t="n">
+        <v>8927.824000000001</v>
+      </c>
+      <c r="G196" t="n">
+        <v>186.3466666666666</v>
+      </c>
+      <c r="H196" t="n">
+        <v>186.7</v>
+      </c>
+      <c r="I196" t="n">
+        <v>1</v>
+      </c>
+      <c r="J196" t="n">
+        <v>0</v>
+      </c>
+      <c r="K196" t="n">
+        <v>186.2</v>
+      </c>
+      <c r="L196" t="n">
+        <v>188.1</v>
+      </c>
+      <c r="M196" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N196" t="n">
         <v>1</v>
       </c>
     </row>

--- a/BackTest/2020-01-24 BackTest STEEM.xlsx
+++ b/BackTest/2020-01-24 BackTest STEEM.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N183"/>
+  <dimension ref="A1:N254"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -438,22 +438,22 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>194</v>
+        <v>195.8</v>
       </c>
       <c r="C2" t="n">
-        <v>194</v>
+        <v>195.8</v>
       </c>
       <c r="D2" t="n">
-        <v>194</v>
+        <v>195.8</v>
       </c>
       <c r="E2" t="n">
-        <v>194</v>
+        <v>195.8</v>
       </c>
       <c r="F2" t="n">
-        <v>45</v>
+        <v>2300</v>
       </c>
       <c r="G2" t="n">
-        <v>-87180.15436654999</v>
+        <v>-37919.85316655</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -474,22 +474,22 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>194</v>
+        <v>195.8</v>
       </c>
       <c r="C3" t="n">
-        <v>194</v>
+        <v>195.1</v>
       </c>
       <c r="D3" t="n">
-        <v>194</v>
+        <v>195.8</v>
       </c>
       <c r="E3" t="n">
-        <v>194</v>
+        <v>195.1</v>
       </c>
       <c r="F3" t="n">
-        <v>541</v>
+        <v>6000</v>
       </c>
       <c r="G3" t="n">
-        <v>-87180.15436654999</v>
+        <v>-43919.85316655</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -510,22 +510,22 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>194</v>
+        <v>195.1</v>
       </c>
       <c r="C4" t="n">
-        <v>194</v>
+        <v>195.1</v>
       </c>
       <c r="D4" t="n">
-        <v>194</v>
+        <v>195.1</v>
       </c>
       <c r="E4" t="n">
-        <v>194</v>
+        <v>195.1</v>
       </c>
       <c r="F4" t="n">
-        <v>1010.4349</v>
+        <v>1560</v>
       </c>
       <c r="G4" t="n">
-        <v>-87180.15436654999</v>
+        <v>-43919.85316655</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -546,22 +546,22 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>194</v>
+        <v>195.2</v>
       </c>
       <c r="C5" t="n">
-        <v>194</v>
+        <v>195.2</v>
       </c>
       <c r="D5" t="n">
-        <v>194</v>
+        <v>195.2</v>
       </c>
       <c r="E5" t="n">
-        <v>194</v>
+        <v>195.2</v>
       </c>
       <c r="F5" t="n">
-        <v>471.849</v>
+        <v>294</v>
       </c>
       <c r="G5" t="n">
-        <v>-87180.15436654999</v>
+        <v>-43625.85316655</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -582,22 +582,22 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>194.7</v>
+        <v>195.1</v>
       </c>
       <c r="C6" t="n">
-        <v>194.7</v>
+        <v>195.1</v>
       </c>
       <c r="D6" t="n">
-        <v>194.7</v>
+        <v>195.1</v>
       </c>
       <c r="E6" t="n">
-        <v>194.7</v>
+        <v>195.1</v>
       </c>
       <c r="F6" t="n">
-        <v>267</v>
+        <v>2763</v>
       </c>
       <c r="G6" t="n">
-        <v>-86913.15436654999</v>
+        <v>-46388.85316655</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -618,28 +618,28 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>194.6</v>
+        <v>196.9</v>
       </c>
       <c r="C7" t="n">
-        <v>194.6</v>
+        <v>196.6</v>
       </c>
       <c r="D7" t="n">
-        <v>194.6</v>
+        <v>196.9</v>
       </c>
       <c r="E7" t="n">
-        <v>194.6</v>
+        <v>196.6</v>
       </c>
       <c r="F7" t="n">
-        <v>1545.8041</v>
+        <v>6300.4218</v>
       </c>
       <c r="G7" t="n">
-        <v>-88458.95846654999</v>
+        <v>-40088.43136654999</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
@@ -654,22 +654,22 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>194.6</v>
+        <v>196.6</v>
       </c>
       <c r="C8" t="n">
-        <v>194.5</v>
+        <v>196.6</v>
       </c>
       <c r="D8" t="n">
-        <v>194.6</v>
+        <v>196.6</v>
       </c>
       <c r="E8" t="n">
-        <v>194.5</v>
+        <v>196.6</v>
       </c>
       <c r="F8" t="n">
-        <v>4260</v>
+        <v>9532.8984</v>
       </c>
       <c r="G8" t="n">
-        <v>-92718.95846654999</v>
+        <v>-40088.43136654999</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -690,22 +690,22 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>195</v>
+        <v>195.2</v>
       </c>
       <c r="C9" t="n">
-        <v>195</v>
+        <v>195.2</v>
       </c>
       <c r="D9" t="n">
-        <v>195</v>
+        <v>195.2</v>
       </c>
       <c r="E9" t="n">
-        <v>195</v>
+        <v>195.2</v>
       </c>
       <c r="F9" t="n">
-        <v>3400.6357</v>
+        <v>333.3162</v>
       </c>
       <c r="G9" t="n">
-        <v>-89318.32276654999</v>
+        <v>-40421.74756655</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -726,22 +726,22 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>195</v>
+        <v>196.7</v>
       </c>
       <c r="C10" t="n">
-        <v>195</v>
+        <v>196.7</v>
       </c>
       <c r="D10" t="n">
-        <v>195</v>
+        <v>196.7</v>
       </c>
       <c r="E10" t="n">
-        <v>195</v>
+        <v>196.7</v>
       </c>
       <c r="F10" t="n">
-        <v>1916.7573</v>
+        <v>75.8616</v>
       </c>
       <c r="G10" t="n">
-        <v>-89318.32276654999</v>
+        <v>-40345.88596655</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -762,22 +762,22 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>195</v>
+        <v>196.9</v>
       </c>
       <c r="C11" t="n">
-        <v>193.2</v>
+        <v>196.9</v>
       </c>
       <c r="D11" t="n">
-        <v>195</v>
+        <v>196.9</v>
       </c>
       <c r="E11" t="n">
-        <v>193.2</v>
+        <v>196.9</v>
       </c>
       <c r="F11" t="n">
-        <v>7000</v>
+        <v>79.7569</v>
       </c>
       <c r="G11" t="n">
-        <v>-96318.32276654999</v>
+        <v>-40266.12906655</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -798,22 +798,22 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>193.2</v>
+        <v>195.2</v>
       </c>
       <c r="C12" t="n">
-        <v>193.2</v>
+        <v>195.2</v>
       </c>
       <c r="D12" t="n">
-        <v>193.2</v>
+        <v>195.2</v>
       </c>
       <c r="E12" t="n">
-        <v>193.2</v>
+        <v>195.2</v>
       </c>
       <c r="F12" t="n">
-        <v>7809.396</v>
+        <v>212.8566</v>
       </c>
       <c r="G12" t="n">
-        <v>-96318.32276654999</v>
+        <v>-40478.98566655</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -834,22 +834,22 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>192.5</v>
+        <v>195.2</v>
       </c>
       <c r="C13" t="n">
-        <v>192.5</v>
+        <v>195.2</v>
       </c>
       <c r="D13" t="n">
-        <v>194</v>
+        <v>195.2</v>
       </c>
       <c r="E13" t="n">
-        <v>192.5</v>
+        <v>195.2</v>
       </c>
       <c r="F13" t="n">
-        <v>6724.1806</v>
+        <v>2937.602</v>
       </c>
       <c r="G13" t="n">
-        <v>-103042.50336655</v>
+        <v>-40478.98566655</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -870,28 +870,28 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>193</v>
+        <v>195.1</v>
       </c>
       <c r="C14" t="n">
-        <v>192.5</v>
+        <v>195.1</v>
       </c>
       <c r="D14" t="n">
-        <v>193</v>
+        <v>195.1</v>
       </c>
       <c r="E14" t="n">
-        <v>192.5</v>
+        <v>195.1</v>
       </c>
       <c r="F14" t="n">
-        <v>23417.353</v>
+        <v>16</v>
       </c>
       <c r="G14" t="n">
-        <v>-103042.50336655</v>
+        <v>-40494.98566655</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
@@ -906,22 +906,22 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>192.1</v>
+        <v>197</v>
       </c>
       <c r="C15" t="n">
-        <v>192.1</v>
+        <v>196.9</v>
       </c>
       <c r="D15" t="n">
-        <v>192.1</v>
+        <v>197</v>
       </c>
       <c r="E15" t="n">
-        <v>192.1</v>
+        <v>196.9</v>
       </c>
       <c r="F15" t="n">
-        <v>1868.8707</v>
+        <v>379</v>
       </c>
       <c r="G15" t="n">
-        <v>-104911.37406655</v>
+        <v>-40115.98566655</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -942,28 +942,28 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>192</v>
+        <v>196.9</v>
       </c>
       <c r="C16" t="n">
-        <v>192</v>
+        <v>196.9</v>
       </c>
       <c r="D16" t="n">
-        <v>192</v>
+        <v>196.9</v>
       </c>
       <c r="E16" t="n">
-        <v>192</v>
+        <v>196.9</v>
       </c>
       <c r="F16" t="n">
-        <v>7502.1906</v>
+        <v>37</v>
       </c>
       <c r="G16" t="n">
-        <v>-112413.56466655</v>
+        <v>-40115.98566655</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
@@ -978,28 +978,28 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>191.5</v>
+        <v>195.1</v>
       </c>
       <c r="C17" t="n">
-        <v>191.5</v>
+        <v>195.1</v>
       </c>
       <c r="D17" t="n">
-        <v>191.5</v>
+        <v>195.1</v>
       </c>
       <c r="E17" t="n">
-        <v>191.5</v>
+        <v>195.1</v>
       </c>
       <c r="F17" t="n">
-        <v>391.2127</v>
+        <v>145.4792</v>
       </c>
       <c r="G17" t="n">
-        <v>-112804.77736655</v>
+        <v>-40261.46486655</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
@@ -1014,28 +1014,28 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>191.4</v>
+        <v>195.1</v>
       </c>
       <c r="C18" t="n">
-        <v>191</v>
+        <v>195.1</v>
       </c>
       <c r="D18" t="n">
-        <v>191.4</v>
+        <v>195.1</v>
       </c>
       <c r="E18" t="n">
-        <v>191</v>
+        <v>195.1</v>
       </c>
       <c r="F18" t="n">
-        <v>7152.0619</v>
+        <v>2093.12</v>
       </c>
       <c r="G18" t="n">
-        <v>-119956.83926655</v>
+        <v>-40261.46486655</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr"/>
@@ -1050,28 +1050,28 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>191</v>
+        <v>195.1</v>
       </c>
       <c r="C19" t="n">
-        <v>190</v>
+        <v>195.1</v>
       </c>
       <c r="D19" t="n">
-        <v>191</v>
+        <v>195.1</v>
       </c>
       <c r="E19" t="n">
-        <v>190</v>
+        <v>195.1</v>
       </c>
       <c r="F19" t="n">
-        <v>8003.4763</v>
+        <v>1690</v>
       </c>
       <c r="G19" t="n">
-        <v>-127960.31556655</v>
+        <v>-40261.46486655</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
@@ -1086,28 +1086,28 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>190</v>
+        <v>196.9</v>
       </c>
       <c r="C20" t="n">
-        <v>190</v>
+        <v>196.9</v>
       </c>
       <c r="D20" t="n">
-        <v>190</v>
+        <v>198.3</v>
       </c>
       <c r="E20" t="n">
-        <v>190</v>
+        <v>195.1</v>
       </c>
       <c r="F20" t="n">
-        <v>2293.2974</v>
+        <v>5879.709</v>
       </c>
       <c r="G20" t="n">
-        <v>-127960.31556655</v>
+        <v>-34381.75586655</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr"/>
@@ -1122,28 +1122,28 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>190</v>
+        <v>196.9</v>
       </c>
       <c r="C21" t="n">
-        <v>190</v>
+        <v>196.1</v>
       </c>
       <c r="D21" t="n">
-        <v>190</v>
+        <v>198.7</v>
       </c>
       <c r="E21" t="n">
-        <v>190</v>
+        <v>196.1</v>
       </c>
       <c r="F21" t="n">
-        <v>1000</v>
+        <v>5095.0678</v>
       </c>
       <c r="G21" t="n">
-        <v>-127960.31556655</v>
+        <v>-39476.82366654999</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr"/>
@@ -1158,28 +1158,28 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>190</v>
+        <v>198.6</v>
       </c>
       <c r="C22" t="n">
-        <v>190</v>
+        <v>197</v>
       </c>
       <c r="D22" t="n">
-        <v>190</v>
+        <v>198.7</v>
       </c>
       <c r="E22" t="n">
-        <v>190</v>
+        <v>195.3</v>
       </c>
       <c r="F22" t="n">
-        <v>71</v>
+        <v>599.4047</v>
       </c>
       <c r="G22" t="n">
-        <v>-127960.31556655</v>
+        <v>-38877.41896654999</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr"/>
@@ -1194,28 +1194,28 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>190.2</v>
+        <v>196</v>
       </c>
       <c r="C23" t="n">
-        <v>190.2</v>
+        <v>197</v>
       </c>
       <c r="D23" t="n">
-        <v>190.2</v>
+        <v>197</v>
       </c>
       <c r="E23" t="n">
-        <v>190.2</v>
+        <v>196</v>
       </c>
       <c r="F23" t="n">
-        <v>161.545</v>
+        <v>283.4811</v>
       </c>
       <c r="G23" t="n">
-        <v>-127798.77056655</v>
+        <v>-38877.41896654999</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr"/>
@@ -1230,28 +1230,28 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>190.3</v>
+        <v>197</v>
       </c>
       <c r="C24" t="n">
-        <v>190.3</v>
+        <v>197.9</v>
       </c>
       <c r="D24" t="n">
-        <v>190.3</v>
+        <v>197.9</v>
       </c>
       <c r="E24" t="n">
-        <v>190.3</v>
+        <v>196</v>
       </c>
       <c r="F24" t="n">
-        <v>377.1786</v>
+        <v>940.239</v>
       </c>
       <c r="G24" t="n">
-        <v>-127421.59196655</v>
+        <v>-37937.17996654999</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr"/>
@@ -1266,28 +1266,28 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>191</v>
+        <v>197</v>
       </c>
       <c r="C25" t="n">
-        <v>190</v>
+        <v>198.6</v>
       </c>
       <c r="D25" t="n">
-        <v>191</v>
+        <v>198.6</v>
       </c>
       <c r="E25" t="n">
-        <v>190</v>
+        <v>197</v>
       </c>
       <c r="F25" t="n">
-        <v>1500</v>
+        <v>2306.8859</v>
       </c>
       <c r="G25" t="n">
-        <v>-128921.59196655</v>
+        <v>-35630.29406654999</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr"/>
@@ -1302,28 +1302,28 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>190</v>
+        <v>198.2</v>
       </c>
       <c r="C26" t="n">
-        <v>191</v>
+        <v>198.2</v>
       </c>
       <c r="D26" t="n">
-        <v>191</v>
+        <v>198.2</v>
       </c>
       <c r="E26" t="n">
-        <v>190</v>
+        <v>198.2</v>
       </c>
       <c r="F26" t="n">
-        <v>192.7404</v>
+        <v>22.504</v>
       </c>
       <c r="G26" t="n">
-        <v>-128728.85156655</v>
+        <v>-35652.79806654999</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr"/>
@@ -1338,28 +1338,28 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>191</v>
+        <v>198.3</v>
       </c>
       <c r="C27" t="n">
-        <v>188.7</v>
+        <v>198.3</v>
       </c>
       <c r="D27" t="n">
-        <v>191</v>
+        <v>198.3</v>
       </c>
       <c r="E27" t="n">
-        <v>188.7</v>
+        <v>198.3</v>
       </c>
       <c r="F27" t="n">
-        <v>8569.6072</v>
+        <v>589.6947</v>
       </c>
       <c r="G27" t="n">
-        <v>-137298.45876655</v>
+        <v>-35063.10336654999</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr"/>
@@ -1374,28 +1374,28 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>188.8</v>
+        <v>196.1</v>
       </c>
       <c r="C28" t="n">
-        <v>188.8</v>
+        <v>196.1</v>
       </c>
       <c r="D28" t="n">
-        <v>188.8</v>
+        <v>196.1</v>
       </c>
       <c r="E28" t="n">
-        <v>188.8</v>
+        <v>196.1</v>
       </c>
       <c r="F28" t="n">
-        <v>187</v>
+        <v>504.844</v>
       </c>
       <c r="G28" t="n">
-        <v>-137111.45876655</v>
+        <v>-35567.94736654999</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr"/>
@@ -1410,28 +1410,28 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>190.8</v>
+        <v>198</v>
       </c>
       <c r="C29" t="n">
-        <v>190.8</v>
+        <v>196</v>
       </c>
       <c r="D29" t="n">
-        <v>190.8</v>
+        <v>198</v>
       </c>
       <c r="E29" t="n">
-        <v>190.8</v>
+        <v>196</v>
       </c>
       <c r="F29" t="n">
-        <v>6297.685</v>
+        <v>1466.3184</v>
       </c>
       <c r="G29" t="n">
-        <v>-130813.77376655</v>
+        <v>-37034.26576654999</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr"/>
@@ -1446,28 +1446,28 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>190</v>
+        <v>195.9</v>
       </c>
       <c r="C30" t="n">
-        <v>189</v>
+        <v>195.9</v>
       </c>
       <c r="D30" t="n">
-        <v>190</v>
+        <v>195.9</v>
       </c>
       <c r="E30" t="n">
-        <v>189</v>
+        <v>195.9</v>
       </c>
       <c r="F30" t="n">
-        <v>195.57</v>
+        <v>225.3004</v>
       </c>
       <c r="G30" t="n">
-        <v>-131009.34376655</v>
+        <v>-37259.56616654999</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr"/>
@@ -1482,28 +1482,28 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>189</v>
+        <v>196.9</v>
       </c>
       <c r="C31" t="n">
-        <v>189</v>
+        <v>196.9</v>
       </c>
       <c r="D31" t="n">
-        <v>189</v>
+        <v>196.9</v>
       </c>
       <c r="E31" t="n">
-        <v>189</v>
+        <v>196.9</v>
       </c>
       <c r="F31" t="n">
-        <v>125</v>
+        <v>319.0563</v>
       </c>
       <c r="G31" t="n">
-        <v>-131009.34376655</v>
+        <v>-36940.50986654999</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr"/>
@@ -1518,28 +1518,28 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>191</v>
+        <v>196.9</v>
       </c>
       <c r="C32" t="n">
-        <v>191.6</v>
+        <v>196</v>
       </c>
       <c r="D32" t="n">
-        <v>191.6</v>
+        <v>198</v>
       </c>
       <c r="E32" t="n">
-        <v>191</v>
+        <v>196</v>
       </c>
       <c r="F32" t="n">
-        <v>7000</v>
+        <v>552.4908</v>
       </c>
       <c r="G32" t="n">
-        <v>-124009.34376655</v>
+        <v>-37493.00066654999</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr"/>
@@ -1554,28 +1554,28 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>191.6</v>
+        <v>197</v>
       </c>
       <c r="C33" t="n">
-        <v>190</v>
+        <v>197.9</v>
       </c>
       <c r="D33" t="n">
-        <v>191.6</v>
+        <v>197.9</v>
       </c>
       <c r="E33" t="n">
-        <v>190</v>
+        <v>197</v>
       </c>
       <c r="F33" t="n">
-        <v>5540.1138</v>
+        <v>198.7272</v>
       </c>
       <c r="G33" t="n">
-        <v>-129549.45756655</v>
+        <v>-37294.27346654999</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J33" t="inlineStr"/>
       <c r="K33" t="inlineStr"/>
@@ -1590,28 +1590,28 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>190</v>
+        <v>196</v>
       </c>
       <c r="C34" t="n">
-        <v>191</v>
+        <v>196</v>
       </c>
       <c r="D34" t="n">
-        <v>191</v>
+        <v>196</v>
       </c>
       <c r="E34" t="n">
-        <v>190</v>
+        <v>196</v>
       </c>
       <c r="F34" t="n">
-        <v>13846.5879</v>
+        <v>153.7474</v>
       </c>
       <c r="G34" t="n">
-        <v>-115702.86966655</v>
+        <v>-37448.02086654999</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J34" t="inlineStr"/>
       <c r="K34" t="inlineStr"/>
@@ -1626,28 +1626,28 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>191</v>
+        <v>197.9</v>
       </c>
       <c r="C35" t="n">
-        <v>191</v>
+        <v>197.9</v>
       </c>
       <c r="D35" t="n">
-        <v>192</v>
+        <v>197.9</v>
       </c>
       <c r="E35" t="n">
-        <v>191</v>
+        <v>197.9</v>
       </c>
       <c r="F35" t="n">
-        <v>2755.1094</v>
+        <v>590.898</v>
       </c>
       <c r="G35" t="n">
-        <v>-115702.86966655</v>
+        <v>-36857.12286654999</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J35" t="inlineStr"/>
       <c r="K35" t="inlineStr"/>
@@ -1662,28 +1662,28 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>190</v>
+        <v>197.9</v>
       </c>
       <c r="C36" t="n">
-        <v>193.5</v>
+        <v>197.9</v>
       </c>
       <c r="D36" t="n">
-        <v>193.5</v>
+        <v>197.9</v>
       </c>
       <c r="E36" t="n">
-        <v>190</v>
+        <v>197.9</v>
       </c>
       <c r="F36" t="n">
-        <v>368.7145</v>
+        <v>101.5979</v>
       </c>
       <c r="G36" t="n">
-        <v>-115334.15516655</v>
+        <v>-36857.12286654999</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr"/>
@@ -1698,28 +1698,28 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>190.1</v>
+        <v>197.9</v>
       </c>
       <c r="C37" t="n">
-        <v>189.1</v>
+        <v>197.9</v>
       </c>
       <c r="D37" t="n">
-        <v>190.1</v>
+        <v>197.9</v>
       </c>
       <c r="E37" t="n">
-        <v>189.1</v>
+        <v>197.9</v>
       </c>
       <c r="F37" t="n">
-        <v>7544.4752</v>
+        <v>850.2049</v>
       </c>
       <c r="G37" t="n">
-        <v>-122878.63036655</v>
+        <v>-36857.12286654999</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr"/>
@@ -1734,28 +1734,28 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>193.1</v>
+        <v>197.9</v>
       </c>
       <c r="C38" t="n">
-        <v>193.1</v>
+        <v>197.9</v>
       </c>
       <c r="D38" t="n">
-        <v>193.1</v>
+        <v>197.9</v>
       </c>
       <c r="E38" t="n">
-        <v>193.1</v>
+        <v>197.9</v>
       </c>
       <c r="F38" t="n">
-        <v>3</v>
+        <v>5000</v>
       </c>
       <c r="G38" t="n">
-        <v>-122875.63036655</v>
+        <v>-36857.12286654999</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr"/>
@@ -1770,28 +1770,28 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>190</v>
+        <v>197.9</v>
       </c>
       <c r="C39" t="n">
-        <v>190</v>
+        <v>197.9</v>
       </c>
       <c r="D39" t="n">
-        <v>190</v>
+        <v>197.9</v>
       </c>
       <c r="E39" t="n">
-        <v>190</v>
+        <v>197.9</v>
       </c>
       <c r="F39" t="n">
-        <v>5966.6318</v>
+        <v>4303.6061</v>
       </c>
       <c r="G39" t="n">
-        <v>-128842.26216655</v>
+        <v>-36857.12286654999</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr"/>
@@ -1806,28 +1806,28 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>191.9</v>
+        <v>197.9</v>
       </c>
       <c r="C40" t="n">
-        <v>190</v>
+        <v>197.9</v>
       </c>
       <c r="D40" t="n">
-        <v>191.9</v>
+        <v>197.9</v>
       </c>
       <c r="E40" t="n">
-        <v>190</v>
+        <v>197.9</v>
       </c>
       <c r="F40" t="n">
-        <v>443.7528</v>
+        <v>7000</v>
       </c>
       <c r="G40" t="n">
-        <v>-128842.26216655</v>
+        <v>-36857.12286654999</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr"/>
@@ -1842,28 +1842,28 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>191.9</v>
+        <v>197.9</v>
       </c>
       <c r="C41" t="n">
-        <v>191.9</v>
+        <v>197.9</v>
       </c>
       <c r="D41" t="n">
-        <v>191.9</v>
+        <v>197.9</v>
       </c>
       <c r="E41" t="n">
-        <v>191.9</v>
+        <v>197.9</v>
       </c>
       <c r="F41" t="n">
-        <v>3</v>
+        <v>167.1984</v>
       </c>
       <c r="G41" t="n">
-        <v>-128839.26216655</v>
+        <v>-36857.12286654999</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J41" t="inlineStr"/>
       <c r="K41" t="inlineStr"/>
@@ -1878,28 +1878,28 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>190</v>
+        <v>195.9</v>
       </c>
       <c r="C42" t="n">
-        <v>190</v>
+        <v>197.8</v>
       </c>
       <c r="D42" t="n">
-        <v>190</v>
+        <v>197.9</v>
       </c>
       <c r="E42" t="n">
-        <v>190</v>
+        <v>195.3</v>
       </c>
       <c r="F42" t="n">
-        <v>169</v>
+        <v>9611.1103</v>
       </c>
       <c r="G42" t="n">
-        <v>-129008.26216655</v>
+        <v>-46468.23316654999</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J42" t="inlineStr"/>
       <c r="K42" t="inlineStr"/>
@@ -1914,28 +1914,28 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>190</v>
+        <v>197.8</v>
       </c>
       <c r="C43" t="n">
-        <v>191.9</v>
+        <v>197.8</v>
       </c>
       <c r="D43" t="n">
-        <v>191.9</v>
+        <v>197.8</v>
       </c>
       <c r="E43" t="n">
-        <v>190</v>
+        <v>197.8</v>
       </c>
       <c r="F43" t="n">
-        <v>603.3353</v>
+        <v>44.667</v>
       </c>
       <c r="G43" t="n">
-        <v>-128404.92686655</v>
+        <v>-46468.23316654999</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J43" t="inlineStr"/>
       <c r="K43" t="inlineStr"/>
@@ -1950,28 +1950,28 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>191.9</v>
+        <v>197.8</v>
       </c>
       <c r="C44" t="n">
-        <v>190.3</v>
+        <v>195.3</v>
       </c>
       <c r="D44" t="n">
-        <v>191.9</v>
+        <v>197.8</v>
       </c>
       <c r="E44" t="n">
-        <v>190.3</v>
+        <v>195.3</v>
       </c>
       <c r="F44" t="n">
-        <v>9980.3194</v>
+        <v>1091.311</v>
       </c>
       <c r="G44" t="n">
-        <v>-138385.24626655</v>
+        <v>-47559.54416654999</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J44" t="inlineStr"/>
       <c r="K44" t="inlineStr"/>
@@ -1986,28 +1986,28 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>193.4</v>
+        <v>195.2</v>
       </c>
       <c r="C45" t="n">
-        <v>193.4</v>
+        <v>195.1</v>
       </c>
       <c r="D45" t="n">
-        <v>193.4</v>
+        <v>195.2</v>
       </c>
       <c r="E45" t="n">
-        <v>193.4</v>
+        <v>195.1</v>
       </c>
       <c r="F45" t="n">
-        <v>3</v>
+        <v>2728.378</v>
       </c>
       <c r="G45" t="n">
-        <v>-138382.24626655</v>
+        <v>-50287.92216654999</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J45" t="inlineStr"/>
       <c r="K45" t="inlineStr"/>
@@ -2022,22 +2022,22 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>194.7</v>
+        <v>195.1</v>
       </c>
       <c r="C46" t="n">
-        <v>194.7</v>
+        <v>195.1</v>
       </c>
       <c r="D46" t="n">
-        <v>194.7</v>
+        <v>195.1</v>
       </c>
       <c r="E46" t="n">
-        <v>194.7</v>
+        <v>195.1</v>
       </c>
       <c r="F46" t="n">
-        <v>3</v>
+        <v>2889.773</v>
       </c>
       <c r="G46" t="n">
-        <v>-138379.24626655</v>
+        <v>-50287.92216654999</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -2058,28 +2058,28 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>191</v>
+        <v>195.2</v>
       </c>
       <c r="C47" t="n">
-        <v>191</v>
+        <v>195.2</v>
       </c>
       <c r="D47" t="n">
-        <v>191</v>
+        <v>195.2</v>
       </c>
       <c r="E47" t="n">
-        <v>191</v>
+        <v>195.2</v>
       </c>
       <c r="F47" t="n">
-        <v>700.99</v>
+        <v>590</v>
       </c>
       <c r="G47" t="n">
-        <v>-139080.23626655</v>
+        <v>-49697.92216654999</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
       </c>
       <c r="I47" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J47" t="inlineStr"/>
       <c r="K47" t="inlineStr"/>
@@ -2094,22 +2094,22 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>192.5</v>
+        <v>197.6</v>
       </c>
       <c r="C48" t="n">
-        <v>192.5</v>
+        <v>197.6</v>
       </c>
       <c r="D48" t="n">
-        <v>192.5</v>
+        <v>197.6</v>
       </c>
       <c r="E48" t="n">
-        <v>192.5</v>
+        <v>197.6</v>
       </c>
       <c r="F48" t="n">
-        <v>3</v>
+        <v>3900</v>
       </c>
       <c r="G48" t="n">
-        <v>-139077.23626655</v>
+        <v>-45797.92216654999</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -2130,28 +2130,28 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>192.9</v>
+        <v>197.5</v>
       </c>
       <c r="C49" t="n">
-        <v>192.9</v>
+        <v>197.5</v>
       </c>
       <c r="D49" t="n">
-        <v>192.9</v>
+        <v>197.5</v>
       </c>
       <c r="E49" t="n">
-        <v>192.9</v>
+        <v>197.5</v>
       </c>
       <c r="F49" t="n">
-        <v>3</v>
+        <v>2300.0555</v>
       </c>
       <c r="G49" t="n">
-        <v>-139074.23626655</v>
+        <v>-48097.97766654999</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
       </c>
       <c r="I49" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr"/>
@@ -2166,28 +2166,28 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>191</v>
+        <v>195.2</v>
       </c>
       <c r="C50" t="n">
-        <v>191</v>
+        <v>197.6</v>
       </c>
       <c r="D50" t="n">
-        <v>191</v>
+        <v>197.6</v>
       </c>
       <c r="E50" t="n">
-        <v>191</v>
+        <v>195.2</v>
       </c>
       <c r="F50" t="n">
-        <v>5700</v>
+        <v>111</v>
       </c>
       <c r="G50" t="n">
-        <v>-144774.23626655</v>
+        <v>-47986.97766654999</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
       </c>
       <c r="I50" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr"/>
@@ -2202,28 +2202,28 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>191</v>
+        <v>197.6</v>
       </c>
       <c r="C51" t="n">
-        <v>191</v>
+        <v>197.6</v>
       </c>
       <c r="D51" t="n">
-        <v>191</v>
+        <v>197.6</v>
       </c>
       <c r="E51" t="n">
-        <v>191</v>
+        <v>197.6</v>
       </c>
       <c r="F51" t="n">
-        <v>7500</v>
+        <v>45.6276</v>
       </c>
       <c r="G51" t="n">
-        <v>-144774.23626655</v>
+        <v>-47986.97766654999</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
       </c>
       <c r="I51" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J51" t="inlineStr"/>
       <c r="K51" t="inlineStr"/>
@@ -2238,22 +2238,22 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>191</v>
+        <v>195.2</v>
       </c>
       <c r="C52" t="n">
-        <v>191</v>
+        <v>195.2</v>
       </c>
       <c r="D52" t="n">
-        <v>191</v>
+        <v>195.2</v>
       </c>
       <c r="E52" t="n">
-        <v>191</v>
+        <v>195.2</v>
       </c>
       <c r="F52" t="n">
-        <v>2196.1326</v>
+        <v>154.9174</v>
       </c>
       <c r="G52" t="n">
-        <v>-144774.23626655</v>
+        <v>-48141.89506654999</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -2274,22 +2274,22 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>191</v>
+        <v>197.6</v>
       </c>
       <c r="C53" t="n">
-        <v>191</v>
+        <v>197.6</v>
       </c>
       <c r="D53" t="n">
-        <v>191</v>
+        <v>197.6</v>
       </c>
       <c r="E53" t="n">
-        <v>191</v>
+        <v>197.6</v>
       </c>
       <c r="F53" t="n">
-        <v>3092</v>
+        <v>3</v>
       </c>
       <c r="G53" t="n">
-        <v>-144774.23626655</v>
+        <v>-48138.89506654999</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -2310,28 +2310,28 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>191</v>
+        <v>195.4</v>
       </c>
       <c r="C54" t="n">
-        <v>192.4</v>
+        <v>195.4</v>
       </c>
       <c r="D54" t="n">
-        <v>192.4</v>
+        <v>195.4</v>
       </c>
       <c r="E54" t="n">
-        <v>191</v>
+        <v>195.4</v>
       </c>
       <c r="F54" t="n">
-        <v>7673.2026</v>
+        <v>389.2742</v>
       </c>
       <c r="G54" t="n">
-        <v>-137101.03366655</v>
+        <v>-48528.16926654999</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
       </c>
       <c r="I54" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr"/>
@@ -2346,22 +2346,22 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>192.9</v>
+        <v>195.4</v>
       </c>
       <c r="C55" t="n">
-        <v>192.9</v>
+        <v>195.4</v>
       </c>
       <c r="D55" t="n">
-        <v>192.9</v>
+        <v>195.4</v>
       </c>
       <c r="E55" t="n">
-        <v>192.9</v>
+        <v>195.4</v>
       </c>
       <c r="F55" t="n">
-        <v>3</v>
+        <v>7583.749</v>
       </c>
       <c r="G55" t="n">
-        <v>-137098.03366655</v>
+        <v>-48528.16926654999</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -2382,22 +2382,22 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>191</v>
+        <v>195.4</v>
       </c>
       <c r="C56" t="n">
-        <v>191</v>
+        <v>195.1</v>
       </c>
       <c r="D56" t="n">
-        <v>191</v>
+        <v>195.4</v>
       </c>
       <c r="E56" t="n">
-        <v>191</v>
+        <v>195.1</v>
       </c>
       <c r="F56" t="n">
-        <v>65.90000000000001</v>
+        <v>3000</v>
       </c>
       <c r="G56" t="n">
-        <v>-137163.93366655</v>
+        <v>-51528.16926654999</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -2418,22 +2418,22 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>192.9</v>
+        <v>195.1</v>
       </c>
       <c r="C57" t="n">
-        <v>192</v>
+        <v>193.9</v>
       </c>
       <c r="D57" t="n">
-        <v>192.9</v>
+        <v>195.1</v>
       </c>
       <c r="E57" t="n">
-        <v>192</v>
+        <v>193.9</v>
       </c>
       <c r="F57" t="n">
-        <v>8733.416499999999</v>
+        <v>8850</v>
       </c>
       <c r="G57" t="n">
-        <v>-128430.51716655</v>
+        <v>-60378.16926654999</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -2454,22 +2454,22 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>192</v>
+        <v>193.9</v>
       </c>
       <c r="C58" t="n">
-        <v>192</v>
+        <v>193.9</v>
       </c>
       <c r="D58" t="n">
-        <v>192</v>
+        <v>193.9</v>
       </c>
       <c r="E58" t="n">
-        <v>192</v>
+        <v>193.9</v>
       </c>
       <c r="F58" t="n">
-        <v>543.328</v>
+        <v>123.64</v>
       </c>
       <c r="G58" t="n">
-        <v>-128430.51716655</v>
+        <v>-60378.16926654999</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -2490,22 +2490,22 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>192</v>
+        <v>193.9</v>
       </c>
       <c r="C59" t="n">
-        <v>192</v>
+        <v>193.9</v>
       </c>
       <c r="D59" t="n">
-        <v>192</v>
+        <v>193.9</v>
       </c>
       <c r="E59" t="n">
-        <v>192</v>
+        <v>193.9</v>
       </c>
       <c r="F59" t="n">
-        <v>1477.2524</v>
+        <v>564.998</v>
       </c>
       <c r="G59" t="n">
-        <v>-128430.51716655</v>
+        <v>-60378.16926654999</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -2526,22 +2526,22 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>192.9</v>
+        <v>193.9</v>
       </c>
       <c r="C60" t="n">
-        <v>192</v>
+        <v>195.5</v>
       </c>
       <c r="D60" t="n">
-        <v>192.9</v>
+        <v>195.5</v>
       </c>
       <c r="E60" t="n">
-        <v>192</v>
+        <v>193.9</v>
       </c>
       <c r="F60" t="n">
-        <v>946.7415999999999</v>
+        <v>156.9621</v>
       </c>
       <c r="G60" t="n">
-        <v>-128430.51716655</v>
+        <v>-60221.20716654999</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -2562,22 +2562,22 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>192</v>
+        <v>195.9</v>
       </c>
       <c r="C61" t="n">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="D61" t="n">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="E61" t="n">
-        <v>192</v>
+        <v>195.9</v>
       </c>
       <c r="F61" t="n">
-        <v>752.5667</v>
+        <v>589.343</v>
       </c>
       <c r="G61" t="n">
-        <v>-128430.51716655</v>
+        <v>-59631.86416654999</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -2598,22 +2598,22 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>191.1</v>
+        <v>195.1</v>
       </c>
       <c r="C62" t="n">
-        <v>191.1</v>
+        <v>197</v>
       </c>
       <c r="D62" t="n">
-        <v>191.1</v>
+        <v>197</v>
       </c>
       <c r="E62" t="n">
-        <v>191.1</v>
+        <v>195.1</v>
       </c>
       <c r="F62" t="n">
-        <v>135.7691</v>
+        <v>13.8979</v>
       </c>
       <c r="G62" t="n">
-        <v>-128566.28626655</v>
+        <v>-59617.96626654999</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -2634,22 +2634,22 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>191.1</v>
+        <v>195</v>
       </c>
       <c r="C63" t="n">
-        <v>191.1</v>
+        <v>196</v>
       </c>
       <c r="D63" t="n">
-        <v>191.1</v>
+        <v>196</v>
       </c>
       <c r="E63" t="n">
-        <v>191.1</v>
+        <v>195</v>
       </c>
       <c r="F63" t="n">
-        <v>7780.4136</v>
+        <v>714.1848</v>
       </c>
       <c r="G63" t="n">
-        <v>-128566.28626655</v>
+        <v>-60332.15106654999</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -2670,22 +2670,22 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>191.1</v>
+        <v>196</v>
       </c>
       <c r="C64" t="n">
-        <v>191.1</v>
+        <v>197.5</v>
       </c>
       <c r="D64" t="n">
-        <v>191.1</v>
+        <v>197.5</v>
       </c>
       <c r="E64" t="n">
-        <v>191.1</v>
+        <v>196</v>
       </c>
       <c r="F64" t="n">
-        <v>199.7371</v>
+        <v>125</v>
       </c>
       <c r="G64" t="n">
-        <v>-128566.28626655</v>
+        <v>-60207.15106654999</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -2706,22 +2706,22 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>192</v>
+        <v>196.1</v>
       </c>
       <c r="C65" t="n">
-        <v>192</v>
+        <v>198</v>
       </c>
       <c r="D65" t="n">
-        <v>192</v>
+        <v>198</v>
       </c>
       <c r="E65" t="n">
-        <v>192</v>
+        <v>196.1</v>
       </c>
       <c r="F65" t="n">
-        <v>69.5626</v>
+        <v>154.8711</v>
       </c>
       <c r="G65" t="n">
-        <v>-128496.72366655</v>
+        <v>-60052.27996654999</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -2742,22 +2742,22 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>191</v>
+        <v>198</v>
       </c>
       <c r="C66" t="n">
-        <v>191</v>
+        <v>198.7</v>
       </c>
       <c r="D66" t="n">
-        <v>191</v>
+        <v>198.7</v>
       </c>
       <c r="E66" t="n">
-        <v>191</v>
+        <v>198</v>
       </c>
       <c r="F66" t="n">
-        <v>119.7373</v>
+        <v>3540</v>
       </c>
       <c r="G66" t="n">
-        <v>-128616.46096655</v>
+        <v>-56512.27996654999</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -2778,28 +2778,28 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>191.3</v>
+        <v>198.7</v>
       </c>
       <c r="C67" t="n">
-        <v>191.3</v>
+        <v>198.7</v>
       </c>
       <c r="D67" t="n">
-        <v>191.3</v>
+        <v>198.7</v>
       </c>
       <c r="E67" t="n">
-        <v>191.3</v>
+        <v>198.7</v>
       </c>
       <c r="F67" t="n">
-        <v>38.9223</v>
+        <v>11011.203</v>
       </c>
       <c r="G67" t="n">
-        <v>-128577.53866655</v>
+        <v>-56512.27996654999</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
       </c>
       <c r="I67" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J67" t="inlineStr"/>
       <c r="K67" t="inlineStr"/>
@@ -2814,22 +2814,22 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>191.3</v>
+        <v>196.6</v>
       </c>
       <c r="C68" t="n">
-        <v>191.3</v>
+        <v>196.6</v>
       </c>
       <c r="D68" t="n">
-        <v>191.3</v>
+        <v>196.6</v>
       </c>
       <c r="E68" t="n">
-        <v>191.3</v>
+        <v>196.6</v>
       </c>
       <c r="F68" t="n">
-        <v>968.2148</v>
+        <v>364</v>
       </c>
       <c r="G68" t="n">
-        <v>-128577.53866655</v>
+        <v>-56876.27996654999</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -2850,22 +2850,22 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>191.3</v>
+        <v>196.6</v>
       </c>
       <c r="C69" t="n">
-        <v>191.3</v>
+        <v>195.2</v>
       </c>
       <c r="D69" t="n">
-        <v>191.3</v>
+        <v>196.6</v>
       </c>
       <c r="E69" t="n">
-        <v>191.3</v>
+        <v>195.2</v>
       </c>
       <c r="F69" t="n">
-        <v>2639.8618</v>
+        <v>9889.360000000001</v>
       </c>
       <c r="G69" t="n">
-        <v>-128577.53866655</v>
+        <v>-66765.63996654999</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -2886,22 +2886,22 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>191.3</v>
+        <v>195.2</v>
       </c>
       <c r="C70" t="n">
-        <v>191.3</v>
+        <v>196</v>
       </c>
       <c r="D70" t="n">
-        <v>191.3</v>
+        <v>196</v>
       </c>
       <c r="E70" t="n">
-        <v>191.3</v>
+        <v>195.2</v>
       </c>
       <c r="F70" t="n">
-        <v>2627.2137</v>
+        <v>2742.427</v>
       </c>
       <c r="G70" t="n">
-        <v>-128577.53866655</v>
+        <v>-64023.21296654999</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -2922,22 +2922,22 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>191.3</v>
+        <v>195.2</v>
       </c>
       <c r="C71" t="n">
-        <v>191.3</v>
+        <v>195</v>
       </c>
       <c r="D71" t="n">
-        <v>191.3</v>
+        <v>195.2</v>
       </c>
       <c r="E71" t="n">
-        <v>191.3</v>
+        <v>195</v>
       </c>
       <c r="F71" t="n">
-        <v>400</v>
+        <v>17045.9414</v>
       </c>
       <c r="G71" t="n">
-        <v>-128577.53866655</v>
+        <v>-81069.15436654999</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -2958,22 +2958,22 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>191.3</v>
+        <v>193.9</v>
       </c>
       <c r="C72" t="n">
-        <v>191.3</v>
+        <v>193.9</v>
       </c>
       <c r="D72" t="n">
-        <v>191.3</v>
+        <v>193.9</v>
       </c>
       <c r="E72" t="n">
-        <v>191.3</v>
+        <v>193.9</v>
       </c>
       <c r="F72" t="n">
-        <v>8060</v>
+        <v>6156</v>
       </c>
       <c r="G72" t="n">
-        <v>-128577.53866655</v>
+        <v>-87225.15436654999</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -2994,22 +2994,22 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>191.3</v>
+        <v>194</v>
       </c>
       <c r="C73" t="n">
-        <v>191.3</v>
+        <v>194</v>
       </c>
       <c r="D73" t="n">
-        <v>191.3</v>
+        <v>194</v>
       </c>
       <c r="E73" t="n">
-        <v>191.3</v>
+        <v>194</v>
       </c>
       <c r="F73" t="n">
-        <v>7000</v>
+        <v>45</v>
       </c>
       <c r="G73" t="n">
-        <v>-128577.53866655</v>
+        <v>-87180.15436654999</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -3030,22 +3030,22 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>191.3</v>
+        <v>194</v>
       </c>
       <c r="C74" t="n">
-        <v>191.3</v>
+        <v>194</v>
       </c>
       <c r="D74" t="n">
-        <v>191.3</v>
+        <v>194</v>
       </c>
       <c r="E74" t="n">
-        <v>191.3</v>
+        <v>194</v>
       </c>
       <c r="F74" t="n">
-        <v>3177.6846</v>
+        <v>541</v>
       </c>
       <c r="G74" t="n">
-        <v>-128577.53866655</v>
+        <v>-87180.15436654999</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -3066,22 +3066,22 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="C75" t="n">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="D75" t="n">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="E75" t="n">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="F75" t="n">
-        <v>139.2999</v>
+        <v>1010.4349</v>
       </c>
       <c r="G75" t="n">
-        <v>-128716.83856655</v>
+        <v>-87180.15436654999</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -3102,22 +3102,22 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>192.2</v>
+        <v>194</v>
       </c>
       <c r="C76" t="n">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="D76" t="n">
-        <v>192.2</v>
+        <v>194</v>
       </c>
       <c r="E76" t="n">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="F76" t="n">
-        <v>156.2327</v>
+        <v>471.849</v>
       </c>
       <c r="G76" t="n">
-        <v>-128716.83856655</v>
+        <v>-87180.15436654999</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -3138,22 +3138,22 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>192</v>
+        <v>194.7</v>
       </c>
       <c r="C77" t="n">
-        <v>191.8</v>
+        <v>194.7</v>
       </c>
       <c r="D77" t="n">
-        <v>192</v>
+        <v>194.7</v>
       </c>
       <c r="E77" t="n">
-        <v>191.8</v>
+        <v>194.7</v>
       </c>
       <c r="F77" t="n">
-        <v>192.9</v>
+        <v>267</v>
       </c>
       <c r="G77" t="n">
-        <v>-128523.93856655</v>
+        <v>-86913.15436654999</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -3174,22 +3174,22 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>191.8</v>
+        <v>194.6</v>
       </c>
       <c r="C78" t="n">
-        <v>190.1</v>
+        <v>194.6</v>
       </c>
       <c r="D78" t="n">
-        <v>191.8</v>
+        <v>194.6</v>
       </c>
       <c r="E78" t="n">
-        <v>190.1</v>
+        <v>194.6</v>
       </c>
       <c r="F78" t="n">
-        <v>7371.0133</v>
+        <v>1545.8041</v>
       </c>
       <c r="G78" t="n">
-        <v>-135894.95186655</v>
+        <v>-88458.95846654999</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -3210,22 +3210,22 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>190.1</v>
+        <v>194.6</v>
       </c>
       <c r="C79" t="n">
-        <v>190.1</v>
+        <v>194.5</v>
       </c>
       <c r="D79" t="n">
-        <v>190.1</v>
+        <v>194.6</v>
       </c>
       <c r="E79" t="n">
-        <v>190.1</v>
+        <v>194.5</v>
       </c>
       <c r="F79" t="n">
-        <v>170.5227</v>
+        <v>4260</v>
       </c>
       <c r="G79" t="n">
-        <v>-135894.95186655</v>
+        <v>-92718.95846654999</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -3246,22 +3246,22 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>192.9</v>
+        <v>195</v>
       </c>
       <c r="C80" t="n">
-        <v>192.9</v>
+        <v>195</v>
       </c>
       <c r="D80" t="n">
-        <v>192.9</v>
+        <v>195</v>
       </c>
       <c r="E80" t="n">
-        <v>192.9</v>
+        <v>195</v>
       </c>
       <c r="F80" t="n">
-        <v>3</v>
+        <v>3400.6357</v>
       </c>
       <c r="G80" t="n">
-        <v>-135891.95186655</v>
+        <v>-89318.32276654999</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -3282,22 +3282,22 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="C81" t="n">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="D81" t="n">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="E81" t="n">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="F81" t="n">
-        <v>68.15170000000001</v>
+        <v>1916.7573</v>
       </c>
       <c r="G81" t="n">
-        <v>-135960.10356655</v>
+        <v>-89318.32276654999</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -3318,22 +3318,22 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="C82" t="n">
-        <v>191</v>
+        <v>193.2</v>
       </c>
       <c r="D82" t="n">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="E82" t="n">
-        <v>191</v>
+        <v>193.2</v>
       </c>
       <c r="F82" t="n">
-        <v>65.15170000000001</v>
+        <v>7000</v>
       </c>
       <c r="G82" t="n">
-        <v>-135960.10356655</v>
+        <v>-96318.32276654999</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -3354,22 +3354,22 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>190.7</v>
+        <v>193.2</v>
       </c>
       <c r="C83" t="n">
-        <v>190.7</v>
+        <v>193.2</v>
       </c>
       <c r="D83" t="n">
-        <v>190.7</v>
+        <v>193.2</v>
       </c>
       <c r="E83" t="n">
-        <v>190.7</v>
+        <v>193.2</v>
       </c>
       <c r="F83" t="n">
-        <v>546.7568</v>
+        <v>7809.396</v>
       </c>
       <c r="G83" t="n">
-        <v>-136506.86036655</v>
+        <v>-96318.32276654999</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -3390,22 +3390,22 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>191.9</v>
+        <v>192.5</v>
       </c>
       <c r="C84" t="n">
-        <v>190.4</v>
+        <v>192.5</v>
       </c>
       <c r="D84" t="n">
-        <v>191.9</v>
+        <v>194</v>
       </c>
       <c r="E84" t="n">
-        <v>190.2</v>
+        <v>192.5</v>
       </c>
       <c r="F84" t="n">
-        <v>5855.6374</v>
+        <v>6724.1806</v>
       </c>
       <c r="G84" t="n">
-        <v>-142362.49776655</v>
+        <v>-103042.50336655</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -3426,22 +3426,22 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>190.4</v>
+        <v>193</v>
       </c>
       <c r="C85" t="n">
-        <v>190.4</v>
+        <v>192.5</v>
       </c>
       <c r="D85" t="n">
-        <v>190.4</v>
+        <v>193</v>
       </c>
       <c r="E85" t="n">
-        <v>190.4</v>
+        <v>192.5</v>
       </c>
       <c r="F85" t="n">
-        <v>757.5542</v>
+        <v>23417.353</v>
       </c>
       <c r="G85" t="n">
-        <v>-142362.49776655</v>
+        <v>-103042.50336655</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -3462,22 +3462,22 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>190.4</v>
+        <v>192.1</v>
       </c>
       <c r="C86" t="n">
-        <v>190.4</v>
+        <v>192.1</v>
       </c>
       <c r="D86" t="n">
-        <v>190.4</v>
+        <v>192.1</v>
       </c>
       <c r="E86" t="n">
-        <v>190.4</v>
+        <v>192.1</v>
       </c>
       <c r="F86" t="n">
-        <v>2528.96</v>
+        <v>1868.8707</v>
       </c>
       <c r="G86" t="n">
-        <v>-142362.49776655</v>
+        <v>-104911.37406655</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -3498,22 +3498,22 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>190.4</v>
+        <v>192</v>
       </c>
       <c r="C87" t="n">
-        <v>190.4</v>
+        <v>192</v>
       </c>
       <c r="D87" t="n">
-        <v>190.4</v>
+        <v>192</v>
       </c>
       <c r="E87" t="n">
-        <v>190.4</v>
+        <v>192</v>
       </c>
       <c r="F87" t="n">
-        <v>2710.647</v>
+        <v>7502.1906</v>
       </c>
       <c r="G87" t="n">
-        <v>-142362.49776655</v>
+        <v>-112413.56466655</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -3534,22 +3534,22 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>190.4</v>
+        <v>191.5</v>
       </c>
       <c r="C88" t="n">
-        <v>190.4</v>
+        <v>191.5</v>
       </c>
       <c r="D88" t="n">
-        <v>190.4</v>
+        <v>191.5</v>
       </c>
       <c r="E88" t="n">
-        <v>190.4</v>
+        <v>191.5</v>
       </c>
       <c r="F88" t="n">
-        <v>261.5219</v>
+        <v>391.2127</v>
       </c>
       <c r="G88" t="n">
-        <v>-142362.49776655</v>
+        <v>-112804.77736655</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -3570,22 +3570,22 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>190.4</v>
+        <v>191.4</v>
       </c>
       <c r="C89" t="n">
-        <v>190.4</v>
+        <v>191</v>
       </c>
       <c r="D89" t="n">
-        <v>190.4</v>
+        <v>191.4</v>
       </c>
       <c r="E89" t="n">
-        <v>190.4</v>
+        <v>191</v>
       </c>
       <c r="F89" t="n">
-        <v>1095</v>
+        <v>7152.0619</v>
       </c>
       <c r="G89" t="n">
-        <v>-142362.49776655</v>
+        <v>-119956.83926655</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -3606,22 +3606,22 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>190.4</v>
+        <v>191</v>
       </c>
       <c r="C90" t="n">
-        <v>190.4</v>
+        <v>190</v>
       </c>
       <c r="D90" t="n">
-        <v>190.4</v>
+        <v>191</v>
       </c>
       <c r="E90" t="n">
-        <v>190.4</v>
+        <v>190</v>
       </c>
       <c r="F90" t="n">
-        <v>175</v>
+        <v>8003.4763</v>
       </c>
       <c r="G90" t="n">
-        <v>-142362.49776655</v>
+        <v>-127960.31556655</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -3642,22 +3642,22 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>190.4</v>
+        <v>190</v>
       </c>
       <c r="C91" t="n">
-        <v>190.4</v>
+        <v>190</v>
       </c>
       <c r="D91" t="n">
-        <v>190.4</v>
+        <v>190</v>
       </c>
       <c r="E91" t="n">
-        <v>190.4</v>
+        <v>190</v>
       </c>
       <c r="F91" t="n">
-        <v>1481</v>
+        <v>2293.2974</v>
       </c>
       <c r="G91" t="n">
-        <v>-142362.49776655</v>
+        <v>-127960.31556655</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -3678,22 +3678,22 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>190.4</v>
+        <v>190</v>
       </c>
       <c r="C92" t="n">
-        <v>190.4</v>
+        <v>190</v>
       </c>
       <c r="D92" t="n">
-        <v>190.4</v>
+        <v>190</v>
       </c>
       <c r="E92" t="n">
-        <v>190.4</v>
+        <v>190</v>
       </c>
       <c r="F92" t="n">
-        <v>1988.938</v>
+        <v>1000</v>
       </c>
       <c r="G92" t="n">
-        <v>-142362.49776655</v>
+        <v>-127960.31556655</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -3714,22 +3714,22 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>190.4</v>
+        <v>190</v>
       </c>
       <c r="C93" t="n">
-        <v>190.4</v>
+        <v>190</v>
       </c>
       <c r="D93" t="n">
-        <v>190.4</v>
+        <v>190</v>
       </c>
       <c r="E93" t="n">
-        <v>190.4</v>
+        <v>190</v>
       </c>
       <c r="F93" t="n">
-        <v>18973.337</v>
+        <v>71</v>
       </c>
       <c r="G93" t="n">
-        <v>-142362.49776655</v>
+        <v>-127960.31556655</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -3750,22 +3750,22 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>190.4</v>
+        <v>190.2</v>
       </c>
       <c r="C94" t="n">
-        <v>190.4</v>
+        <v>190.2</v>
       </c>
       <c r="D94" t="n">
-        <v>190.4</v>
+        <v>190.2</v>
       </c>
       <c r="E94" t="n">
-        <v>190.4</v>
+        <v>190.2</v>
       </c>
       <c r="F94" t="n">
-        <v>167.042</v>
+        <v>161.545</v>
       </c>
       <c r="G94" t="n">
-        <v>-142362.49776655</v>
+        <v>-127798.77056655</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -3786,22 +3786,22 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>190.9</v>
+        <v>190.3</v>
       </c>
       <c r="C95" t="n">
-        <v>191</v>
+        <v>190.3</v>
       </c>
       <c r="D95" t="n">
-        <v>191</v>
+        <v>190.3</v>
       </c>
       <c r="E95" t="n">
-        <v>190.9</v>
+        <v>190.3</v>
       </c>
       <c r="F95" t="n">
-        <v>1675.9815</v>
+        <v>377.1786</v>
       </c>
       <c r="G95" t="n">
-        <v>-140686.51626655</v>
+        <v>-127421.59196655</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -3822,22 +3822,22 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>190.4</v>
+        <v>191</v>
       </c>
       <c r="C96" t="n">
-        <v>190.4</v>
+        <v>190</v>
       </c>
       <c r="D96" t="n">
-        <v>190.4</v>
+        <v>191</v>
       </c>
       <c r="E96" t="n">
-        <v>190.4</v>
+        <v>190</v>
       </c>
       <c r="F96" t="n">
-        <v>248.616</v>
+        <v>1500</v>
       </c>
       <c r="G96" t="n">
-        <v>-140935.13226655</v>
+        <v>-128921.59196655</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -3858,22 +3858,22 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>190.4</v>
+        <v>190</v>
       </c>
       <c r="C97" t="n">
-        <v>190.2</v>
+        <v>191</v>
       </c>
       <c r="D97" t="n">
-        <v>190.4</v>
+        <v>191</v>
       </c>
       <c r="E97" t="n">
-        <v>190.2</v>
+        <v>190</v>
       </c>
       <c r="F97" t="n">
-        <v>1783.708</v>
+        <v>192.7404</v>
       </c>
       <c r="G97" t="n">
-        <v>-142718.84026655</v>
+        <v>-128728.85156655</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -3894,22 +3894,22 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>190.2</v>
+        <v>191</v>
       </c>
       <c r="C98" t="n">
-        <v>188.6</v>
+        <v>188.7</v>
       </c>
       <c r="D98" t="n">
-        <v>190.2</v>
+        <v>191</v>
       </c>
       <c r="E98" t="n">
-        <v>188.6</v>
+        <v>188.7</v>
       </c>
       <c r="F98" t="n">
-        <v>619.8261</v>
+        <v>8569.6072</v>
       </c>
       <c r="G98" t="n">
-        <v>-143338.66636655</v>
+        <v>-137298.45876655</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -3930,22 +3930,22 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>188.6</v>
+        <v>188.8</v>
       </c>
       <c r="C99" t="n">
-        <v>188.1</v>
+        <v>188.8</v>
       </c>
       <c r="D99" t="n">
-        <v>188.6</v>
+        <v>188.8</v>
       </c>
       <c r="E99" t="n">
-        <v>188.1</v>
+        <v>188.8</v>
       </c>
       <c r="F99" t="n">
-        <v>4968.9161</v>
+        <v>187</v>
       </c>
       <c r="G99" t="n">
-        <v>-148307.58246655</v>
+        <v>-137111.45876655</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -3966,22 +3966,22 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>190.6</v>
+        <v>190.8</v>
       </c>
       <c r="C100" t="n">
-        <v>188.5</v>
+        <v>190.8</v>
       </c>
       <c r="D100" t="n">
-        <v>190.6</v>
+        <v>190.8</v>
       </c>
       <c r="E100" t="n">
-        <v>188.5</v>
+        <v>190.8</v>
       </c>
       <c r="F100" t="n">
-        <v>388.571</v>
+        <v>6297.685</v>
       </c>
       <c r="G100" t="n">
-        <v>-147919.01146655</v>
+        <v>-130813.77376655</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -4002,22 +4002,22 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>189.7</v>
+        <v>190</v>
       </c>
       <c r="C101" t="n">
-        <v>189.7</v>
+        <v>189</v>
       </c>
       <c r="D101" t="n">
-        <v>189.7</v>
+        <v>190</v>
       </c>
       <c r="E101" t="n">
-        <v>189.7</v>
+        <v>189</v>
       </c>
       <c r="F101" t="n">
-        <v>385.941</v>
+        <v>195.57</v>
       </c>
       <c r="G101" t="n">
-        <v>-147533.07046655</v>
+        <v>-131009.34376655</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -4038,22 +4038,22 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>188.3</v>
+        <v>189</v>
       </c>
       <c r="C102" t="n">
-        <v>188.3</v>
+        <v>189</v>
       </c>
       <c r="D102" t="n">
-        <v>188.3</v>
+        <v>189</v>
       </c>
       <c r="E102" t="n">
-        <v>188.3</v>
+        <v>189</v>
       </c>
       <c r="F102" t="n">
-        <v>7000</v>
+        <v>125</v>
       </c>
       <c r="G102" t="n">
-        <v>-154533.07046655</v>
+        <v>-131009.34376655</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -4074,22 +4074,22 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>188.3</v>
+        <v>191</v>
       </c>
       <c r="C103" t="n">
-        <v>189</v>
+        <v>191.6</v>
       </c>
       <c r="D103" t="n">
-        <v>189.8</v>
+        <v>191.6</v>
       </c>
       <c r="E103" t="n">
-        <v>188.3</v>
+        <v>191</v>
       </c>
       <c r="F103" t="n">
-        <v>3287.73</v>
+        <v>7000</v>
       </c>
       <c r="G103" t="n">
-        <v>-151245.34046655</v>
+        <v>-124009.34376655</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -4110,22 +4110,22 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>188.9</v>
+        <v>191.6</v>
       </c>
       <c r="C104" t="n">
-        <v>188.9</v>
+        <v>190</v>
       </c>
       <c r="D104" t="n">
-        <v>188.9</v>
+        <v>191.6</v>
       </c>
       <c r="E104" t="n">
-        <v>188.9</v>
+        <v>190</v>
       </c>
       <c r="F104" t="n">
-        <v>136</v>
+        <v>5540.1138</v>
       </c>
       <c r="G104" t="n">
-        <v>-151381.34046655</v>
+        <v>-129549.45756655</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -4146,22 +4146,22 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>188.4</v>
+        <v>190</v>
       </c>
       <c r="C105" t="n">
-        <v>188.4</v>
+        <v>191</v>
       </c>
       <c r="D105" t="n">
-        <v>188.4</v>
+        <v>191</v>
       </c>
       <c r="E105" t="n">
-        <v>188.4</v>
+        <v>190</v>
       </c>
       <c r="F105" t="n">
-        <v>5000</v>
+        <v>13846.5879</v>
       </c>
       <c r="G105" t="n">
-        <v>-156381.34046655</v>
+        <v>-115702.86966655</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -4182,22 +4182,22 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>188.9</v>
+        <v>191</v>
       </c>
       <c r="C106" t="n">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="D106" t="n">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="E106" t="n">
-        <v>188.9</v>
+        <v>191</v>
       </c>
       <c r="F106" t="n">
-        <v>3.6849</v>
+        <v>2755.1094</v>
       </c>
       <c r="G106" t="n">
-        <v>-156377.65556655</v>
+        <v>-115702.86966655</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -4221,19 +4221,19 @@
         <v>190</v>
       </c>
       <c r="C107" t="n">
-        <v>188.6</v>
+        <v>193.5</v>
       </c>
       <c r="D107" t="n">
+        <v>193.5</v>
+      </c>
+      <c r="E107" t="n">
         <v>190</v>
       </c>
-      <c r="E107" t="n">
-        <v>188.6</v>
-      </c>
       <c r="F107" t="n">
-        <v>1171.9564</v>
+        <v>368.7145</v>
       </c>
       <c r="G107" t="n">
-        <v>-157549.61196655</v>
+        <v>-115334.15516655</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -4254,22 +4254,22 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>189.9</v>
+        <v>190.1</v>
       </c>
       <c r="C108" t="n">
-        <v>190</v>
+        <v>189.1</v>
       </c>
       <c r="D108" t="n">
-        <v>190</v>
+        <v>190.1</v>
       </c>
       <c r="E108" t="n">
-        <v>189.9</v>
+        <v>189.1</v>
       </c>
       <c r="F108" t="n">
-        <v>87.8434</v>
+        <v>7544.4752</v>
       </c>
       <c r="G108" t="n">
-        <v>-157461.76856655</v>
+        <v>-122878.63036655</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -4290,22 +4290,22 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>191</v>
+        <v>193.1</v>
       </c>
       <c r="C109" t="n">
-        <v>190</v>
+        <v>193.1</v>
       </c>
       <c r="D109" t="n">
-        <v>191</v>
+        <v>193.1</v>
       </c>
       <c r="E109" t="n">
-        <v>190</v>
+        <v>193.1</v>
       </c>
       <c r="F109" t="n">
-        <v>73.59999999999999</v>
+        <v>3</v>
       </c>
       <c r="G109" t="n">
-        <v>-157461.76856655</v>
+        <v>-122875.63036655</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -4326,22 +4326,22 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>188.6</v>
+        <v>190</v>
       </c>
       <c r="C110" t="n">
-        <v>188.5</v>
+        <v>190</v>
       </c>
       <c r="D110" t="n">
-        <v>188.6</v>
+        <v>190</v>
       </c>
       <c r="E110" t="n">
-        <v>188.5</v>
+        <v>190</v>
       </c>
       <c r="F110" t="n">
-        <v>1451.2701</v>
+        <v>5966.6318</v>
       </c>
       <c r="G110" t="n">
-        <v>-158913.03866655</v>
+        <v>-128842.26216655</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -4362,22 +4362,22 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>189.9</v>
+        <v>191.9</v>
       </c>
       <c r="C111" t="n">
-        <v>188.2</v>
+        <v>190</v>
       </c>
       <c r="D111" t="n">
-        <v>191.4</v>
+        <v>191.9</v>
       </c>
       <c r="E111" t="n">
-        <v>188.2</v>
+        <v>190</v>
       </c>
       <c r="F111" t="n">
-        <v>3358.4553</v>
+        <v>443.7528</v>
       </c>
       <c r="G111" t="n">
-        <v>-162271.49396655</v>
+        <v>-128842.26216655</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -4398,22 +4398,22 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>189.1</v>
+        <v>191.9</v>
       </c>
       <c r="C112" t="n">
-        <v>189.1</v>
+        <v>191.9</v>
       </c>
       <c r="D112" t="n">
-        <v>189.1</v>
+        <v>191.9</v>
       </c>
       <c r="E112" t="n">
-        <v>189.1</v>
+        <v>191.9</v>
       </c>
       <c r="F112" t="n">
-        <v>50</v>
+        <v>3</v>
       </c>
       <c r="G112" t="n">
-        <v>-162221.49396655</v>
+        <v>-128839.26216655</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -4434,22 +4434,22 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>189.1</v>
+        <v>190</v>
       </c>
       <c r="C113" t="n">
-        <v>189.1</v>
+        <v>190</v>
       </c>
       <c r="D113" t="n">
-        <v>189.1</v>
+        <v>190</v>
       </c>
       <c r="E113" t="n">
-        <v>189.1</v>
+        <v>190</v>
       </c>
       <c r="F113" t="n">
-        <v>26.96</v>
+        <v>169</v>
       </c>
       <c r="G113" t="n">
-        <v>-162221.49396655</v>
+        <v>-129008.26216655</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -4470,22 +4470,22 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>189.1</v>
+        <v>190</v>
       </c>
       <c r="C114" t="n">
-        <v>189.1</v>
+        <v>191.9</v>
       </c>
       <c r="D114" t="n">
-        <v>189.1</v>
+        <v>191.9</v>
       </c>
       <c r="E114" t="n">
-        <v>189.1</v>
+        <v>190</v>
       </c>
       <c r="F114" t="n">
-        <v>368.45</v>
+        <v>603.3353</v>
       </c>
       <c r="G114" t="n">
-        <v>-162221.49396655</v>
+        <v>-128404.92686655</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -4506,22 +4506,22 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>190.7</v>
+        <v>191.9</v>
       </c>
       <c r="C115" t="n">
-        <v>190.7</v>
+        <v>190.3</v>
       </c>
       <c r="D115" t="n">
-        <v>190.7</v>
+        <v>191.9</v>
       </c>
       <c r="E115" t="n">
-        <v>190.7</v>
+        <v>190.3</v>
       </c>
       <c r="F115" t="n">
-        <v>2.63</v>
+        <v>9980.3194</v>
       </c>
       <c r="G115" t="n">
-        <v>-162218.86396655</v>
+        <v>-138385.24626655</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -4542,22 +4542,22 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>190.7</v>
+        <v>193.4</v>
       </c>
       <c r="C116" t="n">
-        <v>188.2</v>
+        <v>193.4</v>
       </c>
       <c r="D116" t="n">
-        <v>191.3</v>
+        <v>193.4</v>
       </c>
       <c r="E116" t="n">
-        <v>188.2</v>
+        <v>193.4</v>
       </c>
       <c r="F116" t="n">
-        <v>449.85</v>
+        <v>3</v>
       </c>
       <c r="G116" t="n">
-        <v>-162668.71396655</v>
+        <v>-138382.24626655</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -4578,22 +4578,22 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>190.9</v>
+        <v>194.7</v>
       </c>
       <c r="C117" t="n">
-        <v>189</v>
+        <v>194.7</v>
       </c>
       <c r="D117" t="n">
-        <v>190.9</v>
+        <v>194.7</v>
       </c>
       <c r="E117" t="n">
-        <v>189</v>
+        <v>194.7</v>
       </c>
       <c r="F117" t="n">
-        <v>248.7989</v>
+        <v>3</v>
       </c>
       <c r="G117" t="n">
-        <v>-162419.91506655</v>
+        <v>-138379.24626655</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -4614,22 +4614,22 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="C118" t="n">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="D118" t="n">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="E118" t="n">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="F118" t="n">
-        <v>231.4297</v>
+        <v>700.99</v>
       </c>
       <c r="G118" t="n">
-        <v>-162419.91506655</v>
+        <v>-139080.23626655</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -4650,22 +4650,22 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>191.6</v>
+        <v>192.5</v>
       </c>
       <c r="C119" t="n">
-        <v>189.1</v>
+        <v>192.5</v>
       </c>
       <c r="D119" t="n">
-        <v>191.6</v>
+        <v>192.5</v>
       </c>
       <c r="E119" t="n">
-        <v>189.1</v>
+        <v>192.5</v>
       </c>
       <c r="F119" t="n">
-        <v>1512.69173611</v>
+        <v>3</v>
       </c>
       <c r="G119" t="n">
-        <v>-160907.22333044</v>
+        <v>-139077.23626655</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -4686,22 +4686,22 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>189.1</v>
+        <v>192.9</v>
       </c>
       <c r="C120" t="n">
-        <v>189.1</v>
+        <v>192.9</v>
       </c>
       <c r="D120" t="n">
-        <v>189.1</v>
+        <v>192.9</v>
       </c>
       <c r="E120" t="n">
-        <v>189.1</v>
+        <v>192.9</v>
       </c>
       <c r="F120" t="n">
-        <v>2186.0848</v>
+        <v>3</v>
       </c>
       <c r="G120" t="n">
-        <v>-160907.22333044</v>
+        <v>-139074.23626655</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -4734,10 +4734,10 @@
         <v>191</v>
       </c>
       <c r="F121" t="n">
-        <v>3</v>
+        <v>5700</v>
       </c>
       <c r="G121" t="n">
-        <v>-160904.22333044</v>
+        <v>-144774.23626655</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -4758,22 +4758,22 @@
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>189.1</v>
+        <v>191</v>
       </c>
       <c r="C122" t="n">
-        <v>189.1</v>
+        <v>191</v>
       </c>
       <c r="D122" t="n">
-        <v>189.1</v>
+        <v>191</v>
       </c>
       <c r="E122" t="n">
-        <v>189.1</v>
+        <v>191</v>
       </c>
       <c r="F122" t="n">
-        <v>68.8222</v>
+        <v>7500</v>
       </c>
       <c r="G122" t="n">
-        <v>-160973.04553044</v>
+        <v>-144774.23626655</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -4794,22 +4794,22 @@
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>189.1</v>
+        <v>191</v>
       </c>
       <c r="C123" t="n">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="D123" t="n">
-        <v>189.1</v>
+        <v>191</v>
       </c>
       <c r="E123" t="n">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="F123" t="n">
-        <v>1608.765</v>
+        <v>2196.1326</v>
       </c>
       <c r="G123" t="n">
-        <v>-162581.81053044</v>
+        <v>-144774.23626655</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -4830,22 +4830,22 @@
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>190.9</v>
+        <v>191</v>
       </c>
       <c r="C124" t="n">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="D124" t="n">
-        <v>190.9</v>
+        <v>191</v>
       </c>
       <c r="E124" t="n">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="F124" t="n">
-        <v>156.4954</v>
+        <v>3092</v>
       </c>
       <c r="G124" t="n">
-        <v>-162581.81053044</v>
+        <v>-144774.23626655</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -4866,22 +4866,22 @@
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="C125" t="n">
-        <v>189</v>
+        <v>192.4</v>
       </c>
       <c r="D125" t="n">
-        <v>189</v>
+        <v>192.4</v>
       </c>
       <c r="E125" t="n">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="F125" t="n">
-        <v>321.4224</v>
+        <v>7673.2026</v>
       </c>
       <c r="G125" t="n">
-        <v>-162581.81053044</v>
+        <v>-137101.03366655</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -4902,22 +4902,22 @@
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>189.8</v>
+        <v>192.9</v>
       </c>
       <c r="C126" t="n">
-        <v>189.8</v>
+        <v>192.9</v>
       </c>
       <c r="D126" t="n">
-        <v>189.8</v>
+        <v>192.9</v>
       </c>
       <c r="E126" t="n">
-        <v>189.8</v>
+        <v>192.9</v>
       </c>
       <c r="F126" t="n">
-        <v>2703.961</v>
+        <v>3</v>
       </c>
       <c r="G126" t="n">
-        <v>-159877.84953044</v>
+        <v>-137098.03366655</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -4938,22 +4938,22 @@
         <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>188.2</v>
+        <v>191</v>
       </c>
       <c r="C127" t="n">
-        <v>188.2</v>
+        <v>191</v>
       </c>
       <c r="D127" t="n">
-        <v>188.2</v>
+        <v>191</v>
       </c>
       <c r="E127" t="n">
-        <v>188.2</v>
+        <v>191</v>
       </c>
       <c r="F127" t="n">
-        <v>3025.3834</v>
+        <v>65.90000000000001</v>
       </c>
       <c r="G127" t="n">
-        <v>-162903.23293044</v>
+        <v>-137163.93366655</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -4974,22 +4974,22 @@
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>188.2</v>
+        <v>192.9</v>
       </c>
       <c r="C128" t="n">
-        <v>188.2</v>
+        <v>192</v>
       </c>
       <c r="D128" t="n">
-        <v>188.2</v>
+        <v>192.9</v>
       </c>
       <c r="E128" t="n">
-        <v>188.2</v>
+        <v>192</v>
       </c>
       <c r="F128" t="n">
-        <v>3885</v>
+        <v>8733.416499999999</v>
       </c>
       <c r="G128" t="n">
-        <v>-162903.23293044</v>
+        <v>-128430.51716655</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -5010,22 +5010,22 @@
         <v>127</v>
       </c>
       <c r="B129" t="n">
-        <v>188.2</v>
+        <v>192</v>
       </c>
       <c r="C129" t="n">
-        <v>188.1</v>
+        <v>192</v>
       </c>
       <c r="D129" t="n">
-        <v>188.2</v>
+        <v>192</v>
       </c>
       <c r="E129" t="n">
-        <v>188.1</v>
+        <v>192</v>
       </c>
       <c r="F129" t="n">
-        <v>578.1079999999999</v>
+        <v>543.328</v>
       </c>
       <c r="G129" t="n">
-        <v>-163481.34093044</v>
+        <v>-128430.51716655</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -5046,22 +5046,22 @@
         <v>128</v>
       </c>
       <c r="B130" t="n">
-        <v>188.1</v>
+        <v>192</v>
       </c>
       <c r="C130" t="n">
-        <v>188.1</v>
+        <v>192</v>
       </c>
       <c r="D130" t="n">
-        <v>188.1</v>
+        <v>192</v>
       </c>
       <c r="E130" t="n">
-        <v>188.1</v>
+        <v>192</v>
       </c>
       <c r="F130" t="n">
-        <v>168.0728</v>
+        <v>1477.2524</v>
       </c>
       <c r="G130" t="n">
-        <v>-163481.34093044</v>
+        <v>-128430.51716655</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
@@ -5082,22 +5082,22 @@
         <v>129</v>
       </c>
       <c r="B131" t="n">
-        <v>188.1</v>
+        <v>192.9</v>
       </c>
       <c r="C131" t="n">
-        <v>187</v>
+        <v>192</v>
       </c>
       <c r="D131" t="n">
-        <v>188.1</v>
+        <v>192.9</v>
       </c>
       <c r="E131" t="n">
-        <v>187</v>
+        <v>192</v>
       </c>
       <c r="F131" t="n">
-        <v>15467.795</v>
+        <v>946.7415999999999</v>
       </c>
       <c r="G131" t="n">
-        <v>-178949.13593044</v>
+        <v>-128430.51716655</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
@@ -5118,22 +5118,22 @@
         <v>130</v>
       </c>
       <c r="B132" t="n">
-        <v>187</v>
+        <v>192</v>
       </c>
       <c r="C132" t="n">
-        <v>186.8</v>
+        <v>192</v>
       </c>
       <c r="D132" t="n">
-        <v>187</v>
+        <v>192</v>
       </c>
       <c r="E132" t="n">
-        <v>186.8</v>
+        <v>192</v>
       </c>
       <c r="F132" t="n">
-        <v>7780.4136</v>
+        <v>752.5667</v>
       </c>
       <c r="G132" t="n">
-        <v>-186729.54953044</v>
+        <v>-128430.51716655</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
@@ -5154,22 +5154,22 @@
         <v>131</v>
       </c>
       <c r="B133" t="n">
-        <v>189</v>
+        <v>191.1</v>
       </c>
       <c r="C133" t="n">
-        <v>189</v>
+        <v>191.1</v>
       </c>
       <c r="D133" t="n">
-        <v>189</v>
+        <v>191.1</v>
       </c>
       <c r="E133" t="n">
-        <v>189</v>
+        <v>191.1</v>
       </c>
       <c r="F133" t="n">
-        <v>5291.005291</v>
+        <v>135.7691</v>
       </c>
       <c r="G133" t="n">
-        <v>-181438.54423944</v>
+        <v>-128566.28626655</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
@@ -5190,22 +5190,22 @@
         <v>132</v>
       </c>
       <c r="B134" t="n">
-        <v>188</v>
+        <v>191.1</v>
       </c>
       <c r="C134" t="n">
-        <v>189</v>
+        <v>191.1</v>
       </c>
       <c r="D134" t="n">
-        <v>189</v>
+        <v>191.1</v>
       </c>
       <c r="E134" t="n">
-        <v>186.9</v>
+        <v>191.1</v>
       </c>
       <c r="F134" t="n">
-        <v>5496.7168</v>
+        <v>7780.4136</v>
       </c>
       <c r="G134" t="n">
-        <v>-181438.54423944</v>
+        <v>-128566.28626655</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
@@ -5226,22 +5226,22 @@
         <v>133</v>
       </c>
       <c r="B135" t="n">
-        <v>186.9</v>
+        <v>191.1</v>
       </c>
       <c r="C135" t="n">
-        <v>186.9</v>
+        <v>191.1</v>
       </c>
       <c r="D135" t="n">
-        <v>186.9</v>
+        <v>191.1</v>
       </c>
       <c r="E135" t="n">
-        <v>186.9</v>
+        <v>191.1</v>
       </c>
       <c r="F135" t="n">
-        <v>2848.5891</v>
+        <v>199.7371</v>
       </c>
       <c r="G135" t="n">
-        <v>-184287.13333944</v>
+        <v>-128566.28626655</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
@@ -5262,22 +5262,22 @@
         <v>134</v>
       </c>
       <c r="B136" t="n">
-        <v>186.9</v>
+        <v>192</v>
       </c>
       <c r="C136" t="n">
-        <v>186.7</v>
+        <v>192</v>
       </c>
       <c r="D136" t="n">
-        <v>186.9</v>
+        <v>192</v>
       </c>
       <c r="E136" t="n">
-        <v>186.7</v>
+        <v>192</v>
       </c>
       <c r="F136" t="n">
-        <v>2780</v>
+        <v>69.5626</v>
       </c>
       <c r="G136" t="n">
-        <v>-187067.13333944</v>
+        <v>-128496.72366655</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
@@ -5298,22 +5298,22 @@
         <v>135</v>
       </c>
       <c r="B137" t="n">
-        <v>187.8</v>
+        <v>191</v>
       </c>
       <c r="C137" t="n">
-        <v>187.8</v>
+        <v>191</v>
       </c>
       <c r="D137" t="n">
-        <v>187.8</v>
+        <v>191</v>
       </c>
       <c r="E137" t="n">
-        <v>187.8</v>
+        <v>191</v>
       </c>
       <c r="F137" t="n">
-        <v>298</v>
+        <v>119.7373</v>
       </c>
       <c r="G137" t="n">
-        <v>-186769.13333944</v>
+        <v>-128616.46096655</v>
       </c>
       <c r="H137" t="n">
         <v>0</v>
@@ -5334,22 +5334,22 @@
         <v>136</v>
       </c>
       <c r="B138" t="n">
-        <v>187</v>
+        <v>191.3</v>
       </c>
       <c r="C138" t="n">
-        <v>187</v>
+        <v>191.3</v>
       </c>
       <c r="D138" t="n">
-        <v>187</v>
+        <v>191.3</v>
       </c>
       <c r="E138" t="n">
-        <v>187</v>
+        <v>191.3</v>
       </c>
       <c r="F138" t="n">
-        <v>144</v>
+        <v>38.9223</v>
       </c>
       <c r="G138" t="n">
-        <v>-186913.13333944</v>
+        <v>-128577.53866655</v>
       </c>
       <c r="H138" t="n">
         <v>0</v>
@@ -5370,22 +5370,22 @@
         <v>137</v>
       </c>
       <c r="B139" t="n">
-        <v>187</v>
+        <v>191.3</v>
       </c>
       <c r="C139" t="n">
-        <v>187.8</v>
+        <v>191.3</v>
       </c>
       <c r="D139" t="n">
-        <v>187.8</v>
+        <v>191.3</v>
       </c>
       <c r="E139" t="n">
-        <v>186.1</v>
+        <v>191.3</v>
       </c>
       <c r="F139" t="n">
-        <v>5162.0685</v>
+        <v>968.2148</v>
       </c>
       <c r="G139" t="n">
-        <v>-181751.06483944</v>
+        <v>-128577.53866655</v>
       </c>
       <c r="H139" t="n">
         <v>0</v>
@@ -5406,22 +5406,22 @@
         <v>138</v>
       </c>
       <c r="B140" t="n">
-        <v>186.1</v>
+        <v>191.3</v>
       </c>
       <c r="C140" t="n">
-        <v>186.1</v>
+        <v>191.3</v>
       </c>
       <c r="D140" t="n">
-        <v>186.1</v>
+        <v>191.3</v>
       </c>
       <c r="E140" t="n">
-        <v>186.1</v>
+        <v>191.3</v>
       </c>
       <c r="F140" t="n">
-        <v>1657.3609</v>
+        <v>2639.8618</v>
       </c>
       <c r="G140" t="n">
-        <v>-183408.42573944</v>
+        <v>-128577.53866655</v>
       </c>
       <c r="H140" t="n">
         <v>0</v>
@@ -5442,22 +5442,22 @@
         <v>139</v>
       </c>
       <c r="B141" t="n">
-        <v>186.1</v>
+        <v>191.3</v>
       </c>
       <c r="C141" t="n">
-        <v>186.1</v>
+        <v>191.3</v>
       </c>
       <c r="D141" t="n">
-        <v>186.1</v>
+        <v>191.3</v>
       </c>
       <c r="E141" t="n">
-        <v>186.1</v>
+        <v>191.3</v>
       </c>
       <c r="F141" t="n">
-        <v>1366.755</v>
+        <v>2627.2137</v>
       </c>
       <c r="G141" t="n">
-        <v>-183408.42573944</v>
+        <v>-128577.53866655</v>
       </c>
       <c r="H141" t="n">
         <v>0</v>
@@ -5478,22 +5478,22 @@
         <v>140</v>
       </c>
       <c r="B142" t="n">
-        <v>186.1</v>
+        <v>191.3</v>
       </c>
       <c r="C142" t="n">
-        <v>186.1</v>
+        <v>191.3</v>
       </c>
       <c r="D142" t="n">
-        <v>186.1</v>
+        <v>191.3</v>
       </c>
       <c r="E142" t="n">
-        <v>186.1</v>
+        <v>191.3</v>
       </c>
       <c r="F142" t="n">
-        <v>1936.539</v>
+        <v>400</v>
       </c>
       <c r="G142" t="n">
-        <v>-183408.42573944</v>
+        <v>-128577.53866655</v>
       </c>
       <c r="H142" t="n">
         <v>0</v>
@@ -5514,22 +5514,22 @@
         <v>141</v>
       </c>
       <c r="B143" t="n">
-        <v>186.1</v>
+        <v>191.3</v>
       </c>
       <c r="C143" t="n">
-        <v>186.1</v>
+        <v>191.3</v>
       </c>
       <c r="D143" t="n">
-        <v>186.1</v>
+        <v>191.3</v>
       </c>
       <c r="E143" t="n">
-        <v>186.1</v>
+        <v>191.3</v>
       </c>
       <c r="F143" t="n">
-        <v>258.077</v>
+        <v>8060</v>
       </c>
       <c r="G143" t="n">
-        <v>-183408.42573944</v>
+        <v>-128577.53866655</v>
       </c>
       <c r="H143" t="n">
         <v>0</v>
@@ -5550,22 +5550,22 @@
         <v>142</v>
       </c>
       <c r="B144" t="n">
-        <v>186</v>
+        <v>191.3</v>
       </c>
       <c r="C144" t="n">
-        <v>186</v>
+        <v>191.3</v>
       </c>
       <c r="D144" t="n">
-        <v>186</v>
+        <v>191.3</v>
       </c>
       <c r="E144" t="n">
-        <v>186</v>
+        <v>191.3</v>
       </c>
       <c r="F144" t="n">
-        <v>30</v>
+        <v>7000</v>
       </c>
       <c r="G144" t="n">
-        <v>-183438.42573944</v>
+        <v>-128577.53866655</v>
       </c>
       <c r="H144" t="n">
         <v>0</v>
@@ -5586,1594 +5586,4052 @@
         <v>143</v>
       </c>
       <c r="B145" t="n">
+        <v>191.3</v>
+      </c>
+      <c r="C145" t="n">
+        <v>191.3</v>
+      </c>
+      <c r="D145" t="n">
+        <v>191.3</v>
+      </c>
+      <c r="E145" t="n">
+        <v>191.3</v>
+      </c>
+      <c r="F145" t="n">
+        <v>3177.6846</v>
+      </c>
+      <c r="G145" t="n">
+        <v>-128577.53866655</v>
+      </c>
+      <c r="H145" t="n">
+        <v>0</v>
+      </c>
+      <c r="I145" t="n">
+        <v>0</v>
+      </c>
+      <c r="J145" t="inlineStr"/>
+      <c r="K145" t="inlineStr"/>
+      <c r="L145" t="inlineStr"/>
+      <c r="M145" t="n">
+        <v>1</v>
+      </c>
+      <c r="N145" t="inlineStr"/>
+    </row>
+    <row r="146">
+      <c r="A146" s="1" t="n">
+        <v>144</v>
+      </c>
+      <c r="B146" t="n">
+        <v>191</v>
+      </c>
+      <c r="C146" t="n">
+        <v>191</v>
+      </c>
+      <c r="D146" t="n">
+        <v>191</v>
+      </c>
+      <c r="E146" t="n">
+        <v>191</v>
+      </c>
+      <c r="F146" t="n">
+        <v>139.2999</v>
+      </c>
+      <c r="G146" t="n">
+        <v>-128716.83856655</v>
+      </c>
+      <c r="H146" t="n">
+        <v>0</v>
+      </c>
+      <c r="I146" t="n">
+        <v>0</v>
+      </c>
+      <c r="J146" t="inlineStr"/>
+      <c r="K146" t="inlineStr"/>
+      <c r="L146" t="inlineStr"/>
+      <c r="M146" t="n">
+        <v>1</v>
+      </c>
+      <c r="N146" t="inlineStr"/>
+    </row>
+    <row r="147">
+      <c r="A147" s="1" t="n">
+        <v>145</v>
+      </c>
+      <c r="B147" t="n">
+        <v>192.2</v>
+      </c>
+      <c r="C147" t="n">
+        <v>191</v>
+      </c>
+      <c r="D147" t="n">
+        <v>192.2</v>
+      </c>
+      <c r="E147" t="n">
+        <v>191</v>
+      </c>
+      <c r="F147" t="n">
+        <v>156.2327</v>
+      </c>
+      <c r="G147" t="n">
+        <v>-128716.83856655</v>
+      </c>
+      <c r="H147" t="n">
+        <v>0</v>
+      </c>
+      <c r="I147" t="n">
+        <v>0</v>
+      </c>
+      <c r="J147" t="inlineStr"/>
+      <c r="K147" t="inlineStr"/>
+      <c r="L147" t="inlineStr"/>
+      <c r="M147" t="n">
+        <v>1</v>
+      </c>
+      <c r="N147" t="inlineStr"/>
+    </row>
+    <row r="148">
+      <c r="A148" s="1" t="n">
+        <v>146</v>
+      </c>
+      <c r="B148" t="n">
+        <v>192</v>
+      </c>
+      <c r="C148" t="n">
+        <v>191.8</v>
+      </c>
+      <c r="D148" t="n">
+        <v>192</v>
+      </c>
+      <c r="E148" t="n">
+        <v>191.8</v>
+      </c>
+      <c r="F148" t="n">
+        <v>192.9</v>
+      </c>
+      <c r="G148" t="n">
+        <v>-128523.93856655</v>
+      </c>
+      <c r="H148" t="n">
+        <v>0</v>
+      </c>
+      <c r="I148" t="n">
+        <v>0</v>
+      </c>
+      <c r="J148" t="inlineStr"/>
+      <c r="K148" t="inlineStr"/>
+      <c r="L148" t="inlineStr"/>
+      <c r="M148" t="n">
+        <v>1</v>
+      </c>
+      <c r="N148" t="inlineStr"/>
+    </row>
+    <row r="149">
+      <c r="A149" s="1" t="n">
+        <v>147</v>
+      </c>
+      <c r="B149" t="n">
+        <v>191.8</v>
+      </c>
+      <c r="C149" t="n">
+        <v>190.1</v>
+      </c>
+      <c r="D149" t="n">
+        <v>191.8</v>
+      </c>
+      <c r="E149" t="n">
+        <v>190.1</v>
+      </c>
+      <c r="F149" t="n">
+        <v>7371.0133</v>
+      </c>
+      <c r="G149" t="n">
+        <v>-135894.95186655</v>
+      </c>
+      <c r="H149" t="n">
+        <v>0</v>
+      </c>
+      <c r="I149" t="n">
+        <v>0</v>
+      </c>
+      <c r="J149" t="inlineStr"/>
+      <c r="K149" t="inlineStr"/>
+      <c r="L149" t="inlineStr"/>
+      <c r="M149" t="n">
+        <v>1</v>
+      </c>
+      <c r="N149" t="inlineStr"/>
+    </row>
+    <row r="150">
+      <c r="A150" s="1" t="n">
+        <v>148</v>
+      </c>
+      <c r="B150" t="n">
+        <v>190.1</v>
+      </c>
+      <c r="C150" t="n">
+        <v>190.1</v>
+      </c>
+      <c r="D150" t="n">
+        <v>190.1</v>
+      </c>
+      <c r="E150" t="n">
+        <v>190.1</v>
+      </c>
+      <c r="F150" t="n">
+        <v>170.5227</v>
+      </c>
+      <c r="G150" t="n">
+        <v>-135894.95186655</v>
+      </c>
+      <c r="H150" t="n">
+        <v>0</v>
+      </c>
+      <c r="I150" t="n">
+        <v>0</v>
+      </c>
+      <c r="J150" t="inlineStr"/>
+      <c r="K150" t="inlineStr"/>
+      <c r="L150" t="inlineStr"/>
+      <c r="M150" t="n">
+        <v>1</v>
+      </c>
+      <c r="N150" t="inlineStr"/>
+    </row>
+    <row r="151">
+      <c r="A151" s="1" t="n">
+        <v>149</v>
+      </c>
+      <c r="B151" t="n">
+        <v>192.9</v>
+      </c>
+      <c r="C151" t="n">
+        <v>192.9</v>
+      </c>
+      <c r="D151" t="n">
+        <v>192.9</v>
+      </c>
+      <c r="E151" t="n">
+        <v>192.9</v>
+      </c>
+      <c r="F151" t="n">
+        <v>3</v>
+      </c>
+      <c r="G151" t="n">
+        <v>-135891.95186655</v>
+      </c>
+      <c r="H151" t="n">
+        <v>0</v>
+      </c>
+      <c r="I151" t="n">
+        <v>0</v>
+      </c>
+      <c r="J151" t="inlineStr"/>
+      <c r="K151" t="inlineStr"/>
+      <c r="L151" t="inlineStr"/>
+      <c r="M151" t="n">
+        <v>1</v>
+      </c>
+      <c r="N151" t="inlineStr"/>
+    </row>
+    <row r="152">
+      <c r="A152" s="1" t="n">
+        <v>150</v>
+      </c>
+      <c r="B152" t="n">
+        <v>192</v>
+      </c>
+      <c r="C152" t="n">
+        <v>191</v>
+      </c>
+      <c r="D152" t="n">
+        <v>192</v>
+      </c>
+      <c r="E152" t="n">
+        <v>191</v>
+      </c>
+      <c r="F152" t="n">
+        <v>68.15170000000001</v>
+      </c>
+      <c r="G152" t="n">
+        <v>-135960.10356655</v>
+      </c>
+      <c r="H152" t="n">
+        <v>0</v>
+      </c>
+      <c r="I152" t="n">
+        <v>0</v>
+      </c>
+      <c r="J152" t="inlineStr"/>
+      <c r="K152" t="inlineStr"/>
+      <c r="L152" t="inlineStr"/>
+      <c r="M152" t="n">
+        <v>1</v>
+      </c>
+      <c r="N152" t="inlineStr"/>
+    </row>
+    <row r="153">
+      <c r="A153" s="1" t="n">
+        <v>151</v>
+      </c>
+      <c r="B153" t="n">
+        <v>191</v>
+      </c>
+      <c r="C153" t="n">
+        <v>191</v>
+      </c>
+      <c r="D153" t="n">
+        <v>191</v>
+      </c>
+      <c r="E153" t="n">
+        <v>191</v>
+      </c>
+      <c r="F153" t="n">
+        <v>65.15170000000001</v>
+      </c>
+      <c r="G153" t="n">
+        <v>-135960.10356655</v>
+      </c>
+      <c r="H153" t="n">
+        <v>0</v>
+      </c>
+      <c r="I153" t="n">
+        <v>0</v>
+      </c>
+      <c r="J153" t="inlineStr"/>
+      <c r="K153" t="inlineStr"/>
+      <c r="L153" t="inlineStr"/>
+      <c r="M153" t="n">
+        <v>1</v>
+      </c>
+      <c r="N153" t="inlineStr"/>
+    </row>
+    <row r="154">
+      <c r="A154" s="1" t="n">
+        <v>152</v>
+      </c>
+      <c r="B154" t="n">
+        <v>190.7</v>
+      </c>
+      <c r="C154" t="n">
+        <v>190.7</v>
+      </c>
+      <c r="D154" t="n">
+        <v>190.7</v>
+      </c>
+      <c r="E154" t="n">
+        <v>190.7</v>
+      </c>
+      <c r="F154" t="n">
+        <v>546.7568</v>
+      </c>
+      <c r="G154" t="n">
+        <v>-136506.86036655</v>
+      </c>
+      <c r="H154" t="n">
+        <v>0</v>
+      </c>
+      <c r="I154" t="n">
+        <v>0</v>
+      </c>
+      <c r="J154" t="inlineStr"/>
+      <c r="K154" t="inlineStr"/>
+      <c r="L154" t="inlineStr"/>
+      <c r="M154" t="n">
+        <v>1</v>
+      </c>
+      <c r="N154" t="inlineStr"/>
+    </row>
+    <row r="155">
+      <c r="A155" s="1" t="n">
+        <v>153</v>
+      </c>
+      <c r="B155" t="n">
+        <v>191.9</v>
+      </c>
+      <c r="C155" t="n">
+        <v>190.4</v>
+      </c>
+      <c r="D155" t="n">
+        <v>191.9</v>
+      </c>
+      <c r="E155" t="n">
+        <v>190.2</v>
+      </c>
+      <c r="F155" t="n">
+        <v>5855.6374</v>
+      </c>
+      <c r="G155" t="n">
+        <v>-142362.49776655</v>
+      </c>
+      <c r="H155" t="n">
+        <v>0</v>
+      </c>
+      <c r="I155" t="n">
+        <v>0</v>
+      </c>
+      <c r="J155" t="inlineStr"/>
+      <c r="K155" t="inlineStr"/>
+      <c r="L155" t="inlineStr"/>
+      <c r="M155" t="n">
+        <v>1</v>
+      </c>
+      <c r="N155" t="inlineStr"/>
+    </row>
+    <row r="156">
+      <c r="A156" s="1" t="n">
+        <v>154</v>
+      </c>
+      <c r="B156" t="n">
+        <v>190.4</v>
+      </c>
+      <c r="C156" t="n">
+        <v>190.4</v>
+      </c>
+      <c r="D156" t="n">
+        <v>190.4</v>
+      </c>
+      <c r="E156" t="n">
+        <v>190.4</v>
+      </c>
+      <c r="F156" t="n">
+        <v>757.5542</v>
+      </c>
+      <c r="G156" t="n">
+        <v>-142362.49776655</v>
+      </c>
+      <c r="H156" t="n">
+        <v>0</v>
+      </c>
+      <c r="I156" t="n">
+        <v>0</v>
+      </c>
+      <c r="J156" t="inlineStr"/>
+      <c r="K156" t="inlineStr"/>
+      <c r="L156" t="inlineStr"/>
+      <c r="M156" t="n">
+        <v>1</v>
+      </c>
+      <c r="N156" t="inlineStr"/>
+    </row>
+    <row r="157">
+      <c r="A157" s="1" t="n">
+        <v>155</v>
+      </c>
+      <c r="B157" t="n">
+        <v>190.4</v>
+      </c>
+      <c r="C157" t="n">
+        <v>190.4</v>
+      </c>
+      <c r="D157" t="n">
+        <v>190.4</v>
+      </c>
+      <c r="E157" t="n">
+        <v>190.4</v>
+      </c>
+      <c r="F157" t="n">
+        <v>2528.96</v>
+      </c>
+      <c r="G157" t="n">
+        <v>-142362.49776655</v>
+      </c>
+      <c r="H157" t="n">
+        <v>0</v>
+      </c>
+      <c r="I157" t="n">
+        <v>0</v>
+      </c>
+      <c r="J157" t="inlineStr"/>
+      <c r="K157" t="inlineStr"/>
+      <c r="L157" t="inlineStr"/>
+      <c r="M157" t="n">
+        <v>1</v>
+      </c>
+      <c r="N157" t="inlineStr"/>
+    </row>
+    <row r="158">
+      <c r="A158" s="1" t="n">
+        <v>156</v>
+      </c>
+      <c r="B158" t="n">
+        <v>190.4</v>
+      </c>
+      <c r="C158" t="n">
+        <v>190.4</v>
+      </c>
+      <c r="D158" t="n">
+        <v>190.4</v>
+      </c>
+      <c r="E158" t="n">
+        <v>190.4</v>
+      </c>
+      <c r="F158" t="n">
+        <v>2710.647</v>
+      </c>
+      <c r="G158" t="n">
+        <v>-142362.49776655</v>
+      </c>
+      <c r="H158" t="n">
+        <v>0</v>
+      </c>
+      <c r="I158" t="n">
+        <v>0</v>
+      </c>
+      <c r="J158" t="inlineStr"/>
+      <c r="K158" t="inlineStr"/>
+      <c r="L158" t="inlineStr"/>
+      <c r="M158" t="n">
+        <v>1</v>
+      </c>
+      <c r="N158" t="inlineStr"/>
+    </row>
+    <row r="159">
+      <c r="A159" s="1" t="n">
+        <v>157</v>
+      </c>
+      <c r="B159" t="n">
+        <v>190.4</v>
+      </c>
+      <c r="C159" t="n">
+        <v>190.4</v>
+      </c>
+      <c r="D159" t="n">
+        <v>190.4</v>
+      </c>
+      <c r="E159" t="n">
+        <v>190.4</v>
+      </c>
+      <c r="F159" t="n">
+        <v>261.5219</v>
+      </c>
+      <c r="G159" t="n">
+        <v>-142362.49776655</v>
+      </c>
+      <c r="H159" t="n">
+        <v>0</v>
+      </c>
+      <c r="I159" t="n">
+        <v>0</v>
+      </c>
+      <c r="J159" t="inlineStr"/>
+      <c r="K159" t="inlineStr"/>
+      <c r="L159" t="inlineStr"/>
+      <c r="M159" t="n">
+        <v>1</v>
+      </c>
+      <c r="N159" t="inlineStr"/>
+    </row>
+    <row r="160">
+      <c r="A160" s="1" t="n">
+        <v>158</v>
+      </c>
+      <c r="B160" t="n">
+        <v>190.4</v>
+      </c>
+      <c r="C160" t="n">
+        <v>190.4</v>
+      </c>
+      <c r="D160" t="n">
+        <v>190.4</v>
+      </c>
+      <c r="E160" t="n">
+        <v>190.4</v>
+      </c>
+      <c r="F160" t="n">
+        <v>1095</v>
+      </c>
+      <c r="G160" t="n">
+        <v>-142362.49776655</v>
+      </c>
+      <c r="H160" t="n">
+        <v>0</v>
+      </c>
+      <c r="I160" t="n">
+        <v>0</v>
+      </c>
+      <c r="J160" t="inlineStr"/>
+      <c r="K160" t="inlineStr"/>
+      <c r="L160" t="inlineStr"/>
+      <c r="M160" t="n">
+        <v>1</v>
+      </c>
+      <c r="N160" t="inlineStr"/>
+    </row>
+    <row r="161">
+      <c r="A161" s="1" t="n">
+        <v>159</v>
+      </c>
+      <c r="B161" t="n">
+        <v>190.4</v>
+      </c>
+      <c r="C161" t="n">
+        <v>190.4</v>
+      </c>
+      <c r="D161" t="n">
+        <v>190.4</v>
+      </c>
+      <c r="E161" t="n">
+        <v>190.4</v>
+      </c>
+      <c r="F161" t="n">
+        <v>175</v>
+      </c>
+      <c r="G161" t="n">
+        <v>-142362.49776655</v>
+      </c>
+      <c r="H161" t="n">
+        <v>0</v>
+      </c>
+      <c r="I161" t="n">
+        <v>0</v>
+      </c>
+      <c r="J161" t="inlineStr"/>
+      <c r="K161" t="inlineStr"/>
+      <c r="L161" t="inlineStr"/>
+      <c r="M161" t="n">
+        <v>1</v>
+      </c>
+      <c r="N161" t="inlineStr"/>
+    </row>
+    <row r="162">
+      <c r="A162" s="1" t="n">
+        <v>160</v>
+      </c>
+      <c r="B162" t="n">
+        <v>190.4</v>
+      </c>
+      <c r="C162" t="n">
+        <v>190.4</v>
+      </c>
+      <c r="D162" t="n">
+        <v>190.4</v>
+      </c>
+      <c r="E162" t="n">
+        <v>190.4</v>
+      </c>
+      <c r="F162" t="n">
+        <v>1481</v>
+      </c>
+      <c r="G162" t="n">
+        <v>-142362.49776655</v>
+      </c>
+      <c r="H162" t="n">
+        <v>0</v>
+      </c>
+      <c r="I162" t="n">
+        <v>0</v>
+      </c>
+      <c r="J162" t="inlineStr"/>
+      <c r="K162" t="inlineStr"/>
+      <c r="L162" t="inlineStr"/>
+      <c r="M162" t="n">
+        <v>1</v>
+      </c>
+      <c r="N162" t="inlineStr"/>
+    </row>
+    <row r="163">
+      <c r="A163" s="1" t="n">
+        <v>161</v>
+      </c>
+      <c r="B163" t="n">
+        <v>190.4</v>
+      </c>
+      <c r="C163" t="n">
+        <v>190.4</v>
+      </c>
+      <c r="D163" t="n">
+        <v>190.4</v>
+      </c>
+      <c r="E163" t="n">
+        <v>190.4</v>
+      </c>
+      <c r="F163" t="n">
+        <v>1988.938</v>
+      </c>
+      <c r="G163" t="n">
+        <v>-142362.49776655</v>
+      </c>
+      <c r="H163" t="n">
+        <v>0</v>
+      </c>
+      <c r="I163" t="n">
+        <v>0</v>
+      </c>
+      <c r="J163" t="inlineStr"/>
+      <c r="K163" t="inlineStr"/>
+      <c r="L163" t="inlineStr"/>
+      <c r="M163" t="n">
+        <v>1</v>
+      </c>
+      <c r="N163" t="inlineStr"/>
+    </row>
+    <row r="164">
+      <c r="A164" s="1" t="n">
+        <v>162</v>
+      </c>
+      <c r="B164" t="n">
+        <v>190.4</v>
+      </c>
+      <c r="C164" t="n">
+        <v>190.4</v>
+      </c>
+      <c r="D164" t="n">
+        <v>190.4</v>
+      </c>
+      <c r="E164" t="n">
+        <v>190.4</v>
+      </c>
+      <c r="F164" t="n">
+        <v>18973.337</v>
+      </c>
+      <c r="G164" t="n">
+        <v>-142362.49776655</v>
+      </c>
+      <c r="H164" t="n">
+        <v>0</v>
+      </c>
+      <c r="I164" t="n">
+        <v>0</v>
+      </c>
+      <c r="J164" t="inlineStr"/>
+      <c r="K164" t="inlineStr"/>
+      <c r="L164" t="inlineStr"/>
+      <c r="M164" t="n">
+        <v>1</v>
+      </c>
+      <c r="N164" t="inlineStr"/>
+    </row>
+    <row r="165">
+      <c r="A165" s="1" t="n">
+        <v>163</v>
+      </c>
+      <c r="B165" t="n">
+        <v>190.4</v>
+      </c>
+      <c r="C165" t="n">
+        <v>190.4</v>
+      </c>
+      <c r="D165" t="n">
+        <v>190.4</v>
+      </c>
+      <c r="E165" t="n">
+        <v>190.4</v>
+      </c>
+      <c r="F165" t="n">
+        <v>167.042</v>
+      </c>
+      <c r="G165" t="n">
+        <v>-142362.49776655</v>
+      </c>
+      <c r="H165" t="n">
+        <v>0</v>
+      </c>
+      <c r="I165" t="n">
+        <v>0</v>
+      </c>
+      <c r="J165" t="inlineStr"/>
+      <c r="K165" t="inlineStr"/>
+      <c r="L165" t="inlineStr"/>
+      <c r="M165" t="n">
+        <v>1</v>
+      </c>
+      <c r="N165" t="inlineStr"/>
+    </row>
+    <row r="166">
+      <c r="A166" s="1" t="n">
+        <v>164</v>
+      </c>
+      <c r="B166" t="n">
+        <v>190.9</v>
+      </c>
+      <c r="C166" t="n">
+        <v>191</v>
+      </c>
+      <c r="D166" t="n">
+        <v>191</v>
+      </c>
+      <c r="E166" t="n">
+        <v>190.9</v>
+      </c>
+      <c r="F166" t="n">
+        <v>1675.9815</v>
+      </c>
+      <c r="G166" t="n">
+        <v>-140686.51626655</v>
+      </c>
+      <c r="H166" t="n">
+        <v>0</v>
+      </c>
+      <c r="I166" t="n">
+        <v>0</v>
+      </c>
+      <c r="J166" t="inlineStr"/>
+      <c r="K166" t="inlineStr"/>
+      <c r="L166" t="inlineStr"/>
+      <c r="M166" t="n">
+        <v>1</v>
+      </c>
+      <c r="N166" t="inlineStr"/>
+    </row>
+    <row r="167">
+      <c r="A167" s="1" t="n">
+        <v>165</v>
+      </c>
+      <c r="B167" t="n">
+        <v>190.4</v>
+      </c>
+      <c r="C167" t="n">
+        <v>190.4</v>
+      </c>
+      <c r="D167" t="n">
+        <v>190.4</v>
+      </c>
+      <c r="E167" t="n">
+        <v>190.4</v>
+      </c>
+      <c r="F167" t="n">
+        <v>248.616</v>
+      </c>
+      <c r="G167" t="n">
+        <v>-140935.13226655</v>
+      </c>
+      <c r="H167" t="n">
+        <v>0</v>
+      </c>
+      <c r="I167" t="n">
+        <v>0</v>
+      </c>
+      <c r="J167" t="inlineStr"/>
+      <c r="K167" t="inlineStr"/>
+      <c r="L167" t="inlineStr"/>
+      <c r="M167" t="n">
+        <v>1</v>
+      </c>
+      <c r="N167" t="inlineStr"/>
+    </row>
+    <row r="168">
+      <c r="A168" s="1" t="n">
+        <v>166</v>
+      </c>
+      <c r="B168" t="n">
+        <v>190.4</v>
+      </c>
+      <c r="C168" t="n">
+        <v>190.2</v>
+      </c>
+      <c r="D168" t="n">
+        <v>190.4</v>
+      </c>
+      <c r="E168" t="n">
+        <v>190.2</v>
+      </c>
+      <c r="F168" t="n">
+        <v>1783.708</v>
+      </c>
+      <c r="G168" t="n">
+        <v>-142718.84026655</v>
+      </c>
+      <c r="H168" t="n">
+        <v>0</v>
+      </c>
+      <c r="I168" t="n">
+        <v>0</v>
+      </c>
+      <c r="J168" t="inlineStr"/>
+      <c r="K168" t="inlineStr"/>
+      <c r="L168" t="inlineStr"/>
+      <c r="M168" t="n">
+        <v>1</v>
+      </c>
+      <c r="N168" t="inlineStr"/>
+    </row>
+    <row r="169">
+      <c r="A169" s="1" t="n">
+        <v>167</v>
+      </c>
+      <c r="B169" t="n">
+        <v>190.2</v>
+      </c>
+      <c r="C169" t="n">
+        <v>188.6</v>
+      </c>
+      <c r="D169" t="n">
+        <v>190.2</v>
+      </c>
+      <c r="E169" t="n">
+        <v>188.6</v>
+      </c>
+      <c r="F169" t="n">
+        <v>619.8261</v>
+      </c>
+      <c r="G169" t="n">
+        <v>-143338.66636655</v>
+      </c>
+      <c r="H169" t="n">
+        <v>0</v>
+      </c>
+      <c r="I169" t="n">
+        <v>0</v>
+      </c>
+      <c r="J169" t="inlineStr"/>
+      <c r="K169" t="inlineStr"/>
+      <c r="L169" t="inlineStr"/>
+      <c r="M169" t="n">
+        <v>1</v>
+      </c>
+      <c r="N169" t="inlineStr"/>
+    </row>
+    <row r="170">
+      <c r="A170" s="1" t="n">
+        <v>168</v>
+      </c>
+      <c r="B170" t="n">
+        <v>188.6</v>
+      </c>
+      <c r="C170" t="n">
+        <v>188.1</v>
+      </c>
+      <c r="D170" t="n">
+        <v>188.6</v>
+      </c>
+      <c r="E170" t="n">
+        <v>188.1</v>
+      </c>
+      <c r="F170" t="n">
+        <v>4968.9161</v>
+      </c>
+      <c r="G170" t="n">
+        <v>-148307.58246655</v>
+      </c>
+      <c r="H170" t="n">
+        <v>0</v>
+      </c>
+      <c r="I170" t="n">
+        <v>0</v>
+      </c>
+      <c r="J170" t="inlineStr"/>
+      <c r="K170" t="inlineStr"/>
+      <c r="L170" t="inlineStr"/>
+      <c r="M170" t="n">
+        <v>1</v>
+      </c>
+      <c r="N170" t="inlineStr"/>
+    </row>
+    <row r="171">
+      <c r="A171" s="1" t="n">
+        <v>169</v>
+      </c>
+      <c r="B171" t="n">
+        <v>190.6</v>
+      </c>
+      <c r="C171" t="n">
+        <v>188.5</v>
+      </c>
+      <c r="D171" t="n">
+        <v>190.6</v>
+      </c>
+      <c r="E171" t="n">
+        <v>188.5</v>
+      </c>
+      <c r="F171" t="n">
+        <v>388.571</v>
+      </c>
+      <c r="G171" t="n">
+        <v>-147919.01146655</v>
+      </c>
+      <c r="H171" t="n">
+        <v>0</v>
+      </c>
+      <c r="I171" t="n">
+        <v>0</v>
+      </c>
+      <c r="J171" t="inlineStr"/>
+      <c r="K171" t="inlineStr"/>
+      <c r="L171" t="inlineStr"/>
+      <c r="M171" t="n">
+        <v>1</v>
+      </c>
+      <c r="N171" t="inlineStr"/>
+    </row>
+    <row r="172">
+      <c r="A172" s="1" t="n">
+        <v>170</v>
+      </c>
+      <c r="B172" t="n">
+        <v>189.7</v>
+      </c>
+      <c r="C172" t="n">
+        <v>189.7</v>
+      </c>
+      <c r="D172" t="n">
+        <v>189.7</v>
+      </c>
+      <c r="E172" t="n">
+        <v>189.7</v>
+      </c>
+      <c r="F172" t="n">
+        <v>385.941</v>
+      </c>
+      <c r="G172" t="n">
+        <v>-147533.07046655</v>
+      </c>
+      <c r="H172" t="n">
+        <v>0</v>
+      </c>
+      <c r="I172" t="n">
+        <v>0</v>
+      </c>
+      <c r="J172" t="inlineStr"/>
+      <c r="K172" t="inlineStr"/>
+      <c r="L172" t="inlineStr"/>
+      <c r="M172" t="n">
+        <v>1</v>
+      </c>
+      <c r="N172" t="inlineStr"/>
+    </row>
+    <row r="173">
+      <c r="A173" s="1" t="n">
+        <v>171</v>
+      </c>
+      <c r="B173" t="n">
+        <v>188.3</v>
+      </c>
+      <c r="C173" t="n">
+        <v>188.3</v>
+      </c>
+      <c r="D173" t="n">
+        <v>188.3</v>
+      </c>
+      <c r="E173" t="n">
+        <v>188.3</v>
+      </c>
+      <c r="F173" t="n">
+        <v>7000</v>
+      </c>
+      <c r="G173" t="n">
+        <v>-154533.07046655</v>
+      </c>
+      <c r="H173" t="n">
+        <v>0</v>
+      </c>
+      <c r="I173" t="n">
+        <v>0</v>
+      </c>
+      <c r="J173" t="inlineStr"/>
+      <c r="K173" t="inlineStr"/>
+      <c r="L173" t="inlineStr"/>
+      <c r="M173" t="n">
+        <v>1</v>
+      </c>
+      <c r="N173" t="inlineStr"/>
+    </row>
+    <row r="174">
+      <c r="A174" s="1" t="n">
+        <v>172</v>
+      </c>
+      <c r="B174" t="n">
+        <v>188.3</v>
+      </c>
+      <c r="C174" t="n">
+        <v>189</v>
+      </c>
+      <c r="D174" t="n">
+        <v>189.8</v>
+      </c>
+      <c r="E174" t="n">
+        <v>188.3</v>
+      </c>
+      <c r="F174" t="n">
+        <v>3287.73</v>
+      </c>
+      <c r="G174" t="n">
+        <v>-151245.34046655</v>
+      </c>
+      <c r="H174" t="n">
+        <v>0</v>
+      </c>
+      <c r="I174" t="n">
+        <v>0</v>
+      </c>
+      <c r="J174" t="inlineStr"/>
+      <c r="K174" t="inlineStr"/>
+      <c r="L174" t="inlineStr"/>
+      <c r="M174" t="n">
+        <v>1</v>
+      </c>
+      <c r="N174" t="inlineStr"/>
+    </row>
+    <row r="175">
+      <c r="A175" s="1" t="n">
+        <v>173</v>
+      </c>
+      <c r="B175" t="n">
+        <v>188.9</v>
+      </c>
+      <c r="C175" t="n">
+        <v>188.9</v>
+      </c>
+      <c r="D175" t="n">
+        <v>188.9</v>
+      </c>
+      <c r="E175" t="n">
+        <v>188.9</v>
+      </c>
+      <c r="F175" t="n">
+        <v>136</v>
+      </c>
+      <c r="G175" t="n">
+        <v>-151381.34046655</v>
+      </c>
+      <c r="H175" t="n">
+        <v>0</v>
+      </c>
+      <c r="I175" t="n">
+        <v>0</v>
+      </c>
+      <c r="J175" t="inlineStr"/>
+      <c r="K175" t="inlineStr"/>
+      <c r="L175" t="inlineStr"/>
+      <c r="M175" t="n">
+        <v>1</v>
+      </c>
+      <c r="N175" t="inlineStr"/>
+    </row>
+    <row r="176">
+      <c r="A176" s="1" t="n">
+        <v>174</v>
+      </c>
+      <c r="B176" t="n">
+        <v>188.4</v>
+      </c>
+      <c r="C176" t="n">
+        <v>188.4</v>
+      </c>
+      <c r="D176" t="n">
+        <v>188.4</v>
+      </c>
+      <c r="E176" t="n">
+        <v>188.4</v>
+      </c>
+      <c r="F176" t="n">
+        <v>5000</v>
+      </c>
+      <c r="G176" t="n">
+        <v>-156381.34046655</v>
+      </c>
+      <c r="H176" t="n">
+        <v>0</v>
+      </c>
+      <c r="I176" t="n">
+        <v>0</v>
+      </c>
+      <c r="J176" t="inlineStr"/>
+      <c r="K176" t="inlineStr"/>
+      <c r="L176" t="inlineStr"/>
+      <c r="M176" t="n">
+        <v>1</v>
+      </c>
+      <c r="N176" t="inlineStr"/>
+    </row>
+    <row r="177">
+      <c r="A177" s="1" t="n">
+        <v>175</v>
+      </c>
+      <c r="B177" t="n">
+        <v>188.9</v>
+      </c>
+      <c r="C177" t="n">
+        <v>190</v>
+      </c>
+      <c r="D177" t="n">
+        <v>190</v>
+      </c>
+      <c r="E177" t="n">
+        <v>188.9</v>
+      </c>
+      <c r="F177" t="n">
+        <v>3.6849</v>
+      </c>
+      <c r="G177" t="n">
+        <v>-156377.65556655</v>
+      </c>
+      <c r="H177" t="n">
+        <v>0</v>
+      </c>
+      <c r="I177" t="n">
+        <v>0</v>
+      </c>
+      <c r="J177" t="inlineStr"/>
+      <c r="K177" t="inlineStr"/>
+      <c r="L177" t="inlineStr"/>
+      <c r="M177" t="n">
+        <v>1</v>
+      </c>
+      <c r="N177" t="inlineStr"/>
+    </row>
+    <row r="178">
+      <c r="A178" s="1" t="n">
+        <v>176</v>
+      </c>
+      <c r="B178" t="n">
+        <v>190</v>
+      </c>
+      <c r="C178" t="n">
+        <v>188.6</v>
+      </c>
+      <c r="D178" t="n">
+        <v>190</v>
+      </c>
+      <c r="E178" t="n">
+        <v>188.6</v>
+      </c>
+      <c r="F178" t="n">
+        <v>1171.9564</v>
+      </c>
+      <c r="G178" t="n">
+        <v>-157549.61196655</v>
+      </c>
+      <c r="H178" t="n">
+        <v>0</v>
+      </c>
+      <c r="I178" t="n">
+        <v>0</v>
+      </c>
+      <c r="J178" t="inlineStr"/>
+      <c r="K178" t="inlineStr"/>
+      <c r="L178" t="inlineStr"/>
+      <c r="M178" t="n">
+        <v>1</v>
+      </c>
+      <c r="N178" t="inlineStr"/>
+    </row>
+    <row r="179">
+      <c r="A179" s="1" t="n">
+        <v>177</v>
+      </c>
+      <c r="B179" t="n">
+        <v>189.9</v>
+      </c>
+      <c r="C179" t="n">
+        <v>190</v>
+      </c>
+      <c r="D179" t="n">
+        <v>190</v>
+      </c>
+      <c r="E179" t="n">
+        <v>189.9</v>
+      </c>
+      <c r="F179" t="n">
+        <v>87.8434</v>
+      </c>
+      <c r="G179" t="n">
+        <v>-157461.76856655</v>
+      </c>
+      <c r="H179" t="n">
+        <v>0</v>
+      </c>
+      <c r="I179" t="n">
+        <v>0</v>
+      </c>
+      <c r="J179" t="inlineStr"/>
+      <c r="K179" t="inlineStr"/>
+      <c r="L179" t="inlineStr"/>
+      <c r="M179" t="n">
+        <v>1</v>
+      </c>
+      <c r="N179" t="inlineStr"/>
+    </row>
+    <row r="180">
+      <c r="A180" s="1" t="n">
+        <v>178</v>
+      </c>
+      <c r="B180" t="n">
+        <v>191</v>
+      </c>
+      <c r="C180" t="n">
+        <v>190</v>
+      </c>
+      <c r="D180" t="n">
+        <v>191</v>
+      </c>
+      <c r="E180" t="n">
+        <v>190</v>
+      </c>
+      <c r="F180" t="n">
+        <v>73.59999999999999</v>
+      </c>
+      <c r="G180" t="n">
+        <v>-157461.76856655</v>
+      </c>
+      <c r="H180" t="n">
+        <v>0</v>
+      </c>
+      <c r="I180" t="n">
+        <v>0</v>
+      </c>
+      <c r="J180" t="inlineStr"/>
+      <c r="K180" t="inlineStr"/>
+      <c r="L180" t="inlineStr"/>
+      <c r="M180" t="n">
+        <v>1</v>
+      </c>
+      <c r="N180" t="inlineStr"/>
+    </row>
+    <row r="181">
+      <c r="A181" s="1" t="n">
+        <v>179</v>
+      </c>
+      <c r="B181" t="n">
+        <v>188.6</v>
+      </c>
+      <c r="C181" t="n">
+        <v>188.5</v>
+      </c>
+      <c r="D181" t="n">
+        <v>188.6</v>
+      </c>
+      <c r="E181" t="n">
+        <v>188.5</v>
+      </c>
+      <c r="F181" t="n">
+        <v>1451.2701</v>
+      </c>
+      <c r="G181" t="n">
+        <v>-158913.03866655</v>
+      </c>
+      <c r="H181" t="n">
+        <v>0</v>
+      </c>
+      <c r="I181" t="n">
+        <v>0</v>
+      </c>
+      <c r="J181" t="inlineStr"/>
+      <c r="K181" t="inlineStr"/>
+      <c r="L181" t="inlineStr"/>
+      <c r="M181" t="n">
+        <v>1</v>
+      </c>
+      <c r="N181" t="inlineStr"/>
+    </row>
+    <row r="182">
+      <c r="A182" s="1" t="n">
+        <v>180</v>
+      </c>
+      <c r="B182" t="n">
+        <v>189.9</v>
+      </c>
+      <c r="C182" t="n">
+        <v>188.2</v>
+      </c>
+      <c r="D182" t="n">
+        <v>191.4</v>
+      </c>
+      <c r="E182" t="n">
+        <v>188.2</v>
+      </c>
+      <c r="F182" t="n">
+        <v>3358.4553</v>
+      </c>
+      <c r="G182" t="n">
+        <v>-162271.49396655</v>
+      </c>
+      <c r="H182" t="n">
+        <v>0</v>
+      </c>
+      <c r="I182" t="n">
+        <v>0</v>
+      </c>
+      <c r="J182" t="inlineStr"/>
+      <c r="K182" t="inlineStr"/>
+      <c r="L182" t="inlineStr"/>
+      <c r="M182" t="n">
+        <v>1</v>
+      </c>
+      <c r="N182" t="inlineStr"/>
+    </row>
+    <row r="183">
+      <c r="A183" s="1" t="n">
+        <v>181</v>
+      </c>
+      <c r="B183" t="n">
+        <v>189.1</v>
+      </c>
+      <c r="C183" t="n">
+        <v>189.1</v>
+      </c>
+      <c r="D183" t="n">
+        <v>189.1</v>
+      </c>
+      <c r="E183" t="n">
+        <v>189.1</v>
+      </c>
+      <c r="F183" t="n">
+        <v>50</v>
+      </c>
+      <c r="G183" t="n">
+        <v>-162221.49396655</v>
+      </c>
+      <c r="H183" t="n">
+        <v>0</v>
+      </c>
+      <c r="I183" t="n">
+        <v>0</v>
+      </c>
+      <c r="J183" t="inlineStr"/>
+      <c r="K183" t="inlineStr"/>
+      <c r="L183" t="inlineStr"/>
+      <c r="M183" t="n">
+        <v>1</v>
+      </c>
+      <c r="N183" t="inlineStr"/>
+    </row>
+    <row r="184">
+      <c r="A184" s="1" t="n">
+        <v>182</v>
+      </c>
+      <c r="B184" t="n">
+        <v>189.1</v>
+      </c>
+      <c r="C184" t="n">
+        <v>189.1</v>
+      </c>
+      <c r="D184" t="n">
+        <v>189.1</v>
+      </c>
+      <c r="E184" t="n">
+        <v>189.1</v>
+      </c>
+      <c r="F184" t="n">
+        <v>26.96</v>
+      </c>
+      <c r="G184" t="n">
+        <v>-162221.49396655</v>
+      </c>
+      <c r="H184" t="n">
+        <v>0</v>
+      </c>
+      <c r="I184" t="n">
+        <v>0</v>
+      </c>
+      <c r="J184" t="inlineStr"/>
+      <c r="K184" t="inlineStr"/>
+      <c r="L184" t="inlineStr"/>
+      <c r="M184" t="n">
+        <v>1</v>
+      </c>
+      <c r="N184" t="inlineStr"/>
+    </row>
+    <row r="185">
+      <c r="A185" s="1" t="n">
+        <v>183</v>
+      </c>
+      <c r="B185" t="n">
+        <v>189.1</v>
+      </c>
+      <c r="C185" t="n">
+        <v>189.1</v>
+      </c>
+      <c r="D185" t="n">
+        <v>189.1</v>
+      </c>
+      <c r="E185" t="n">
+        <v>189.1</v>
+      </c>
+      <c r="F185" t="n">
+        <v>368.45</v>
+      </c>
+      <c r="G185" t="n">
+        <v>-162221.49396655</v>
+      </c>
+      <c r="H185" t="n">
+        <v>0</v>
+      </c>
+      <c r="I185" t="n">
+        <v>0</v>
+      </c>
+      <c r="J185" t="inlineStr"/>
+      <c r="K185" t="inlineStr"/>
+      <c r="L185" t="inlineStr"/>
+      <c r="M185" t="n">
+        <v>1</v>
+      </c>
+      <c r="N185" t="inlineStr"/>
+    </row>
+    <row r="186">
+      <c r="A186" s="1" t="n">
+        <v>184</v>
+      </c>
+      <c r="B186" t="n">
+        <v>190.7</v>
+      </c>
+      <c r="C186" t="n">
+        <v>190.7</v>
+      </c>
+      <c r="D186" t="n">
+        <v>190.7</v>
+      </c>
+      <c r="E186" t="n">
+        <v>190.7</v>
+      </c>
+      <c r="F186" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="G186" t="n">
+        <v>-162218.86396655</v>
+      </c>
+      <c r="H186" t="n">
+        <v>0</v>
+      </c>
+      <c r="I186" t="n">
+        <v>0</v>
+      </c>
+      <c r="J186" t="inlineStr"/>
+      <c r="K186" t="inlineStr"/>
+      <c r="L186" t="inlineStr"/>
+      <c r="M186" t="n">
+        <v>1</v>
+      </c>
+      <c r="N186" t="inlineStr"/>
+    </row>
+    <row r="187">
+      <c r="A187" s="1" t="n">
+        <v>185</v>
+      </c>
+      <c r="B187" t="n">
+        <v>190.7</v>
+      </c>
+      <c r="C187" t="n">
+        <v>188.2</v>
+      </c>
+      <c r="D187" t="n">
+        <v>191.3</v>
+      </c>
+      <c r="E187" t="n">
+        <v>188.2</v>
+      </c>
+      <c r="F187" t="n">
+        <v>449.85</v>
+      </c>
+      <c r="G187" t="n">
+        <v>-162668.71396655</v>
+      </c>
+      <c r="H187" t="n">
+        <v>0</v>
+      </c>
+      <c r="I187" t="n">
+        <v>0</v>
+      </c>
+      <c r="J187" t="inlineStr"/>
+      <c r="K187" t="inlineStr"/>
+      <c r="L187" t="inlineStr"/>
+      <c r="M187" t="n">
+        <v>1</v>
+      </c>
+      <c r="N187" t="inlineStr"/>
+    </row>
+    <row r="188">
+      <c r="A188" s="1" t="n">
         <v>186</v>
       </c>
-      <c r="C145" t="n">
+      <c r="B188" t="n">
+        <v>190.9</v>
+      </c>
+      <c r="C188" t="n">
+        <v>189</v>
+      </c>
+      <c r="D188" t="n">
+        <v>190.9</v>
+      </c>
+      <c r="E188" t="n">
+        <v>189</v>
+      </c>
+      <c r="F188" t="n">
+        <v>248.7989</v>
+      </c>
+      <c r="G188" t="n">
+        <v>-162419.91506655</v>
+      </c>
+      <c r="H188" t="n">
+        <v>0</v>
+      </c>
+      <c r="I188" t="n">
+        <v>0</v>
+      </c>
+      <c r="J188" t="inlineStr"/>
+      <c r="K188" t="inlineStr"/>
+      <c r="L188" t="inlineStr"/>
+      <c r="M188" t="n">
+        <v>1</v>
+      </c>
+      <c r="N188" t="inlineStr"/>
+    </row>
+    <row r="189">
+      <c r="A189" s="1" t="n">
+        <v>187</v>
+      </c>
+      <c r="B189" t="n">
+        <v>189</v>
+      </c>
+      <c r="C189" t="n">
+        <v>189</v>
+      </c>
+      <c r="D189" t="n">
+        <v>189</v>
+      </c>
+      <c r="E189" t="n">
+        <v>189</v>
+      </c>
+      <c r="F189" t="n">
+        <v>231.4297</v>
+      </c>
+      <c r="G189" t="n">
+        <v>-162419.91506655</v>
+      </c>
+      <c r="H189" t="n">
+        <v>0</v>
+      </c>
+      <c r="I189" t="n">
+        <v>0</v>
+      </c>
+      <c r="J189" t="inlineStr"/>
+      <c r="K189" t="inlineStr"/>
+      <c r="L189" t="inlineStr"/>
+      <c r="M189" t="n">
+        <v>1</v>
+      </c>
+      <c r="N189" t="inlineStr"/>
+    </row>
+    <row r="190">
+      <c r="A190" s="1" t="n">
+        <v>188</v>
+      </c>
+      <c r="B190" t="n">
+        <v>191.6</v>
+      </c>
+      <c r="C190" t="n">
+        <v>189.1</v>
+      </c>
+      <c r="D190" t="n">
+        <v>191.6</v>
+      </c>
+      <c r="E190" t="n">
+        <v>189.1</v>
+      </c>
+      <c r="F190" t="n">
+        <v>1512.69173611</v>
+      </c>
+      <c r="G190" t="n">
+        <v>-160907.22333044</v>
+      </c>
+      <c r="H190" t="n">
+        <v>0</v>
+      </c>
+      <c r="I190" t="n">
+        <v>0</v>
+      </c>
+      <c r="J190" t="inlineStr"/>
+      <c r="K190" t="inlineStr"/>
+      <c r="L190" t="inlineStr"/>
+      <c r="M190" t="n">
+        <v>1</v>
+      </c>
+      <c r="N190" t="inlineStr"/>
+    </row>
+    <row r="191">
+      <c r="A191" s="1" t="n">
+        <v>189</v>
+      </c>
+      <c r="B191" t="n">
+        <v>189.1</v>
+      </c>
+      <c r="C191" t="n">
+        <v>189.1</v>
+      </c>
+      <c r="D191" t="n">
+        <v>189.1</v>
+      </c>
+      <c r="E191" t="n">
+        <v>189.1</v>
+      </c>
+      <c r="F191" t="n">
+        <v>2186.0848</v>
+      </c>
+      <c r="G191" t="n">
+        <v>-160907.22333044</v>
+      </c>
+      <c r="H191" t="n">
+        <v>0</v>
+      </c>
+      <c r="I191" t="n">
+        <v>0</v>
+      </c>
+      <c r="J191" t="inlineStr"/>
+      <c r="K191" t="inlineStr"/>
+      <c r="L191" t="inlineStr"/>
+      <c r="M191" t="n">
+        <v>1</v>
+      </c>
+      <c r="N191" t="inlineStr"/>
+    </row>
+    <row r="192">
+      <c r="A192" s="1" t="n">
+        <v>190</v>
+      </c>
+      <c r="B192" t="n">
+        <v>191</v>
+      </c>
+      <c r="C192" t="n">
+        <v>191</v>
+      </c>
+      <c r="D192" t="n">
+        <v>191</v>
+      </c>
+      <c r="E192" t="n">
+        <v>191</v>
+      </c>
+      <c r="F192" t="n">
+        <v>3</v>
+      </c>
+      <c r="G192" t="n">
+        <v>-160904.22333044</v>
+      </c>
+      <c r="H192" t="n">
+        <v>0</v>
+      </c>
+      <c r="I192" t="n">
+        <v>0</v>
+      </c>
+      <c r="J192" t="inlineStr"/>
+      <c r="K192" t="inlineStr"/>
+      <c r="L192" t="inlineStr"/>
+      <c r="M192" t="n">
+        <v>1</v>
+      </c>
+      <c r="N192" t="inlineStr"/>
+    </row>
+    <row r="193">
+      <c r="A193" s="1" t="n">
+        <v>191</v>
+      </c>
+      <c r="B193" t="n">
+        <v>189.1</v>
+      </c>
+      <c r="C193" t="n">
+        <v>189.1</v>
+      </c>
+      <c r="D193" t="n">
+        <v>189.1</v>
+      </c>
+      <c r="E193" t="n">
+        <v>189.1</v>
+      </c>
+      <c r="F193" t="n">
+        <v>68.8222</v>
+      </c>
+      <c r="G193" t="n">
+        <v>-160973.04553044</v>
+      </c>
+      <c r="H193" t="n">
+        <v>0</v>
+      </c>
+      <c r="I193" t="n">
+        <v>0</v>
+      </c>
+      <c r="J193" t="inlineStr"/>
+      <c r="K193" t="inlineStr"/>
+      <c r="L193" t="inlineStr"/>
+      <c r="M193" t="n">
+        <v>1</v>
+      </c>
+      <c r="N193" t="inlineStr"/>
+    </row>
+    <row r="194">
+      <c r="A194" s="1" t="n">
+        <v>192</v>
+      </c>
+      <c r="B194" t="n">
+        <v>189.1</v>
+      </c>
+      <c r="C194" t="n">
+        <v>189</v>
+      </c>
+      <c r="D194" t="n">
+        <v>189.1</v>
+      </c>
+      <c r="E194" t="n">
+        <v>189</v>
+      </c>
+      <c r="F194" t="n">
+        <v>1608.765</v>
+      </c>
+      <c r="G194" t="n">
+        <v>-162581.81053044</v>
+      </c>
+      <c r="H194" t="n">
+        <v>0</v>
+      </c>
+      <c r="I194" t="n">
+        <v>0</v>
+      </c>
+      <c r="J194" t="inlineStr"/>
+      <c r="K194" t="inlineStr"/>
+      <c r="L194" t="inlineStr"/>
+      <c r="M194" t="n">
+        <v>1</v>
+      </c>
+      <c r="N194" t="inlineStr"/>
+    </row>
+    <row r="195">
+      <c r="A195" s="1" t="n">
+        <v>193</v>
+      </c>
+      <c r="B195" t="n">
+        <v>190.9</v>
+      </c>
+      <c r="C195" t="n">
+        <v>189</v>
+      </c>
+      <c r="D195" t="n">
+        <v>190.9</v>
+      </c>
+      <c r="E195" t="n">
+        <v>189</v>
+      </c>
+      <c r="F195" t="n">
+        <v>156.4954</v>
+      </c>
+      <c r="G195" t="n">
+        <v>-162581.81053044</v>
+      </c>
+      <c r="H195" t="n">
+        <v>0</v>
+      </c>
+      <c r="I195" t="n">
+        <v>0</v>
+      </c>
+      <c r="J195" t="inlineStr"/>
+      <c r="K195" t="inlineStr"/>
+      <c r="L195" t="inlineStr"/>
+      <c r="M195" t="n">
+        <v>1</v>
+      </c>
+      <c r="N195" t="inlineStr"/>
+    </row>
+    <row r="196">
+      <c r="A196" s="1" t="n">
+        <v>194</v>
+      </c>
+      <c r="B196" t="n">
+        <v>189</v>
+      </c>
+      <c r="C196" t="n">
+        <v>189</v>
+      </c>
+      <c r="D196" t="n">
+        <v>189</v>
+      </c>
+      <c r="E196" t="n">
+        <v>189</v>
+      </c>
+      <c r="F196" t="n">
+        <v>321.4224</v>
+      </c>
+      <c r="G196" t="n">
+        <v>-162581.81053044</v>
+      </c>
+      <c r="H196" t="n">
+        <v>0</v>
+      </c>
+      <c r="I196" t="n">
+        <v>0</v>
+      </c>
+      <c r="J196" t="inlineStr"/>
+      <c r="K196" t="inlineStr"/>
+      <c r="L196" t="inlineStr"/>
+      <c r="M196" t="n">
+        <v>1</v>
+      </c>
+      <c r="N196" t="inlineStr"/>
+    </row>
+    <row r="197">
+      <c r="A197" s="1" t="n">
+        <v>195</v>
+      </c>
+      <c r="B197" t="n">
+        <v>189.8</v>
+      </c>
+      <c r="C197" t="n">
+        <v>189.8</v>
+      </c>
+      <c r="D197" t="n">
+        <v>189.8</v>
+      </c>
+      <c r="E197" t="n">
+        <v>189.8</v>
+      </c>
+      <c r="F197" t="n">
+        <v>2703.961</v>
+      </c>
+      <c r="G197" t="n">
+        <v>-159877.84953044</v>
+      </c>
+      <c r="H197" t="n">
+        <v>0</v>
+      </c>
+      <c r="I197" t="n">
+        <v>0</v>
+      </c>
+      <c r="J197" t="inlineStr"/>
+      <c r="K197" t="inlineStr"/>
+      <c r="L197" t="inlineStr"/>
+      <c r="M197" t="n">
+        <v>1</v>
+      </c>
+      <c r="N197" t="inlineStr"/>
+    </row>
+    <row r="198">
+      <c r="A198" s="1" t="n">
+        <v>196</v>
+      </c>
+      <c r="B198" t="n">
+        <v>188.2</v>
+      </c>
+      <c r="C198" t="n">
+        <v>188.2</v>
+      </c>
+      <c r="D198" t="n">
+        <v>188.2</v>
+      </c>
+      <c r="E198" t="n">
+        <v>188.2</v>
+      </c>
+      <c r="F198" t="n">
+        <v>3025.3834</v>
+      </c>
+      <c r="G198" t="n">
+        <v>-162903.23293044</v>
+      </c>
+      <c r="H198" t="n">
+        <v>0</v>
+      </c>
+      <c r="I198" t="n">
+        <v>0</v>
+      </c>
+      <c r="J198" t="inlineStr"/>
+      <c r="K198" t="inlineStr"/>
+      <c r="L198" t="inlineStr"/>
+      <c r="M198" t="n">
+        <v>1</v>
+      </c>
+      <c r="N198" t="inlineStr"/>
+    </row>
+    <row r="199">
+      <c r="A199" s="1" t="n">
+        <v>197</v>
+      </c>
+      <c r="B199" t="n">
+        <v>188.2</v>
+      </c>
+      <c r="C199" t="n">
+        <v>188.2</v>
+      </c>
+      <c r="D199" t="n">
+        <v>188.2</v>
+      </c>
+      <c r="E199" t="n">
+        <v>188.2</v>
+      </c>
+      <c r="F199" t="n">
+        <v>3885</v>
+      </c>
+      <c r="G199" t="n">
+        <v>-162903.23293044</v>
+      </c>
+      <c r="H199" t="n">
+        <v>0</v>
+      </c>
+      <c r="I199" t="n">
+        <v>0</v>
+      </c>
+      <c r="J199" t="inlineStr"/>
+      <c r="K199" t="inlineStr"/>
+      <c r="L199" t="inlineStr"/>
+      <c r="M199" t="n">
+        <v>1</v>
+      </c>
+      <c r="N199" t="inlineStr"/>
+    </row>
+    <row r="200">
+      <c r="A200" s="1" t="n">
+        <v>198</v>
+      </c>
+      <c r="B200" t="n">
+        <v>188.2</v>
+      </c>
+      <c r="C200" t="n">
+        <v>188.1</v>
+      </c>
+      <c r="D200" t="n">
+        <v>188.2</v>
+      </c>
+      <c r="E200" t="n">
+        <v>188.1</v>
+      </c>
+      <c r="F200" t="n">
+        <v>578.1079999999999</v>
+      </c>
+      <c r="G200" t="n">
+        <v>-163481.34093044</v>
+      </c>
+      <c r="H200" t="n">
+        <v>0</v>
+      </c>
+      <c r="I200" t="n">
+        <v>0</v>
+      </c>
+      <c r="J200" t="inlineStr"/>
+      <c r="K200" t="inlineStr"/>
+      <c r="L200" t="inlineStr"/>
+      <c r="M200" t="n">
+        <v>1</v>
+      </c>
+      <c r="N200" t="inlineStr"/>
+    </row>
+    <row r="201">
+      <c r="A201" s="1" t="n">
+        <v>199</v>
+      </c>
+      <c r="B201" t="n">
+        <v>188.1</v>
+      </c>
+      <c r="C201" t="n">
+        <v>188.1</v>
+      </c>
+      <c r="D201" t="n">
+        <v>188.1</v>
+      </c>
+      <c r="E201" t="n">
+        <v>188.1</v>
+      </c>
+      <c r="F201" t="n">
+        <v>168.0728</v>
+      </c>
+      <c r="G201" t="n">
+        <v>-163481.34093044</v>
+      </c>
+      <c r="H201" t="n">
+        <v>0</v>
+      </c>
+      <c r="I201" t="n">
+        <v>0</v>
+      </c>
+      <c r="J201" t="inlineStr"/>
+      <c r="K201" t="inlineStr"/>
+      <c r="L201" t="inlineStr"/>
+      <c r="M201" t="n">
+        <v>1</v>
+      </c>
+      <c r="N201" t="inlineStr"/>
+    </row>
+    <row r="202">
+      <c r="A202" s="1" t="n">
+        <v>200</v>
+      </c>
+      <c r="B202" t="n">
+        <v>188.1</v>
+      </c>
+      <c r="C202" t="n">
+        <v>187</v>
+      </c>
+      <c r="D202" t="n">
+        <v>188.1</v>
+      </c>
+      <c r="E202" t="n">
+        <v>187</v>
+      </c>
+      <c r="F202" t="n">
+        <v>15467.795</v>
+      </c>
+      <c r="G202" t="n">
+        <v>-178949.13593044</v>
+      </c>
+      <c r="H202" t="n">
+        <v>0</v>
+      </c>
+      <c r="I202" t="n">
+        <v>0</v>
+      </c>
+      <c r="J202" t="inlineStr"/>
+      <c r="K202" t="inlineStr"/>
+      <c r="L202" t="inlineStr"/>
+      <c r="M202" t="n">
+        <v>1</v>
+      </c>
+      <c r="N202" t="inlineStr"/>
+    </row>
+    <row r="203">
+      <c r="A203" s="1" t="n">
+        <v>201</v>
+      </c>
+      <c r="B203" t="n">
+        <v>187</v>
+      </c>
+      <c r="C203" t="n">
+        <v>186.8</v>
+      </c>
+      <c r="D203" t="n">
+        <v>187</v>
+      </c>
+      <c r="E203" t="n">
+        <v>186.8</v>
+      </c>
+      <c r="F203" t="n">
+        <v>7780.4136</v>
+      </c>
+      <c r="G203" t="n">
+        <v>-186729.54953044</v>
+      </c>
+      <c r="H203" t="n">
+        <v>0</v>
+      </c>
+      <c r="I203" t="n">
+        <v>0</v>
+      </c>
+      <c r="J203" t="inlineStr"/>
+      <c r="K203" t="inlineStr"/>
+      <c r="L203" t="inlineStr"/>
+      <c r="M203" t="n">
+        <v>1</v>
+      </c>
+      <c r="N203" t="inlineStr"/>
+    </row>
+    <row r="204">
+      <c r="A204" s="1" t="n">
+        <v>202</v>
+      </c>
+      <c r="B204" t="n">
+        <v>189</v>
+      </c>
+      <c r="C204" t="n">
+        <v>189</v>
+      </c>
+      <c r="D204" t="n">
+        <v>189</v>
+      </c>
+      <c r="E204" t="n">
+        <v>189</v>
+      </c>
+      <c r="F204" t="n">
+        <v>5291.005291</v>
+      </c>
+      <c r="G204" t="n">
+        <v>-181438.54423944</v>
+      </c>
+      <c r="H204" t="n">
+        <v>0</v>
+      </c>
+      <c r="I204" t="n">
+        <v>0</v>
+      </c>
+      <c r="J204" t="inlineStr"/>
+      <c r="K204" t="inlineStr"/>
+      <c r="L204" t="inlineStr"/>
+      <c r="M204" t="n">
+        <v>1</v>
+      </c>
+      <c r="N204" t="inlineStr"/>
+    </row>
+    <row r="205">
+      <c r="A205" s="1" t="n">
+        <v>203</v>
+      </c>
+      <c r="B205" t="n">
+        <v>188</v>
+      </c>
+      <c r="C205" t="n">
+        <v>189</v>
+      </c>
+      <c r="D205" t="n">
+        <v>189</v>
+      </c>
+      <c r="E205" t="n">
+        <v>186.9</v>
+      </c>
+      <c r="F205" t="n">
+        <v>5496.7168</v>
+      </c>
+      <c r="G205" t="n">
+        <v>-181438.54423944</v>
+      </c>
+      <c r="H205" t="n">
+        <v>0</v>
+      </c>
+      <c r="I205" t="n">
+        <v>0</v>
+      </c>
+      <c r="J205" t="inlineStr"/>
+      <c r="K205" t="inlineStr"/>
+      <c r="L205" t="inlineStr"/>
+      <c r="M205" t="n">
+        <v>1</v>
+      </c>
+      <c r="N205" t="inlineStr"/>
+    </row>
+    <row r="206">
+      <c r="A206" s="1" t="n">
+        <v>204</v>
+      </c>
+      <c r="B206" t="n">
+        <v>186.9</v>
+      </c>
+      <c r="C206" t="n">
+        <v>186.9</v>
+      </c>
+      <c r="D206" t="n">
+        <v>186.9</v>
+      </c>
+      <c r="E206" t="n">
+        <v>186.9</v>
+      </c>
+      <c r="F206" t="n">
+        <v>2848.5891</v>
+      </c>
+      <c r="G206" t="n">
+        <v>-184287.13333944</v>
+      </c>
+      <c r="H206" t="n">
+        <v>0</v>
+      </c>
+      <c r="I206" t="n">
+        <v>0</v>
+      </c>
+      <c r="J206" t="inlineStr"/>
+      <c r="K206" t="inlineStr"/>
+      <c r="L206" t="inlineStr"/>
+      <c r="M206" t="n">
+        <v>1</v>
+      </c>
+      <c r="N206" t="inlineStr"/>
+    </row>
+    <row r="207">
+      <c r="A207" s="1" t="n">
+        <v>205</v>
+      </c>
+      <c r="B207" t="n">
+        <v>186.9</v>
+      </c>
+      <c r="C207" t="n">
+        <v>186.7</v>
+      </c>
+      <c r="D207" t="n">
+        <v>186.9</v>
+      </c>
+      <c r="E207" t="n">
+        <v>186.7</v>
+      </c>
+      <c r="F207" t="n">
+        <v>2780</v>
+      </c>
+      <c r="G207" t="n">
+        <v>-187067.13333944</v>
+      </c>
+      <c r="H207" t="n">
+        <v>0</v>
+      </c>
+      <c r="I207" t="n">
+        <v>0</v>
+      </c>
+      <c r="J207" t="inlineStr"/>
+      <c r="K207" t="inlineStr"/>
+      <c r="L207" t="inlineStr"/>
+      <c r="M207" t="n">
+        <v>1</v>
+      </c>
+      <c r="N207" t="inlineStr"/>
+    </row>
+    <row r="208">
+      <c r="A208" s="1" t="n">
+        <v>206</v>
+      </c>
+      <c r="B208" t="n">
+        <v>187.8</v>
+      </c>
+      <c r="C208" t="n">
+        <v>187.8</v>
+      </c>
+      <c r="D208" t="n">
+        <v>187.8</v>
+      </c>
+      <c r="E208" t="n">
+        <v>187.8</v>
+      </c>
+      <c r="F208" t="n">
+        <v>298</v>
+      </c>
+      <c r="G208" t="n">
+        <v>-186769.13333944</v>
+      </c>
+      <c r="H208" t="n">
+        <v>0</v>
+      </c>
+      <c r="I208" t="n">
+        <v>0</v>
+      </c>
+      <c r="J208" t="inlineStr"/>
+      <c r="K208" t="inlineStr"/>
+      <c r="L208" t="inlineStr"/>
+      <c r="M208" t="n">
+        <v>1</v>
+      </c>
+      <c r="N208" t="inlineStr"/>
+    </row>
+    <row r="209">
+      <c r="A209" s="1" t="n">
+        <v>207</v>
+      </c>
+      <c r="B209" t="n">
+        <v>187</v>
+      </c>
+      <c r="C209" t="n">
+        <v>187</v>
+      </c>
+      <c r="D209" t="n">
+        <v>187</v>
+      </c>
+      <c r="E209" t="n">
+        <v>187</v>
+      </c>
+      <c r="F209" t="n">
+        <v>144</v>
+      </c>
+      <c r="G209" t="n">
+        <v>-186913.13333944</v>
+      </c>
+      <c r="H209" t="n">
+        <v>0</v>
+      </c>
+      <c r="I209" t="n">
+        <v>0</v>
+      </c>
+      <c r="J209" t="inlineStr"/>
+      <c r="K209" t="inlineStr"/>
+      <c r="L209" t="inlineStr"/>
+      <c r="M209" t="n">
+        <v>1</v>
+      </c>
+      <c r="N209" t="inlineStr"/>
+    </row>
+    <row r="210">
+      <c r="A210" s="1" t="n">
+        <v>208</v>
+      </c>
+      <c r="B210" t="n">
+        <v>187</v>
+      </c>
+      <c r="C210" t="n">
+        <v>187.8</v>
+      </c>
+      <c r="D210" t="n">
+        <v>187.8</v>
+      </c>
+      <c r="E210" t="n">
         <v>186.1</v>
       </c>
-      <c r="D145" t="n">
+      <c r="F210" t="n">
+        <v>5162.0685</v>
+      </c>
+      <c r="G210" t="n">
+        <v>-181751.06483944</v>
+      </c>
+      <c r="H210" t="n">
+        <v>0</v>
+      </c>
+      <c r="I210" t="n">
+        <v>0</v>
+      </c>
+      <c r="J210" t="inlineStr"/>
+      <c r="K210" t="inlineStr"/>
+      <c r="L210" t="inlineStr"/>
+      <c r="M210" t="n">
+        <v>1</v>
+      </c>
+      <c r="N210" t="inlineStr"/>
+    </row>
+    <row r="211">
+      <c r="A211" s="1" t="n">
+        <v>209</v>
+      </c>
+      <c r="B211" t="n">
         <v>186.1</v>
       </c>
-      <c r="E145" t="n">
+      <c r="C211" t="n">
+        <v>186.1</v>
+      </c>
+      <c r="D211" t="n">
+        <v>186.1</v>
+      </c>
+      <c r="E211" t="n">
+        <v>186.1</v>
+      </c>
+      <c r="F211" t="n">
+        <v>1657.3609</v>
+      </c>
+      <c r="G211" t="n">
+        <v>-183408.42573944</v>
+      </c>
+      <c r="H211" t="n">
+        <v>0</v>
+      </c>
+      <c r="I211" t="n">
+        <v>0</v>
+      </c>
+      <c r="J211" t="inlineStr"/>
+      <c r="K211" t="inlineStr"/>
+      <c r="L211" t="inlineStr"/>
+      <c r="M211" t="n">
+        <v>1</v>
+      </c>
+      <c r="N211" t="inlineStr"/>
+    </row>
+    <row r="212">
+      <c r="A212" s="1" t="n">
+        <v>210</v>
+      </c>
+      <c r="B212" t="n">
+        <v>186.1</v>
+      </c>
+      <c r="C212" t="n">
+        <v>186.1</v>
+      </c>
+      <c r="D212" t="n">
+        <v>186.1</v>
+      </c>
+      <c r="E212" t="n">
+        <v>186.1</v>
+      </c>
+      <c r="F212" t="n">
+        <v>1366.755</v>
+      </c>
+      <c r="G212" t="n">
+        <v>-183408.42573944</v>
+      </c>
+      <c r="H212" t="n">
+        <v>0</v>
+      </c>
+      <c r="I212" t="n">
+        <v>0</v>
+      </c>
+      <c r="J212" t="inlineStr"/>
+      <c r="K212" t="inlineStr"/>
+      <c r="L212" t="inlineStr"/>
+      <c r="M212" t="n">
+        <v>1</v>
+      </c>
+      <c r="N212" t="inlineStr"/>
+    </row>
+    <row r="213">
+      <c r="A213" s="1" t="n">
+        <v>211</v>
+      </c>
+      <c r="B213" t="n">
+        <v>186.1</v>
+      </c>
+      <c r="C213" t="n">
+        <v>186.1</v>
+      </c>
+      <c r="D213" t="n">
+        <v>186.1</v>
+      </c>
+      <c r="E213" t="n">
+        <v>186.1</v>
+      </c>
+      <c r="F213" t="n">
+        <v>1936.539</v>
+      </c>
+      <c r="G213" t="n">
+        <v>-183408.42573944</v>
+      </c>
+      <c r="H213" t="n">
+        <v>0</v>
+      </c>
+      <c r="I213" t="n">
+        <v>0</v>
+      </c>
+      <c r="J213" t="inlineStr"/>
+      <c r="K213" t="inlineStr"/>
+      <c r="L213" t="inlineStr"/>
+      <c r="M213" t="n">
+        <v>1</v>
+      </c>
+      <c r="N213" t="inlineStr"/>
+    </row>
+    <row r="214">
+      <c r="A214" s="1" t="n">
+        <v>212</v>
+      </c>
+      <c r="B214" t="n">
+        <v>186.1</v>
+      </c>
+      <c r="C214" t="n">
+        <v>186.1</v>
+      </c>
+      <c r="D214" t="n">
+        <v>186.1</v>
+      </c>
+      <c r="E214" t="n">
+        <v>186.1</v>
+      </c>
+      <c r="F214" t="n">
+        <v>258.077</v>
+      </c>
+      <c r="G214" t="n">
+        <v>-183408.42573944</v>
+      </c>
+      <c r="H214" t="n">
+        <v>0</v>
+      </c>
+      <c r="I214" t="n">
+        <v>0</v>
+      </c>
+      <c r="J214" t="inlineStr"/>
+      <c r="K214" t="inlineStr"/>
+      <c r="L214" t="inlineStr"/>
+      <c r="M214" t="n">
+        <v>1</v>
+      </c>
+      <c r="N214" t="inlineStr"/>
+    </row>
+    <row r="215">
+      <c r="A215" s="1" t="n">
+        <v>213</v>
+      </c>
+      <c r="B215" t="n">
         <v>186</v>
       </c>
-      <c r="F145" t="n">
+      <c r="C215" t="n">
+        <v>186</v>
+      </c>
+      <c r="D215" t="n">
+        <v>186</v>
+      </c>
+      <c r="E215" t="n">
+        <v>186</v>
+      </c>
+      <c r="F215" t="n">
+        <v>30</v>
+      </c>
+      <c r="G215" t="n">
+        <v>-183438.42573944</v>
+      </c>
+      <c r="H215" t="n">
+        <v>0</v>
+      </c>
+      <c r="I215" t="n">
+        <v>0</v>
+      </c>
+      <c r="J215" t="inlineStr"/>
+      <c r="K215" t="inlineStr"/>
+      <c r="L215" t="inlineStr"/>
+      <c r="M215" t="n">
+        <v>1</v>
+      </c>
+      <c r="N215" t="inlineStr"/>
+    </row>
+    <row r="216">
+      <c r="A216" s="1" t="n">
+        <v>214</v>
+      </c>
+      <c r="B216" t="n">
+        <v>186</v>
+      </c>
+      <c r="C216" t="n">
+        <v>186.1</v>
+      </c>
+      <c r="D216" t="n">
+        <v>186.1</v>
+      </c>
+      <c r="E216" t="n">
+        <v>186</v>
+      </c>
+      <c r="F216" t="n">
         <v>3740</v>
       </c>
-      <c r="G145" t="n">
+      <c r="G216" t="n">
         <v>-179698.42573944</v>
       </c>
-      <c r="H145" t="n">
-        <v>1</v>
-      </c>
-      <c r="I145" t="n">
-        <v>0</v>
-      </c>
-      <c r="J145" t="n">
+      <c r="H216" t="n">
+        <v>0</v>
+      </c>
+      <c r="I216" t="n">
+        <v>0</v>
+      </c>
+      <c r="J216" t="inlineStr"/>
+      <c r="K216" t="inlineStr"/>
+      <c r="L216" t="inlineStr"/>
+      <c r="M216" t="n">
+        <v>1</v>
+      </c>
+      <c r="N216" t="inlineStr"/>
+    </row>
+    <row r="217">
+      <c r="A217" s="1" t="n">
+        <v>215</v>
+      </c>
+      <c r="B217" t="n">
+        <v>186.1</v>
+      </c>
+      <c r="C217" t="n">
+        <v>186.1</v>
+      </c>
+      <c r="D217" t="n">
+        <v>186.1</v>
+      </c>
+      <c r="E217" t="n">
+        <v>186.1</v>
+      </c>
+      <c r="F217" t="n">
+        <v>3752.0384</v>
+      </c>
+      <c r="G217" t="n">
+        <v>-179698.42573944</v>
+      </c>
+      <c r="H217" t="n">
+        <v>0</v>
+      </c>
+      <c r="I217" t="n">
+        <v>0</v>
+      </c>
+      <c r="J217" t="inlineStr"/>
+      <c r="K217" t="inlineStr"/>
+      <c r="L217" t="inlineStr"/>
+      <c r="M217" t="n">
+        <v>1</v>
+      </c>
+      <c r="N217" t="inlineStr"/>
+    </row>
+    <row r="218">
+      <c r="A218" s="1" t="n">
+        <v>216</v>
+      </c>
+      <c r="B218" t="n">
+        <v>186.1</v>
+      </c>
+      <c r="C218" t="n">
+        <v>185.4</v>
+      </c>
+      <c r="D218" t="n">
+        <v>186.1</v>
+      </c>
+      <c r="E218" t="n">
+        <v>185.4</v>
+      </c>
+      <c r="F218" t="n">
+        <v>8251.9895</v>
+      </c>
+      <c r="G218" t="n">
+        <v>-187950.41523944</v>
+      </c>
+      <c r="H218" t="n">
+        <v>0</v>
+      </c>
+      <c r="I218" t="n">
+        <v>0</v>
+      </c>
+      <c r="J218" t="inlineStr"/>
+      <c r="K218" t="inlineStr"/>
+      <c r="L218" t="inlineStr"/>
+      <c r="M218" t="n">
+        <v>1</v>
+      </c>
+      <c r="N218" t="inlineStr"/>
+    </row>
+    <row r="219">
+      <c r="A219" s="1" t="n">
+        <v>217</v>
+      </c>
+      <c r="B219" t="n">
+        <v>185.4</v>
+      </c>
+      <c r="C219" t="n">
+        <v>186.4</v>
+      </c>
+      <c r="D219" t="n">
+        <v>186.4</v>
+      </c>
+      <c r="E219" t="n">
+        <v>185.4</v>
+      </c>
+      <c r="F219" t="n">
+        <v>155.0005</v>
+      </c>
+      <c r="G219" t="n">
+        <v>-187795.41473944</v>
+      </c>
+      <c r="H219" t="n">
+        <v>0</v>
+      </c>
+      <c r="I219" t="n">
+        <v>0</v>
+      </c>
+      <c r="J219" t="inlineStr"/>
+      <c r="K219" t="inlineStr"/>
+      <c r="L219" t="inlineStr"/>
+      <c r="M219" t="n">
+        <v>1</v>
+      </c>
+      <c r="N219" t="inlineStr"/>
+    </row>
+    <row r="220">
+      <c r="A220" s="1" t="n">
+        <v>218</v>
+      </c>
+      <c r="B220" t="n">
+        <v>185.9</v>
+      </c>
+      <c r="C220" t="n">
+        <v>186.4</v>
+      </c>
+      <c r="D220" t="n">
+        <v>186.4</v>
+      </c>
+      <c r="E220" t="n">
+        <v>185.9</v>
+      </c>
+      <c r="F220" t="n">
+        <v>115.888</v>
+      </c>
+      <c r="G220" t="n">
+        <v>-187795.41473944</v>
+      </c>
+      <c r="H220" t="n">
+        <v>0</v>
+      </c>
+      <c r="I220" t="n">
+        <v>0</v>
+      </c>
+      <c r="J220" t="inlineStr"/>
+      <c r="K220" t="inlineStr"/>
+      <c r="L220" t="inlineStr"/>
+      <c r="M220" t="n">
+        <v>1</v>
+      </c>
+      <c r="N220" t="inlineStr"/>
+    </row>
+    <row r="221">
+      <c r="A221" s="1" t="n">
+        <v>219</v>
+      </c>
+      <c r="B221" t="n">
+        <v>185.6</v>
+      </c>
+      <c r="C221" t="n">
+        <v>185.6</v>
+      </c>
+      <c r="D221" t="n">
+        <v>185.6</v>
+      </c>
+      <c r="E221" t="n">
+        <v>185.6</v>
+      </c>
+      <c r="F221" t="n">
+        <v>7544.2598</v>
+      </c>
+      <c r="G221" t="n">
+        <v>-195339.67453944</v>
+      </c>
+      <c r="H221" t="n">
+        <v>0</v>
+      </c>
+      <c r="I221" t="n">
+        <v>0</v>
+      </c>
+      <c r="J221" t="inlineStr"/>
+      <c r="K221" t="inlineStr"/>
+      <c r="L221" t="inlineStr"/>
+      <c r="M221" t="n">
+        <v>1</v>
+      </c>
+      <c r="N221" t="inlineStr"/>
+    </row>
+    <row r="222">
+      <c r="A222" s="1" t="n">
+        <v>220</v>
+      </c>
+      <c r="B222" t="n">
         <v>186</v>
       </c>
-      <c r="K145" t="inlineStr"/>
-      <c r="L145" t="inlineStr">
+      <c r="C222" t="n">
+        <v>186</v>
+      </c>
+      <c r="D222" t="n">
+        <v>186</v>
+      </c>
+      <c r="E222" t="n">
+        <v>186</v>
+      </c>
+      <c r="F222" t="n">
+        <v>128.2609</v>
+      </c>
+      <c r="G222" t="n">
+        <v>-195211.4136394401</v>
+      </c>
+      <c r="H222" t="n">
+        <v>0</v>
+      </c>
+      <c r="I222" t="n">
+        <v>0</v>
+      </c>
+      <c r="J222" t="inlineStr"/>
+      <c r="K222" t="inlineStr"/>
+      <c r="L222" t="inlineStr"/>
+      <c r="M222" t="n">
+        <v>1</v>
+      </c>
+      <c r="N222" t="inlineStr"/>
+    </row>
+    <row r="223">
+      <c r="A223" s="1" t="n">
+        <v>221</v>
+      </c>
+      <c r="B223" t="n">
+        <v>186</v>
+      </c>
+      <c r="C223" t="n">
+        <v>186</v>
+      </c>
+      <c r="D223" t="n">
+        <v>186</v>
+      </c>
+      <c r="E223" t="n">
+        <v>186</v>
+      </c>
+      <c r="F223" t="n">
+        <v>166.739</v>
+      </c>
+      <c r="G223" t="n">
+        <v>-195211.4136394401</v>
+      </c>
+      <c r="H223" t="n">
+        <v>0</v>
+      </c>
+      <c r="I223" t="n">
+        <v>0</v>
+      </c>
+      <c r="J223" t="inlineStr"/>
+      <c r="K223" t="inlineStr"/>
+      <c r="L223" t="inlineStr"/>
+      <c r="M223" t="n">
+        <v>1</v>
+      </c>
+      <c r="N223" t="inlineStr"/>
+    </row>
+    <row r="224">
+      <c r="A224" s="1" t="n">
+        <v>222</v>
+      </c>
+      <c r="B224" t="n">
+        <v>186</v>
+      </c>
+      <c r="C224" t="n">
+        <v>186</v>
+      </c>
+      <c r="D224" t="n">
+        <v>187</v>
+      </c>
+      <c r="E224" t="n">
+        <v>186</v>
+      </c>
+      <c r="F224" t="n">
+        <v>131.8325</v>
+      </c>
+      <c r="G224" t="n">
+        <v>-195211.4136394401</v>
+      </c>
+      <c r="H224" t="n">
+        <v>0</v>
+      </c>
+      <c r="I224" t="n">
+        <v>0</v>
+      </c>
+      <c r="J224" t="inlineStr"/>
+      <c r="K224" t="inlineStr"/>
+      <c r="L224" t="inlineStr"/>
+      <c r="M224" t="n">
+        <v>1</v>
+      </c>
+      <c r="N224" t="inlineStr"/>
+    </row>
+    <row r="225">
+      <c r="A225" s="1" t="n">
+        <v>223</v>
+      </c>
+      <c r="B225" t="n">
+        <v>185.6</v>
+      </c>
+      <c r="C225" t="n">
+        <v>185.6</v>
+      </c>
+      <c r="D225" t="n">
+        <v>185.6</v>
+      </c>
+      <c r="E225" t="n">
+        <v>185.6</v>
+      </c>
+      <c r="F225" t="n">
+        <v>1545</v>
+      </c>
+      <c r="G225" t="n">
+        <v>-196756.4136394401</v>
+      </c>
+      <c r="H225" t="n">
+        <v>0</v>
+      </c>
+      <c r="I225" t="n">
+        <v>0</v>
+      </c>
+      <c r="J225" t="inlineStr"/>
+      <c r="K225" t="inlineStr"/>
+      <c r="L225" t="inlineStr"/>
+      <c r="M225" t="n">
+        <v>1</v>
+      </c>
+      <c r="N225" t="inlineStr"/>
+    </row>
+    <row r="226">
+      <c r="A226" s="1" t="n">
+        <v>224</v>
+      </c>
+      <c r="B226" t="n">
+        <v>185.5</v>
+      </c>
+      <c r="C226" t="n">
+        <v>185.5</v>
+      </c>
+      <c r="D226" t="n">
+        <v>185.5</v>
+      </c>
+      <c r="E226" t="n">
+        <v>185.5</v>
+      </c>
+      <c r="F226" t="n">
+        <v>430.1913</v>
+      </c>
+      <c r="G226" t="n">
+        <v>-197186.6049394401</v>
+      </c>
+      <c r="H226" t="n">
+        <v>0</v>
+      </c>
+      <c r="I226" t="n">
+        <v>0</v>
+      </c>
+      <c r="J226" t="inlineStr"/>
+      <c r="K226" t="inlineStr"/>
+      <c r="L226" t="inlineStr"/>
+      <c r="M226" t="n">
+        <v>1</v>
+      </c>
+      <c r="N226" t="inlineStr"/>
+    </row>
+    <row r="227">
+      <c r="A227" s="1" t="n">
+        <v>225</v>
+      </c>
+      <c r="B227" t="n">
+        <v>185.4</v>
+      </c>
+      <c r="C227" t="n">
+        <v>185.4</v>
+      </c>
+      <c r="D227" t="n">
+        <v>185.4</v>
+      </c>
+      <c r="E227" t="n">
+        <v>185.4</v>
+      </c>
+      <c r="F227" t="n">
+        <v>80.5029</v>
+      </c>
+      <c r="G227" t="n">
+        <v>-197267.1078394401</v>
+      </c>
+      <c r="H227" t="n">
+        <v>0</v>
+      </c>
+      <c r="I227" t="n">
+        <v>0</v>
+      </c>
+      <c r="J227" t="inlineStr"/>
+      <c r="K227" t="inlineStr"/>
+      <c r="L227" t="inlineStr"/>
+      <c r="M227" t="n">
+        <v>1</v>
+      </c>
+      <c r="N227" t="inlineStr"/>
+    </row>
+    <row r="228">
+      <c r="A228" s="1" t="n">
+        <v>226</v>
+      </c>
+      <c r="B228" t="n">
+        <v>186</v>
+      </c>
+      <c r="C228" t="n">
+        <v>187</v>
+      </c>
+      <c r="D228" t="n">
+        <v>187</v>
+      </c>
+      <c r="E228" t="n">
+        <v>186</v>
+      </c>
+      <c r="F228" t="n">
+        <v>5446.95582406</v>
+      </c>
+      <c r="G228" t="n">
+        <v>-191820.1520153801</v>
+      </c>
+      <c r="H228" t="n">
+        <v>1</v>
+      </c>
+      <c r="I228" t="n">
+        <v>0</v>
+      </c>
+      <c r="J228" t="n">
+        <v>185.4</v>
+      </c>
+      <c r="K228" t="n">
+        <v>185.4</v>
+      </c>
+      <c r="L228" t="inlineStr"/>
+      <c r="M228" t="n">
+        <v>1</v>
+      </c>
+      <c r="N228" t="inlineStr"/>
+    </row>
+    <row r="229">
+      <c r="A229" s="1" t="n">
+        <v>227</v>
+      </c>
+      <c r="B229" t="n">
+        <v>187</v>
+      </c>
+      <c r="C229" t="n">
+        <v>187</v>
+      </c>
+      <c r="D229" t="n">
+        <v>187</v>
+      </c>
+      <c r="E229" t="n">
+        <v>187</v>
+      </c>
+      <c r="F229" t="n">
+        <v>21390.37433152</v>
+      </c>
+      <c r="G229" t="n">
+        <v>-191820.1520153801</v>
+      </c>
+      <c r="H229" t="n">
+        <v>0</v>
+      </c>
+      <c r="I229" t="n">
+        <v>0</v>
+      </c>
+      <c r="J229" t="inlineStr"/>
+      <c r="K229" t="n">
+        <v>185.4</v>
+      </c>
+      <c r="L229" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="M229" t="n">
+        <v>1</v>
+      </c>
+      <c r="N229" t="inlineStr"/>
+    </row>
+    <row r="230">
+      <c r="A230" s="1" t="n">
+        <v>228</v>
+      </c>
+      <c r="B230" t="n">
+        <v>187</v>
+      </c>
+      <c r="C230" t="n">
+        <v>187</v>
+      </c>
+      <c r="D230" t="n">
+        <v>187</v>
+      </c>
+      <c r="E230" t="n">
+        <v>187</v>
+      </c>
+      <c r="F230" t="n">
+        <v>5347.59358288</v>
+      </c>
+      <c r="G230" t="n">
+        <v>-191820.1520153801</v>
+      </c>
+      <c r="H230" t="n">
+        <v>0</v>
+      </c>
+      <c r="I230" t="n">
+        <v>0</v>
+      </c>
+      <c r="J230" t="inlineStr"/>
+      <c r="K230" t="n">
+        <v>185.4</v>
+      </c>
+      <c r="L230" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="M230" t="n">
+        <v>1</v>
+      </c>
+      <c r="N230" t="inlineStr"/>
+    </row>
+    <row r="231">
+      <c r="A231" s="1" t="n">
+        <v>229</v>
+      </c>
+      <c r="B231" t="n">
+        <v>187</v>
+      </c>
+      <c r="C231" t="n">
+        <v>187</v>
+      </c>
+      <c r="D231" t="n">
+        <v>187</v>
+      </c>
+      <c r="E231" t="n">
+        <v>187</v>
+      </c>
+      <c r="F231" t="n">
+        <v>5347.59358288</v>
+      </c>
+      <c r="G231" t="n">
+        <v>-191820.1520153801</v>
+      </c>
+      <c r="H231" t="n">
+        <v>0</v>
+      </c>
+      <c r="I231" t="n">
+        <v>0</v>
+      </c>
+      <c r="J231" t="inlineStr"/>
+      <c r="K231" t="inlineStr"/>
+      <c r="L231" t="inlineStr"/>
+      <c r="M231" t="n">
+        <v>1</v>
+      </c>
+      <c r="N231" t="inlineStr"/>
+    </row>
+    <row r="232">
+      <c r="A232" s="1" t="n">
+        <v>230</v>
+      </c>
+      <c r="B232" t="n">
+        <v>187</v>
+      </c>
+      <c r="C232" t="n">
+        <v>187</v>
+      </c>
+      <c r="D232" t="n">
+        <v>187</v>
+      </c>
+      <c r="E232" t="n">
+        <v>187</v>
+      </c>
+      <c r="F232" t="n">
+        <v>9518.71657753</v>
+      </c>
+      <c r="G232" t="n">
+        <v>-191820.1520153801</v>
+      </c>
+      <c r="H232" t="n">
+        <v>0</v>
+      </c>
+      <c r="I232" t="n">
+        <v>0</v>
+      </c>
+      <c r="J232" t="inlineStr"/>
+      <c r="K232" t="inlineStr"/>
+      <c r="L232" t="inlineStr"/>
+      <c r="M232" t="n">
+        <v>1</v>
+      </c>
+      <c r="N232" t="inlineStr"/>
+    </row>
+    <row r="233">
+      <c r="A233" s="1" t="n">
+        <v>231</v>
+      </c>
+      <c r="B233" t="n">
+        <v>185.5</v>
+      </c>
+      <c r="C233" t="n">
+        <v>185.5</v>
+      </c>
+      <c r="D233" t="n">
+        <v>185.5</v>
+      </c>
+      <c r="E233" t="n">
+        <v>185.5</v>
+      </c>
+      <c r="F233" t="n">
+        <v>3141.7771</v>
+      </c>
+      <c r="G233" t="n">
+        <v>-194961.9291153801</v>
+      </c>
+      <c r="H233" t="n">
+        <v>0</v>
+      </c>
+      <c r="I233" t="n">
+        <v>0</v>
+      </c>
+      <c r="J233" t="inlineStr"/>
+      <c r="K233" t="inlineStr"/>
+      <c r="L233" t="inlineStr"/>
+      <c r="M233" t="n">
+        <v>1</v>
+      </c>
+      <c r="N233" t="inlineStr"/>
+    </row>
+    <row r="234">
+      <c r="A234" s="1" t="n">
+        <v>232</v>
+      </c>
+      <c r="B234" t="n">
+        <v>185.5</v>
+      </c>
+      <c r="C234" t="n">
+        <v>185.5</v>
+      </c>
+      <c r="D234" t="n">
+        <v>185.5</v>
+      </c>
+      <c r="E234" t="n">
+        <v>185.5</v>
+      </c>
+      <c r="F234" t="n">
+        <v>572.4395</v>
+      </c>
+      <c r="G234" t="n">
+        <v>-194961.9291153801</v>
+      </c>
+      <c r="H234" t="n">
+        <v>0</v>
+      </c>
+      <c r="I234" t="n">
+        <v>0</v>
+      </c>
+      <c r="J234" t="inlineStr"/>
+      <c r="K234" t="inlineStr"/>
+      <c r="L234" t="inlineStr"/>
+      <c r="M234" t="n">
+        <v>1</v>
+      </c>
+      <c r="N234" t="inlineStr"/>
+    </row>
+    <row r="235">
+      <c r="A235" s="1" t="n">
+        <v>233</v>
+      </c>
+      <c r="B235" t="n">
+        <v>185.3</v>
+      </c>
+      <c r="C235" t="n">
+        <v>185</v>
+      </c>
+      <c r="D235" t="n">
+        <v>185.3</v>
+      </c>
+      <c r="E235" t="n">
+        <v>185</v>
+      </c>
+      <c r="F235" t="n">
+        <v>3530.4183</v>
+      </c>
+      <c r="G235" t="n">
+        <v>-198492.3474153801</v>
+      </c>
+      <c r="H235" t="n">
+        <v>0</v>
+      </c>
+      <c r="I235" t="n">
+        <v>0</v>
+      </c>
+      <c r="J235" t="inlineStr"/>
+      <c r="K235" t="inlineStr"/>
+      <c r="L235" t="inlineStr"/>
+      <c r="M235" t="n">
+        <v>1</v>
+      </c>
+      <c r="N235" t="inlineStr"/>
+    </row>
+    <row r="236">
+      <c r="A236" s="1" t="n">
+        <v>234</v>
+      </c>
+      <c r="B236" t="n">
+        <v>185.1</v>
+      </c>
+      <c r="C236" t="n">
+        <v>184</v>
+      </c>
+      <c r="D236" t="n">
+        <v>185.1</v>
+      </c>
+      <c r="E236" t="n">
+        <v>184</v>
+      </c>
+      <c r="F236" t="n">
+        <v>19505.1451</v>
+      </c>
+      <c r="G236" t="n">
+        <v>-217997.4925153801</v>
+      </c>
+      <c r="H236" t="n">
+        <v>0</v>
+      </c>
+      <c r="I236" t="n">
+        <v>0</v>
+      </c>
+      <c r="J236" t="inlineStr"/>
+      <c r="K236" t="inlineStr"/>
+      <c r="L236" t="inlineStr"/>
+      <c r="M236" t="n">
+        <v>1</v>
+      </c>
+      <c r="N236" t="inlineStr"/>
+    </row>
+    <row r="237">
+      <c r="A237" s="1" t="n">
+        <v>235</v>
+      </c>
+      <c r="B237" t="n">
+        <v>186.6</v>
+      </c>
+      <c r="C237" t="n">
+        <v>187</v>
+      </c>
+      <c r="D237" t="n">
+        <v>187</v>
+      </c>
+      <c r="E237" t="n">
+        <v>186.6</v>
+      </c>
+      <c r="F237" t="n">
+        <v>11500</v>
+      </c>
+      <c r="G237" t="n">
+        <v>-206497.4925153801</v>
+      </c>
+      <c r="H237" t="n">
+        <v>0</v>
+      </c>
+      <c r="I237" t="n">
+        <v>0</v>
+      </c>
+      <c r="J237" t="inlineStr"/>
+      <c r="K237" t="inlineStr"/>
+      <c r="L237" t="inlineStr"/>
+      <c r="M237" t="n">
+        <v>1</v>
+      </c>
+      <c r="N237" t="inlineStr"/>
+    </row>
+    <row r="238">
+      <c r="A238" s="1" t="n">
+        <v>236</v>
+      </c>
+      <c r="B238" t="n">
+        <v>187</v>
+      </c>
+      <c r="C238" t="n">
+        <v>187</v>
+      </c>
+      <c r="D238" t="n">
+        <v>187</v>
+      </c>
+      <c r="E238" t="n">
+        <v>187</v>
+      </c>
+      <c r="F238" t="n">
+        <v>6</v>
+      </c>
+      <c r="G238" t="n">
+        <v>-206497.4925153801</v>
+      </c>
+      <c r="H238" t="n">
+        <v>0</v>
+      </c>
+      <c r="I238" t="n">
+        <v>0</v>
+      </c>
+      <c r="J238" t="inlineStr"/>
+      <c r="K238" t="inlineStr"/>
+      <c r="L238" t="inlineStr"/>
+      <c r="M238" t="n">
+        <v>1</v>
+      </c>
+      <c r="N238" t="inlineStr"/>
+    </row>
+    <row r="239">
+      <c r="A239" s="1" t="n">
+        <v>237</v>
+      </c>
+      <c r="B239" t="n">
+        <v>187</v>
+      </c>
+      <c r="C239" t="n">
+        <v>188.5</v>
+      </c>
+      <c r="D239" t="n">
+        <v>188.5</v>
+      </c>
+      <c r="E239" t="n">
+        <v>187</v>
+      </c>
+      <c r="F239" t="n">
+        <v>9515.386</v>
+      </c>
+      <c r="G239" t="n">
+        <v>-196982.1065153801</v>
+      </c>
+      <c r="H239" t="n">
+        <v>0</v>
+      </c>
+      <c r="I239" t="n">
+        <v>0</v>
+      </c>
+      <c r="J239" t="inlineStr"/>
+      <c r="K239" t="inlineStr"/>
+      <c r="L239" t="inlineStr"/>
+      <c r="M239" t="n">
+        <v>1</v>
+      </c>
+      <c r="N239" t="inlineStr"/>
+    </row>
+    <row r="240">
+      <c r="A240" s="1" t="n">
+        <v>238</v>
+      </c>
+      <c r="B240" t="n">
+        <v>187.1</v>
+      </c>
+      <c r="C240" t="n">
+        <v>187</v>
+      </c>
+      <c r="D240" t="n">
+        <v>187.1</v>
+      </c>
+      <c r="E240" t="n">
+        <v>187</v>
+      </c>
+      <c r="F240" t="n">
+        <v>1328.528</v>
+      </c>
+      <c r="G240" t="n">
+        <v>-198310.6345153801</v>
+      </c>
+      <c r="H240" t="n">
+        <v>0</v>
+      </c>
+      <c r="I240" t="n">
+        <v>0</v>
+      </c>
+      <c r="J240" t="inlineStr"/>
+      <c r="K240" t="inlineStr"/>
+      <c r="L240" t="inlineStr"/>
+      <c r="M240" t="n">
+        <v>1</v>
+      </c>
+      <c r="N240" t="inlineStr"/>
+    </row>
+    <row r="241">
+      <c r="A241" s="1" t="n">
+        <v>239</v>
+      </c>
+      <c r="B241" t="n">
+        <v>187</v>
+      </c>
+      <c r="C241" t="n">
+        <v>188</v>
+      </c>
+      <c r="D241" t="n">
+        <v>188</v>
+      </c>
+      <c r="E241" t="n">
+        <v>187</v>
+      </c>
+      <c r="F241" t="n">
+        <v>2629.84974468</v>
+      </c>
+      <c r="G241" t="n">
+        <v>-195680.7847707001</v>
+      </c>
+      <c r="H241" t="n">
+        <v>0</v>
+      </c>
+      <c r="I241" t="n">
+        <v>0</v>
+      </c>
+      <c r="J241" t="inlineStr"/>
+      <c r="K241" t="inlineStr"/>
+      <c r="L241" t="inlineStr"/>
+      <c r="M241" t="n">
+        <v>1</v>
+      </c>
+      <c r="N241" t="inlineStr"/>
+    </row>
+    <row r="242">
+      <c r="A242" s="1" t="n">
+        <v>240</v>
+      </c>
+      <c r="B242" t="n">
+        <v>186</v>
+      </c>
+      <c r="C242" t="n">
+        <v>186</v>
+      </c>
+      <c r="D242" t="n">
+        <v>186</v>
+      </c>
+      <c r="E242" t="n">
+        <v>186</v>
+      </c>
+      <c r="F242" t="n">
+        <v>547.196</v>
+      </c>
+      <c r="G242" t="n">
+        <v>-196227.9807707001</v>
+      </c>
+      <c r="H242" t="n">
+        <v>0</v>
+      </c>
+      <c r="I242" t="n">
+        <v>0</v>
+      </c>
+      <c r="J242" t="inlineStr"/>
+      <c r="K242" t="inlineStr"/>
+      <c r="L242" t="inlineStr"/>
+      <c r="M242" t="n">
+        <v>1</v>
+      </c>
+      <c r="N242" t="inlineStr"/>
+    </row>
+    <row r="243">
+      <c r="A243" s="1" t="n">
+        <v>241</v>
+      </c>
+      <c r="B243" t="n">
+        <v>186</v>
+      </c>
+      <c r="C243" t="n">
+        <v>186</v>
+      </c>
+      <c r="D243" t="n">
+        <v>186</v>
+      </c>
+      <c r="E243" t="n">
+        <v>186</v>
+      </c>
+      <c r="F243" t="n">
+        <v>461.999</v>
+      </c>
+      <c r="G243" t="n">
+        <v>-196227.9807707001</v>
+      </c>
+      <c r="H243" t="n">
+        <v>0</v>
+      </c>
+      <c r="I243" t="n">
+        <v>0</v>
+      </c>
+      <c r="J243" t="inlineStr"/>
+      <c r="K243" t="inlineStr"/>
+      <c r="L243" t="inlineStr"/>
+      <c r="M243" t="n">
+        <v>1</v>
+      </c>
+      <c r="N243" t="inlineStr"/>
+    </row>
+    <row r="244">
+      <c r="A244" s="1" t="n">
+        <v>242</v>
+      </c>
+      <c r="B244" t="n">
+        <v>186</v>
+      </c>
+      <c r="C244" t="n">
+        <v>186</v>
+      </c>
+      <c r="D244" t="n">
+        <v>186</v>
+      </c>
+      <c r="E244" t="n">
+        <v>186</v>
+      </c>
+      <c r="F244" t="n">
+        <v>726.654</v>
+      </c>
+      <c r="G244" t="n">
+        <v>-196227.9807707001</v>
+      </c>
+      <c r="H244" t="n">
+        <v>0</v>
+      </c>
+      <c r="I244" t="n">
+        <v>0</v>
+      </c>
+      <c r="J244" t="inlineStr"/>
+      <c r="K244" t="inlineStr"/>
+      <c r="L244" t="inlineStr"/>
+      <c r="M244" t="n">
+        <v>1</v>
+      </c>
+      <c r="N244" t="inlineStr"/>
+    </row>
+    <row r="245">
+      <c r="A245" s="1" t="n">
+        <v>243</v>
+      </c>
+      <c r="B245" t="n">
+        <v>186.4</v>
+      </c>
+      <c r="C245" t="n">
+        <v>186.4</v>
+      </c>
+      <c r="D245" t="n">
+        <v>186.4</v>
+      </c>
+      <c r="E245" t="n">
+        <v>186.4</v>
+      </c>
+      <c r="F245" t="n">
+        <v>360.0871</v>
+      </c>
+      <c r="G245" t="n">
+        <v>-195867.8936707001</v>
+      </c>
+      <c r="H245" t="n">
+        <v>1</v>
+      </c>
+      <c r="I245" t="n">
+        <v>0</v>
+      </c>
+      <c r="J245" t="n">
+        <v>186</v>
+      </c>
+      <c r="K245" t="n">
+        <v>186</v>
+      </c>
+      <c r="L245" t="inlineStr"/>
+      <c r="M245" t="n">
+        <v>1</v>
+      </c>
+      <c r="N245" t="inlineStr"/>
+    </row>
+    <row r="246">
+      <c r="A246" s="1" t="n">
+        <v>244</v>
+      </c>
+      <c r="B246" t="n">
+        <v>186.2</v>
+      </c>
+      <c r="C246" t="n">
+        <v>186.2</v>
+      </c>
+      <c r="D246" t="n">
+        <v>186.2</v>
+      </c>
+      <c r="E246" t="n">
+        <v>186.2</v>
+      </c>
+      <c r="F246" t="n">
+        <v>128.2355</v>
+      </c>
+      <c r="G246" t="n">
+        <v>-195996.1291707001</v>
+      </c>
+      <c r="H246" t="n">
+        <v>1</v>
+      </c>
+      <c r="I246" t="n">
+        <v>0</v>
+      </c>
+      <c r="J246" t="n">
+        <v>186.4</v>
+      </c>
+      <c r="K246" t="n">
+        <v>186</v>
+      </c>
+      <c r="L246" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="M246" t="n">
+        <v>1</v>
+      </c>
+      <c r="N246" t="inlineStr"/>
+    </row>
+    <row r="247">
+      <c r="A247" s="1" t="n">
+        <v>245</v>
+      </c>
+      <c r="B247" t="n">
+        <v>186.2</v>
+      </c>
+      <c r="C247" t="n">
+        <v>186.2</v>
+      </c>
+      <c r="D247" t="n">
+        <v>186.2</v>
+      </c>
+      <c r="E247" t="n">
+        <v>186.2</v>
+      </c>
+      <c r="F247" t="n">
+        <v>2613.0141</v>
+      </c>
+      <c r="G247" t="n">
+        <v>-195996.1291707001</v>
+      </c>
+      <c r="H247" t="n">
+        <v>1</v>
+      </c>
+      <c r="I247" t="n">
+        <v>0</v>
+      </c>
+      <c r="J247" t="n">
+        <v>186.2</v>
+      </c>
+      <c r="K247" t="n">
+        <v>186</v>
+      </c>
+      <c r="L247" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="M247" t="n">
+        <v>1</v>
+      </c>
+      <c r="N247" t="inlineStr"/>
+    </row>
+    <row r="248">
+      <c r="A248" s="1" t="n">
+        <v>246</v>
+      </c>
+      <c r="B248" t="n">
+        <v>186</v>
+      </c>
+      <c r="C248" t="n">
+        <v>186.2</v>
+      </c>
+      <c r="D248" t="n">
+        <v>186.2</v>
+      </c>
+      <c r="E248" t="n">
+        <v>186</v>
+      </c>
+      <c r="F248" t="n">
+        <v>2676.642</v>
+      </c>
+      <c r="G248" t="n">
+        <v>-195996.1291707001</v>
+      </c>
+      <c r="H248" t="n">
+        <v>1</v>
+      </c>
+      <c r="I248" t="n">
+        <v>0</v>
+      </c>
+      <c r="J248" t="n">
+        <v>186.2</v>
+      </c>
+      <c r="K248" t="n">
+        <v>186</v>
+      </c>
+      <c r="L248" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="M145" t="n">
-        <v>1</v>
-      </c>
-      <c r="N145" t="inlineStr"/>
-    </row>
-    <row r="146">
-      <c r="A146" s="1" t="n">
-        <v>144</v>
-      </c>
-      <c r="B146" t="n">
+      <c r="M248" t="n">
+        <v>1</v>
+      </c>
+      <c r="N248" t="inlineStr"/>
+    </row>
+    <row r="249">
+      <c r="A249" s="1" t="n">
+        <v>247</v>
+      </c>
+      <c r="B249" t="n">
         <v>186.1</v>
       </c>
-      <c r="C146" t="n">
+      <c r="C249" t="n">
+        <v>186.2</v>
+      </c>
+      <c r="D249" t="n">
+        <v>186.2</v>
+      </c>
+      <c r="E249" t="n">
         <v>186.1</v>
       </c>
-      <c r="D146" t="n">
-        <v>186.1</v>
-      </c>
-      <c r="E146" t="n">
-        <v>186.1</v>
-      </c>
-      <c r="F146" t="n">
-        <v>3752.0384</v>
-      </c>
-      <c r="G146" t="n">
-        <v>-179698.42573944</v>
-      </c>
-      <c r="H146" t="n">
-        <v>1</v>
-      </c>
-      <c r="I146" t="n">
-        <v>0</v>
-      </c>
-      <c r="J146" t="n">
-        <v>186.1</v>
-      </c>
-      <c r="K146" t="inlineStr"/>
-      <c r="L146" t="inlineStr">
+      <c r="F249" t="n">
+        <v>1700</v>
+      </c>
+      <c r="G249" t="n">
+        <v>-195996.1291707001</v>
+      </c>
+      <c r="H249" t="n">
+        <v>1</v>
+      </c>
+      <c r="I249" t="n">
+        <v>0</v>
+      </c>
+      <c r="J249" t="n">
+        <v>186.2</v>
+      </c>
+      <c r="K249" t="n">
+        <v>186</v>
+      </c>
+      <c r="L249" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M146" t="n">
-        <v>1</v>
-      </c>
-      <c r="N146" t="inlineStr"/>
-    </row>
-    <row r="147">
-      <c r="A147" s="1" t="n">
-        <v>145</v>
-      </c>
-      <c r="B147" t="n">
-        <v>186.1</v>
-      </c>
-      <c r="C147" t="n">
-        <v>185.4</v>
-      </c>
-      <c r="D147" t="n">
-        <v>186.1</v>
-      </c>
-      <c r="E147" t="n">
-        <v>185.4</v>
-      </c>
-      <c r="F147" t="n">
-        <v>8251.9895</v>
-      </c>
-      <c r="G147" t="n">
-        <v>-187950.41523944</v>
-      </c>
-      <c r="H147" t="n">
-        <v>1</v>
-      </c>
-      <c r="I147" t="n">
-        <v>0</v>
-      </c>
-      <c r="J147" t="n">
-        <v>186.1</v>
-      </c>
-      <c r="K147" t="inlineStr"/>
-      <c r="L147" t="inlineStr">
+      <c r="M249" t="n">
+        <v>1</v>
+      </c>
+      <c r="N249" t="inlineStr"/>
+    </row>
+    <row r="250">
+      <c r="A250" s="1" t="n">
+        <v>248</v>
+      </c>
+      <c r="B250" t="n">
+        <v>186.2</v>
+      </c>
+      <c r="C250" t="n">
+        <v>186.2</v>
+      </c>
+      <c r="D250" t="n">
+        <v>186.2</v>
+      </c>
+      <c r="E250" t="n">
+        <v>186.2</v>
+      </c>
+      <c r="F250" t="n">
+        <v>122.5035</v>
+      </c>
+      <c r="G250" t="n">
+        <v>-195996.1291707001</v>
+      </c>
+      <c r="H250" t="n">
+        <v>1</v>
+      </c>
+      <c r="I250" t="n">
+        <v>0</v>
+      </c>
+      <c r="J250" t="n">
+        <v>186.2</v>
+      </c>
+      <c r="K250" t="n">
+        <v>186</v>
+      </c>
+      <c r="L250" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M147" t="n">
-        <v>1</v>
-      </c>
-      <c r="N147" t="inlineStr"/>
-    </row>
-    <row r="148">
-      <c r="A148" s="1" t="n">
-        <v>146</v>
-      </c>
-      <c r="B148" t="n">
-        <v>185.4</v>
-      </c>
-      <c r="C148" t="n">
-        <v>186.4</v>
-      </c>
-      <c r="D148" t="n">
-        <v>186.4</v>
-      </c>
-      <c r="E148" t="n">
-        <v>185.4</v>
-      </c>
-      <c r="F148" t="n">
-        <v>155.0005</v>
-      </c>
-      <c r="G148" t="n">
-        <v>-187795.41473944</v>
-      </c>
-      <c r="H148" t="n">
-        <v>1</v>
-      </c>
-      <c r="I148" t="n">
-        <v>0</v>
-      </c>
-      <c r="J148" t="n">
-        <v>185.4</v>
-      </c>
-      <c r="K148" t="inlineStr"/>
-      <c r="L148" t="inlineStr">
+      <c r="M250" t="n">
+        <v>1</v>
+      </c>
+      <c r="N250" t="inlineStr"/>
+    </row>
+    <row r="251">
+      <c r="A251" s="1" t="n">
+        <v>249</v>
+      </c>
+      <c r="B251" t="n">
+        <v>186.2</v>
+      </c>
+      <c r="C251" t="n">
+        <v>186.2</v>
+      </c>
+      <c r="D251" t="n">
+        <v>186.2</v>
+      </c>
+      <c r="E251" t="n">
+        <v>186.2</v>
+      </c>
+      <c r="F251" t="n">
+        <v>98.4203</v>
+      </c>
+      <c r="G251" t="n">
+        <v>-195996.1291707001</v>
+      </c>
+      <c r="H251" t="n">
+        <v>1</v>
+      </c>
+      <c r="I251" t="n">
+        <v>0</v>
+      </c>
+      <c r="J251" t="n">
+        <v>186.2</v>
+      </c>
+      <c r="K251" t="n">
+        <v>186</v>
+      </c>
+      <c r="L251" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M148" t="n">
-        <v>1</v>
-      </c>
-      <c r="N148" t="inlineStr"/>
-    </row>
-    <row r="149">
-      <c r="A149" s="1" t="n">
-        <v>147</v>
-      </c>
-      <c r="B149" t="n">
-        <v>185.9</v>
-      </c>
-      <c r="C149" t="n">
-        <v>186.4</v>
-      </c>
-      <c r="D149" t="n">
-        <v>186.4</v>
-      </c>
-      <c r="E149" t="n">
-        <v>185.9</v>
-      </c>
-      <c r="F149" t="n">
-        <v>115.888</v>
-      </c>
-      <c r="G149" t="n">
-        <v>-187795.41473944</v>
-      </c>
-      <c r="H149" t="n">
-        <v>1</v>
-      </c>
-      <c r="I149" t="n">
-        <v>0</v>
-      </c>
-      <c r="J149" t="n">
-        <v>186.4</v>
-      </c>
-      <c r="K149" t="inlineStr"/>
-      <c r="L149" t="inlineStr">
+      <c r="M251" t="n">
+        <v>1</v>
+      </c>
+      <c r="N251" t="inlineStr"/>
+    </row>
+    <row r="252">
+      <c r="A252" s="1" t="n">
+        <v>250</v>
+      </c>
+      <c r="B252" t="n">
+        <v>186.2</v>
+      </c>
+      <c r="C252" t="n">
+        <v>186.2</v>
+      </c>
+      <c r="D252" t="n">
+        <v>186.2</v>
+      </c>
+      <c r="E252" t="n">
+        <v>186.2</v>
+      </c>
+      <c r="F252" t="n">
+        <v>1220</v>
+      </c>
+      <c r="G252" t="n">
+        <v>-195996.1291707001</v>
+      </c>
+      <c r="H252" t="n">
+        <v>1</v>
+      </c>
+      <c r="I252" t="n">
+        <v>0</v>
+      </c>
+      <c r="J252" t="n">
+        <v>186.2</v>
+      </c>
+      <c r="K252" t="n">
+        <v>186</v>
+      </c>
+      <c r="L252" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M149" t="n">
-        <v>1</v>
-      </c>
-      <c r="N149" t="inlineStr"/>
-    </row>
-    <row r="150">
-      <c r="A150" s="1" t="n">
-        <v>148</v>
-      </c>
-      <c r="B150" t="n">
-        <v>185.6</v>
-      </c>
-      <c r="C150" t="n">
-        <v>185.6</v>
-      </c>
-      <c r="D150" t="n">
-        <v>185.6</v>
-      </c>
-      <c r="E150" t="n">
-        <v>185.6</v>
-      </c>
-      <c r="F150" t="n">
-        <v>7544.2598</v>
-      </c>
-      <c r="G150" t="n">
-        <v>-195339.67453944</v>
-      </c>
-      <c r="H150" t="n">
-        <v>0</v>
-      </c>
-      <c r="I150" t="n">
-        <v>0</v>
-      </c>
-      <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr"/>
-      <c r="L150" t="inlineStr">
+      <c r="M252" t="n">
+        <v>1</v>
+      </c>
+      <c r="N252" t="inlineStr"/>
+    </row>
+    <row r="253">
+      <c r="A253" s="1" t="n">
+        <v>251</v>
+      </c>
+      <c r="B253" t="n">
+        <v>186.2</v>
+      </c>
+      <c r="C253" t="n">
+        <v>186.2</v>
+      </c>
+      <c r="D253" t="n">
+        <v>186.2</v>
+      </c>
+      <c r="E253" t="n">
+        <v>186.2</v>
+      </c>
+      <c r="F253" t="n">
+        <v>1700</v>
+      </c>
+      <c r="G253" t="n">
+        <v>-195996.1291707001</v>
+      </c>
+      <c r="H253" t="n">
+        <v>1</v>
+      </c>
+      <c r="I253" t="n">
+        <v>0</v>
+      </c>
+      <c r="J253" t="n">
+        <v>186.2</v>
+      </c>
+      <c r="K253" t="n">
+        <v>186</v>
+      </c>
+      <c r="L253" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M150" t="n">
-        <v>1</v>
-      </c>
-      <c r="N150" t="inlineStr"/>
-    </row>
-    <row r="151">
-      <c r="A151" s="1" t="n">
-        <v>149</v>
-      </c>
-      <c r="B151" t="n">
+      <c r="M253" t="n">
+        <v>1</v>
+      </c>
+      <c r="N253" t="inlineStr"/>
+    </row>
+    <row r="254">
+      <c r="A254" s="1" t="n">
+        <v>252</v>
+      </c>
+      <c r="B254" t="n">
+        <v>186.2</v>
+      </c>
+      <c r="C254" t="n">
+        <v>186.2</v>
+      </c>
+      <c r="D254" t="n">
+        <v>186.2</v>
+      </c>
+      <c r="E254" t="n">
+        <v>186.2</v>
+      </c>
+      <c r="F254" t="n">
+        <v>8927.824000000001</v>
+      </c>
+      <c r="G254" t="n">
+        <v>-195996.1291707001</v>
+      </c>
+      <c r="H254" t="n">
+        <v>1</v>
+      </c>
+      <c r="I254" t="n">
+        <v>0</v>
+      </c>
+      <c r="J254" t="n">
+        <v>186.2</v>
+      </c>
+      <c r="K254" t="n">
         <v>186</v>
       </c>
-      <c r="C151" t="n">
-        <v>186</v>
-      </c>
-      <c r="D151" t="n">
-        <v>186</v>
-      </c>
-      <c r="E151" t="n">
-        <v>186</v>
-      </c>
-      <c r="F151" t="n">
-        <v>128.2609</v>
-      </c>
-      <c r="G151" t="n">
-        <v>-195211.4136394401</v>
-      </c>
-      <c r="H151" t="n">
-        <v>1</v>
-      </c>
-      <c r="I151" t="n">
-        <v>0</v>
-      </c>
-      <c r="J151" t="n">
-        <v>185.6</v>
-      </c>
-      <c r="K151" t="inlineStr"/>
-      <c r="L151" t="inlineStr">
+      <c r="L254" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M151" t="n">
-        <v>1</v>
-      </c>
-      <c r="N151" t="inlineStr"/>
-    </row>
-    <row r="152">
-      <c r="A152" s="1" t="n">
-        <v>150</v>
-      </c>
-      <c r="B152" t="n">
-        <v>186</v>
-      </c>
-      <c r="C152" t="n">
-        <v>186</v>
-      </c>
-      <c r="D152" t="n">
-        <v>186</v>
-      </c>
-      <c r="E152" t="n">
-        <v>186</v>
-      </c>
-      <c r="F152" t="n">
-        <v>166.739</v>
-      </c>
-      <c r="G152" t="n">
-        <v>-195211.4136394401</v>
-      </c>
-      <c r="H152" t="n">
-        <v>0</v>
-      </c>
-      <c r="I152" t="n">
-        <v>0</v>
-      </c>
-      <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr"/>
-      <c r="L152" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M152" t="n">
-        <v>1</v>
-      </c>
-      <c r="N152" t="inlineStr"/>
-    </row>
-    <row r="153">
-      <c r="A153" s="1" t="n">
-        <v>151</v>
-      </c>
-      <c r="B153" t="n">
-        <v>186</v>
-      </c>
-      <c r="C153" t="n">
-        <v>186</v>
-      </c>
-      <c r="D153" t="n">
-        <v>187</v>
-      </c>
-      <c r="E153" t="n">
-        <v>186</v>
-      </c>
-      <c r="F153" t="n">
-        <v>131.8325</v>
-      </c>
-      <c r="G153" t="n">
-        <v>-195211.4136394401</v>
-      </c>
-      <c r="H153" t="n">
-        <v>0</v>
-      </c>
-      <c r="I153" t="n">
-        <v>0</v>
-      </c>
-      <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr"/>
-      <c r="L153" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M153" t="n">
-        <v>1</v>
-      </c>
-      <c r="N153" t="inlineStr"/>
-    </row>
-    <row r="154">
-      <c r="A154" s="1" t="n">
-        <v>152</v>
-      </c>
-      <c r="B154" t="n">
-        <v>185.6</v>
-      </c>
-      <c r="C154" t="n">
-        <v>185.6</v>
-      </c>
-      <c r="D154" t="n">
-        <v>185.6</v>
-      </c>
-      <c r="E154" t="n">
-        <v>185.6</v>
-      </c>
-      <c r="F154" t="n">
-        <v>1545</v>
-      </c>
-      <c r="G154" t="n">
-        <v>-196756.4136394401</v>
-      </c>
-      <c r="H154" t="n">
-        <v>1</v>
-      </c>
-      <c r="I154" t="n">
-        <v>0</v>
-      </c>
-      <c r="J154" t="n">
-        <v>186</v>
-      </c>
-      <c r="K154" t="inlineStr"/>
-      <c r="L154" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M154" t="n">
-        <v>1</v>
-      </c>
-      <c r="N154" t="inlineStr"/>
-    </row>
-    <row r="155">
-      <c r="A155" s="1" t="n">
-        <v>153</v>
-      </c>
-      <c r="B155" t="n">
-        <v>185.5</v>
-      </c>
-      <c r="C155" t="n">
-        <v>185.5</v>
-      </c>
-      <c r="D155" t="n">
-        <v>185.5</v>
-      </c>
-      <c r="E155" t="n">
-        <v>185.5</v>
-      </c>
-      <c r="F155" t="n">
-        <v>430.1913</v>
-      </c>
-      <c r="G155" t="n">
-        <v>-197186.6049394401</v>
-      </c>
-      <c r="H155" t="n">
-        <v>1</v>
-      </c>
-      <c r="I155" t="n">
-        <v>0</v>
-      </c>
-      <c r="J155" t="n">
-        <v>185.6</v>
-      </c>
-      <c r="K155" t="inlineStr"/>
-      <c r="L155" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M155" t="n">
-        <v>1</v>
-      </c>
-      <c r="N155" t="inlineStr"/>
-    </row>
-    <row r="156">
-      <c r="A156" s="1" t="n">
-        <v>154</v>
-      </c>
-      <c r="B156" t="n">
-        <v>185.4</v>
-      </c>
-      <c r="C156" t="n">
-        <v>185.4</v>
-      </c>
-      <c r="D156" t="n">
-        <v>185.4</v>
-      </c>
-      <c r="E156" t="n">
-        <v>185.4</v>
-      </c>
-      <c r="F156" t="n">
-        <v>80.5029</v>
-      </c>
-      <c r="G156" t="n">
-        <v>-197267.1078394401</v>
-      </c>
-      <c r="H156" t="n">
-        <v>1</v>
-      </c>
-      <c r="I156" t="n">
-        <v>0</v>
-      </c>
-      <c r="J156" t="n">
-        <v>185.5</v>
-      </c>
-      <c r="K156" t="inlineStr"/>
-      <c r="L156" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M156" t="n">
-        <v>1</v>
-      </c>
-      <c r="N156" t="inlineStr"/>
-    </row>
-    <row r="157">
-      <c r="A157" s="1" t="n">
-        <v>155</v>
-      </c>
-      <c r="B157" t="n">
-        <v>186</v>
-      </c>
-      <c r="C157" t="n">
-        <v>187</v>
-      </c>
-      <c r="D157" t="n">
-        <v>187</v>
-      </c>
-      <c r="E157" t="n">
-        <v>186</v>
-      </c>
-      <c r="F157" t="n">
-        <v>5446.95582406</v>
-      </c>
-      <c r="G157" t="n">
-        <v>-191820.1520153801</v>
-      </c>
-      <c r="H157" t="n">
-        <v>1</v>
-      </c>
-      <c r="I157" t="n">
-        <v>0</v>
-      </c>
-      <c r="J157" t="n">
-        <v>185.4</v>
-      </c>
-      <c r="K157" t="inlineStr"/>
-      <c r="L157" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M157" t="n">
-        <v>1</v>
-      </c>
-      <c r="N157" t="inlineStr"/>
-    </row>
-    <row r="158">
-      <c r="A158" s="1" t="n">
-        <v>156</v>
-      </c>
-      <c r="B158" t="n">
-        <v>187</v>
-      </c>
-      <c r="C158" t="n">
-        <v>187</v>
-      </c>
-      <c r="D158" t="n">
-        <v>187</v>
-      </c>
-      <c r="E158" t="n">
-        <v>187</v>
-      </c>
-      <c r="F158" t="n">
-        <v>21390.37433152</v>
-      </c>
-      <c r="G158" t="n">
-        <v>-191820.1520153801</v>
-      </c>
-      <c r="H158" t="n">
-        <v>1</v>
-      </c>
-      <c r="I158" t="n">
-        <v>0</v>
-      </c>
-      <c r="J158" t="n">
-        <v>187</v>
-      </c>
-      <c r="K158" t="inlineStr"/>
-      <c r="L158" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M158" t="n">
-        <v>1</v>
-      </c>
-      <c r="N158" t="inlineStr"/>
-    </row>
-    <row r="159">
-      <c r="A159" s="1" t="n">
-        <v>157</v>
-      </c>
-      <c r="B159" t="n">
-        <v>187</v>
-      </c>
-      <c r="C159" t="n">
-        <v>187</v>
-      </c>
-      <c r="D159" t="n">
-        <v>187</v>
-      </c>
-      <c r="E159" t="n">
-        <v>187</v>
-      </c>
-      <c r="F159" t="n">
-        <v>5347.59358288</v>
-      </c>
-      <c r="G159" t="n">
-        <v>-191820.1520153801</v>
-      </c>
-      <c r="H159" t="n">
-        <v>0</v>
-      </c>
-      <c r="I159" t="n">
-        <v>0</v>
-      </c>
-      <c r="J159" t="inlineStr"/>
-      <c r="K159" t="inlineStr"/>
-      <c r="L159" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M159" t="n">
-        <v>1</v>
-      </c>
-      <c r="N159" t="inlineStr"/>
-    </row>
-    <row r="160">
-      <c r="A160" s="1" t="n">
-        <v>158</v>
-      </c>
-      <c r="B160" t="n">
-        <v>187</v>
-      </c>
-      <c r="C160" t="n">
-        <v>187</v>
-      </c>
-      <c r="D160" t="n">
-        <v>187</v>
-      </c>
-      <c r="E160" t="n">
-        <v>187</v>
-      </c>
-      <c r="F160" t="n">
-        <v>5347.59358288</v>
-      </c>
-      <c r="G160" t="n">
-        <v>-191820.1520153801</v>
-      </c>
-      <c r="H160" t="n">
-        <v>0</v>
-      </c>
-      <c r="I160" t="n">
-        <v>0</v>
-      </c>
-      <c r="J160" t="inlineStr"/>
-      <c r="K160" t="inlineStr"/>
-      <c r="L160" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M160" t="n">
-        <v>1</v>
-      </c>
-      <c r="N160" t="inlineStr"/>
-    </row>
-    <row r="161">
-      <c r="A161" s="1" t="n">
-        <v>159</v>
-      </c>
-      <c r="B161" t="n">
-        <v>187</v>
-      </c>
-      <c r="C161" t="n">
-        <v>187</v>
-      </c>
-      <c r="D161" t="n">
-        <v>187</v>
-      </c>
-      <c r="E161" t="n">
-        <v>187</v>
-      </c>
-      <c r="F161" t="n">
-        <v>9518.71657753</v>
-      </c>
-      <c r="G161" t="n">
-        <v>-191820.1520153801</v>
-      </c>
-      <c r="H161" t="n">
-        <v>0</v>
-      </c>
-      <c r="I161" t="n">
-        <v>0</v>
-      </c>
-      <c r="J161" t="inlineStr"/>
-      <c r="K161" t="inlineStr"/>
-      <c r="L161" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M161" t="n">
-        <v>1</v>
-      </c>
-      <c r="N161" t="inlineStr"/>
-    </row>
-    <row r="162">
-      <c r="A162" s="1" t="n">
-        <v>160</v>
-      </c>
-      <c r="B162" t="n">
-        <v>185.5</v>
-      </c>
-      <c r="C162" t="n">
-        <v>185.5</v>
-      </c>
-      <c r="D162" t="n">
-        <v>185.5</v>
-      </c>
-      <c r="E162" t="n">
-        <v>185.5</v>
-      </c>
-      <c r="F162" t="n">
-        <v>3141.7771</v>
-      </c>
-      <c r="G162" t="n">
-        <v>-194961.9291153801</v>
-      </c>
-      <c r="H162" t="n">
-        <v>0</v>
-      </c>
-      <c r="I162" t="n">
-        <v>0</v>
-      </c>
-      <c r="J162" t="inlineStr"/>
-      <c r="K162" t="inlineStr"/>
-      <c r="L162" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M162" t="n">
-        <v>1</v>
-      </c>
-      <c r="N162" t="inlineStr"/>
-    </row>
-    <row r="163">
-      <c r="A163" s="1" t="n">
-        <v>161</v>
-      </c>
-      <c r="B163" t="n">
-        <v>185.5</v>
-      </c>
-      <c r="C163" t="n">
-        <v>185.5</v>
-      </c>
-      <c r="D163" t="n">
-        <v>185.5</v>
-      </c>
-      <c r="E163" t="n">
-        <v>185.5</v>
-      </c>
-      <c r="F163" t="n">
-        <v>572.4395</v>
-      </c>
-      <c r="G163" t="n">
-        <v>-194961.9291153801</v>
-      </c>
-      <c r="H163" t="n">
-        <v>0</v>
-      </c>
-      <c r="I163" t="n">
-        <v>0</v>
-      </c>
-      <c r="J163" t="inlineStr"/>
-      <c r="K163" t="inlineStr"/>
-      <c r="L163" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M163" t="n">
-        <v>1</v>
-      </c>
-      <c r="N163" t="inlineStr"/>
-    </row>
-    <row r="164">
-      <c r="A164" s="1" t="n">
-        <v>162</v>
-      </c>
-      <c r="B164" t="n">
-        <v>185.3</v>
-      </c>
-      <c r="C164" t="n">
-        <v>185</v>
-      </c>
-      <c r="D164" t="n">
-        <v>185.3</v>
-      </c>
-      <c r="E164" t="n">
-        <v>185</v>
-      </c>
-      <c r="F164" t="n">
-        <v>3530.4183</v>
-      </c>
-      <c r="G164" t="n">
-        <v>-198492.3474153801</v>
-      </c>
-      <c r="H164" t="n">
-        <v>0</v>
-      </c>
-      <c r="I164" t="n">
-        <v>0</v>
-      </c>
-      <c r="J164" t="inlineStr"/>
-      <c r="K164" t="inlineStr"/>
-      <c r="L164" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M164" t="n">
-        <v>1</v>
-      </c>
-      <c r="N164" t="inlineStr"/>
-    </row>
-    <row r="165">
-      <c r="A165" s="1" t="n">
-        <v>163</v>
-      </c>
-      <c r="B165" t="n">
-        <v>185.1</v>
-      </c>
-      <c r="C165" t="n">
-        <v>184</v>
-      </c>
-      <c r="D165" t="n">
-        <v>185.1</v>
-      </c>
-      <c r="E165" t="n">
-        <v>184</v>
-      </c>
-      <c r="F165" t="n">
-        <v>19505.1451</v>
-      </c>
-      <c r="G165" t="n">
-        <v>-217997.4925153801</v>
-      </c>
-      <c r="H165" t="n">
-        <v>0</v>
-      </c>
-      <c r="I165" t="n">
-        <v>0</v>
-      </c>
-      <c r="J165" t="inlineStr"/>
-      <c r="K165" t="inlineStr"/>
-      <c r="L165" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M165" t="n">
-        <v>1</v>
-      </c>
-      <c r="N165" t="inlineStr"/>
-    </row>
-    <row r="166">
-      <c r="A166" s="1" t="n">
-        <v>164</v>
-      </c>
-      <c r="B166" t="n">
-        <v>186.6</v>
-      </c>
-      <c r="C166" t="n">
-        <v>187</v>
-      </c>
-      <c r="D166" t="n">
-        <v>187</v>
-      </c>
-      <c r="E166" t="n">
-        <v>186.6</v>
-      </c>
-      <c r="F166" t="n">
-        <v>11500</v>
-      </c>
-      <c r="G166" t="n">
-        <v>-206497.4925153801</v>
-      </c>
-      <c r="H166" t="n">
-        <v>0</v>
-      </c>
-      <c r="I166" t="n">
-        <v>0</v>
-      </c>
-      <c r="J166" t="inlineStr"/>
-      <c r="K166" t="inlineStr"/>
-      <c r="L166" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M166" t="n">
-        <v>1</v>
-      </c>
-      <c r="N166" t="inlineStr"/>
-    </row>
-    <row r="167">
-      <c r="A167" s="1" t="n">
-        <v>165</v>
-      </c>
-      <c r="B167" t="n">
-        <v>187</v>
-      </c>
-      <c r="C167" t="n">
-        <v>187</v>
-      </c>
-      <c r="D167" t="n">
-        <v>187</v>
-      </c>
-      <c r="E167" t="n">
-        <v>187</v>
-      </c>
-      <c r="F167" t="n">
-        <v>6</v>
-      </c>
-      <c r="G167" t="n">
-        <v>-206497.4925153801</v>
-      </c>
-      <c r="H167" t="n">
-        <v>0</v>
-      </c>
-      <c r="I167" t="n">
-        <v>0</v>
-      </c>
-      <c r="J167" t="inlineStr"/>
-      <c r="K167" t="inlineStr"/>
-      <c r="L167" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M167" t="n">
-        <v>1</v>
-      </c>
-      <c r="N167" t="inlineStr"/>
-    </row>
-    <row r="168">
-      <c r="A168" s="1" t="n">
-        <v>166</v>
-      </c>
-      <c r="B168" t="n">
-        <v>187</v>
-      </c>
-      <c r="C168" t="n">
-        <v>188.5</v>
-      </c>
-      <c r="D168" t="n">
-        <v>188.5</v>
-      </c>
-      <c r="E168" t="n">
-        <v>187</v>
-      </c>
-      <c r="F168" t="n">
-        <v>9515.386</v>
-      </c>
-      <c r="G168" t="n">
-        <v>-196982.1065153801</v>
-      </c>
-      <c r="H168" t="n">
-        <v>0</v>
-      </c>
-      <c r="I168" t="n">
-        <v>0</v>
-      </c>
-      <c r="J168" t="inlineStr"/>
-      <c r="K168" t="inlineStr"/>
-      <c r="L168" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M168" t="n">
-        <v>1</v>
-      </c>
-      <c r="N168" t="inlineStr"/>
-    </row>
-    <row r="169">
-      <c r="A169" s="1" t="n">
-        <v>167</v>
-      </c>
-      <c r="B169" t="n">
-        <v>187.1</v>
-      </c>
-      <c r="C169" t="n">
-        <v>187</v>
-      </c>
-      <c r="D169" t="n">
-        <v>187.1</v>
-      </c>
-      <c r="E169" t="n">
-        <v>187</v>
-      </c>
-      <c r="F169" t="n">
-        <v>1328.528</v>
-      </c>
-      <c r="G169" t="n">
-        <v>-198310.6345153801</v>
-      </c>
-      <c r="H169" t="n">
-        <v>0</v>
-      </c>
-      <c r="I169" t="n">
-        <v>0</v>
-      </c>
-      <c r="J169" t="inlineStr"/>
-      <c r="K169" t="inlineStr"/>
-      <c r="L169" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M169" t="n">
-        <v>1</v>
-      </c>
-      <c r="N169" t="inlineStr"/>
-    </row>
-    <row r="170">
-      <c r="A170" s="1" t="n">
-        <v>168</v>
-      </c>
-      <c r="B170" t="n">
-        <v>187</v>
-      </c>
-      <c r="C170" t="n">
-        <v>188</v>
-      </c>
-      <c r="D170" t="n">
-        <v>188</v>
-      </c>
-      <c r="E170" t="n">
-        <v>187</v>
-      </c>
-      <c r="F170" t="n">
-        <v>2629.84974468</v>
-      </c>
-      <c r="G170" t="n">
-        <v>-195680.7847707001</v>
-      </c>
-      <c r="H170" t="n">
-        <v>0</v>
-      </c>
-      <c r="I170" t="n">
-        <v>0</v>
-      </c>
-      <c r="J170" t="inlineStr"/>
-      <c r="K170" t="inlineStr"/>
-      <c r="L170" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M170" t="n">
-        <v>1</v>
-      </c>
-      <c r="N170" t="inlineStr"/>
-    </row>
-    <row r="171">
-      <c r="A171" s="1" t="n">
-        <v>169</v>
-      </c>
-      <c r="B171" t="n">
-        <v>186</v>
-      </c>
-      <c r="C171" t="n">
-        <v>186</v>
-      </c>
-      <c r="D171" t="n">
-        <v>186</v>
-      </c>
-      <c r="E171" t="n">
-        <v>186</v>
-      </c>
-      <c r="F171" t="n">
-        <v>547.196</v>
-      </c>
-      <c r="G171" t="n">
-        <v>-196227.9807707001</v>
-      </c>
-      <c r="H171" t="n">
-        <v>0</v>
-      </c>
-      <c r="I171" t="n">
-        <v>0</v>
-      </c>
-      <c r="J171" t="inlineStr"/>
-      <c r="K171" t="inlineStr"/>
-      <c r="L171" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M171" t="n">
-        <v>1</v>
-      </c>
-      <c r="N171" t="inlineStr"/>
-    </row>
-    <row r="172">
-      <c r="A172" s="1" t="n">
-        <v>170</v>
-      </c>
-      <c r="B172" t="n">
-        <v>186</v>
-      </c>
-      <c r="C172" t="n">
-        <v>186</v>
-      </c>
-      <c r="D172" t="n">
-        <v>186</v>
-      </c>
-      <c r="E172" t="n">
-        <v>186</v>
-      </c>
-      <c r="F172" t="n">
-        <v>461.999</v>
-      </c>
-      <c r="G172" t="n">
-        <v>-196227.9807707001</v>
-      </c>
-      <c r="H172" t="n">
-        <v>0</v>
-      </c>
-      <c r="I172" t="n">
-        <v>0</v>
-      </c>
-      <c r="J172" t="inlineStr"/>
-      <c r="K172" t="inlineStr"/>
-      <c r="L172" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M172" t="n">
-        <v>1</v>
-      </c>
-      <c r="N172" t="inlineStr"/>
-    </row>
-    <row r="173">
-      <c r="A173" s="1" t="n">
-        <v>171</v>
-      </c>
-      <c r="B173" t="n">
-        <v>186</v>
-      </c>
-      <c r="C173" t="n">
-        <v>186</v>
-      </c>
-      <c r="D173" t="n">
-        <v>186</v>
-      </c>
-      <c r="E173" t="n">
-        <v>186</v>
-      </c>
-      <c r="F173" t="n">
-        <v>726.654</v>
-      </c>
-      <c r="G173" t="n">
-        <v>-196227.9807707001</v>
-      </c>
-      <c r="H173" t="n">
-        <v>0</v>
-      </c>
-      <c r="I173" t="n">
-        <v>0</v>
-      </c>
-      <c r="J173" t="inlineStr"/>
-      <c r="K173" t="inlineStr"/>
-      <c r="L173" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M173" t="n">
-        <v>1</v>
-      </c>
-      <c r="N173" t="inlineStr"/>
-    </row>
-    <row r="174">
-      <c r="A174" s="1" t="n">
-        <v>172</v>
-      </c>
-      <c r="B174" t="n">
-        <v>186.4</v>
-      </c>
-      <c r="C174" t="n">
-        <v>186.4</v>
-      </c>
-      <c r="D174" t="n">
-        <v>186.4</v>
-      </c>
-      <c r="E174" t="n">
-        <v>186.4</v>
-      </c>
-      <c r="F174" t="n">
-        <v>360.0871</v>
-      </c>
-      <c r="G174" t="n">
-        <v>-195867.8936707001</v>
-      </c>
-      <c r="H174" t="n">
-        <v>0</v>
-      </c>
-      <c r="I174" t="n">
-        <v>0</v>
-      </c>
-      <c r="J174" t="inlineStr"/>
-      <c r="K174" t="inlineStr"/>
-      <c r="L174" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M174" t="n">
-        <v>1</v>
-      </c>
-      <c r="N174" t="inlineStr"/>
-    </row>
-    <row r="175">
-      <c r="A175" s="1" t="n">
-        <v>173</v>
-      </c>
-      <c r="B175" t="n">
-        <v>186.2</v>
-      </c>
-      <c r="C175" t="n">
-        <v>186.2</v>
-      </c>
-      <c r="D175" t="n">
-        <v>186.2</v>
-      </c>
-      <c r="E175" t="n">
-        <v>186.2</v>
-      </c>
-      <c r="F175" t="n">
-        <v>128.2355</v>
-      </c>
-      <c r="G175" t="n">
-        <v>-195996.1291707001</v>
-      </c>
-      <c r="H175" t="n">
-        <v>0</v>
-      </c>
-      <c r="I175" t="n">
-        <v>0</v>
-      </c>
-      <c r="J175" t="inlineStr"/>
-      <c r="K175" t="inlineStr"/>
-      <c r="L175" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M175" t="n">
-        <v>1</v>
-      </c>
-      <c r="N175" t="inlineStr"/>
-    </row>
-    <row r="176">
-      <c r="A176" s="1" t="n">
-        <v>174</v>
-      </c>
-      <c r="B176" t="n">
-        <v>186.2</v>
-      </c>
-      <c r="C176" t="n">
-        <v>186.2</v>
-      </c>
-      <c r="D176" t="n">
-        <v>186.2</v>
-      </c>
-      <c r="E176" t="n">
-        <v>186.2</v>
-      </c>
-      <c r="F176" t="n">
-        <v>2613.0141</v>
-      </c>
-      <c r="G176" t="n">
-        <v>-195996.1291707001</v>
-      </c>
-      <c r="H176" t="n">
-        <v>0</v>
-      </c>
-      <c r="I176" t="n">
-        <v>0</v>
-      </c>
-      <c r="J176" t="inlineStr"/>
-      <c r="K176" t="inlineStr"/>
-      <c r="L176" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M176" t="n">
-        <v>1</v>
-      </c>
-      <c r="N176" t="inlineStr"/>
-    </row>
-    <row r="177">
-      <c r="A177" s="1" t="n">
-        <v>175</v>
-      </c>
-      <c r="B177" t="n">
-        <v>186</v>
-      </c>
-      <c r="C177" t="n">
-        <v>186.2</v>
-      </c>
-      <c r="D177" t="n">
-        <v>186.2</v>
-      </c>
-      <c r="E177" t="n">
-        <v>186</v>
-      </c>
-      <c r="F177" t="n">
-        <v>2676.642</v>
-      </c>
-      <c r="G177" t="n">
-        <v>-195996.1291707001</v>
-      </c>
-      <c r="H177" t="n">
-        <v>0</v>
-      </c>
-      <c r="I177" t="n">
-        <v>0</v>
-      </c>
-      <c r="J177" t="inlineStr"/>
-      <c r="K177" t="inlineStr"/>
-      <c r="L177" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M177" t="n">
-        <v>1</v>
-      </c>
-      <c r="N177" t="inlineStr"/>
-    </row>
-    <row r="178">
-      <c r="A178" s="1" t="n">
-        <v>176</v>
-      </c>
-      <c r="B178" t="n">
-        <v>186.1</v>
-      </c>
-      <c r="C178" t="n">
-        <v>186.2</v>
-      </c>
-      <c r="D178" t="n">
-        <v>186.2</v>
-      </c>
-      <c r="E178" t="n">
-        <v>186.1</v>
-      </c>
-      <c r="F178" t="n">
-        <v>1700</v>
-      </c>
-      <c r="G178" t="n">
-        <v>-195996.1291707001</v>
-      </c>
-      <c r="H178" t="n">
-        <v>1</v>
-      </c>
-      <c r="I178" t="n">
-        <v>0</v>
-      </c>
-      <c r="J178" t="n">
-        <v>186.2</v>
-      </c>
-      <c r="K178" t="inlineStr"/>
-      <c r="L178" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M178" t="n">
-        <v>1</v>
-      </c>
-      <c r="N178" t="inlineStr"/>
-    </row>
-    <row r="179">
-      <c r="A179" s="1" t="n">
-        <v>177</v>
-      </c>
-      <c r="B179" t="n">
-        <v>186.2</v>
-      </c>
-      <c r="C179" t="n">
-        <v>186.2</v>
-      </c>
-      <c r="D179" t="n">
-        <v>186.2</v>
-      </c>
-      <c r="E179" t="n">
-        <v>186.2</v>
-      </c>
-      <c r="F179" t="n">
-        <v>122.5035</v>
-      </c>
-      <c r="G179" t="n">
-        <v>-195996.1291707001</v>
-      </c>
-      <c r="H179" t="n">
-        <v>1</v>
-      </c>
-      <c r="I179" t="n">
-        <v>0</v>
-      </c>
-      <c r="J179" t="n">
-        <v>186.2</v>
-      </c>
-      <c r="K179" t="inlineStr"/>
-      <c r="L179" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M179" t="n">
-        <v>1</v>
-      </c>
-      <c r="N179" t="inlineStr"/>
-    </row>
-    <row r="180">
-      <c r="A180" s="1" t="n">
-        <v>178</v>
-      </c>
-      <c r="B180" t="n">
-        <v>186.2</v>
-      </c>
-      <c r="C180" t="n">
-        <v>186.2</v>
-      </c>
-      <c r="D180" t="n">
-        <v>186.2</v>
-      </c>
-      <c r="E180" t="n">
-        <v>186.2</v>
-      </c>
-      <c r="F180" t="n">
-        <v>98.4203</v>
-      </c>
-      <c r="G180" t="n">
-        <v>-195996.1291707001</v>
-      </c>
-      <c r="H180" t="n">
-        <v>1</v>
-      </c>
-      <c r="I180" t="n">
-        <v>0</v>
-      </c>
-      <c r="J180" t="n">
-        <v>186.2</v>
-      </c>
-      <c r="K180" t="inlineStr"/>
-      <c r="L180" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M180" t="n">
-        <v>1</v>
-      </c>
-      <c r="N180" t="inlineStr"/>
-    </row>
-    <row r="181">
-      <c r="A181" s="1" t="n">
-        <v>179</v>
-      </c>
-      <c r="B181" t="n">
-        <v>186.2</v>
-      </c>
-      <c r="C181" t="n">
-        <v>186.2</v>
-      </c>
-      <c r="D181" t="n">
-        <v>186.2</v>
-      </c>
-      <c r="E181" t="n">
-        <v>186.2</v>
-      </c>
-      <c r="F181" t="n">
-        <v>1220</v>
-      </c>
-      <c r="G181" t="n">
-        <v>-195996.1291707001</v>
-      </c>
-      <c r="H181" t="n">
-        <v>1</v>
-      </c>
-      <c r="I181" t="n">
-        <v>0</v>
-      </c>
-      <c r="J181" t="n">
-        <v>186.2</v>
-      </c>
-      <c r="K181" t="inlineStr"/>
-      <c r="L181" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M181" t="n">
-        <v>1</v>
-      </c>
-      <c r="N181" t="inlineStr"/>
-    </row>
-    <row r="182">
-      <c r="A182" s="1" t="n">
-        <v>180</v>
-      </c>
-      <c r="B182" t="n">
-        <v>186.2</v>
-      </c>
-      <c r="C182" t="n">
-        <v>186.2</v>
-      </c>
-      <c r="D182" t="n">
-        <v>186.2</v>
-      </c>
-      <c r="E182" t="n">
-        <v>186.2</v>
-      </c>
-      <c r="F182" t="n">
-        <v>1700</v>
-      </c>
-      <c r="G182" t="n">
-        <v>-195996.1291707001</v>
-      </c>
-      <c r="H182" t="n">
-        <v>1</v>
-      </c>
-      <c r="I182" t="n">
-        <v>0</v>
-      </c>
-      <c r="J182" t="n">
-        <v>186.2</v>
-      </c>
-      <c r="K182" t="inlineStr"/>
-      <c r="L182" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M182" t="n">
-        <v>1</v>
-      </c>
-      <c r="N182" t="inlineStr"/>
-    </row>
-    <row r="183">
-      <c r="A183" s="1" t="n">
-        <v>181</v>
-      </c>
-      <c r="B183" t="n">
-        <v>186.2</v>
-      </c>
-      <c r="C183" t="n">
-        <v>186.2</v>
-      </c>
-      <c r="D183" t="n">
-        <v>186.2</v>
-      </c>
-      <c r="E183" t="n">
-        <v>186.2</v>
-      </c>
-      <c r="F183" t="n">
-        <v>8927.824000000001</v>
-      </c>
-      <c r="G183" t="n">
-        <v>-195996.1291707001</v>
-      </c>
-      <c r="H183" t="n">
-        <v>1</v>
-      </c>
-      <c r="I183" t="n">
-        <v>0</v>
-      </c>
-      <c r="J183" t="n">
-        <v>186.2</v>
-      </c>
-      <c r="K183" t="inlineStr"/>
-      <c r="L183" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M183" t="n">
-        <v>1</v>
-      </c>
-      <c r="N183" t="inlineStr"/>
+      <c r="M254" t="n">
+        <v>1</v>
+      </c>
+      <c r="N254" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>

--- a/BackTest/2020-01-24 BackTest STEEM.xlsx
+++ b/BackTest/2020-01-24 BackTest STEEM.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N254"/>
+  <dimension ref="A1:M254"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -399,35 +399,30 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>low_check</t>
+          <t>trade_state</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>high_check</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>BuyPrice</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>bprelay</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>Condition</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Price_point</t>
         </is>
@@ -456,18 +451,15 @@
         <v>-37919.85316655</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr"/>
-      <c r="M2" t="n">
-        <v>1</v>
-      </c>
-      <c r="N2" t="inlineStr"/>
+      <c r="L2" t="n">
+        <v>1</v>
+      </c>
+      <c r="M2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -492,18 +484,15 @@
         <v>-43919.85316655</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr"/>
-      <c r="M3" t="n">
-        <v>1</v>
-      </c>
-      <c r="N3" t="inlineStr"/>
+      <c r="L3" t="n">
+        <v>1</v>
+      </c>
+      <c r="M3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -528,18 +517,15 @@
         <v>-43919.85316655</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
-      <c r="M4" t="n">
-        <v>1</v>
-      </c>
-      <c r="N4" t="inlineStr"/>
+      <c r="L4" t="n">
+        <v>1</v>
+      </c>
+      <c r="M4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -566,16 +552,13 @@
       <c r="H5" t="n">
         <v>0</v>
       </c>
-      <c r="I5" t="n">
-        <v>1</v>
-      </c>
+      <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr"/>
-      <c r="M5" t="n">
-        <v>1</v>
-      </c>
-      <c r="N5" t="inlineStr"/>
+      <c r="L5" t="n">
+        <v>1</v>
+      </c>
+      <c r="M5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -602,16 +585,13 @@
       <c r="H6" t="n">
         <v>0</v>
       </c>
-      <c r="I6" t="n">
-        <v>1</v>
-      </c>
+      <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr"/>
-      <c r="M6" t="n">
-        <v>1</v>
-      </c>
-      <c r="N6" t="inlineStr"/>
+      <c r="L6" t="n">
+        <v>1</v>
+      </c>
+      <c r="M6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -638,16 +618,13 @@
       <c r="H7" t="n">
         <v>0</v>
       </c>
-      <c r="I7" t="n">
-        <v>1</v>
-      </c>
+      <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr"/>
-      <c r="M7" t="n">
-        <v>1</v>
-      </c>
-      <c r="N7" t="inlineStr"/>
+      <c r="L7" t="n">
+        <v>1</v>
+      </c>
+      <c r="M7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -674,16 +651,13 @@
       <c r="H8" t="n">
         <v>0</v>
       </c>
-      <c r="I8" t="n">
-        <v>1</v>
-      </c>
+      <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr"/>
-      <c r="M8" t="n">
-        <v>1</v>
-      </c>
-      <c r="N8" t="inlineStr"/>
+      <c r="L8" t="n">
+        <v>1</v>
+      </c>
+      <c r="M8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -710,16 +684,13 @@
       <c r="H9" t="n">
         <v>0</v>
       </c>
-      <c r="I9" t="n">
-        <v>1</v>
-      </c>
+      <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr"/>
-      <c r="M9" t="n">
-        <v>1</v>
-      </c>
-      <c r="N9" t="inlineStr"/>
+      <c r="L9" t="n">
+        <v>1</v>
+      </c>
+      <c r="M9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -746,16 +717,13 @@
       <c r="H10" t="n">
         <v>0</v>
       </c>
-      <c r="I10" t="n">
-        <v>1</v>
-      </c>
+      <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr"/>
-      <c r="M10" t="n">
-        <v>1</v>
-      </c>
-      <c r="N10" t="inlineStr"/>
+      <c r="L10" t="n">
+        <v>1</v>
+      </c>
+      <c r="M10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -782,16 +750,13 @@
       <c r="H11" t="n">
         <v>0</v>
       </c>
-      <c r="I11" t="n">
-        <v>1</v>
-      </c>
+      <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr"/>
-      <c r="M11" t="n">
-        <v>1</v>
-      </c>
-      <c r="N11" t="inlineStr"/>
+      <c r="L11" t="n">
+        <v>1</v>
+      </c>
+      <c r="M11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -818,16 +783,13 @@
       <c r="H12" t="n">
         <v>0</v>
       </c>
-      <c r="I12" t="n">
-        <v>1</v>
-      </c>
+      <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr"/>
-      <c r="M12" t="n">
-        <v>1</v>
-      </c>
-      <c r="N12" t="inlineStr"/>
+      <c r="L12" t="n">
+        <v>1</v>
+      </c>
+      <c r="M12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -854,16 +816,13 @@
       <c r="H13" t="n">
         <v>0</v>
       </c>
-      <c r="I13" t="n">
-        <v>1</v>
-      </c>
+      <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr"/>
-      <c r="M13" t="n">
-        <v>1</v>
-      </c>
-      <c r="N13" t="inlineStr"/>
+      <c r="L13" t="n">
+        <v>1</v>
+      </c>
+      <c r="M13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -890,16 +849,13 @@
       <c r="H14" t="n">
         <v>0</v>
       </c>
-      <c r="I14" t="n">
-        <v>1</v>
-      </c>
+      <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr"/>
-      <c r="M14" t="n">
-        <v>1</v>
-      </c>
-      <c r="N14" t="inlineStr"/>
+      <c r="L14" t="n">
+        <v>1</v>
+      </c>
+      <c r="M14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -926,16 +882,13 @@
       <c r="H15" t="n">
         <v>0</v>
       </c>
-      <c r="I15" t="n">
-        <v>1</v>
-      </c>
+      <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr"/>
-      <c r="M15" t="n">
-        <v>1</v>
-      </c>
-      <c r="N15" t="inlineStr"/>
+      <c r="L15" t="n">
+        <v>1</v>
+      </c>
+      <c r="M15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -962,16 +915,13 @@
       <c r="H16" t="n">
         <v>0</v>
       </c>
-      <c r="I16" t="n">
-        <v>1</v>
-      </c>
+      <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr"/>
-      <c r="M16" t="n">
-        <v>1</v>
-      </c>
-      <c r="N16" t="inlineStr"/>
+      <c r="L16" t="n">
+        <v>1</v>
+      </c>
+      <c r="M16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -998,16 +948,13 @@
       <c r="H17" t="n">
         <v>0</v>
       </c>
-      <c r="I17" t="n">
-        <v>1</v>
-      </c>
+      <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr"/>
-      <c r="M17" t="n">
-        <v>1</v>
-      </c>
-      <c r="N17" t="inlineStr"/>
+      <c r="L17" t="n">
+        <v>1</v>
+      </c>
+      <c r="M17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -1034,16 +981,13 @@
       <c r="H18" t="n">
         <v>0</v>
       </c>
-      <c r="I18" t="n">
-        <v>1</v>
-      </c>
+      <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr"/>
-      <c r="M18" t="n">
-        <v>1</v>
-      </c>
-      <c r="N18" t="inlineStr"/>
+      <c r="L18" t="n">
+        <v>1</v>
+      </c>
+      <c r="M18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1070,16 +1014,13 @@
       <c r="H19" t="n">
         <v>0</v>
       </c>
-      <c r="I19" t="n">
-        <v>1</v>
-      </c>
+      <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr"/>
-      <c r="M19" t="n">
-        <v>1</v>
-      </c>
-      <c r="N19" t="inlineStr"/>
+      <c r="L19" t="n">
+        <v>1</v>
+      </c>
+      <c r="M19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1106,16 +1047,13 @@
       <c r="H20" t="n">
         <v>0</v>
       </c>
-      <c r="I20" t="n">
-        <v>1</v>
-      </c>
+      <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr"/>
-      <c r="M20" t="n">
-        <v>1</v>
-      </c>
-      <c r="N20" t="inlineStr"/>
+      <c r="L20" t="n">
+        <v>1</v>
+      </c>
+      <c r="M20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1142,16 +1080,13 @@
       <c r="H21" t="n">
         <v>0</v>
       </c>
-      <c r="I21" t="n">
-        <v>1</v>
-      </c>
+      <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr"/>
-      <c r="M21" t="n">
-        <v>1</v>
-      </c>
-      <c r="N21" t="inlineStr"/>
+      <c r="L21" t="n">
+        <v>1</v>
+      </c>
+      <c r="M21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1178,16 +1113,13 @@
       <c r="H22" t="n">
         <v>0</v>
       </c>
-      <c r="I22" t="n">
-        <v>1</v>
-      </c>
+      <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr"/>
-      <c r="M22" t="n">
-        <v>1</v>
-      </c>
-      <c r="N22" t="inlineStr"/>
+      <c r="L22" t="n">
+        <v>1</v>
+      </c>
+      <c r="M22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1214,16 +1146,13 @@
       <c r="H23" t="n">
         <v>0</v>
       </c>
-      <c r="I23" t="n">
-        <v>1</v>
-      </c>
+      <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr"/>
-      <c r="L23" t="inlineStr"/>
-      <c r="M23" t="n">
-        <v>1</v>
-      </c>
-      <c r="N23" t="inlineStr"/>
+      <c r="L23" t="n">
+        <v>1</v>
+      </c>
+      <c r="M23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1250,16 +1179,13 @@
       <c r="H24" t="n">
         <v>0</v>
       </c>
-      <c r="I24" t="n">
-        <v>1</v>
-      </c>
+      <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr"/>
-      <c r="M24" t="n">
-        <v>1</v>
-      </c>
-      <c r="N24" t="inlineStr"/>
+      <c r="L24" t="n">
+        <v>1</v>
+      </c>
+      <c r="M24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1286,16 +1212,13 @@
       <c r="H25" t="n">
         <v>0</v>
       </c>
-      <c r="I25" t="n">
-        <v>1</v>
-      </c>
+      <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr"/>
-      <c r="L25" t="inlineStr"/>
-      <c r="M25" t="n">
-        <v>1</v>
-      </c>
-      <c r="N25" t="inlineStr"/>
+      <c r="L25" t="n">
+        <v>1</v>
+      </c>
+      <c r="M25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1322,16 +1245,13 @@
       <c r="H26" t="n">
         <v>0</v>
       </c>
-      <c r="I26" t="n">
-        <v>1</v>
-      </c>
+      <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr"/>
-      <c r="M26" t="n">
-        <v>1</v>
-      </c>
-      <c r="N26" t="inlineStr"/>
+      <c r="L26" t="n">
+        <v>1</v>
+      </c>
+      <c r="M26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1358,16 +1278,13 @@
       <c r="H27" t="n">
         <v>0</v>
       </c>
-      <c r="I27" t="n">
-        <v>1</v>
-      </c>
+      <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr"/>
-      <c r="L27" t="inlineStr"/>
-      <c r="M27" t="n">
-        <v>1</v>
-      </c>
-      <c r="N27" t="inlineStr"/>
+      <c r="L27" t="n">
+        <v>1</v>
+      </c>
+      <c r="M27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1394,16 +1311,13 @@
       <c r="H28" t="n">
         <v>0</v>
       </c>
-      <c r="I28" t="n">
-        <v>1</v>
-      </c>
+      <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr"/>
-      <c r="L28" t="inlineStr"/>
-      <c r="M28" t="n">
-        <v>1</v>
-      </c>
-      <c r="N28" t="inlineStr"/>
+      <c r="L28" t="n">
+        <v>1</v>
+      </c>
+      <c r="M28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1430,16 +1344,13 @@
       <c r="H29" t="n">
         <v>0</v>
       </c>
-      <c r="I29" t="n">
-        <v>1</v>
-      </c>
+      <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr"/>
-      <c r="L29" t="inlineStr"/>
-      <c r="M29" t="n">
-        <v>1</v>
-      </c>
-      <c r="N29" t="inlineStr"/>
+      <c r="L29" t="n">
+        <v>1</v>
+      </c>
+      <c r="M29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1464,18 +1375,15 @@
         <v>-37259.56616654999</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
-      </c>
-      <c r="I30" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr"/>
-      <c r="L30" t="inlineStr"/>
-      <c r="M30" t="n">
-        <v>1</v>
-      </c>
-      <c r="N30" t="inlineStr"/>
+      <c r="L30" t="n">
+        <v>1</v>
+      </c>
+      <c r="M30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1502,16 +1410,13 @@
       <c r="H31" t="n">
         <v>0</v>
       </c>
-      <c r="I31" t="n">
-        <v>1</v>
-      </c>
+      <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr"/>
-      <c r="L31" t="inlineStr"/>
-      <c r="M31" t="n">
-        <v>1</v>
-      </c>
-      <c r="N31" t="inlineStr"/>
+      <c r="L31" t="n">
+        <v>1</v>
+      </c>
+      <c r="M31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1538,16 +1443,13 @@
       <c r="H32" t="n">
         <v>0</v>
       </c>
-      <c r="I32" t="n">
-        <v>1</v>
-      </c>
+      <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr"/>
-      <c r="L32" t="inlineStr"/>
-      <c r="M32" t="n">
-        <v>1</v>
-      </c>
-      <c r="N32" t="inlineStr"/>
+      <c r="L32" t="n">
+        <v>1</v>
+      </c>
+      <c r="M32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1574,16 +1476,13 @@
       <c r="H33" t="n">
         <v>0</v>
       </c>
-      <c r="I33" t="n">
-        <v>1</v>
-      </c>
+      <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
       <c r="K33" t="inlineStr"/>
-      <c r="L33" t="inlineStr"/>
-      <c r="M33" t="n">
-        <v>1</v>
-      </c>
-      <c r="N33" t="inlineStr"/>
+      <c r="L33" t="n">
+        <v>1</v>
+      </c>
+      <c r="M33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1610,16 +1509,13 @@
       <c r="H34" t="n">
         <v>0</v>
       </c>
-      <c r="I34" t="n">
-        <v>1</v>
-      </c>
+      <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
       <c r="K34" t="inlineStr"/>
-      <c r="L34" t="inlineStr"/>
-      <c r="M34" t="n">
-        <v>1</v>
-      </c>
-      <c r="N34" t="inlineStr"/>
+      <c r="L34" t="n">
+        <v>1</v>
+      </c>
+      <c r="M34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1646,16 +1542,13 @@
       <c r="H35" t="n">
         <v>0</v>
       </c>
-      <c r="I35" t="n">
-        <v>1</v>
-      </c>
+      <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
       <c r="K35" t="inlineStr"/>
-      <c r="L35" t="inlineStr"/>
-      <c r="M35" t="n">
-        <v>1</v>
-      </c>
-      <c r="N35" t="inlineStr"/>
+      <c r="L35" t="n">
+        <v>1</v>
+      </c>
+      <c r="M35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1680,18 +1573,15 @@
         <v>-36857.12286654999</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
-      </c>
-      <c r="I36" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr"/>
-      <c r="L36" t="inlineStr"/>
-      <c r="M36" t="n">
-        <v>1</v>
-      </c>
-      <c r="N36" t="inlineStr"/>
+      <c r="L36" t="n">
+        <v>1</v>
+      </c>
+      <c r="M36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1718,16 +1608,13 @@
       <c r="H37" t="n">
         <v>0</v>
       </c>
-      <c r="I37" t="n">
-        <v>1</v>
-      </c>
+      <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr"/>
-      <c r="L37" t="inlineStr"/>
-      <c r="M37" t="n">
-        <v>1</v>
-      </c>
-      <c r="N37" t="inlineStr"/>
+      <c r="L37" t="n">
+        <v>1</v>
+      </c>
+      <c r="M37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1754,16 +1641,13 @@
       <c r="H38" t="n">
         <v>0</v>
       </c>
-      <c r="I38" t="n">
-        <v>1</v>
-      </c>
+      <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr"/>
-      <c r="L38" t="inlineStr"/>
-      <c r="M38" t="n">
-        <v>1</v>
-      </c>
-      <c r="N38" t="inlineStr"/>
+      <c r="L38" t="n">
+        <v>1</v>
+      </c>
+      <c r="M38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1788,18 +1672,15 @@
         <v>-36857.12286654999</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
-      </c>
-      <c r="I39" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr"/>
-      <c r="L39" t="inlineStr"/>
-      <c r="M39" t="n">
-        <v>1</v>
-      </c>
-      <c r="N39" t="inlineStr"/>
+      <c r="L39" t="n">
+        <v>1</v>
+      </c>
+      <c r="M39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1824,18 +1705,15 @@
         <v>-36857.12286654999</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
-      </c>
-      <c r="I40" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr"/>
-      <c r="L40" t="inlineStr"/>
-      <c r="M40" t="n">
-        <v>1</v>
-      </c>
-      <c r="N40" t="inlineStr"/>
+      <c r="L40" t="n">
+        <v>1</v>
+      </c>
+      <c r="M40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1860,18 +1738,15 @@
         <v>-36857.12286654999</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
-      </c>
-      <c r="I41" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
       <c r="K41" t="inlineStr"/>
-      <c r="L41" t="inlineStr"/>
-      <c r="M41" t="n">
-        <v>1</v>
-      </c>
-      <c r="N41" t="inlineStr"/>
+      <c r="L41" t="n">
+        <v>1</v>
+      </c>
+      <c r="M41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1896,18 +1771,15 @@
         <v>-46468.23316654999</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
-      </c>
-      <c r="I42" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
       <c r="K42" t="inlineStr"/>
-      <c r="L42" t="inlineStr"/>
-      <c r="M42" t="n">
-        <v>1</v>
-      </c>
-      <c r="N42" t="inlineStr"/>
+      <c r="L42" t="n">
+        <v>1</v>
+      </c>
+      <c r="M42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1934,16 +1806,13 @@
       <c r="H43" t="n">
         <v>0</v>
       </c>
-      <c r="I43" t="n">
-        <v>1</v>
-      </c>
+      <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
       <c r="K43" t="inlineStr"/>
-      <c r="L43" t="inlineStr"/>
-      <c r="M43" t="n">
-        <v>1</v>
-      </c>
-      <c r="N43" t="inlineStr"/>
+      <c r="L43" t="n">
+        <v>1</v>
+      </c>
+      <c r="M43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1968,18 +1837,15 @@
         <v>-47559.54416654999</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
-      </c>
-      <c r="I44" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
       <c r="K44" t="inlineStr"/>
-      <c r="L44" t="inlineStr"/>
-      <c r="M44" t="n">
-        <v>1</v>
-      </c>
-      <c r="N44" t="inlineStr"/>
+      <c r="L44" t="n">
+        <v>1</v>
+      </c>
+      <c r="M44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -2006,16 +1872,13 @@
       <c r="H45" t="n">
         <v>0</v>
       </c>
-      <c r="I45" t="n">
-        <v>1</v>
-      </c>
+      <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
       <c r="K45" t="inlineStr"/>
-      <c r="L45" t="inlineStr"/>
-      <c r="M45" t="n">
-        <v>1</v>
-      </c>
-      <c r="N45" t="inlineStr"/>
+      <c r="L45" t="n">
+        <v>1</v>
+      </c>
+      <c r="M45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -2042,16 +1905,13 @@
       <c r="H46" t="n">
         <v>0</v>
       </c>
-      <c r="I46" t="n">
-        <v>0</v>
-      </c>
+      <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
       <c r="K46" t="inlineStr"/>
-      <c r="L46" t="inlineStr"/>
-      <c r="M46" t="n">
-        <v>1</v>
-      </c>
-      <c r="N46" t="inlineStr"/>
+      <c r="L46" t="n">
+        <v>1</v>
+      </c>
+      <c r="M46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -2078,16 +1938,13 @@
       <c r="H47" t="n">
         <v>0</v>
       </c>
-      <c r="I47" t="n">
-        <v>1</v>
-      </c>
+      <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
       <c r="K47" t="inlineStr"/>
-      <c r="L47" t="inlineStr"/>
-      <c r="M47" t="n">
-        <v>1</v>
-      </c>
-      <c r="N47" t="inlineStr"/>
+      <c r="L47" t="n">
+        <v>1</v>
+      </c>
+      <c r="M47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -2114,16 +1971,13 @@
       <c r="H48" t="n">
         <v>0</v>
       </c>
-      <c r="I48" t="n">
-        <v>0</v>
-      </c>
+      <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr"/>
-      <c r="L48" t="inlineStr"/>
-      <c r="M48" t="n">
-        <v>1</v>
-      </c>
-      <c r="N48" t="inlineStr"/>
+      <c r="L48" t="n">
+        <v>1</v>
+      </c>
+      <c r="M48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -2150,16 +2004,13 @@
       <c r="H49" t="n">
         <v>0</v>
       </c>
-      <c r="I49" t="n">
-        <v>1</v>
-      </c>
+      <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr"/>
-      <c r="L49" t="inlineStr"/>
-      <c r="M49" t="n">
-        <v>1</v>
-      </c>
-      <c r="N49" t="inlineStr"/>
+      <c r="L49" t="n">
+        <v>1</v>
+      </c>
+      <c r="M49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2186,16 +2037,13 @@
       <c r="H50" t="n">
         <v>0</v>
       </c>
-      <c r="I50" t="n">
-        <v>1</v>
-      </c>
+      <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr"/>
-      <c r="L50" t="inlineStr"/>
-      <c r="M50" t="n">
-        <v>1</v>
-      </c>
-      <c r="N50" t="inlineStr"/>
+      <c r="L50" t="n">
+        <v>1</v>
+      </c>
+      <c r="M50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2222,16 +2070,13 @@
       <c r="H51" t="n">
         <v>0</v>
       </c>
-      <c r="I51" t="n">
-        <v>1</v>
-      </c>
+      <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
       <c r="K51" t="inlineStr"/>
-      <c r="L51" t="inlineStr"/>
-      <c r="M51" t="n">
-        <v>1</v>
-      </c>
-      <c r="N51" t="inlineStr"/>
+      <c r="L51" t="n">
+        <v>1</v>
+      </c>
+      <c r="M51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2258,16 +2103,13 @@
       <c r="H52" t="n">
         <v>0</v>
       </c>
-      <c r="I52" t="n">
-        <v>0</v>
-      </c>
+      <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr"/>
-      <c r="L52" t="inlineStr"/>
-      <c r="M52" t="n">
-        <v>1</v>
-      </c>
-      <c r="N52" t="inlineStr"/>
+      <c r="L52" t="n">
+        <v>1</v>
+      </c>
+      <c r="M52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2294,16 +2136,13 @@
       <c r="H53" t="n">
         <v>0</v>
       </c>
-      <c r="I53" t="n">
-        <v>0</v>
-      </c>
+      <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
       <c r="K53" t="inlineStr"/>
-      <c r="L53" t="inlineStr"/>
-      <c r="M53" t="n">
-        <v>1</v>
-      </c>
-      <c r="N53" t="inlineStr"/>
+      <c r="L53" t="n">
+        <v>1</v>
+      </c>
+      <c r="M53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2330,16 +2169,13 @@
       <c r="H54" t="n">
         <v>0</v>
       </c>
-      <c r="I54" t="n">
-        <v>1</v>
-      </c>
+      <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr"/>
-      <c r="L54" t="inlineStr"/>
-      <c r="M54" t="n">
-        <v>1</v>
-      </c>
-      <c r="N54" t="inlineStr"/>
+      <c r="L54" t="n">
+        <v>1</v>
+      </c>
+      <c r="M54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2364,18 +2200,15 @@
         <v>-48528.16926654999</v>
       </c>
       <c r="H55" t="n">
-        <v>0</v>
-      </c>
-      <c r="I55" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
       <c r="K55" t="inlineStr"/>
-      <c r="L55" t="inlineStr"/>
-      <c r="M55" t="n">
-        <v>1</v>
-      </c>
-      <c r="N55" t="inlineStr"/>
+      <c r="L55" t="n">
+        <v>1</v>
+      </c>
+      <c r="M55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2400,18 +2233,15 @@
         <v>-51528.16926654999</v>
       </c>
       <c r="H56" t="n">
-        <v>0</v>
-      </c>
-      <c r="I56" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
       <c r="K56" t="inlineStr"/>
-      <c r="L56" t="inlineStr"/>
-      <c r="M56" t="n">
-        <v>1</v>
-      </c>
-      <c r="N56" t="inlineStr"/>
+      <c r="L56" t="n">
+        <v>1</v>
+      </c>
+      <c r="M56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2438,16 +2268,13 @@
       <c r="H57" t="n">
         <v>0</v>
       </c>
-      <c r="I57" t="n">
-        <v>0</v>
-      </c>
+      <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
       <c r="K57" t="inlineStr"/>
-      <c r="L57" t="inlineStr"/>
-      <c r="M57" t="n">
-        <v>1</v>
-      </c>
-      <c r="N57" t="inlineStr"/>
+      <c r="L57" t="n">
+        <v>1</v>
+      </c>
+      <c r="M57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2474,16 +2301,13 @@
       <c r="H58" t="n">
         <v>0</v>
       </c>
-      <c r="I58" t="n">
-        <v>0</v>
-      </c>
+      <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
       <c r="K58" t="inlineStr"/>
-      <c r="L58" t="inlineStr"/>
-      <c r="M58" t="n">
-        <v>1</v>
-      </c>
-      <c r="N58" t="inlineStr"/>
+      <c r="L58" t="n">
+        <v>1</v>
+      </c>
+      <c r="M58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2508,18 +2332,15 @@
         <v>-60378.16926654999</v>
       </c>
       <c r="H59" t="n">
-        <v>0</v>
-      </c>
-      <c r="I59" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
       <c r="K59" t="inlineStr"/>
-      <c r="L59" t="inlineStr"/>
-      <c r="M59" t="n">
-        <v>1</v>
-      </c>
-      <c r="N59" t="inlineStr"/>
+      <c r="L59" t="n">
+        <v>1</v>
+      </c>
+      <c r="M59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2546,16 +2367,13 @@
       <c r="H60" t="n">
         <v>0</v>
       </c>
-      <c r="I60" t="n">
-        <v>0</v>
-      </c>
+      <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr"/>
-      <c r="L60" t="inlineStr"/>
-      <c r="M60" t="n">
-        <v>1</v>
-      </c>
-      <c r="N60" t="inlineStr"/>
+      <c r="L60" t="n">
+        <v>1</v>
+      </c>
+      <c r="M60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2582,16 +2400,13 @@
       <c r="H61" t="n">
         <v>0</v>
       </c>
-      <c r="I61" t="n">
-        <v>0</v>
-      </c>
+      <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
       <c r="K61" t="inlineStr"/>
-      <c r="L61" t="inlineStr"/>
-      <c r="M61" t="n">
-        <v>1</v>
-      </c>
-      <c r="N61" t="inlineStr"/>
+      <c r="L61" t="n">
+        <v>1</v>
+      </c>
+      <c r="M61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2618,16 +2433,13 @@
       <c r="H62" t="n">
         <v>0</v>
       </c>
-      <c r="I62" t="n">
-        <v>0</v>
-      </c>
+      <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
       <c r="K62" t="inlineStr"/>
-      <c r="L62" t="inlineStr"/>
-      <c r="M62" t="n">
-        <v>1</v>
-      </c>
-      <c r="N62" t="inlineStr"/>
+      <c r="L62" t="n">
+        <v>1</v>
+      </c>
+      <c r="M62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2654,16 +2466,13 @@
       <c r="H63" t="n">
         <v>0</v>
       </c>
-      <c r="I63" t="n">
-        <v>0</v>
-      </c>
+      <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
       <c r="K63" t="inlineStr"/>
-      <c r="L63" t="inlineStr"/>
-      <c r="M63" t="n">
-        <v>1</v>
-      </c>
-      <c r="N63" t="inlineStr"/>
+      <c r="L63" t="n">
+        <v>1</v>
+      </c>
+      <c r="M63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2690,16 +2499,13 @@
       <c r="H64" t="n">
         <v>0</v>
       </c>
-      <c r="I64" t="n">
-        <v>0</v>
-      </c>
+      <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
       <c r="K64" t="inlineStr"/>
-      <c r="L64" t="inlineStr"/>
-      <c r="M64" t="n">
-        <v>1</v>
-      </c>
-      <c r="N64" t="inlineStr"/>
+      <c r="L64" t="n">
+        <v>1</v>
+      </c>
+      <c r="M64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2726,16 +2532,13 @@
       <c r="H65" t="n">
         <v>0</v>
       </c>
-      <c r="I65" t="n">
-        <v>0</v>
-      </c>
+      <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
       <c r="K65" t="inlineStr"/>
-      <c r="L65" t="inlineStr"/>
-      <c r="M65" t="n">
-        <v>1</v>
-      </c>
-      <c r="N65" t="inlineStr"/>
+      <c r="L65" t="n">
+        <v>1</v>
+      </c>
+      <c r="M65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2762,16 +2565,13 @@
       <c r="H66" t="n">
         <v>0</v>
       </c>
-      <c r="I66" t="n">
-        <v>0</v>
-      </c>
+      <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
       <c r="K66" t="inlineStr"/>
-      <c r="L66" t="inlineStr"/>
-      <c r="M66" t="n">
-        <v>1</v>
-      </c>
-      <c r="N66" t="inlineStr"/>
+      <c r="L66" t="n">
+        <v>1</v>
+      </c>
+      <c r="M66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2798,16 +2598,13 @@
       <c r="H67" t="n">
         <v>0</v>
       </c>
-      <c r="I67" t="n">
-        <v>1</v>
-      </c>
+      <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
       <c r="K67" t="inlineStr"/>
-      <c r="L67" t="inlineStr"/>
-      <c r="M67" t="n">
-        <v>1</v>
-      </c>
-      <c r="N67" t="inlineStr"/>
+      <c r="L67" t="n">
+        <v>1</v>
+      </c>
+      <c r="M67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2832,18 +2629,15 @@
         <v>-56876.27996654999</v>
       </c>
       <c r="H68" t="n">
-        <v>0</v>
-      </c>
-      <c r="I68" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
       <c r="K68" t="inlineStr"/>
-      <c r="L68" t="inlineStr"/>
-      <c r="M68" t="n">
-        <v>1</v>
-      </c>
-      <c r="N68" t="inlineStr"/>
+      <c r="L68" t="n">
+        <v>1</v>
+      </c>
+      <c r="M68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2870,16 +2664,13 @@
       <c r="H69" t="n">
         <v>0</v>
       </c>
-      <c r="I69" t="n">
-        <v>0</v>
-      </c>
+      <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
       <c r="K69" t="inlineStr"/>
-      <c r="L69" t="inlineStr"/>
-      <c r="M69" t="n">
-        <v>1</v>
-      </c>
-      <c r="N69" t="inlineStr"/>
+      <c r="L69" t="n">
+        <v>1</v>
+      </c>
+      <c r="M69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2904,18 +2695,15 @@
         <v>-64023.21296654999</v>
       </c>
       <c r="H70" t="n">
-        <v>0</v>
-      </c>
-      <c r="I70" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
       <c r="K70" t="inlineStr"/>
-      <c r="L70" t="inlineStr"/>
-      <c r="M70" t="n">
-        <v>1</v>
-      </c>
-      <c r="N70" t="inlineStr"/>
+      <c r="L70" t="n">
+        <v>1</v>
+      </c>
+      <c r="M70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2940,18 +2728,15 @@
         <v>-81069.15436654999</v>
       </c>
       <c r="H71" t="n">
-        <v>0</v>
-      </c>
-      <c r="I71" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
       <c r="K71" t="inlineStr"/>
-      <c r="L71" t="inlineStr"/>
-      <c r="M71" t="n">
-        <v>1</v>
-      </c>
-      <c r="N71" t="inlineStr"/>
+      <c r="L71" t="n">
+        <v>1</v>
+      </c>
+      <c r="M71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -2978,16 +2763,13 @@
       <c r="H72" t="n">
         <v>0</v>
       </c>
-      <c r="I72" t="n">
-        <v>0</v>
-      </c>
+      <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
       <c r="K72" t="inlineStr"/>
-      <c r="L72" t="inlineStr"/>
-      <c r="M72" t="n">
-        <v>1</v>
-      </c>
-      <c r="N72" t="inlineStr"/>
+      <c r="L72" t="n">
+        <v>1</v>
+      </c>
+      <c r="M72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -3014,16 +2796,13 @@
       <c r="H73" t="n">
         <v>0</v>
       </c>
-      <c r="I73" t="n">
-        <v>0</v>
-      </c>
+      <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
       <c r="K73" t="inlineStr"/>
-      <c r="L73" t="inlineStr"/>
-      <c r="M73" t="n">
-        <v>1</v>
-      </c>
-      <c r="N73" t="inlineStr"/>
+      <c r="L73" t="n">
+        <v>1</v>
+      </c>
+      <c r="M73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -3048,18 +2827,15 @@
         <v>-87180.15436654999</v>
       </c>
       <c r="H74" t="n">
-        <v>0</v>
-      </c>
-      <c r="I74" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
       <c r="K74" t="inlineStr"/>
-      <c r="L74" t="inlineStr"/>
-      <c r="M74" t="n">
-        <v>1</v>
-      </c>
-      <c r="N74" t="inlineStr"/>
+      <c r="L74" t="n">
+        <v>1</v>
+      </c>
+      <c r="M74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -3084,18 +2860,15 @@
         <v>-87180.15436654999</v>
       </c>
       <c r="H75" t="n">
-        <v>0</v>
-      </c>
-      <c r="I75" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
       <c r="K75" t="inlineStr"/>
-      <c r="L75" t="inlineStr"/>
-      <c r="M75" t="n">
-        <v>1</v>
-      </c>
-      <c r="N75" t="inlineStr"/>
+      <c r="L75" t="n">
+        <v>1</v>
+      </c>
+      <c r="M75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -3120,18 +2893,15 @@
         <v>-87180.15436654999</v>
       </c>
       <c r="H76" t="n">
-        <v>0</v>
-      </c>
-      <c r="I76" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
       <c r="K76" t="inlineStr"/>
-      <c r="L76" t="inlineStr"/>
-      <c r="M76" t="n">
-        <v>1</v>
-      </c>
-      <c r="N76" t="inlineStr"/>
+      <c r="L76" t="n">
+        <v>1</v>
+      </c>
+      <c r="M76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -3156,18 +2926,15 @@
         <v>-86913.15436654999</v>
       </c>
       <c r="H77" t="n">
-        <v>0</v>
-      </c>
-      <c r="I77" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
       <c r="K77" t="inlineStr"/>
-      <c r="L77" t="inlineStr"/>
-      <c r="M77" t="n">
-        <v>1</v>
-      </c>
-      <c r="N77" t="inlineStr"/>
+      <c r="L77" t="n">
+        <v>1</v>
+      </c>
+      <c r="M77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -3192,18 +2959,15 @@
         <v>-88458.95846654999</v>
       </c>
       <c r="H78" t="n">
-        <v>0</v>
-      </c>
-      <c r="I78" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
       <c r="K78" t="inlineStr"/>
-      <c r="L78" t="inlineStr"/>
-      <c r="M78" t="n">
-        <v>1</v>
-      </c>
-      <c r="N78" t="inlineStr"/>
+      <c r="L78" t="n">
+        <v>1</v>
+      </c>
+      <c r="M78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -3230,16 +2994,13 @@
       <c r="H79" t="n">
         <v>0</v>
       </c>
-      <c r="I79" t="n">
-        <v>0</v>
-      </c>
+      <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
       <c r="K79" t="inlineStr"/>
-      <c r="L79" t="inlineStr"/>
-      <c r="M79" t="n">
-        <v>1</v>
-      </c>
-      <c r="N79" t="inlineStr"/>
+      <c r="L79" t="n">
+        <v>1</v>
+      </c>
+      <c r="M79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3266,16 +3027,13 @@
       <c r="H80" t="n">
         <v>0</v>
       </c>
-      <c r="I80" t="n">
-        <v>0</v>
-      </c>
+      <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
       <c r="K80" t="inlineStr"/>
-      <c r="L80" t="inlineStr"/>
-      <c r="M80" t="n">
-        <v>1</v>
-      </c>
-      <c r="N80" t="inlineStr"/>
+      <c r="L80" t="n">
+        <v>1</v>
+      </c>
+      <c r="M80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3302,16 +3060,13 @@
       <c r="H81" t="n">
         <v>0</v>
       </c>
-      <c r="I81" t="n">
-        <v>0</v>
-      </c>
+      <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
       <c r="K81" t="inlineStr"/>
-      <c r="L81" t="inlineStr"/>
-      <c r="M81" t="n">
-        <v>1</v>
-      </c>
-      <c r="N81" t="inlineStr"/>
+      <c r="L81" t="n">
+        <v>1</v>
+      </c>
+      <c r="M81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3338,16 +3093,13 @@
       <c r="H82" t="n">
         <v>0</v>
       </c>
-      <c r="I82" t="n">
-        <v>0</v>
-      </c>
+      <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
       <c r="K82" t="inlineStr"/>
-      <c r="L82" t="inlineStr"/>
-      <c r="M82" t="n">
-        <v>1</v>
-      </c>
-      <c r="N82" t="inlineStr"/>
+      <c r="L82" t="n">
+        <v>1</v>
+      </c>
+      <c r="M82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3374,16 +3126,13 @@
       <c r="H83" t="n">
         <v>0</v>
       </c>
-      <c r="I83" t="n">
-        <v>0</v>
-      </c>
+      <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
       <c r="K83" t="inlineStr"/>
-      <c r="L83" t="inlineStr"/>
-      <c r="M83" t="n">
-        <v>1</v>
-      </c>
-      <c r="N83" t="inlineStr"/>
+      <c r="L83" t="n">
+        <v>1</v>
+      </c>
+      <c r="M83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3410,16 +3159,13 @@
       <c r="H84" t="n">
         <v>0</v>
       </c>
-      <c r="I84" t="n">
-        <v>0</v>
-      </c>
+      <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
       <c r="K84" t="inlineStr"/>
-      <c r="L84" t="inlineStr"/>
-      <c r="M84" t="n">
-        <v>1</v>
-      </c>
-      <c r="N84" t="inlineStr"/>
+      <c r="L84" t="n">
+        <v>1</v>
+      </c>
+      <c r="M84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3444,18 +3190,15 @@
         <v>-103042.50336655</v>
       </c>
       <c r="H85" t="n">
-        <v>0</v>
-      </c>
-      <c r="I85" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
       <c r="K85" t="inlineStr"/>
-      <c r="L85" t="inlineStr"/>
-      <c r="M85" t="n">
-        <v>1</v>
-      </c>
-      <c r="N85" t="inlineStr"/>
+      <c r="L85" t="n">
+        <v>1</v>
+      </c>
+      <c r="M85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3480,18 +3223,15 @@
         <v>-104911.37406655</v>
       </c>
       <c r="H86" t="n">
-        <v>0</v>
-      </c>
-      <c r="I86" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
       <c r="K86" t="inlineStr"/>
-      <c r="L86" t="inlineStr"/>
-      <c r="M86" t="n">
-        <v>1</v>
-      </c>
-      <c r="N86" t="inlineStr"/>
+      <c r="L86" t="n">
+        <v>1</v>
+      </c>
+      <c r="M86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3516,18 +3256,15 @@
         <v>-112413.56466655</v>
       </c>
       <c r="H87" t="n">
-        <v>0</v>
-      </c>
-      <c r="I87" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
       <c r="K87" t="inlineStr"/>
-      <c r="L87" t="inlineStr"/>
-      <c r="M87" t="n">
-        <v>1</v>
-      </c>
-      <c r="N87" t="inlineStr"/>
+      <c r="L87" t="n">
+        <v>1</v>
+      </c>
+      <c r="M87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3552,18 +3289,15 @@
         <v>-112804.77736655</v>
       </c>
       <c r="H88" t="n">
-        <v>0</v>
-      </c>
-      <c r="I88" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
       <c r="K88" t="inlineStr"/>
-      <c r="L88" t="inlineStr"/>
-      <c r="M88" t="n">
-        <v>1</v>
-      </c>
-      <c r="N88" t="inlineStr"/>
+      <c r="L88" t="n">
+        <v>1</v>
+      </c>
+      <c r="M88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3588,18 +3322,15 @@
         <v>-119956.83926655</v>
       </c>
       <c r="H89" t="n">
-        <v>0</v>
-      </c>
-      <c r="I89" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
       <c r="K89" t="inlineStr"/>
-      <c r="L89" t="inlineStr"/>
-      <c r="M89" t="n">
-        <v>1</v>
-      </c>
-      <c r="N89" t="inlineStr"/>
+      <c r="L89" t="n">
+        <v>1</v>
+      </c>
+      <c r="M89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3624,18 +3355,15 @@
         <v>-127960.31556655</v>
       </c>
       <c r="H90" t="n">
-        <v>0</v>
-      </c>
-      <c r="I90" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
       <c r="K90" t="inlineStr"/>
-      <c r="L90" t="inlineStr"/>
-      <c r="M90" t="n">
-        <v>1</v>
-      </c>
-      <c r="N90" t="inlineStr"/>
+      <c r="L90" t="n">
+        <v>1</v>
+      </c>
+      <c r="M90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -3660,18 +3388,15 @@
         <v>-127960.31556655</v>
       </c>
       <c r="H91" t="n">
-        <v>0</v>
-      </c>
-      <c r="I91" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
       <c r="K91" t="inlineStr"/>
-      <c r="L91" t="inlineStr"/>
-      <c r="M91" t="n">
-        <v>1</v>
-      </c>
-      <c r="N91" t="inlineStr"/>
+      <c r="L91" t="n">
+        <v>1</v>
+      </c>
+      <c r="M91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3696,18 +3421,15 @@
         <v>-127960.31556655</v>
       </c>
       <c r="H92" t="n">
-        <v>0</v>
-      </c>
-      <c r="I92" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
       <c r="K92" t="inlineStr"/>
-      <c r="L92" t="inlineStr"/>
-      <c r="M92" t="n">
-        <v>1</v>
-      </c>
-      <c r="N92" t="inlineStr"/>
+      <c r="L92" t="n">
+        <v>1</v>
+      </c>
+      <c r="M92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3732,18 +3454,15 @@
         <v>-127960.31556655</v>
       </c>
       <c r="H93" t="n">
-        <v>0</v>
-      </c>
-      <c r="I93" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
       <c r="K93" t="inlineStr"/>
-      <c r="L93" t="inlineStr"/>
-      <c r="M93" t="n">
-        <v>1</v>
-      </c>
-      <c r="N93" t="inlineStr"/>
+      <c r="L93" t="n">
+        <v>1</v>
+      </c>
+      <c r="M93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3768,18 +3487,15 @@
         <v>-127798.77056655</v>
       </c>
       <c r="H94" t="n">
-        <v>0</v>
-      </c>
-      <c r="I94" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
       <c r="K94" t="inlineStr"/>
-      <c r="L94" t="inlineStr"/>
-      <c r="M94" t="n">
-        <v>1</v>
-      </c>
-      <c r="N94" t="inlineStr"/>
+      <c r="L94" t="n">
+        <v>1</v>
+      </c>
+      <c r="M94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3804,18 +3520,15 @@
         <v>-127421.59196655</v>
       </c>
       <c r="H95" t="n">
-        <v>0</v>
-      </c>
-      <c r="I95" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
       <c r="K95" t="inlineStr"/>
-      <c r="L95" t="inlineStr"/>
-      <c r="M95" t="n">
-        <v>1</v>
-      </c>
-      <c r="N95" t="inlineStr"/>
+      <c r="L95" t="n">
+        <v>1</v>
+      </c>
+      <c r="M95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3840,18 +3553,15 @@
         <v>-128921.59196655</v>
       </c>
       <c r="H96" t="n">
-        <v>0</v>
-      </c>
-      <c r="I96" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
       <c r="K96" t="inlineStr"/>
-      <c r="L96" t="inlineStr"/>
-      <c r="M96" t="n">
-        <v>1</v>
-      </c>
-      <c r="N96" t="inlineStr"/>
+      <c r="L96" t="n">
+        <v>1</v>
+      </c>
+      <c r="M96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3876,18 +3586,15 @@
         <v>-128728.85156655</v>
       </c>
       <c r="H97" t="n">
-        <v>0</v>
-      </c>
-      <c r="I97" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
       <c r="K97" t="inlineStr"/>
-      <c r="L97" t="inlineStr"/>
-      <c r="M97" t="n">
-        <v>1</v>
-      </c>
-      <c r="N97" t="inlineStr"/>
+      <c r="L97" t="n">
+        <v>1</v>
+      </c>
+      <c r="M97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -3912,18 +3619,15 @@
         <v>-137298.45876655</v>
       </c>
       <c r="H98" t="n">
-        <v>0</v>
-      </c>
-      <c r="I98" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
       <c r="K98" t="inlineStr"/>
-      <c r="L98" t="inlineStr"/>
-      <c r="M98" t="n">
-        <v>1</v>
-      </c>
-      <c r="N98" t="inlineStr"/>
+      <c r="L98" t="n">
+        <v>1</v>
+      </c>
+      <c r="M98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -3948,18 +3652,15 @@
         <v>-137111.45876655</v>
       </c>
       <c r="H99" t="n">
-        <v>0</v>
-      </c>
-      <c r="I99" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
       <c r="K99" t="inlineStr"/>
-      <c r="L99" t="inlineStr"/>
-      <c r="M99" t="n">
-        <v>1</v>
-      </c>
-      <c r="N99" t="inlineStr"/>
+      <c r="L99" t="n">
+        <v>1</v>
+      </c>
+      <c r="M99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3984,18 +3685,15 @@
         <v>-130813.77376655</v>
       </c>
       <c r="H100" t="n">
-        <v>0</v>
-      </c>
-      <c r="I100" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
       <c r="K100" t="inlineStr"/>
-      <c r="L100" t="inlineStr"/>
-      <c r="M100" t="n">
-        <v>1</v>
-      </c>
-      <c r="N100" t="inlineStr"/>
+      <c r="L100" t="n">
+        <v>1</v>
+      </c>
+      <c r="M100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -4022,16 +3720,13 @@
       <c r="H101" t="n">
         <v>0</v>
       </c>
-      <c r="I101" t="n">
-        <v>0</v>
-      </c>
+      <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
       <c r="K101" t="inlineStr"/>
-      <c r="L101" t="inlineStr"/>
-      <c r="M101" t="n">
-        <v>1</v>
-      </c>
-      <c r="N101" t="inlineStr"/>
+      <c r="L101" t="n">
+        <v>1</v>
+      </c>
+      <c r="M101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -4058,16 +3753,13 @@
       <c r="H102" t="n">
         <v>0</v>
       </c>
-      <c r="I102" t="n">
-        <v>0</v>
-      </c>
+      <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
       <c r="K102" t="inlineStr"/>
-      <c r="L102" t="inlineStr"/>
-      <c r="M102" t="n">
-        <v>1</v>
-      </c>
-      <c r="N102" t="inlineStr"/>
+      <c r="L102" t="n">
+        <v>1</v>
+      </c>
+      <c r="M102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -4094,16 +3786,13 @@
       <c r="H103" t="n">
         <v>0</v>
       </c>
-      <c r="I103" t="n">
-        <v>0</v>
-      </c>
+      <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
       <c r="K103" t="inlineStr"/>
-      <c r="L103" t="inlineStr"/>
-      <c r="M103" t="n">
-        <v>1</v>
-      </c>
-      <c r="N103" t="inlineStr"/>
+      <c r="L103" t="n">
+        <v>1</v>
+      </c>
+      <c r="M103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -4130,16 +3819,13 @@
       <c r="H104" t="n">
         <v>0</v>
       </c>
-      <c r="I104" t="n">
-        <v>0</v>
-      </c>
+      <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
       <c r="K104" t="inlineStr"/>
-      <c r="L104" t="inlineStr"/>
-      <c r="M104" t="n">
-        <v>1</v>
-      </c>
-      <c r="N104" t="inlineStr"/>
+      <c r="L104" t="n">
+        <v>1</v>
+      </c>
+      <c r="M104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -4166,16 +3852,13 @@
       <c r="H105" t="n">
         <v>0</v>
       </c>
-      <c r="I105" t="n">
-        <v>0</v>
-      </c>
+      <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
       <c r="K105" t="inlineStr"/>
-      <c r="L105" t="inlineStr"/>
-      <c r="M105" t="n">
-        <v>1</v>
-      </c>
-      <c r="N105" t="inlineStr"/>
+      <c r="L105" t="n">
+        <v>1</v>
+      </c>
+      <c r="M105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -4202,16 +3885,13 @@
       <c r="H106" t="n">
         <v>0</v>
       </c>
-      <c r="I106" t="n">
-        <v>0</v>
-      </c>
+      <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
       <c r="K106" t="inlineStr"/>
-      <c r="L106" t="inlineStr"/>
-      <c r="M106" t="n">
-        <v>1</v>
-      </c>
-      <c r="N106" t="inlineStr"/>
+      <c r="L106" t="n">
+        <v>1</v>
+      </c>
+      <c r="M106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -4238,16 +3918,13 @@
       <c r="H107" t="n">
         <v>0</v>
       </c>
-      <c r="I107" t="n">
-        <v>0</v>
-      </c>
+      <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
       <c r="K107" t="inlineStr"/>
-      <c r="L107" t="inlineStr"/>
-      <c r="M107" t="n">
-        <v>1</v>
-      </c>
-      <c r="N107" t="inlineStr"/>
+      <c r="L107" t="n">
+        <v>1</v>
+      </c>
+      <c r="M107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -4274,16 +3951,13 @@
       <c r="H108" t="n">
         <v>0</v>
       </c>
-      <c r="I108" t="n">
-        <v>0</v>
-      </c>
+      <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
       <c r="K108" t="inlineStr"/>
-      <c r="L108" t="inlineStr"/>
-      <c r="M108" t="n">
-        <v>1</v>
-      </c>
-      <c r="N108" t="inlineStr"/>
+      <c r="L108" t="n">
+        <v>1</v>
+      </c>
+      <c r="M108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -4310,16 +3984,13 @@
       <c r="H109" t="n">
         <v>0</v>
       </c>
-      <c r="I109" t="n">
-        <v>0</v>
-      </c>
+      <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
       <c r="K109" t="inlineStr"/>
-      <c r="L109" t="inlineStr"/>
-      <c r="M109" t="n">
-        <v>1</v>
-      </c>
-      <c r="N109" t="inlineStr"/>
+      <c r="L109" t="n">
+        <v>1</v>
+      </c>
+      <c r="M109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4346,16 +4017,13 @@
       <c r="H110" t="n">
         <v>0</v>
       </c>
-      <c r="I110" t="n">
-        <v>0</v>
-      </c>
+      <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
       <c r="K110" t="inlineStr"/>
-      <c r="L110" t="inlineStr"/>
-      <c r="M110" t="n">
-        <v>1</v>
-      </c>
-      <c r="N110" t="inlineStr"/>
+      <c r="L110" t="n">
+        <v>1</v>
+      </c>
+      <c r="M110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4382,16 +4050,13 @@
       <c r="H111" t="n">
         <v>0</v>
       </c>
-      <c r="I111" t="n">
-        <v>0</v>
-      </c>
+      <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
       <c r="K111" t="inlineStr"/>
-      <c r="L111" t="inlineStr"/>
-      <c r="M111" t="n">
-        <v>1</v>
-      </c>
-      <c r="N111" t="inlineStr"/>
+      <c r="L111" t="n">
+        <v>1</v>
+      </c>
+      <c r="M111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -4416,18 +4081,15 @@
         <v>-128839.26216655</v>
       </c>
       <c r="H112" t="n">
-        <v>0</v>
-      </c>
-      <c r="I112" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
       <c r="K112" t="inlineStr"/>
-      <c r="L112" t="inlineStr"/>
-      <c r="M112" t="n">
-        <v>1</v>
-      </c>
-      <c r="N112" t="inlineStr"/>
+      <c r="L112" t="n">
+        <v>1</v>
+      </c>
+      <c r="M112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -4454,16 +4116,13 @@
       <c r="H113" t="n">
         <v>0</v>
       </c>
-      <c r="I113" t="n">
-        <v>0</v>
-      </c>
+      <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
       <c r="K113" t="inlineStr"/>
-      <c r="L113" t="inlineStr"/>
-      <c r="M113" t="n">
-        <v>1</v>
-      </c>
-      <c r="N113" t="inlineStr"/>
+      <c r="L113" t="n">
+        <v>1</v>
+      </c>
+      <c r="M113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -4490,16 +4149,13 @@
       <c r="H114" t="n">
         <v>0</v>
       </c>
-      <c r="I114" t="n">
-        <v>0</v>
-      </c>
+      <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
       <c r="K114" t="inlineStr"/>
-      <c r="L114" t="inlineStr"/>
-      <c r="M114" t="n">
-        <v>1</v>
-      </c>
-      <c r="N114" t="inlineStr"/>
+      <c r="L114" t="n">
+        <v>1</v>
+      </c>
+      <c r="M114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -4526,16 +4182,13 @@
       <c r="H115" t="n">
         <v>0</v>
       </c>
-      <c r="I115" t="n">
-        <v>0</v>
-      </c>
+      <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
       <c r="K115" t="inlineStr"/>
-      <c r="L115" t="inlineStr"/>
-      <c r="M115" t="n">
-        <v>1</v>
-      </c>
-      <c r="N115" t="inlineStr"/>
+      <c r="L115" t="n">
+        <v>1</v>
+      </c>
+      <c r="M115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -4562,16 +4215,13 @@
       <c r="H116" t="n">
         <v>0</v>
       </c>
-      <c r="I116" t="n">
-        <v>0</v>
-      </c>
+      <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
       <c r="K116" t="inlineStr"/>
-      <c r="L116" t="inlineStr"/>
-      <c r="M116" t="n">
-        <v>1</v>
-      </c>
-      <c r="N116" t="inlineStr"/>
+      <c r="L116" t="n">
+        <v>1</v>
+      </c>
+      <c r="M116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -4598,16 +4248,13 @@
       <c r="H117" t="n">
         <v>0</v>
       </c>
-      <c r="I117" t="n">
-        <v>0</v>
-      </c>
+      <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
       <c r="K117" t="inlineStr"/>
-      <c r="L117" t="inlineStr"/>
-      <c r="M117" t="n">
-        <v>1</v>
-      </c>
-      <c r="N117" t="inlineStr"/>
+      <c r="L117" t="n">
+        <v>1</v>
+      </c>
+      <c r="M117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -4634,16 +4281,13 @@
       <c r="H118" t="n">
         <v>0</v>
       </c>
-      <c r="I118" t="n">
-        <v>0</v>
-      </c>
+      <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
       <c r="K118" t="inlineStr"/>
-      <c r="L118" t="inlineStr"/>
-      <c r="M118" t="n">
-        <v>1</v>
-      </c>
-      <c r="N118" t="inlineStr"/>
+      <c r="L118" t="n">
+        <v>1</v>
+      </c>
+      <c r="M118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -4670,16 +4314,13 @@
       <c r="H119" t="n">
         <v>0</v>
       </c>
-      <c r="I119" t="n">
-        <v>0</v>
-      </c>
+      <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
       <c r="K119" t="inlineStr"/>
-      <c r="L119" t="inlineStr"/>
-      <c r="M119" t="n">
-        <v>1</v>
-      </c>
-      <c r="N119" t="inlineStr"/>
+      <c r="L119" t="n">
+        <v>1</v>
+      </c>
+      <c r="M119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -4706,16 +4347,13 @@
       <c r="H120" t="n">
         <v>0</v>
       </c>
-      <c r="I120" t="n">
-        <v>0</v>
-      </c>
+      <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
       <c r="K120" t="inlineStr"/>
-      <c r="L120" t="inlineStr"/>
-      <c r="M120" t="n">
-        <v>1</v>
-      </c>
-      <c r="N120" t="inlineStr"/>
+      <c r="L120" t="n">
+        <v>1</v>
+      </c>
+      <c r="M120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -4742,16 +4380,13 @@
       <c r="H121" t="n">
         <v>0</v>
       </c>
-      <c r="I121" t="n">
-        <v>0</v>
-      </c>
+      <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
       <c r="K121" t="inlineStr"/>
-      <c r="L121" t="inlineStr"/>
-      <c r="M121" t="n">
-        <v>1</v>
-      </c>
-      <c r="N121" t="inlineStr"/>
+      <c r="L121" t="n">
+        <v>1</v>
+      </c>
+      <c r="M121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -4778,16 +4413,13 @@
       <c r="H122" t="n">
         <v>0</v>
       </c>
-      <c r="I122" t="n">
-        <v>0</v>
-      </c>
+      <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
       <c r="K122" t="inlineStr"/>
-      <c r="L122" t="inlineStr"/>
-      <c r="M122" t="n">
-        <v>1</v>
-      </c>
-      <c r="N122" t="inlineStr"/>
+      <c r="L122" t="n">
+        <v>1</v>
+      </c>
+      <c r="M122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -4814,16 +4446,13 @@
       <c r="H123" t="n">
         <v>0</v>
       </c>
-      <c r="I123" t="n">
-        <v>0</v>
-      </c>
+      <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
       <c r="K123" t="inlineStr"/>
-      <c r="L123" t="inlineStr"/>
-      <c r="M123" t="n">
-        <v>1</v>
-      </c>
-      <c r="N123" t="inlineStr"/>
+      <c r="L123" t="n">
+        <v>1</v>
+      </c>
+      <c r="M123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -4850,16 +4479,13 @@
       <c r="H124" t="n">
         <v>0</v>
       </c>
-      <c r="I124" t="n">
-        <v>0</v>
-      </c>
+      <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
       <c r="K124" t="inlineStr"/>
-      <c r="L124" t="inlineStr"/>
-      <c r="M124" t="n">
-        <v>1</v>
-      </c>
-      <c r="N124" t="inlineStr"/>
+      <c r="L124" t="n">
+        <v>1</v>
+      </c>
+      <c r="M124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -4886,16 +4512,13 @@
       <c r="H125" t="n">
         <v>0</v>
       </c>
-      <c r="I125" t="n">
-        <v>0</v>
-      </c>
+      <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
       <c r="K125" t="inlineStr"/>
-      <c r="L125" t="inlineStr"/>
-      <c r="M125" t="n">
-        <v>1</v>
-      </c>
-      <c r="N125" t="inlineStr"/>
+      <c r="L125" t="n">
+        <v>1</v>
+      </c>
+      <c r="M125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -4922,16 +4545,13 @@
       <c r="H126" t="n">
         <v>0</v>
       </c>
-      <c r="I126" t="n">
-        <v>0</v>
-      </c>
+      <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
       <c r="K126" t="inlineStr"/>
-      <c r="L126" t="inlineStr"/>
-      <c r="M126" t="n">
-        <v>1</v>
-      </c>
-      <c r="N126" t="inlineStr"/>
+      <c r="L126" t="n">
+        <v>1</v>
+      </c>
+      <c r="M126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -4958,16 +4578,13 @@
       <c r="H127" t="n">
         <v>0</v>
       </c>
-      <c r="I127" t="n">
-        <v>0</v>
-      </c>
+      <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
       <c r="K127" t="inlineStr"/>
-      <c r="L127" t="inlineStr"/>
-      <c r="M127" t="n">
-        <v>1</v>
-      </c>
-      <c r="N127" t="inlineStr"/>
+      <c r="L127" t="n">
+        <v>1</v>
+      </c>
+      <c r="M127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -4994,16 +4611,13 @@
       <c r="H128" t="n">
         <v>0</v>
       </c>
-      <c r="I128" t="n">
-        <v>0</v>
-      </c>
+      <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
       <c r="K128" t="inlineStr"/>
-      <c r="L128" t="inlineStr"/>
-      <c r="M128" t="n">
-        <v>1</v>
-      </c>
-      <c r="N128" t="inlineStr"/>
+      <c r="L128" t="n">
+        <v>1</v>
+      </c>
+      <c r="M128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -5030,16 +4644,13 @@
       <c r="H129" t="n">
         <v>0</v>
       </c>
-      <c r="I129" t="n">
-        <v>0</v>
-      </c>
+      <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
       <c r="K129" t="inlineStr"/>
-      <c r="L129" t="inlineStr"/>
-      <c r="M129" t="n">
-        <v>1</v>
-      </c>
-      <c r="N129" t="inlineStr"/>
+      <c r="L129" t="n">
+        <v>1</v>
+      </c>
+      <c r="M129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -5066,16 +4677,13 @@
       <c r="H130" t="n">
         <v>0</v>
       </c>
-      <c r="I130" t="n">
-        <v>0</v>
-      </c>
+      <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
       <c r="K130" t="inlineStr"/>
-      <c r="L130" t="inlineStr"/>
-      <c r="M130" t="n">
-        <v>1</v>
-      </c>
-      <c r="N130" t="inlineStr"/>
+      <c r="L130" t="n">
+        <v>1</v>
+      </c>
+      <c r="M130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -5102,16 +4710,13 @@
       <c r="H131" t="n">
         <v>0</v>
       </c>
-      <c r="I131" t="n">
-        <v>0</v>
-      </c>
+      <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
       <c r="K131" t="inlineStr"/>
-      <c r="L131" t="inlineStr"/>
-      <c r="M131" t="n">
-        <v>1</v>
-      </c>
-      <c r="N131" t="inlineStr"/>
+      <c r="L131" t="n">
+        <v>1</v>
+      </c>
+      <c r="M131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -5138,16 +4743,13 @@
       <c r="H132" t="n">
         <v>0</v>
       </c>
-      <c r="I132" t="n">
-        <v>0</v>
-      </c>
+      <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
       <c r="K132" t="inlineStr"/>
-      <c r="L132" t="inlineStr"/>
-      <c r="M132" t="n">
-        <v>1</v>
-      </c>
-      <c r="N132" t="inlineStr"/>
+      <c r="L132" t="n">
+        <v>1</v>
+      </c>
+      <c r="M132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -5174,16 +4776,13 @@
       <c r="H133" t="n">
         <v>0</v>
       </c>
-      <c r="I133" t="n">
-        <v>0</v>
-      </c>
+      <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
       <c r="K133" t="inlineStr"/>
-      <c r="L133" t="inlineStr"/>
-      <c r="M133" t="n">
-        <v>1</v>
-      </c>
-      <c r="N133" t="inlineStr"/>
+      <c r="L133" t="n">
+        <v>1</v>
+      </c>
+      <c r="M133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -5210,16 +4809,13 @@
       <c r="H134" t="n">
         <v>0</v>
       </c>
-      <c r="I134" t="n">
-        <v>0</v>
-      </c>
+      <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
       <c r="K134" t="inlineStr"/>
-      <c r="L134" t="inlineStr"/>
-      <c r="M134" t="n">
-        <v>1</v>
-      </c>
-      <c r="N134" t="inlineStr"/>
+      <c r="L134" t="n">
+        <v>1</v>
+      </c>
+      <c r="M134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -5246,16 +4842,13 @@
       <c r="H135" t="n">
         <v>0</v>
       </c>
-      <c r="I135" t="n">
-        <v>0</v>
-      </c>
+      <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
       <c r="K135" t="inlineStr"/>
-      <c r="L135" t="inlineStr"/>
-      <c r="M135" t="n">
-        <v>1</v>
-      </c>
-      <c r="N135" t="inlineStr"/>
+      <c r="L135" t="n">
+        <v>1</v>
+      </c>
+      <c r="M135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -5282,16 +4875,13 @@
       <c r="H136" t="n">
         <v>0</v>
       </c>
-      <c r="I136" t="n">
-        <v>0</v>
-      </c>
+      <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
       <c r="K136" t="inlineStr"/>
-      <c r="L136" t="inlineStr"/>
-      <c r="M136" t="n">
-        <v>1</v>
-      </c>
-      <c r="N136" t="inlineStr"/>
+      <c r="L136" t="n">
+        <v>1</v>
+      </c>
+      <c r="M136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
@@ -5318,16 +4908,13 @@
       <c r="H137" t="n">
         <v>0</v>
       </c>
-      <c r="I137" t="n">
-        <v>0</v>
-      </c>
+      <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
       <c r="K137" t="inlineStr"/>
-      <c r="L137" t="inlineStr"/>
-      <c r="M137" t="n">
-        <v>1</v>
-      </c>
-      <c r="N137" t="inlineStr"/>
+      <c r="L137" t="n">
+        <v>1</v>
+      </c>
+      <c r="M137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
@@ -5354,16 +4941,13 @@
       <c r="H138" t="n">
         <v>0</v>
       </c>
-      <c r="I138" t="n">
-        <v>0</v>
-      </c>
+      <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
       <c r="K138" t="inlineStr"/>
-      <c r="L138" t="inlineStr"/>
-      <c r="M138" t="n">
-        <v>1</v>
-      </c>
-      <c r="N138" t="inlineStr"/>
+      <c r="L138" t="n">
+        <v>1</v>
+      </c>
+      <c r="M138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
@@ -5390,16 +4974,13 @@
       <c r="H139" t="n">
         <v>0</v>
       </c>
-      <c r="I139" t="n">
-        <v>0</v>
-      </c>
+      <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
       <c r="K139" t="inlineStr"/>
-      <c r="L139" t="inlineStr"/>
-      <c r="M139" t="n">
-        <v>1</v>
-      </c>
-      <c r="N139" t="inlineStr"/>
+      <c r="L139" t="n">
+        <v>1</v>
+      </c>
+      <c r="M139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
@@ -5426,16 +5007,13 @@
       <c r="H140" t="n">
         <v>0</v>
       </c>
-      <c r="I140" t="n">
-        <v>0</v>
-      </c>
+      <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
       <c r="K140" t="inlineStr"/>
-      <c r="L140" t="inlineStr"/>
-      <c r="M140" t="n">
-        <v>1</v>
-      </c>
-      <c r="N140" t="inlineStr"/>
+      <c r="L140" t="n">
+        <v>1</v>
+      </c>
+      <c r="M140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
@@ -5462,16 +5040,13 @@
       <c r="H141" t="n">
         <v>0</v>
       </c>
-      <c r="I141" t="n">
-        <v>0</v>
-      </c>
+      <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
       <c r="K141" t="inlineStr"/>
-      <c r="L141" t="inlineStr"/>
-      <c r="M141" t="n">
-        <v>1</v>
-      </c>
-      <c r="N141" t="inlineStr"/>
+      <c r="L141" t="n">
+        <v>1</v>
+      </c>
+      <c r="M141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
@@ -5498,16 +5073,13 @@
       <c r="H142" t="n">
         <v>0</v>
       </c>
-      <c r="I142" t="n">
-        <v>0</v>
-      </c>
+      <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
       <c r="K142" t="inlineStr"/>
-      <c r="L142" t="inlineStr"/>
-      <c r="M142" t="n">
-        <v>1</v>
-      </c>
-      <c r="N142" t="inlineStr"/>
+      <c r="L142" t="n">
+        <v>1</v>
+      </c>
+      <c r="M142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
@@ -5534,16 +5106,13 @@
       <c r="H143" t="n">
         <v>0</v>
       </c>
-      <c r="I143" t="n">
-        <v>0</v>
-      </c>
+      <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
       <c r="K143" t="inlineStr"/>
-      <c r="L143" t="inlineStr"/>
-      <c r="M143" t="n">
-        <v>1</v>
-      </c>
-      <c r="N143" t="inlineStr"/>
+      <c r="L143" t="n">
+        <v>1</v>
+      </c>
+      <c r="M143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
@@ -5570,16 +5139,13 @@
       <c r="H144" t="n">
         <v>0</v>
       </c>
-      <c r="I144" t="n">
-        <v>0</v>
-      </c>
+      <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
       <c r="K144" t="inlineStr"/>
-      <c r="L144" t="inlineStr"/>
-      <c r="M144" t="n">
-        <v>1</v>
-      </c>
-      <c r="N144" t="inlineStr"/>
+      <c r="L144" t="n">
+        <v>1</v>
+      </c>
+      <c r="M144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
@@ -5606,16 +5172,13 @@
       <c r="H145" t="n">
         <v>0</v>
       </c>
-      <c r="I145" t="n">
-        <v>0</v>
-      </c>
+      <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
       <c r="K145" t="inlineStr"/>
-      <c r="L145" t="inlineStr"/>
-      <c r="M145" t="n">
-        <v>1</v>
-      </c>
-      <c r="N145" t="inlineStr"/>
+      <c r="L145" t="n">
+        <v>1</v>
+      </c>
+      <c r="M145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
@@ -5642,16 +5205,13 @@
       <c r="H146" t="n">
         <v>0</v>
       </c>
-      <c r="I146" t="n">
-        <v>0</v>
-      </c>
+      <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
       <c r="K146" t="inlineStr"/>
-      <c r="L146" t="inlineStr"/>
-      <c r="M146" t="n">
-        <v>1</v>
-      </c>
-      <c r="N146" t="inlineStr"/>
+      <c r="L146" t="n">
+        <v>1</v>
+      </c>
+      <c r="M146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
@@ -5678,16 +5238,13 @@
       <c r="H147" t="n">
         <v>0</v>
       </c>
-      <c r="I147" t="n">
-        <v>0</v>
-      </c>
+      <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
       <c r="K147" t="inlineStr"/>
-      <c r="L147" t="inlineStr"/>
-      <c r="M147" t="n">
-        <v>1</v>
-      </c>
-      <c r="N147" t="inlineStr"/>
+      <c r="L147" t="n">
+        <v>1</v>
+      </c>
+      <c r="M147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
@@ -5714,16 +5271,13 @@
       <c r="H148" t="n">
         <v>0</v>
       </c>
-      <c r="I148" t="n">
-        <v>0</v>
-      </c>
+      <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
       <c r="K148" t="inlineStr"/>
-      <c r="L148" t="inlineStr"/>
-      <c r="M148" t="n">
-        <v>1</v>
-      </c>
-      <c r="N148" t="inlineStr"/>
+      <c r="L148" t="n">
+        <v>1</v>
+      </c>
+      <c r="M148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
@@ -5750,16 +5304,13 @@
       <c r="H149" t="n">
         <v>0</v>
       </c>
-      <c r="I149" t="n">
-        <v>0</v>
-      </c>
+      <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
       <c r="K149" t="inlineStr"/>
-      <c r="L149" t="inlineStr"/>
-      <c r="M149" t="n">
-        <v>1</v>
-      </c>
-      <c r="N149" t="inlineStr"/>
+      <c r="L149" t="n">
+        <v>1</v>
+      </c>
+      <c r="M149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
@@ -5786,16 +5337,13 @@
       <c r="H150" t="n">
         <v>0</v>
       </c>
-      <c r="I150" t="n">
-        <v>0</v>
-      </c>
+      <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
       <c r="K150" t="inlineStr"/>
-      <c r="L150" t="inlineStr"/>
-      <c r="M150" t="n">
-        <v>1</v>
-      </c>
-      <c r="N150" t="inlineStr"/>
+      <c r="L150" t="n">
+        <v>1</v>
+      </c>
+      <c r="M150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
@@ -5822,16 +5370,13 @@
       <c r="H151" t="n">
         <v>0</v>
       </c>
-      <c r="I151" t="n">
-        <v>0</v>
-      </c>
+      <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
       <c r="K151" t="inlineStr"/>
-      <c r="L151" t="inlineStr"/>
-      <c r="M151" t="n">
-        <v>1</v>
-      </c>
-      <c r="N151" t="inlineStr"/>
+      <c r="L151" t="n">
+        <v>1</v>
+      </c>
+      <c r="M151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
@@ -5858,16 +5403,13 @@
       <c r="H152" t="n">
         <v>0</v>
       </c>
-      <c r="I152" t="n">
-        <v>0</v>
-      </c>
+      <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
       <c r="K152" t="inlineStr"/>
-      <c r="L152" t="inlineStr"/>
-      <c r="M152" t="n">
-        <v>1</v>
-      </c>
-      <c r="N152" t="inlineStr"/>
+      <c r="L152" t="n">
+        <v>1</v>
+      </c>
+      <c r="M152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
@@ -5894,16 +5436,13 @@
       <c r="H153" t="n">
         <v>0</v>
       </c>
-      <c r="I153" t="n">
-        <v>0</v>
-      </c>
+      <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
       <c r="K153" t="inlineStr"/>
-      <c r="L153" t="inlineStr"/>
-      <c r="M153" t="n">
-        <v>1</v>
-      </c>
-      <c r="N153" t="inlineStr"/>
+      <c r="L153" t="n">
+        <v>1</v>
+      </c>
+      <c r="M153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
@@ -5930,16 +5469,13 @@
       <c r="H154" t="n">
         <v>0</v>
       </c>
-      <c r="I154" t="n">
-        <v>0</v>
-      </c>
+      <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
       <c r="K154" t="inlineStr"/>
-      <c r="L154" t="inlineStr"/>
-      <c r="M154" t="n">
-        <v>1</v>
-      </c>
-      <c r="N154" t="inlineStr"/>
+      <c r="L154" t="n">
+        <v>1</v>
+      </c>
+      <c r="M154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
@@ -5966,16 +5502,13 @@
       <c r="H155" t="n">
         <v>0</v>
       </c>
-      <c r="I155" t="n">
-        <v>0</v>
-      </c>
+      <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
       <c r="K155" t="inlineStr"/>
-      <c r="L155" t="inlineStr"/>
-      <c r="M155" t="n">
-        <v>1</v>
-      </c>
-      <c r="N155" t="inlineStr"/>
+      <c r="L155" t="n">
+        <v>1</v>
+      </c>
+      <c r="M155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
@@ -6002,16 +5535,13 @@
       <c r="H156" t="n">
         <v>0</v>
       </c>
-      <c r="I156" t="n">
-        <v>0</v>
-      </c>
+      <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
       <c r="K156" t="inlineStr"/>
-      <c r="L156" t="inlineStr"/>
-      <c r="M156" t="n">
-        <v>1</v>
-      </c>
-      <c r="N156" t="inlineStr"/>
+      <c r="L156" t="n">
+        <v>1</v>
+      </c>
+      <c r="M156" t="inlineStr"/>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
@@ -6038,16 +5568,13 @@
       <c r="H157" t="n">
         <v>0</v>
       </c>
-      <c r="I157" t="n">
-        <v>0</v>
-      </c>
+      <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
       <c r="K157" t="inlineStr"/>
-      <c r="L157" t="inlineStr"/>
-      <c r="M157" t="n">
-        <v>1</v>
-      </c>
-      <c r="N157" t="inlineStr"/>
+      <c r="L157" t="n">
+        <v>1</v>
+      </c>
+      <c r="M157" t="inlineStr"/>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
@@ -6074,16 +5601,13 @@
       <c r="H158" t="n">
         <v>0</v>
       </c>
-      <c r="I158" t="n">
-        <v>0</v>
-      </c>
+      <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
       <c r="K158" t="inlineStr"/>
-      <c r="L158" t="inlineStr"/>
-      <c r="M158" t="n">
-        <v>1</v>
-      </c>
-      <c r="N158" t="inlineStr"/>
+      <c r="L158" t="n">
+        <v>1</v>
+      </c>
+      <c r="M158" t="inlineStr"/>
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
@@ -6110,16 +5634,13 @@
       <c r="H159" t="n">
         <v>0</v>
       </c>
-      <c r="I159" t="n">
-        <v>0</v>
-      </c>
+      <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
       <c r="K159" t="inlineStr"/>
-      <c r="L159" t="inlineStr"/>
-      <c r="M159" t="n">
-        <v>1</v>
-      </c>
-      <c r="N159" t="inlineStr"/>
+      <c r="L159" t="n">
+        <v>1</v>
+      </c>
+      <c r="M159" t="inlineStr"/>
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
@@ -6146,16 +5667,13 @@
       <c r="H160" t="n">
         <v>0</v>
       </c>
-      <c r="I160" t="n">
-        <v>0</v>
-      </c>
+      <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
       <c r="K160" t="inlineStr"/>
-      <c r="L160" t="inlineStr"/>
-      <c r="M160" t="n">
-        <v>1</v>
-      </c>
-      <c r="N160" t="inlineStr"/>
+      <c r="L160" t="n">
+        <v>1</v>
+      </c>
+      <c r="M160" t="inlineStr"/>
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
@@ -6182,16 +5700,13 @@
       <c r="H161" t="n">
         <v>0</v>
       </c>
-      <c r="I161" t="n">
-        <v>0</v>
-      </c>
+      <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
       <c r="K161" t="inlineStr"/>
-      <c r="L161" t="inlineStr"/>
-      <c r="M161" t="n">
-        <v>1</v>
-      </c>
-      <c r="N161" t="inlineStr"/>
+      <c r="L161" t="n">
+        <v>1</v>
+      </c>
+      <c r="M161" t="inlineStr"/>
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
@@ -6218,16 +5733,13 @@
       <c r="H162" t="n">
         <v>0</v>
       </c>
-      <c r="I162" t="n">
-        <v>0</v>
-      </c>
+      <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
       <c r="K162" t="inlineStr"/>
-      <c r="L162" t="inlineStr"/>
-      <c r="M162" t="n">
-        <v>1</v>
-      </c>
-      <c r="N162" t="inlineStr"/>
+      <c r="L162" t="n">
+        <v>1</v>
+      </c>
+      <c r="M162" t="inlineStr"/>
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
@@ -6254,16 +5766,13 @@
       <c r="H163" t="n">
         <v>0</v>
       </c>
-      <c r="I163" t="n">
-        <v>0</v>
-      </c>
+      <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
       <c r="K163" t="inlineStr"/>
-      <c r="L163" t="inlineStr"/>
-      <c r="M163" t="n">
-        <v>1</v>
-      </c>
-      <c r="N163" t="inlineStr"/>
+      <c r="L163" t="n">
+        <v>1</v>
+      </c>
+      <c r="M163" t="inlineStr"/>
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
@@ -6290,16 +5799,13 @@
       <c r="H164" t="n">
         <v>0</v>
       </c>
-      <c r="I164" t="n">
-        <v>0</v>
-      </c>
+      <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
       <c r="K164" t="inlineStr"/>
-      <c r="L164" t="inlineStr"/>
-      <c r="M164" t="n">
-        <v>1</v>
-      </c>
-      <c r="N164" t="inlineStr"/>
+      <c r="L164" t="n">
+        <v>1</v>
+      </c>
+      <c r="M164" t="inlineStr"/>
     </row>
     <row r="165">
       <c r="A165" s="1" t="n">
@@ -6326,16 +5832,13 @@
       <c r="H165" t="n">
         <v>0</v>
       </c>
-      <c r="I165" t="n">
-        <v>0</v>
-      </c>
+      <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
       <c r="K165" t="inlineStr"/>
-      <c r="L165" t="inlineStr"/>
-      <c r="M165" t="n">
-        <v>1</v>
-      </c>
-      <c r="N165" t="inlineStr"/>
+      <c r="L165" t="n">
+        <v>1</v>
+      </c>
+      <c r="M165" t="inlineStr"/>
     </row>
     <row r="166">
       <c r="A166" s="1" t="n">
@@ -6362,16 +5865,13 @@
       <c r="H166" t="n">
         <v>0</v>
       </c>
-      <c r="I166" t="n">
-        <v>0</v>
-      </c>
+      <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
       <c r="K166" t="inlineStr"/>
-      <c r="L166" t="inlineStr"/>
-      <c r="M166" t="n">
-        <v>1</v>
-      </c>
-      <c r="N166" t="inlineStr"/>
+      <c r="L166" t="n">
+        <v>1</v>
+      </c>
+      <c r="M166" t="inlineStr"/>
     </row>
     <row r="167">
       <c r="A167" s="1" t="n">
@@ -6398,16 +5898,13 @@
       <c r="H167" t="n">
         <v>0</v>
       </c>
-      <c r="I167" t="n">
-        <v>0</v>
-      </c>
+      <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
       <c r="K167" t="inlineStr"/>
-      <c r="L167" t="inlineStr"/>
-      <c r="M167" t="n">
-        <v>1</v>
-      </c>
-      <c r="N167" t="inlineStr"/>
+      <c r="L167" t="n">
+        <v>1</v>
+      </c>
+      <c r="M167" t="inlineStr"/>
     </row>
     <row r="168">
       <c r="A168" s="1" t="n">
@@ -6434,16 +5931,13 @@
       <c r="H168" t="n">
         <v>0</v>
       </c>
-      <c r="I168" t="n">
-        <v>0</v>
-      </c>
+      <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
       <c r="K168" t="inlineStr"/>
-      <c r="L168" t="inlineStr"/>
-      <c r="M168" t="n">
-        <v>1</v>
-      </c>
-      <c r="N168" t="inlineStr"/>
+      <c r="L168" t="n">
+        <v>1</v>
+      </c>
+      <c r="M168" t="inlineStr"/>
     </row>
     <row r="169">
       <c r="A169" s="1" t="n">
@@ -6470,16 +5964,13 @@
       <c r="H169" t="n">
         <v>0</v>
       </c>
-      <c r="I169" t="n">
-        <v>0</v>
-      </c>
+      <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
       <c r="K169" t="inlineStr"/>
-      <c r="L169" t="inlineStr"/>
-      <c r="M169" t="n">
-        <v>1</v>
-      </c>
-      <c r="N169" t="inlineStr"/>
+      <c r="L169" t="n">
+        <v>1</v>
+      </c>
+      <c r="M169" t="inlineStr"/>
     </row>
     <row r="170">
       <c r="A170" s="1" t="n">
@@ -6506,16 +5997,13 @@
       <c r="H170" t="n">
         <v>0</v>
       </c>
-      <c r="I170" t="n">
-        <v>0</v>
-      </c>
+      <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
       <c r="K170" t="inlineStr"/>
-      <c r="L170" t="inlineStr"/>
-      <c r="M170" t="n">
-        <v>1</v>
-      </c>
-      <c r="N170" t="inlineStr"/>
+      <c r="L170" t="n">
+        <v>1</v>
+      </c>
+      <c r="M170" t="inlineStr"/>
     </row>
     <row r="171">
       <c r="A171" s="1" t="n">
@@ -6542,16 +6030,13 @@
       <c r="H171" t="n">
         <v>0</v>
       </c>
-      <c r="I171" t="n">
-        <v>0</v>
-      </c>
+      <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
       <c r="K171" t="inlineStr"/>
-      <c r="L171" t="inlineStr"/>
-      <c r="M171" t="n">
-        <v>1</v>
-      </c>
-      <c r="N171" t="inlineStr"/>
+      <c r="L171" t="n">
+        <v>1</v>
+      </c>
+      <c r="M171" t="inlineStr"/>
     </row>
     <row r="172">
       <c r="A172" s="1" t="n">
@@ -6578,16 +6063,13 @@
       <c r="H172" t="n">
         <v>0</v>
       </c>
-      <c r="I172" t="n">
-        <v>0</v>
-      </c>
+      <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
       <c r="K172" t="inlineStr"/>
-      <c r="L172" t="inlineStr"/>
-      <c r="M172" t="n">
-        <v>1</v>
-      </c>
-      <c r="N172" t="inlineStr"/>
+      <c r="L172" t="n">
+        <v>1</v>
+      </c>
+      <c r="M172" t="inlineStr"/>
     </row>
     <row r="173">
       <c r="A173" s="1" t="n">
@@ -6614,16 +6096,13 @@
       <c r="H173" t="n">
         <v>0</v>
       </c>
-      <c r="I173" t="n">
-        <v>0</v>
-      </c>
+      <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
       <c r="K173" t="inlineStr"/>
-      <c r="L173" t="inlineStr"/>
-      <c r="M173" t="n">
-        <v>1</v>
-      </c>
-      <c r="N173" t="inlineStr"/>
+      <c r="L173" t="n">
+        <v>1</v>
+      </c>
+      <c r="M173" t="inlineStr"/>
     </row>
     <row r="174">
       <c r="A174" s="1" t="n">
@@ -6650,16 +6129,13 @@
       <c r="H174" t="n">
         <v>0</v>
       </c>
-      <c r="I174" t="n">
-        <v>0</v>
-      </c>
+      <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
       <c r="K174" t="inlineStr"/>
-      <c r="L174" t="inlineStr"/>
-      <c r="M174" t="n">
-        <v>1</v>
-      </c>
-      <c r="N174" t="inlineStr"/>
+      <c r="L174" t="n">
+        <v>1</v>
+      </c>
+      <c r="M174" t="inlineStr"/>
     </row>
     <row r="175">
       <c r="A175" s="1" t="n">
@@ -6686,16 +6162,13 @@
       <c r="H175" t="n">
         <v>0</v>
       </c>
-      <c r="I175" t="n">
-        <v>0</v>
-      </c>
+      <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
       <c r="K175" t="inlineStr"/>
-      <c r="L175" t="inlineStr"/>
-      <c r="M175" t="n">
-        <v>1</v>
-      </c>
-      <c r="N175" t="inlineStr"/>
+      <c r="L175" t="n">
+        <v>1</v>
+      </c>
+      <c r="M175" t="inlineStr"/>
     </row>
     <row r="176">
       <c r="A176" s="1" t="n">
@@ -6722,16 +6195,13 @@
       <c r="H176" t="n">
         <v>0</v>
       </c>
-      <c r="I176" t="n">
-        <v>0</v>
-      </c>
+      <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
       <c r="K176" t="inlineStr"/>
-      <c r="L176" t="inlineStr"/>
-      <c r="M176" t="n">
-        <v>1</v>
-      </c>
-      <c r="N176" t="inlineStr"/>
+      <c r="L176" t="n">
+        <v>1</v>
+      </c>
+      <c r="M176" t="inlineStr"/>
     </row>
     <row r="177">
       <c r="A177" s="1" t="n">
@@ -6758,16 +6228,13 @@
       <c r="H177" t="n">
         <v>0</v>
       </c>
-      <c r="I177" t="n">
-        <v>0</v>
-      </c>
+      <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
       <c r="K177" t="inlineStr"/>
-      <c r="L177" t="inlineStr"/>
-      <c r="M177" t="n">
-        <v>1</v>
-      </c>
-      <c r="N177" t="inlineStr"/>
+      <c r="L177" t="n">
+        <v>1</v>
+      </c>
+      <c r="M177" t="inlineStr"/>
     </row>
     <row r="178">
       <c r="A178" s="1" t="n">
@@ -6794,16 +6261,13 @@
       <c r="H178" t="n">
         <v>0</v>
       </c>
-      <c r="I178" t="n">
-        <v>0</v>
-      </c>
+      <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
       <c r="K178" t="inlineStr"/>
-      <c r="L178" t="inlineStr"/>
-      <c r="M178" t="n">
-        <v>1</v>
-      </c>
-      <c r="N178" t="inlineStr"/>
+      <c r="L178" t="n">
+        <v>1</v>
+      </c>
+      <c r="M178" t="inlineStr"/>
     </row>
     <row r="179">
       <c r="A179" s="1" t="n">
@@ -6830,16 +6294,13 @@
       <c r="H179" t="n">
         <v>0</v>
       </c>
-      <c r="I179" t="n">
-        <v>0</v>
-      </c>
+      <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
       <c r="K179" t="inlineStr"/>
-      <c r="L179" t="inlineStr"/>
-      <c r="M179" t="n">
-        <v>1</v>
-      </c>
-      <c r="N179" t="inlineStr"/>
+      <c r="L179" t="n">
+        <v>1</v>
+      </c>
+      <c r="M179" t="inlineStr"/>
     </row>
     <row r="180">
       <c r="A180" s="1" t="n">
@@ -6866,16 +6327,13 @@
       <c r="H180" t="n">
         <v>0</v>
       </c>
-      <c r="I180" t="n">
-        <v>0</v>
-      </c>
+      <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
       <c r="K180" t="inlineStr"/>
-      <c r="L180" t="inlineStr"/>
-      <c r="M180" t="n">
-        <v>1</v>
-      </c>
-      <c r="N180" t="inlineStr"/>
+      <c r="L180" t="n">
+        <v>1</v>
+      </c>
+      <c r="M180" t="inlineStr"/>
     </row>
     <row r="181">
       <c r="A181" s="1" t="n">
@@ -6902,16 +6360,13 @@
       <c r="H181" t="n">
         <v>0</v>
       </c>
-      <c r="I181" t="n">
-        <v>0</v>
-      </c>
+      <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
       <c r="K181" t="inlineStr"/>
-      <c r="L181" t="inlineStr"/>
-      <c r="M181" t="n">
-        <v>1</v>
-      </c>
-      <c r="N181" t="inlineStr"/>
+      <c r="L181" t="n">
+        <v>1</v>
+      </c>
+      <c r="M181" t="inlineStr"/>
     </row>
     <row r="182">
       <c r="A182" s="1" t="n">
@@ -6938,16 +6393,13 @@
       <c r="H182" t="n">
         <v>0</v>
       </c>
-      <c r="I182" t="n">
-        <v>0</v>
-      </c>
+      <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
       <c r="K182" t="inlineStr"/>
-      <c r="L182" t="inlineStr"/>
-      <c r="M182" t="n">
-        <v>1</v>
-      </c>
-      <c r="N182" t="inlineStr"/>
+      <c r="L182" t="n">
+        <v>1</v>
+      </c>
+      <c r="M182" t="inlineStr"/>
     </row>
     <row r="183">
       <c r="A183" s="1" t="n">
@@ -6974,16 +6426,13 @@
       <c r="H183" t="n">
         <v>0</v>
       </c>
-      <c r="I183" t="n">
-        <v>0</v>
-      </c>
+      <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
       <c r="K183" t="inlineStr"/>
-      <c r="L183" t="inlineStr"/>
-      <c r="M183" t="n">
-        <v>1</v>
-      </c>
-      <c r="N183" t="inlineStr"/>
+      <c r="L183" t="n">
+        <v>1</v>
+      </c>
+      <c r="M183" t="inlineStr"/>
     </row>
     <row r="184">
       <c r="A184" s="1" t="n">
@@ -7010,16 +6459,13 @@
       <c r="H184" t="n">
         <v>0</v>
       </c>
-      <c r="I184" t="n">
-        <v>0</v>
-      </c>
+      <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
       <c r="K184" t="inlineStr"/>
-      <c r="L184" t="inlineStr"/>
-      <c r="M184" t="n">
-        <v>1</v>
-      </c>
-      <c r="N184" t="inlineStr"/>
+      <c r="L184" t="n">
+        <v>1</v>
+      </c>
+      <c r="M184" t="inlineStr"/>
     </row>
     <row r="185">
       <c r="A185" s="1" t="n">
@@ -7046,16 +6492,13 @@
       <c r="H185" t="n">
         <v>0</v>
       </c>
-      <c r="I185" t="n">
-        <v>0</v>
-      </c>
+      <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
       <c r="K185" t="inlineStr"/>
-      <c r="L185" t="inlineStr"/>
-      <c r="M185" t="n">
-        <v>1</v>
-      </c>
-      <c r="N185" t="inlineStr"/>
+      <c r="L185" t="n">
+        <v>1</v>
+      </c>
+      <c r="M185" t="inlineStr"/>
     </row>
     <row r="186">
       <c r="A186" s="1" t="n">
@@ -7082,16 +6525,13 @@
       <c r="H186" t="n">
         <v>0</v>
       </c>
-      <c r="I186" t="n">
-        <v>0</v>
-      </c>
+      <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
       <c r="K186" t="inlineStr"/>
-      <c r="L186" t="inlineStr"/>
-      <c r="M186" t="n">
-        <v>1</v>
-      </c>
-      <c r="N186" t="inlineStr"/>
+      <c r="L186" t="n">
+        <v>1</v>
+      </c>
+      <c r="M186" t="inlineStr"/>
     </row>
     <row r="187">
       <c r="A187" s="1" t="n">
@@ -7118,16 +6558,13 @@
       <c r="H187" t="n">
         <v>0</v>
       </c>
-      <c r="I187" t="n">
-        <v>0</v>
-      </c>
+      <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
       <c r="K187" t="inlineStr"/>
-      <c r="L187" t="inlineStr"/>
-      <c r="M187" t="n">
-        <v>1</v>
-      </c>
-      <c r="N187" t="inlineStr"/>
+      <c r="L187" t="n">
+        <v>1</v>
+      </c>
+      <c r="M187" t="inlineStr"/>
     </row>
     <row r="188">
       <c r="A188" s="1" t="n">
@@ -7154,16 +6591,13 @@
       <c r="H188" t="n">
         <v>0</v>
       </c>
-      <c r="I188" t="n">
-        <v>0</v>
-      </c>
+      <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
       <c r="K188" t="inlineStr"/>
-      <c r="L188" t="inlineStr"/>
-      <c r="M188" t="n">
-        <v>1</v>
-      </c>
-      <c r="N188" t="inlineStr"/>
+      <c r="L188" t="n">
+        <v>1</v>
+      </c>
+      <c r="M188" t="inlineStr"/>
     </row>
     <row r="189">
       <c r="A189" s="1" t="n">
@@ -7190,16 +6624,13 @@
       <c r="H189" t="n">
         <v>0</v>
       </c>
-      <c r="I189" t="n">
-        <v>0</v>
-      </c>
+      <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
       <c r="K189" t="inlineStr"/>
-      <c r="L189" t="inlineStr"/>
-      <c r="M189" t="n">
-        <v>1</v>
-      </c>
-      <c r="N189" t="inlineStr"/>
+      <c r="L189" t="n">
+        <v>1</v>
+      </c>
+      <c r="M189" t="inlineStr"/>
     </row>
     <row r="190">
       <c r="A190" s="1" t="n">
@@ -7226,16 +6657,13 @@
       <c r="H190" t="n">
         <v>0</v>
       </c>
-      <c r="I190" t="n">
-        <v>0</v>
-      </c>
+      <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
       <c r="K190" t="inlineStr"/>
-      <c r="L190" t="inlineStr"/>
-      <c r="M190" t="n">
-        <v>1</v>
-      </c>
-      <c r="N190" t="inlineStr"/>
+      <c r="L190" t="n">
+        <v>1</v>
+      </c>
+      <c r="M190" t="inlineStr"/>
     </row>
     <row r="191">
       <c r="A191" s="1" t="n">
@@ -7262,16 +6690,13 @@
       <c r="H191" t="n">
         <v>0</v>
       </c>
-      <c r="I191" t="n">
-        <v>0</v>
-      </c>
+      <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
       <c r="K191" t="inlineStr"/>
-      <c r="L191" t="inlineStr"/>
-      <c r="M191" t="n">
-        <v>1</v>
-      </c>
-      <c r="N191" t="inlineStr"/>
+      <c r="L191" t="n">
+        <v>1</v>
+      </c>
+      <c r="M191" t="inlineStr"/>
     </row>
     <row r="192">
       <c r="A192" s="1" t="n">
@@ -7298,16 +6723,13 @@
       <c r="H192" t="n">
         <v>0</v>
       </c>
-      <c r="I192" t="n">
-        <v>0</v>
-      </c>
+      <c r="I192" t="inlineStr"/>
       <c r="J192" t="inlineStr"/>
       <c r="K192" t="inlineStr"/>
-      <c r="L192" t="inlineStr"/>
-      <c r="M192" t="n">
-        <v>1</v>
-      </c>
-      <c r="N192" t="inlineStr"/>
+      <c r="L192" t="n">
+        <v>1</v>
+      </c>
+      <c r="M192" t="inlineStr"/>
     </row>
     <row r="193">
       <c r="A193" s="1" t="n">
@@ -7334,16 +6756,13 @@
       <c r="H193" t="n">
         <v>0</v>
       </c>
-      <c r="I193" t="n">
-        <v>0</v>
-      </c>
+      <c r="I193" t="inlineStr"/>
       <c r="J193" t="inlineStr"/>
       <c r="K193" t="inlineStr"/>
-      <c r="L193" t="inlineStr"/>
-      <c r="M193" t="n">
-        <v>1</v>
-      </c>
-      <c r="N193" t="inlineStr"/>
+      <c r="L193" t="n">
+        <v>1</v>
+      </c>
+      <c r="M193" t="inlineStr"/>
     </row>
     <row r="194">
       <c r="A194" s="1" t="n">
@@ -7370,16 +6789,13 @@
       <c r="H194" t="n">
         <v>0</v>
       </c>
-      <c r="I194" t="n">
-        <v>0</v>
-      </c>
+      <c r="I194" t="inlineStr"/>
       <c r="J194" t="inlineStr"/>
       <c r="K194" t="inlineStr"/>
-      <c r="L194" t="inlineStr"/>
-      <c r="M194" t="n">
-        <v>1</v>
-      </c>
-      <c r="N194" t="inlineStr"/>
+      <c r="L194" t="n">
+        <v>1</v>
+      </c>
+      <c r="M194" t="inlineStr"/>
     </row>
     <row r="195">
       <c r="A195" s="1" t="n">
@@ -7406,16 +6822,13 @@
       <c r="H195" t="n">
         <v>0</v>
       </c>
-      <c r="I195" t="n">
-        <v>0</v>
-      </c>
+      <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr"/>
       <c r="K195" t="inlineStr"/>
-      <c r="L195" t="inlineStr"/>
-      <c r="M195" t="n">
-        <v>1</v>
-      </c>
-      <c r="N195" t="inlineStr"/>
+      <c r="L195" t="n">
+        <v>1</v>
+      </c>
+      <c r="M195" t="inlineStr"/>
     </row>
     <row r="196">
       <c r="A196" s="1" t="n">
@@ -7442,16 +6855,13 @@
       <c r="H196" t="n">
         <v>0</v>
       </c>
-      <c r="I196" t="n">
-        <v>0</v>
-      </c>
+      <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr"/>
       <c r="K196" t="inlineStr"/>
-      <c r="L196" t="inlineStr"/>
-      <c r="M196" t="n">
-        <v>1</v>
-      </c>
-      <c r="N196" t="inlineStr"/>
+      <c r="L196" t="n">
+        <v>1</v>
+      </c>
+      <c r="M196" t="inlineStr"/>
     </row>
     <row r="197">
       <c r="A197" s="1" t="n">
@@ -7478,16 +6888,13 @@
       <c r="H197" t="n">
         <v>0</v>
       </c>
-      <c r="I197" t="n">
-        <v>0</v>
-      </c>
+      <c r="I197" t="inlineStr"/>
       <c r="J197" t="inlineStr"/>
       <c r="K197" t="inlineStr"/>
-      <c r="L197" t="inlineStr"/>
-      <c r="M197" t="n">
-        <v>1</v>
-      </c>
-      <c r="N197" t="inlineStr"/>
+      <c r="L197" t="n">
+        <v>1</v>
+      </c>
+      <c r="M197" t="inlineStr"/>
     </row>
     <row r="198">
       <c r="A198" s="1" t="n">
@@ -7514,16 +6921,13 @@
       <c r="H198" t="n">
         <v>0</v>
       </c>
-      <c r="I198" t="n">
-        <v>0</v>
-      </c>
+      <c r="I198" t="inlineStr"/>
       <c r="J198" t="inlineStr"/>
       <c r="K198" t="inlineStr"/>
-      <c r="L198" t="inlineStr"/>
-      <c r="M198" t="n">
-        <v>1</v>
-      </c>
-      <c r="N198" t="inlineStr"/>
+      <c r="L198" t="n">
+        <v>1</v>
+      </c>
+      <c r="M198" t="inlineStr"/>
     </row>
     <row r="199">
       <c r="A199" s="1" t="n">
@@ -7550,16 +6954,13 @@
       <c r="H199" t="n">
         <v>0</v>
       </c>
-      <c r="I199" t="n">
-        <v>0</v>
-      </c>
+      <c r="I199" t="inlineStr"/>
       <c r="J199" t="inlineStr"/>
       <c r="K199" t="inlineStr"/>
-      <c r="L199" t="inlineStr"/>
-      <c r="M199" t="n">
-        <v>1</v>
-      </c>
-      <c r="N199" t="inlineStr"/>
+      <c r="L199" t="n">
+        <v>1</v>
+      </c>
+      <c r="M199" t="inlineStr"/>
     </row>
     <row r="200">
       <c r="A200" s="1" t="n">
@@ -7586,16 +6987,13 @@
       <c r="H200" t="n">
         <v>0</v>
       </c>
-      <c r="I200" t="n">
-        <v>0</v>
-      </c>
+      <c r="I200" t="inlineStr"/>
       <c r="J200" t="inlineStr"/>
       <c r="K200" t="inlineStr"/>
-      <c r="L200" t="inlineStr"/>
-      <c r="M200" t="n">
-        <v>1</v>
-      </c>
-      <c r="N200" t="inlineStr"/>
+      <c r="L200" t="n">
+        <v>1</v>
+      </c>
+      <c r="M200" t="inlineStr"/>
     </row>
     <row r="201">
       <c r="A201" s="1" t="n">
@@ -7622,16 +7020,13 @@
       <c r="H201" t="n">
         <v>0</v>
       </c>
-      <c r="I201" t="n">
-        <v>0</v>
-      </c>
+      <c r="I201" t="inlineStr"/>
       <c r="J201" t="inlineStr"/>
       <c r="K201" t="inlineStr"/>
-      <c r="L201" t="inlineStr"/>
-      <c r="M201" t="n">
-        <v>1</v>
-      </c>
-      <c r="N201" t="inlineStr"/>
+      <c r="L201" t="n">
+        <v>1</v>
+      </c>
+      <c r="M201" t="inlineStr"/>
     </row>
     <row r="202">
       <c r="A202" s="1" t="n">
@@ -7658,16 +7053,13 @@
       <c r="H202" t="n">
         <v>0</v>
       </c>
-      <c r="I202" t="n">
-        <v>0</v>
-      </c>
+      <c r="I202" t="inlineStr"/>
       <c r="J202" t="inlineStr"/>
       <c r="K202" t="inlineStr"/>
-      <c r="L202" t="inlineStr"/>
-      <c r="M202" t="n">
-        <v>1</v>
-      </c>
-      <c r="N202" t="inlineStr"/>
+      <c r="L202" t="n">
+        <v>1</v>
+      </c>
+      <c r="M202" t="inlineStr"/>
     </row>
     <row r="203">
       <c r="A203" s="1" t="n">
@@ -7694,16 +7086,13 @@
       <c r="H203" t="n">
         <v>0</v>
       </c>
-      <c r="I203" t="n">
-        <v>0</v>
-      </c>
+      <c r="I203" t="inlineStr"/>
       <c r="J203" t="inlineStr"/>
       <c r="K203" t="inlineStr"/>
-      <c r="L203" t="inlineStr"/>
-      <c r="M203" t="n">
-        <v>1</v>
-      </c>
-      <c r="N203" t="inlineStr"/>
+      <c r="L203" t="n">
+        <v>1</v>
+      </c>
+      <c r="M203" t="inlineStr"/>
     </row>
     <row r="204">
       <c r="A204" s="1" t="n">
@@ -7730,16 +7119,13 @@
       <c r="H204" t="n">
         <v>0</v>
       </c>
-      <c r="I204" t="n">
-        <v>0</v>
-      </c>
+      <c r="I204" t="inlineStr"/>
       <c r="J204" t="inlineStr"/>
       <c r="K204" t="inlineStr"/>
-      <c r="L204" t="inlineStr"/>
-      <c r="M204" t="n">
-        <v>1</v>
-      </c>
-      <c r="N204" t="inlineStr"/>
+      <c r="L204" t="n">
+        <v>1</v>
+      </c>
+      <c r="M204" t="inlineStr"/>
     </row>
     <row r="205">
       <c r="A205" s="1" t="n">
@@ -7766,16 +7152,13 @@
       <c r="H205" t="n">
         <v>0</v>
       </c>
-      <c r="I205" t="n">
-        <v>0</v>
-      </c>
+      <c r="I205" t="inlineStr"/>
       <c r="J205" t="inlineStr"/>
       <c r="K205" t="inlineStr"/>
-      <c r="L205" t="inlineStr"/>
-      <c r="M205" t="n">
-        <v>1</v>
-      </c>
-      <c r="N205" t="inlineStr"/>
+      <c r="L205" t="n">
+        <v>1</v>
+      </c>
+      <c r="M205" t="inlineStr"/>
     </row>
     <row r="206">
       <c r="A206" s="1" t="n">
@@ -7802,16 +7185,13 @@
       <c r="H206" t="n">
         <v>0</v>
       </c>
-      <c r="I206" t="n">
-        <v>0</v>
-      </c>
+      <c r="I206" t="inlineStr"/>
       <c r="J206" t="inlineStr"/>
       <c r="K206" t="inlineStr"/>
-      <c r="L206" t="inlineStr"/>
-      <c r="M206" t="n">
-        <v>1</v>
-      </c>
-      <c r="N206" t="inlineStr"/>
+      <c r="L206" t="n">
+        <v>1</v>
+      </c>
+      <c r="M206" t="inlineStr"/>
     </row>
     <row r="207">
       <c r="A207" s="1" t="n">
@@ -7838,16 +7218,13 @@
       <c r="H207" t="n">
         <v>0</v>
       </c>
-      <c r="I207" t="n">
-        <v>0</v>
-      </c>
+      <c r="I207" t="inlineStr"/>
       <c r="J207" t="inlineStr"/>
       <c r="K207" t="inlineStr"/>
-      <c r="L207" t="inlineStr"/>
-      <c r="M207" t="n">
-        <v>1</v>
-      </c>
-      <c r="N207" t="inlineStr"/>
+      <c r="L207" t="n">
+        <v>1</v>
+      </c>
+      <c r="M207" t="inlineStr"/>
     </row>
     <row r="208">
       <c r="A208" s="1" t="n">
@@ -7874,16 +7251,13 @@
       <c r="H208" t="n">
         <v>0</v>
       </c>
-      <c r="I208" t="n">
-        <v>0</v>
-      </c>
+      <c r="I208" t="inlineStr"/>
       <c r="J208" t="inlineStr"/>
       <c r="K208" t="inlineStr"/>
-      <c r="L208" t="inlineStr"/>
-      <c r="M208" t="n">
-        <v>1</v>
-      </c>
-      <c r="N208" t="inlineStr"/>
+      <c r="L208" t="n">
+        <v>1</v>
+      </c>
+      <c r="M208" t="inlineStr"/>
     </row>
     <row r="209">
       <c r="A209" s="1" t="n">
@@ -7910,16 +7284,13 @@
       <c r="H209" t="n">
         <v>0</v>
       </c>
-      <c r="I209" t="n">
-        <v>0</v>
-      </c>
+      <c r="I209" t="inlineStr"/>
       <c r="J209" t="inlineStr"/>
       <c r="K209" t="inlineStr"/>
-      <c r="L209" t="inlineStr"/>
-      <c r="M209" t="n">
-        <v>1</v>
-      </c>
-      <c r="N209" t="inlineStr"/>
+      <c r="L209" t="n">
+        <v>1</v>
+      </c>
+      <c r="M209" t="inlineStr"/>
     </row>
     <row r="210">
       <c r="A210" s="1" t="n">
@@ -7946,16 +7317,13 @@
       <c r="H210" t="n">
         <v>0</v>
       </c>
-      <c r="I210" t="n">
-        <v>0</v>
-      </c>
+      <c r="I210" t="inlineStr"/>
       <c r="J210" t="inlineStr"/>
       <c r="K210" t="inlineStr"/>
-      <c r="L210" t="inlineStr"/>
-      <c r="M210" t="n">
-        <v>1</v>
-      </c>
-      <c r="N210" t="inlineStr"/>
+      <c r="L210" t="n">
+        <v>1</v>
+      </c>
+      <c r="M210" t="inlineStr"/>
     </row>
     <row r="211">
       <c r="A211" s="1" t="n">
@@ -7982,16 +7350,13 @@
       <c r="H211" t="n">
         <v>0</v>
       </c>
-      <c r="I211" t="n">
-        <v>0</v>
-      </c>
+      <c r="I211" t="inlineStr"/>
       <c r="J211" t="inlineStr"/>
       <c r="K211" t="inlineStr"/>
-      <c r="L211" t="inlineStr"/>
-      <c r="M211" t="n">
-        <v>1</v>
-      </c>
-      <c r="N211" t="inlineStr"/>
+      <c r="L211" t="n">
+        <v>1</v>
+      </c>
+      <c r="M211" t="inlineStr"/>
     </row>
     <row r="212">
       <c r="A212" s="1" t="n">
@@ -8018,16 +7383,13 @@
       <c r="H212" t="n">
         <v>0</v>
       </c>
-      <c r="I212" t="n">
-        <v>0</v>
-      </c>
+      <c r="I212" t="inlineStr"/>
       <c r="J212" t="inlineStr"/>
       <c r="K212" t="inlineStr"/>
-      <c r="L212" t="inlineStr"/>
-      <c r="M212" t="n">
-        <v>1</v>
-      </c>
-      <c r="N212" t="inlineStr"/>
+      <c r="L212" t="n">
+        <v>1</v>
+      </c>
+      <c r="M212" t="inlineStr"/>
     </row>
     <row r="213">
       <c r="A213" s="1" t="n">
@@ -8054,16 +7416,13 @@
       <c r="H213" t="n">
         <v>0</v>
       </c>
-      <c r="I213" t="n">
-        <v>0</v>
-      </c>
+      <c r="I213" t="inlineStr"/>
       <c r="J213" t="inlineStr"/>
       <c r="K213" t="inlineStr"/>
-      <c r="L213" t="inlineStr"/>
-      <c r="M213" t="n">
-        <v>1</v>
-      </c>
-      <c r="N213" t="inlineStr"/>
+      <c r="L213" t="n">
+        <v>1</v>
+      </c>
+      <c r="M213" t="inlineStr"/>
     </row>
     <row r="214">
       <c r="A214" s="1" t="n">
@@ -8090,16 +7449,13 @@
       <c r="H214" t="n">
         <v>0</v>
       </c>
-      <c r="I214" t="n">
-        <v>0</v>
-      </c>
+      <c r="I214" t="inlineStr"/>
       <c r="J214" t="inlineStr"/>
       <c r="K214" t="inlineStr"/>
-      <c r="L214" t="inlineStr"/>
-      <c r="M214" t="n">
-        <v>1</v>
-      </c>
-      <c r="N214" t="inlineStr"/>
+      <c r="L214" t="n">
+        <v>1</v>
+      </c>
+      <c r="M214" t="inlineStr"/>
     </row>
     <row r="215">
       <c r="A215" s="1" t="n">
@@ -8126,16 +7482,13 @@
       <c r="H215" t="n">
         <v>0</v>
       </c>
-      <c r="I215" t="n">
-        <v>0</v>
-      </c>
+      <c r="I215" t="inlineStr"/>
       <c r="J215" t="inlineStr"/>
       <c r="K215" t="inlineStr"/>
-      <c r="L215" t="inlineStr"/>
-      <c r="M215" t="n">
-        <v>1</v>
-      </c>
-      <c r="N215" t="inlineStr"/>
+      <c r="L215" t="n">
+        <v>1</v>
+      </c>
+      <c r="M215" t="inlineStr"/>
     </row>
     <row r="216">
       <c r="A216" s="1" t="n">
@@ -8162,16 +7515,13 @@
       <c r="H216" t="n">
         <v>0</v>
       </c>
-      <c r="I216" t="n">
-        <v>0</v>
-      </c>
+      <c r="I216" t="inlineStr"/>
       <c r="J216" t="inlineStr"/>
       <c r="K216" t="inlineStr"/>
-      <c r="L216" t="inlineStr"/>
-      <c r="M216" t="n">
-        <v>1</v>
-      </c>
-      <c r="N216" t="inlineStr"/>
+      <c r="L216" t="n">
+        <v>1</v>
+      </c>
+      <c r="M216" t="inlineStr"/>
     </row>
     <row r="217">
       <c r="A217" s="1" t="n">
@@ -8198,16 +7548,13 @@
       <c r="H217" t="n">
         <v>0</v>
       </c>
-      <c r="I217" t="n">
-        <v>0</v>
-      </c>
+      <c r="I217" t="inlineStr"/>
       <c r="J217" t="inlineStr"/>
       <c r="K217" t="inlineStr"/>
-      <c r="L217" t="inlineStr"/>
-      <c r="M217" t="n">
-        <v>1</v>
-      </c>
-      <c r="N217" t="inlineStr"/>
+      <c r="L217" t="n">
+        <v>1</v>
+      </c>
+      <c r="M217" t="inlineStr"/>
     </row>
     <row r="218">
       <c r="A218" s="1" t="n">
@@ -8232,18 +7579,21 @@
         <v>-187950.41523944</v>
       </c>
       <c r="H218" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I218" t="n">
-        <v>0</v>
+        <v>186.1</v>
       </c>
       <c r="J218" t="inlineStr"/>
-      <c r="K218" t="inlineStr"/>
-      <c r="L218" t="inlineStr"/>
-      <c r="M218" t="n">
-        <v>1</v>
-      </c>
-      <c r="N218" t="inlineStr"/>
+      <c r="K218" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="L218" t="n">
+        <v>1</v>
+      </c>
+      <c r="M218" t="inlineStr"/>
     </row>
     <row r="219">
       <c r="A219" s="1" t="n">
@@ -8268,18 +7618,21 @@
         <v>-187795.41473944</v>
       </c>
       <c r="H219" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I219" t="n">
-        <v>0</v>
+        <v>185.4</v>
       </c>
       <c r="J219" t="inlineStr"/>
-      <c r="K219" t="inlineStr"/>
-      <c r="L219" t="inlineStr"/>
-      <c r="M219" t="n">
-        <v>1</v>
-      </c>
-      <c r="N219" t="inlineStr"/>
+      <c r="K219" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L219" t="n">
+        <v>1</v>
+      </c>
+      <c r="M219" t="inlineStr"/>
     </row>
     <row r="220">
       <c r="A220" s="1" t="n">
@@ -8304,18 +7657,21 @@
         <v>-187795.41473944</v>
       </c>
       <c r="H220" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I220" t="n">
-        <v>0</v>
+        <v>186.4</v>
       </c>
       <c r="J220" t="inlineStr"/>
-      <c r="K220" t="inlineStr"/>
-      <c r="L220" t="inlineStr"/>
-      <c r="M220" t="n">
-        <v>1</v>
-      </c>
-      <c r="N220" t="inlineStr"/>
+      <c r="K220" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L220" t="n">
+        <v>1</v>
+      </c>
+      <c r="M220" t="inlineStr"/>
     </row>
     <row r="221">
       <c r="A221" s="1" t="n">
@@ -8340,18 +7696,21 @@
         <v>-195339.67453944</v>
       </c>
       <c r="H221" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I221" t="n">
-        <v>0</v>
+        <v>186.4</v>
       </c>
       <c r="J221" t="inlineStr"/>
-      <c r="K221" t="inlineStr"/>
-      <c r="L221" t="inlineStr"/>
-      <c r="M221" t="n">
-        <v>1</v>
-      </c>
-      <c r="N221" t="inlineStr"/>
+      <c r="K221" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L221" t="n">
+        <v>1</v>
+      </c>
+      <c r="M221" t="inlineStr"/>
     </row>
     <row r="222">
       <c r="A222" s="1" t="n">
@@ -8378,16 +7737,17 @@
       <c r="H222" t="n">
         <v>0</v>
       </c>
-      <c r="I222" t="n">
-        <v>0</v>
-      </c>
+      <c r="I222" t="inlineStr"/>
       <c r="J222" t="inlineStr"/>
-      <c r="K222" t="inlineStr"/>
-      <c r="L222" t="inlineStr"/>
-      <c r="M222" t="n">
-        <v>1</v>
-      </c>
-      <c r="N222" t="inlineStr"/>
+      <c r="K222" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L222" t="n">
+        <v>1</v>
+      </c>
+      <c r="M222" t="inlineStr"/>
     </row>
     <row r="223">
       <c r="A223" s="1" t="n">
@@ -8412,18 +7772,21 @@
         <v>-195211.4136394401</v>
       </c>
       <c r="H223" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I223" t="n">
-        <v>0</v>
+        <v>186</v>
       </c>
       <c r="J223" t="inlineStr"/>
-      <c r="K223" t="inlineStr"/>
-      <c r="L223" t="inlineStr"/>
-      <c r="M223" t="n">
-        <v>1</v>
-      </c>
-      <c r="N223" t="inlineStr"/>
+      <c r="K223" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L223" t="n">
+        <v>1</v>
+      </c>
+      <c r="M223" t="inlineStr"/>
     </row>
     <row r="224">
       <c r="A224" s="1" t="n">
@@ -8448,18 +7811,21 @@
         <v>-195211.4136394401</v>
       </c>
       <c r="H224" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I224" t="n">
-        <v>0</v>
+        <v>186</v>
       </c>
       <c r="J224" t="inlineStr"/>
-      <c r="K224" t="inlineStr"/>
-      <c r="L224" t="inlineStr"/>
-      <c r="M224" t="n">
-        <v>1</v>
-      </c>
-      <c r="N224" t="inlineStr"/>
+      <c r="K224" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L224" t="n">
+        <v>1</v>
+      </c>
+      <c r="M224" t="inlineStr"/>
     </row>
     <row r="225">
       <c r="A225" s="1" t="n">
@@ -8486,16 +7852,17 @@
       <c r="H225" t="n">
         <v>0</v>
       </c>
-      <c r="I225" t="n">
-        <v>0</v>
-      </c>
+      <c r="I225" t="inlineStr"/>
       <c r="J225" t="inlineStr"/>
-      <c r="K225" t="inlineStr"/>
-      <c r="L225" t="inlineStr"/>
-      <c r="M225" t="n">
-        <v>1</v>
-      </c>
-      <c r="N225" t="inlineStr"/>
+      <c r="K225" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L225" t="n">
+        <v>1</v>
+      </c>
+      <c r="M225" t="inlineStr"/>
     </row>
     <row r="226">
       <c r="A226" s="1" t="n">
@@ -8520,18 +7887,21 @@
         <v>-197186.6049394401</v>
       </c>
       <c r="H226" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I226" t="n">
-        <v>0</v>
+        <v>185.6</v>
       </c>
       <c r="J226" t="inlineStr"/>
-      <c r="K226" t="inlineStr"/>
-      <c r="L226" t="inlineStr"/>
-      <c r="M226" t="n">
-        <v>1</v>
-      </c>
-      <c r="N226" t="inlineStr"/>
+      <c r="K226" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L226" t="n">
+        <v>1</v>
+      </c>
+      <c r="M226" t="inlineStr"/>
     </row>
     <row r="227">
       <c r="A227" s="1" t="n">
@@ -8556,18 +7926,21 @@
         <v>-197267.1078394401</v>
       </c>
       <c r="H227" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I227" t="n">
-        <v>0</v>
+        <v>185.5</v>
       </c>
       <c r="J227" t="inlineStr"/>
-      <c r="K227" t="inlineStr"/>
-      <c r="L227" t="inlineStr"/>
-      <c r="M227" t="n">
-        <v>1</v>
-      </c>
-      <c r="N227" t="inlineStr"/>
+      <c r="K227" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L227" t="n">
+        <v>1</v>
+      </c>
+      <c r="M227" t="inlineStr"/>
     </row>
     <row r="228">
       <c r="A228" s="1" t="n">
@@ -8592,22 +7965,21 @@
         <v>-191820.1520153801</v>
       </c>
       <c r="H228" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I228" t="n">
-        <v>0</v>
-      </c>
-      <c r="J228" t="n">
         <v>185.4</v>
       </c>
-      <c r="K228" t="n">
-        <v>185.4</v>
-      </c>
-      <c r="L228" t="inlineStr"/>
-      <c r="M228" t="n">
-        <v>1</v>
-      </c>
-      <c r="N228" t="inlineStr"/>
+      <c r="J228" t="inlineStr"/>
+      <c r="K228" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L228" t="n">
+        <v>1</v>
+      </c>
+      <c r="M228" t="inlineStr"/>
     </row>
     <row r="229">
       <c r="A229" s="1" t="n">
@@ -8632,24 +8004,21 @@
         <v>-191820.1520153801</v>
       </c>
       <c r="H229" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I229" t="n">
-        <v>0</v>
+        <v>187</v>
       </c>
       <c r="J229" t="inlineStr"/>
-      <c r="K229" t="n">
-        <v>185.4</v>
-      </c>
-      <c r="L229" t="inlineStr">
+      <c r="K229" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
-      <c r="M229" t="n">
-        <v>1</v>
-      </c>
-      <c r="N229" t="inlineStr"/>
+      <c r="L229" t="n">
+        <v>1</v>
+      </c>
+      <c r="M229" t="inlineStr"/>
     </row>
     <row r="230">
       <c r="A230" s="1" t="n">
@@ -8674,24 +8043,21 @@
         <v>-191820.1520153801</v>
       </c>
       <c r="H230" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I230" t="n">
-        <v>0</v>
+        <v>187</v>
       </c>
       <c r="J230" t="inlineStr"/>
-      <c r="K230" t="n">
-        <v>185.4</v>
-      </c>
-      <c r="L230" t="inlineStr">
+      <c r="K230" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
-      <c r="M230" t="n">
-        <v>1</v>
-      </c>
-      <c r="N230" t="inlineStr"/>
+      <c r="L230" t="n">
+        <v>1</v>
+      </c>
+      <c r="M230" t="inlineStr"/>
     </row>
     <row r="231">
       <c r="A231" s="1" t="n">
@@ -8716,18 +8082,21 @@
         <v>-191820.1520153801</v>
       </c>
       <c r="H231" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I231" t="n">
-        <v>0</v>
+        <v>187</v>
       </c>
       <c r="J231" t="inlineStr"/>
-      <c r="K231" t="inlineStr"/>
-      <c r="L231" t="inlineStr"/>
-      <c r="M231" t="n">
-        <v>1</v>
-      </c>
-      <c r="N231" t="inlineStr"/>
+      <c r="K231" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L231" t="n">
+        <v>1</v>
+      </c>
+      <c r="M231" t="inlineStr"/>
     </row>
     <row r="232">
       <c r="A232" s="1" t="n">
@@ -8754,16 +8123,17 @@
       <c r="H232" t="n">
         <v>0</v>
       </c>
-      <c r="I232" t="n">
-        <v>0</v>
-      </c>
+      <c r="I232" t="inlineStr"/>
       <c r="J232" t="inlineStr"/>
-      <c r="K232" t="inlineStr"/>
-      <c r="L232" t="inlineStr"/>
-      <c r="M232" t="n">
-        <v>1</v>
-      </c>
-      <c r="N232" t="inlineStr"/>
+      <c r="K232" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L232" t="n">
+        <v>1</v>
+      </c>
+      <c r="M232" t="inlineStr"/>
     </row>
     <row r="233">
       <c r="A233" s="1" t="n">
@@ -8790,16 +8160,17 @@
       <c r="H233" t="n">
         <v>0</v>
       </c>
-      <c r="I233" t="n">
-        <v>0</v>
-      </c>
+      <c r="I233" t="inlineStr"/>
       <c r="J233" t="inlineStr"/>
-      <c r="K233" t="inlineStr"/>
-      <c r="L233" t="inlineStr"/>
-      <c r="M233" t="n">
-        <v>1</v>
-      </c>
-      <c r="N233" t="inlineStr"/>
+      <c r="K233" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L233" t="n">
+        <v>1</v>
+      </c>
+      <c r="M233" t="inlineStr"/>
     </row>
     <row r="234">
       <c r="A234" s="1" t="n">
@@ -8824,18 +8195,21 @@
         <v>-194961.9291153801</v>
       </c>
       <c r="H234" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I234" t="n">
-        <v>0</v>
+        <v>185.5</v>
       </c>
       <c r="J234" t="inlineStr"/>
-      <c r="K234" t="inlineStr"/>
-      <c r="L234" t="inlineStr"/>
-      <c r="M234" t="n">
-        <v>1</v>
-      </c>
-      <c r="N234" t="inlineStr"/>
+      <c r="K234" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L234" t="n">
+        <v>1</v>
+      </c>
+      <c r="M234" t="inlineStr"/>
     </row>
     <row r="235">
       <c r="A235" s="1" t="n">
@@ -8860,18 +8234,21 @@
         <v>-198492.3474153801</v>
       </c>
       <c r="H235" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I235" t="n">
-        <v>0</v>
+        <v>185.5</v>
       </c>
       <c r="J235" t="inlineStr"/>
-      <c r="K235" t="inlineStr"/>
-      <c r="L235" t="inlineStr"/>
-      <c r="M235" t="n">
-        <v>1</v>
-      </c>
-      <c r="N235" t="inlineStr"/>
+      <c r="K235" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L235" t="n">
+        <v>1</v>
+      </c>
+      <c r="M235" t="inlineStr"/>
     </row>
     <row r="236">
       <c r="A236" s="1" t="n">
@@ -8898,16 +8275,17 @@
       <c r="H236" t="n">
         <v>0</v>
       </c>
-      <c r="I236" t="n">
-        <v>0</v>
-      </c>
+      <c r="I236" t="inlineStr"/>
       <c r="J236" t="inlineStr"/>
-      <c r="K236" t="inlineStr"/>
-      <c r="L236" t="inlineStr"/>
-      <c r="M236" t="n">
-        <v>1</v>
-      </c>
-      <c r="N236" t="inlineStr"/>
+      <c r="K236" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L236" t="n">
+        <v>1</v>
+      </c>
+      <c r="M236" t="inlineStr"/>
     </row>
     <row r="237">
       <c r="A237" s="1" t="n">
@@ -8932,18 +8310,21 @@
         <v>-206497.4925153801</v>
       </c>
       <c r="H237" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I237" t="n">
-        <v>0</v>
+        <v>184</v>
       </c>
       <c r="J237" t="inlineStr"/>
-      <c r="K237" t="inlineStr"/>
-      <c r="L237" t="inlineStr"/>
-      <c r="M237" t="n">
-        <v>1</v>
-      </c>
-      <c r="N237" t="inlineStr"/>
+      <c r="K237" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L237" t="n">
+        <v>1</v>
+      </c>
+      <c r="M237" t="inlineStr"/>
     </row>
     <row r="238">
       <c r="A238" s="1" t="n">
@@ -8968,18 +8349,21 @@
         <v>-206497.4925153801</v>
       </c>
       <c r="H238" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I238" t="n">
-        <v>0</v>
+        <v>187</v>
       </c>
       <c r="J238" t="inlineStr"/>
-      <c r="K238" t="inlineStr"/>
-      <c r="L238" t="inlineStr"/>
-      <c r="M238" t="n">
-        <v>1</v>
-      </c>
-      <c r="N238" t="inlineStr"/>
+      <c r="K238" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L238" t="n">
+        <v>1</v>
+      </c>
+      <c r="M238" t="inlineStr"/>
     </row>
     <row r="239">
       <c r="A239" s="1" t="n">
@@ -9006,16 +8390,17 @@
       <c r="H239" t="n">
         <v>0</v>
       </c>
-      <c r="I239" t="n">
-        <v>0</v>
-      </c>
+      <c r="I239" t="inlineStr"/>
       <c r="J239" t="inlineStr"/>
-      <c r="K239" t="inlineStr"/>
-      <c r="L239" t="inlineStr"/>
-      <c r="M239" t="n">
-        <v>1</v>
-      </c>
-      <c r="N239" t="inlineStr"/>
+      <c r="K239" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L239" t="n">
+        <v>1</v>
+      </c>
+      <c r="M239" t="inlineStr"/>
     </row>
     <row r="240">
       <c r="A240" s="1" t="n">
@@ -9042,16 +8427,17 @@
       <c r="H240" t="n">
         <v>0</v>
       </c>
-      <c r="I240" t="n">
-        <v>0</v>
-      </c>
+      <c r="I240" t="inlineStr"/>
       <c r="J240" t="inlineStr"/>
-      <c r="K240" t="inlineStr"/>
-      <c r="L240" t="inlineStr"/>
-      <c r="M240" t="n">
-        <v>1</v>
-      </c>
-      <c r="N240" t="inlineStr"/>
+      <c r="K240" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L240" t="n">
+        <v>1</v>
+      </c>
+      <c r="M240" t="inlineStr"/>
     </row>
     <row r="241">
       <c r="A241" s="1" t="n">
@@ -9078,16 +8464,17 @@
       <c r="H241" t="n">
         <v>0</v>
       </c>
-      <c r="I241" t="n">
-        <v>0</v>
-      </c>
+      <c r="I241" t="inlineStr"/>
       <c r="J241" t="inlineStr"/>
-      <c r="K241" t="inlineStr"/>
-      <c r="L241" t="inlineStr"/>
-      <c r="M241" t="n">
-        <v>1</v>
-      </c>
-      <c r="N241" t="inlineStr"/>
+      <c r="K241" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L241" t="n">
+        <v>1</v>
+      </c>
+      <c r="M241" t="inlineStr"/>
     </row>
     <row r="242">
       <c r="A242" s="1" t="n">
@@ -9114,16 +8501,17 @@
       <c r="H242" t="n">
         <v>0</v>
       </c>
-      <c r="I242" t="n">
-        <v>0</v>
-      </c>
+      <c r="I242" t="inlineStr"/>
       <c r="J242" t="inlineStr"/>
-      <c r="K242" t="inlineStr"/>
-      <c r="L242" t="inlineStr"/>
-      <c r="M242" t="n">
-        <v>1</v>
-      </c>
-      <c r="N242" t="inlineStr"/>
+      <c r="K242" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L242" t="n">
+        <v>1</v>
+      </c>
+      <c r="M242" t="inlineStr"/>
     </row>
     <row r="243">
       <c r="A243" s="1" t="n">
@@ -9150,16 +8538,17 @@
       <c r="H243" t="n">
         <v>0</v>
       </c>
-      <c r="I243" t="n">
-        <v>0</v>
-      </c>
+      <c r="I243" t="inlineStr"/>
       <c r="J243" t="inlineStr"/>
-      <c r="K243" t="inlineStr"/>
-      <c r="L243" t="inlineStr"/>
-      <c r="M243" t="n">
-        <v>1</v>
-      </c>
-      <c r="N243" t="inlineStr"/>
+      <c r="K243" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L243" t="n">
+        <v>1</v>
+      </c>
+      <c r="M243" t="inlineStr"/>
     </row>
     <row r="244">
       <c r="A244" s="1" t="n">
@@ -9186,16 +8575,17 @@
       <c r="H244" t="n">
         <v>0</v>
       </c>
-      <c r="I244" t="n">
-        <v>0</v>
-      </c>
+      <c r="I244" t="inlineStr"/>
       <c r="J244" t="inlineStr"/>
-      <c r="K244" t="inlineStr"/>
-      <c r="L244" t="inlineStr"/>
-      <c r="M244" t="n">
-        <v>1</v>
-      </c>
-      <c r="N244" t="inlineStr"/>
+      <c r="K244" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L244" t="n">
+        <v>1</v>
+      </c>
+      <c r="M244" t="inlineStr"/>
     </row>
     <row r="245">
       <c r="A245" s="1" t="n">
@@ -9220,22 +8610,21 @@
         <v>-195867.8936707001</v>
       </c>
       <c r="H245" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I245" t="n">
-        <v>0</v>
-      </c>
-      <c r="J245" t="n">
         <v>186</v>
       </c>
-      <c r="K245" t="n">
-        <v>186</v>
-      </c>
-      <c r="L245" t="inlineStr"/>
-      <c r="M245" t="n">
-        <v>1</v>
-      </c>
-      <c r="N245" t="inlineStr"/>
+      <c r="J245" t="inlineStr"/>
+      <c r="K245" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L245" t="n">
+        <v>1</v>
+      </c>
+      <c r="M245" t="inlineStr"/>
     </row>
     <row r="246">
       <c r="A246" s="1" t="n">
@@ -9260,26 +8649,19 @@
         <v>-195996.1291707001</v>
       </c>
       <c r="H246" t="n">
-        <v>1</v>
-      </c>
-      <c r="I246" t="n">
-        <v>0</v>
-      </c>
-      <c r="J246" t="n">
-        <v>186.4</v>
-      </c>
-      <c r="K246" t="n">
-        <v>186</v>
-      </c>
-      <c r="L246" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="I246" t="inlineStr"/>
+      <c r="J246" t="inlineStr"/>
+      <c r="K246" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
-      <c r="M246" t="n">
-        <v>1</v>
-      </c>
-      <c r="N246" t="inlineStr"/>
+      <c r="L246" t="n">
+        <v>1</v>
+      </c>
+      <c r="M246" t="inlineStr"/>
     </row>
     <row r="247">
       <c r="A247" s="1" t="n">
@@ -9304,26 +8686,21 @@
         <v>-195996.1291707001</v>
       </c>
       <c r="H247" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I247" t="n">
-        <v>0</v>
-      </c>
-      <c r="J247" t="n">
         <v>186.2</v>
       </c>
-      <c r="K247" t="n">
-        <v>186</v>
-      </c>
-      <c r="L247" t="inlineStr">
+      <c r="J247" t="inlineStr"/>
+      <c r="K247" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
-      <c r="M247" t="n">
-        <v>1</v>
-      </c>
-      <c r="N247" t="inlineStr"/>
+      <c r="L247" t="n">
+        <v>1</v>
+      </c>
+      <c r="M247" t="inlineStr"/>
     </row>
     <row r="248">
       <c r="A248" s="1" t="n">
@@ -9348,26 +8725,19 @@
         <v>-195996.1291707001</v>
       </c>
       <c r="H248" t="n">
-        <v>1</v>
-      </c>
-      <c r="I248" t="n">
-        <v>0</v>
-      </c>
-      <c r="J248" t="n">
-        <v>186.2</v>
-      </c>
-      <c r="K248" t="n">
-        <v>186</v>
-      </c>
-      <c r="L248" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="I248" t="inlineStr"/>
+      <c r="J248" t="inlineStr"/>
+      <c r="K248" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
-      <c r="M248" t="n">
-        <v>1</v>
-      </c>
-      <c r="N248" t="inlineStr"/>
+      <c r="L248" t="n">
+        <v>1</v>
+      </c>
+      <c r="M248" t="inlineStr"/>
     </row>
     <row r="249">
       <c r="A249" s="1" t="n">
@@ -9392,26 +8762,19 @@
         <v>-195996.1291707001</v>
       </c>
       <c r="H249" t="n">
-        <v>1</v>
-      </c>
-      <c r="I249" t="n">
-        <v>0</v>
-      </c>
-      <c r="J249" t="n">
-        <v>186.2</v>
-      </c>
-      <c r="K249" t="n">
-        <v>186</v>
-      </c>
-      <c r="L249" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="I249" t="inlineStr"/>
+      <c r="J249" t="inlineStr"/>
+      <c r="K249" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M249" t="n">
-        <v>1</v>
-      </c>
-      <c r="N249" t="inlineStr"/>
+      <c r="L249" t="n">
+        <v>1</v>
+      </c>
+      <c r="M249" t="inlineStr"/>
     </row>
     <row r="250">
       <c r="A250" s="1" t="n">
@@ -9436,26 +8799,19 @@
         <v>-195996.1291707001</v>
       </c>
       <c r="H250" t="n">
-        <v>1</v>
-      </c>
-      <c r="I250" t="n">
-        <v>0</v>
-      </c>
-      <c r="J250" t="n">
-        <v>186.2</v>
-      </c>
-      <c r="K250" t="n">
-        <v>186</v>
-      </c>
-      <c r="L250" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="I250" t="inlineStr"/>
+      <c r="J250" t="inlineStr"/>
+      <c r="K250" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M250" t="n">
-        <v>1</v>
-      </c>
-      <c r="N250" t="inlineStr"/>
+      <c r="L250" t="n">
+        <v>1</v>
+      </c>
+      <c r="M250" t="inlineStr"/>
     </row>
     <row r="251">
       <c r="A251" s="1" t="n">
@@ -9480,26 +8836,21 @@
         <v>-195996.1291707001</v>
       </c>
       <c r="H251" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I251" t="n">
-        <v>0</v>
-      </c>
-      <c r="J251" t="n">
         <v>186.2</v>
       </c>
-      <c r="K251" t="n">
-        <v>186</v>
-      </c>
-      <c r="L251" t="inlineStr">
+      <c r="J251" t="inlineStr"/>
+      <c r="K251" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M251" t="n">
-        <v>1</v>
-      </c>
-      <c r="N251" t="inlineStr"/>
+      <c r="L251" t="n">
+        <v>1</v>
+      </c>
+      <c r="M251" t="inlineStr"/>
     </row>
     <row r="252">
       <c r="A252" s="1" t="n">
@@ -9524,26 +8875,21 @@
         <v>-195996.1291707001</v>
       </c>
       <c r="H252" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I252" t="n">
-        <v>0</v>
-      </c>
-      <c r="J252" t="n">
         <v>186.2</v>
       </c>
-      <c r="K252" t="n">
-        <v>186</v>
-      </c>
-      <c r="L252" t="inlineStr">
+      <c r="J252" t="inlineStr"/>
+      <c r="K252" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M252" t="n">
-        <v>1</v>
-      </c>
-      <c r="N252" t="inlineStr"/>
+      <c r="L252" t="n">
+        <v>1</v>
+      </c>
+      <c r="M252" t="inlineStr"/>
     </row>
     <row r="253">
       <c r="A253" s="1" t="n">
@@ -9568,26 +8914,21 @@
         <v>-195996.1291707001</v>
       </c>
       <c r="H253" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I253" t="n">
-        <v>0</v>
-      </c>
-      <c r="J253" t="n">
         <v>186.2</v>
       </c>
-      <c r="K253" t="n">
-        <v>186</v>
-      </c>
-      <c r="L253" t="inlineStr">
+      <c r="J253" t="inlineStr"/>
+      <c r="K253" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M253" t="n">
-        <v>1</v>
-      </c>
-      <c r="N253" t="inlineStr"/>
+      <c r="L253" t="n">
+        <v>1</v>
+      </c>
+      <c r="M253" t="inlineStr"/>
     </row>
     <row r="254">
       <c r="A254" s="1" t="n">
@@ -9612,28 +8953,23 @@
         <v>-195996.1291707001</v>
       </c>
       <c r="H254" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I254" t="n">
-        <v>0</v>
-      </c>
-      <c r="J254" t="n">
         <v>186.2</v>
       </c>
-      <c r="K254" t="n">
-        <v>186</v>
-      </c>
-      <c r="L254" t="inlineStr">
+      <c r="J254" t="inlineStr"/>
+      <c r="K254" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M254" t="n">
-        <v>1</v>
-      </c>
-      <c r="N254" t="inlineStr"/>
+      <c r="L254" t="n">
+        <v>1</v>
+      </c>
+      <c r="M254" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-24 BackTest STEEM.xlsx
+++ b/BackTest/2020-01-24 BackTest STEEM.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>-37919.85316655</v>
       </c>
       <c r="H2" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,7 +484,7 @@
         <v>-43919.85316655</v>
       </c>
       <c r="H3" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
@@ -517,7 +517,7 @@
         <v>-43919.85316655</v>
       </c>
       <c r="H4" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
@@ -715,7 +715,7 @@
         <v>-40345.88596655</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
@@ -781,7 +781,7 @@
         <v>-40478.98566655</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
@@ -814,7 +814,7 @@
         <v>-40478.98566655</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
@@ -847,7 +847,7 @@
         <v>-40494.98566655</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
@@ -880,7 +880,7 @@
         <v>-40115.98566655</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
@@ -913,7 +913,7 @@
         <v>-40115.98566655</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
@@ -946,7 +946,7 @@
         <v>-40261.46486655</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
@@ -979,7 +979,7 @@
         <v>-40261.46486655</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
@@ -1012,7 +1012,7 @@
         <v>-40261.46486655</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
@@ -1045,7 +1045,7 @@
         <v>-34381.75586655</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
@@ -1078,7 +1078,7 @@
         <v>-39476.82366654999</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
@@ -1210,7 +1210,7 @@
         <v>-35630.29406654999</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
@@ -1243,7 +1243,7 @@
         <v>-35652.79806654999</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
@@ -1276,7 +1276,7 @@
         <v>-35063.10336654999</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
@@ -1342,7 +1342,7 @@
         <v>-37034.26576654999</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
@@ -1375,7 +1375,7 @@
         <v>-37259.56616654999</v>
       </c>
       <c r="H30" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
@@ -1408,7 +1408,7 @@
         <v>-36940.50986654999</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
@@ -1474,7 +1474,7 @@
         <v>-37294.27346654999</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
@@ -1507,7 +1507,7 @@
         <v>-37448.02086654999</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
@@ -1540,7 +1540,7 @@
         <v>-36857.12286654999</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
@@ -1573,7 +1573,7 @@
         <v>-36857.12286654999</v>
       </c>
       <c r="H36" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
@@ -1606,7 +1606,7 @@
         <v>-36857.12286654999</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
@@ -1639,7 +1639,7 @@
         <v>-36857.12286654999</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
@@ -1672,7 +1672,7 @@
         <v>-36857.12286654999</v>
       </c>
       <c r="H39" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
@@ -1705,7 +1705,7 @@
         <v>-36857.12286654999</v>
       </c>
       <c r="H40" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
@@ -1738,7 +1738,7 @@
         <v>-36857.12286654999</v>
       </c>
       <c r="H41" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
@@ -1771,7 +1771,7 @@
         <v>-46468.23316654999</v>
       </c>
       <c r="H42" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
@@ -1804,7 +1804,7 @@
         <v>-46468.23316654999</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
@@ -1837,7 +1837,7 @@
         <v>-47559.54416654999</v>
       </c>
       <c r="H44" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
@@ -1870,7 +1870,7 @@
         <v>-50287.92216654999</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
@@ -1903,7 +1903,7 @@
         <v>-50287.92216654999</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
@@ -1936,7 +1936,7 @@
         <v>-49697.92216654999</v>
       </c>
       <c r="H47" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
@@ -1969,7 +1969,7 @@
         <v>-45797.92216654999</v>
       </c>
       <c r="H48" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
@@ -2002,7 +2002,7 @@
         <v>-48097.97766654999</v>
       </c>
       <c r="H49" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
@@ -2035,7 +2035,7 @@
         <v>-47986.97766654999</v>
       </c>
       <c r="H50" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
@@ -2068,7 +2068,7 @@
         <v>-47986.97766654999</v>
       </c>
       <c r="H51" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
@@ -2101,7 +2101,7 @@
         <v>-48141.89506654999</v>
       </c>
       <c r="H52" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
@@ -2134,7 +2134,7 @@
         <v>-48138.89506654999</v>
       </c>
       <c r="H53" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
@@ -2167,7 +2167,7 @@
         <v>-48528.16926654999</v>
       </c>
       <c r="H54" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
@@ -2200,7 +2200,7 @@
         <v>-48528.16926654999</v>
       </c>
       <c r="H55" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
@@ -2233,7 +2233,7 @@
         <v>-51528.16926654999</v>
       </c>
       <c r="H56" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
@@ -2266,7 +2266,7 @@
         <v>-60378.16926654999</v>
       </c>
       <c r="H57" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
@@ -2299,7 +2299,7 @@
         <v>-60378.16926654999</v>
       </c>
       <c r="H58" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
@@ -2332,7 +2332,7 @@
         <v>-60378.16926654999</v>
       </c>
       <c r="H59" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
@@ -2365,7 +2365,7 @@
         <v>-60221.20716654999</v>
       </c>
       <c r="H60" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
@@ -2398,7 +2398,7 @@
         <v>-59631.86416654999</v>
       </c>
       <c r="H61" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
@@ -2431,7 +2431,7 @@
         <v>-59617.96626654999</v>
       </c>
       <c r="H62" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
@@ -2464,7 +2464,7 @@
         <v>-60332.15106654999</v>
       </c>
       <c r="H63" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
@@ -2497,7 +2497,7 @@
         <v>-60207.15106654999</v>
       </c>
       <c r="H64" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
@@ -2530,7 +2530,7 @@
         <v>-60052.27996654999</v>
       </c>
       <c r="H65" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
@@ -2563,7 +2563,7 @@
         <v>-56512.27996654999</v>
       </c>
       <c r="H66" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
@@ -2596,7 +2596,7 @@
         <v>-56512.27996654999</v>
       </c>
       <c r="H67" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
@@ -2629,7 +2629,7 @@
         <v>-56876.27996654999</v>
       </c>
       <c r="H68" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
@@ -2662,7 +2662,7 @@
         <v>-66765.63996654999</v>
       </c>
       <c r="H69" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
@@ -2695,7 +2695,7 @@
         <v>-64023.21296654999</v>
       </c>
       <c r="H70" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
@@ -2728,7 +2728,7 @@
         <v>-81069.15436654999</v>
       </c>
       <c r="H71" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
@@ -2761,7 +2761,7 @@
         <v>-87225.15436654999</v>
       </c>
       <c r="H72" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
@@ -2794,7 +2794,7 @@
         <v>-87180.15436654999</v>
       </c>
       <c r="H73" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
@@ -2827,7 +2827,7 @@
         <v>-87180.15436654999</v>
       </c>
       <c r="H74" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
@@ -2860,7 +2860,7 @@
         <v>-87180.15436654999</v>
       </c>
       <c r="H75" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
@@ -2893,7 +2893,7 @@
         <v>-87180.15436654999</v>
       </c>
       <c r="H76" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
@@ -2926,7 +2926,7 @@
         <v>-86913.15436654999</v>
       </c>
       <c r="H77" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
@@ -2959,7 +2959,7 @@
         <v>-88458.95846654999</v>
       </c>
       <c r="H78" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
@@ -2992,7 +2992,7 @@
         <v>-92718.95846654999</v>
       </c>
       <c r="H79" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
@@ -3025,7 +3025,7 @@
         <v>-89318.32276654999</v>
       </c>
       <c r="H80" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
@@ -3058,7 +3058,7 @@
         <v>-89318.32276654999</v>
       </c>
       <c r="H81" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
@@ -3091,7 +3091,7 @@
         <v>-96318.32276654999</v>
       </c>
       <c r="H82" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
@@ -3124,7 +3124,7 @@
         <v>-96318.32276654999</v>
       </c>
       <c r="H83" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
@@ -3157,7 +3157,7 @@
         <v>-103042.50336655</v>
       </c>
       <c r="H84" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
@@ -3190,7 +3190,7 @@
         <v>-103042.50336655</v>
       </c>
       <c r="H85" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
@@ -3223,7 +3223,7 @@
         <v>-104911.37406655</v>
       </c>
       <c r="H86" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
@@ -3256,7 +3256,7 @@
         <v>-112413.56466655</v>
       </c>
       <c r="H87" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
@@ -3289,7 +3289,7 @@
         <v>-112804.77736655</v>
       </c>
       <c r="H88" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
@@ -3322,7 +3322,7 @@
         <v>-119956.83926655</v>
       </c>
       <c r="H89" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
@@ -3355,7 +3355,7 @@
         <v>-127960.31556655</v>
       </c>
       <c r="H90" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
@@ -3388,7 +3388,7 @@
         <v>-127960.31556655</v>
       </c>
       <c r="H91" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
@@ -3421,7 +3421,7 @@
         <v>-127960.31556655</v>
       </c>
       <c r="H92" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
@@ -3454,7 +3454,7 @@
         <v>-127960.31556655</v>
       </c>
       <c r="H93" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
@@ -3487,7 +3487,7 @@
         <v>-127798.77056655</v>
       </c>
       <c r="H94" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
@@ -3520,7 +3520,7 @@
         <v>-127421.59196655</v>
       </c>
       <c r="H95" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
@@ -3553,7 +3553,7 @@
         <v>-128921.59196655</v>
       </c>
       <c r="H96" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
@@ -3586,7 +3586,7 @@
         <v>-128728.85156655</v>
       </c>
       <c r="H97" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
@@ -3619,7 +3619,7 @@
         <v>-137298.45876655</v>
       </c>
       <c r="H98" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
@@ -3652,7 +3652,7 @@
         <v>-137111.45876655</v>
       </c>
       <c r="H99" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
@@ -3685,7 +3685,7 @@
         <v>-130813.77376655</v>
       </c>
       <c r="H100" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
@@ -4081,7 +4081,7 @@
         <v>-128839.26216655</v>
       </c>
       <c r="H112" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
@@ -7315,11 +7315,17 @@
         <v>-181751.06483944</v>
       </c>
       <c r="H210" t="n">
-        <v>0</v>
-      </c>
-      <c r="I210" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I210" t="n">
+        <v>187</v>
+      </c>
       <c r="J210" t="inlineStr"/>
-      <c r="K210" t="inlineStr"/>
+      <c r="K210" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L210" t="n">
         <v>1</v>
       </c>
@@ -7348,11 +7354,17 @@
         <v>-183408.42573944</v>
       </c>
       <c r="H211" t="n">
-        <v>0</v>
-      </c>
-      <c r="I211" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I211" t="n">
+        <v>187.8</v>
+      </c>
       <c r="J211" t="inlineStr"/>
-      <c r="K211" t="inlineStr"/>
+      <c r="K211" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L211" t="n">
         <v>1</v>
       </c>
@@ -7381,11 +7393,17 @@
         <v>-183408.42573944</v>
       </c>
       <c r="H212" t="n">
-        <v>0</v>
-      </c>
-      <c r="I212" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I212" t="n">
+        <v>186.1</v>
+      </c>
       <c r="J212" t="inlineStr"/>
-      <c r="K212" t="inlineStr"/>
+      <c r="K212" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L212" t="n">
         <v>1</v>
       </c>
@@ -7414,11 +7432,17 @@
         <v>-183408.42573944</v>
       </c>
       <c r="H213" t="n">
-        <v>0</v>
-      </c>
-      <c r="I213" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I213" t="n">
+        <v>186.1</v>
+      </c>
       <c r="J213" t="inlineStr"/>
-      <c r="K213" t="inlineStr"/>
+      <c r="K213" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L213" t="n">
         <v>1</v>
       </c>
@@ -7447,11 +7471,17 @@
         <v>-183408.42573944</v>
       </c>
       <c r="H214" t="n">
-        <v>0</v>
-      </c>
-      <c r="I214" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I214" t="n">
+        <v>186.1</v>
+      </c>
       <c r="J214" t="inlineStr"/>
-      <c r="K214" t="inlineStr"/>
+      <c r="K214" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L214" t="n">
         <v>1</v>
       </c>
@@ -7480,11 +7510,17 @@
         <v>-183438.42573944</v>
       </c>
       <c r="H215" t="n">
-        <v>0</v>
-      </c>
-      <c r="I215" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I215" t="n">
+        <v>186.1</v>
+      </c>
       <c r="J215" t="inlineStr"/>
-      <c r="K215" t="inlineStr"/>
+      <c r="K215" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L215" t="n">
         <v>1</v>
       </c>
@@ -7513,11 +7549,17 @@
         <v>-179698.42573944</v>
       </c>
       <c r="H216" t="n">
-        <v>0</v>
-      </c>
-      <c r="I216" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I216" t="n">
+        <v>186</v>
+      </c>
       <c r="J216" t="inlineStr"/>
-      <c r="K216" t="inlineStr"/>
+      <c r="K216" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L216" t="n">
         <v>1</v>
       </c>
@@ -7546,11 +7588,17 @@
         <v>-179698.42573944</v>
       </c>
       <c r="H217" t="n">
-        <v>0</v>
-      </c>
-      <c r="I217" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I217" t="n">
+        <v>186.1</v>
+      </c>
       <c r="J217" t="inlineStr"/>
-      <c r="K217" t="inlineStr"/>
+      <c r="K217" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L217" t="n">
         <v>1</v>
       </c>
@@ -7579,7 +7627,7 @@
         <v>-187950.41523944</v>
       </c>
       <c r="H218" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I218" t="n">
         <v>186.1</v>
@@ -7587,7 +7635,7 @@
       <c r="J218" t="inlineStr"/>
       <c r="K218" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L218" t="n">
@@ -7618,7 +7666,7 @@
         <v>-187795.41473944</v>
       </c>
       <c r="H219" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I219" t="n">
         <v>185.4</v>
@@ -7657,7 +7705,7 @@
         <v>-187795.41473944</v>
       </c>
       <c r="H220" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I220" t="n">
         <v>186.4</v>
@@ -7696,7 +7744,7 @@
         <v>-195339.67453944</v>
       </c>
       <c r="H221" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I221" t="n">
         <v>186.4</v>
@@ -7772,7 +7820,7 @@
         <v>-195211.4136394401</v>
       </c>
       <c r="H223" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I223" t="n">
         <v>186</v>
@@ -7811,7 +7859,7 @@
         <v>-195211.4136394401</v>
       </c>
       <c r="H224" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I224" t="n">
         <v>186</v>
@@ -7850,9 +7898,11 @@
         <v>-196756.4136394401</v>
       </c>
       <c r="H225" t="n">
-        <v>0</v>
-      </c>
-      <c r="I225" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I225" t="n">
+        <v>186</v>
+      </c>
       <c r="J225" t="inlineStr"/>
       <c r="K225" t="inlineStr">
         <is>
@@ -7887,7 +7937,7 @@
         <v>-197186.6049394401</v>
       </c>
       <c r="H226" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I226" t="n">
         <v>185.6</v>
@@ -7926,7 +7976,7 @@
         <v>-197267.1078394401</v>
       </c>
       <c r="H227" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I227" t="n">
         <v>185.5</v>
@@ -7965,7 +8015,7 @@
         <v>-191820.1520153801</v>
       </c>
       <c r="H228" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I228" t="n">
         <v>185.4</v>
@@ -8004,7 +8054,7 @@
         <v>-191820.1520153801</v>
       </c>
       <c r="H229" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I229" t="n">
         <v>187</v>
@@ -8043,11 +8093,9 @@
         <v>-191820.1520153801</v>
       </c>
       <c r="H230" t="n">
-        <v>2</v>
-      </c>
-      <c r="I230" t="n">
-        <v>187</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I230" t="inlineStr"/>
       <c r="J230" t="inlineStr"/>
       <c r="K230" t="inlineStr">
         <is>
@@ -8082,11 +8130,9 @@
         <v>-191820.1520153801</v>
       </c>
       <c r="H231" t="n">
-        <v>2</v>
-      </c>
-      <c r="I231" t="n">
-        <v>187</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I231" t="inlineStr"/>
       <c r="J231" t="inlineStr"/>
       <c r="K231" t="inlineStr">
         <is>
@@ -8195,7 +8241,7 @@
         <v>-194961.9291153801</v>
       </c>
       <c r="H234" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I234" t="n">
         <v>185.5</v>
@@ -8234,11 +8280,9 @@
         <v>-198492.3474153801</v>
       </c>
       <c r="H235" t="n">
-        <v>2</v>
-      </c>
-      <c r="I235" t="n">
-        <v>185.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I235" t="inlineStr"/>
       <c r="J235" t="inlineStr"/>
       <c r="K235" t="inlineStr">
         <is>
@@ -8273,9 +8317,11 @@
         <v>-217997.4925153801</v>
       </c>
       <c r="H236" t="n">
-        <v>0</v>
-      </c>
-      <c r="I236" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I236" t="n">
+        <v>185</v>
+      </c>
       <c r="J236" t="inlineStr"/>
       <c r="K236" t="inlineStr">
         <is>
@@ -8310,7 +8356,7 @@
         <v>-206497.4925153801</v>
       </c>
       <c r="H237" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I237" t="n">
         <v>184</v>
@@ -8349,7 +8395,7 @@
         <v>-206497.4925153801</v>
       </c>
       <c r="H238" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I238" t="n">
         <v>187</v>
@@ -8425,9 +8471,11 @@
         <v>-198310.6345153801</v>
       </c>
       <c r="H240" t="n">
-        <v>0</v>
-      </c>
-      <c r="I240" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I240" t="n">
+        <v>188.5</v>
+      </c>
       <c r="J240" t="inlineStr"/>
       <c r="K240" t="inlineStr">
         <is>
@@ -8462,9 +8510,11 @@
         <v>-195680.7847707001</v>
       </c>
       <c r="H241" t="n">
-        <v>0</v>
-      </c>
-      <c r="I241" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I241" t="n">
+        <v>187</v>
+      </c>
       <c r="J241" t="inlineStr"/>
       <c r="K241" t="inlineStr">
         <is>
@@ -8573,9 +8623,11 @@
         <v>-196227.9807707001</v>
       </c>
       <c r="H244" t="n">
-        <v>0</v>
-      </c>
-      <c r="I244" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I244" t="n">
+        <v>186</v>
+      </c>
       <c r="J244" t="inlineStr"/>
       <c r="K244" t="inlineStr">
         <is>
@@ -8610,7 +8662,7 @@
         <v>-195867.8936707001</v>
       </c>
       <c r="H245" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I245" t="n">
         <v>186</v>
@@ -8649,9 +8701,11 @@
         <v>-195996.1291707001</v>
       </c>
       <c r="H246" t="n">
-        <v>0</v>
-      </c>
-      <c r="I246" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I246" t="n">
+        <v>186.4</v>
+      </c>
       <c r="J246" t="inlineStr"/>
       <c r="K246" t="inlineStr">
         <is>
@@ -8686,7 +8740,7 @@
         <v>-195996.1291707001</v>
       </c>
       <c r="H247" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I247" t="n">
         <v>186.2</v>
@@ -8725,9 +8779,11 @@
         <v>-195996.1291707001</v>
       </c>
       <c r="H248" t="n">
-        <v>0</v>
-      </c>
-      <c r="I248" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I248" t="n">
+        <v>186.2</v>
+      </c>
       <c r="J248" t="inlineStr"/>
       <c r="K248" t="inlineStr">
         <is>
@@ -8762,9 +8818,11 @@
         <v>-195996.1291707001</v>
       </c>
       <c r="H249" t="n">
-        <v>0</v>
-      </c>
-      <c r="I249" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I249" t="n">
+        <v>186.2</v>
+      </c>
       <c r="J249" t="inlineStr"/>
       <c r="K249" t="inlineStr">
         <is>
@@ -8799,9 +8857,11 @@
         <v>-195996.1291707001</v>
       </c>
       <c r="H250" t="n">
-        <v>0</v>
-      </c>
-      <c r="I250" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I250" t="n">
+        <v>186.2</v>
+      </c>
       <c r="J250" t="inlineStr"/>
       <c r="K250" t="inlineStr">
         <is>
@@ -8836,7 +8896,7 @@
         <v>-195996.1291707001</v>
       </c>
       <c r="H251" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I251" t="n">
         <v>186.2</v>
@@ -8875,7 +8935,7 @@
         <v>-195996.1291707001</v>
       </c>
       <c r="H252" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I252" t="n">
         <v>186.2</v>
@@ -8914,7 +8974,7 @@
         <v>-195996.1291707001</v>
       </c>
       <c r="H253" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I253" t="n">
         <v>186.2</v>
@@ -8953,7 +9013,7 @@
         <v>-195996.1291707001</v>
       </c>
       <c r="H254" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I254" t="n">
         <v>186.2</v>
@@ -8970,6 +9030,6 @@
       <c r="M254" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-24 BackTest STEEM.xlsx
+++ b/BackTest/2020-01-24 BackTest STEEM.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -715,7 +715,7 @@
         <v>-40345.88596655</v>
       </c>
       <c r="H10" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
@@ -781,7 +781,7 @@
         <v>-40478.98566655</v>
       </c>
       <c r="H12" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
@@ -814,7 +814,7 @@
         <v>-40478.98566655</v>
       </c>
       <c r="H13" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
@@ -847,7 +847,7 @@
         <v>-40494.98566655</v>
       </c>
       <c r="H14" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
@@ -880,7 +880,7 @@
         <v>-40115.98566655</v>
       </c>
       <c r="H15" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
@@ -913,7 +913,7 @@
         <v>-40115.98566655</v>
       </c>
       <c r="H16" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
@@ -946,7 +946,7 @@
         <v>-40261.46486655</v>
       </c>
       <c r="H17" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
@@ -979,7 +979,7 @@
         <v>-40261.46486655</v>
       </c>
       <c r="H18" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
@@ -1012,7 +1012,7 @@
         <v>-40261.46486655</v>
       </c>
       <c r="H19" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
@@ -1045,7 +1045,7 @@
         <v>-34381.75586655</v>
       </c>
       <c r="H20" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
@@ -1078,7 +1078,7 @@
         <v>-39476.82366654999</v>
       </c>
       <c r="H21" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
@@ -1210,7 +1210,7 @@
         <v>-35630.29406654999</v>
       </c>
       <c r="H25" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
@@ -1243,7 +1243,7 @@
         <v>-35652.79806654999</v>
       </c>
       <c r="H26" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
@@ -1276,7 +1276,7 @@
         <v>-35063.10336654999</v>
       </c>
       <c r="H27" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
@@ -1342,7 +1342,7 @@
         <v>-37034.26576654999</v>
       </c>
       <c r="H29" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
@@ -1375,7 +1375,7 @@
         <v>-37259.56616654999</v>
       </c>
       <c r="H30" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
@@ -1408,7 +1408,7 @@
         <v>-36940.50986654999</v>
       </c>
       <c r="H31" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
@@ -1474,7 +1474,7 @@
         <v>-37294.27346654999</v>
       </c>
       <c r="H33" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
@@ -1507,7 +1507,7 @@
         <v>-37448.02086654999</v>
       </c>
       <c r="H34" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
@@ -1540,7 +1540,7 @@
         <v>-36857.12286654999</v>
       </c>
       <c r="H35" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
@@ -1573,7 +1573,7 @@
         <v>-36857.12286654999</v>
       </c>
       <c r="H36" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
@@ -1606,7 +1606,7 @@
         <v>-36857.12286654999</v>
       </c>
       <c r="H37" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
@@ -1639,7 +1639,7 @@
         <v>-36857.12286654999</v>
       </c>
       <c r="H38" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
@@ -1672,7 +1672,7 @@
         <v>-36857.12286654999</v>
       </c>
       <c r="H39" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
@@ -1705,7 +1705,7 @@
         <v>-36857.12286654999</v>
       </c>
       <c r="H40" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
@@ -1738,7 +1738,7 @@
         <v>-36857.12286654999</v>
       </c>
       <c r="H41" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
@@ -1771,7 +1771,7 @@
         <v>-46468.23316654999</v>
       </c>
       <c r="H42" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
@@ -1804,7 +1804,7 @@
         <v>-46468.23316654999</v>
       </c>
       <c r="H43" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
@@ -1837,7 +1837,7 @@
         <v>-47559.54416654999</v>
       </c>
       <c r="H44" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
@@ -1870,7 +1870,7 @@
         <v>-50287.92216654999</v>
       </c>
       <c r="H45" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
@@ -1903,7 +1903,7 @@
         <v>-50287.92216654999</v>
       </c>
       <c r="H46" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
@@ -1936,7 +1936,7 @@
         <v>-49697.92216654999</v>
       </c>
       <c r="H47" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
@@ -1969,7 +1969,7 @@
         <v>-45797.92216654999</v>
       </c>
       <c r="H48" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
@@ -2002,7 +2002,7 @@
         <v>-48097.97766654999</v>
       </c>
       <c r="H49" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
@@ -2035,7 +2035,7 @@
         <v>-47986.97766654999</v>
       </c>
       <c r="H50" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
@@ -2068,7 +2068,7 @@
         <v>-47986.97766654999</v>
       </c>
       <c r="H51" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
@@ -2101,7 +2101,7 @@
         <v>-48141.89506654999</v>
       </c>
       <c r="H52" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
@@ -2134,7 +2134,7 @@
         <v>-48138.89506654999</v>
       </c>
       <c r="H53" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
@@ -2167,7 +2167,7 @@
         <v>-48528.16926654999</v>
       </c>
       <c r="H54" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
@@ -2200,7 +2200,7 @@
         <v>-48528.16926654999</v>
       </c>
       <c r="H55" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
@@ -2233,7 +2233,7 @@
         <v>-51528.16926654999</v>
       </c>
       <c r="H56" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
@@ -2266,7 +2266,7 @@
         <v>-60378.16926654999</v>
       </c>
       <c r="H57" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
@@ -2299,7 +2299,7 @@
         <v>-60378.16926654999</v>
       </c>
       <c r="H58" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
@@ -2332,7 +2332,7 @@
         <v>-60378.16926654999</v>
       </c>
       <c r="H59" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
@@ -2365,7 +2365,7 @@
         <v>-60221.20716654999</v>
       </c>
       <c r="H60" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
@@ -2398,7 +2398,7 @@
         <v>-59631.86416654999</v>
       </c>
       <c r="H61" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
@@ -2431,7 +2431,7 @@
         <v>-59617.96626654999</v>
       </c>
       <c r="H62" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
@@ -2464,7 +2464,7 @@
         <v>-60332.15106654999</v>
       </c>
       <c r="H63" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
@@ -2497,7 +2497,7 @@
         <v>-60207.15106654999</v>
       </c>
       <c r="H64" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
@@ -2530,7 +2530,7 @@
         <v>-60052.27996654999</v>
       </c>
       <c r="H65" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
@@ -2563,7 +2563,7 @@
         <v>-56512.27996654999</v>
       </c>
       <c r="H66" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
@@ -2596,7 +2596,7 @@
         <v>-56512.27996654999</v>
       </c>
       <c r="H67" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
@@ -2629,7 +2629,7 @@
         <v>-56876.27996654999</v>
       </c>
       <c r="H68" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
@@ -2662,7 +2662,7 @@
         <v>-66765.63996654999</v>
       </c>
       <c r="H69" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
@@ -2695,7 +2695,7 @@
         <v>-64023.21296654999</v>
       </c>
       <c r="H70" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
@@ -2728,7 +2728,7 @@
         <v>-81069.15436654999</v>
       </c>
       <c r="H71" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
@@ -2761,7 +2761,7 @@
         <v>-87225.15436654999</v>
       </c>
       <c r="H72" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
@@ -2794,7 +2794,7 @@
         <v>-87180.15436654999</v>
       </c>
       <c r="H73" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
@@ -2827,7 +2827,7 @@
         <v>-87180.15436654999</v>
       </c>
       <c r="H74" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
@@ -2860,7 +2860,7 @@
         <v>-87180.15436654999</v>
       </c>
       <c r="H75" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
@@ -2893,7 +2893,7 @@
         <v>-87180.15436654999</v>
       </c>
       <c r="H76" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
@@ -2926,7 +2926,7 @@
         <v>-86913.15436654999</v>
       </c>
       <c r="H77" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
@@ -2959,7 +2959,7 @@
         <v>-88458.95846654999</v>
       </c>
       <c r="H78" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
@@ -2992,7 +2992,7 @@
         <v>-92718.95846654999</v>
       </c>
       <c r="H79" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
@@ -3025,7 +3025,7 @@
         <v>-89318.32276654999</v>
       </c>
       <c r="H80" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
@@ -3058,7 +3058,7 @@
         <v>-89318.32276654999</v>
       </c>
       <c r="H81" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
@@ -3091,7 +3091,7 @@
         <v>-96318.32276654999</v>
       </c>
       <c r="H82" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
@@ -3124,7 +3124,7 @@
         <v>-96318.32276654999</v>
       </c>
       <c r="H83" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
@@ -3157,7 +3157,7 @@
         <v>-103042.50336655</v>
       </c>
       <c r="H84" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
@@ -3190,7 +3190,7 @@
         <v>-103042.50336655</v>
       </c>
       <c r="H85" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
@@ -3223,7 +3223,7 @@
         <v>-104911.37406655</v>
       </c>
       <c r="H86" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
@@ -3256,7 +3256,7 @@
         <v>-112413.56466655</v>
       </c>
       <c r="H87" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
@@ -3289,7 +3289,7 @@
         <v>-112804.77736655</v>
       </c>
       <c r="H88" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
@@ -3322,7 +3322,7 @@
         <v>-119956.83926655</v>
       </c>
       <c r="H89" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
@@ -3355,7 +3355,7 @@
         <v>-127960.31556655</v>
       </c>
       <c r="H90" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
@@ -3421,7 +3421,7 @@
         <v>-127960.31556655</v>
       </c>
       <c r="H92" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
@@ -5038,7 +5038,7 @@
         <v>-128577.53866655</v>
       </c>
       <c r="H141" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
@@ -5137,7 +5137,7 @@
         <v>-128577.53866655</v>
       </c>
       <c r="H144" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
@@ -5170,7 +5170,7 @@
         <v>-128577.53866655</v>
       </c>
       <c r="H145" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
@@ -5203,7 +5203,7 @@
         <v>-128716.83856655</v>
       </c>
       <c r="H146" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
@@ -5236,7 +5236,7 @@
         <v>-128716.83856655</v>
       </c>
       <c r="H147" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
@@ -5269,7 +5269,7 @@
         <v>-128523.93856655</v>
       </c>
       <c r="H148" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
@@ -5302,7 +5302,7 @@
         <v>-135894.95186655</v>
       </c>
       <c r="H149" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
@@ -5335,7 +5335,7 @@
         <v>-135894.95186655</v>
       </c>
       <c r="H150" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
@@ -5533,7 +5533,7 @@
         <v>-142362.49776655</v>
       </c>
       <c r="H156" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
@@ -5566,7 +5566,7 @@
         <v>-142362.49776655</v>
       </c>
       <c r="H157" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
@@ -7315,17 +7315,11 @@
         <v>-181751.06483944</v>
       </c>
       <c r="H210" t="n">
-        <v>1</v>
-      </c>
-      <c r="I210" t="n">
-        <v>187</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I210" t="inlineStr"/>
       <c r="J210" t="inlineStr"/>
-      <c r="K210" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="K210" t="inlineStr"/>
       <c r="L210" t="n">
         <v>1</v>
       </c>
@@ -7354,17 +7348,11 @@
         <v>-183408.42573944</v>
       </c>
       <c r="H211" t="n">
-        <v>1</v>
-      </c>
-      <c r="I211" t="n">
-        <v>187.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I211" t="inlineStr"/>
       <c r="J211" t="inlineStr"/>
-      <c r="K211" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K211" t="inlineStr"/>
       <c r="L211" t="n">
         <v>1</v>
       </c>
@@ -7393,17 +7381,11 @@
         <v>-183408.42573944</v>
       </c>
       <c r="H212" t="n">
-        <v>1</v>
-      </c>
-      <c r="I212" t="n">
-        <v>186.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I212" t="inlineStr"/>
       <c r="J212" t="inlineStr"/>
-      <c r="K212" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K212" t="inlineStr"/>
       <c r="L212" t="n">
         <v>1</v>
       </c>
@@ -7432,17 +7414,11 @@
         <v>-183408.42573944</v>
       </c>
       <c r="H213" t="n">
-        <v>1</v>
-      </c>
-      <c r="I213" t="n">
-        <v>186.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I213" t="inlineStr"/>
       <c r="J213" t="inlineStr"/>
-      <c r="K213" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K213" t="inlineStr"/>
       <c r="L213" t="n">
         <v>1</v>
       </c>
@@ -7471,17 +7447,11 @@
         <v>-183408.42573944</v>
       </c>
       <c r="H214" t="n">
-        <v>1</v>
-      </c>
-      <c r="I214" t="n">
-        <v>186.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I214" t="inlineStr"/>
       <c r="J214" t="inlineStr"/>
-      <c r="K214" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K214" t="inlineStr"/>
       <c r="L214" t="n">
         <v>1</v>
       </c>
@@ -7510,17 +7480,11 @@
         <v>-183438.42573944</v>
       </c>
       <c r="H215" t="n">
-        <v>1</v>
-      </c>
-      <c r="I215" t="n">
-        <v>186.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I215" t="inlineStr"/>
       <c r="J215" t="inlineStr"/>
-      <c r="K215" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K215" t="inlineStr"/>
       <c r="L215" t="n">
         <v>1</v>
       </c>
@@ -7549,17 +7513,11 @@
         <v>-179698.42573944</v>
       </c>
       <c r="H216" t="n">
-        <v>1</v>
-      </c>
-      <c r="I216" t="n">
-        <v>186</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I216" t="inlineStr"/>
       <c r="J216" t="inlineStr"/>
-      <c r="K216" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K216" t="inlineStr"/>
       <c r="L216" t="n">
         <v>1</v>
       </c>
@@ -7588,17 +7546,11 @@
         <v>-179698.42573944</v>
       </c>
       <c r="H217" t="n">
-        <v>1</v>
-      </c>
-      <c r="I217" t="n">
-        <v>186.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I217" t="inlineStr"/>
       <c r="J217" t="inlineStr"/>
-      <c r="K217" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K217" t="inlineStr"/>
       <c r="L217" t="n">
         <v>1</v>
       </c>
@@ -7627,17 +7579,11 @@
         <v>-187950.41523944</v>
       </c>
       <c r="H218" t="n">
-        <v>1</v>
-      </c>
-      <c r="I218" t="n">
-        <v>186.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I218" t="inlineStr"/>
       <c r="J218" t="inlineStr"/>
-      <c r="K218" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K218" t="inlineStr"/>
       <c r="L218" t="n">
         <v>1</v>
       </c>
@@ -7674,7 +7620,7 @@
       <c r="J219" t="inlineStr"/>
       <c r="K219" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 체결</t>
         </is>
       </c>
       <c r="L219" t="n">
@@ -7859,11 +7805,9 @@
         <v>-195211.4136394401</v>
       </c>
       <c r="H224" t="n">
-        <v>1</v>
-      </c>
-      <c r="I224" t="n">
-        <v>186</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I224" t="inlineStr"/>
       <c r="J224" t="inlineStr"/>
       <c r="K224" t="inlineStr">
         <is>
@@ -8241,11 +8185,9 @@
         <v>-194961.9291153801</v>
       </c>
       <c r="H234" t="n">
-        <v>1</v>
-      </c>
-      <c r="I234" t="n">
-        <v>185.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I234" t="inlineStr"/>
       <c r="J234" t="inlineStr"/>
       <c r="K234" t="inlineStr">
         <is>
@@ -8280,9 +8222,11 @@
         <v>-198492.3474153801</v>
       </c>
       <c r="H235" t="n">
-        <v>0</v>
-      </c>
-      <c r="I235" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I235" t="n">
+        <v>185.5</v>
+      </c>
       <c r="J235" t="inlineStr"/>
       <c r="K235" t="inlineStr">
         <is>
@@ -8356,11 +8300,9 @@
         <v>-206497.4925153801</v>
       </c>
       <c r="H237" t="n">
-        <v>1</v>
-      </c>
-      <c r="I237" t="n">
-        <v>184</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I237" t="inlineStr"/>
       <c r="J237" t="inlineStr"/>
       <c r="K237" t="inlineStr">
         <is>
@@ -8395,11 +8337,9 @@
         <v>-206497.4925153801</v>
       </c>
       <c r="H238" t="n">
-        <v>1</v>
-      </c>
-      <c r="I238" t="n">
-        <v>187</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I238" t="inlineStr"/>
       <c r="J238" t="inlineStr"/>
       <c r="K238" t="inlineStr">
         <is>
@@ -8471,11 +8411,9 @@
         <v>-198310.6345153801</v>
       </c>
       <c r="H240" t="n">
-        <v>1</v>
-      </c>
-      <c r="I240" t="n">
-        <v>188.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I240" t="inlineStr"/>
       <c r="J240" t="inlineStr"/>
       <c r="K240" t="inlineStr">
         <is>
@@ -8510,11 +8448,9 @@
         <v>-195680.7847707001</v>
       </c>
       <c r="H241" t="n">
-        <v>1</v>
-      </c>
-      <c r="I241" t="n">
-        <v>187</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I241" t="inlineStr"/>
       <c r="J241" t="inlineStr"/>
       <c r="K241" t="inlineStr">
         <is>
@@ -8623,11 +8559,9 @@
         <v>-196227.9807707001</v>
       </c>
       <c r="H244" t="n">
-        <v>1</v>
-      </c>
-      <c r="I244" t="n">
-        <v>186</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I244" t="inlineStr"/>
       <c r="J244" t="inlineStr"/>
       <c r="K244" t="inlineStr">
         <is>
@@ -8662,11 +8596,9 @@
         <v>-195867.8936707001</v>
       </c>
       <c r="H245" t="n">
-        <v>1</v>
-      </c>
-      <c r="I245" t="n">
-        <v>186</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I245" t="inlineStr"/>
       <c r="J245" t="inlineStr"/>
       <c r="K245" t="inlineStr">
         <is>
@@ -8701,11 +8633,9 @@
         <v>-195996.1291707001</v>
       </c>
       <c r="H246" t="n">
-        <v>1</v>
-      </c>
-      <c r="I246" t="n">
-        <v>186.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I246" t="inlineStr"/>
       <c r="J246" t="inlineStr"/>
       <c r="K246" t="inlineStr">
         <is>
@@ -8740,11 +8670,9 @@
         <v>-195996.1291707001</v>
       </c>
       <c r="H247" t="n">
-        <v>1</v>
-      </c>
-      <c r="I247" t="n">
-        <v>186.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I247" t="inlineStr"/>
       <c r="J247" t="inlineStr"/>
       <c r="K247" t="inlineStr">
         <is>
@@ -8779,11 +8707,9 @@
         <v>-195996.1291707001</v>
       </c>
       <c r="H248" t="n">
-        <v>1</v>
-      </c>
-      <c r="I248" t="n">
-        <v>186.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I248" t="inlineStr"/>
       <c r="J248" t="inlineStr"/>
       <c r="K248" t="inlineStr">
         <is>
@@ -8818,11 +8744,9 @@
         <v>-195996.1291707001</v>
       </c>
       <c r="H249" t="n">
-        <v>1</v>
-      </c>
-      <c r="I249" t="n">
-        <v>186.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I249" t="inlineStr"/>
       <c r="J249" t="inlineStr"/>
       <c r="K249" t="inlineStr">
         <is>
@@ -8857,11 +8781,9 @@
         <v>-195996.1291707001</v>
       </c>
       <c r="H250" t="n">
-        <v>1</v>
-      </c>
-      <c r="I250" t="n">
-        <v>186.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I250" t="inlineStr"/>
       <c r="J250" t="inlineStr"/>
       <c r="K250" t="inlineStr">
         <is>
@@ -8896,11 +8818,9 @@
         <v>-195996.1291707001</v>
       </c>
       <c r="H251" t="n">
-        <v>1</v>
-      </c>
-      <c r="I251" t="n">
-        <v>186.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I251" t="inlineStr"/>
       <c r="J251" t="inlineStr"/>
       <c r="K251" t="inlineStr">
         <is>
@@ -8935,11 +8855,9 @@
         <v>-195996.1291707001</v>
       </c>
       <c r="H252" t="n">
-        <v>1</v>
-      </c>
-      <c r="I252" t="n">
-        <v>186.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I252" t="inlineStr"/>
       <c r="J252" t="inlineStr"/>
       <c r="K252" t="inlineStr">
         <is>
@@ -8974,11 +8892,9 @@
         <v>-195996.1291707001</v>
       </c>
       <c r="H253" t="n">
-        <v>1</v>
-      </c>
-      <c r="I253" t="n">
-        <v>186.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I253" t="inlineStr"/>
       <c r="J253" t="inlineStr"/>
       <c r="K253" t="inlineStr">
         <is>
@@ -9013,11 +8929,9 @@
         <v>-195996.1291707001</v>
       </c>
       <c r="H254" t="n">
-        <v>1</v>
-      </c>
-      <c r="I254" t="n">
-        <v>186.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I254" t="inlineStr"/>
       <c r="J254" t="inlineStr"/>
       <c r="K254" t="inlineStr">
         <is>
@@ -9030,6 +8944,6 @@
       <c r="M254" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-24 BackTest STEEM.xlsx
+++ b/BackTest/2020-01-24 BackTest STEEM.xlsx
@@ -1078,7 +1078,7 @@
         <v>-39476.82366654999</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
@@ -1111,7 +1111,7 @@
         <v>-38877.41896654999</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
@@ -1144,7 +1144,7 @@
         <v>-38877.41896654999</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
@@ -1177,7 +1177,7 @@
         <v>-37937.17996654999</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
@@ -1210,7 +1210,7 @@
         <v>-35630.29406654999</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
@@ -1243,7 +1243,7 @@
         <v>-35652.79806654999</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
@@ -1276,7 +1276,7 @@
         <v>-35063.10336654999</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
@@ -1309,7 +1309,7 @@
         <v>-35567.94736654999</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
@@ -1342,7 +1342,7 @@
         <v>-37034.26576654999</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
@@ -1375,7 +1375,7 @@
         <v>-37259.56616654999</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
@@ -1408,7 +1408,7 @@
         <v>-36940.50986654999</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
@@ -1441,7 +1441,7 @@
         <v>-37493.00066654999</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
@@ -1474,7 +1474,7 @@
         <v>-37294.27346654999</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
@@ -1507,7 +1507,7 @@
         <v>-37448.02086654999</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
@@ -1540,7 +1540,7 @@
         <v>-36857.12286654999</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
@@ -1573,7 +1573,7 @@
         <v>-36857.12286654999</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
@@ -1606,7 +1606,7 @@
         <v>-36857.12286654999</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
@@ -1639,7 +1639,7 @@
         <v>-36857.12286654999</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
@@ -1672,7 +1672,7 @@
         <v>-36857.12286654999</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
@@ -1705,7 +1705,7 @@
         <v>-36857.12286654999</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
@@ -1738,7 +1738,7 @@
         <v>-36857.12286654999</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
@@ -1771,7 +1771,7 @@
         <v>-46468.23316654999</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
@@ -1804,7 +1804,7 @@
         <v>-46468.23316654999</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
@@ -1837,7 +1837,7 @@
         <v>-47559.54416654999</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
@@ -1870,7 +1870,7 @@
         <v>-50287.92216654999</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
@@ -1903,7 +1903,7 @@
         <v>-50287.92216654999</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
@@ -1936,7 +1936,7 @@
         <v>-49697.92216654999</v>
       </c>
       <c r="H47" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
@@ -1969,7 +1969,7 @@
         <v>-45797.92216654999</v>
       </c>
       <c r="H48" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
@@ -2002,7 +2002,7 @@
         <v>-48097.97766654999</v>
       </c>
       <c r="H49" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
@@ -2035,7 +2035,7 @@
         <v>-47986.97766654999</v>
       </c>
       <c r="H50" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
@@ -2068,7 +2068,7 @@
         <v>-47986.97766654999</v>
       </c>
       <c r="H51" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
@@ -2101,7 +2101,7 @@
         <v>-48141.89506654999</v>
       </c>
       <c r="H52" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
@@ -2167,7 +2167,7 @@
         <v>-48528.16926654999</v>
       </c>
       <c r="H54" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
@@ -2200,7 +2200,7 @@
         <v>-48528.16926654999</v>
       </c>
       <c r="H55" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
@@ -2233,7 +2233,7 @@
         <v>-51528.16926654999</v>
       </c>
       <c r="H56" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
@@ -2266,7 +2266,7 @@
         <v>-60378.16926654999</v>
       </c>
       <c r="H57" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
@@ -2563,7 +2563,7 @@
         <v>-56512.27996654999</v>
       </c>
       <c r="H66" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
@@ -2596,7 +2596,7 @@
         <v>-56512.27996654999</v>
       </c>
       <c r="H67" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
@@ -2629,7 +2629,7 @@
         <v>-56876.27996654999</v>
       </c>
       <c r="H68" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
@@ -2662,7 +2662,7 @@
         <v>-66765.63996654999</v>
       </c>
       <c r="H69" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
@@ -2695,7 +2695,7 @@
         <v>-64023.21296654999</v>
       </c>
       <c r="H70" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
@@ -5038,7 +5038,7 @@
         <v>-128577.53866655</v>
       </c>
       <c r="H141" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
@@ -5137,7 +5137,7 @@
         <v>-128577.53866655</v>
       </c>
       <c r="H144" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
@@ -5170,7 +5170,7 @@
         <v>-128577.53866655</v>
       </c>
       <c r="H145" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
@@ -5203,7 +5203,7 @@
         <v>-128716.83856655</v>
       </c>
       <c r="H146" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
@@ -5236,7 +5236,7 @@
         <v>-128716.83856655</v>
       </c>
       <c r="H147" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
@@ -5269,7 +5269,7 @@
         <v>-128523.93856655</v>
       </c>
       <c r="H148" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
@@ -5302,7 +5302,7 @@
         <v>-135894.95186655</v>
       </c>
       <c r="H149" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
@@ -5335,7 +5335,7 @@
         <v>-135894.95186655</v>
       </c>
       <c r="H150" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
@@ -5533,7 +5533,7 @@
         <v>-142362.49776655</v>
       </c>
       <c r="H156" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
@@ -5566,7 +5566,7 @@
         <v>-142362.49776655</v>
       </c>
       <c r="H157" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
@@ -7612,17 +7612,11 @@
         <v>-187795.41473944</v>
       </c>
       <c r="H219" t="n">
-        <v>1</v>
-      </c>
-      <c r="I219" t="n">
-        <v>185.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I219" t="inlineStr"/>
       <c r="J219" t="inlineStr"/>
-      <c r="K219" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="K219" t="inlineStr"/>
       <c r="L219" t="n">
         <v>1</v>
       </c>
@@ -7651,17 +7645,11 @@
         <v>-187795.41473944</v>
       </c>
       <c r="H220" t="n">
-        <v>1</v>
-      </c>
-      <c r="I220" t="n">
-        <v>186.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I220" t="inlineStr"/>
       <c r="J220" t="inlineStr"/>
-      <c r="K220" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K220" t="inlineStr"/>
       <c r="L220" t="n">
         <v>1</v>
       </c>
@@ -7690,17 +7678,11 @@
         <v>-195339.67453944</v>
       </c>
       <c r="H221" t="n">
-        <v>1</v>
-      </c>
-      <c r="I221" t="n">
-        <v>186.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I221" t="inlineStr"/>
       <c r="J221" t="inlineStr"/>
-      <c r="K221" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K221" t="inlineStr"/>
       <c r="L221" t="n">
         <v>1</v>
       </c>
@@ -7733,11 +7715,7 @@
       </c>
       <c r="I222" t="inlineStr"/>
       <c r="J222" t="inlineStr"/>
-      <c r="K222" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K222" t="inlineStr"/>
       <c r="L222" t="n">
         <v>1</v>
       </c>
@@ -7766,17 +7744,11 @@
         <v>-195211.4136394401</v>
       </c>
       <c r="H223" t="n">
-        <v>1</v>
-      </c>
-      <c r="I223" t="n">
-        <v>186</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I223" t="inlineStr"/>
       <c r="J223" t="inlineStr"/>
-      <c r="K223" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K223" t="inlineStr"/>
       <c r="L223" t="n">
         <v>1</v>
       </c>
@@ -7809,11 +7781,7 @@
       </c>
       <c r="I224" t="inlineStr"/>
       <c r="J224" t="inlineStr"/>
-      <c r="K224" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K224" t="inlineStr"/>
       <c r="L224" t="n">
         <v>1</v>
       </c>
@@ -7847,12 +7815,10 @@
       <c r="I225" t="n">
         <v>186</v>
       </c>
-      <c r="J225" t="inlineStr"/>
-      <c r="K225" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J225" t="n">
+        <v>186</v>
+      </c>
+      <c r="K225" t="inlineStr"/>
       <c r="L225" t="n">
         <v>1</v>
       </c>
@@ -7886,10 +7852,12 @@
       <c r="I226" t="n">
         <v>185.6</v>
       </c>
-      <c r="J226" t="inlineStr"/>
+      <c r="J226" t="n">
+        <v>186</v>
+      </c>
       <c r="K226" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L226" t="n">
@@ -7925,10 +7893,12 @@
       <c r="I227" t="n">
         <v>185.5</v>
       </c>
-      <c r="J227" t="inlineStr"/>
+      <c r="J227" t="n">
+        <v>186</v>
+      </c>
       <c r="K227" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L227" t="n">
@@ -7964,12 +7934,10 @@
       <c r="I228" t="n">
         <v>185.4</v>
       </c>
-      <c r="J228" t="inlineStr"/>
-      <c r="K228" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J228" t="n">
+        <v>185.4</v>
+      </c>
+      <c r="K228" t="inlineStr"/>
       <c r="L228" t="n">
         <v>1</v>
       </c>
@@ -8003,10 +7971,12 @@
       <c r="I229" t="n">
         <v>187</v>
       </c>
-      <c r="J229" t="inlineStr"/>
+      <c r="J229" t="n">
+        <v>185.4</v>
+      </c>
       <c r="K229" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L229" t="n">
@@ -8040,10 +8010,12 @@
         <v>0</v>
       </c>
       <c r="I230" t="inlineStr"/>
-      <c r="J230" t="inlineStr"/>
+      <c r="J230" t="n">
+        <v>185.4</v>
+      </c>
       <c r="K230" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L230" t="n">
@@ -8078,11 +8050,7 @@
       </c>
       <c r="I231" t="inlineStr"/>
       <c r="J231" t="inlineStr"/>
-      <c r="K231" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K231" t="inlineStr"/>
       <c r="L231" t="n">
         <v>1</v>
       </c>
@@ -8115,11 +8083,7 @@
       </c>
       <c r="I232" t="inlineStr"/>
       <c r="J232" t="inlineStr"/>
-      <c r="K232" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K232" t="inlineStr"/>
       <c r="L232" t="n">
         <v>1</v>
       </c>
@@ -8152,11 +8116,7 @@
       </c>
       <c r="I233" t="inlineStr"/>
       <c r="J233" t="inlineStr"/>
-      <c r="K233" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K233" t="inlineStr"/>
       <c r="L233" t="n">
         <v>1</v>
       </c>
@@ -8189,11 +8149,7 @@
       </c>
       <c r="I234" t="inlineStr"/>
       <c r="J234" t="inlineStr"/>
-      <c r="K234" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K234" t="inlineStr"/>
       <c r="L234" t="n">
         <v>1</v>
       </c>
@@ -8222,17 +8178,11 @@
         <v>-198492.3474153801</v>
       </c>
       <c r="H235" t="n">
-        <v>1</v>
-      </c>
-      <c r="I235" t="n">
-        <v>185.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I235" t="inlineStr"/>
       <c r="J235" t="inlineStr"/>
-      <c r="K235" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K235" t="inlineStr"/>
       <c r="L235" t="n">
         <v>1</v>
       </c>
@@ -8269,7 +8219,7 @@
       <c r="J236" t="inlineStr"/>
       <c r="K236" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 체결</t>
         </is>
       </c>
       <c r="L236" t="n">
@@ -8744,9 +8694,11 @@
         <v>-195996.1291707001</v>
       </c>
       <c r="H249" t="n">
-        <v>0</v>
-      </c>
-      <c r="I249" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I249" t="n">
+        <v>186.2</v>
+      </c>
       <c r="J249" t="inlineStr"/>
       <c r="K249" t="inlineStr">
         <is>
@@ -8781,9 +8733,11 @@
         <v>-195996.1291707001</v>
       </c>
       <c r="H250" t="n">
-        <v>0</v>
-      </c>
-      <c r="I250" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I250" t="n">
+        <v>186.2</v>
+      </c>
       <c r="J250" t="inlineStr"/>
       <c r="K250" t="inlineStr">
         <is>
@@ -8818,9 +8772,11 @@
         <v>-195996.1291707001</v>
       </c>
       <c r="H251" t="n">
-        <v>0</v>
-      </c>
-      <c r="I251" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I251" t="n">
+        <v>186.2</v>
+      </c>
       <c r="J251" t="inlineStr"/>
       <c r="K251" t="inlineStr">
         <is>
@@ -8855,9 +8811,11 @@
         <v>-195996.1291707001</v>
       </c>
       <c r="H252" t="n">
-        <v>0</v>
-      </c>
-      <c r="I252" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I252" t="n">
+        <v>186.2</v>
+      </c>
       <c r="J252" t="inlineStr"/>
       <c r="K252" t="inlineStr">
         <is>
@@ -8892,9 +8850,11 @@
         <v>-195996.1291707001</v>
       </c>
       <c r="H253" t="n">
-        <v>0</v>
-      </c>
-      <c r="I253" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I253" t="n">
+        <v>186.2</v>
+      </c>
       <c r="J253" t="inlineStr"/>
       <c r="K253" t="inlineStr">
         <is>
@@ -8929,9 +8889,11 @@
         <v>-195996.1291707001</v>
       </c>
       <c r="H254" t="n">
-        <v>0</v>
-      </c>
-      <c r="I254" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I254" t="n">
+        <v>186.2</v>
+      </c>
       <c r="J254" t="inlineStr"/>
       <c r="K254" t="inlineStr">
         <is>

--- a/BackTest/2020-01-24 BackTest STEEM.xlsx
+++ b/BackTest/2020-01-24 BackTest STEEM.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M254"/>
+  <dimension ref="A1:L254"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -389,40 +389,35 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>volume</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
           <t>OBV</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>trade_state</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>BuyPrice</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>bprelay</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>Condition</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>Price_point</t>
         </is>
@@ -448,18 +443,15 @@
         <v>2300</v>
       </c>
       <c r="G2" t="n">
-        <v>-37919.85316655</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H2" t="inlineStr"/>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr"/>
-      <c r="L2" t="n">
-        <v>1</v>
-      </c>
-      <c r="M2" t="inlineStr"/>
+      <c r="K2" t="n">
+        <v>1</v>
+      </c>
+      <c r="L2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -481,18 +473,15 @@
         <v>6000</v>
       </c>
       <c r="G3" t="n">
-        <v>-43919.85316655</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H3" t="inlineStr"/>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
-      <c r="L3" t="n">
-        <v>1</v>
-      </c>
-      <c r="M3" t="inlineStr"/>
+      <c r="K3" t="n">
+        <v>1</v>
+      </c>
+      <c r="L3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -514,18 +503,15 @@
         <v>1560</v>
       </c>
       <c r="G4" t="n">
-        <v>-43919.85316655</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H4" t="inlineStr"/>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="n">
-        <v>1</v>
-      </c>
-      <c r="M4" t="inlineStr"/>
+      <c r="K4" t="n">
+        <v>1</v>
+      </c>
+      <c r="L4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -547,18 +533,15 @@
         <v>294</v>
       </c>
       <c r="G5" t="n">
-        <v>-43625.85316655</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H5" t="inlineStr"/>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
-      <c r="L5" t="n">
-        <v>1</v>
-      </c>
-      <c r="M5" t="inlineStr"/>
+      <c r="K5" t="n">
+        <v>1</v>
+      </c>
+      <c r="L5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -580,18 +563,15 @@
         <v>2763</v>
       </c>
       <c r="G6" t="n">
-        <v>-46388.85316655</v>
-      </c>
-      <c r="H6" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H6" t="inlineStr"/>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
-      <c r="L6" t="n">
-        <v>1</v>
-      </c>
-      <c r="M6" t="inlineStr"/>
+      <c r="K6" t="n">
+        <v>1</v>
+      </c>
+      <c r="L6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -613,18 +593,15 @@
         <v>6300.4218</v>
       </c>
       <c r="G7" t="n">
-        <v>-40088.43136654999</v>
-      </c>
-      <c r="H7" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H7" t="inlineStr"/>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
-      <c r="L7" t="n">
-        <v>1</v>
-      </c>
-      <c r="M7" t="inlineStr"/>
+      <c r="K7" t="n">
+        <v>1</v>
+      </c>
+      <c r="L7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -646,18 +623,15 @@
         <v>9532.8984</v>
       </c>
       <c r="G8" t="n">
-        <v>-40088.43136654999</v>
-      </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H8" t="inlineStr"/>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
-      <c r="L8" t="n">
-        <v>1</v>
-      </c>
-      <c r="M8" t="inlineStr"/>
+      <c r="K8" t="n">
+        <v>1</v>
+      </c>
+      <c r="L8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -679,18 +653,15 @@
         <v>333.3162</v>
       </c>
       <c r="G9" t="n">
-        <v>-40421.74756655</v>
-      </c>
-      <c r="H9" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H9" t="inlineStr"/>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
-      <c r="L9" t="n">
-        <v>1</v>
-      </c>
-      <c r="M9" t="inlineStr"/>
+      <c r="K9" t="n">
+        <v>1</v>
+      </c>
+      <c r="L9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -712,18 +683,15 @@
         <v>75.8616</v>
       </c>
       <c r="G10" t="n">
-        <v>-40345.88596655</v>
-      </c>
-      <c r="H10" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H10" t="inlineStr"/>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
-      <c r="L10" t="n">
-        <v>1</v>
-      </c>
-      <c r="M10" t="inlineStr"/>
+      <c r="K10" t="n">
+        <v>1</v>
+      </c>
+      <c r="L10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -745,18 +713,15 @@
         <v>79.7569</v>
       </c>
       <c r="G11" t="n">
-        <v>-40266.12906655</v>
-      </c>
-      <c r="H11" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H11" t="inlineStr"/>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
-      <c r="L11" t="n">
-        <v>1</v>
-      </c>
-      <c r="M11" t="inlineStr"/>
+      <c r="K11" t="n">
+        <v>1</v>
+      </c>
+      <c r="L11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -778,18 +743,15 @@
         <v>212.8566</v>
       </c>
       <c r="G12" t="n">
-        <v>-40478.98566655</v>
-      </c>
-      <c r="H12" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H12" t="inlineStr"/>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
-      <c r="L12" t="n">
-        <v>1</v>
-      </c>
-      <c r="M12" t="inlineStr"/>
+      <c r="K12" t="n">
+        <v>1</v>
+      </c>
+      <c r="L12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -811,18 +773,15 @@
         <v>2937.602</v>
       </c>
       <c r="G13" t="n">
-        <v>-40478.98566655</v>
-      </c>
-      <c r="H13" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H13" t="inlineStr"/>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
-      <c r="L13" t="n">
-        <v>1</v>
-      </c>
-      <c r="M13" t="inlineStr"/>
+      <c r="K13" t="n">
+        <v>1</v>
+      </c>
+      <c r="L13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -844,18 +803,15 @@
         <v>16</v>
       </c>
       <c r="G14" t="n">
-        <v>-40494.98566655</v>
-      </c>
-      <c r="H14" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H14" t="inlineStr"/>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
-      <c r="L14" t="n">
-        <v>1</v>
-      </c>
-      <c r="M14" t="inlineStr"/>
+      <c r="K14" t="n">
+        <v>1</v>
+      </c>
+      <c r="L14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -877,18 +833,15 @@
         <v>379</v>
       </c>
       <c r="G15" t="n">
-        <v>-40115.98566655</v>
-      </c>
-      <c r="H15" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H15" t="inlineStr"/>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
-      <c r="L15" t="n">
-        <v>1</v>
-      </c>
-      <c r="M15" t="inlineStr"/>
+      <c r="K15" t="n">
+        <v>1</v>
+      </c>
+      <c r="L15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -910,18 +863,15 @@
         <v>37</v>
       </c>
       <c r="G16" t="n">
-        <v>-40115.98566655</v>
-      </c>
-      <c r="H16" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H16" t="inlineStr"/>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
-      <c r="L16" t="n">
-        <v>1</v>
-      </c>
-      <c r="M16" t="inlineStr"/>
+      <c r="K16" t="n">
+        <v>1</v>
+      </c>
+      <c r="L16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -943,18 +893,15 @@
         <v>145.4792</v>
       </c>
       <c r="G17" t="n">
-        <v>-40261.46486655</v>
-      </c>
-      <c r="H17" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H17" t="inlineStr"/>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
-      <c r="L17" t="n">
-        <v>1</v>
-      </c>
-      <c r="M17" t="inlineStr"/>
+      <c r="K17" t="n">
+        <v>1</v>
+      </c>
+      <c r="L17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -976,18 +923,15 @@
         <v>2093.12</v>
       </c>
       <c r="G18" t="n">
-        <v>-40261.46486655</v>
-      </c>
-      <c r="H18" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H18" t="inlineStr"/>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
-      <c r="L18" t="n">
-        <v>1</v>
-      </c>
-      <c r="M18" t="inlineStr"/>
+      <c r="K18" t="n">
+        <v>1</v>
+      </c>
+      <c r="L18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1009,18 +953,15 @@
         <v>1690</v>
       </c>
       <c r="G19" t="n">
-        <v>-40261.46486655</v>
-      </c>
-      <c r="H19" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H19" t="inlineStr"/>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
-      <c r="L19" t="n">
-        <v>1</v>
-      </c>
-      <c r="M19" t="inlineStr"/>
+      <c r="K19" t="n">
+        <v>1</v>
+      </c>
+      <c r="L19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1042,18 +983,15 @@
         <v>5879.709</v>
       </c>
       <c r="G20" t="n">
-        <v>-34381.75586655</v>
-      </c>
-      <c r="H20" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H20" t="inlineStr"/>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
-      <c r="L20" t="n">
-        <v>1</v>
-      </c>
-      <c r="M20" t="inlineStr"/>
+      <c r="K20" t="n">
+        <v>1</v>
+      </c>
+      <c r="L20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1075,18 +1013,15 @@
         <v>5095.0678</v>
       </c>
       <c r="G21" t="n">
-        <v>-39476.82366654999</v>
-      </c>
-      <c r="H21" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H21" t="inlineStr"/>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
-      <c r="L21" t="n">
-        <v>1</v>
-      </c>
-      <c r="M21" t="inlineStr"/>
+      <c r="K21" t="n">
+        <v>1</v>
+      </c>
+      <c r="L21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1108,18 +1043,15 @@
         <v>599.4047</v>
       </c>
       <c r="G22" t="n">
-        <v>-38877.41896654999</v>
-      </c>
-      <c r="H22" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H22" t="inlineStr"/>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
-      <c r="L22" t="n">
-        <v>1</v>
-      </c>
-      <c r="M22" t="inlineStr"/>
+      <c r="K22" t="n">
+        <v>1</v>
+      </c>
+      <c r="L22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1141,18 +1073,15 @@
         <v>283.4811</v>
       </c>
       <c r="G23" t="n">
-        <v>-38877.41896654999</v>
-      </c>
-      <c r="H23" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H23" t="inlineStr"/>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
-      <c r="L23" t="n">
-        <v>1</v>
-      </c>
-      <c r="M23" t="inlineStr"/>
+      <c r="K23" t="n">
+        <v>1</v>
+      </c>
+      <c r="L23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1174,18 +1103,15 @@
         <v>940.239</v>
       </c>
       <c r="G24" t="n">
-        <v>-37937.17996654999</v>
-      </c>
-      <c r="H24" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H24" t="inlineStr"/>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
-      <c r="L24" t="n">
-        <v>1</v>
-      </c>
-      <c r="M24" t="inlineStr"/>
+      <c r="K24" t="n">
+        <v>1</v>
+      </c>
+      <c r="L24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1207,18 +1133,15 @@
         <v>2306.8859</v>
       </c>
       <c r="G25" t="n">
-        <v>-35630.29406654999</v>
-      </c>
-      <c r="H25" t="n">
         <v>2</v>
       </c>
+      <c r="H25" t="inlineStr"/>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
-      <c r="L25" t="n">
-        <v>1</v>
-      </c>
-      <c r="M25" t="inlineStr"/>
+      <c r="K25" t="n">
+        <v>1</v>
+      </c>
+      <c r="L25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1240,18 +1163,15 @@
         <v>22.504</v>
       </c>
       <c r="G26" t="n">
-        <v>-35652.79806654999</v>
-      </c>
-      <c r="H26" t="n">
         <v>2</v>
       </c>
+      <c r="H26" t="inlineStr"/>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
-      <c r="L26" t="n">
-        <v>1</v>
-      </c>
-      <c r="M26" t="inlineStr"/>
+      <c r="K26" t="n">
+        <v>1</v>
+      </c>
+      <c r="L26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1273,18 +1193,15 @@
         <v>589.6947</v>
       </c>
       <c r="G27" t="n">
-        <v>-35063.10336654999</v>
-      </c>
-      <c r="H27" t="n">
         <v>2</v>
       </c>
+      <c r="H27" t="inlineStr"/>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
-      <c r="L27" t="n">
-        <v>1</v>
-      </c>
-      <c r="M27" t="inlineStr"/>
+      <c r="K27" t="n">
+        <v>1</v>
+      </c>
+      <c r="L27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1306,18 +1223,15 @@
         <v>504.844</v>
       </c>
       <c r="G28" t="n">
-        <v>-35567.94736654999</v>
-      </c>
-      <c r="H28" t="n">
         <v>2</v>
       </c>
+      <c r="H28" t="inlineStr"/>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
-      <c r="L28" t="n">
-        <v>1</v>
-      </c>
-      <c r="M28" t="inlineStr"/>
+      <c r="K28" t="n">
+        <v>1</v>
+      </c>
+      <c r="L28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1339,18 +1253,15 @@
         <v>1466.3184</v>
       </c>
       <c r="G29" t="n">
-        <v>-37034.26576654999</v>
-      </c>
-      <c r="H29" t="n">
         <v>2</v>
       </c>
+      <c r="H29" t="inlineStr"/>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
-      <c r="L29" t="n">
-        <v>1</v>
-      </c>
-      <c r="M29" t="inlineStr"/>
+      <c r="K29" t="n">
+        <v>1</v>
+      </c>
+      <c r="L29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1372,18 +1283,15 @@
         <v>225.3004</v>
       </c>
       <c r="G30" t="n">
-        <v>-37259.56616654999</v>
-      </c>
-      <c r="H30" t="n">
         <v>2</v>
       </c>
+      <c r="H30" t="inlineStr"/>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
-      <c r="L30" t="n">
-        <v>1</v>
-      </c>
-      <c r="M30" t="inlineStr"/>
+      <c r="K30" t="n">
+        <v>1</v>
+      </c>
+      <c r="L30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1405,18 +1313,15 @@
         <v>319.0563</v>
       </c>
       <c r="G31" t="n">
-        <v>-36940.50986654999</v>
-      </c>
-      <c r="H31" t="n">
         <v>2</v>
       </c>
+      <c r="H31" t="inlineStr"/>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
-      <c r="L31" t="n">
-        <v>1</v>
-      </c>
-      <c r="M31" t="inlineStr"/>
+      <c r="K31" t="n">
+        <v>1</v>
+      </c>
+      <c r="L31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1438,18 +1343,15 @@
         <v>552.4908</v>
       </c>
       <c r="G32" t="n">
-        <v>-37493.00066654999</v>
-      </c>
-      <c r="H32" t="n">
         <v>2</v>
       </c>
+      <c r="H32" t="inlineStr"/>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
-      <c r="L32" t="n">
-        <v>1</v>
-      </c>
-      <c r="M32" t="inlineStr"/>
+      <c r="K32" t="n">
+        <v>1</v>
+      </c>
+      <c r="L32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1471,18 +1373,15 @@
         <v>198.7272</v>
       </c>
       <c r="G33" t="n">
-        <v>-37294.27346654999</v>
-      </c>
-      <c r="H33" t="n">
         <v>2</v>
       </c>
+      <c r="H33" t="inlineStr"/>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
-      <c r="L33" t="n">
-        <v>1</v>
-      </c>
-      <c r="M33" t="inlineStr"/>
+      <c r="K33" t="n">
+        <v>1</v>
+      </c>
+      <c r="L33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1504,18 +1403,15 @@
         <v>153.7474</v>
       </c>
       <c r="G34" t="n">
-        <v>-37448.02086654999</v>
-      </c>
-      <c r="H34" t="n">
         <v>2</v>
       </c>
+      <c r="H34" t="inlineStr"/>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
-      <c r="L34" t="n">
-        <v>1</v>
-      </c>
-      <c r="M34" t="inlineStr"/>
+      <c r="K34" t="n">
+        <v>1</v>
+      </c>
+      <c r="L34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1537,18 +1433,15 @@
         <v>590.898</v>
       </c>
       <c r="G35" t="n">
-        <v>-36857.12286654999</v>
-      </c>
-      <c r="H35" t="n">
         <v>2</v>
       </c>
+      <c r="H35" t="inlineStr"/>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
-      <c r="L35" t="n">
-        <v>1</v>
-      </c>
-      <c r="M35" t="inlineStr"/>
+      <c r="K35" t="n">
+        <v>1</v>
+      </c>
+      <c r="L35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1570,18 +1463,15 @@
         <v>101.5979</v>
       </c>
       <c r="G36" t="n">
-        <v>-36857.12286654999</v>
-      </c>
-      <c r="H36" t="n">
         <v>2</v>
       </c>
+      <c r="H36" t="inlineStr"/>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
-      <c r="L36" t="n">
-        <v>1</v>
-      </c>
-      <c r="M36" t="inlineStr"/>
+      <c r="K36" t="n">
+        <v>1</v>
+      </c>
+      <c r="L36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1603,18 +1493,15 @@
         <v>850.2049</v>
       </c>
       <c r="G37" t="n">
-        <v>-36857.12286654999</v>
-      </c>
-      <c r="H37" t="n">
         <v>2</v>
       </c>
+      <c r="H37" t="inlineStr"/>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
-      <c r="L37" t="n">
-        <v>1</v>
-      </c>
-      <c r="M37" t="inlineStr"/>
+      <c r="K37" t="n">
+        <v>1</v>
+      </c>
+      <c r="L37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1636,18 +1523,15 @@
         <v>5000</v>
       </c>
       <c r="G38" t="n">
-        <v>-36857.12286654999</v>
-      </c>
-      <c r="H38" t="n">
         <v>2</v>
       </c>
+      <c r="H38" t="inlineStr"/>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
-      <c r="L38" t="n">
-        <v>1</v>
-      </c>
-      <c r="M38" t="inlineStr"/>
+      <c r="K38" t="n">
+        <v>1</v>
+      </c>
+      <c r="L38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1669,18 +1553,15 @@
         <v>4303.6061</v>
       </c>
       <c r="G39" t="n">
-        <v>-36857.12286654999</v>
-      </c>
-      <c r="H39" t="n">
         <v>2</v>
       </c>
+      <c r="H39" t="inlineStr"/>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
-      <c r="L39" t="n">
-        <v>1</v>
-      </c>
-      <c r="M39" t="inlineStr"/>
+      <c r="K39" t="n">
+        <v>1</v>
+      </c>
+      <c r="L39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1702,18 +1583,15 @@
         <v>7000</v>
       </c>
       <c r="G40" t="n">
-        <v>-36857.12286654999</v>
-      </c>
-      <c r="H40" t="n">
         <v>2</v>
       </c>
+      <c r="H40" t="inlineStr"/>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
-      <c r="L40" t="n">
-        <v>1</v>
-      </c>
-      <c r="M40" t="inlineStr"/>
+      <c r="K40" t="n">
+        <v>1</v>
+      </c>
+      <c r="L40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1735,18 +1613,15 @@
         <v>167.1984</v>
       </c>
       <c r="G41" t="n">
-        <v>-36857.12286654999</v>
-      </c>
-      <c r="H41" t="n">
         <v>2</v>
       </c>
+      <c r="H41" t="inlineStr"/>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
-      <c r="L41" t="n">
-        <v>1</v>
-      </c>
-      <c r="M41" t="inlineStr"/>
+      <c r="K41" t="n">
+        <v>1</v>
+      </c>
+      <c r="L41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1768,18 +1643,15 @@
         <v>9611.1103</v>
       </c>
       <c r="G42" t="n">
-        <v>-46468.23316654999</v>
-      </c>
-      <c r="H42" t="n">
         <v>2</v>
       </c>
+      <c r="H42" t="inlineStr"/>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
-      <c r="L42" t="n">
-        <v>1</v>
-      </c>
-      <c r="M42" t="inlineStr"/>
+      <c r="K42" t="n">
+        <v>1</v>
+      </c>
+      <c r="L42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1801,18 +1673,15 @@
         <v>44.667</v>
       </c>
       <c r="G43" t="n">
-        <v>-46468.23316654999</v>
-      </c>
-      <c r="H43" t="n">
         <v>2</v>
       </c>
+      <c r="H43" t="inlineStr"/>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
-      <c r="L43" t="n">
-        <v>1</v>
-      </c>
-      <c r="M43" t="inlineStr"/>
+      <c r="K43" t="n">
+        <v>1</v>
+      </c>
+      <c r="L43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1834,18 +1703,15 @@
         <v>1091.311</v>
       </c>
       <c r="G44" t="n">
-        <v>-47559.54416654999</v>
-      </c>
-      <c r="H44" t="n">
         <v>2</v>
       </c>
+      <c r="H44" t="inlineStr"/>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
-      <c r="L44" t="n">
-        <v>1</v>
-      </c>
-      <c r="M44" t="inlineStr"/>
+      <c r="K44" t="n">
+        <v>1</v>
+      </c>
+      <c r="L44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1867,18 +1733,15 @@
         <v>2728.378</v>
       </c>
       <c r="G45" t="n">
-        <v>-50287.92216654999</v>
-      </c>
-      <c r="H45" t="n">
         <v>2</v>
       </c>
+      <c r="H45" t="inlineStr"/>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
-      <c r="L45" t="n">
-        <v>1</v>
-      </c>
-      <c r="M45" t="inlineStr"/>
+      <c r="K45" t="n">
+        <v>1</v>
+      </c>
+      <c r="L45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -1900,18 +1763,15 @@
         <v>2889.773</v>
       </c>
       <c r="G46" t="n">
-        <v>-50287.92216654999</v>
-      </c>
-      <c r="H46" t="n">
         <v>2</v>
       </c>
+      <c r="H46" t="inlineStr"/>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
-      <c r="L46" t="n">
-        <v>1</v>
-      </c>
-      <c r="M46" t="inlineStr"/>
+      <c r="K46" t="n">
+        <v>1</v>
+      </c>
+      <c r="L46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -1933,18 +1793,15 @@
         <v>590</v>
       </c>
       <c r="G47" t="n">
-        <v>-49697.92216654999</v>
-      </c>
-      <c r="H47" t="n">
         <v>2</v>
       </c>
+      <c r="H47" t="inlineStr"/>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
-      <c r="L47" t="n">
-        <v>1</v>
-      </c>
-      <c r="M47" t="inlineStr"/>
+      <c r="K47" t="n">
+        <v>1</v>
+      </c>
+      <c r="L47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -1966,18 +1823,15 @@
         <v>3900</v>
       </c>
       <c r="G48" t="n">
-        <v>-45797.92216654999</v>
-      </c>
-      <c r="H48" t="n">
         <v>2</v>
       </c>
+      <c r="H48" t="inlineStr"/>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
-      <c r="L48" t="n">
-        <v>1</v>
-      </c>
-      <c r="M48" t="inlineStr"/>
+      <c r="K48" t="n">
+        <v>1</v>
+      </c>
+      <c r="L48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -1999,18 +1853,15 @@
         <v>2300.0555</v>
       </c>
       <c r="G49" t="n">
-        <v>-48097.97766654999</v>
-      </c>
-      <c r="H49" t="n">
         <v>2</v>
       </c>
+      <c r="H49" t="inlineStr"/>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
-      <c r="L49" t="n">
-        <v>1</v>
-      </c>
-      <c r="M49" t="inlineStr"/>
+      <c r="K49" t="n">
+        <v>1</v>
+      </c>
+      <c r="L49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2032,18 +1883,15 @@
         <v>111</v>
       </c>
       <c r="G50" t="n">
-        <v>-47986.97766654999</v>
-      </c>
-      <c r="H50" t="n">
         <v>2</v>
       </c>
+      <c r="H50" t="inlineStr"/>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
-      <c r="L50" t="n">
-        <v>1</v>
-      </c>
-      <c r="M50" t="inlineStr"/>
+      <c r="K50" t="n">
+        <v>1</v>
+      </c>
+      <c r="L50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2065,18 +1913,15 @@
         <v>45.6276</v>
       </c>
       <c r="G51" t="n">
-        <v>-47986.97766654999</v>
-      </c>
-      <c r="H51" t="n">
         <v>2</v>
       </c>
+      <c r="H51" t="inlineStr"/>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
-      <c r="L51" t="n">
-        <v>1</v>
-      </c>
-      <c r="M51" t="inlineStr"/>
+      <c r="K51" t="n">
+        <v>1</v>
+      </c>
+      <c r="L51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2098,18 +1943,15 @@
         <v>154.9174</v>
       </c>
       <c r="G52" t="n">
-        <v>-48141.89506654999</v>
-      </c>
-      <c r="H52" t="n">
         <v>2</v>
       </c>
+      <c r="H52" t="inlineStr"/>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
-      <c r="L52" t="n">
-        <v>1</v>
-      </c>
-      <c r="M52" t="inlineStr"/>
+      <c r="K52" t="n">
+        <v>1</v>
+      </c>
+      <c r="L52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2131,18 +1973,15 @@
         <v>3</v>
       </c>
       <c r="G53" t="n">
-        <v>-48138.89506654999</v>
-      </c>
-      <c r="H53" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H53" t="inlineStr"/>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
-      <c r="L53" t="n">
-        <v>1</v>
-      </c>
-      <c r="M53" t="inlineStr"/>
+      <c r="K53" t="n">
+        <v>1</v>
+      </c>
+      <c r="L53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2164,18 +2003,15 @@
         <v>389.2742</v>
       </c>
       <c r="G54" t="n">
-        <v>-48528.16926654999</v>
-      </c>
-      <c r="H54" t="n">
         <v>2</v>
       </c>
+      <c r="H54" t="inlineStr"/>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
-      <c r="L54" t="n">
-        <v>1</v>
-      </c>
-      <c r="M54" t="inlineStr"/>
+      <c r="K54" t="n">
+        <v>1</v>
+      </c>
+      <c r="L54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2197,18 +2033,15 @@
         <v>7583.749</v>
       </c>
       <c r="G55" t="n">
-        <v>-48528.16926654999</v>
-      </c>
-      <c r="H55" t="n">
         <v>2</v>
       </c>
+      <c r="H55" t="inlineStr"/>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
-      <c r="L55" t="n">
-        <v>1</v>
-      </c>
-      <c r="M55" t="inlineStr"/>
+      <c r="K55" t="n">
+        <v>1</v>
+      </c>
+      <c r="L55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2230,18 +2063,15 @@
         <v>3000</v>
       </c>
       <c r="G56" t="n">
-        <v>-51528.16926654999</v>
-      </c>
-      <c r="H56" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H56" t="inlineStr"/>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
-      <c r="L56" t="n">
-        <v>1</v>
-      </c>
-      <c r="M56" t="inlineStr"/>
+      <c r="K56" t="n">
+        <v>1</v>
+      </c>
+      <c r="L56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2263,18 +2093,15 @@
         <v>8850</v>
       </c>
       <c r="G57" t="n">
-        <v>-60378.16926654999</v>
-      </c>
-      <c r="H57" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H57" t="inlineStr"/>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
-      <c r="L57" t="n">
-        <v>1</v>
-      </c>
-      <c r="M57" t="inlineStr"/>
+      <c r="K57" t="n">
+        <v>1</v>
+      </c>
+      <c r="L57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2296,18 +2123,15 @@
         <v>123.64</v>
       </c>
       <c r="G58" t="n">
-        <v>-60378.16926654999</v>
-      </c>
-      <c r="H58" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H58" t="inlineStr"/>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
-      <c r="L58" t="n">
-        <v>1</v>
-      </c>
-      <c r="M58" t="inlineStr"/>
+      <c r="K58" t="n">
+        <v>1</v>
+      </c>
+      <c r="L58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2329,18 +2153,15 @@
         <v>564.998</v>
       </c>
       <c r="G59" t="n">
-        <v>-60378.16926654999</v>
-      </c>
-      <c r="H59" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H59" t="inlineStr"/>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
-      <c r="L59" t="n">
-        <v>1</v>
-      </c>
-      <c r="M59" t="inlineStr"/>
+      <c r="K59" t="n">
+        <v>1</v>
+      </c>
+      <c r="L59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2362,18 +2183,15 @@
         <v>156.9621</v>
       </c>
       <c r="G60" t="n">
-        <v>-60221.20716654999</v>
-      </c>
-      <c r="H60" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H60" t="inlineStr"/>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
-      <c r="L60" t="n">
-        <v>1</v>
-      </c>
-      <c r="M60" t="inlineStr"/>
+      <c r="K60" t="n">
+        <v>1</v>
+      </c>
+      <c r="L60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2395,18 +2213,15 @@
         <v>589.343</v>
       </c>
       <c r="G61" t="n">
-        <v>-59631.86416654999</v>
-      </c>
-      <c r="H61" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H61" t="inlineStr"/>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
-      <c r="L61" t="n">
-        <v>1</v>
-      </c>
-      <c r="M61" t="inlineStr"/>
+      <c r="K61" t="n">
+        <v>1</v>
+      </c>
+      <c r="L61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2428,18 +2243,15 @@
         <v>13.8979</v>
       </c>
       <c r="G62" t="n">
-        <v>-59617.96626654999</v>
-      </c>
-      <c r="H62" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H62" t="inlineStr"/>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
-      <c r="L62" t="n">
-        <v>1</v>
-      </c>
-      <c r="M62" t="inlineStr"/>
+      <c r="K62" t="n">
+        <v>1</v>
+      </c>
+      <c r="L62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2461,18 +2273,15 @@
         <v>714.1848</v>
       </c>
       <c r="G63" t="n">
-        <v>-60332.15106654999</v>
-      </c>
-      <c r="H63" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H63" t="inlineStr"/>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
-      <c r="L63" t="n">
-        <v>1</v>
-      </c>
-      <c r="M63" t="inlineStr"/>
+      <c r="K63" t="n">
+        <v>1</v>
+      </c>
+      <c r="L63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2494,18 +2303,15 @@
         <v>125</v>
       </c>
       <c r="G64" t="n">
-        <v>-60207.15106654999</v>
-      </c>
-      <c r="H64" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H64" t="inlineStr"/>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
-      <c r="L64" t="n">
-        <v>1</v>
-      </c>
-      <c r="M64" t="inlineStr"/>
+      <c r="K64" t="n">
+        <v>1</v>
+      </c>
+      <c r="L64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2527,18 +2333,15 @@
         <v>154.8711</v>
       </c>
       <c r="G65" t="n">
-        <v>-60052.27996654999</v>
-      </c>
-      <c r="H65" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H65" t="inlineStr"/>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
-      <c r="L65" t="n">
-        <v>1</v>
-      </c>
-      <c r="M65" t="inlineStr"/>
+      <c r="K65" t="n">
+        <v>1</v>
+      </c>
+      <c r="L65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2560,18 +2363,15 @@
         <v>3540</v>
       </c>
       <c r="G66" t="n">
-        <v>-56512.27996654999</v>
-      </c>
-      <c r="H66" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H66" t="inlineStr"/>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
-      <c r="L66" t="n">
-        <v>1</v>
-      </c>
-      <c r="M66" t="inlineStr"/>
+      <c r="K66" t="n">
+        <v>1</v>
+      </c>
+      <c r="L66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2593,18 +2393,15 @@
         <v>11011.203</v>
       </c>
       <c r="G67" t="n">
-        <v>-56512.27996654999</v>
-      </c>
-      <c r="H67" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H67" t="inlineStr"/>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
-      <c r="L67" t="n">
-        <v>1</v>
-      </c>
-      <c r="M67" t="inlineStr"/>
+      <c r="K67" t="n">
+        <v>1</v>
+      </c>
+      <c r="L67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2626,18 +2423,15 @@
         <v>364</v>
       </c>
       <c r="G68" t="n">
-        <v>-56876.27996654999</v>
-      </c>
-      <c r="H68" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H68" t="inlineStr"/>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
-      <c r="L68" t="n">
-        <v>1</v>
-      </c>
-      <c r="M68" t="inlineStr"/>
+      <c r="K68" t="n">
+        <v>1</v>
+      </c>
+      <c r="L68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2659,18 +2453,15 @@
         <v>9889.360000000001</v>
       </c>
       <c r="G69" t="n">
-        <v>-66765.63996654999</v>
-      </c>
-      <c r="H69" t="n">
         <v>2</v>
       </c>
+      <c r="H69" t="inlineStr"/>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
-      <c r="L69" t="n">
-        <v>1</v>
-      </c>
-      <c r="M69" t="inlineStr"/>
+      <c r="K69" t="n">
+        <v>1</v>
+      </c>
+      <c r="L69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2692,18 +2483,15 @@
         <v>2742.427</v>
       </c>
       <c r="G70" t="n">
-        <v>-64023.21296654999</v>
-      </c>
-      <c r="H70" t="n">
         <v>2</v>
       </c>
+      <c r="H70" t="inlineStr"/>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
-      <c r="L70" t="n">
-        <v>1</v>
-      </c>
-      <c r="M70" t="inlineStr"/>
+      <c r="K70" t="n">
+        <v>1</v>
+      </c>
+      <c r="L70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2725,18 +2513,15 @@
         <v>17045.9414</v>
       </c>
       <c r="G71" t="n">
-        <v>-81069.15436654999</v>
-      </c>
-      <c r="H71" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H71" t="inlineStr"/>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
-      <c r="L71" t="n">
-        <v>1</v>
-      </c>
-      <c r="M71" t="inlineStr"/>
+      <c r="K71" t="n">
+        <v>1</v>
+      </c>
+      <c r="L71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -2758,18 +2543,15 @@
         <v>6156</v>
       </c>
       <c r="G72" t="n">
-        <v>-87225.15436654999</v>
-      </c>
-      <c r="H72" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H72" t="inlineStr"/>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
-      <c r="L72" t="n">
-        <v>1</v>
-      </c>
-      <c r="M72" t="inlineStr"/>
+      <c r="K72" t="n">
+        <v>1</v>
+      </c>
+      <c r="L72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -2791,18 +2573,15 @@
         <v>45</v>
       </c>
       <c r="G73" t="n">
-        <v>-87180.15436654999</v>
-      </c>
-      <c r="H73" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H73" t="inlineStr"/>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
-      <c r="L73" t="n">
-        <v>1</v>
-      </c>
-      <c r="M73" t="inlineStr"/>
+      <c r="K73" t="n">
+        <v>1</v>
+      </c>
+      <c r="L73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -2824,18 +2603,15 @@
         <v>541</v>
       </c>
       <c r="G74" t="n">
-        <v>-87180.15436654999</v>
-      </c>
-      <c r="H74" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H74" t="inlineStr"/>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
-      <c r="L74" t="n">
-        <v>1</v>
-      </c>
-      <c r="M74" t="inlineStr"/>
+      <c r="K74" t="n">
+        <v>1</v>
+      </c>
+      <c r="L74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -2857,18 +2633,15 @@
         <v>1010.4349</v>
       </c>
       <c r="G75" t="n">
-        <v>-87180.15436654999</v>
-      </c>
-      <c r="H75" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H75" t="inlineStr"/>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
-      <c r="L75" t="n">
-        <v>1</v>
-      </c>
-      <c r="M75" t="inlineStr"/>
+      <c r="K75" t="n">
+        <v>1</v>
+      </c>
+      <c r="L75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -2890,18 +2663,15 @@
         <v>471.849</v>
       </c>
       <c r="G76" t="n">
-        <v>-87180.15436654999</v>
-      </c>
-      <c r="H76" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H76" t="inlineStr"/>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
-      <c r="L76" t="n">
-        <v>1</v>
-      </c>
-      <c r="M76" t="inlineStr"/>
+      <c r="K76" t="n">
+        <v>1</v>
+      </c>
+      <c r="L76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -2923,18 +2693,15 @@
         <v>267</v>
       </c>
       <c r="G77" t="n">
-        <v>-86913.15436654999</v>
-      </c>
-      <c r="H77" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H77" t="inlineStr"/>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
-      <c r="L77" t="n">
-        <v>1</v>
-      </c>
-      <c r="M77" t="inlineStr"/>
+      <c r="K77" t="n">
+        <v>1</v>
+      </c>
+      <c r="L77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -2956,18 +2723,15 @@
         <v>1545.8041</v>
       </c>
       <c r="G78" t="n">
-        <v>-88458.95846654999</v>
-      </c>
-      <c r="H78" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H78" t="inlineStr"/>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
-      <c r="L78" t="n">
-        <v>1</v>
-      </c>
-      <c r="M78" t="inlineStr"/>
+      <c r="K78" t="n">
+        <v>1</v>
+      </c>
+      <c r="L78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -2989,18 +2753,15 @@
         <v>4260</v>
       </c>
       <c r="G79" t="n">
-        <v>-92718.95846654999</v>
-      </c>
-      <c r="H79" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H79" t="inlineStr"/>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
-      <c r="L79" t="n">
-        <v>1</v>
-      </c>
-      <c r="M79" t="inlineStr"/>
+      <c r="K79" t="n">
+        <v>1</v>
+      </c>
+      <c r="L79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3022,18 +2783,15 @@
         <v>3400.6357</v>
       </c>
       <c r="G80" t="n">
-        <v>-89318.32276654999</v>
-      </c>
-      <c r="H80" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H80" t="inlineStr"/>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
-      <c r="L80" t="n">
-        <v>1</v>
-      </c>
-      <c r="M80" t="inlineStr"/>
+      <c r="K80" t="n">
+        <v>1</v>
+      </c>
+      <c r="L80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3055,18 +2813,15 @@
         <v>1916.7573</v>
       </c>
       <c r="G81" t="n">
-        <v>-89318.32276654999</v>
-      </c>
-      <c r="H81" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H81" t="inlineStr"/>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
-      <c r="L81" t="n">
-        <v>1</v>
-      </c>
-      <c r="M81" t="inlineStr"/>
+      <c r="K81" t="n">
+        <v>1</v>
+      </c>
+      <c r="L81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3088,18 +2843,15 @@
         <v>7000</v>
       </c>
       <c r="G82" t="n">
-        <v>-96318.32276654999</v>
-      </c>
-      <c r="H82" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H82" t="inlineStr"/>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
-      <c r="L82" t="n">
-        <v>1</v>
-      </c>
-      <c r="M82" t="inlineStr"/>
+      <c r="K82" t="n">
+        <v>1</v>
+      </c>
+      <c r="L82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3121,18 +2873,15 @@
         <v>7809.396</v>
       </c>
       <c r="G83" t="n">
-        <v>-96318.32276654999</v>
-      </c>
-      <c r="H83" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H83" t="inlineStr"/>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
-      <c r="L83" t="n">
-        <v>1</v>
-      </c>
-      <c r="M83" t="inlineStr"/>
+      <c r="K83" t="n">
+        <v>1</v>
+      </c>
+      <c r="L83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3154,18 +2903,15 @@
         <v>6724.1806</v>
       </c>
       <c r="G84" t="n">
-        <v>-103042.50336655</v>
-      </c>
-      <c r="H84" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H84" t="inlineStr"/>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
-      <c r="L84" t="n">
-        <v>1</v>
-      </c>
-      <c r="M84" t="inlineStr"/>
+      <c r="K84" t="n">
+        <v>1</v>
+      </c>
+      <c r="L84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3187,18 +2933,15 @@
         <v>23417.353</v>
       </c>
       <c r="G85" t="n">
-        <v>-103042.50336655</v>
-      </c>
-      <c r="H85" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H85" t="inlineStr"/>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
-      <c r="L85" t="n">
-        <v>1</v>
-      </c>
-      <c r="M85" t="inlineStr"/>
+      <c r="K85" t="n">
+        <v>1</v>
+      </c>
+      <c r="L85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3220,18 +2963,15 @@
         <v>1868.8707</v>
       </c>
       <c r="G86" t="n">
-        <v>-104911.37406655</v>
-      </c>
-      <c r="H86" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H86" t="inlineStr"/>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
-      <c r="L86" t="n">
-        <v>1</v>
-      </c>
-      <c r="M86" t="inlineStr"/>
+      <c r="K86" t="n">
+        <v>1</v>
+      </c>
+      <c r="L86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3253,18 +2993,15 @@
         <v>7502.1906</v>
       </c>
       <c r="G87" t="n">
-        <v>-112413.56466655</v>
-      </c>
-      <c r="H87" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H87" t="inlineStr"/>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
-      <c r="L87" t="n">
-        <v>1</v>
-      </c>
-      <c r="M87" t="inlineStr"/>
+      <c r="K87" t="n">
+        <v>1</v>
+      </c>
+      <c r="L87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3286,18 +3023,15 @@
         <v>391.2127</v>
       </c>
       <c r="G88" t="n">
-        <v>-112804.77736655</v>
-      </c>
-      <c r="H88" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H88" t="inlineStr"/>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
-      <c r="L88" t="n">
-        <v>1</v>
-      </c>
-      <c r="M88" t="inlineStr"/>
+      <c r="K88" t="n">
+        <v>1</v>
+      </c>
+      <c r="L88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3319,18 +3053,15 @@
         <v>7152.0619</v>
       </c>
       <c r="G89" t="n">
-        <v>-119956.83926655</v>
-      </c>
-      <c r="H89" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H89" t="inlineStr"/>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
-      <c r="L89" t="n">
-        <v>1</v>
-      </c>
-      <c r="M89" t="inlineStr"/>
+      <c r="K89" t="n">
+        <v>1</v>
+      </c>
+      <c r="L89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3352,18 +3083,15 @@
         <v>8003.4763</v>
       </c>
       <c r="G90" t="n">
-        <v>-127960.31556655</v>
-      </c>
-      <c r="H90" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H90" t="inlineStr"/>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
-      <c r="L90" t="n">
-        <v>1</v>
-      </c>
-      <c r="M90" t="inlineStr"/>
+      <c r="K90" t="n">
+        <v>1</v>
+      </c>
+      <c r="L90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -3385,18 +3113,15 @@
         <v>2293.2974</v>
       </c>
       <c r="G91" t="n">
-        <v>-127960.31556655</v>
-      </c>
-      <c r="H91" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H91" t="inlineStr"/>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
-      <c r="L91" t="n">
-        <v>1</v>
-      </c>
-      <c r="M91" t="inlineStr"/>
+      <c r="K91" t="n">
+        <v>1</v>
+      </c>
+      <c r="L91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3418,18 +3143,15 @@
         <v>1000</v>
       </c>
       <c r="G92" t="n">
-        <v>-127960.31556655</v>
-      </c>
-      <c r="H92" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H92" t="inlineStr"/>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
-      <c r="L92" t="n">
-        <v>1</v>
-      </c>
-      <c r="M92" t="inlineStr"/>
+      <c r="K92" t="n">
+        <v>1</v>
+      </c>
+      <c r="L92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3451,18 +3173,15 @@
         <v>71</v>
       </c>
       <c r="G93" t="n">
-        <v>-127960.31556655</v>
-      </c>
-      <c r="H93" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H93" t="inlineStr"/>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
-      <c r="L93" t="n">
-        <v>1</v>
-      </c>
-      <c r="M93" t="inlineStr"/>
+      <c r="K93" t="n">
+        <v>1</v>
+      </c>
+      <c r="L93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3484,18 +3203,15 @@
         <v>161.545</v>
       </c>
       <c r="G94" t="n">
-        <v>-127798.77056655</v>
-      </c>
-      <c r="H94" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H94" t="inlineStr"/>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
-      <c r="L94" t="n">
-        <v>1</v>
-      </c>
-      <c r="M94" t="inlineStr"/>
+      <c r="K94" t="n">
+        <v>1</v>
+      </c>
+      <c r="L94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3517,18 +3233,15 @@
         <v>377.1786</v>
       </c>
       <c r="G95" t="n">
-        <v>-127421.59196655</v>
-      </c>
-      <c r="H95" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H95" t="inlineStr"/>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
-      <c r="L95" t="n">
-        <v>1</v>
-      </c>
-      <c r="M95" t="inlineStr"/>
+      <c r="K95" t="n">
+        <v>1</v>
+      </c>
+      <c r="L95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3550,18 +3263,15 @@
         <v>1500</v>
       </c>
       <c r="G96" t="n">
-        <v>-128921.59196655</v>
-      </c>
-      <c r="H96" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H96" t="inlineStr"/>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
-      <c r="L96" t="n">
-        <v>1</v>
-      </c>
-      <c r="M96" t="inlineStr"/>
+      <c r="K96" t="n">
+        <v>1</v>
+      </c>
+      <c r="L96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3583,18 +3293,15 @@
         <v>192.7404</v>
       </c>
       <c r="G97" t="n">
-        <v>-128728.85156655</v>
-      </c>
-      <c r="H97" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H97" t="inlineStr"/>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
-      <c r="L97" t="n">
-        <v>1</v>
-      </c>
-      <c r="M97" t="inlineStr"/>
+      <c r="K97" t="n">
+        <v>1</v>
+      </c>
+      <c r="L97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -3616,18 +3323,15 @@
         <v>8569.6072</v>
       </c>
       <c r="G98" t="n">
-        <v>-137298.45876655</v>
-      </c>
-      <c r="H98" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H98" t="inlineStr"/>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
-      <c r="L98" t="n">
-        <v>1</v>
-      </c>
-      <c r="M98" t="inlineStr"/>
+      <c r="K98" t="n">
+        <v>1</v>
+      </c>
+      <c r="L98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -3649,18 +3353,15 @@
         <v>187</v>
       </c>
       <c r="G99" t="n">
-        <v>-137111.45876655</v>
-      </c>
-      <c r="H99" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H99" t="inlineStr"/>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
-      <c r="L99" t="n">
-        <v>1</v>
-      </c>
-      <c r="M99" t="inlineStr"/>
+      <c r="K99" t="n">
+        <v>1</v>
+      </c>
+      <c r="L99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3682,18 +3383,15 @@
         <v>6297.685</v>
       </c>
       <c r="G100" t="n">
-        <v>-130813.77376655</v>
-      </c>
-      <c r="H100" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H100" t="inlineStr"/>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
-      <c r="L100" t="n">
-        <v>1</v>
-      </c>
-      <c r="M100" t="inlineStr"/>
+      <c r="K100" t="n">
+        <v>1</v>
+      </c>
+      <c r="L100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -3715,18 +3413,15 @@
         <v>195.57</v>
       </c>
       <c r="G101" t="n">
-        <v>-131009.34376655</v>
-      </c>
-      <c r="H101" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H101" t="inlineStr"/>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
-      <c r="L101" t="n">
-        <v>1</v>
-      </c>
-      <c r="M101" t="inlineStr"/>
+      <c r="K101" t="n">
+        <v>1</v>
+      </c>
+      <c r="L101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -3748,18 +3443,15 @@
         <v>125</v>
       </c>
       <c r="G102" t="n">
-        <v>-131009.34376655</v>
-      </c>
-      <c r="H102" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H102" t="inlineStr"/>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
-      <c r="L102" t="n">
-        <v>1</v>
-      </c>
-      <c r="M102" t="inlineStr"/>
+      <c r="K102" t="n">
+        <v>1</v>
+      </c>
+      <c r="L102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -3781,18 +3473,15 @@
         <v>7000</v>
       </c>
       <c r="G103" t="n">
-        <v>-124009.34376655</v>
-      </c>
-      <c r="H103" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H103" t="inlineStr"/>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
-      <c r="L103" t="n">
-        <v>1</v>
-      </c>
-      <c r="M103" t="inlineStr"/>
+      <c r="K103" t="n">
+        <v>1</v>
+      </c>
+      <c r="L103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -3814,18 +3503,15 @@
         <v>5540.1138</v>
       </c>
       <c r="G104" t="n">
-        <v>-129549.45756655</v>
-      </c>
-      <c r="H104" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H104" t="inlineStr"/>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
-      <c r="L104" t="n">
-        <v>1</v>
-      </c>
-      <c r="M104" t="inlineStr"/>
+      <c r="K104" t="n">
+        <v>1</v>
+      </c>
+      <c r="L104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -3847,18 +3533,15 @@
         <v>13846.5879</v>
       </c>
       <c r="G105" t="n">
-        <v>-115702.86966655</v>
-      </c>
-      <c r="H105" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H105" t="inlineStr"/>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
-      <c r="L105" t="n">
-        <v>1</v>
-      </c>
-      <c r="M105" t="inlineStr"/>
+      <c r="K105" t="n">
+        <v>1</v>
+      </c>
+      <c r="L105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -3880,18 +3563,15 @@
         <v>2755.1094</v>
       </c>
       <c r="G106" t="n">
-        <v>-115702.86966655</v>
-      </c>
-      <c r="H106" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H106" t="inlineStr"/>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
-      <c r="L106" t="n">
-        <v>1</v>
-      </c>
-      <c r="M106" t="inlineStr"/>
+      <c r="K106" t="n">
+        <v>1</v>
+      </c>
+      <c r="L106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -3913,18 +3593,15 @@
         <v>368.7145</v>
       </c>
       <c r="G107" t="n">
-        <v>-115334.15516655</v>
-      </c>
-      <c r="H107" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H107" t="inlineStr"/>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
-      <c r="L107" t="n">
-        <v>1</v>
-      </c>
-      <c r="M107" t="inlineStr"/>
+      <c r="K107" t="n">
+        <v>1</v>
+      </c>
+      <c r="L107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -3946,18 +3623,15 @@
         <v>7544.4752</v>
       </c>
       <c r="G108" t="n">
-        <v>-122878.63036655</v>
-      </c>
-      <c r="H108" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H108" t="inlineStr"/>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
-      <c r="L108" t="n">
-        <v>1</v>
-      </c>
-      <c r="M108" t="inlineStr"/>
+      <c r="K108" t="n">
+        <v>1</v>
+      </c>
+      <c r="L108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -3979,18 +3653,15 @@
         <v>3</v>
       </c>
       <c r="G109" t="n">
-        <v>-122875.63036655</v>
-      </c>
-      <c r="H109" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H109" t="inlineStr"/>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
-      <c r="L109" t="n">
-        <v>1</v>
-      </c>
-      <c r="M109" t="inlineStr"/>
+      <c r="K109" t="n">
+        <v>1</v>
+      </c>
+      <c r="L109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4012,18 +3683,15 @@
         <v>5966.6318</v>
       </c>
       <c r="G110" t="n">
-        <v>-128842.26216655</v>
-      </c>
-      <c r="H110" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H110" t="inlineStr"/>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
-      <c r="L110" t="n">
-        <v>1</v>
-      </c>
-      <c r="M110" t="inlineStr"/>
+      <c r="K110" t="n">
+        <v>1</v>
+      </c>
+      <c r="L110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4045,18 +3713,15 @@
         <v>443.7528</v>
       </c>
       <c r="G111" t="n">
-        <v>-128842.26216655</v>
-      </c>
-      <c r="H111" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H111" t="inlineStr"/>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
-      <c r="L111" t="n">
-        <v>1</v>
-      </c>
-      <c r="M111" t="inlineStr"/>
+      <c r="K111" t="n">
+        <v>1</v>
+      </c>
+      <c r="L111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -4078,18 +3743,15 @@
         <v>3</v>
       </c>
       <c r="G112" t="n">
-        <v>-128839.26216655</v>
-      </c>
-      <c r="H112" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H112" t="inlineStr"/>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
-      <c r="L112" t="n">
-        <v>1</v>
-      </c>
-      <c r="M112" t="inlineStr"/>
+      <c r="K112" t="n">
+        <v>1</v>
+      </c>
+      <c r="L112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -4111,18 +3773,15 @@
         <v>169</v>
       </c>
       <c r="G113" t="n">
-        <v>-129008.26216655</v>
-      </c>
-      <c r="H113" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H113" t="inlineStr"/>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
-      <c r="L113" t="n">
-        <v>1</v>
-      </c>
-      <c r="M113" t="inlineStr"/>
+      <c r="K113" t="n">
+        <v>1</v>
+      </c>
+      <c r="L113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -4144,18 +3803,15 @@
         <v>603.3353</v>
       </c>
       <c r="G114" t="n">
-        <v>-128404.92686655</v>
-      </c>
-      <c r="H114" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H114" t="inlineStr"/>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr"/>
-      <c r="L114" t="n">
-        <v>1</v>
-      </c>
-      <c r="M114" t="inlineStr"/>
+      <c r="K114" t="n">
+        <v>1</v>
+      </c>
+      <c r="L114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -4177,18 +3833,15 @@
         <v>9980.3194</v>
       </c>
       <c r="G115" t="n">
-        <v>-138385.24626655</v>
-      </c>
-      <c r="H115" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H115" t="inlineStr"/>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
-      <c r="L115" t="n">
-        <v>1</v>
-      </c>
-      <c r="M115" t="inlineStr"/>
+      <c r="K115" t="n">
+        <v>1</v>
+      </c>
+      <c r="L115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -4210,18 +3863,15 @@
         <v>3</v>
       </c>
       <c r="G116" t="n">
-        <v>-138382.24626655</v>
-      </c>
-      <c r="H116" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H116" t="inlineStr"/>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
-      <c r="L116" t="n">
-        <v>1</v>
-      </c>
-      <c r="M116" t="inlineStr"/>
+      <c r="K116" t="n">
+        <v>1</v>
+      </c>
+      <c r="L116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -4243,18 +3893,15 @@
         <v>3</v>
       </c>
       <c r="G117" t="n">
-        <v>-138379.24626655</v>
-      </c>
-      <c r="H117" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H117" t="inlineStr"/>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
-      <c r="L117" t="n">
-        <v>1</v>
-      </c>
-      <c r="M117" t="inlineStr"/>
+      <c r="K117" t="n">
+        <v>1</v>
+      </c>
+      <c r="L117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -4276,18 +3923,15 @@
         <v>700.99</v>
       </c>
       <c r="G118" t="n">
-        <v>-139080.23626655</v>
-      </c>
-      <c r="H118" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H118" t="inlineStr"/>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr"/>
-      <c r="L118" t="n">
-        <v>1</v>
-      </c>
-      <c r="M118" t="inlineStr"/>
+      <c r="K118" t="n">
+        <v>1</v>
+      </c>
+      <c r="L118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -4309,18 +3953,15 @@
         <v>3</v>
       </c>
       <c r="G119" t="n">
-        <v>-139077.23626655</v>
-      </c>
-      <c r="H119" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H119" t="inlineStr"/>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr"/>
-      <c r="L119" t="n">
-        <v>1</v>
-      </c>
-      <c r="M119" t="inlineStr"/>
+      <c r="K119" t="n">
+        <v>1</v>
+      </c>
+      <c r="L119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -4342,18 +3983,15 @@
         <v>3</v>
       </c>
       <c r="G120" t="n">
-        <v>-139074.23626655</v>
-      </c>
-      <c r="H120" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H120" t="inlineStr"/>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr"/>
-      <c r="L120" t="n">
-        <v>1</v>
-      </c>
-      <c r="M120" t="inlineStr"/>
+      <c r="K120" t="n">
+        <v>1</v>
+      </c>
+      <c r="L120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -4375,18 +4013,15 @@
         <v>5700</v>
       </c>
       <c r="G121" t="n">
-        <v>-144774.23626655</v>
-      </c>
-      <c r="H121" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H121" t="inlineStr"/>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
-      <c r="L121" t="n">
-        <v>1</v>
-      </c>
-      <c r="M121" t="inlineStr"/>
+      <c r="K121" t="n">
+        <v>1</v>
+      </c>
+      <c r="L121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -4408,18 +4043,15 @@
         <v>7500</v>
       </c>
       <c r="G122" t="n">
-        <v>-144774.23626655</v>
-      </c>
-      <c r="H122" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H122" t="inlineStr"/>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
-      <c r="L122" t="n">
-        <v>1</v>
-      </c>
-      <c r="M122" t="inlineStr"/>
+      <c r="K122" t="n">
+        <v>1</v>
+      </c>
+      <c r="L122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -4441,18 +4073,15 @@
         <v>2196.1326</v>
       </c>
       <c r="G123" t="n">
-        <v>-144774.23626655</v>
-      </c>
-      <c r="H123" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H123" t="inlineStr"/>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr"/>
-      <c r="L123" t="n">
-        <v>1</v>
-      </c>
-      <c r="M123" t="inlineStr"/>
+      <c r="K123" t="n">
+        <v>1</v>
+      </c>
+      <c r="L123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -4474,18 +4103,15 @@
         <v>3092</v>
       </c>
       <c r="G124" t="n">
-        <v>-144774.23626655</v>
-      </c>
-      <c r="H124" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H124" t="inlineStr"/>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr"/>
-      <c r="L124" t="n">
-        <v>1</v>
-      </c>
-      <c r="M124" t="inlineStr"/>
+      <c r="K124" t="n">
+        <v>1</v>
+      </c>
+      <c r="L124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -4507,18 +4133,15 @@
         <v>7673.2026</v>
       </c>
       <c r="G125" t="n">
-        <v>-137101.03366655</v>
-      </c>
-      <c r="H125" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H125" t="inlineStr"/>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr"/>
-      <c r="L125" t="n">
-        <v>1</v>
-      </c>
-      <c r="M125" t="inlineStr"/>
+      <c r="K125" t="n">
+        <v>1</v>
+      </c>
+      <c r="L125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -4540,18 +4163,15 @@
         <v>3</v>
       </c>
       <c r="G126" t="n">
-        <v>-137098.03366655</v>
-      </c>
-      <c r="H126" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H126" t="inlineStr"/>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr"/>
-      <c r="L126" t="n">
-        <v>1</v>
-      </c>
-      <c r="M126" t="inlineStr"/>
+      <c r="K126" t="n">
+        <v>1</v>
+      </c>
+      <c r="L126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -4573,18 +4193,15 @@
         <v>65.90000000000001</v>
       </c>
       <c r="G127" t="n">
-        <v>-137163.93366655</v>
-      </c>
-      <c r="H127" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H127" t="inlineStr"/>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr"/>
-      <c r="L127" t="n">
-        <v>1</v>
-      </c>
-      <c r="M127" t="inlineStr"/>
+      <c r="K127" t="n">
+        <v>1</v>
+      </c>
+      <c r="L127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -4606,18 +4223,15 @@
         <v>8733.416499999999</v>
       </c>
       <c r="G128" t="n">
-        <v>-128430.51716655</v>
-      </c>
-      <c r="H128" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H128" t="inlineStr"/>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr"/>
-      <c r="L128" t="n">
-        <v>1</v>
-      </c>
-      <c r="M128" t="inlineStr"/>
+      <c r="K128" t="n">
+        <v>1</v>
+      </c>
+      <c r="L128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -4639,18 +4253,15 @@
         <v>543.328</v>
       </c>
       <c r="G129" t="n">
-        <v>-128430.51716655</v>
-      </c>
-      <c r="H129" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H129" t="inlineStr"/>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr"/>
-      <c r="L129" t="n">
-        <v>1</v>
-      </c>
-      <c r="M129" t="inlineStr"/>
+      <c r="K129" t="n">
+        <v>1</v>
+      </c>
+      <c r="L129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -4672,18 +4283,15 @@
         <v>1477.2524</v>
       </c>
       <c r="G130" t="n">
-        <v>-128430.51716655</v>
-      </c>
-      <c r="H130" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H130" t="inlineStr"/>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr"/>
-      <c r="L130" t="n">
-        <v>1</v>
-      </c>
-      <c r="M130" t="inlineStr"/>
+      <c r="K130" t="n">
+        <v>1</v>
+      </c>
+      <c r="L130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -4705,18 +4313,15 @@
         <v>946.7415999999999</v>
       </c>
       <c r="G131" t="n">
-        <v>-128430.51716655</v>
-      </c>
-      <c r="H131" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H131" t="inlineStr"/>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr"/>
-      <c r="L131" t="n">
-        <v>1</v>
-      </c>
-      <c r="M131" t="inlineStr"/>
+      <c r="K131" t="n">
+        <v>1</v>
+      </c>
+      <c r="L131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -4738,18 +4343,15 @@
         <v>752.5667</v>
       </c>
       <c r="G132" t="n">
-        <v>-128430.51716655</v>
-      </c>
-      <c r="H132" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H132" t="inlineStr"/>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr"/>
-      <c r="L132" t="n">
-        <v>1</v>
-      </c>
-      <c r="M132" t="inlineStr"/>
+      <c r="K132" t="n">
+        <v>1</v>
+      </c>
+      <c r="L132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -4771,18 +4373,15 @@
         <v>135.7691</v>
       </c>
       <c r="G133" t="n">
-        <v>-128566.28626655</v>
-      </c>
-      <c r="H133" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H133" t="inlineStr"/>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr"/>
-      <c r="L133" t="n">
-        <v>1</v>
-      </c>
-      <c r="M133" t="inlineStr"/>
+      <c r="K133" t="n">
+        <v>1</v>
+      </c>
+      <c r="L133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -4804,18 +4403,15 @@
         <v>7780.4136</v>
       </c>
       <c r="G134" t="n">
-        <v>-128566.28626655</v>
-      </c>
-      <c r="H134" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H134" t="inlineStr"/>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr"/>
-      <c r="L134" t="n">
-        <v>1</v>
-      </c>
-      <c r="M134" t="inlineStr"/>
+      <c r="K134" t="n">
+        <v>1</v>
+      </c>
+      <c r="L134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -4837,18 +4433,15 @@
         <v>199.7371</v>
       </c>
       <c r="G135" t="n">
-        <v>-128566.28626655</v>
-      </c>
-      <c r="H135" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H135" t="inlineStr"/>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr"/>
-      <c r="L135" t="n">
-        <v>1</v>
-      </c>
-      <c r="M135" t="inlineStr"/>
+      <c r="K135" t="n">
+        <v>1</v>
+      </c>
+      <c r="L135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -4870,18 +4463,15 @@
         <v>69.5626</v>
       </c>
       <c r="G136" t="n">
-        <v>-128496.72366655</v>
-      </c>
-      <c r="H136" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H136" t="inlineStr"/>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr"/>
-      <c r="L136" t="n">
-        <v>1</v>
-      </c>
-      <c r="M136" t="inlineStr"/>
+      <c r="K136" t="n">
+        <v>1</v>
+      </c>
+      <c r="L136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
@@ -4903,18 +4493,15 @@
         <v>119.7373</v>
       </c>
       <c r="G137" t="n">
-        <v>-128616.46096655</v>
-      </c>
-      <c r="H137" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H137" t="inlineStr"/>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr"/>
-      <c r="L137" t="n">
-        <v>1</v>
-      </c>
-      <c r="M137" t="inlineStr"/>
+      <c r="K137" t="n">
+        <v>1</v>
+      </c>
+      <c r="L137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
@@ -4936,18 +4523,15 @@
         <v>38.9223</v>
       </c>
       <c r="G138" t="n">
-        <v>-128577.53866655</v>
-      </c>
-      <c r="H138" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H138" t="inlineStr"/>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr"/>
-      <c r="L138" t="n">
-        <v>1</v>
-      </c>
-      <c r="M138" t="inlineStr"/>
+      <c r="K138" t="n">
+        <v>1</v>
+      </c>
+      <c r="L138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
@@ -4969,18 +4553,15 @@
         <v>968.2148</v>
       </c>
       <c r="G139" t="n">
-        <v>-128577.53866655</v>
-      </c>
-      <c r="H139" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H139" t="inlineStr"/>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr"/>
-      <c r="L139" t="n">
-        <v>1</v>
-      </c>
-      <c r="M139" t="inlineStr"/>
+      <c r="K139" t="n">
+        <v>1</v>
+      </c>
+      <c r="L139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
@@ -5002,18 +4583,15 @@
         <v>2639.8618</v>
       </c>
       <c r="G140" t="n">
-        <v>-128577.53866655</v>
-      </c>
-      <c r="H140" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H140" t="inlineStr"/>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr"/>
-      <c r="L140" t="n">
-        <v>1</v>
-      </c>
-      <c r="M140" t="inlineStr"/>
+      <c r="K140" t="n">
+        <v>1</v>
+      </c>
+      <c r="L140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
@@ -5035,18 +4613,15 @@
         <v>2627.2137</v>
       </c>
       <c r="G141" t="n">
-        <v>-128577.53866655</v>
-      </c>
-      <c r="H141" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H141" t="inlineStr"/>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr"/>
-      <c r="L141" t="n">
-        <v>1</v>
-      </c>
-      <c r="M141" t="inlineStr"/>
+      <c r="K141" t="n">
+        <v>1</v>
+      </c>
+      <c r="L141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
@@ -5068,18 +4643,15 @@
         <v>400</v>
       </c>
       <c r="G142" t="n">
-        <v>-128577.53866655</v>
-      </c>
-      <c r="H142" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H142" t="inlineStr"/>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr"/>
-      <c r="L142" t="n">
-        <v>1</v>
-      </c>
-      <c r="M142" t="inlineStr"/>
+      <c r="K142" t="n">
+        <v>1</v>
+      </c>
+      <c r="L142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
@@ -5101,18 +4673,15 @@
         <v>8060</v>
       </c>
       <c r="G143" t="n">
-        <v>-128577.53866655</v>
-      </c>
-      <c r="H143" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H143" t="inlineStr"/>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr"/>
-      <c r="L143" t="n">
-        <v>1</v>
-      </c>
-      <c r="M143" t="inlineStr"/>
+      <c r="K143" t="n">
+        <v>1</v>
+      </c>
+      <c r="L143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
@@ -5134,18 +4703,15 @@
         <v>7000</v>
       </c>
       <c r="G144" t="n">
-        <v>-128577.53866655</v>
-      </c>
-      <c r="H144" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H144" t="inlineStr"/>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr"/>
-      <c r="L144" t="n">
-        <v>1</v>
-      </c>
-      <c r="M144" t="inlineStr"/>
+      <c r="K144" t="n">
+        <v>1</v>
+      </c>
+      <c r="L144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
@@ -5167,18 +4733,15 @@
         <v>3177.6846</v>
       </c>
       <c r="G145" t="n">
-        <v>-128577.53866655</v>
-      </c>
-      <c r="H145" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H145" t="inlineStr"/>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr"/>
-      <c r="L145" t="n">
-        <v>1</v>
-      </c>
-      <c r="M145" t="inlineStr"/>
+      <c r="K145" t="n">
+        <v>1</v>
+      </c>
+      <c r="L145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
@@ -5200,18 +4763,15 @@
         <v>139.2999</v>
       </c>
       <c r="G146" t="n">
-        <v>-128716.83856655</v>
-      </c>
-      <c r="H146" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H146" t="inlineStr"/>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr"/>
-      <c r="L146" t="n">
-        <v>1</v>
-      </c>
-      <c r="M146" t="inlineStr"/>
+      <c r="K146" t="n">
+        <v>1</v>
+      </c>
+      <c r="L146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
@@ -5233,18 +4793,15 @@
         <v>156.2327</v>
       </c>
       <c r="G147" t="n">
-        <v>-128716.83856655</v>
-      </c>
-      <c r="H147" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H147" t="inlineStr"/>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr"/>
-      <c r="L147" t="n">
-        <v>1</v>
-      </c>
-      <c r="M147" t="inlineStr"/>
+      <c r="K147" t="n">
+        <v>1</v>
+      </c>
+      <c r="L147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
@@ -5266,18 +4823,15 @@
         <v>192.9</v>
       </c>
       <c r="G148" t="n">
-        <v>-128523.93856655</v>
-      </c>
-      <c r="H148" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H148" t="inlineStr"/>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr"/>
-      <c r="L148" t="n">
-        <v>1</v>
-      </c>
-      <c r="M148" t="inlineStr"/>
+      <c r="K148" t="n">
+        <v>1</v>
+      </c>
+      <c r="L148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
@@ -5299,18 +4853,15 @@
         <v>7371.0133</v>
       </c>
       <c r="G149" t="n">
-        <v>-135894.95186655</v>
-      </c>
-      <c r="H149" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H149" t="inlineStr"/>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr"/>
-      <c r="L149" t="n">
-        <v>1</v>
-      </c>
-      <c r="M149" t="inlineStr"/>
+      <c r="K149" t="n">
+        <v>1</v>
+      </c>
+      <c r="L149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
@@ -5332,18 +4883,15 @@
         <v>170.5227</v>
       </c>
       <c r="G150" t="n">
-        <v>-135894.95186655</v>
-      </c>
-      <c r="H150" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H150" t="inlineStr"/>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr"/>
-      <c r="L150" t="n">
-        <v>1</v>
-      </c>
-      <c r="M150" t="inlineStr"/>
+      <c r="K150" t="n">
+        <v>1</v>
+      </c>
+      <c r="L150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
@@ -5365,18 +4913,15 @@
         <v>3</v>
       </c>
       <c r="G151" t="n">
-        <v>-135891.95186655</v>
-      </c>
-      <c r="H151" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H151" t="inlineStr"/>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr"/>
-      <c r="L151" t="n">
-        <v>1</v>
-      </c>
-      <c r="M151" t="inlineStr"/>
+      <c r="K151" t="n">
+        <v>1</v>
+      </c>
+      <c r="L151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
@@ -5398,18 +4943,15 @@
         <v>68.15170000000001</v>
       </c>
       <c r="G152" t="n">
-        <v>-135960.10356655</v>
-      </c>
-      <c r="H152" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H152" t="inlineStr"/>
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr"/>
-      <c r="L152" t="n">
-        <v>1</v>
-      </c>
-      <c r="M152" t="inlineStr"/>
+      <c r="K152" t="n">
+        <v>1</v>
+      </c>
+      <c r="L152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
@@ -5431,18 +4973,15 @@
         <v>65.15170000000001</v>
       </c>
       <c r="G153" t="n">
-        <v>-135960.10356655</v>
-      </c>
-      <c r="H153" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H153" t="inlineStr"/>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr"/>
-      <c r="L153" t="n">
-        <v>1</v>
-      </c>
-      <c r="M153" t="inlineStr"/>
+      <c r="K153" t="n">
+        <v>1</v>
+      </c>
+      <c r="L153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
@@ -5464,18 +5003,15 @@
         <v>546.7568</v>
       </c>
       <c r="G154" t="n">
-        <v>-136506.86036655</v>
-      </c>
-      <c r="H154" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H154" t="inlineStr"/>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr"/>
-      <c r="L154" t="n">
-        <v>1</v>
-      </c>
-      <c r="M154" t="inlineStr"/>
+      <c r="K154" t="n">
+        <v>1</v>
+      </c>
+      <c r="L154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
@@ -5497,18 +5033,15 @@
         <v>5855.6374</v>
       </c>
       <c r="G155" t="n">
-        <v>-142362.49776655</v>
-      </c>
-      <c r="H155" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H155" t="inlineStr"/>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr"/>
-      <c r="L155" t="n">
-        <v>1</v>
-      </c>
-      <c r="M155" t="inlineStr"/>
+      <c r="K155" t="n">
+        <v>1</v>
+      </c>
+      <c r="L155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
@@ -5530,18 +5063,15 @@
         <v>757.5542</v>
       </c>
       <c r="G156" t="n">
-        <v>-142362.49776655</v>
-      </c>
-      <c r="H156" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H156" t="inlineStr"/>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr"/>
-      <c r="L156" t="n">
-        <v>1</v>
-      </c>
-      <c r="M156" t="inlineStr"/>
+      <c r="K156" t="n">
+        <v>1</v>
+      </c>
+      <c r="L156" t="inlineStr"/>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
@@ -5563,18 +5093,15 @@
         <v>2528.96</v>
       </c>
       <c r="G157" t="n">
-        <v>-142362.49776655</v>
-      </c>
-      <c r="H157" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H157" t="inlineStr"/>
       <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr"/>
-      <c r="L157" t="n">
-        <v>1</v>
-      </c>
-      <c r="M157" t="inlineStr"/>
+      <c r="K157" t="n">
+        <v>1</v>
+      </c>
+      <c r="L157" t="inlineStr"/>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
@@ -5596,18 +5123,15 @@
         <v>2710.647</v>
       </c>
       <c r="G158" t="n">
-        <v>-142362.49776655</v>
-      </c>
-      <c r="H158" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H158" t="inlineStr"/>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr"/>
-      <c r="L158" t="n">
-        <v>1</v>
-      </c>
-      <c r="M158" t="inlineStr"/>
+      <c r="K158" t="n">
+        <v>1</v>
+      </c>
+      <c r="L158" t="inlineStr"/>
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
@@ -5629,18 +5153,15 @@
         <v>261.5219</v>
       </c>
       <c r="G159" t="n">
-        <v>-142362.49776655</v>
-      </c>
-      <c r="H159" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H159" t="inlineStr"/>
       <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
-      <c r="K159" t="inlineStr"/>
-      <c r="L159" t="n">
-        <v>1</v>
-      </c>
-      <c r="M159" t="inlineStr"/>
+      <c r="K159" t="n">
+        <v>1</v>
+      </c>
+      <c r="L159" t="inlineStr"/>
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
@@ -5662,18 +5183,15 @@
         <v>1095</v>
       </c>
       <c r="G160" t="n">
-        <v>-142362.49776655</v>
-      </c>
-      <c r="H160" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H160" t="inlineStr"/>
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
-      <c r="K160" t="inlineStr"/>
-      <c r="L160" t="n">
-        <v>1</v>
-      </c>
-      <c r="M160" t="inlineStr"/>
+      <c r="K160" t="n">
+        <v>1</v>
+      </c>
+      <c r="L160" t="inlineStr"/>
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
@@ -5695,18 +5213,15 @@
         <v>175</v>
       </c>
       <c r="G161" t="n">
-        <v>-142362.49776655</v>
-      </c>
-      <c r="H161" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H161" t="inlineStr"/>
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
-      <c r="K161" t="inlineStr"/>
-      <c r="L161" t="n">
-        <v>1</v>
-      </c>
-      <c r="M161" t="inlineStr"/>
+      <c r="K161" t="n">
+        <v>1</v>
+      </c>
+      <c r="L161" t="inlineStr"/>
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
@@ -5728,18 +5243,15 @@
         <v>1481</v>
       </c>
       <c r="G162" t="n">
-        <v>-142362.49776655</v>
-      </c>
-      <c r="H162" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H162" t="inlineStr"/>
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
-      <c r="K162" t="inlineStr"/>
-      <c r="L162" t="n">
-        <v>1</v>
-      </c>
-      <c r="M162" t="inlineStr"/>
+      <c r="K162" t="n">
+        <v>1</v>
+      </c>
+      <c r="L162" t="inlineStr"/>
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
@@ -5761,18 +5273,15 @@
         <v>1988.938</v>
       </c>
       <c r="G163" t="n">
-        <v>-142362.49776655</v>
-      </c>
-      <c r="H163" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H163" t="inlineStr"/>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
-      <c r="K163" t="inlineStr"/>
-      <c r="L163" t="n">
-        <v>1</v>
-      </c>
-      <c r="M163" t="inlineStr"/>
+      <c r="K163" t="n">
+        <v>1</v>
+      </c>
+      <c r="L163" t="inlineStr"/>
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
@@ -5794,18 +5303,15 @@
         <v>18973.337</v>
       </c>
       <c r="G164" t="n">
-        <v>-142362.49776655</v>
-      </c>
-      <c r="H164" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H164" t="inlineStr"/>
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
-      <c r="K164" t="inlineStr"/>
-      <c r="L164" t="n">
-        <v>1</v>
-      </c>
-      <c r="M164" t="inlineStr"/>
+      <c r="K164" t="n">
+        <v>1</v>
+      </c>
+      <c r="L164" t="inlineStr"/>
     </row>
     <row r="165">
       <c r="A165" s="1" t="n">
@@ -5827,18 +5333,15 @@
         <v>167.042</v>
       </c>
       <c r="G165" t="n">
-        <v>-142362.49776655</v>
-      </c>
-      <c r="H165" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H165" t="inlineStr"/>
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
-      <c r="K165" t="inlineStr"/>
-      <c r="L165" t="n">
-        <v>1</v>
-      </c>
-      <c r="M165" t="inlineStr"/>
+      <c r="K165" t="n">
+        <v>1</v>
+      </c>
+      <c r="L165" t="inlineStr"/>
     </row>
     <row r="166">
       <c r="A166" s="1" t="n">
@@ -5860,18 +5363,15 @@
         <v>1675.9815</v>
       </c>
       <c r="G166" t="n">
-        <v>-140686.51626655</v>
-      </c>
-      <c r="H166" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H166" t="inlineStr"/>
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
-      <c r="K166" t="inlineStr"/>
-      <c r="L166" t="n">
-        <v>1</v>
-      </c>
-      <c r="M166" t="inlineStr"/>
+      <c r="K166" t="n">
+        <v>1</v>
+      </c>
+      <c r="L166" t="inlineStr"/>
     </row>
     <row r="167">
       <c r="A167" s="1" t="n">
@@ -5893,18 +5393,15 @@
         <v>248.616</v>
       </c>
       <c r="G167" t="n">
-        <v>-140935.13226655</v>
-      </c>
-      <c r="H167" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H167" t="inlineStr"/>
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
-      <c r="K167" t="inlineStr"/>
-      <c r="L167" t="n">
-        <v>1</v>
-      </c>
-      <c r="M167" t="inlineStr"/>
+      <c r="K167" t="n">
+        <v>1</v>
+      </c>
+      <c r="L167" t="inlineStr"/>
     </row>
     <row r="168">
       <c r="A168" s="1" t="n">
@@ -5926,18 +5423,15 @@
         <v>1783.708</v>
       </c>
       <c r="G168" t="n">
-        <v>-142718.84026655</v>
-      </c>
-      <c r="H168" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H168" t="inlineStr"/>
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
-      <c r="K168" t="inlineStr"/>
-      <c r="L168" t="n">
-        <v>1</v>
-      </c>
-      <c r="M168" t="inlineStr"/>
+      <c r="K168" t="n">
+        <v>1</v>
+      </c>
+      <c r="L168" t="inlineStr"/>
     </row>
     <row r="169">
       <c r="A169" s="1" t="n">
@@ -5959,18 +5453,15 @@
         <v>619.8261</v>
       </c>
       <c r="G169" t="n">
-        <v>-143338.66636655</v>
-      </c>
-      <c r="H169" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H169" t="inlineStr"/>
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
-      <c r="K169" t="inlineStr"/>
-      <c r="L169" t="n">
-        <v>1</v>
-      </c>
-      <c r="M169" t="inlineStr"/>
+      <c r="K169" t="n">
+        <v>1</v>
+      </c>
+      <c r="L169" t="inlineStr"/>
     </row>
     <row r="170">
       <c r="A170" s="1" t="n">
@@ -5992,18 +5483,15 @@
         <v>4968.9161</v>
       </c>
       <c r="G170" t="n">
-        <v>-148307.58246655</v>
-      </c>
-      <c r="H170" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H170" t="inlineStr"/>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
-      <c r="K170" t="inlineStr"/>
-      <c r="L170" t="n">
-        <v>1</v>
-      </c>
-      <c r="M170" t="inlineStr"/>
+      <c r="K170" t="n">
+        <v>1</v>
+      </c>
+      <c r="L170" t="inlineStr"/>
     </row>
     <row r="171">
       <c r="A171" s="1" t="n">
@@ -6025,18 +5513,15 @@
         <v>388.571</v>
       </c>
       <c r="G171" t="n">
-        <v>-147919.01146655</v>
-      </c>
-      <c r="H171" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H171" t="inlineStr"/>
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
-      <c r="K171" t="inlineStr"/>
-      <c r="L171" t="n">
-        <v>1</v>
-      </c>
-      <c r="M171" t="inlineStr"/>
+      <c r="K171" t="n">
+        <v>1</v>
+      </c>
+      <c r="L171" t="inlineStr"/>
     </row>
     <row r="172">
       <c r="A172" s="1" t="n">
@@ -6058,18 +5543,15 @@
         <v>385.941</v>
       </c>
       <c r="G172" t="n">
-        <v>-147533.07046655</v>
-      </c>
-      <c r="H172" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H172" t="inlineStr"/>
       <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
-      <c r="K172" t="inlineStr"/>
-      <c r="L172" t="n">
-        <v>1</v>
-      </c>
-      <c r="M172" t="inlineStr"/>
+      <c r="K172" t="n">
+        <v>1</v>
+      </c>
+      <c r="L172" t="inlineStr"/>
     </row>
     <row r="173">
       <c r="A173" s="1" t="n">
@@ -6091,18 +5573,15 @@
         <v>7000</v>
       </c>
       <c r="G173" t="n">
-        <v>-154533.07046655</v>
-      </c>
-      <c r="H173" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H173" t="inlineStr"/>
       <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
-      <c r="K173" t="inlineStr"/>
-      <c r="L173" t="n">
-        <v>1</v>
-      </c>
-      <c r="M173" t="inlineStr"/>
+      <c r="K173" t="n">
+        <v>1</v>
+      </c>
+      <c r="L173" t="inlineStr"/>
     </row>
     <row r="174">
       <c r="A174" s="1" t="n">
@@ -6124,18 +5603,15 @@
         <v>3287.73</v>
       </c>
       <c r="G174" t="n">
-        <v>-151245.34046655</v>
-      </c>
-      <c r="H174" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H174" t="inlineStr"/>
       <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
-      <c r="K174" t="inlineStr"/>
-      <c r="L174" t="n">
-        <v>1</v>
-      </c>
-      <c r="M174" t="inlineStr"/>
+      <c r="K174" t="n">
+        <v>1</v>
+      </c>
+      <c r="L174" t="inlineStr"/>
     </row>
     <row r="175">
       <c r="A175" s="1" t="n">
@@ -6157,18 +5633,15 @@
         <v>136</v>
       </c>
       <c r="G175" t="n">
-        <v>-151381.34046655</v>
-      </c>
-      <c r="H175" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H175" t="inlineStr"/>
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
-      <c r="K175" t="inlineStr"/>
-      <c r="L175" t="n">
-        <v>1</v>
-      </c>
-      <c r="M175" t="inlineStr"/>
+      <c r="K175" t="n">
+        <v>1</v>
+      </c>
+      <c r="L175" t="inlineStr"/>
     </row>
     <row r="176">
       <c r="A176" s="1" t="n">
@@ -6190,18 +5663,15 @@
         <v>5000</v>
       </c>
       <c r="G176" t="n">
-        <v>-156381.34046655</v>
-      </c>
-      <c r="H176" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H176" t="inlineStr"/>
       <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
-      <c r="K176" t="inlineStr"/>
-      <c r="L176" t="n">
-        <v>1</v>
-      </c>
-      <c r="M176" t="inlineStr"/>
+      <c r="K176" t="n">
+        <v>1</v>
+      </c>
+      <c r="L176" t="inlineStr"/>
     </row>
     <row r="177">
       <c r="A177" s="1" t="n">
@@ -6223,18 +5693,15 @@
         <v>3.6849</v>
       </c>
       <c r="G177" t="n">
-        <v>-156377.65556655</v>
-      </c>
-      <c r="H177" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H177" t="inlineStr"/>
       <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
-      <c r="K177" t="inlineStr"/>
-      <c r="L177" t="n">
-        <v>1</v>
-      </c>
-      <c r="M177" t="inlineStr"/>
+      <c r="K177" t="n">
+        <v>1</v>
+      </c>
+      <c r="L177" t="inlineStr"/>
     </row>
     <row r="178">
       <c r="A178" s="1" t="n">
@@ -6256,18 +5723,15 @@
         <v>1171.9564</v>
       </c>
       <c r="G178" t="n">
-        <v>-157549.61196655</v>
-      </c>
-      <c r="H178" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H178" t="inlineStr"/>
       <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
-      <c r="K178" t="inlineStr"/>
-      <c r="L178" t="n">
-        <v>1</v>
-      </c>
-      <c r="M178" t="inlineStr"/>
+      <c r="K178" t="n">
+        <v>1</v>
+      </c>
+      <c r="L178" t="inlineStr"/>
     </row>
     <row r="179">
       <c r="A179" s="1" t="n">
@@ -6289,18 +5753,15 @@
         <v>87.8434</v>
       </c>
       <c r="G179" t="n">
-        <v>-157461.76856655</v>
-      </c>
-      <c r="H179" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H179" t="inlineStr"/>
       <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
-      <c r="K179" t="inlineStr"/>
-      <c r="L179" t="n">
-        <v>1</v>
-      </c>
-      <c r="M179" t="inlineStr"/>
+      <c r="K179" t="n">
+        <v>1</v>
+      </c>
+      <c r="L179" t="inlineStr"/>
     </row>
     <row r="180">
       <c r="A180" s="1" t="n">
@@ -6322,18 +5783,15 @@
         <v>73.59999999999999</v>
       </c>
       <c r="G180" t="n">
-        <v>-157461.76856655</v>
-      </c>
-      <c r="H180" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H180" t="inlineStr"/>
       <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
-      <c r="K180" t="inlineStr"/>
-      <c r="L180" t="n">
-        <v>1</v>
-      </c>
-      <c r="M180" t="inlineStr"/>
+      <c r="K180" t="n">
+        <v>1</v>
+      </c>
+      <c r="L180" t="inlineStr"/>
     </row>
     <row r="181">
       <c r="A181" s="1" t="n">
@@ -6355,18 +5813,15 @@
         <v>1451.2701</v>
       </c>
       <c r="G181" t="n">
-        <v>-158913.03866655</v>
-      </c>
-      <c r="H181" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H181" t="inlineStr"/>
       <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
-      <c r="K181" t="inlineStr"/>
-      <c r="L181" t="n">
-        <v>1</v>
-      </c>
-      <c r="M181" t="inlineStr"/>
+      <c r="K181" t="n">
+        <v>1</v>
+      </c>
+      <c r="L181" t="inlineStr"/>
     </row>
     <row r="182">
       <c r="A182" s="1" t="n">
@@ -6388,18 +5843,15 @@
         <v>3358.4553</v>
       </c>
       <c r="G182" t="n">
-        <v>-162271.49396655</v>
-      </c>
-      <c r="H182" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H182" t="inlineStr"/>
       <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
-      <c r="K182" t="inlineStr"/>
-      <c r="L182" t="n">
-        <v>1</v>
-      </c>
-      <c r="M182" t="inlineStr"/>
+      <c r="K182" t="n">
+        <v>1</v>
+      </c>
+      <c r="L182" t="inlineStr"/>
     </row>
     <row r="183">
       <c r="A183" s="1" t="n">
@@ -6421,18 +5873,15 @@
         <v>50</v>
       </c>
       <c r="G183" t="n">
-        <v>-162221.49396655</v>
-      </c>
-      <c r="H183" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H183" t="inlineStr"/>
       <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
-      <c r="K183" t="inlineStr"/>
-      <c r="L183" t="n">
-        <v>1</v>
-      </c>
-      <c r="M183" t="inlineStr"/>
+      <c r="K183" t="n">
+        <v>1</v>
+      </c>
+      <c r="L183" t="inlineStr"/>
     </row>
     <row r="184">
       <c r="A184" s="1" t="n">
@@ -6454,18 +5903,15 @@
         <v>26.96</v>
       </c>
       <c r="G184" t="n">
-        <v>-162221.49396655</v>
-      </c>
-      <c r="H184" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H184" t="inlineStr"/>
       <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
-      <c r="K184" t="inlineStr"/>
-      <c r="L184" t="n">
-        <v>1</v>
-      </c>
-      <c r="M184" t="inlineStr"/>
+      <c r="K184" t="n">
+        <v>1</v>
+      </c>
+      <c r="L184" t="inlineStr"/>
     </row>
     <row r="185">
       <c r="A185" s="1" t="n">
@@ -6487,18 +5933,15 @@
         <v>368.45</v>
       </c>
       <c r="G185" t="n">
-        <v>-162221.49396655</v>
-      </c>
-      <c r="H185" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H185" t="inlineStr"/>
       <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
-      <c r="K185" t="inlineStr"/>
-      <c r="L185" t="n">
-        <v>1</v>
-      </c>
-      <c r="M185" t="inlineStr"/>
+      <c r="K185" t="n">
+        <v>1</v>
+      </c>
+      <c r="L185" t="inlineStr"/>
     </row>
     <row r="186">
       <c r="A186" s="1" t="n">
@@ -6520,18 +5963,15 @@
         <v>2.63</v>
       </c>
       <c r="G186" t="n">
-        <v>-162218.86396655</v>
-      </c>
-      <c r="H186" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H186" t="inlineStr"/>
       <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
-      <c r="K186" t="inlineStr"/>
-      <c r="L186" t="n">
-        <v>1</v>
-      </c>
-      <c r="M186" t="inlineStr"/>
+      <c r="K186" t="n">
+        <v>1</v>
+      </c>
+      <c r="L186" t="inlineStr"/>
     </row>
     <row r="187">
       <c r="A187" s="1" t="n">
@@ -6553,18 +5993,15 @@
         <v>449.85</v>
       </c>
       <c r="G187" t="n">
-        <v>-162668.71396655</v>
-      </c>
-      <c r="H187" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H187" t="inlineStr"/>
       <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
-      <c r="K187" t="inlineStr"/>
-      <c r="L187" t="n">
-        <v>1</v>
-      </c>
-      <c r="M187" t="inlineStr"/>
+      <c r="K187" t="n">
+        <v>1</v>
+      </c>
+      <c r="L187" t="inlineStr"/>
     </row>
     <row r="188">
       <c r="A188" s="1" t="n">
@@ -6586,18 +6023,15 @@
         <v>248.7989</v>
       </c>
       <c r="G188" t="n">
-        <v>-162419.91506655</v>
-      </c>
-      <c r="H188" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H188" t="inlineStr"/>
       <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
-      <c r="K188" t="inlineStr"/>
-      <c r="L188" t="n">
-        <v>1</v>
-      </c>
-      <c r="M188" t="inlineStr"/>
+      <c r="K188" t="n">
+        <v>1</v>
+      </c>
+      <c r="L188" t="inlineStr"/>
     </row>
     <row r="189">
       <c r="A189" s="1" t="n">
@@ -6619,18 +6053,15 @@
         <v>231.4297</v>
       </c>
       <c r="G189" t="n">
-        <v>-162419.91506655</v>
-      </c>
-      <c r="H189" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H189" t="inlineStr"/>
       <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
-      <c r="K189" t="inlineStr"/>
-      <c r="L189" t="n">
-        <v>1</v>
-      </c>
-      <c r="M189" t="inlineStr"/>
+      <c r="K189" t="n">
+        <v>1</v>
+      </c>
+      <c r="L189" t="inlineStr"/>
     </row>
     <row r="190">
       <c r="A190" s="1" t="n">
@@ -6652,18 +6083,15 @@
         <v>1512.69173611</v>
       </c>
       <c r="G190" t="n">
-        <v>-160907.22333044</v>
-      </c>
-      <c r="H190" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H190" t="inlineStr"/>
       <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
-      <c r="K190" t="inlineStr"/>
-      <c r="L190" t="n">
-        <v>1</v>
-      </c>
-      <c r="M190" t="inlineStr"/>
+      <c r="K190" t="n">
+        <v>1</v>
+      </c>
+      <c r="L190" t="inlineStr"/>
     </row>
     <row r="191">
       <c r="A191" s="1" t="n">
@@ -6685,18 +6113,15 @@
         <v>2186.0848</v>
       </c>
       <c r="G191" t="n">
-        <v>-160907.22333044</v>
-      </c>
-      <c r="H191" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H191" t="inlineStr"/>
       <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
-      <c r="K191" t="inlineStr"/>
-      <c r="L191" t="n">
-        <v>1</v>
-      </c>
-      <c r="M191" t="inlineStr"/>
+      <c r="K191" t="n">
+        <v>1</v>
+      </c>
+      <c r="L191" t="inlineStr"/>
     </row>
     <row r="192">
       <c r="A192" s="1" t="n">
@@ -6718,18 +6143,15 @@
         <v>3</v>
       </c>
       <c r="G192" t="n">
-        <v>-160904.22333044</v>
-      </c>
-      <c r="H192" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H192" t="inlineStr"/>
       <c r="I192" t="inlineStr"/>
       <c r="J192" t="inlineStr"/>
-      <c r="K192" t="inlineStr"/>
-      <c r="L192" t="n">
-        <v>1</v>
-      </c>
-      <c r="M192" t="inlineStr"/>
+      <c r="K192" t="n">
+        <v>1</v>
+      </c>
+      <c r="L192" t="inlineStr"/>
     </row>
     <row r="193">
       <c r="A193" s="1" t="n">
@@ -6751,18 +6173,15 @@
         <v>68.8222</v>
       </c>
       <c r="G193" t="n">
-        <v>-160973.04553044</v>
-      </c>
-      <c r="H193" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H193" t="inlineStr"/>
       <c r="I193" t="inlineStr"/>
       <c r="J193" t="inlineStr"/>
-      <c r="K193" t="inlineStr"/>
-      <c r="L193" t="n">
-        <v>1</v>
-      </c>
-      <c r="M193" t="inlineStr"/>
+      <c r="K193" t="n">
+        <v>1</v>
+      </c>
+      <c r="L193" t="inlineStr"/>
     </row>
     <row r="194">
       <c r="A194" s="1" t="n">
@@ -6784,18 +6203,15 @@
         <v>1608.765</v>
       </c>
       <c r="G194" t="n">
-        <v>-162581.81053044</v>
-      </c>
-      <c r="H194" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H194" t="inlineStr"/>
       <c r="I194" t="inlineStr"/>
       <c r="J194" t="inlineStr"/>
-      <c r="K194" t="inlineStr"/>
-      <c r="L194" t="n">
-        <v>1</v>
-      </c>
-      <c r="M194" t="inlineStr"/>
+      <c r="K194" t="n">
+        <v>1</v>
+      </c>
+      <c r="L194" t="inlineStr"/>
     </row>
     <row r="195">
       <c r="A195" s="1" t="n">
@@ -6817,18 +6233,15 @@
         <v>156.4954</v>
       </c>
       <c r="G195" t="n">
-        <v>-162581.81053044</v>
-      </c>
-      <c r="H195" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H195" t="inlineStr"/>
       <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr"/>
-      <c r="K195" t="inlineStr"/>
-      <c r="L195" t="n">
-        <v>1</v>
-      </c>
-      <c r="M195" t="inlineStr"/>
+      <c r="K195" t="n">
+        <v>1</v>
+      </c>
+      <c r="L195" t="inlineStr"/>
     </row>
     <row r="196">
       <c r="A196" s="1" t="n">
@@ -6850,18 +6263,15 @@
         <v>321.4224</v>
       </c>
       <c r="G196" t="n">
-        <v>-162581.81053044</v>
-      </c>
-      <c r="H196" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H196" t="inlineStr"/>
       <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr"/>
-      <c r="K196" t="inlineStr"/>
-      <c r="L196" t="n">
-        <v>1</v>
-      </c>
-      <c r="M196" t="inlineStr"/>
+      <c r="K196" t="n">
+        <v>1</v>
+      </c>
+      <c r="L196" t="inlineStr"/>
     </row>
     <row r="197">
       <c r="A197" s="1" t="n">
@@ -6883,18 +6293,15 @@
         <v>2703.961</v>
       </c>
       <c r="G197" t="n">
-        <v>-159877.84953044</v>
-      </c>
-      <c r="H197" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H197" t="inlineStr"/>
       <c r="I197" t="inlineStr"/>
       <c r="J197" t="inlineStr"/>
-      <c r="K197" t="inlineStr"/>
-      <c r="L197" t="n">
-        <v>1</v>
-      </c>
-      <c r="M197" t="inlineStr"/>
+      <c r="K197" t="n">
+        <v>1</v>
+      </c>
+      <c r="L197" t="inlineStr"/>
     </row>
     <row r="198">
       <c r="A198" s="1" t="n">
@@ -6916,18 +6323,15 @@
         <v>3025.3834</v>
       </c>
       <c r="G198" t="n">
-        <v>-162903.23293044</v>
-      </c>
-      <c r="H198" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H198" t="inlineStr"/>
       <c r="I198" t="inlineStr"/>
       <c r="J198" t="inlineStr"/>
-      <c r="K198" t="inlineStr"/>
-      <c r="L198" t="n">
-        <v>1</v>
-      </c>
-      <c r="M198" t="inlineStr"/>
+      <c r="K198" t="n">
+        <v>1</v>
+      </c>
+      <c r="L198" t="inlineStr"/>
     </row>
     <row r="199">
       <c r="A199" s="1" t="n">
@@ -6949,18 +6353,15 @@
         <v>3885</v>
       </c>
       <c r="G199" t="n">
-        <v>-162903.23293044</v>
-      </c>
-      <c r="H199" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H199" t="inlineStr"/>
       <c r="I199" t="inlineStr"/>
       <c r="J199" t="inlineStr"/>
-      <c r="K199" t="inlineStr"/>
-      <c r="L199" t="n">
-        <v>1</v>
-      </c>
-      <c r="M199" t="inlineStr"/>
+      <c r="K199" t="n">
+        <v>1</v>
+      </c>
+      <c r="L199" t="inlineStr"/>
     </row>
     <row r="200">
       <c r="A200" s="1" t="n">
@@ -6982,18 +6383,15 @@
         <v>578.1079999999999</v>
       </c>
       <c r="G200" t="n">
-        <v>-163481.34093044</v>
-      </c>
-      <c r="H200" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H200" t="inlineStr"/>
       <c r="I200" t="inlineStr"/>
       <c r="J200" t="inlineStr"/>
-      <c r="K200" t="inlineStr"/>
-      <c r="L200" t="n">
-        <v>1</v>
-      </c>
-      <c r="M200" t="inlineStr"/>
+      <c r="K200" t="n">
+        <v>1</v>
+      </c>
+      <c r="L200" t="inlineStr"/>
     </row>
     <row r="201">
       <c r="A201" s="1" t="n">
@@ -7015,18 +6413,15 @@
         <v>168.0728</v>
       </c>
       <c r="G201" t="n">
-        <v>-163481.34093044</v>
-      </c>
-      <c r="H201" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H201" t="inlineStr"/>
       <c r="I201" t="inlineStr"/>
       <c r="J201" t="inlineStr"/>
-      <c r="K201" t="inlineStr"/>
-      <c r="L201" t="n">
-        <v>1</v>
-      </c>
-      <c r="M201" t="inlineStr"/>
+      <c r="K201" t="n">
+        <v>1</v>
+      </c>
+      <c r="L201" t="inlineStr"/>
     </row>
     <row r="202">
       <c r="A202" s="1" t="n">
@@ -7048,18 +6443,15 @@
         <v>15467.795</v>
       </c>
       <c r="G202" t="n">
-        <v>-178949.13593044</v>
-      </c>
-      <c r="H202" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H202" t="inlineStr"/>
       <c r="I202" t="inlineStr"/>
       <c r="J202" t="inlineStr"/>
-      <c r="K202" t="inlineStr"/>
-      <c r="L202" t="n">
-        <v>1</v>
-      </c>
-      <c r="M202" t="inlineStr"/>
+      <c r="K202" t="n">
+        <v>1</v>
+      </c>
+      <c r="L202" t="inlineStr"/>
     </row>
     <row r="203">
       <c r="A203" s="1" t="n">
@@ -7081,18 +6473,15 @@
         <v>7780.4136</v>
       </c>
       <c r="G203" t="n">
-        <v>-186729.54953044</v>
-      </c>
-      <c r="H203" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H203" t="inlineStr"/>
       <c r="I203" t="inlineStr"/>
       <c r="J203" t="inlineStr"/>
-      <c r="K203" t="inlineStr"/>
-      <c r="L203" t="n">
-        <v>1</v>
-      </c>
-      <c r="M203" t="inlineStr"/>
+      <c r="K203" t="n">
+        <v>1</v>
+      </c>
+      <c r="L203" t="inlineStr"/>
     </row>
     <row r="204">
       <c r="A204" s="1" t="n">
@@ -7114,18 +6503,15 @@
         <v>5291.005291</v>
       </c>
       <c r="G204" t="n">
-        <v>-181438.54423944</v>
-      </c>
-      <c r="H204" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H204" t="inlineStr"/>
       <c r="I204" t="inlineStr"/>
       <c r="J204" t="inlineStr"/>
-      <c r="K204" t="inlineStr"/>
-      <c r="L204" t="n">
-        <v>1</v>
-      </c>
-      <c r="M204" t="inlineStr"/>
+      <c r="K204" t="n">
+        <v>1</v>
+      </c>
+      <c r="L204" t="inlineStr"/>
     </row>
     <row r="205">
       <c r="A205" s="1" t="n">
@@ -7147,18 +6533,15 @@
         <v>5496.7168</v>
       </c>
       <c r="G205" t="n">
-        <v>-181438.54423944</v>
-      </c>
-      <c r="H205" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H205" t="inlineStr"/>
       <c r="I205" t="inlineStr"/>
       <c r="J205" t="inlineStr"/>
-      <c r="K205" t="inlineStr"/>
-      <c r="L205" t="n">
-        <v>1</v>
-      </c>
-      <c r="M205" t="inlineStr"/>
+      <c r="K205" t="n">
+        <v>1</v>
+      </c>
+      <c r="L205" t="inlineStr"/>
     </row>
     <row r="206">
       <c r="A206" s="1" t="n">
@@ -7180,18 +6563,15 @@
         <v>2848.5891</v>
       </c>
       <c r="G206" t="n">
-        <v>-184287.13333944</v>
-      </c>
-      <c r="H206" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H206" t="inlineStr"/>
       <c r="I206" t="inlineStr"/>
       <c r="J206" t="inlineStr"/>
-      <c r="K206" t="inlineStr"/>
-      <c r="L206" t="n">
-        <v>1</v>
-      </c>
-      <c r="M206" t="inlineStr"/>
+      <c r="K206" t="n">
+        <v>1</v>
+      </c>
+      <c r="L206" t="inlineStr"/>
     </row>
     <row r="207">
       <c r="A207" s="1" t="n">
@@ -7213,18 +6593,15 @@
         <v>2780</v>
       </c>
       <c r="G207" t="n">
-        <v>-187067.13333944</v>
-      </c>
-      <c r="H207" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H207" t="inlineStr"/>
       <c r="I207" t="inlineStr"/>
       <c r="J207" t="inlineStr"/>
-      <c r="K207" t="inlineStr"/>
-      <c r="L207" t="n">
-        <v>1</v>
-      </c>
-      <c r="M207" t="inlineStr"/>
+      <c r="K207" t="n">
+        <v>1</v>
+      </c>
+      <c r="L207" t="inlineStr"/>
     </row>
     <row r="208">
       <c r="A208" s="1" t="n">
@@ -7246,18 +6623,15 @@
         <v>298</v>
       </c>
       <c r="G208" t="n">
-        <v>-186769.13333944</v>
-      </c>
-      <c r="H208" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H208" t="inlineStr"/>
       <c r="I208" t="inlineStr"/>
       <c r="J208" t="inlineStr"/>
-      <c r="K208" t="inlineStr"/>
-      <c r="L208" t="n">
-        <v>1</v>
-      </c>
-      <c r="M208" t="inlineStr"/>
+      <c r="K208" t="n">
+        <v>1</v>
+      </c>
+      <c r="L208" t="inlineStr"/>
     </row>
     <row r="209">
       <c r="A209" s="1" t="n">
@@ -7279,18 +6653,15 @@
         <v>144</v>
       </c>
       <c r="G209" t="n">
-        <v>-186913.13333944</v>
-      </c>
-      <c r="H209" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H209" t="inlineStr"/>
       <c r="I209" t="inlineStr"/>
       <c r="J209" t="inlineStr"/>
-      <c r="K209" t="inlineStr"/>
-      <c r="L209" t="n">
-        <v>1</v>
-      </c>
-      <c r="M209" t="inlineStr"/>
+      <c r="K209" t="n">
+        <v>1</v>
+      </c>
+      <c r="L209" t="inlineStr"/>
     </row>
     <row r="210">
       <c r="A210" s="1" t="n">
@@ -7312,18 +6683,15 @@
         <v>5162.0685</v>
       </c>
       <c r="G210" t="n">
-        <v>-181751.06483944</v>
-      </c>
-      <c r="H210" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H210" t="inlineStr"/>
       <c r="I210" t="inlineStr"/>
       <c r="J210" t="inlineStr"/>
-      <c r="K210" t="inlineStr"/>
-      <c r="L210" t="n">
-        <v>1</v>
-      </c>
-      <c r="M210" t="inlineStr"/>
+      <c r="K210" t="n">
+        <v>1</v>
+      </c>
+      <c r="L210" t="inlineStr"/>
     </row>
     <row r="211">
       <c r="A211" s="1" t="n">
@@ -7345,18 +6713,15 @@
         <v>1657.3609</v>
       </c>
       <c r="G211" t="n">
-        <v>-183408.42573944</v>
-      </c>
-      <c r="H211" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H211" t="inlineStr"/>
       <c r="I211" t="inlineStr"/>
       <c r="J211" t="inlineStr"/>
-      <c r="K211" t="inlineStr"/>
-      <c r="L211" t="n">
-        <v>1</v>
-      </c>
-      <c r="M211" t="inlineStr"/>
+      <c r="K211" t="n">
+        <v>1</v>
+      </c>
+      <c r="L211" t="inlineStr"/>
     </row>
     <row r="212">
       <c r="A212" s="1" t="n">
@@ -7378,18 +6743,15 @@
         <v>1366.755</v>
       </c>
       <c r="G212" t="n">
-        <v>-183408.42573944</v>
-      </c>
-      <c r="H212" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H212" t="inlineStr"/>
       <c r="I212" t="inlineStr"/>
       <c r="J212" t="inlineStr"/>
-      <c r="K212" t="inlineStr"/>
-      <c r="L212" t="n">
-        <v>1</v>
-      </c>
-      <c r="M212" t="inlineStr"/>
+      <c r="K212" t="n">
+        <v>1</v>
+      </c>
+      <c r="L212" t="inlineStr"/>
     </row>
     <row r="213">
       <c r="A213" s="1" t="n">
@@ -7411,18 +6773,15 @@
         <v>1936.539</v>
       </c>
       <c r="G213" t="n">
-        <v>-183408.42573944</v>
-      </c>
-      <c r="H213" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H213" t="inlineStr"/>
       <c r="I213" t="inlineStr"/>
       <c r="J213" t="inlineStr"/>
-      <c r="K213" t="inlineStr"/>
-      <c r="L213" t="n">
-        <v>1</v>
-      </c>
-      <c r="M213" t="inlineStr"/>
+      <c r="K213" t="n">
+        <v>1</v>
+      </c>
+      <c r="L213" t="inlineStr"/>
     </row>
     <row r="214">
       <c r="A214" s="1" t="n">
@@ -7444,18 +6803,15 @@
         <v>258.077</v>
       </c>
       <c r="G214" t="n">
-        <v>-183408.42573944</v>
-      </c>
-      <c r="H214" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H214" t="inlineStr"/>
       <c r="I214" t="inlineStr"/>
       <c r="J214" t="inlineStr"/>
-      <c r="K214" t="inlineStr"/>
-      <c r="L214" t="n">
-        <v>1</v>
-      </c>
-      <c r="M214" t="inlineStr"/>
+      <c r="K214" t="n">
+        <v>1</v>
+      </c>
+      <c r="L214" t="inlineStr"/>
     </row>
     <row r="215">
       <c r="A215" s="1" t="n">
@@ -7477,18 +6833,15 @@
         <v>30</v>
       </c>
       <c r="G215" t="n">
-        <v>-183438.42573944</v>
-      </c>
-      <c r="H215" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H215" t="inlineStr"/>
       <c r="I215" t="inlineStr"/>
       <c r="J215" t="inlineStr"/>
-      <c r="K215" t="inlineStr"/>
-      <c r="L215" t="n">
-        <v>1</v>
-      </c>
-      <c r="M215" t="inlineStr"/>
+      <c r="K215" t="n">
+        <v>1</v>
+      </c>
+      <c r="L215" t="inlineStr"/>
     </row>
     <row r="216">
       <c r="A216" s="1" t="n">
@@ -7510,18 +6863,15 @@
         <v>3740</v>
       </c>
       <c r="G216" t="n">
-        <v>-179698.42573944</v>
-      </c>
-      <c r="H216" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H216" t="inlineStr"/>
       <c r="I216" t="inlineStr"/>
       <c r="J216" t="inlineStr"/>
-      <c r="K216" t="inlineStr"/>
-      <c r="L216" t="n">
-        <v>1</v>
-      </c>
-      <c r="M216" t="inlineStr"/>
+      <c r="K216" t="n">
+        <v>1</v>
+      </c>
+      <c r="L216" t="inlineStr"/>
     </row>
     <row r="217">
       <c r="A217" s="1" t="n">
@@ -7543,18 +6893,15 @@
         <v>3752.0384</v>
       </c>
       <c r="G217" t="n">
-        <v>-179698.42573944</v>
-      </c>
-      <c r="H217" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H217" t="inlineStr"/>
       <c r="I217" t="inlineStr"/>
       <c r="J217" t="inlineStr"/>
-      <c r="K217" t="inlineStr"/>
-      <c r="L217" t="n">
-        <v>1</v>
-      </c>
-      <c r="M217" t="inlineStr"/>
+      <c r="K217" t="n">
+        <v>1</v>
+      </c>
+      <c r="L217" t="inlineStr"/>
     </row>
     <row r="218">
       <c r="A218" s="1" t="n">
@@ -7576,18 +6923,15 @@
         <v>8251.9895</v>
       </c>
       <c r="G218" t="n">
-        <v>-187950.41523944</v>
-      </c>
-      <c r="H218" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H218" t="inlineStr"/>
       <c r="I218" t="inlineStr"/>
       <c r="J218" t="inlineStr"/>
-      <c r="K218" t="inlineStr"/>
-      <c r="L218" t="n">
-        <v>1</v>
-      </c>
-      <c r="M218" t="inlineStr"/>
+      <c r="K218" t="n">
+        <v>1</v>
+      </c>
+      <c r="L218" t="inlineStr"/>
     </row>
     <row r="219">
       <c r="A219" s="1" t="n">
@@ -7609,18 +6953,15 @@
         <v>155.0005</v>
       </c>
       <c r="G219" t="n">
-        <v>-187795.41473944</v>
-      </c>
-      <c r="H219" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H219" t="inlineStr"/>
       <c r="I219" t="inlineStr"/>
       <c r="J219" t="inlineStr"/>
-      <c r="K219" t="inlineStr"/>
-      <c r="L219" t="n">
-        <v>1</v>
-      </c>
-      <c r="M219" t="inlineStr"/>
+      <c r="K219" t="n">
+        <v>1</v>
+      </c>
+      <c r="L219" t="inlineStr"/>
     </row>
     <row r="220">
       <c r="A220" s="1" t="n">
@@ -7642,18 +6983,15 @@
         <v>115.888</v>
       </c>
       <c r="G220" t="n">
-        <v>-187795.41473944</v>
-      </c>
-      <c r="H220" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H220" t="inlineStr"/>
       <c r="I220" t="inlineStr"/>
       <c r="J220" t="inlineStr"/>
-      <c r="K220" t="inlineStr"/>
-      <c r="L220" t="n">
-        <v>1</v>
-      </c>
-      <c r="M220" t="inlineStr"/>
+      <c r="K220" t="n">
+        <v>1</v>
+      </c>
+      <c r="L220" t="inlineStr"/>
     </row>
     <row r="221">
       <c r="A221" s="1" t="n">
@@ -7675,18 +7013,15 @@
         <v>7544.2598</v>
       </c>
       <c r="G221" t="n">
-        <v>-195339.67453944</v>
-      </c>
-      <c r="H221" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H221" t="inlineStr"/>
       <c r="I221" t="inlineStr"/>
       <c r="J221" t="inlineStr"/>
-      <c r="K221" t="inlineStr"/>
-      <c r="L221" t="n">
-        <v>1</v>
-      </c>
-      <c r="M221" t="inlineStr"/>
+      <c r="K221" t="n">
+        <v>1</v>
+      </c>
+      <c r="L221" t="inlineStr"/>
     </row>
     <row r="222">
       <c r="A222" s="1" t="n">
@@ -7708,18 +7043,15 @@
         <v>128.2609</v>
       </c>
       <c r="G222" t="n">
-        <v>-195211.4136394401</v>
-      </c>
-      <c r="H222" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H222" t="inlineStr"/>
       <c r="I222" t="inlineStr"/>
       <c r="J222" t="inlineStr"/>
-      <c r="K222" t="inlineStr"/>
-      <c r="L222" t="n">
-        <v>1</v>
-      </c>
-      <c r="M222" t="inlineStr"/>
+      <c r="K222" t="n">
+        <v>1</v>
+      </c>
+      <c r="L222" t="inlineStr"/>
     </row>
     <row r="223">
       <c r="A223" s="1" t="n">
@@ -7741,18 +7073,15 @@
         <v>166.739</v>
       </c>
       <c r="G223" t="n">
-        <v>-195211.4136394401</v>
-      </c>
-      <c r="H223" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H223" t="inlineStr"/>
       <c r="I223" t="inlineStr"/>
       <c r="J223" t="inlineStr"/>
-      <c r="K223" t="inlineStr"/>
-      <c r="L223" t="n">
-        <v>1</v>
-      </c>
-      <c r="M223" t="inlineStr"/>
+      <c r="K223" t="n">
+        <v>1</v>
+      </c>
+      <c r="L223" t="inlineStr"/>
     </row>
     <row r="224">
       <c r="A224" s="1" t="n">
@@ -7774,18 +7103,15 @@
         <v>131.8325</v>
       </c>
       <c r="G224" t="n">
-        <v>-195211.4136394401</v>
-      </c>
-      <c r="H224" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H224" t="inlineStr"/>
       <c r="I224" t="inlineStr"/>
       <c r="J224" t="inlineStr"/>
-      <c r="K224" t="inlineStr"/>
-      <c r="L224" t="n">
-        <v>1</v>
-      </c>
-      <c r="M224" t="inlineStr"/>
+      <c r="K224" t="n">
+        <v>1</v>
+      </c>
+      <c r="L224" t="inlineStr"/>
     </row>
     <row r="225">
       <c r="A225" s="1" t="n">
@@ -7807,22 +7133,15 @@
         <v>1545</v>
       </c>
       <c r="G225" t="n">
-        <v>-196756.4136394401</v>
-      </c>
-      <c r="H225" t="n">
-        <v>1</v>
-      </c>
-      <c r="I225" t="n">
-        <v>186</v>
-      </c>
-      <c r="J225" t="n">
-        <v>186</v>
-      </c>
-      <c r="K225" t="inlineStr"/>
-      <c r="L225" t="n">
-        <v>1</v>
-      </c>
-      <c r="M225" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H225" t="inlineStr"/>
+      <c r="I225" t="inlineStr"/>
+      <c r="J225" t="inlineStr"/>
+      <c r="K225" t="n">
+        <v>1</v>
+      </c>
+      <c r="L225" t="inlineStr"/>
     </row>
     <row r="226">
       <c r="A226" s="1" t="n">
@@ -7844,1066 +7163,979 @@
         <v>430.1913</v>
       </c>
       <c r="G226" t="n">
-        <v>-197186.6049394401</v>
-      </c>
-      <c r="H226" t="n">
-        <v>1</v>
-      </c>
-      <c r="I226" t="n">
-        <v>185.6</v>
-      </c>
-      <c r="J226" t="n">
+        <v>0</v>
+      </c>
+      <c r="H226" t="inlineStr"/>
+      <c r="I226" t="inlineStr"/>
+      <c r="J226" t="inlineStr"/>
+      <c r="K226" t="n">
+        <v>1</v>
+      </c>
+      <c r="L226" t="inlineStr"/>
+    </row>
+    <row r="227">
+      <c r="A227" s="1" t="n">
+        <v>225</v>
+      </c>
+      <c r="B227" t="n">
+        <v>185.4</v>
+      </c>
+      <c r="C227" t="n">
+        <v>185.4</v>
+      </c>
+      <c r="D227" t="n">
+        <v>185.4</v>
+      </c>
+      <c r="E227" t="n">
+        <v>185.4</v>
+      </c>
+      <c r="F227" t="n">
+        <v>80.5029</v>
+      </c>
+      <c r="G227" t="n">
+        <v>0</v>
+      </c>
+      <c r="H227" t="inlineStr"/>
+      <c r="I227" t="inlineStr"/>
+      <c r="J227" t="inlineStr"/>
+      <c r="K227" t="n">
+        <v>1</v>
+      </c>
+      <c r="L227" t="inlineStr"/>
+    </row>
+    <row r="228">
+      <c r="A228" s="1" t="n">
+        <v>226</v>
+      </c>
+      <c r="B228" t="n">
         <v>186</v>
       </c>
-      <c r="K226" t="inlineStr">
+      <c r="C228" t="n">
+        <v>187</v>
+      </c>
+      <c r="D228" t="n">
+        <v>187</v>
+      </c>
+      <c r="E228" t="n">
+        <v>186</v>
+      </c>
+      <c r="F228" t="n">
+        <v>5446.95582406</v>
+      </c>
+      <c r="G228" t="n">
+        <v>0</v>
+      </c>
+      <c r="H228" t="inlineStr"/>
+      <c r="I228" t="inlineStr"/>
+      <c r="J228" t="inlineStr"/>
+      <c r="K228" t="n">
+        <v>1</v>
+      </c>
+      <c r="L228" t="inlineStr"/>
+    </row>
+    <row r="229">
+      <c r="A229" s="1" t="n">
+        <v>227</v>
+      </c>
+      <c r="B229" t="n">
+        <v>187</v>
+      </c>
+      <c r="C229" t="n">
+        <v>187</v>
+      </c>
+      <c r="D229" t="n">
+        <v>187</v>
+      </c>
+      <c r="E229" t="n">
+        <v>187</v>
+      </c>
+      <c r="F229" t="n">
+        <v>21390.37433152</v>
+      </c>
+      <c r="G229" t="n">
+        <v>0</v>
+      </c>
+      <c r="H229" t="inlineStr"/>
+      <c r="I229" t="inlineStr"/>
+      <c r="J229" t="inlineStr"/>
+      <c r="K229" t="n">
+        <v>1</v>
+      </c>
+      <c r="L229" t="inlineStr"/>
+    </row>
+    <row r="230">
+      <c r="A230" s="1" t="n">
+        <v>228</v>
+      </c>
+      <c r="B230" t="n">
+        <v>187</v>
+      </c>
+      <c r="C230" t="n">
+        <v>187</v>
+      </c>
+      <c r="D230" t="n">
+        <v>187</v>
+      </c>
+      <c r="E230" t="n">
+        <v>187</v>
+      </c>
+      <c r="F230" t="n">
+        <v>5347.59358288</v>
+      </c>
+      <c r="G230" t="n">
+        <v>0</v>
+      </c>
+      <c r="H230" t="inlineStr"/>
+      <c r="I230" t="inlineStr"/>
+      <c r="J230" t="inlineStr"/>
+      <c r="K230" t="n">
+        <v>1</v>
+      </c>
+      <c r="L230" t="inlineStr"/>
+    </row>
+    <row r="231">
+      <c r="A231" s="1" t="n">
+        <v>229</v>
+      </c>
+      <c r="B231" t="n">
+        <v>187</v>
+      </c>
+      <c r="C231" t="n">
+        <v>187</v>
+      </c>
+      <c r="D231" t="n">
+        <v>187</v>
+      </c>
+      <c r="E231" t="n">
+        <v>187</v>
+      </c>
+      <c r="F231" t="n">
+        <v>5347.59358288</v>
+      </c>
+      <c r="G231" t="n">
+        <v>0</v>
+      </c>
+      <c r="H231" t="inlineStr"/>
+      <c r="I231" t="inlineStr"/>
+      <c r="J231" t="inlineStr"/>
+      <c r="K231" t="n">
+        <v>1</v>
+      </c>
+      <c r="L231" t="inlineStr"/>
+    </row>
+    <row r="232">
+      <c r="A232" s="1" t="n">
+        <v>230</v>
+      </c>
+      <c r="B232" t="n">
+        <v>187</v>
+      </c>
+      <c r="C232" t="n">
+        <v>187</v>
+      </c>
+      <c r="D232" t="n">
+        <v>187</v>
+      </c>
+      <c r="E232" t="n">
+        <v>187</v>
+      </c>
+      <c r="F232" t="n">
+        <v>9518.71657753</v>
+      </c>
+      <c r="G232" t="n">
+        <v>0</v>
+      </c>
+      <c r="H232" t="inlineStr"/>
+      <c r="I232" t="inlineStr"/>
+      <c r="J232" t="inlineStr"/>
+      <c r="K232" t="n">
+        <v>1</v>
+      </c>
+      <c r="L232" t="inlineStr"/>
+    </row>
+    <row r="233">
+      <c r="A233" s="1" t="n">
+        <v>231</v>
+      </c>
+      <c r="B233" t="n">
+        <v>185.5</v>
+      </c>
+      <c r="C233" t="n">
+        <v>185.5</v>
+      </c>
+      <c r="D233" t="n">
+        <v>185.5</v>
+      </c>
+      <c r="E233" t="n">
+        <v>185.5</v>
+      </c>
+      <c r="F233" t="n">
+        <v>3141.7771</v>
+      </c>
+      <c r="G233" t="n">
+        <v>0</v>
+      </c>
+      <c r="H233" t="inlineStr"/>
+      <c r="I233" t="inlineStr"/>
+      <c r="J233" t="inlineStr"/>
+      <c r="K233" t="n">
+        <v>1</v>
+      </c>
+      <c r="L233" t="inlineStr"/>
+    </row>
+    <row r="234">
+      <c r="A234" s="1" t="n">
+        <v>232</v>
+      </c>
+      <c r="B234" t="n">
+        <v>185.5</v>
+      </c>
+      <c r="C234" t="n">
+        <v>185.5</v>
+      </c>
+      <c r="D234" t="n">
+        <v>185.5</v>
+      </c>
+      <c r="E234" t="n">
+        <v>185.5</v>
+      </c>
+      <c r="F234" t="n">
+        <v>572.4395</v>
+      </c>
+      <c r="G234" t="n">
+        <v>0</v>
+      </c>
+      <c r="H234" t="inlineStr"/>
+      <c r="I234" t="inlineStr"/>
+      <c r="J234" t="inlineStr"/>
+      <c r="K234" t="n">
+        <v>1</v>
+      </c>
+      <c r="L234" t="inlineStr"/>
+    </row>
+    <row r="235">
+      <c r="A235" s="1" t="n">
+        <v>233</v>
+      </c>
+      <c r="B235" t="n">
+        <v>185.3</v>
+      </c>
+      <c r="C235" t="n">
+        <v>185</v>
+      </c>
+      <c r="D235" t="n">
+        <v>185.3</v>
+      </c>
+      <c r="E235" t="n">
+        <v>185</v>
+      </c>
+      <c r="F235" t="n">
+        <v>3530.4183</v>
+      </c>
+      <c r="G235" t="n">
+        <v>0</v>
+      </c>
+      <c r="H235" t="inlineStr"/>
+      <c r="I235" t="inlineStr"/>
+      <c r="J235" t="inlineStr"/>
+      <c r="K235" t="n">
+        <v>1</v>
+      </c>
+      <c r="L235" t="inlineStr"/>
+    </row>
+    <row r="236">
+      <c r="A236" s="1" t="n">
+        <v>234</v>
+      </c>
+      <c r="B236" t="n">
+        <v>185.1</v>
+      </c>
+      <c r="C236" t="n">
+        <v>184</v>
+      </c>
+      <c r="D236" t="n">
+        <v>185.1</v>
+      </c>
+      <c r="E236" t="n">
+        <v>184</v>
+      </c>
+      <c r="F236" t="n">
+        <v>19505.1451</v>
+      </c>
+      <c r="G236" t="n">
+        <v>0</v>
+      </c>
+      <c r="H236" t="inlineStr"/>
+      <c r="I236" t="inlineStr"/>
+      <c r="J236" t="inlineStr"/>
+      <c r="K236" t="n">
+        <v>1</v>
+      </c>
+      <c r="L236" t="inlineStr"/>
+    </row>
+    <row r="237">
+      <c r="A237" s="1" t="n">
+        <v>235</v>
+      </c>
+      <c r="B237" t="n">
+        <v>186.6</v>
+      </c>
+      <c r="C237" t="n">
+        <v>187</v>
+      </c>
+      <c r="D237" t="n">
+        <v>187</v>
+      </c>
+      <c r="E237" t="n">
+        <v>186.6</v>
+      </c>
+      <c r="F237" t="n">
+        <v>11500</v>
+      </c>
+      <c r="G237" t="n">
+        <v>1</v>
+      </c>
+      <c r="H237" t="n">
+        <v>184</v>
+      </c>
+      <c r="I237" t="n">
+        <v>184</v>
+      </c>
+      <c r="J237" t="inlineStr"/>
+      <c r="K237" t="n">
+        <v>1</v>
+      </c>
+      <c r="L237" t="inlineStr"/>
+    </row>
+    <row r="238">
+      <c r="A238" s="1" t="n">
+        <v>236</v>
+      </c>
+      <c r="B238" t="n">
+        <v>187</v>
+      </c>
+      <c r="C238" t="n">
+        <v>187</v>
+      </c>
+      <c r="D238" t="n">
+        <v>187</v>
+      </c>
+      <c r="E238" t="n">
+        <v>187</v>
+      </c>
+      <c r="F238" t="n">
+        <v>6</v>
+      </c>
+      <c r="G238" t="n">
+        <v>1</v>
+      </c>
+      <c r="H238" t="n">
+        <v>187</v>
+      </c>
+      <c r="I238" t="n">
+        <v>184</v>
+      </c>
+      <c r="J238" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="L226" t="n">
-        <v>1</v>
-      </c>
-      <c r="M226" t="inlineStr"/>
-    </row>
-    <row r="227">
-      <c r="A227" s="1" t="n">
-        <v>225</v>
-      </c>
-      <c r="B227" t="n">
-        <v>185.4</v>
-      </c>
-      <c r="C227" t="n">
-        <v>185.4</v>
-      </c>
-      <c r="D227" t="n">
-        <v>185.4</v>
-      </c>
-      <c r="E227" t="n">
-        <v>185.4</v>
-      </c>
-      <c r="F227" t="n">
-        <v>80.5029</v>
-      </c>
-      <c r="G227" t="n">
-        <v>-197267.1078394401</v>
-      </c>
-      <c r="H227" t="n">
-        <v>1</v>
-      </c>
-      <c r="I227" t="n">
-        <v>185.5</v>
-      </c>
-      <c r="J227" t="n">
-        <v>186</v>
-      </c>
-      <c r="K227" t="inlineStr">
+      <c r="K238" t="n">
+        <v>1</v>
+      </c>
+      <c r="L238" t="inlineStr"/>
+    </row>
+    <row r="239">
+      <c r="A239" s="1" t="n">
+        <v>237</v>
+      </c>
+      <c r="B239" t="n">
+        <v>187</v>
+      </c>
+      <c r="C239" t="n">
+        <v>188.5</v>
+      </c>
+      <c r="D239" t="n">
+        <v>188.5</v>
+      </c>
+      <c r="E239" t="n">
+        <v>187</v>
+      </c>
+      <c r="F239" t="n">
+        <v>9515.386</v>
+      </c>
+      <c r="G239" t="n">
+        <v>0</v>
+      </c>
+      <c r="H239" t="inlineStr"/>
+      <c r="I239" t="n">
+        <v>184</v>
+      </c>
+      <c r="J239" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="L227" t="n">
-        <v>1</v>
-      </c>
-      <c r="M227" t="inlineStr"/>
-    </row>
-    <row r="228">
-      <c r="A228" s="1" t="n">
-        <v>226</v>
-      </c>
-      <c r="B228" t="n">
-        <v>186</v>
-      </c>
-      <c r="C228" t="n">
+      <c r="K239" t="n">
+        <v>1</v>
+      </c>
+      <c r="L239" t="inlineStr"/>
+    </row>
+    <row r="240">
+      <c r="A240" s="1" t="n">
+        <v>238</v>
+      </c>
+      <c r="B240" t="n">
+        <v>187.1</v>
+      </c>
+      <c r="C240" t="n">
         <v>187</v>
       </c>
-      <c r="D228" t="n">
+      <c r="D240" t="n">
+        <v>187.1</v>
+      </c>
+      <c r="E240" t="n">
         <v>187</v>
       </c>
-      <c r="E228" t="n">
-        <v>186</v>
-      </c>
-      <c r="F228" t="n">
-        <v>5446.95582406</v>
-      </c>
-      <c r="G228" t="n">
-        <v>-191820.1520153801</v>
-      </c>
-      <c r="H228" t="n">
-        <v>1</v>
-      </c>
-      <c r="I228" t="n">
-        <v>185.4</v>
-      </c>
-      <c r="J228" t="n">
-        <v>185.4</v>
-      </c>
-      <c r="K228" t="inlineStr"/>
-      <c r="L228" t="n">
-        <v>1</v>
-      </c>
-      <c r="M228" t="inlineStr"/>
-    </row>
-    <row r="229">
-      <c r="A229" s="1" t="n">
-        <v>227</v>
-      </c>
-      <c r="B229" t="n">
-        <v>187</v>
-      </c>
-      <c r="C229" t="n">
-        <v>187</v>
-      </c>
-      <c r="D229" t="n">
-        <v>187</v>
-      </c>
-      <c r="E229" t="n">
-        <v>187</v>
-      </c>
-      <c r="F229" t="n">
-        <v>21390.37433152</v>
-      </c>
-      <c r="G229" t="n">
-        <v>-191820.1520153801</v>
-      </c>
-      <c r="H229" t="n">
-        <v>1</v>
-      </c>
-      <c r="I229" t="n">
-        <v>187</v>
-      </c>
-      <c r="J229" t="n">
-        <v>185.4</v>
-      </c>
-      <c r="K229" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L229" t="n">
-        <v>1</v>
-      </c>
-      <c r="M229" t="inlineStr"/>
-    </row>
-    <row r="230">
-      <c r="A230" s="1" t="n">
-        <v>228</v>
-      </c>
-      <c r="B230" t="n">
-        <v>187</v>
-      </c>
-      <c r="C230" t="n">
-        <v>187</v>
-      </c>
-      <c r="D230" t="n">
-        <v>187</v>
-      </c>
-      <c r="E230" t="n">
-        <v>187</v>
-      </c>
-      <c r="F230" t="n">
-        <v>5347.59358288</v>
-      </c>
-      <c r="G230" t="n">
-        <v>-191820.1520153801</v>
-      </c>
-      <c r="H230" t="n">
-        <v>0</v>
-      </c>
-      <c r="I230" t="inlineStr"/>
-      <c r="J230" t="n">
-        <v>185.4</v>
-      </c>
-      <c r="K230" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L230" t="n">
-        <v>1</v>
-      </c>
-      <c r="M230" t="inlineStr"/>
-    </row>
-    <row r="231">
-      <c r="A231" s="1" t="n">
-        <v>229</v>
-      </c>
-      <c r="B231" t="n">
-        <v>187</v>
-      </c>
-      <c r="C231" t="n">
-        <v>187</v>
-      </c>
-      <c r="D231" t="n">
-        <v>187</v>
-      </c>
-      <c r="E231" t="n">
-        <v>187</v>
-      </c>
-      <c r="F231" t="n">
-        <v>5347.59358288</v>
-      </c>
-      <c r="G231" t="n">
-        <v>-191820.1520153801</v>
-      </c>
-      <c r="H231" t="n">
-        <v>0</v>
-      </c>
-      <c r="I231" t="inlineStr"/>
-      <c r="J231" t="inlineStr"/>
-      <c r="K231" t="inlineStr"/>
-      <c r="L231" t="n">
-        <v>1</v>
-      </c>
-      <c r="M231" t="inlineStr"/>
-    </row>
-    <row r="232">
-      <c r="A232" s="1" t="n">
-        <v>230</v>
-      </c>
-      <c r="B232" t="n">
-        <v>187</v>
-      </c>
-      <c r="C232" t="n">
-        <v>187</v>
-      </c>
-      <c r="D232" t="n">
-        <v>187</v>
-      </c>
-      <c r="E232" t="n">
-        <v>187</v>
-      </c>
-      <c r="F232" t="n">
-        <v>9518.71657753</v>
-      </c>
-      <c r="G232" t="n">
-        <v>-191820.1520153801</v>
-      </c>
-      <c r="H232" t="n">
-        <v>0</v>
-      </c>
-      <c r="I232" t="inlineStr"/>
-      <c r="J232" t="inlineStr"/>
-      <c r="K232" t="inlineStr"/>
-      <c r="L232" t="n">
-        <v>1</v>
-      </c>
-      <c r="M232" t="inlineStr"/>
-    </row>
-    <row r="233">
-      <c r="A233" s="1" t="n">
-        <v>231</v>
-      </c>
-      <c r="B233" t="n">
-        <v>185.5</v>
-      </c>
-      <c r="C233" t="n">
-        <v>185.5</v>
-      </c>
-      <c r="D233" t="n">
-        <v>185.5</v>
-      </c>
-      <c r="E233" t="n">
-        <v>185.5</v>
-      </c>
-      <c r="F233" t="n">
-        <v>3141.7771</v>
-      </c>
-      <c r="G233" t="n">
-        <v>-194961.9291153801</v>
-      </c>
-      <c r="H233" t="n">
-        <v>0</v>
-      </c>
-      <c r="I233" t="inlineStr"/>
-      <c r="J233" t="inlineStr"/>
-      <c r="K233" t="inlineStr"/>
-      <c r="L233" t="n">
-        <v>1</v>
-      </c>
-      <c r="M233" t="inlineStr"/>
-    </row>
-    <row r="234">
-      <c r="A234" s="1" t="n">
-        <v>232</v>
-      </c>
-      <c r="B234" t="n">
-        <v>185.5</v>
-      </c>
-      <c r="C234" t="n">
-        <v>185.5</v>
-      </c>
-      <c r="D234" t="n">
-        <v>185.5</v>
-      </c>
-      <c r="E234" t="n">
-        <v>185.5</v>
-      </c>
-      <c r="F234" t="n">
-        <v>572.4395</v>
-      </c>
-      <c r="G234" t="n">
-        <v>-194961.9291153801</v>
-      </c>
-      <c r="H234" t="n">
-        <v>0</v>
-      </c>
-      <c r="I234" t="inlineStr"/>
-      <c r="J234" t="inlineStr"/>
-      <c r="K234" t="inlineStr"/>
-      <c r="L234" t="n">
-        <v>1</v>
-      </c>
-      <c r="M234" t="inlineStr"/>
-    </row>
-    <row r="235">
-      <c r="A235" s="1" t="n">
-        <v>233</v>
-      </c>
-      <c r="B235" t="n">
-        <v>185.3</v>
-      </c>
-      <c r="C235" t="n">
-        <v>185</v>
-      </c>
-      <c r="D235" t="n">
-        <v>185.3</v>
-      </c>
-      <c r="E235" t="n">
-        <v>185</v>
-      </c>
-      <c r="F235" t="n">
-        <v>3530.4183</v>
-      </c>
-      <c r="G235" t="n">
-        <v>-198492.3474153801</v>
-      </c>
-      <c r="H235" t="n">
-        <v>0</v>
-      </c>
-      <c r="I235" t="inlineStr"/>
-      <c r="J235" t="inlineStr"/>
-      <c r="K235" t="inlineStr"/>
-      <c r="L235" t="n">
-        <v>1</v>
-      </c>
-      <c r="M235" t="inlineStr"/>
-    </row>
-    <row r="236">
-      <c r="A236" s="1" t="n">
-        <v>234</v>
-      </c>
-      <c r="B236" t="n">
-        <v>185.1</v>
-      </c>
-      <c r="C236" t="n">
+      <c r="F240" t="n">
+        <v>1328.528</v>
+      </c>
+      <c r="G240" t="n">
+        <v>1</v>
+      </c>
+      <c r="H240" t="n">
+        <v>188.5</v>
+      </c>
+      <c r="I240" t="n">
         <v>184</v>
       </c>
-      <c r="D236" t="n">
-        <v>185.1</v>
-      </c>
-      <c r="E236" t="n">
-        <v>184</v>
-      </c>
-      <c r="F236" t="n">
-        <v>19505.1451</v>
-      </c>
-      <c r="G236" t="n">
-        <v>-217997.4925153801</v>
-      </c>
-      <c r="H236" t="n">
-        <v>1</v>
-      </c>
-      <c r="I236" t="n">
-        <v>185</v>
-      </c>
-      <c r="J236" t="inlineStr"/>
-      <c r="K236" t="inlineStr">
+      <c r="J240" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="L236" t="n">
-        <v>1</v>
-      </c>
-      <c r="M236" t="inlineStr"/>
-    </row>
-    <row r="237">
-      <c r="A237" s="1" t="n">
-        <v>235</v>
-      </c>
-      <c r="B237" t="n">
-        <v>186.6</v>
-      </c>
-      <c r="C237" t="n">
+      <c r="K240" t="n">
+        <v>1</v>
+      </c>
+      <c r="L240" t="inlineStr"/>
+    </row>
+    <row r="241">
+      <c r="A241" s="1" t="n">
+        <v>239</v>
+      </c>
+      <c r="B241" t="n">
         <v>187</v>
       </c>
-      <c r="D237" t="n">
+      <c r="C241" t="n">
+        <v>188</v>
+      </c>
+      <c r="D241" t="n">
+        <v>188</v>
+      </c>
+      <c r="E241" t="n">
         <v>187</v>
       </c>
-      <c r="E237" t="n">
-        <v>186.6</v>
-      </c>
-      <c r="F237" t="n">
-        <v>11500</v>
-      </c>
-      <c r="G237" t="n">
-        <v>-206497.4925153801</v>
-      </c>
-      <c r="H237" t="n">
-        <v>0</v>
-      </c>
-      <c r="I237" t="inlineStr"/>
-      <c r="J237" t="inlineStr"/>
-      <c r="K237" t="inlineStr">
+      <c r="F241" t="n">
+        <v>2629.84974468</v>
+      </c>
+      <c r="G241" t="n">
+        <v>0</v>
+      </c>
+      <c r="H241" t="inlineStr"/>
+      <c r="I241" t="n">
+        <v>184</v>
+      </c>
+      <c r="J241" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L237" t="n">
-        <v>1</v>
-      </c>
-      <c r="M237" t="inlineStr"/>
-    </row>
-    <row r="238">
-      <c r="A238" s="1" t="n">
-        <v>236</v>
-      </c>
-      <c r="B238" t="n">
-        <v>187</v>
-      </c>
-      <c r="C238" t="n">
-        <v>187</v>
-      </c>
-      <c r="D238" t="n">
-        <v>187</v>
-      </c>
-      <c r="E238" t="n">
-        <v>187</v>
-      </c>
-      <c r="F238" t="n">
-        <v>6</v>
-      </c>
-      <c r="G238" t="n">
-        <v>-206497.4925153801</v>
-      </c>
-      <c r="H238" t="n">
-        <v>0</v>
-      </c>
-      <c r="I238" t="inlineStr"/>
-      <c r="J238" t="inlineStr"/>
-      <c r="K238" t="inlineStr">
+      <c r="K241" t="n">
+        <v>1</v>
+      </c>
+      <c r="L241" t="inlineStr"/>
+    </row>
+    <row r="242">
+      <c r="A242" s="1" t="n">
+        <v>240</v>
+      </c>
+      <c r="B242" t="n">
+        <v>186</v>
+      </c>
+      <c r="C242" t="n">
+        <v>186</v>
+      </c>
+      <c r="D242" t="n">
+        <v>186</v>
+      </c>
+      <c r="E242" t="n">
+        <v>186</v>
+      </c>
+      <c r="F242" t="n">
+        <v>547.196</v>
+      </c>
+      <c r="G242" t="n">
+        <v>0</v>
+      </c>
+      <c r="H242" t="inlineStr"/>
+      <c r="I242" t="n">
+        <v>184</v>
+      </c>
+      <c r="J242" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L238" t="n">
-        <v>1</v>
-      </c>
-      <c r="M238" t="inlineStr"/>
-    </row>
-    <row r="239">
-      <c r="A239" s="1" t="n">
-        <v>237</v>
-      </c>
-      <c r="B239" t="n">
-        <v>187</v>
-      </c>
-      <c r="C239" t="n">
-        <v>188.5</v>
-      </c>
-      <c r="D239" t="n">
-        <v>188.5</v>
-      </c>
-      <c r="E239" t="n">
-        <v>187</v>
-      </c>
-      <c r="F239" t="n">
-        <v>9515.386</v>
-      </c>
-      <c r="G239" t="n">
-        <v>-196982.1065153801</v>
-      </c>
-      <c r="H239" t="n">
-        <v>0</v>
-      </c>
-      <c r="I239" t="inlineStr"/>
-      <c r="J239" t="inlineStr"/>
-      <c r="K239" t="inlineStr">
+      <c r="K242" t="n">
+        <v>1</v>
+      </c>
+      <c r="L242" t="inlineStr"/>
+    </row>
+    <row r="243">
+      <c r="A243" s="1" t="n">
+        <v>241</v>
+      </c>
+      <c r="B243" t="n">
+        <v>186</v>
+      </c>
+      <c r="C243" t="n">
+        <v>186</v>
+      </c>
+      <c r="D243" t="n">
+        <v>186</v>
+      </c>
+      <c r="E243" t="n">
+        <v>186</v>
+      </c>
+      <c r="F243" t="n">
+        <v>461.999</v>
+      </c>
+      <c r="G243" t="n">
+        <v>1</v>
+      </c>
+      <c r="H243" t="n">
+        <v>186</v>
+      </c>
+      <c r="I243" t="n">
+        <v>184</v>
+      </c>
+      <c r="J243" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L239" t="n">
-        <v>1</v>
-      </c>
-      <c r="M239" t="inlineStr"/>
-    </row>
-    <row r="240">
-      <c r="A240" s="1" t="n">
-        <v>238</v>
-      </c>
-      <c r="B240" t="n">
-        <v>187.1</v>
-      </c>
-      <c r="C240" t="n">
-        <v>187</v>
-      </c>
-      <c r="D240" t="n">
-        <v>187.1</v>
-      </c>
-      <c r="E240" t="n">
-        <v>187</v>
-      </c>
-      <c r="F240" t="n">
-        <v>1328.528</v>
-      </c>
-      <c r="G240" t="n">
-        <v>-198310.6345153801</v>
-      </c>
-      <c r="H240" t="n">
-        <v>0</v>
-      </c>
-      <c r="I240" t="inlineStr"/>
-      <c r="J240" t="inlineStr"/>
-      <c r="K240" t="inlineStr">
+      <c r="K243" t="n">
+        <v>1</v>
+      </c>
+      <c r="L243" t="inlineStr"/>
+    </row>
+    <row r="244">
+      <c r="A244" s="1" t="n">
+        <v>242</v>
+      </c>
+      <c r="B244" t="n">
+        <v>186</v>
+      </c>
+      <c r="C244" t="n">
+        <v>186</v>
+      </c>
+      <c r="D244" t="n">
+        <v>186</v>
+      </c>
+      <c r="E244" t="n">
+        <v>186</v>
+      </c>
+      <c r="F244" t="n">
+        <v>726.654</v>
+      </c>
+      <c r="G244" t="n">
+        <v>1</v>
+      </c>
+      <c r="H244" t="n">
+        <v>186</v>
+      </c>
+      <c r="I244" t="n">
+        <v>184</v>
+      </c>
+      <c r="J244" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L240" t="n">
-        <v>1</v>
-      </c>
-      <c r="M240" t="inlineStr"/>
-    </row>
-    <row r="241">
-      <c r="A241" s="1" t="n">
-        <v>239</v>
-      </c>
-      <c r="B241" t="n">
-        <v>187</v>
-      </c>
-      <c r="C241" t="n">
-        <v>188</v>
-      </c>
-      <c r="D241" t="n">
-        <v>188</v>
-      </c>
-      <c r="E241" t="n">
-        <v>187</v>
-      </c>
-      <c r="F241" t="n">
-        <v>2629.84974468</v>
-      </c>
-      <c r="G241" t="n">
-        <v>-195680.7847707001</v>
-      </c>
-      <c r="H241" t="n">
-        <v>0</v>
-      </c>
-      <c r="I241" t="inlineStr"/>
-      <c r="J241" t="inlineStr"/>
-      <c r="K241" t="inlineStr">
+      <c r="K244" t="n">
+        <v>1</v>
+      </c>
+      <c r="L244" t="inlineStr"/>
+    </row>
+    <row r="245">
+      <c r="A245" s="1" t="n">
+        <v>243</v>
+      </c>
+      <c r="B245" t="n">
+        <v>186.4</v>
+      </c>
+      <c r="C245" t="n">
+        <v>186.4</v>
+      </c>
+      <c r="D245" t="n">
+        <v>186.4</v>
+      </c>
+      <c r="E245" t="n">
+        <v>186.4</v>
+      </c>
+      <c r="F245" t="n">
+        <v>360.0871</v>
+      </c>
+      <c r="G245" t="n">
+        <v>1</v>
+      </c>
+      <c r="H245" t="n">
+        <v>186</v>
+      </c>
+      <c r="I245" t="n">
+        <v>184</v>
+      </c>
+      <c r="J245" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L241" t="n">
-        <v>1</v>
-      </c>
-      <c r="M241" t="inlineStr"/>
-    </row>
-    <row r="242">
-      <c r="A242" s="1" t="n">
-        <v>240</v>
-      </c>
-      <c r="B242" t="n">
-        <v>186</v>
-      </c>
-      <c r="C242" t="n">
-        <v>186</v>
-      </c>
-      <c r="D242" t="n">
-        <v>186</v>
-      </c>
-      <c r="E242" t="n">
-        <v>186</v>
-      </c>
-      <c r="F242" t="n">
-        <v>547.196</v>
-      </c>
-      <c r="G242" t="n">
-        <v>-196227.9807707001</v>
-      </c>
-      <c r="H242" t="n">
-        <v>0</v>
-      </c>
-      <c r="I242" t="inlineStr"/>
-      <c r="J242" t="inlineStr"/>
-      <c r="K242" t="inlineStr">
+      <c r="K245" t="n">
+        <v>1</v>
+      </c>
+      <c r="L245" t="inlineStr"/>
+    </row>
+    <row r="246">
+      <c r="A246" s="1" t="n">
+        <v>244</v>
+      </c>
+      <c r="B246" t="n">
+        <v>186.2</v>
+      </c>
+      <c r="C246" t="n">
+        <v>186.2</v>
+      </c>
+      <c r="D246" t="n">
+        <v>186.2</v>
+      </c>
+      <c r="E246" t="n">
+        <v>186.2</v>
+      </c>
+      <c r="F246" t="n">
+        <v>128.2355</v>
+      </c>
+      <c r="G246" t="n">
+        <v>1</v>
+      </c>
+      <c r="H246" t="n">
+        <v>186.4</v>
+      </c>
+      <c r="I246" t="n">
+        <v>184</v>
+      </c>
+      <c r="J246" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L242" t="n">
-        <v>1</v>
-      </c>
-      <c r="M242" t="inlineStr"/>
-    </row>
-    <row r="243">
-      <c r="A243" s="1" t="n">
-        <v>241</v>
-      </c>
-      <c r="B243" t="n">
-        <v>186</v>
-      </c>
-      <c r="C243" t="n">
-        <v>186</v>
-      </c>
-      <c r="D243" t="n">
-        <v>186</v>
-      </c>
-      <c r="E243" t="n">
-        <v>186</v>
-      </c>
-      <c r="F243" t="n">
-        <v>461.999</v>
-      </c>
-      <c r="G243" t="n">
-        <v>-196227.9807707001</v>
-      </c>
-      <c r="H243" t="n">
-        <v>0</v>
-      </c>
-      <c r="I243" t="inlineStr"/>
-      <c r="J243" t="inlineStr"/>
-      <c r="K243" t="inlineStr">
+      <c r="K246" t="n">
+        <v>1</v>
+      </c>
+      <c r="L246" t="inlineStr"/>
+    </row>
+    <row r="247">
+      <c r="A247" s="1" t="n">
+        <v>245</v>
+      </c>
+      <c r="B247" t="n">
+        <v>186.2</v>
+      </c>
+      <c r="C247" t="n">
+        <v>186.2</v>
+      </c>
+      <c r="D247" t="n">
+        <v>186.2</v>
+      </c>
+      <c r="E247" t="n">
+        <v>186.2</v>
+      </c>
+      <c r="F247" t="n">
+        <v>2613.0141</v>
+      </c>
+      <c r="G247" t="n">
+        <v>0</v>
+      </c>
+      <c r="H247" t="inlineStr"/>
+      <c r="I247" t="n">
+        <v>184</v>
+      </c>
+      <c r="J247" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L243" t="n">
-        <v>1</v>
-      </c>
-      <c r="M243" t="inlineStr"/>
-    </row>
-    <row r="244">
-      <c r="A244" s="1" t="n">
-        <v>242</v>
-      </c>
-      <c r="B244" t="n">
+      <c r="K247" t="n">
+        <v>1</v>
+      </c>
+      <c r="L247" t="inlineStr"/>
+    </row>
+    <row r="248">
+      <c r="A248" s="1" t="n">
+        <v>246</v>
+      </c>
+      <c r="B248" t="n">
         <v>186</v>
       </c>
-      <c r="C244" t="n">
+      <c r="C248" t="n">
+        <v>186.2</v>
+      </c>
+      <c r="D248" t="n">
+        <v>186.2</v>
+      </c>
+      <c r="E248" t="n">
         <v>186</v>
       </c>
-      <c r="D244" t="n">
-        <v>186</v>
-      </c>
-      <c r="E244" t="n">
-        <v>186</v>
-      </c>
-      <c r="F244" t="n">
-        <v>726.654</v>
-      </c>
-      <c r="G244" t="n">
-        <v>-196227.9807707001</v>
-      </c>
-      <c r="H244" t="n">
-        <v>0</v>
-      </c>
-      <c r="I244" t="inlineStr"/>
-      <c r="J244" t="inlineStr"/>
-      <c r="K244" t="inlineStr">
+      <c r="F248" t="n">
+        <v>2676.642</v>
+      </c>
+      <c r="G248" t="n">
+        <v>0</v>
+      </c>
+      <c r="H248" t="inlineStr"/>
+      <c r="I248" t="n">
+        <v>184</v>
+      </c>
+      <c r="J248" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L244" t="n">
-        <v>1</v>
-      </c>
-      <c r="M244" t="inlineStr"/>
-    </row>
-    <row r="245">
-      <c r="A245" s="1" t="n">
-        <v>243</v>
-      </c>
-      <c r="B245" t="n">
-        <v>186.4</v>
-      </c>
-      <c r="C245" t="n">
-        <v>186.4</v>
-      </c>
-      <c r="D245" t="n">
-        <v>186.4</v>
-      </c>
-      <c r="E245" t="n">
-        <v>186.4</v>
-      </c>
-      <c r="F245" t="n">
-        <v>360.0871</v>
-      </c>
-      <c r="G245" t="n">
-        <v>-195867.8936707001</v>
-      </c>
-      <c r="H245" t="n">
-        <v>0</v>
-      </c>
-      <c r="I245" t="inlineStr"/>
-      <c r="J245" t="inlineStr"/>
-      <c r="K245" t="inlineStr">
+      <c r="K248" t="n">
+        <v>1</v>
+      </c>
+      <c r="L248" t="inlineStr"/>
+    </row>
+    <row r="249">
+      <c r="A249" s="1" t="n">
+        <v>247</v>
+      </c>
+      <c r="B249" t="n">
+        <v>186.1</v>
+      </c>
+      <c r="C249" t="n">
+        <v>186.2</v>
+      </c>
+      <c r="D249" t="n">
+        <v>186.2</v>
+      </c>
+      <c r="E249" t="n">
+        <v>186.1</v>
+      </c>
+      <c r="F249" t="n">
+        <v>1700</v>
+      </c>
+      <c r="G249" t="n">
+        <v>0</v>
+      </c>
+      <c r="H249" t="inlineStr"/>
+      <c r="I249" t="n">
+        <v>184</v>
+      </c>
+      <c r="J249" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L245" t="n">
-        <v>1</v>
-      </c>
-      <c r="M245" t="inlineStr"/>
-    </row>
-    <row r="246">
-      <c r="A246" s="1" t="n">
-        <v>244</v>
-      </c>
-      <c r="B246" t="n">
+      <c r="K249" t="n">
+        <v>1</v>
+      </c>
+      <c r="L249" t="inlineStr"/>
+    </row>
+    <row r="250">
+      <c r="A250" s="1" t="n">
+        <v>248</v>
+      </c>
+      <c r="B250" t="n">
         <v>186.2</v>
       </c>
-      <c r="C246" t="n">
+      <c r="C250" t="n">
         <v>186.2</v>
       </c>
-      <c r="D246" t="n">
+      <c r="D250" t="n">
         <v>186.2</v>
       </c>
-      <c r="E246" t="n">
+      <c r="E250" t="n">
         <v>186.2</v>
       </c>
-      <c r="F246" t="n">
-        <v>128.2355</v>
-      </c>
-      <c r="G246" t="n">
-        <v>-195996.1291707001</v>
-      </c>
-      <c r="H246" t="n">
-        <v>0</v>
-      </c>
-      <c r="I246" t="inlineStr"/>
-      <c r="J246" t="inlineStr"/>
-      <c r="K246" t="inlineStr">
+      <c r="F250" t="n">
+        <v>122.5035</v>
+      </c>
+      <c r="G250" t="n">
+        <v>0</v>
+      </c>
+      <c r="H250" t="inlineStr"/>
+      <c r="I250" t="n">
+        <v>184</v>
+      </c>
+      <c r="J250" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L246" t="n">
-        <v>1</v>
-      </c>
-      <c r="M246" t="inlineStr"/>
-    </row>
-    <row r="247">
-      <c r="A247" s="1" t="n">
-        <v>245</v>
-      </c>
-      <c r="B247" t="n">
+      <c r="K250" t="n">
+        <v>1</v>
+      </c>
+      <c r="L250" t="inlineStr"/>
+    </row>
+    <row r="251">
+      <c r="A251" s="1" t="n">
+        <v>249</v>
+      </c>
+      <c r="B251" t="n">
         <v>186.2</v>
       </c>
-      <c r="C247" t="n">
+      <c r="C251" t="n">
         <v>186.2</v>
       </c>
-      <c r="D247" t="n">
+      <c r="D251" t="n">
         <v>186.2</v>
       </c>
-      <c r="E247" t="n">
+      <c r="E251" t="n">
         <v>186.2</v>
       </c>
-      <c r="F247" t="n">
-        <v>2613.0141</v>
-      </c>
-      <c r="G247" t="n">
-        <v>-195996.1291707001</v>
-      </c>
-      <c r="H247" t="n">
-        <v>0</v>
-      </c>
-      <c r="I247" t="inlineStr"/>
-      <c r="J247" t="inlineStr"/>
-      <c r="K247" t="inlineStr">
+      <c r="F251" t="n">
+        <v>98.4203</v>
+      </c>
+      <c r="G251" t="n">
+        <v>1</v>
+      </c>
+      <c r="H251" t="n">
+        <v>186.2</v>
+      </c>
+      <c r="I251" t="n">
+        <v>184</v>
+      </c>
+      <c r="J251" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L247" t="n">
-        <v>1</v>
-      </c>
-      <c r="M247" t="inlineStr"/>
-    </row>
-    <row r="248">
-      <c r="A248" s="1" t="n">
-        <v>246</v>
-      </c>
-      <c r="B248" t="n">
-        <v>186</v>
-      </c>
-      <c r="C248" t="n">
+      <c r="K251" t="n">
+        <v>1</v>
+      </c>
+      <c r="L251" t="inlineStr"/>
+    </row>
+    <row r="252">
+      <c r="A252" s="1" t="n">
+        <v>250</v>
+      </c>
+      <c r="B252" t="n">
         <v>186.2</v>
       </c>
-      <c r="D248" t="n">
+      <c r="C252" t="n">
         <v>186.2</v>
       </c>
-      <c r="E248" t="n">
-        <v>186</v>
-      </c>
-      <c r="F248" t="n">
-        <v>2676.642</v>
-      </c>
-      <c r="G248" t="n">
-        <v>-195996.1291707001</v>
-      </c>
-      <c r="H248" t="n">
-        <v>0</v>
-      </c>
-      <c r="I248" t="inlineStr"/>
-      <c r="J248" t="inlineStr"/>
-      <c r="K248" t="inlineStr">
+      <c r="D252" t="n">
+        <v>186.2</v>
+      </c>
+      <c r="E252" t="n">
+        <v>186.2</v>
+      </c>
+      <c r="F252" t="n">
+        <v>1220</v>
+      </c>
+      <c r="G252" t="n">
+        <v>1</v>
+      </c>
+      <c r="H252" t="n">
+        <v>186.2</v>
+      </c>
+      <c r="I252" t="n">
+        <v>184</v>
+      </c>
+      <c r="J252" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L248" t="n">
-        <v>1</v>
-      </c>
-      <c r="M248" t="inlineStr"/>
-    </row>
-    <row r="249">
-      <c r="A249" s="1" t="n">
-        <v>247</v>
-      </c>
-      <c r="B249" t="n">
-        <v>186.1</v>
-      </c>
-      <c r="C249" t="n">
+      <c r="K252" t="n">
+        <v>1</v>
+      </c>
+      <c r="L252" t="inlineStr"/>
+    </row>
+    <row r="253">
+      <c r="A253" s="1" t="n">
+        <v>251</v>
+      </c>
+      <c r="B253" t="n">
         <v>186.2</v>
       </c>
-      <c r="D249" t="n">
+      <c r="C253" t="n">
         <v>186.2</v>
       </c>
-      <c r="E249" t="n">
-        <v>186.1</v>
-      </c>
-      <c r="F249" t="n">
+      <c r="D253" t="n">
+        <v>186.2</v>
+      </c>
+      <c r="E253" t="n">
+        <v>186.2</v>
+      </c>
+      <c r="F253" t="n">
         <v>1700</v>
       </c>
-      <c r="G249" t="n">
-        <v>-195996.1291707001</v>
-      </c>
-      <c r="H249" t="n">
-        <v>1</v>
-      </c>
-      <c r="I249" t="n">
+      <c r="G253" t="n">
+        <v>1</v>
+      </c>
+      <c r="H253" t="n">
         <v>186.2</v>
       </c>
-      <c r="J249" t="inlineStr"/>
-      <c r="K249" t="inlineStr">
+      <c r="I253" t="n">
+        <v>184</v>
+      </c>
+      <c r="J253" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L249" t="n">
-        <v>1</v>
-      </c>
-      <c r="M249" t="inlineStr"/>
-    </row>
-    <row r="250">
-      <c r="A250" s="1" t="n">
-        <v>248</v>
-      </c>
-      <c r="B250" t="n">
+      <c r="K253" t="n">
+        <v>1</v>
+      </c>
+      <c r="L253" t="inlineStr"/>
+    </row>
+    <row r="254">
+      <c r="A254" s="1" t="n">
+        <v>252</v>
+      </c>
+      <c r="B254" t="n">
         <v>186.2</v>
       </c>
-      <c r="C250" t="n">
+      <c r="C254" t="n">
         <v>186.2</v>
       </c>
-      <c r="D250" t="n">
+      <c r="D254" t="n">
         <v>186.2</v>
       </c>
-      <c r="E250" t="n">
+      <c r="E254" t="n">
         <v>186.2</v>
       </c>
-      <c r="F250" t="n">
-        <v>122.5035</v>
-      </c>
-      <c r="G250" t="n">
-        <v>-195996.1291707001</v>
-      </c>
-      <c r="H250" t="n">
-        <v>1</v>
-      </c>
-      <c r="I250" t="n">
-        <v>186.2</v>
-      </c>
-      <c r="J250" t="inlineStr"/>
-      <c r="K250" t="inlineStr">
+      <c r="F254" t="n">
+        <v>8927.824000000001</v>
+      </c>
+      <c r="G254" t="n">
+        <v>0</v>
+      </c>
+      <c r="H254" t="inlineStr"/>
+      <c r="I254" t="n">
+        <v>184</v>
+      </c>
+      <c r="J254" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L250" t="n">
-        <v>1</v>
-      </c>
-      <c r="M250" t="inlineStr"/>
-    </row>
-    <row r="251">
-      <c r="A251" s="1" t="n">
-        <v>249</v>
-      </c>
-      <c r="B251" t="n">
-        <v>186.2</v>
-      </c>
-      <c r="C251" t="n">
-        <v>186.2</v>
-      </c>
-      <c r="D251" t="n">
-        <v>186.2</v>
-      </c>
-      <c r="E251" t="n">
-        <v>186.2</v>
-      </c>
-      <c r="F251" t="n">
-        <v>98.4203</v>
-      </c>
-      <c r="G251" t="n">
-        <v>-195996.1291707001</v>
-      </c>
-      <c r="H251" t="n">
-        <v>1</v>
-      </c>
-      <c r="I251" t="n">
-        <v>186.2</v>
-      </c>
-      <c r="J251" t="inlineStr"/>
-      <c r="K251" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L251" t="n">
-        <v>1</v>
-      </c>
-      <c r="M251" t="inlineStr"/>
-    </row>
-    <row r="252">
-      <c r="A252" s="1" t="n">
-        <v>250</v>
-      </c>
-      <c r="B252" t="n">
-        <v>186.2</v>
-      </c>
-      <c r="C252" t="n">
-        <v>186.2</v>
-      </c>
-      <c r="D252" t="n">
-        <v>186.2</v>
-      </c>
-      <c r="E252" t="n">
-        <v>186.2</v>
-      </c>
-      <c r="F252" t="n">
-        <v>1220</v>
-      </c>
-      <c r="G252" t="n">
-        <v>-195996.1291707001</v>
-      </c>
-      <c r="H252" t="n">
-        <v>1</v>
-      </c>
-      <c r="I252" t="n">
-        <v>186.2</v>
-      </c>
-      <c r="J252" t="inlineStr"/>
-      <c r="K252" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L252" t="n">
-        <v>1</v>
-      </c>
-      <c r="M252" t="inlineStr"/>
-    </row>
-    <row r="253">
-      <c r="A253" s="1" t="n">
-        <v>251</v>
-      </c>
-      <c r="B253" t="n">
-        <v>186.2</v>
-      </c>
-      <c r="C253" t="n">
-        <v>186.2</v>
-      </c>
-      <c r="D253" t="n">
-        <v>186.2</v>
-      </c>
-      <c r="E253" t="n">
-        <v>186.2</v>
-      </c>
-      <c r="F253" t="n">
-        <v>1700</v>
-      </c>
-      <c r="G253" t="n">
-        <v>-195996.1291707001</v>
-      </c>
-      <c r="H253" t="n">
-        <v>1</v>
-      </c>
-      <c r="I253" t="n">
-        <v>186.2</v>
-      </c>
-      <c r="J253" t="inlineStr"/>
-      <c r="K253" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L253" t="n">
-        <v>1</v>
-      </c>
-      <c r="M253" t="inlineStr"/>
-    </row>
-    <row r="254">
-      <c r="A254" s="1" t="n">
-        <v>252</v>
-      </c>
-      <c r="B254" t="n">
-        <v>186.2</v>
-      </c>
-      <c r="C254" t="n">
-        <v>186.2</v>
-      </c>
-      <c r="D254" t="n">
-        <v>186.2</v>
-      </c>
-      <c r="E254" t="n">
-        <v>186.2</v>
-      </c>
-      <c r="F254" t="n">
-        <v>8927.824000000001</v>
-      </c>
-      <c r="G254" t="n">
-        <v>-195996.1291707001</v>
-      </c>
-      <c r="H254" t="n">
-        <v>1</v>
-      </c>
-      <c r="I254" t="n">
-        <v>186.2</v>
-      </c>
-      <c r="J254" t="inlineStr"/>
-      <c r="K254" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L254" t="n">
-        <v>1</v>
-      </c>
-      <c r="M254" t="inlineStr"/>
+      <c r="K254" t="n">
+        <v>1</v>
+      </c>
+      <c r="L254" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
